--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6794" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6802" uniqueCount="246">
   <si>
     <t>dispositif</t>
   </si>
@@ -1109,7 +1109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J849"/>
+  <dimension ref="A1:J850"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>9076</v>
+        <v>9159</v>
       </c>
       <c r="D2">
-        <v>11617973</v>
+        <v>11719977</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1219,10 +1219,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>39000</v>
+        <v>40500</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1251,10 +1251,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>3804</v>
+        <v>3855</v>
       </c>
       <c r="D5">
-        <v>5614138</v>
+        <v>5686533</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1315,10 +1315,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>1884</v>
+        <v>1911</v>
       </c>
       <c r="D7">
-        <v>2740904</v>
+        <v>2778470</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1347,10 +1347,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>134786</v>
+        <v>137786</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1443,10 +1443,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>6320</v>
+        <v>6366</v>
       </c>
       <c r="D11">
-        <v>8047329</v>
+        <v>8107642</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1507,10 +1507,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>32633</v>
+        <v>34133</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1539,10 +1539,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>2058</v>
+        <v>2081</v>
       </c>
       <c r="D14">
-        <v>3027469</v>
+        <v>3060629</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1603,10 +1603,10 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="D16">
-        <v>1234710</v>
+        <v>1243710</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1699,10 +1699,10 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>8320</v>
+        <v>8386</v>
       </c>
       <c r="D19">
-        <v>10403913</v>
+        <v>10477253</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1763,10 +1763,10 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>25179</v>
+        <v>26679</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -1795,10 +1795,10 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>3050</v>
+        <v>3087</v>
       </c>
       <c r="D22">
-        <v>4498575</v>
+        <v>4552893</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1859,10 +1859,10 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>991</v>
+        <v>1007</v>
       </c>
       <c r="D24">
-        <v>1429258</v>
+        <v>1452561</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -1891,10 +1891,10 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D25">
-        <v>210907</v>
+        <v>212407</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -1923,10 +1923,10 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D26">
-        <v>163117</v>
+        <v>165467</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -1955,10 +1955,10 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>3229</v>
+        <v>3255</v>
       </c>
       <c r="D27">
-        <v>4284589</v>
+        <v>4321848</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -2019,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <v>993</v>
+        <v>1004</v>
       </c>
       <c r="D29">
-        <v>1454715</v>
+        <v>1468422</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -2083,10 +2083,10 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D31">
-        <v>474655</v>
+        <v>479155</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2179,10 +2179,10 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D34">
-        <v>79067</v>
+        <v>82067</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -2211,10 +2211,10 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>12942</v>
+        <v>13034</v>
       </c>
       <c r="D35">
-        <v>16229537</v>
+        <v>16340244</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -2339,10 +2339,10 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>5053</v>
+        <v>5104</v>
       </c>
       <c r="D39">
-        <v>7459246</v>
+        <v>7532512</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -2403,10 +2403,10 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>2379</v>
+        <v>2398</v>
       </c>
       <c r="D41">
-        <v>3466115</v>
+        <v>3493114</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -2467,10 +2467,10 @@
         <v>11</v>
       </c>
       <c r="C43">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D43">
-        <v>216060</v>
+        <v>226201</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -2499,10 +2499,10 @@
         <v>11</v>
       </c>
       <c r="C44">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D44">
-        <v>216160</v>
+        <v>219160</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -2531,10 +2531,10 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>4952</v>
+        <v>5008</v>
       </c>
       <c r="D45">
-        <v>6428210</v>
+        <v>6495868</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2627,10 +2627,10 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>1713</v>
+        <v>1741</v>
       </c>
       <c r="D48">
-        <v>2508851</v>
+        <v>2549134</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2691,10 +2691,10 @@
         <v>11</v>
       </c>
       <c r="C50">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="D50">
-        <v>891364</v>
+        <v>904773</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -2723,10 +2723,10 @@
         <v>11</v>
       </c>
       <c r="C51">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D51">
-        <v>127849</v>
+        <v>129349</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -2755,10 +2755,10 @@
         <v>11</v>
       </c>
       <c r="C52">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D52">
-        <v>130215</v>
+        <v>134715</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -2787,10 +2787,10 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>21082</v>
+        <v>21265</v>
       </c>
       <c r="D53">
-        <v>27625512</v>
+        <v>27864003</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -2851,10 +2851,10 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D55">
-        <v>74798</v>
+        <v>76298</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -2883,10 +2883,10 @@
         <v>11</v>
       </c>
       <c r="C56">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D56">
-        <v>58500</v>
+        <v>61500</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -2915,10 +2915,10 @@
         <v>11</v>
       </c>
       <c r="C57">
-        <v>7852</v>
+        <v>7967</v>
       </c>
       <c r="D57">
-        <v>11608328</v>
+        <v>11773604</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -2979,10 +2979,10 @@
         <v>11</v>
       </c>
       <c r="C59">
-        <v>2991</v>
+        <v>3013</v>
       </c>
       <c r="D59">
-        <v>4359427</v>
+        <v>4390975</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -3043,10 +3043,10 @@
         <v>11</v>
       </c>
       <c r="C61">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D61">
-        <v>210956</v>
+        <v>212456</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -3139,10 +3139,10 @@
         <v>11</v>
       </c>
       <c r="C64">
-        <v>27020</v>
+        <v>27206</v>
       </c>
       <c r="D64">
-        <v>34979511</v>
+        <v>35210771</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -3235,10 +3235,10 @@
         <v>11</v>
       </c>
       <c r="C67">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D67">
-        <v>63561</v>
+        <v>65061</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -3267,10 +3267,10 @@
         <v>11</v>
       </c>
       <c r="C68">
-        <v>11742</v>
+        <v>11835</v>
       </c>
       <c r="D68">
-        <v>17331626</v>
+        <v>17468340</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -3331,10 +3331,10 @@
         <v>11</v>
       </c>
       <c r="C70">
-        <v>5574</v>
+        <v>5608</v>
       </c>
       <c r="D70">
-        <v>8113219</v>
+        <v>8163423</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -3363,10 +3363,10 @@
         <v>11</v>
       </c>
       <c r="C71">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D71">
-        <v>248833</v>
+        <v>252163</v>
       </c>
       <c r="E71" t="s">
         <v>12</v>
@@ -3395,10 +3395,10 @@
         <v>11</v>
       </c>
       <c r="C72">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D72">
-        <v>326957</v>
+        <v>333692</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
@@ -3427,10 +3427,10 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <v>14639</v>
+        <v>14748</v>
       </c>
       <c r="D73">
-        <v>18787480</v>
+        <v>18929666</v>
       </c>
       <c r="E73" t="s">
         <v>12</v>
@@ -3459,10 +3459,10 @@
         <v>11</v>
       </c>
       <c r="C74">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D74">
-        <v>22071</v>
+        <v>23571</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -3491,10 +3491,10 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D75">
-        <v>94648</v>
+        <v>96148</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -3523,10 +3523,10 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>5598</v>
+        <v>5669</v>
       </c>
       <c r="D76">
-        <v>8279807</v>
+        <v>8384104</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -3587,10 +3587,10 @@
         <v>11</v>
       </c>
       <c r="C78">
-        <v>2971</v>
+        <v>3005</v>
       </c>
       <c r="D78">
-        <v>4331913</v>
+        <v>4379842</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
@@ -3619,10 +3619,10 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D79">
-        <v>248786</v>
+        <v>253286</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -3651,10 +3651,10 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D80">
-        <v>340057</v>
+        <v>341557</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -3683,10 +3683,10 @@
         <v>11</v>
       </c>
       <c r="C81">
-        <v>12614</v>
+        <v>12707</v>
       </c>
       <c r="D81">
-        <v>16033449</v>
+        <v>16140655</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -3811,10 +3811,10 @@
         <v>11</v>
       </c>
       <c r="C85">
-        <v>5708</v>
+        <v>5755</v>
       </c>
       <c r="D85">
-        <v>8403985</v>
+        <v>8471527</v>
       </c>
       <c r="E85" t="s">
         <v>12</v>
@@ -3875,10 +3875,10 @@
         <v>11</v>
       </c>
       <c r="C87">
-        <v>1959</v>
+        <v>1977</v>
       </c>
       <c r="D87">
-        <v>2814957</v>
+        <v>2839572</v>
       </c>
       <c r="E87" t="s">
         <v>12</v>
@@ -3939,10 +3939,10 @@
         <v>11</v>
       </c>
       <c r="C89">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D89">
-        <v>161426</v>
+        <v>162926</v>
       </c>
       <c r="E89" t="s">
         <v>12</v>
@@ -3971,10 +3971,10 @@
         <v>11</v>
       </c>
       <c r="C90">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D90">
-        <v>227752</v>
+        <v>238252</v>
       </c>
       <c r="E90" t="s">
         <v>12</v>
@@ -4003,10 +4003,10 @@
         <v>11</v>
       </c>
       <c r="C91">
-        <v>41204</v>
+        <v>41507</v>
       </c>
       <c r="D91">
-        <v>53259178</v>
+        <v>53629701</v>
       </c>
       <c r="E91" t="s">
         <v>12</v>
@@ -4099,10 +4099,10 @@
         <v>11</v>
       </c>
       <c r="C94">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D94">
-        <v>112585</v>
+        <v>115585</v>
       </c>
       <c r="E94" t="s">
         <v>12</v>
@@ -4163,10 +4163,10 @@
         <v>11</v>
       </c>
       <c r="C96">
-        <v>19350</v>
+        <v>19524</v>
       </c>
       <c r="D96">
-        <v>28610955</v>
+        <v>28867860</v>
       </c>
       <c r="E96" t="s">
         <v>12</v>
@@ -4227,10 +4227,10 @@
         <v>11</v>
       </c>
       <c r="C98">
-        <v>11972</v>
+        <v>12099</v>
       </c>
       <c r="D98">
-        <v>17386850</v>
+        <v>17567558</v>
       </c>
       <c r="E98" t="s">
         <v>12</v>
@@ -4323,10 +4323,10 @@
         <v>11</v>
       </c>
       <c r="C101">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D101">
-        <v>490189</v>
+        <v>496189</v>
       </c>
       <c r="E101" t="s">
         <v>12</v>
@@ -4387,10 +4387,10 @@
         <v>11</v>
       </c>
       <c r="C103">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="D103">
-        <v>950707</v>
+        <v>968318</v>
       </c>
       <c r="E103" t="s">
         <v>12</v>
@@ -4419,10 +4419,10 @@
         <v>11</v>
       </c>
       <c r="C104">
-        <v>17006</v>
+        <v>17132</v>
       </c>
       <c r="D104">
-        <v>22805071</v>
+        <v>22966612</v>
       </c>
       <c r="E104" t="s">
         <v>12</v>
@@ -4451,10 +4451,10 @@
         <v>11</v>
       </c>
       <c r="C105">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D105">
-        <v>63259</v>
+        <v>66379</v>
       </c>
       <c r="E105" t="s">
         <v>12</v>
@@ -4515,10 +4515,10 @@
         <v>11</v>
       </c>
       <c r="C107">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D107">
-        <v>81000</v>
+        <v>82500</v>
       </c>
       <c r="E107" t="s">
         <v>12</v>
@@ -4547,10 +4547,10 @@
         <v>11</v>
       </c>
       <c r="C108">
-        <v>6236</v>
+        <v>6299</v>
       </c>
       <c r="D108">
-        <v>9230664</v>
+        <v>9322641</v>
       </c>
       <c r="E108" t="s">
         <v>12</v>
@@ -4611,10 +4611,10 @@
         <v>11</v>
       </c>
       <c r="C110">
-        <v>1936</v>
+        <v>1954</v>
       </c>
       <c r="D110">
-        <v>2841772</v>
+        <v>2867607</v>
       </c>
       <c r="E110" t="s">
         <v>12</v>
@@ -4643,10 +4643,10 @@
         <v>11</v>
       </c>
       <c r="C111">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D111">
-        <v>167591</v>
+        <v>170041</v>
       </c>
       <c r="E111" t="s">
         <v>12</v>
@@ -4707,10 +4707,10 @@
         <v>11</v>
       </c>
       <c r="C113">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D113">
-        <v>163126</v>
+        <v>166126</v>
       </c>
       <c r="E113" t="s">
         <v>12</v>
@@ -4739,10 +4739,10 @@
         <v>11</v>
       </c>
       <c r="C114">
-        <v>9049</v>
+        <v>9122</v>
       </c>
       <c r="D114">
-        <v>11491511</v>
+        <v>11581372</v>
       </c>
       <c r="E114" t="s">
         <v>13</v>
@@ -4835,10 +4835,10 @@
         <v>11</v>
       </c>
       <c r="C117">
-        <v>4962</v>
+        <v>4999</v>
       </c>
       <c r="D117">
-        <v>7315961</v>
+        <v>7370412</v>
       </c>
       <c r="E117" t="s">
         <v>13</v>
@@ -4899,10 +4899,10 @@
         <v>11</v>
       </c>
       <c r="C119">
-        <v>1316</v>
+        <v>1326</v>
       </c>
       <c r="D119">
-        <v>1898212</v>
+        <v>1912093</v>
       </c>
       <c r="E119" t="s">
         <v>13</v>
@@ -4963,10 +4963,10 @@
         <v>11</v>
       </c>
       <c r="C121">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D121">
-        <v>247448</v>
+        <v>251949</v>
       </c>
       <c r="E121" t="s">
         <v>13</v>
@@ -4995,10 +4995,10 @@
         <v>11</v>
       </c>
       <c r="C122">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D122">
-        <v>226132</v>
+        <v>227632</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -5027,10 +5027,10 @@
         <v>11</v>
       </c>
       <c r="C123">
-        <v>7932</v>
+        <v>8024</v>
       </c>
       <c r="D123">
-        <v>10180425</v>
+        <v>10292942</v>
       </c>
       <c r="E123" t="s">
         <v>13</v>
@@ -5155,10 +5155,10 @@
         <v>11</v>
       </c>
       <c r="C127">
-        <v>4065</v>
+        <v>4106</v>
       </c>
       <c r="D127">
-        <v>5994714</v>
+        <v>6055975</v>
       </c>
       <c r="E127" t="s">
         <v>13</v>
@@ -5219,10 +5219,10 @@
         <v>11</v>
       </c>
       <c r="C129">
-        <v>1189</v>
+        <v>1197</v>
       </c>
       <c r="D129">
-        <v>1727853</v>
+        <v>1739853</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -5315,10 +5315,10 @@
         <v>11</v>
       </c>
       <c r="C132">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D132">
-        <v>196254</v>
+        <v>203619</v>
       </c>
       <c r="E132" t="s">
         <v>13</v>
@@ -5347,10 +5347,10 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <v>3657</v>
+        <v>3695</v>
       </c>
       <c r="D133">
-        <v>4587233</v>
+        <v>4630165</v>
       </c>
       <c r="E133" t="s">
         <v>13</v>
@@ -5411,10 +5411,10 @@
         <v>11</v>
       </c>
       <c r="C135">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="E135" t="s">
         <v>13</v>
@@ -5443,10 +5443,10 @@
         <v>11</v>
       </c>
       <c r="C136">
-        <v>1339</v>
+        <v>1348</v>
       </c>
       <c r="D136">
-        <v>1987438</v>
+        <v>2000938</v>
       </c>
       <c r="E136" t="s">
         <v>13</v>
@@ -5475,10 +5475,10 @@
         <v>11</v>
       </c>
       <c r="C137">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D137">
-        <v>609845</v>
+        <v>618845</v>
       </c>
       <c r="E137" t="s">
         <v>13</v>
@@ -5507,10 +5507,10 @@
         <v>11</v>
       </c>
       <c r="C138">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D138">
-        <v>58613</v>
+        <v>59413</v>
       </c>
       <c r="E138" t="s">
         <v>13</v>
@@ -5539,10 +5539,10 @@
         <v>11</v>
       </c>
       <c r="C139">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D139">
-        <v>36515</v>
+        <v>38015</v>
       </c>
       <c r="E139" t="s">
         <v>13</v>
@@ -5571,10 +5571,10 @@
         <v>11</v>
       </c>
       <c r="C140">
-        <v>4517</v>
+        <v>4567</v>
       </c>
       <c r="D140">
-        <v>5722531</v>
+        <v>5786128</v>
       </c>
       <c r="E140" t="s">
         <v>13</v>
@@ -5635,10 +5635,10 @@
         <v>11</v>
       </c>
       <c r="C142">
-        <v>1815</v>
+        <v>1847</v>
       </c>
       <c r="D142">
-        <v>2675590</v>
+        <v>2722772</v>
       </c>
       <c r="E142" t="s">
         <v>13</v>
@@ -5667,10 +5667,10 @@
         <v>11</v>
       </c>
       <c r="C143">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="D143">
-        <v>1273462</v>
+        <v>1285084</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
@@ -5699,10 +5699,10 @@
         <v>11</v>
       </c>
       <c r="C144">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D144">
-        <v>124678</v>
+        <v>127678</v>
       </c>
       <c r="E144" t="s">
         <v>13</v>
@@ -5731,10 +5731,10 @@
         <v>11</v>
       </c>
       <c r="C145">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D145">
-        <v>76525</v>
+        <v>81025</v>
       </c>
       <c r="E145" t="s">
         <v>13</v>
@@ -5763,10 +5763,10 @@
         <v>11</v>
       </c>
       <c r="C146">
-        <v>3403</v>
+        <v>3432</v>
       </c>
       <c r="D146">
-        <v>4372982</v>
+        <v>4410353</v>
       </c>
       <c r="E146" t="s">
         <v>13</v>
@@ -5795,10 +5795,10 @@
         <v>11</v>
       </c>
       <c r="C147">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147">
-        <v>39237</v>
+        <v>40737</v>
       </c>
       <c r="E147" t="s">
         <v>13</v>
@@ -5827,10 +5827,10 @@
         <v>11</v>
       </c>
       <c r="C148">
-        <v>1315</v>
+        <v>1323</v>
       </c>
       <c r="D148">
-        <v>1930935</v>
+        <v>1941142</v>
       </c>
       <c r="E148" t="s">
         <v>13</v>
@@ -5859,10 +5859,10 @@
         <v>11</v>
       </c>
       <c r="C149">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D149">
-        <v>599225</v>
+        <v>603725</v>
       </c>
       <c r="E149" t="s">
         <v>13</v>
@@ -5955,10 +5955,10 @@
         <v>11</v>
       </c>
       <c r="C152">
-        <v>9501</v>
+        <v>9576</v>
       </c>
       <c r="D152">
-        <v>12172627</v>
+        <v>12260164</v>
       </c>
       <c r="E152" t="s">
         <v>13</v>
@@ -6083,10 +6083,10 @@
         <v>11</v>
       </c>
       <c r="C156">
-        <v>4055</v>
+        <v>4114</v>
       </c>
       <c r="D156">
-        <v>5971284</v>
+        <v>6055463</v>
       </c>
       <c r="E156" t="s">
         <v>13</v>
@@ -6115,10 +6115,10 @@
         <v>11</v>
       </c>
       <c r="C157">
-        <v>1332</v>
+        <v>1342</v>
       </c>
       <c r="D157">
-        <v>1933695</v>
+        <v>1947405</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
@@ -6147,10 +6147,10 @@
         <v>11</v>
       </c>
       <c r="C158">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D158">
-        <v>379399</v>
+        <v>387884</v>
       </c>
       <c r="E158" t="s">
         <v>13</v>
@@ -6179,10 +6179,10 @@
         <v>11</v>
       </c>
       <c r="C159">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D159">
-        <v>211596</v>
+        <v>217946</v>
       </c>
       <c r="E159" t="s">
         <v>13</v>
@@ -6211,10 +6211,10 @@
         <v>11</v>
       </c>
       <c r="C160">
-        <v>1805</v>
+        <v>1818</v>
       </c>
       <c r="D160">
-        <v>2313762</v>
+        <v>2331542</v>
       </c>
       <c r="E160" t="s">
         <v>13</v>
@@ -6275,10 +6275,10 @@
         <v>11</v>
       </c>
       <c r="C162">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="D162">
-        <v>1415799</v>
+        <v>1424799</v>
       </c>
       <c r="E162" t="s">
         <v>13</v>
@@ -6435,10 +6435,10 @@
         <v>11</v>
       </c>
       <c r="C167">
-        <v>5471</v>
+        <v>5520</v>
       </c>
       <c r="D167">
-        <v>6955493</v>
+        <v>7016880</v>
       </c>
       <c r="E167" t="s">
         <v>13</v>
@@ -6531,10 +6531,10 @@
         <v>11</v>
       </c>
       <c r="C170">
-        <v>2148</v>
+        <v>2170</v>
       </c>
       <c r="D170">
-        <v>3176739</v>
+        <v>3209739</v>
       </c>
       <c r="E170" t="s">
         <v>13</v>
@@ -6563,10 +6563,10 @@
         <v>11</v>
       </c>
       <c r="C171">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="D171">
-        <v>1382760</v>
+        <v>1394946</v>
       </c>
       <c r="E171" t="s">
         <v>13</v>
@@ -6659,10 +6659,10 @@
         <v>11</v>
       </c>
       <c r="C174">
-        <v>10520</v>
+        <v>10626</v>
       </c>
       <c r="D174">
-        <v>13495864</v>
+        <v>13621100</v>
       </c>
       <c r="E174" t="s">
         <v>14</v>
@@ -6723,10 +6723,10 @@
         <v>11</v>
       </c>
       <c r="C176">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D176">
-        <v>142266</v>
+        <v>143766</v>
       </c>
       <c r="E176" t="s">
         <v>14</v>
@@ -6755,10 +6755,10 @@
         <v>11</v>
       </c>
       <c r="C177">
-        <v>4912</v>
+        <v>4961</v>
       </c>
       <c r="D177">
-        <v>7260488</v>
+        <v>7331575</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
@@ -6787,10 +6787,10 @@
         <v>11</v>
       </c>
       <c r="C178">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D178">
-        <v>1073109</v>
+        <v>1076109</v>
       </c>
       <c r="E178" t="s">
         <v>14</v>
@@ -6819,10 +6819,10 @@
         <v>11</v>
       </c>
       <c r="C179">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D179">
-        <v>192017</v>
+        <v>195017</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
@@ -6883,10 +6883,10 @@
         <v>11</v>
       </c>
       <c r="C181">
-        <v>15859</v>
+        <v>15989</v>
       </c>
       <c r="D181">
-        <v>20440779</v>
+        <v>20604960</v>
       </c>
       <c r="E181" t="s">
         <v>14</v>
@@ -6915,10 +6915,10 @@
         <v>11</v>
       </c>
       <c r="C182">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D182">
-        <v>15053</v>
+        <v>15877</v>
       </c>
       <c r="E182" t="s">
         <v>14</v>
@@ -6979,10 +6979,10 @@
         <v>11</v>
       </c>
       <c r="C184">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D184">
-        <v>229952</v>
+        <v>237452</v>
       </c>
       <c r="E184" t="s">
         <v>14</v>
@@ -7011,10 +7011,10 @@
         <v>11</v>
       </c>
       <c r="C185">
-        <v>6832</v>
+        <v>6898</v>
       </c>
       <c r="D185">
-        <v>10089628</v>
+        <v>10187112</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
@@ -7075,10 +7075,10 @@
         <v>11</v>
       </c>
       <c r="C187">
-        <v>1617</v>
+        <v>1624</v>
       </c>
       <c r="D187">
-        <v>2350540</v>
+        <v>2361040</v>
       </c>
       <c r="E187" t="s">
         <v>14</v>
@@ -7107,10 +7107,10 @@
         <v>11</v>
       </c>
       <c r="C188">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D188">
-        <v>209997</v>
+        <v>215977</v>
       </c>
       <c r="E188" t="s">
         <v>14</v>
@@ -7139,10 +7139,10 @@
         <v>11</v>
       </c>
       <c r="C189">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D189">
-        <v>210145</v>
+        <v>214645</v>
       </c>
       <c r="E189" t="s">
         <v>14</v>
@@ -7171,10 +7171,10 @@
         <v>11</v>
       </c>
       <c r="C190">
-        <v>16735</v>
+        <v>16891</v>
       </c>
       <c r="D190">
-        <v>21564304</v>
+        <v>21761251</v>
       </c>
       <c r="E190" t="s">
         <v>14</v>
@@ -7267,10 +7267,10 @@
         <v>11</v>
       </c>
       <c r="C193">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D193">
-        <v>158017</v>
+        <v>159517</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
@@ -7299,10 +7299,10 @@
         <v>11</v>
       </c>
       <c r="C194">
-        <v>9548</v>
+        <v>9625</v>
       </c>
       <c r="D194">
-        <v>14110139</v>
+        <v>14224849</v>
       </c>
       <c r="E194" t="s">
         <v>14</v>
@@ -7363,10 +7363,10 @@
         <v>11</v>
       </c>
       <c r="C196">
-        <v>1575</v>
+        <v>1585</v>
       </c>
       <c r="D196">
-        <v>2265900</v>
+        <v>2278797</v>
       </c>
       <c r="E196" t="s">
         <v>14</v>
@@ -7395,10 +7395,10 @@
         <v>11</v>
       </c>
       <c r="C197">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D197">
-        <v>257691</v>
+        <v>260691</v>
       </c>
       <c r="E197" t="s">
         <v>14</v>
@@ -7427,10 +7427,10 @@
         <v>11</v>
       </c>
       <c r="C198">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D198">
-        <v>325317</v>
+        <v>333437</v>
       </c>
       <c r="E198" t="s">
         <v>14</v>
@@ -7459,10 +7459,10 @@
         <v>11</v>
       </c>
       <c r="C199">
-        <v>14790</v>
+        <v>14936</v>
       </c>
       <c r="D199">
-        <v>18988137</v>
+        <v>19160503</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
@@ -7619,10 +7619,10 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>7273</v>
+        <v>7343</v>
       </c>
       <c r="D204">
-        <v>10728665</v>
+        <v>10831600</v>
       </c>
       <c r="E204" t="s">
         <v>14</v>
@@ -7651,10 +7651,10 @@
         <v>11</v>
       </c>
       <c r="C205">
-        <v>1546</v>
+        <v>1554</v>
       </c>
       <c r="D205">
-        <v>2226601</v>
+        <v>2238601</v>
       </c>
       <c r="E205" t="s">
         <v>14</v>
@@ -7683,10 +7683,10 @@
         <v>11</v>
       </c>
       <c r="C206">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D206">
-        <v>325187</v>
+        <v>332094</v>
       </c>
       <c r="E206" t="s">
         <v>14</v>
@@ -7715,10 +7715,10 @@
         <v>11</v>
       </c>
       <c r="C207">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D207">
-        <v>195177</v>
+        <v>203219</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
@@ -7747,10 +7747,10 @@
         <v>11</v>
       </c>
       <c r="C208">
-        <v>4745</v>
+        <v>4784</v>
       </c>
       <c r="D208">
-        <v>6038213</v>
+        <v>6089411</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -7811,10 +7811,10 @@
         <v>11</v>
       </c>
       <c r="C210">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="D210">
-        <v>2502142</v>
+        <v>2530961</v>
       </c>
       <c r="E210" t="s">
         <v>15</v>
@@ -7875,10 +7875,10 @@
         <v>11</v>
       </c>
       <c r="C212">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="D212">
-        <v>837688</v>
+        <v>847691</v>
       </c>
       <c r="E212" t="s">
         <v>15</v>
@@ -7907,10 +7907,10 @@
         <v>11</v>
       </c>
       <c r="C213">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D213">
-        <v>138566</v>
+        <v>143066</v>
       </c>
       <c r="E213" t="s">
         <v>15</v>
@@ -7971,10 +7971,10 @@
         <v>11</v>
       </c>
       <c r="C215">
-        <v>5923</v>
+        <v>5966</v>
       </c>
       <c r="D215">
-        <v>7650926</v>
+        <v>7701019</v>
       </c>
       <c r="E215" t="s">
         <v>15</v>
@@ -8067,10 +8067,10 @@
         <v>11</v>
       </c>
       <c r="C218">
-        <v>2727</v>
+        <v>2756</v>
       </c>
       <c r="D218">
-        <v>4028453</v>
+        <v>4069806</v>
       </c>
       <c r="E218" t="s">
         <v>15</v>
@@ -8099,10 +8099,10 @@
         <v>11</v>
       </c>
       <c r="C219">
-        <v>1303</v>
+        <v>1319</v>
       </c>
       <c r="D219">
-        <v>1892186</v>
+        <v>1915872</v>
       </c>
       <c r="E219" t="s">
         <v>15</v>
@@ -8131,10 +8131,10 @@
         <v>11</v>
       </c>
       <c r="C220">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D220">
-        <v>83694</v>
+        <v>86694</v>
       </c>
       <c r="E220" t="s">
         <v>15</v>
@@ -8163,10 +8163,10 @@
         <v>11</v>
       </c>
       <c r="C221">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D221">
-        <v>54348</v>
+        <v>57348</v>
       </c>
       <c r="E221" t="s">
         <v>15</v>
@@ -8195,10 +8195,10 @@
         <v>11</v>
       </c>
       <c r="C222">
-        <v>3362</v>
+        <v>3388</v>
       </c>
       <c r="D222">
-        <v>4243628</v>
+        <v>4276338</v>
       </c>
       <c r="E222" t="s">
         <v>15</v>
@@ -8291,10 +8291,10 @@
         <v>11</v>
       </c>
       <c r="C225">
-        <v>1282</v>
+        <v>1295</v>
       </c>
       <c r="D225">
-        <v>1889818</v>
+        <v>1908769</v>
       </c>
       <c r="E225" t="s">
         <v>15</v>
@@ -8323,10 +8323,10 @@
         <v>11</v>
       </c>
       <c r="C226">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D226">
-        <v>629564</v>
+        <v>634058</v>
       </c>
       <c r="E226" t="s">
         <v>15</v>
@@ -8387,10 +8387,10 @@
         <v>11</v>
       </c>
       <c r="C228">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D228">
-        <v>69481</v>
+        <v>78125</v>
       </c>
       <c r="E228" t="s">
         <v>15</v>
@@ -8419,10 +8419,10 @@
         <v>11</v>
       </c>
       <c r="C229">
-        <v>10843</v>
+        <v>10916</v>
       </c>
       <c r="D229">
-        <v>13848150</v>
+        <v>13932997</v>
       </c>
       <c r="E229" t="s">
         <v>15</v>
@@ -8515,10 +8515,10 @@
         <v>11</v>
       </c>
       <c r="C232">
-        <v>5006</v>
+        <v>5056</v>
       </c>
       <c r="D232">
-        <v>7382079</v>
+        <v>7454998</v>
       </c>
       <c r="E232" t="s">
         <v>15</v>
@@ -8547,10 +8547,10 @@
         <v>11</v>
       </c>
       <c r="C233">
-        <v>1448</v>
+        <v>1459</v>
       </c>
       <c r="D233">
-        <v>2095639</v>
+        <v>2111037</v>
       </c>
       <c r="E233" t="s">
         <v>15</v>
@@ -8579,10 +8579,10 @@
         <v>11</v>
       </c>
       <c r="C234">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D234">
-        <v>386876</v>
+        <v>393845</v>
       </c>
       <c r="E234" t="s">
         <v>15</v>
@@ -8611,10 +8611,10 @@
         <v>11</v>
       </c>
       <c r="C235">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D235">
-        <v>186036</v>
+        <v>187646</v>
       </c>
       <c r="E235" t="s">
         <v>15</v>
@@ -8643,10 +8643,10 @@
         <v>11</v>
       </c>
       <c r="C236">
-        <v>5576</v>
+        <v>5627</v>
       </c>
       <c r="D236">
-        <v>7106928</v>
+        <v>7170077</v>
       </c>
       <c r="E236" t="s">
         <v>15</v>
@@ -8739,10 +8739,10 @@
         <v>11</v>
       </c>
       <c r="C239">
-        <v>2526</v>
+        <v>2545</v>
       </c>
       <c r="D239">
-        <v>3720250</v>
+        <v>3747069</v>
       </c>
       <c r="E239" t="s">
         <v>15</v>
@@ -8771,10 +8771,10 @@
         <v>11</v>
       </c>
       <c r="C240">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D240">
-        <v>1079651</v>
+        <v>1084151</v>
       </c>
       <c r="E240" t="s">
         <v>15</v>
@@ -8803,10 +8803,10 @@
         <v>11</v>
       </c>
       <c r="C241">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D241">
-        <v>169906</v>
+        <v>173876</v>
       </c>
       <c r="E241" t="s">
         <v>15</v>
@@ -8835,10 +8835,10 @@
         <v>11</v>
       </c>
       <c r="C242">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D242">
-        <v>90792</v>
+        <v>99447</v>
       </c>
       <c r="E242" t="s">
         <v>15</v>
@@ -8867,10 +8867,10 @@
         <v>11</v>
       </c>
       <c r="C243">
-        <v>9545</v>
+        <v>9620</v>
       </c>
       <c r="D243">
-        <v>12017636</v>
+        <v>12100521</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -8931,10 +8931,10 @@
         <v>11</v>
       </c>
       <c r="C245">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D245">
-        <v>67195</v>
+        <v>69322</v>
       </c>
       <c r="E245" t="s">
         <v>15</v>
@@ -8963,10 +8963,10 @@
         <v>11</v>
       </c>
       <c r="C246">
-        <v>4553</v>
+        <v>4598</v>
       </c>
       <c r="D246">
-        <v>6726318</v>
+        <v>6792146</v>
       </c>
       <c r="E246" t="s">
         <v>15</v>
@@ -8995,10 +8995,10 @@
         <v>11</v>
       </c>
       <c r="C247">
-        <v>2028</v>
+        <v>2049</v>
       </c>
       <c r="D247">
-        <v>2956503</v>
+        <v>2984300</v>
       </c>
       <c r="E247" t="s">
         <v>15</v>
@@ -9027,10 +9027,10 @@
         <v>11</v>
       </c>
       <c r="C248">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D248">
-        <v>120681</v>
+        <v>123339</v>
       </c>
       <c r="E248" t="s">
         <v>15</v>
@@ -9059,10 +9059,10 @@
         <v>11</v>
       </c>
       <c r="C249">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D249">
-        <v>141424</v>
+        <v>146074</v>
       </c>
       <c r="E249" t="s">
         <v>15</v>
@@ -9091,10 +9091,10 @@
         <v>11</v>
       </c>
       <c r="C250">
-        <v>4730</v>
+        <v>4776</v>
       </c>
       <c r="D250">
-        <v>6187864</v>
+        <v>6244656</v>
       </c>
       <c r="E250" t="s">
         <v>16</v>
@@ -9187,10 +9187,10 @@
         <v>11</v>
       </c>
       <c r="C253">
-        <v>1971</v>
+        <v>1986</v>
       </c>
       <c r="D253">
-        <v>2895480</v>
+        <v>2917980</v>
       </c>
       <c r="E253" t="s">
         <v>16</v>
@@ -9219,10 +9219,10 @@
         <v>11</v>
       </c>
       <c r="C254">
-        <v>1208</v>
+        <v>1220</v>
       </c>
       <c r="D254">
-        <v>1759456</v>
+        <v>1776633</v>
       </c>
       <c r="E254" t="s">
         <v>16</v>
@@ -9251,10 +9251,10 @@
         <v>11</v>
       </c>
       <c r="C255">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D255">
-        <v>139698</v>
+        <v>141198</v>
       </c>
       <c r="E255" t="s">
         <v>16</v>
@@ -9283,10 +9283,10 @@
         <v>11</v>
       </c>
       <c r="C256">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D256">
-        <v>58116</v>
+        <v>61116</v>
       </c>
       <c r="E256" t="s">
         <v>16</v>
@@ -9315,10 +9315,10 @@
         <v>11</v>
       </c>
       <c r="C257">
-        <v>6294</v>
+        <v>6337</v>
       </c>
       <c r="D257">
-        <v>8272916</v>
+        <v>8328214</v>
       </c>
       <c r="E257" t="s">
         <v>16</v>
@@ -9443,10 +9443,10 @@
         <v>11</v>
       </c>
       <c r="C261">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="D261">
-        <v>3113271</v>
+        <v>3141970</v>
       </c>
       <c r="E261" t="s">
         <v>16</v>
@@ -9475,10 +9475,10 @@
         <v>11</v>
       </c>
       <c r="C262">
-        <v>1555</v>
+        <v>1573</v>
       </c>
       <c r="D262">
-        <v>2270717</v>
+        <v>2297717</v>
       </c>
       <c r="E262" t="s">
         <v>16</v>
@@ -9507,10 +9507,10 @@
         <v>11</v>
       </c>
       <c r="C263">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D263">
-        <v>174659</v>
+        <v>177659</v>
       </c>
       <c r="E263" t="s">
         <v>16</v>
@@ -9539,10 +9539,10 @@
         <v>11</v>
       </c>
       <c r="C264">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D264">
-        <v>69068</v>
+        <v>72068</v>
       </c>
       <c r="E264" t="s">
         <v>16</v>
@@ -9571,10 +9571,10 @@
         <v>11</v>
       </c>
       <c r="C265">
-        <v>4295</v>
+        <v>4332</v>
       </c>
       <c r="D265">
-        <v>5410010</v>
+        <v>5452413</v>
       </c>
       <c r="E265" t="s">
         <v>17</v>
@@ -9603,10 +9603,10 @@
         <v>11</v>
       </c>
       <c r="C266">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D266">
-        <v>5894</v>
+        <v>7394</v>
       </c>
       <c r="E266" t="s">
         <v>17</v>
@@ -9699,10 +9699,10 @@
         <v>11</v>
       </c>
       <c r="C269">
-        <v>1440</v>
+        <v>1457</v>
       </c>
       <c r="D269">
-        <v>2134571</v>
+        <v>2158019</v>
       </c>
       <c r="E269" t="s">
         <v>17</v>
@@ -9763,10 +9763,10 @@
         <v>11</v>
       </c>
       <c r="C271">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D271">
-        <v>639299</v>
+        <v>646148</v>
       </c>
       <c r="E271" t="s">
         <v>17</v>
@@ -9795,10 +9795,10 @@
         <v>11</v>
       </c>
       <c r="C272">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D272">
-        <v>35542</v>
+        <v>36499</v>
       </c>
       <c r="E272" t="s">
         <v>17</v>
@@ -9859,10 +9859,10 @@
         <v>11</v>
       </c>
       <c r="C274">
-        <v>4499</v>
+        <v>4536</v>
       </c>
       <c r="D274">
-        <v>5738248</v>
+        <v>5785682</v>
       </c>
       <c r="E274" t="s">
         <v>17</v>
@@ -9955,10 +9955,10 @@
         <v>11</v>
       </c>
       <c r="C277">
-        <v>1975</v>
+        <v>1990</v>
       </c>
       <c r="D277">
-        <v>2911550</v>
+        <v>2932072</v>
       </c>
       <c r="E277" t="s">
         <v>17</v>
@@ -9987,10 +9987,10 @@
         <v>11</v>
       </c>
       <c r="C278">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="D278">
-        <v>1099820</v>
+        <v>1116320</v>
       </c>
       <c r="E278" t="s">
         <v>17</v>
@@ -10019,10 +10019,10 @@
         <v>11</v>
       </c>
       <c r="C279">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D279">
-        <v>88300</v>
+        <v>91300</v>
       </c>
       <c r="E279" t="s">
         <v>17</v>
@@ -10051,10 +10051,10 @@
         <v>11</v>
       </c>
       <c r="C280">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D280">
-        <v>55371</v>
+        <v>56871</v>
       </c>
       <c r="E280" t="s">
         <v>17</v>
@@ -10083,10 +10083,10 @@
         <v>11</v>
       </c>
       <c r="C281">
-        <v>17762</v>
+        <v>17899</v>
       </c>
       <c r="D281">
-        <v>22683377</v>
+        <v>22854260</v>
       </c>
       <c r="E281" t="s">
         <v>17</v>
@@ -10243,10 +10243,10 @@
         <v>11</v>
       </c>
       <c r="C286">
-        <v>10196</v>
+        <v>10326</v>
       </c>
       <c r="D286">
-        <v>15053062</v>
+        <v>15243749</v>
       </c>
       <c r="E286" t="s">
         <v>17</v>
@@ -10339,10 +10339,10 @@
         <v>11</v>
       </c>
       <c r="C289">
-        <v>4712</v>
+        <v>4763</v>
       </c>
       <c r="D289">
-        <v>6852377</v>
+        <v>6925310</v>
       </c>
       <c r="E289" t="s">
         <v>17</v>
@@ -10371,10 +10371,10 @@
         <v>11</v>
       </c>
       <c r="C290">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D290">
-        <v>487841</v>
+        <v>496841</v>
       </c>
       <c r="E290" t="s">
         <v>17</v>
@@ -10403,10 +10403,10 @@
         <v>11</v>
       </c>
       <c r="C291">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D291">
-        <v>369088</v>
+        <v>379795</v>
       </c>
       <c r="E291" t="s">
         <v>17</v>
@@ -10435,10 +10435,10 @@
         <v>11</v>
       </c>
       <c r="C292">
-        <v>11284</v>
+        <v>11359</v>
       </c>
       <c r="D292">
-        <v>14272412</v>
+        <v>14357736</v>
       </c>
       <c r="E292" t="s">
         <v>17</v>
@@ -10531,10 +10531,10 @@
         <v>11</v>
       </c>
       <c r="C295">
-        <v>6195</v>
+        <v>6259</v>
       </c>
       <c r="D295">
-        <v>9154336</v>
+        <v>9249535</v>
       </c>
       <c r="E295" t="s">
         <v>17</v>
@@ -10595,10 +10595,10 @@
         <v>11</v>
       </c>
       <c r="C297">
-        <v>2828</v>
+        <v>2866</v>
       </c>
       <c r="D297">
-        <v>4122243</v>
+        <v>4175554</v>
       </c>
       <c r="E297" t="s">
         <v>17</v>
@@ -10627,10 +10627,10 @@
         <v>11</v>
       </c>
       <c r="C298">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D298">
-        <v>456350</v>
+        <v>463850</v>
       </c>
       <c r="E298" t="s">
         <v>17</v>
@@ -10659,10 +10659,10 @@
         <v>11</v>
       </c>
       <c r="C299">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D299">
-        <v>177704</v>
+        <v>183704</v>
       </c>
       <c r="E299" t="s">
         <v>17</v>
@@ -10691,10 +10691,10 @@
         <v>11</v>
       </c>
       <c r="C300">
-        <v>2359</v>
+        <v>2376</v>
       </c>
       <c r="D300">
-        <v>2989172</v>
+        <v>3013963</v>
       </c>
       <c r="E300" t="s">
         <v>17</v>
@@ -10787,10 +10787,10 @@
         <v>11</v>
       </c>
       <c r="C303">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="D303">
-        <v>1433101</v>
+        <v>1451101</v>
       </c>
       <c r="E303" t="s">
         <v>17</v>
@@ -10819,10 +10819,10 @@
         <v>11</v>
       </c>
       <c r="C304">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D304">
-        <v>541245</v>
+        <v>551745</v>
       </c>
       <c r="E304" t="s">
         <v>17</v>
@@ -10883,10 +10883,10 @@
         <v>11</v>
       </c>
       <c r="C306">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D306">
-        <v>31250</v>
+        <v>32750</v>
       </c>
       <c r="E306" t="s">
         <v>17</v>
@@ -10947,10 +10947,10 @@
         <v>11</v>
       </c>
       <c r="C308">
-        <v>8073</v>
+        <v>8137</v>
       </c>
       <c r="D308">
-        <v>10210520</v>
+        <v>10293651</v>
       </c>
       <c r="E308" t="s">
         <v>17</v>
@@ -11043,10 +11043,10 @@
         <v>11</v>
       </c>
       <c r="C311">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D311">
-        <v>62443</v>
+        <v>62976</v>
       </c>
       <c r="E311" t="s">
         <v>17</v>
@@ -11075,10 +11075,10 @@
         <v>11</v>
       </c>
       <c r="C312">
-        <v>4110</v>
+        <v>4151</v>
       </c>
       <c r="D312">
-        <v>6071029</v>
+        <v>6132107</v>
       </c>
       <c r="E312" t="s">
         <v>17</v>
@@ -11139,10 +11139,10 @@
         <v>11</v>
       </c>
       <c r="C314">
-        <v>1500</v>
+        <v>1516</v>
       </c>
       <c r="D314">
-        <v>2169949</v>
+        <v>2191588</v>
       </c>
       <c r="E314" t="s">
         <v>17</v>
@@ -11171,10 +11171,10 @@
         <v>11</v>
       </c>
       <c r="C315">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D315">
-        <v>342433</v>
+        <v>352641</v>
       </c>
       <c r="E315" t="s">
         <v>17</v>
@@ -11203,10 +11203,10 @@
         <v>11</v>
       </c>
       <c r="C316">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D316">
-        <v>116834</v>
+        <v>118334</v>
       </c>
       <c r="E316" t="s">
         <v>17</v>
@@ -11235,10 +11235,10 @@
         <v>11</v>
       </c>
       <c r="C317">
-        <v>10374</v>
+        <v>10478</v>
       </c>
       <c r="D317">
-        <v>13073058</v>
+        <v>13206427</v>
       </c>
       <c r="E317" t="s">
         <v>17</v>
@@ -11267,10 +11267,10 @@
         <v>11</v>
       </c>
       <c r="C318">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D318">
-        <v>11139</v>
+        <v>12639</v>
       </c>
       <c r="E318" t="s">
         <v>17</v>
@@ -11331,10 +11331,10 @@
         <v>11</v>
       </c>
       <c r="C320">
-        <v>4720</v>
+        <v>4760</v>
       </c>
       <c r="D320">
-        <v>6984639</v>
+        <v>7043231</v>
       </c>
       <c r="E320" t="s">
         <v>17</v>
@@ -11395,10 +11395,10 @@
         <v>11</v>
       </c>
       <c r="C322">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="D322">
-        <v>2560920</v>
+        <v>2572920</v>
       </c>
       <c r="E322" t="s">
         <v>17</v>
@@ -11459,10 +11459,10 @@
         <v>11</v>
       </c>
       <c r="C324">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D324">
-        <v>189911</v>
+        <v>192911</v>
       </c>
       <c r="E324" t="s">
         <v>17</v>
@@ -11491,10 +11491,10 @@
         <v>11</v>
       </c>
       <c r="C325">
-        <v>2526</v>
+        <v>2545</v>
       </c>
       <c r="D325">
-        <v>3223477</v>
+        <v>3249535</v>
       </c>
       <c r="E325" t="s">
         <v>17</v>
@@ -11587,10 +11587,10 @@
         <v>11</v>
       </c>
       <c r="C328">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="D328">
-        <v>1298555</v>
+        <v>1316555</v>
       </c>
       <c r="E328" t="s">
         <v>17</v>
@@ -11619,10 +11619,10 @@
         <v>11</v>
       </c>
       <c r="C329">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D329">
-        <v>512953</v>
+        <v>515953</v>
       </c>
       <c r="E329" t="s">
         <v>17</v>
@@ -11651,10 +11651,10 @@
         <v>11</v>
       </c>
       <c r="C330">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D330">
-        <v>35310</v>
+        <v>36810</v>
       </c>
       <c r="E330" t="s">
         <v>17</v>
@@ -11683,10 +11683,10 @@
         <v>11</v>
       </c>
       <c r="C331">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D331">
-        <v>45349</v>
+        <v>48349</v>
       </c>
       <c r="E331" t="s">
         <v>17</v>
@@ -11715,10 +11715,10 @@
         <v>11</v>
       </c>
       <c r="C332">
-        <v>13228</v>
+        <v>13349</v>
       </c>
       <c r="D332">
-        <v>16659219</v>
+        <v>16801841</v>
       </c>
       <c r="E332" t="s">
         <v>17</v>
@@ -11747,10 +11747,10 @@
         <v>11</v>
       </c>
       <c r="C333">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D333">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="E333" t="s">
         <v>17</v>
@@ -11811,10 +11811,10 @@
         <v>11</v>
       </c>
       <c r="C335">
-        <v>6144</v>
+        <v>6195</v>
       </c>
       <c r="D335">
-        <v>9104702</v>
+        <v>9178219</v>
       </c>
       <c r="E335" t="s">
         <v>17</v>
@@ -11875,10 +11875,10 @@
         <v>11</v>
       </c>
       <c r="C337">
-        <v>3909</v>
+        <v>3947</v>
       </c>
       <c r="D337">
-        <v>5715365</v>
+        <v>5770146</v>
       </c>
       <c r="E337" t="s">
         <v>17</v>
@@ -11907,10 +11907,10 @@
         <v>11</v>
       </c>
       <c r="C338">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D338">
-        <v>127923</v>
+        <v>129423</v>
       </c>
       <c r="E338" t="s">
         <v>17</v>
@@ -11939,10 +11939,10 @@
         <v>11</v>
       </c>
       <c r="C339">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D339">
-        <v>186839</v>
+        <v>189839</v>
       </c>
       <c r="E339" t="s">
         <v>17</v>
@@ -11971,10 +11971,10 @@
         <v>11</v>
       </c>
       <c r="C340">
-        <v>6773</v>
+        <v>6821</v>
       </c>
       <c r="D340">
-        <v>8528588</v>
+        <v>8586035</v>
       </c>
       <c r="E340" t="s">
         <v>17</v>
@@ -12067,10 +12067,10 @@
         <v>11</v>
       </c>
       <c r="C343">
-        <v>3424</v>
+        <v>3452</v>
       </c>
       <c r="D343">
-        <v>5037424</v>
+        <v>5078755</v>
       </c>
       <c r="E343" t="s">
         <v>17</v>
@@ -12131,10 +12131,10 @@
         <v>11</v>
       </c>
       <c r="C345">
-        <v>1128</v>
+        <v>1139</v>
       </c>
       <c r="D345">
-        <v>1644519</v>
+        <v>1660988</v>
       </c>
       <c r="E345" t="s">
         <v>17</v>
@@ -12163,10 +12163,10 @@
         <v>11</v>
       </c>
       <c r="C346">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D346">
-        <v>93393</v>
+        <v>94143</v>
       </c>
       <c r="E346" t="s">
         <v>17</v>
@@ -12227,10 +12227,10 @@
         <v>11</v>
       </c>
       <c r="C348">
-        <v>12648</v>
+        <v>12795</v>
       </c>
       <c r="D348">
-        <v>17143001</v>
+        <v>17341953</v>
       </c>
       <c r="E348" t="s">
         <v>18</v>
@@ -12355,10 +12355,10 @@
         <v>11</v>
       </c>
       <c r="C352">
-        <v>4052</v>
+        <v>4092</v>
       </c>
       <c r="D352">
-        <v>5977759</v>
+        <v>6036649</v>
       </c>
       <c r="E352" t="s">
         <v>18</v>
@@ -12419,10 +12419,10 @@
         <v>11</v>
       </c>
       <c r="C354">
-        <v>3179</v>
+        <v>3219</v>
       </c>
       <c r="D354">
-        <v>4592705</v>
+        <v>4651595</v>
       </c>
       <c r="E354" t="s">
         <v>18</v>
@@ -12483,10 +12483,10 @@
         <v>11</v>
       </c>
       <c r="C356">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D356">
-        <v>252311</v>
+        <v>254311</v>
       </c>
       <c r="E356" t="s">
         <v>18</v>
@@ -12515,10 +12515,10 @@
         <v>11</v>
       </c>
       <c r="C357">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D357">
-        <v>199962</v>
+        <v>205962</v>
       </c>
       <c r="E357" t="s">
         <v>18</v>
@@ -12547,10 +12547,10 @@
         <v>11</v>
       </c>
       <c r="C358">
-        <v>2637</v>
+        <v>2673</v>
       </c>
       <c r="D358">
-        <v>3632992</v>
+        <v>3684513</v>
       </c>
       <c r="E358" t="s">
         <v>19</v>
@@ -12579,10 +12579,10 @@
         <v>11</v>
       </c>
       <c r="C359">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="D359">
-        <v>1170854</v>
+        <v>1186864</v>
       </c>
       <c r="E359" t="s">
         <v>19</v>
@@ -12643,10 +12643,10 @@
         <v>11</v>
       </c>
       <c r="C361">
-        <v>954</v>
+        <v>965</v>
       </c>
       <c r="D361">
-        <v>1388291</v>
+        <v>1404791</v>
       </c>
       <c r="E361" t="s">
         <v>19</v>
@@ -12675,10 +12675,10 @@
         <v>11</v>
       </c>
       <c r="C362">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D362">
-        <v>35318</v>
+        <v>38110</v>
       </c>
       <c r="E362" t="s">
         <v>19</v>
@@ -12707,10 +12707,10 @@
         <v>11</v>
       </c>
       <c r="C363">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D363">
-        <v>45950</v>
+        <v>48950</v>
       </c>
       <c r="E363" t="s">
         <v>19</v>
@@ -12739,10 +12739,10 @@
         <v>11</v>
       </c>
       <c r="C364">
-        <v>6958</v>
+        <v>6997</v>
       </c>
       <c r="D364">
-        <v>8698987</v>
+        <v>8743211</v>
       </c>
       <c r="E364" t="s">
         <v>20</v>
@@ -12803,10 +12803,10 @@
         <v>11</v>
       </c>
       <c r="C366">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D366">
-        <v>67666</v>
+        <v>69166</v>
       </c>
       <c r="E366" t="s">
         <v>20</v>
@@ -12835,10 +12835,10 @@
         <v>11</v>
       </c>
       <c r="C367">
-        <v>2487</v>
+        <v>2514</v>
       </c>
       <c r="D367">
-        <v>3666146</v>
+        <v>3703264</v>
       </c>
       <c r="E367" t="s">
         <v>20</v>
@@ -12867,10 +12867,10 @@
         <v>11</v>
       </c>
       <c r="C368">
-        <v>1136</v>
+        <v>1146</v>
       </c>
       <c r="D368">
-        <v>1652286</v>
+        <v>1666644</v>
       </c>
       <c r="E368" t="s">
         <v>20</v>
@@ -12931,10 +12931,10 @@
         <v>11</v>
       </c>
       <c r="C370">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D370">
-        <v>70668</v>
+        <v>72168</v>
       </c>
       <c r="E370" t="s">
         <v>20</v>
@@ -12963,10 +12963,10 @@
         <v>11</v>
       </c>
       <c r="C371">
-        <v>36330</v>
+        <v>36604</v>
       </c>
       <c r="D371">
-        <v>45455614</v>
+        <v>45798923</v>
       </c>
       <c r="E371" t="s">
         <v>20</v>
@@ -13059,10 +13059,10 @@
         <v>11</v>
       </c>
       <c r="C374">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D374">
-        <v>235435</v>
+        <v>238435</v>
       </c>
       <c r="E374" t="s">
         <v>20</v>
@@ -13091,10 +13091,10 @@
         <v>11</v>
       </c>
       <c r="C375">
-        <v>16196</v>
+        <v>16339</v>
       </c>
       <c r="D375">
-        <v>23858481</v>
+        <v>24068126</v>
       </c>
       <c r="E375" t="s">
         <v>20</v>
@@ -13155,10 +13155,10 @@
         <v>11</v>
       </c>
       <c r="C377">
-        <v>7644</v>
+        <v>7724</v>
       </c>
       <c r="D377">
-        <v>11120248</v>
+        <v>11235321</v>
       </c>
       <c r="E377" t="s">
         <v>20</v>
@@ -13187,10 +13187,10 @@
         <v>11</v>
       </c>
       <c r="C378">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D378">
-        <v>309751</v>
+        <v>313566</v>
       </c>
       <c r="E378" t="s">
         <v>20</v>
@@ -13219,10 +13219,10 @@
         <v>11</v>
       </c>
       <c r="C379">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="D379">
-        <v>473433</v>
+        <v>491650</v>
       </c>
       <c r="E379" t="s">
         <v>20</v>
@@ -13283,10 +13283,10 @@
         <v>11</v>
       </c>
       <c r="C381">
-        <v>11364</v>
+        <v>11425</v>
       </c>
       <c r="D381">
-        <v>14484749</v>
+        <v>14565447</v>
       </c>
       <c r="E381" t="s">
         <v>20</v>
@@ -13379,10 +13379,10 @@
         <v>11</v>
       </c>
       <c r="C384">
-        <v>4899</v>
+        <v>4942</v>
       </c>
       <c r="D384">
-        <v>7243655</v>
+        <v>7306051</v>
       </c>
       <c r="E384" t="s">
         <v>20</v>
@@ -13443,10 +13443,10 @@
         <v>11</v>
       </c>
       <c r="C386">
-        <v>2889</v>
+        <v>2912</v>
       </c>
       <c r="D386">
-        <v>4211169</v>
+        <v>4245611</v>
       </c>
       <c r="E386" t="s">
         <v>20</v>
@@ -13475,10 +13475,10 @@
         <v>11</v>
       </c>
       <c r="C387">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D387">
-        <v>135676</v>
+        <v>138676</v>
       </c>
       <c r="E387" t="s">
         <v>20</v>
@@ -13507,10 +13507,10 @@
         <v>11</v>
       </c>
       <c r="C388">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D388">
-        <v>99522</v>
+        <v>102428</v>
       </c>
       <c r="E388" t="s">
         <v>20</v>
@@ -13539,10 +13539,10 @@
         <v>11</v>
       </c>
       <c r="C389">
-        <v>20157</v>
+        <v>20287</v>
       </c>
       <c r="D389">
-        <v>24952119</v>
+        <v>25117853</v>
       </c>
       <c r="E389" t="s">
         <v>20</v>
@@ -13635,10 +13635,10 @@
         <v>11</v>
       </c>
       <c r="C392">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D392">
-        <v>223749</v>
+        <v>232203</v>
       </c>
       <c r="E392" t="s">
         <v>20</v>
@@ -13667,10 +13667,10 @@
         <v>11</v>
       </c>
       <c r="C393">
-        <v>7689</v>
+        <v>7754</v>
       </c>
       <c r="D393">
-        <v>11335370</v>
+        <v>11429637</v>
       </c>
       <c r="E393" t="s">
         <v>20</v>
@@ -13731,10 +13731,10 @@
         <v>11</v>
       </c>
       <c r="C395">
-        <v>3144</v>
+        <v>3164</v>
       </c>
       <c r="D395">
-        <v>4579078</v>
+        <v>4609078</v>
       </c>
       <c r="E395" t="s">
         <v>20</v>
@@ -13763,10 +13763,10 @@
         <v>11</v>
       </c>
       <c r="C396">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D396">
-        <v>215399</v>
+        <v>224139</v>
       </c>
       <c r="E396" t="s">
         <v>20</v>
@@ -13795,10 +13795,10 @@
         <v>11</v>
       </c>
       <c r="C397">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D397">
-        <v>207168</v>
+        <v>225074</v>
       </c>
       <c r="E397" t="s">
         <v>20</v>
@@ -13827,10 +13827,10 @@
         <v>11</v>
       </c>
       <c r="C398">
-        <v>8542</v>
+        <v>8621</v>
       </c>
       <c r="D398">
-        <v>10623686</v>
+        <v>10717243</v>
       </c>
       <c r="E398" t="s">
         <v>20</v>
@@ -13923,10 +13923,10 @@
         <v>11</v>
       </c>
       <c r="C401">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D401">
-        <v>82029</v>
+        <v>83529</v>
       </c>
       <c r="E401" t="s">
         <v>20</v>
@@ -13955,10 +13955,10 @@
         <v>11</v>
       </c>
       <c r="C402">
-        <v>2837</v>
+        <v>2864</v>
       </c>
       <c r="D402">
-        <v>4199796</v>
+        <v>4239330</v>
       </c>
       <c r="E402" t="s">
         <v>20</v>
@@ -13987,10 +13987,10 @@
         <v>11</v>
       </c>
       <c r="C403">
-        <v>1243</v>
+        <v>1253</v>
       </c>
       <c r="D403">
-        <v>1802156</v>
+        <v>1816027</v>
       </c>
       <c r="E403" t="s">
         <v>20</v>
@@ -14051,10 +14051,10 @@
         <v>11</v>
       </c>
       <c r="C405">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D405">
-        <v>182024</v>
+        <v>183524</v>
       </c>
       <c r="E405" t="s">
         <v>20</v>
@@ -14083,10 +14083,10 @@
         <v>11</v>
       </c>
       <c r="C406">
-        <v>23648</v>
+        <v>23855</v>
       </c>
       <c r="D406">
-        <v>31942778</v>
+        <v>32210850</v>
       </c>
       <c r="E406" t="s">
         <v>21</v>
@@ -14243,10 +14243,10 @@
         <v>11</v>
       </c>
       <c r="C411">
-        <v>8698</v>
+        <v>8755</v>
       </c>
       <c r="D411">
-        <v>12827778</v>
+        <v>12911566</v>
       </c>
       <c r="E411" t="s">
         <v>21</v>
@@ -14275,10 +14275,10 @@
         <v>11</v>
       </c>
       <c r="C412">
-        <v>2217</v>
+        <v>2234</v>
       </c>
       <c r="D412">
-        <v>3213092</v>
+        <v>3237992</v>
       </c>
       <c r="E412" t="s">
         <v>21</v>
@@ -14339,10 +14339,10 @@
         <v>11</v>
       </c>
       <c r="C414">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D414">
-        <v>277230</v>
+        <v>280230</v>
       </c>
       <c r="E414" t="s">
         <v>21</v>
@@ -14371,10 +14371,10 @@
         <v>11</v>
       </c>
       <c r="C415">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D415">
-        <v>179066</v>
+        <v>191066</v>
       </c>
       <c r="E415" t="s">
         <v>21</v>
@@ -14403,10 +14403,10 @@
         <v>11</v>
       </c>
       <c r="C416">
-        <v>8563</v>
+        <v>8675</v>
       </c>
       <c r="D416">
-        <v>11423258</v>
+        <v>11574954</v>
       </c>
       <c r="E416" t="s">
         <v>22</v>
@@ -14467,10 +14467,10 @@
         <v>11</v>
       </c>
       <c r="C418">
-        <v>3958</v>
+        <v>4008</v>
       </c>
       <c r="D418">
-        <v>5794672</v>
+        <v>5868292</v>
       </c>
       <c r="E418" t="s">
         <v>22</v>
@@ -14499,10 +14499,10 @@
         <v>11</v>
       </c>
       <c r="C419">
-        <v>2445</v>
+        <v>2473</v>
       </c>
       <c r="D419">
-        <v>3536367</v>
+        <v>3578367</v>
       </c>
       <c r="E419" t="s">
         <v>22</v>
@@ -14595,10 +14595,10 @@
         <v>11</v>
       </c>
       <c r="C422">
-        <v>2393</v>
+        <v>2442</v>
       </c>
       <c r="D422">
-        <v>3383012</v>
+        <v>3450906</v>
       </c>
       <c r="E422" t="s">
         <v>23</v>
@@ -14627,10 +14627,10 @@
         <v>11</v>
       </c>
       <c r="C423">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="D423">
-        <v>1021993</v>
+        <v>1035463</v>
       </c>
       <c r="E423" t="s">
         <v>23</v>
@@ -14659,10 +14659,10 @@
         <v>11</v>
       </c>
       <c r="C424">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D424">
-        <v>132600</v>
+        <v>137100</v>
       </c>
       <c r="E424" t="s">
         <v>23</v>
@@ -14755,10 +14755,10 @@
         <v>11</v>
       </c>
       <c r="C427">
-        <v>13163</v>
+        <v>13264</v>
       </c>
       <c r="D427">
-        <v>16815822</v>
+        <v>16935579</v>
       </c>
       <c r="E427" t="s">
         <v>24</v>
@@ -14883,10 +14883,10 @@
         <v>11</v>
       </c>
       <c r="C431">
-        <v>5858</v>
+        <v>5914</v>
       </c>
       <c r="D431">
-        <v>8623811</v>
+        <v>8703961</v>
       </c>
       <c r="E431" t="s">
         <v>24</v>
@@ -14915,10 +14915,10 @@
         <v>11</v>
       </c>
       <c r="C432">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="D432">
-        <v>2916808</v>
+        <v>2950809</v>
       </c>
       <c r="E432" t="s">
         <v>24</v>
@@ -14947,10 +14947,10 @@
         <v>11</v>
       </c>
       <c r="C433">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D433">
-        <v>250406</v>
+        <v>257906</v>
       </c>
       <c r="E433" t="s">
         <v>24</v>
@@ -14979,10 +14979,10 @@
         <v>11</v>
       </c>
       <c r="C434">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D434">
-        <v>238716</v>
+        <v>247004</v>
       </c>
       <c r="E434" t="s">
         <v>24</v>
@@ -15011,10 +15011,10 @@
         <v>11</v>
       </c>
       <c r="C435">
-        <v>8845</v>
+        <v>8902</v>
       </c>
       <c r="D435">
-        <v>11246346</v>
+        <v>11312980</v>
       </c>
       <c r="E435" t="s">
         <v>24</v>
@@ -15107,10 +15107,10 @@
         <v>11</v>
       </c>
       <c r="C438">
-        <v>3850</v>
+        <v>3884</v>
       </c>
       <c r="D438">
-        <v>5686040</v>
+        <v>5737040</v>
       </c>
       <c r="E438" t="s">
         <v>24</v>
@@ -15139,10 +15139,10 @@
         <v>11</v>
       </c>
       <c r="C439">
-        <v>1640</v>
+        <v>1653</v>
       </c>
       <c r="D439">
-        <v>2376144</v>
+        <v>2394061</v>
       </c>
       <c r="E439" t="s">
         <v>24</v>
@@ -15203,10 +15203,10 @@
         <v>11</v>
       </c>
       <c r="C441">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D441">
-        <v>122258</v>
+        <v>125258</v>
       </c>
       <c r="E441" t="s">
         <v>24</v>
@@ -15235,10 +15235,10 @@
         <v>11</v>
       </c>
       <c r="C442">
-        <v>8559</v>
+        <v>8638</v>
       </c>
       <c r="D442">
-        <v>11035431</v>
+        <v>11138514</v>
       </c>
       <c r="E442" t="s">
         <v>24</v>
@@ -15331,10 +15331,10 @@
         <v>11</v>
       </c>
       <c r="C445">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D445">
-        <v>114777</v>
+        <v>116277</v>
       </c>
       <c r="E445" t="s">
         <v>24</v>
@@ -15363,10 +15363,10 @@
         <v>11</v>
       </c>
       <c r="C446">
-        <v>3442</v>
+        <v>3473</v>
       </c>
       <c r="D446">
-        <v>5089182</v>
+        <v>5134894</v>
       </c>
       <c r="E446" t="s">
         <v>24</v>
@@ -15395,10 +15395,10 @@
         <v>11</v>
       </c>
       <c r="C447">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D447">
-        <v>1054361</v>
+        <v>1058861</v>
       </c>
       <c r="E447" t="s">
         <v>24</v>
@@ -15427,10 +15427,10 @@
         <v>11</v>
       </c>
       <c r="C448">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D448">
-        <v>206178</v>
+        <v>209178</v>
       </c>
       <c r="E448" t="s">
         <v>24</v>
@@ -15459,10 +15459,10 @@
         <v>11</v>
       </c>
       <c r="C449">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D449">
-        <v>127937</v>
+        <v>132327</v>
       </c>
       <c r="E449" t="s">
         <v>24</v>
@@ -15491,10 +15491,10 @@
         <v>11</v>
       </c>
       <c r="C450">
-        <v>4645</v>
+        <v>4679</v>
       </c>
       <c r="D450">
-        <v>6064793</v>
+        <v>6110861</v>
       </c>
       <c r="E450" t="s">
         <v>24</v>
@@ -15587,10 +15587,10 @@
         <v>11</v>
       </c>
       <c r="C453">
-        <v>1654</v>
+        <v>1667</v>
       </c>
       <c r="D453">
-        <v>2435984</v>
+        <v>2455484</v>
       </c>
       <c r="E453" t="s">
         <v>24</v>
@@ -15619,10 +15619,10 @@
         <v>11</v>
       </c>
       <c r="C454">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D454">
-        <v>780602</v>
+        <v>785102</v>
       </c>
       <c r="E454" t="s">
         <v>24</v>
@@ -15651,10 +15651,10 @@
         <v>11</v>
       </c>
       <c r="C455">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D455">
-        <v>126669</v>
+        <v>129669</v>
       </c>
       <c r="E455" t="s">
         <v>24</v>
@@ -15683,10 +15683,10 @@
         <v>11</v>
       </c>
       <c r="C456">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D456">
-        <v>60777</v>
+        <v>66777</v>
       </c>
       <c r="E456" t="s">
         <v>24</v>
@@ -15715,10 +15715,10 @@
         <v>11</v>
       </c>
       <c r="C457">
-        <v>17138</v>
+        <v>17280</v>
       </c>
       <c r="D457">
-        <v>21406393</v>
+        <v>21587130</v>
       </c>
       <c r="E457" t="s">
         <v>24</v>
@@ -15811,10 +15811,10 @@
         <v>11</v>
       </c>
       <c r="C460">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D460">
-        <v>122095</v>
+        <v>125095</v>
       </c>
       <c r="E460" t="s">
         <v>24</v>
@@ -15843,10 +15843,10 @@
         <v>11</v>
       </c>
       <c r="C461">
-        <v>7190</v>
+        <v>7268</v>
       </c>
       <c r="D461">
-        <v>10612746</v>
+        <v>10725326</v>
       </c>
       <c r="E461" t="s">
         <v>24</v>
@@ -15907,10 +15907,10 @@
         <v>11</v>
       </c>
       <c r="C463">
-        <v>2818</v>
+        <v>2850</v>
       </c>
       <c r="D463">
-        <v>4110899</v>
+        <v>4158899</v>
       </c>
       <c r="E463" t="s">
         <v>24</v>
@@ -15939,10 +15939,10 @@
         <v>11</v>
       </c>
       <c r="C464">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D464">
-        <v>182932</v>
+        <v>191032</v>
       </c>
       <c r="E464" t="s">
         <v>24</v>
@@ -15971,10 +15971,10 @@
         <v>11</v>
       </c>
       <c r="C465">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D465">
-        <v>319759</v>
+        <v>327259</v>
       </c>
       <c r="E465" t="s">
         <v>24</v>
@@ -16003,10 +16003,10 @@
         <v>11</v>
       </c>
       <c r="C466">
-        <v>6864</v>
+        <v>6912</v>
       </c>
       <c r="D466">
-        <v>8574301</v>
+        <v>8627860</v>
       </c>
       <c r="E466" t="s">
         <v>25</v>
@@ -16131,10 +16131,10 @@
         <v>11</v>
       </c>
       <c r="C470">
-        <v>2445</v>
+        <v>2457</v>
       </c>
       <c r="D470">
-        <v>3598603</v>
+        <v>3615437</v>
       </c>
       <c r="E470" t="s">
         <v>25</v>
@@ -16163,10 +16163,10 @@
         <v>11</v>
       </c>
       <c r="C471">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="D471">
-        <v>1012285</v>
+        <v>1019785</v>
       </c>
       <c r="E471" t="s">
         <v>25</v>
@@ -16227,10 +16227,10 @@
         <v>11</v>
       </c>
       <c r="C473">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D473">
-        <v>113061</v>
+        <v>119061</v>
       </c>
       <c r="E473" t="s">
         <v>25</v>
@@ -16259,10 +16259,10 @@
         <v>11</v>
       </c>
       <c r="C474">
-        <v>17282</v>
+        <v>17403</v>
       </c>
       <c r="D474">
-        <v>21856818</v>
+        <v>22006554</v>
       </c>
       <c r="E474" t="s">
         <v>25</v>
@@ -16355,10 +16355,10 @@
         <v>11</v>
       </c>
       <c r="C477">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D477">
-        <v>106200</v>
+        <v>107700</v>
       </c>
       <c r="E477" t="s">
         <v>25</v>
@@ -16387,10 +16387,10 @@
         <v>11</v>
       </c>
       <c r="C478">
-        <v>7142</v>
+        <v>7189</v>
       </c>
       <c r="D478">
-        <v>10545005</v>
+        <v>10615505</v>
       </c>
       <c r="E478" t="s">
         <v>25</v>
@@ -16451,10 +16451,10 @@
         <v>11</v>
       </c>
       <c r="C480">
-        <v>1926</v>
+        <v>1938</v>
       </c>
       <c r="D480">
-        <v>2785045</v>
+        <v>2803025</v>
       </c>
       <c r="E480" t="s">
         <v>25</v>
@@ -16515,10 +16515,10 @@
         <v>11</v>
       </c>
       <c r="C482">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D482">
-        <v>429867</v>
+        <v>435867</v>
       </c>
       <c r="E482" t="s">
         <v>25</v>
@@ -16547,10 +16547,10 @@
         <v>11</v>
       </c>
       <c r="C483">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D483">
-        <v>182900</v>
+        <v>187561</v>
       </c>
       <c r="E483" t="s">
         <v>25</v>
@@ -16579,10 +16579,10 @@
         <v>11</v>
       </c>
       <c r="C484">
-        <v>4554</v>
+        <v>4591</v>
       </c>
       <c r="D484">
-        <v>5866722</v>
+        <v>5918839</v>
       </c>
       <c r="E484" t="s">
         <v>25</v>
@@ -16643,10 +16643,10 @@
         <v>11</v>
       </c>
       <c r="C486">
-        <v>1727</v>
+        <v>1742</v>
       </c>
       <c r="D486">
-        <v>2552074</v>
+        <v>2573511</v>
       </c>
       <c r="E486" t="s">
         <v>25</v>
@@ -16707,10 +16707,10 @@
         <v>11</v>
       </c>
       <c r="C488">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="D488">
-        <v>1188375</v>
+        <v>1200375</v>
       </c>
       <c r="E488" t="s">
         <v>25</v>
@@ -16739,10 +16739,10 @@
         <v>11</v>
       </c>
       <c r="C489">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D489">
-        <v>158844</v>
+        <v>161252</v>
       </c>
       <c r="E489" t="s">
         <v>25</v>
@@ -16771,10 +16771,10 @@
         <v>11</v>
       </c>
       <c r="C490">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D490">
-        <v>81195</v>
+        <v>83999</v>
       </c>
       <c r="E490" t="s">
         <v>25</v>
@@ -16803,10 +16803,10 @@
         <v>11</v>
       </c>
       <c r="C491">
-        <v>2207</v>
+        <v>2229</v>
       </c>
       <c r="D491">
-        <v>2736270</v>
+        <v>2760773</v>
       </c>
       <c r="E491" t="s">
         <v>25</v>
@@ -16835,10 +16835,10 @@
         <v>11</v>
       </c>
       <c r="C492">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D492">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="E492" t="s">
         <v>25</v>
@@ -16867,10 +16867,10 @@
         <v>11</v>
       </c>
       <c r="C493">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D493">
-        <v>723771</v>
+        <v>733330</v>
       </c>
       <c r="E493" t="s">
         <v>25</v>
@@ -16931,10 +16931,10 @@
         <v>11</v>
       </c>
       <c r="C495">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D495">
-        <v>375135</v>
+        <v>379935</v>
       </c>
       <c r="E495" t="s">
         <v>25</v>
@@ -17027,10 +17027,10 @@
         <v>11</v>
       </c>
       <c r="C498">
-        <v>5615</v>
+        <v>5652</v>
       </c>
       <c r="D498">
-        <v>7165483</v>
+        <v>7216892</v>
       </c>
       <c r="E498" t="s">
         <v>25</v>
@@ -17155,10 +17155,10 @@
         <v>11</v>
       </c>
       <c r="C502">
-        <v>2339</v>
+        <v>2354</v>
       </c>
       <c r="D502">
-        <v>3464382</v>
+        <v>3486333</v>
       </c>
       <c r="E502" t="s">
         <v>25</v>
@@ -17187,10 +17187,10 @@
         <v>11</v>
       </c>
       <c r="C503">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D503">
-        <v>654316</v>
+        <v>658816</v>
       </c>
       <c r="E503" t="s">
         <v>25</v>
@@ -17219,10 +17219,10 @@
         <v>11</v>
       </c>
       <c r="C504">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D504">
-        <v>114979</v>
+        <v>119479</v>
       </c>
       <c r="E504" t="s">
         <v>25</v>
@@ -17251,10 +17251,10 @@
         <v>11</v>
       </c>
       <c r="C505">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D505">
-        <v>116222</v>
+        <v>126670</v>
       </c>
       <c r="E505" t="s">
         <v>25</v>
@@ -17283,10 +17283,10 @@
         <v>11</v>
       </c>
       <c r="C506">
-        <v>11524</v>
+        <v>11622</v>
       </c>
       <c r="D506">
-        <v>14324807</v>
+        <v>14446088</v>
       </c>
       <c r="E506" t="s">
         <v>25</v>
@@ -17411,10 +17411,10 @@
         <v>11</v>
       </c>
       <c r="C510">
-        <v>3592</v>
+        <v>3625</v>
       </c>
       <c r="D510">
-        <v>5270728</v>
+        <v>5318080</v>
       </c>
       <c r="E510" t="s">
         <v>25</v>
@@ -17475,10 +17475,10 @@
         <v>11</v>
       </c>
       <c r="C512">
-        <v>1376</v>
+        <v>1389</v>
       </c>
       <c r="D512">
-        <v>1995649</v>
+        <v>2013572</v>
       </c>
       <c r="E512" t="s">
         <v>25</v>
@@ -17507,10 +17507,10 @@
         <v>11</v>
       </c>
       <c r="C513">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D513">
-        <v>282904</v>
+        <v>288904</v>
       </c>
       <c r="E513" t="s">
         <v>25</v>
@@ -17539,10 +17539,10 @@
         <v>11</v>
       </c>
       <c r="C514">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D514">
-        <v>175936</v>
+        <v>178936</v>
       </c>
       <c r="E514" t="s">
         <v>25</v>
@@ -17571,10 +17571,10 @@
         <v>11</v>
       </c>
       <c r="C515">
-        <v>41804</v>
+        <v>42134</v>
       </c>
       <c r="D515">
-        <v>53151059</v>
+        <v>53547096</v>
       </c>
       <c r="E515" t="s">
         <v>25</v>
@@ -17603,10 +17603,10 @@
         <v>11</v>
       </c>
       <c r="C516">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D516">
-        <v>20157</v>
+        <v>21197</v>
       </c>
       <c r="E516" t="s">
         <v>25</v>
@@ -17635,10 +17635,10 @@
         <v>11</v>
       </c>
       <c r="C517">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D517">
-        <v>19798</v>
+        <v>21298</v>
       </c>
       <c r="E517" t="s">
         <v>25</v>
@@ -17699,10 +17699,10 @@
         <v>11</v>
       </c>
       <c r="C519">
-        <v>17030</v>
+        <v>17187</v>
       </c>
       <c r="D519">
-        <v>25116327</v>
+        <v>25348381</v>
       </c>
       <c r="E519" t="s">
         <v>25</v>
@@ -17763,10 +17763,10 @@
         <v>11</v>
       </c>
       <c r="C521">
-        <v>7787</v>
+        <v>7865</v>
       </c>
       <c r="D521">
-        <v>11265882</v>
+        <v>11377364</v>
       </c>
       <c r="E521" t="s">
         <v>25</v>
@@ -17827,10 +17827,10 @@
         <v>11</v>
       </c>
       <c r="C523">
-        <v>1042</v>
+        <v>1058</v>
       </c>
       <c r="D523">
-        <v>1501708</v>
+        <v>1524683</v>
       </c>
       <c r="E523" t="s">
         <v>25</v>
@@ -17891,10 +17891,10 @@
         <v>11</v>
       </c>
       <c r="C525">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D525">
-        <v>589219</v>
+        <v>596719</v>
       </c>
       <c r="E525" t="s">
         <v>25</v>
@@ -17923,10 +17923,10 @@
         <v>11</v>
       </c>
       <c r="C526">
-        <v>6499</v>
+        <v>6559</v>
       </c>
       <c r="D526">
-        <v>8062570</v>
+        <v>8130789</v>
       </c>
       <c r="E526" t="s">
         <v>25</v>
@@ -17987,10 +17987,10 @@
         <v>11</v>
       </c>
       <c r="C528">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D528">
-        <v>51477</v>
+        <v>52977</v>
       </c>
       <c r="E528" t="s">
         <v>25</v>
@@ -18019,10 +18019,10 @@
         <v>11</v>
       </c>
       <c r="C529">
-        <v>2724</v>
+        <v>2764</v>
       </c>
       <c r="D529">
-        <v>4004644</v>
+        <v>4064089</v>
       </c>
       <c r="E529" t="s">
         <v>25</v>
@@ -18083,10 +18083,10 @@
         <v>11</v>
       </c>
       <c r="C531">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="D531">
-        <v>1353421</v>
+        <v>1364255</v>
       </c>
       <c r="E531" t="s">
         <v>25</v>
@@ -18147,10 +18147,10 @@
         <v>11</v>
       </c>
       <c r="C533">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D533">
-        <v>87926</v>
+        <v>92426</v>
       </c>
       <c r="E533" t="s">
         <v>25</v>
@@ -18179,10 +18179,10 @@
         <v>11</v>
       </c>
       <c r="C534">
-        <v>10783</v>
+        <v>10844</v>
       </c>
       <c r="D534">
-        <v>13501310</v>
+        <v>13566888</v>
       </c>
       <c r="E534" t="s">
         <v>25</v>
@@ -18243,10 +18243,10 @@
         <v>11</v>
       </c>
       <c r="C536">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D536">
-        <v>5784</v>
+        <v>8784</v>
       </c>
       <c r="E536" t="s">
         <v>25</v>
@@ -18307,10 +18307,10 @@
         <v>11</v>
       </c>
       <c r="C538">
-        <v>4475</v>
+        <v>4500</v>
       </c>
       <c r="D538">
-        <v>6565869</v>
+        <v>6602112</v>
       </c>
       <c r="E538" t="s">
         <v>25</v>
@@ -18371,10 +18371,10 @@
         <v>11</v>
       </c>
       <c r="C540">
-        <v>1353</v>
+        <v>1365</v>
       </c>
       <c r="D540">
-        <v>1951137</v>
+        <v>1969137</v>
       </c>
       <c r="E540" t="s">
         <v>25</v>
@@ -18403,10 +18403,10 @@
         <v>11</v>
       </c>
       <c r="C541">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D541">
-        <v>223315</v>
+        <v>225560</v>
       </c>
       <c r="E541" t="s">
         <v>25</v>
@@ -18435,10 +18435,10 @@
         <v>11</v>
       </c>
       <c r="C542">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D542">
-        <v>201725</v>
+        <v>204725</v>
       </c>
       <c r="E542" t="s">
         <v>25</v>
@@ -18467,10 +18467,10 @@
         <v>11</v>
       </c>
       <c r="C543">
-        <v>7015</v>
+        <v>7067</v>
       </c>
       <c r="D543">
-        <v>8780066</v>
+        <v>8843592</v>
       </c>
       <c r="E543" t="s">
         <v>25</v>
@@ -18531,10 +18531,10 @@
         <v>11</v>
       </c>
       <c r="C545">
-        <v>2778</v>
+        <v>2811</v>
       </c>
       <c r="D545">
-        <v>4100179</v>
+        <v>4147805</v>
       </c>
       <c r="E545" t="s">
         <v>25</v>
@@ -18595,10 +18595,10 @@
         <v>11</v>
       </c>
       <c r="C547">
-        <v>1026</v>
+        <v>1040</v>
       </c>
       <c r="D547">
-        <v>1484809</v>
+        <v>1505285</v>
       </c>
       <c r="E547" t="s">
         <v>25</v>
@@ -18627,10 +18627,10 @@
         <v>11</v>
       </c>
       <c r="C548">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D548">
-        <v>190141</v>
+        <v>191641</v>
       </c>
       <c r="E548" t="s">
         <v>25</v>
@@ -18659,10 +18659,10 @@
         <v>11</v>
       </c>
       <c r="C549">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D549">
-        <v>169063</v>
+        <v>170563</v>
       </c>
       <c r="E549" t="s">
         <v>25</v>
@@ -18691,10 +18691,10 @@
         <v>11</v>
       </c>
       <c r="C550">
-        <v>17535</v>
+        <v>17687</v>
       </c>
       <c r="D550">
-        <v>22188713</v>
+        <v>22381943</v>
       </c>
       <c r="E550" t="s">
         <v>25</v>
@@ -18787,10 +18787,10 @@
         <v>11</v>
       </c>
       <c r="C553">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D553">
-        <v>95554</v>
+        <v>97054</v>
       </c>
       <c r="E553" t="s">
         <v>25</v>
@@ -18819,10 +18819,10 @@
         <v>11</v>
       </c>
       <c r="C554">
-        <v>8032</v>
+        <v>8154</v>
       </c>
       <c r="D554">
-        <v>11814866</v>
+        <v>11994035</v>
       </c>
       <c r="E554" t="s">
         <v>25</v>
@@ -18883,10 +18883,10 @@
         <v>11</v>
       </c>
       <c r="C556">
-        <v>2529</v>
+        <v>2543</v>
       </c>
       <c r="D556">
-        <v>3655147</v>
+        <v>3674797</v>
       </c>
       <c r="E556" t="s">
         <v>25</v>
@@ -18947,10 +18947,10 @@
         <v>11</v>
       </c>
       <c r="C558">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D558">
-        <v>469291</v>
+        <v>472350</v>
       </c>
       <c r="E558" t="s">
         <v>25</v>
@@ -18979,10 +18979,10 @@
         <v>11</v>
       </c>
       <c r="C559">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D559">
-        <v>385071</v>
+        <v>400068</v>
       </c>
       <c r="E559" t="s">
         <v>25</v>
@@ -19011,10 +19011,10 @@
         <v>11</v>
       </c>
       <c r="C560">
-        <v>7065</v>
+        <v>7135</v>
       </c>
       <c r="D560">
-        <v>8879923</v>
+        <v>8962081</v>
       </c>
       <c r="E560" t="s">
         <v>25</v>
@@ -19107,10 +19107,10 @@
         <v>11</v>
       </c>
       <c r="C563">
-        <v>3033</v>
+        <v>3063</v>
       </c>
       <c r="D563">
-        <v>4467361</v>
+        <v>4509782</v>
       </c>
       <c r="E563" t="s">
         <v>25</v>
@@ -19139,10 +19139,10 @@
         <v>11</v>
       </c>
       <c r="C564">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="D564">
-        <v>1002068</v>
+        <v>1011566</v>
       </c>
       <c r="E564" t="s">
         <v>25</v>
@@ -19203,10 +19203,10 @@
         <v>11</v>
       </c>
       <c r="C566">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D566">
-        <v>188096</v>
+        <v>192596</v>
       </c>
       <c r="E566" t="s">
         <v>25</v>
@@ -19235,10 +19235,10 @@
         <v>11</v>
       </c>
       <c r="C567">
-        <v>3790</v>
+        <v>3816</v>
       </c>
       <c r="D567">
-        <v>4552420</v>
+        <v>4583699</v>
       </c>
       <c r="E567" t="s">
         <v>26</v>
@@ -19299,10 +19299,10 @@
         <v>11</v>
       </c>
       <c r="C569">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="D569">
-        <v>1481709</v>
+        <v>1503651</v>
       </c>
       <c r="E569" t="s">
         <v>26</v>
@@ -19331,10 +19331,10 @@
         <v>11</v>
       </c>
       <c r="C570">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D570">
-        <v>833722</v>
+        <v>841222</v>
       </c>
       <c r="E570" t="s">
         <v>26</v>
@@ -19363,10 +19363,10 @@
         <v>11</v>
       </c>
       <c r="C571">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D571">
-        <v>115995</v>
+        <v>118316</v>
       </c>
       <c r="E571" t="s">
         <v>26</v>
@@ -19395,10 +19395,10 @@
         <v>11</v>
       </c>
       <c r="C572">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D572">
-        <v>57598</v>
+        <v>62098</v>
       </c>
       <c r="E572" t="s">
         <v>26</v>
@@ -19427,10 +19427,10 @@
         <v>11</v>
       </c>
       <c r="C573">
-        <v>9798</v>
+        <v>9870</v>
       </c>
       <c r="D573">
-        <v>12065386</v>
+        <v>12157432</v>
       </c>
       <c r="E573" t="s">
         <v>26</v>
@@ -19555,10 +19555,10 @@
         <v>11</v>
       </c>
       <c r="C577">
-        <v>3436</v>
+        <v>3481</v>
       </c>
       <c r="D577">
-        <v>5050646</v>
+        <v>5116244</v>
       </c>
       <c r="E577" t="s">
         <v>26</v>
@@ -19587,10 +19587,10 @@
         <v>11</v>
       </c>
       <c r="C578">
-        <v>2053</v>
+        <v>2070</v>
       </c>
       <c r="D578">
-        <v>3006926</v>
+        <v>3032177</v>
       </c>
       <c r="E578" t="s">
         <v>26</v>
@@ -19651,10 +19651,10 @@
         <v>11</v>
       </c>
       <c r="C580">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D580">
-        <v>297586</v>
+        <v>300320</v>
       </c>
       <c r="E580" t="s">
         <v>26</v>
@@ -19683,10 +19683,10 @@
         <v>11</v>
       </c>
       <c r="C581">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D581">
-        <v>144061</v>
+        <v>147061</v>
       </c>
       <c r="E581" t="s">
         <v>26</v>
@@ -19715,10 +19715,10 @@
         <v>11</v>
       </c>
       <c r="C582">
-        <v>6779</v>
+        <v>6835</v>
       </c>
       <c r="D582">
-        <v>8721336</v>
+        <v>8794735</v>
       </c>
       <c r="E582" t="s">
         <v>26</v>
@@ -19811,10 +19811,10 @@
         <v>11</v>
       </c>
       <c r="C585">
-        <v>2399</v>
+        <v>2418</v>
       </c>
       <c r="D585">
-        <v>3531263</v>
+        <v>3559319</v>
       </c>
       <c r="E585" t="s">
         <v>26</v>
@@ -19875,10 +19875,10 @@
         <v>11</v>
       </c>
       <c r="C587">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="D587">
-        <v>1058082</v>
+        <v>1063239</v>
       </c>
       <c r="E587" t="s">
         <v>26</v>
@@ -19907,10 +19907,10 @@
         <v>11</v>
       </c>
       <c r="C588">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D588">
-        <v>333171</v>
+        <v>338478</v>
       </c>
       <c r="E588" t="s">
         <v>26</v>
@@ -19939,10 +19939,10 @@
         <v>11</v>
       </c>
       <c r="C589">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D589">
-        <v>130769</v>
+        <v>134671</v>
       </c>
       <c r="E589" t="s">
         <v>26</v>
@@ -19971,10 +19971,10 @@
         <v>11</v>
       </c>
       <c r="C590">
-        <v>18987</v>
+        <v>19146</v>
       </c>
       <c r="D590">
-        <v>23598320</v>
+        <v>23796873</v>
       </c>
       <c r="E590" t="s">
         <v>26</v>
@@ -20099,10 +20099,10 @@
         <v>11</v>
       </c>
       <c r="C594">
-        <v>8291</v>
+        <v>8372</v>
       </c>
       <c r="D594">
-        <v>12209621</v>
+        <v>12328241</v>
       </c>
       <c r="E594" t="s">
         <v>26</v>
@@ -20163,10 +20163,10 @@
         <v>11</v>
       </c>
       <c r="C596">
-        <v>3697</v>
+        <v>3741</v>
       </c>
       <c r="D596">
-        <v>5369725</v>
+        <v>5431631</v>
       </c>
       <c r="E596" t="s">
         <v>26</v>
@@ -20195,10 +20195,10 @@
         <v>11</v>
       </c>
       <c r="C597">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D597">
-        <v>385848</v>
+        <v>393864</v>
       </c>
       <c r="E597" t="s">
         <v>26</v>
@@ -20227,10 +20227,10 @@
         <v>11</v>
       </c>
       <c r="C598">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D598">
-        <v>343909</v>
+        <v>351409</v>
       </c>
       <c r="E598" t="s">
         <v>26</v>
@@ -20259,10 +20259,10 @@
         <v>11</v>
       </c>
       <c r="C599">
-        <v>4519</v>
+        <v>4546</v>
       </c>
       <c r="D599">
-        <v>5700628</v>
+        <v>5737037</v>
       </c>
       <c r="E599" t="s">
         <v>26</v>
@@ -20355,10 +20355,10 @@
         <v>11</v>
       </c>
       <c r="C602">
-        <v>1684</v>
+        <v>1706</v>
       </c>
       <c r="D602">
-        <v>2475877</v>
+        <v>2508057</v>
       </c>
       <c r="E602" t="s">
         <v>26</v>
@@ -20387,10 +20387,10 @@
         <v>11</v>
       </c>
       <c r="C603">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="D603">
-        <v>1002407</v>
+        <v>1012507</v>
       </c>
       <c r="E603" t="s">
         <v>26</v>
@@ -20419,10 +20419,10 @@
         <v>11</v>
       </c>
       <c r="C604">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D604">
-        <v>254967</v>
+        <v>258112</v>
       </c>
       <c r="E604" t="s">
         <v>26</v>
@@ -20451,10 +20451,10 @@
         <v>11</v>
       </c>
       <c r="C605">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D605">
-        <v>113014</v>
+        <v>117514</v>
       </c>
       <c r="E605" t="s">
         <v>26</v>
@@ -20483,10 +20483,10 @@
         <v>11</v>
       </c>
       <c r="C606">
-        <v>31445</v>
+        <v>31751</v>
       </c>
       <c r="D606">
-        <v>39522520</v>
+        <v>39889189</v>
       </c>
       <c r="E606" t="s">
         <v>26</v>
@@ -20611,10 +20611,10 @@
         <v>11</v>
       </c>
       <c r="C610">
-        <v>13449</v>
+        <v>13581</v>
       </c>
       <c r="D610">
-        <v>19800541</v>
+        <v>19991027</v>
       </c>
       <c r="E610" t="s">
         <v>26</v>
@@ -20707,10 +20707,10 @@
         <v>11</v>
       </c>
       <c r="C613">
-        <v>7323</v>
+        <v>7394</v>
       </c>
       <c r="D613">
-        <v>10624251</v>
+        <v>10723385</v>
       </c>
       <c r="E613" t="s">
         <v>26</v>
@@ -20771,10 +20771,10 @@
         <v>11</v>
       </c>
       <c r="C615">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D615">
-        <v>343734</v>
+        <v>345134</v>
       </c>
       <c r="E615" t="s">
         <v>26</v>
@@ -20803,10 +20803,10 @@
         <v>11</v>
       </c>
       <c r="C616">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="D616">
-        <v>704345</v>
+        <v>717034</v>
       </c>
       <c r="E616" t="s">
         <v>26</v>
@@ -20835,10 +20835,10 @@
         <v>11</v>
       </c>
       <c r="C617">
-        <v>6416</v>
+        <v>6462</v>
       </c>
       <c r="D617">
-        <v>8138863</v>
+        <v>8202246</v>
       </c>
       <c r="E617" t="s">
         <v>26</v>
@@ -20931,10 +20931,10 @@
         <v>11</v>
       </c>
       <c r="C620">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D620">
-        <v>26659</v>
+        <v>28159</v>
       </c>
       <c r="E620" t="s">
         <v>26</v>
@@ -20963,10 +20963,10 @@
         <v>11</v>
       </c>
       <c r="C621">
-        <v>2284</v>
+        <v>2305</v>
       </c>
       <c r="D621">
-        <v>3361142</v>
+        <v>3390763</v>
       </c>
       <c r="E621" t="s">
         <v>26</v>
@@ -21027,10 +21027,10 @@
         <v>11</v>
       </c>
       <c r="C623">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="D623">
-        <v>1054267</v>
+        <v>1058767</v>
       </c>
       <c r="E623" t="s">
         <v>26</v>
@@ -21155,10 +21155,10 @@
         <v>11</v>
       </c>
       <c r="C627">
-        <v>33621</v>
+        <v>33910</v>
       </c>
       <c r="D627">
-        <v>42009431</v>
+        <v>42365456</v>
       </c>
       <c r="E627" t="s">
         <v>26</v>
@@ -21315,10 +21315,10 @@
         <v>11</v>
       </c>
       <c r="C632">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D632">
-        <v>76341</v>
+        <v>77841</v>
       </c>
       <c r="E632" t="s">
         <v>26</v>
@@ -21347,10 +21347,10 @@
         <v>11</v>
       </c>
       <c r="C633">
-        <v>14107</v>
+        <v>14241</v>
       </c>
       <c r="D633">
-        <v>20798888</v>
+        <v>20994150</v>
       </c>
       <c r="E633" t="s">
         <v>26</v>
@@ -21411,10 +21411,10 @@
         <v>11</v>
       </c>
       <c r="C635">
-        <v>8487</v>
+        <v>8563</v>
       </c>
       <c r="D635">
-        <v>12335819</v>
+        <v>12447896</v>
       </c>
       <c r="E635" t="s">
         <v>26</v>
@@ -21475,10 +21475,10 @@
         <v>11</v>
       </c>
       <c r="C637">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D637">
-        <v>720513</v>
+        <v>727599</v>
       </c>
       <c r="E637" t="s">
         <v>26</v>
@@ -21507,10 +21507,10 @@
         <v>11</v>
       </c>
       <c r="C638">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D638">
-        <v>643042</v>
+        <v>653389</v>
       </c>
       <c r="E638" t="s">
         <v>26</v>
@@ -21571,10 +21571,10 @@
         <v>11</v>
       </c>
       <c r="C640">
-        <v>4486</v>
+        <v>4530</v>
       </c>
       <c r="D640">
-        <v>5602727</v>
+        <v>5659020</v>
       </c>
       <c r="E640" t="s">
         <v>26</v>
@@ -21635,10 +21635,10 @@
         <v>11</v>
       </c>
       <c r="C642">
-        <v>1563</v>
+        <v>1572</v>
       </c>
       <c r="D642">
-        <v>2288299</v>
+        <v>2301799</v>
       </c>
       <c r="E642" t="s">
         <v>26</v>
@@ -21667,10 +21667,10 @@
         <v>11</v>
       </c>
       <c r="C643">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D643">
-        <v>932006</v>
+        <v>938006</v>
       </c>
       <c r="E643" t="s">
         <v>26</v>
@@ -21731,10 +21731,10 @@
         <v>11</v>
       </c>
       <c r="C645">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D645">
-        <v>73424</v>
+        <v>79380</v>
       </c>
       <c r="E645" t="s">
         <v>26</v>
@@ -21763,10 +21763,10 @@
         <v>11</v>
       </c>
       <c r="C646">
-        <v>1690</v>
+        <v>1717</v>
       </c>
       <c r="D646">
-        <v>2169542</v>
+        <v>2204632</v>
       </c>
       <c r="E646" t="s">
         <v>26</v>
@@ -21827,10 +21827,10 @@
         <v>11</v>
       </c>
       <c r="C648">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="D648">
-        <v>1009195</v>
+        <v>1027195</v>
       </c>
       <c r="E648" t="s">
         <v>26</v>
@@ -21891,10 +21891,10 @@
         <v>11</v>
       </c>
       <c r="C650">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D650">
-        <v>303993</v>
+        <v>308493</v>
       </c>
       <c r="E650" t="s">
         <v>26</v>
@@ -21923,10 +21923,10 @@
         <v>11</v>
       </c>
       <c r="C651">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D651">
-        <v>59410</v>
+        <v>60910</v>
       </c>
       <c r="E651" t="s">
         <v>26</v>
@@ -21987,10 +21987,10 @@
         <v>11</v>
       </c>
       <c r="C653">
-        <v>13186</v>
+        <v>13275</v>
       </c>
       <c r="D653">
-        <v>16707615</v>
+        <v>16821701</v>
       </c>
       <c r="E653" t="s">
         <v>26</v>
@@ -22051,10 +22051,10 @@
         <v>11</v>
       </c>
       <c r="C655">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D655">
-        <v>24388</v>
+        <v>25888</v>
       </c>
       <c r="E655" t="s">
         <v>26</v>
@@ -22115,10 +22115,10 @@
         <v>11</v>
       </c>
       <c r="C657">
-        <v>4848</v>
+        <v>4894</v>
       </c>
       <c r="D657">
-        <v>7115118</v>
+        <v>7182488</v>
       </c>
       <c r="E657" t="s">
         <v>26</v>
@@ -22179,10 +22179,10 @@
         <v>11</v>
       </c>
       <c r="C659">
-        <v>2753</v>
+        <v>2772</v>
       </c>
       <c r="D659">
-        <v>3992140</v>
+        <v>4019808</v>
       </c>
       <c r="E659" t="s">
         <v>26</v>
@@ -22243,10 +22243,10 @@
         <v>11</v>
       </c>
       <c r="C661">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D661">
-        <v>286091</v>
+        <v>290711</v>
       </c>
       <c r="E661" t="s">
         <v>26</v>
@@ -22275,10 +22275,10 @@
         <v>11</v>
       </c>
       <c r="C662">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D662">
-        <v>169942</v>
+        <v>171442</v>
       </c>
       <c r="E662" t="s">
         <v>26</v>
@@ -22339,10 +22339,10 @@
         <v>11</v>
       </c>
       <c r="C664">
-        <v>8691</v>
+        <v>8765</v>
       </c>
       <c r="D664">
-        <v>10662994</v>
+        <v>10764181</v>
       </c>
       <c r="E664" t="s">
         <v>26</v>
@@ -22435,10 +22435,10 @@
         <v>11</v>
       </c>
       <c r="C667">
-        <v>3323</v>
+        <v>3359</v>
       </c>
       <c r="D667">
-        <v>4872612</v>
+        <v>4925263</v>
       </c>
       <c r="E667" t="s">
         <v>26</v>
@@ -22467,10 +22467,10 @@
         <v>11</v>
       </c>
       <c r="C668">
-        <v>1412</v>
+        <v>1420</v>
       </c>
       <c r="D668">
-        <v>2046063</v>
+        <v>2057273</v>
       </c>
       <c r="E668" t="s">
         <v>26</v>
@@ -22531,10 +22531,10 @@
         <v>11</v>
       </c>
       <c r="C670">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D670">
-        <v>164615</v>
+        <v>166414</v>
       </c>
       <c r="E670" t="s">
         <v>26</v>
@@ -22563,10 +22563,10 @@
         <v>11</v>
       </c>
       <c r="C671">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D671">
-        <v>145774</v>
+        <v>148660</v>
       </c>
       <c r="E671" t="s">
         <v>26</v>
@@ -22595,10 +22595,10 @@
         <v>11</v>
       </c>
       <c r="C672">
-        <v>5692</v>
+        <v>5749</v>
       </c>
       <c r="D672">
-        <v>7032532</v>
+        <v>7103727</v>
       </c>
       <c r="E672" t="s">
         <v>26</v>
@@ -22691,10 +22691,10 @@
         <v>11</v>
       </c>
       <c r="C675">
-        <v>2165</v>
+        <v>2185</v>
       </c>
       <c r="D675">
-        <v>3194891</v>
+        <v>3223796</v>
       </c>
       <c r="E675" t="s">
         <v>26</v>
@@ -22723,10 +22723,10 @@
         <v>11</v>
       </c>
       <c r="C676">
-        <v>902</v>
+        <v>911</v>
       </c>
       <c r="D676">
-        <v>1302687</v>
+        <v>1316187</v>
       </c>
       <c r="E676" t="s">
         <v>26</v>
@@ -22755,10 +22755,10 @@
         <v>11</v>
       </c>
       <c r="C677">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D677">
-        <v>79272</v>
+        <v>80772</v>
       </c>
       <c r="E677" t="s">
         <v>26</v>
@@ -22787,10 +22787,10 @@
         <v>11</v>
       </c>
       <c r="C678">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D678">
-        <v>98250</v>
+        <v>102750</v>
       </c>
       <c r="E678" t="s">
         <v>26</v>
@@ -22819,10 +22819,10 @@
         <v>11</v>
       </c>
       <c r="C679">
-        <v>25250</v>
+        <v>25462</v>
       </c>
       <c r="D679">
-        <v>32349362</v>
+        <v>32616812</v>
       </c>
       <c r="E679" t="s">
         <v>27</v>
@@ -22915,10 +22915,10 @@
         <v>11</v>
       </c>
       <c r="C682">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D682">
-        <v>125369</v>
+        <v>129869</v>
       </c>
       <c r="E682" t="s">
         <v>27</v>
@@ -22947,10 +22947,10 @@
         <v>11</v>
       </c>
       <c r="C683">
-        <v>13593</v>
+        <v>13703</v>
       </c>
       <c r="D683">
-        <v>20045166</v>
+        <v>20208135</v>
       </c>
       <c r="E683" t="s">
         <v>27</v>
@@ -23011,10 +23011,10 @@
         <v>11</v>
       </c>
       <c r="C685">
-        <v>3447</v>
+        <v>3475</v>
       </c>
       <c r="D685">
-        <v>4981439</v>
+        <v>5021746</v>
       </c>
       <c r="E685" t="s">
         <v>27</v>
@@ -23043,10 +23043,10 @@
         <v>11</v>
       </c>
       <c r="C686">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D686">
-        <v>506798</v>
+        <v>514298</v>
       </c>
       <c r="E686" t="s">
         <v>27</v>
@@ -23075,10 +23075,10 @@
         <v>11</v>
       </c>
       <c r="C687">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="D687">
-        <v>507787</v>
+        <v>520297</v>
       </c>
       <c r="E687" t="s">
         <v>27</v>
@@ -23107,10 +23107,10 @@
         <v>11</v>
       </c>
       <c r="C688">
-        <v>12522</v>
+        <v>12619</v>
       </c>
       <c r="D688">
-        <v>15855763</v>
+        <v>15974260</v>
       </c>
       <c r="E688" t="s">
         <v>27</v>
@@ -23171,10 +23171,10 @@
         <v>11</v>
       </c>
       <c r="C690">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D690">
-        <v>87631</v>
+        <v>90631</v>
       </c>
       <c r="E690" t="s">
         <v>27</v>
@@ -23203,10 +23203,10 @@
         <v>11</v>
       </c>
       <c r="C691">
-        <v>6445</v>
+        <v>6498</v>
       </c>
       <c r="D691">
-        <v>9505623</v>
+        <v>9581824</v>
       </c>
       <c r="E691" t="s">
         <v>27</v>
@@ -23267,10 +23267,10 @@
         <v>11</v>
       </c>
       <c r="C693">
-        <v>1337</v>
+        <v>1353</v>
       </c>
       <c r="D693">
-        <v>1934804</v>
+        <v>1958604</v>
       </c>
       <c r="E693" t="s">
         <v>27</v>
@@ -23299,10 +23299,10 @@
         <v>11</v>
       </c>
       <c r="C694">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D694">
-        <v>560705</v>
+        <v>567615</v>
       </c>
       <c r="E694" t="s">
         <v>27</v>
@@ -23331,10 +23331,10 @@
         <v>11</v>
       </c>
       <c r="C695">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D695">
-        <v>330505</v>
+        <v>338005</v>
       </c>
       <c r="E695" t="s">
         <v>27</v>
@@ -23363,10 +23363,10 @@
         <v>11</v>
       </c>
       <c r="C696">
-        <v>4169</v>
+        <v>4204</v>
       </c>
       <c r="D696">
-        <v>5376387</v>
+        <v>5416549</v>
       </c>
       <c r="E696" t="s">
         <v>27</v>
@@ -23427,10 +23427,10 @@
         <v>11</v>
       </c>
       <c r="C698">
-        <v>1985</v>
+        <v>2005</v>
       </c>
       <c r="D698">
-        <v>2944504</v>
+        <v>2972301</v>
       </c>
       <c r="E698" t="s">
         <v>27</v>
@@ -23459,10 +23459,10 @@
         <v>11</v>
       </c>
       <c r="C699">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D699">
-        <v>555091</v>
+        <v>557179</v>
       </c>
       <c r="E699" t="s">
         <v>27</v>
@@ -23491,10 +23491,10 @@
         <v>11</v>
       </c>
       <c r="C700">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D700">
-        <v>116323</v>
+        <v>119323</v>
       </c>
       <c r="E700" t="s">
         <v>27</v>
@@ -23523,10 +23523,10 @@
         <v>11</v>
       </c>
       <c r="C701">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D701">
-        <v>94795</v>
+        <v>95367</v>
       </c>
       <c r="E701" t="s">
         <v>27</v>
@@ -23555,10 +23555,10 @@
         <v>11</v>
       </c>
       <c r="C702">
-        <v>7979</v>
+        <v>8024</v>
       </c>
       <c r="D702">
-        <v>10096659</v>
+        <v>10149757</v>
       </c>
       <c r="E702" t="s">
         <v>27</v>
@@ -23651,10 +23651,10 @@
         <v>11</v>
       </c>
       <c r="C705">
-        <v>3425</v>
+        <v>3455</v>
       </c>
       <c r="D705">
-        <v>5049292</v>
+        <v>5093628</v>
       </c>
       <c r="E705" t="s">
         <v>27</v>
@@ -23715,10 +23715,10 @@
         <v>11</v>
       </c>
       <c r="C707">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="D707">
-        <v>1189676</v>
+        <v>1201676</v>
       </c>
       <c r="E707" t="s">
         <v>27</v>
@@ -23779,10 +23779,10 @@
         <v>11</v>
       </c>
       <c r="C709">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="D709">
-        <v>112590</v>
+        <v>2596</v>
       </c>
       <c r="E709" t="s">
         <v>27</v>
@@ -23797,10 +23797,10 @@
         <v>211</v>
       </c>
       <c r="I709" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="J709" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="710" spans="1:10">
@@ -23811,10 +23811,10 @@
         <v>11</v>
       </c>
       <c r="C710">
-        <v>11928</v>
+        <v>80</v>
       </c>
       <c r="D710">
-        <v>15262222</v>
+        <v>113834</v>
       </c>
       <c r="E710" t="s">
         <v>27</v>
@@ -23823,16 +23823,16 @@
         <v>45</v>
       </c>
       <c r="G710" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H710" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I710" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="J710" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="711" spans="1:10">
@@ -23843,10 +23843,10 @@
         <v>11</v>
       </c>
       <c r="C711">
-        <v>26</v>
+        <v>12016</v>
       </c>
       <c r="D711">
-        <v>25044</v>
+        <v>15373845</v>
       </c>
       <c r="E711" t="s">
         <v>27</v>
@@ -23861,10 +23861,10 @@
         <v>212</v>
       </c>
       <c r="I711" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J711" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="712" spans="1:10">
@@ -23875,10 +23875,10 @@
         <v>11</v>
       </c>
       <c r="C712">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D712">
-        <v>12541</v>
+        <v>25044</v>
       </c>
       <c r="E712" t="s">
         <v>27</v>
@@ -23893,10 +23893,10 @@
         <v>212</v>
       </c>
       <c r="I712" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J712" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="713" spans="1:10">
@@ -23907,10 +23907,10 @@
         <v>11</v>
       </c>
       <c r="C713">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D713">
-        <v>98811</v>
+        <v>12541</v>
       </c>
       <c r="E713" t="s">
         <v>27</v>
@@ -23925,10 +23925,10 @@
         <v>212</v>
       </c>
       <c r="I713" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="J713" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="714" spans="1:10">
@@ -23939,10 +23939,10 @@
         <v>11</v>
       </c>
       <c r="C714">
-        <v>6669</v>
+        <v>69</v>
       </c>
       <c r="D714">
-        <v>9818089</v>
+        <v>101811</v>
       </c>
       <c r="E714" t="s">
         <v>27</v>
@@ -23957,10 +23957,10 @@
         <v>212</v>
       </c>
       <c r="I714" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="J714" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="715" spans="1:10">
@@ -23971,10 +23971,10 @@
         <v>11</v>
       </c>
       <c r="C715">
-        <v>3</v>
+        <v>6718</v>
       </c>
       <c r="D715">
-        <v>4500</v>
+        <v>9890690</v>
       </c>
       <c r="E715" t="s">
         <v>27</v>
@@ -23989,10 +23989,10 @@
         <v>212</v>
       </c>
       <c r="I715" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J715" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="716" spans="1:10">
@@ -24003,10 +24003,10 @@
         <v>11</v>
       </c>
       <c r="C716">
-        <v>1271</v>
+        <v>3</v>
       </c>
       <c r="D716">
-        <v>1833615</v>
+        <v>4500</v>
       </c>
       <c r="E716" t="s">
         <v>27</v>
@@ -24021,10 +24021,10 @@
         <v>212</v>
       </c>
       <c r="I716" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J716" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="717" spans="1:10">
@@ -24035,10 +24035,10 @@
         <v>11</v>
       </c>
       <c r="C717">
-        <v>171</v>
+        <v>1278</v>
       </c>
       <c r="D717">
-        <v>241818</v>
+        <v>1843376</v>
       </c>
       <c r="E717" t="s">
         <v>27</v>
@@ -24053,10 +24053,10 @@
         <v>212</v>
       </c>
       <c r="I717" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J717" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="718" spans="1:10">
@@ -24067,10 +24067,10 @@
         <v>11</v>
       </c>
       <c r="C718">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D718">
-        <v>259500</v>
+        <v>250818</v>
       </c>
       <c r="E718" t="s">
         <v>27</v>
@@ -24085,10 +24085,10 @@
         <v>212</v>
       </c>
       <c r="I718" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="J718" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="719" spans="1:10">
@@ -24099,28 +24099,28 @@
         <v>11</v>
       </c>
       <c r="C719">
-        <v>37435</v>
+        <v>192</v>
       </c>
       <c r="D719">
-        <v>48374635</v>
+        <v>261000</v>
       </c>
       <c r="E719" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F719" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G719" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="H719" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I719" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="J719" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="720" spans="1:10">
@@ -24131,10 +24131,10 @@
         <v>11</v>
       </c>
       <c r="C720">
-        <v>19</v>
+        <v>37700</v>
       </c>
       <c r="D720">
-        <v>24204</v>
+        <v>48712521</v>
       </c>
       <c r="E720" t="s">
         <v>28</v>
@@ -24149,10 +24149,10 @@
         <v>213</v>
       </c>
       <c r="I720" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J720" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="721" spans="1:10">
@@ -24163,10 +24163,10 @@
         <v>11</v>
       </c>
       <c r="C721">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D721">
-        <v>57570</v>
+        <v>24204</v>
       </c>
       <c r="E721" t="s">
         <v>28</v>
@@ -24181,10 +24181,10 @@
         <v>213</v>
       </c>
       <c r="I721" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J721" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="722" spans="1:10">
@@ -24195,10 +24195,10 @@
         <v>11</v>
       </c>
       <c r="C722">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="D722">
-        <v>149700</v>
+        <v>57570</v>
       </c>
       <c r="E722" t="s">
         <v>28</v>
@@ -24213,10 +24213,10 @@
         <v>213</v>
       </c>
       <c r="I722" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="J722" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="723" spans="1:10">
@@ -24227,10 +24227,10 @@
         <v>11</v>
       </c>
       <c r="C723">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="D723">
-        <v>6000</v>
+        <v>154200</v>
       </c>
       <c r="E723" t="s">
         <v>28</v>
@@ -24245,10 +24245,10 @@
         <v>213</v>
       </c>
       <c r="I723" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J723" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="724" spans="1:10">
@@ -24259,10 +24259,10 @@
         <v>11</v>
       </c>
       <c r="C724">
-        <v>15525</v>
+        <v>4</v>
       </c>
       <c r="D724">
-        <v>22906296</v>
+        <v>6000</v>
       </c>
       <c r="E724" t="s">
         <v>28</v>
@@ -24277,10 +24277,10 @@
         <v>213</v>
       </c>
       <c r="I724" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="J724" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="725" spans="1:10">
@@ -24291,10 +24291,10 @@
         <v>11</v>
       </c>
       <c r="C725">
-        <v>20</v>
+        <v>15685</v>
       </c>
       <c r="D725">
-        <v>27692</v>
+        <v>23138448</v>
       </c>
       <c r="E725" t="s">
         <v>28</v>
@@ -24309,10 +24309,10 @@
         <v>213</v>
       </c>
       <c r="I725" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J725" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="726" spans="1:10">
@@ -24323,10 +24323,10 @@
         <v>11</v>
       </c>
       <c r="C726">
-        <v>9900</v>
+        <v>22</v>
       </c>
       <c r="D726">
-        <v>14415194</v>
+        <v>30692</v>
       </c>
       <c r="E726" t="s">
         <v>28</v>
@@ -24341,10 +24341,10 @@
         <v>213</v>
       </c>
       <c r="I726" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J726" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="727" spans="1:10">
@@ -24355,10 +24355,10 @@
         <v>11</v>
       </c>
       <c r="C727">
-        <v>5</v>
+        <v>9983</v>
       </c>
       <c r="D727">
-        <v>7500</v>
+        <v>14532606</v>
       </c>
       <c r="E727" t="s">
         <v>28</v>
@@ -24373,10 +24373,10 @@
         <v>213</v>
       </c>
       <c r="I727" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J727" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="728" spans="1:10">
@@ -24387,10 +24387,10 @@
         <v>11</v>
       </c>
       <c r="C728">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="D728">
-        <v>283028</v>
+        <v>7500</v>
       </c>
       <c r="E728" t="s">
         <v>28</v>
@@ -24405,10 +24405,10 @@
         <v>213</v>
       </c>
       <c r="I728" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J728" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="729" spans="1:10">
@@ -24419,10 +24419,10 @@
         <v>11</v>
       </c>
       <c r="C729">
-        <v>335</v>
+        <v>201</v>
       </c>
       <c r="D729">
-        <v>472325</v>
+        <v>287528</v>
       </c>
       <c r="E729" t="s">
         <v>28</v>
@@ -24437,10 +24437,10 @@
         <v>213</v>
       </c>
       <c r="I729" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="J729" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="730" spans="1:10">
@@ -24451,10 +24451,10 @@
         <v>11</v>
       </c>
       <c r="C730">
-        <v>5094</v>
+        <v>347</v>
       </c>
       <c r="D730">
-        <v>6484445</v>
+        <v>488223</v>
       </c>
       <c r="E730" t="s">
         <v>28</v>
@@ -24463,16 +24463,16 @@
         <v>46</v>
       </c>
       <c r="G730" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H730" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I730" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="J730" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="731" spans="1:10">
@@ -24483,10 +24483,10 @@
         <v>11</v>
       </c>
       <c r="C731">
-        <v>3</v>
+        <v>5136</v>
       </c>
       <c r="D731">
-        <v>3234</v>
+        <v>6537385</v>
       </c>
       <c r="E731" t="s">
         <v>28</v>
@@ -24501,10 +24501,10 @@
         <v>214</v>
       </c>
       <c r="I731" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J731" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="732" spans="1:10">
@@ -24515,10 +24515,10 @@
         <v>11</v>
       </c>
       <c r="C732">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D732">
-        <v>20802</v>
+        <v>3234</v>
       </c>
       <c r="E732" t="s">
         <v>28</v>
@@ -24533,10 +24533,10 @@
         <v>214</v>
       </c>
       <c r="I732" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J732" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="733" spans="1:10">
@@ -24547,10 +24547,10 @@
         <v>11</v>
       </c>
       <c r="C733">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D733">
-        <v>37500</v>
+        <v>20802</v>
       </c>
       <c r="E733" t="s">
         <v>28</v>
@@ -24565,10 +24565,10 @@
         <v>214</v>
       </c>
       <c r="I733" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="J733" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="734" spans="1:10">
@@ -24579,10 +24579,10 @@
         <v>11</v>
       </c>
       <c r="C734">
-        <v>1938</v>
+        <v>25</v>
       </c>
       <c r="D734">
-        <v>2842919</v>
+        <v>37500</v>
       </c>
       <c r="E734" t="s">
         <v>28</v>
@@ -24597,10 +24597,10 @@
         <v>214</v>
       </c>
       <c r="I734" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="J734" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="735" spans="1:10">
@@ -24611,10 +24611,10 @@
         <v>11</v>
       </c>
       <c r="C735">
-        <v>879</v>
+        <v>1962</v>
       </c>
       <c r="D735">
-        <v>1272936</v>
+        <v>2878919</v>
       </c>
       <c r="E735" t="s">
         <v>28</v>
@@ -24629,10 +24629,10 @@
         <v>214</v>
       </c>
       <c r="I735" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J735" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="736" spans="1:10">
@@ -24643,10 +24643,10 @@
         <v>11</v>
       </c>
       <c r="C736">
-        <v>87</v>
+        <v>884</v>
       </c>
       <c r="D736">
-        <v>119133</v>
+        <v>1280410</v>
       </c>
       <c r="E736" t="s">
         <v>28</v>
@@ -24661,10 +24661,10 @@
         <v>214</v>
       </c>
       <c r="I736" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J736" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="737" spans="1:10">
@@ -24675,10 +24675,10 @@
         <v>11</v>
       </c>
       <c r="C737">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D737">
-        <v>102185</v>
+        <v>120633</v>
       </c>
       <c r="E737" t="s">
         <v>28</v>
@@ -24693,10 +24693,10 @@
         <v>214</v>
       </c>
       <c r="I737" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="J737" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="738" spans="1:10">
@@ -24707,10 +24707,10 @@
         <v>11</v>
       </c>
       <c r="C738">
-        <v>47964</v>
+        <v>76</v>
       </c>
       <c r="D738">
-        <v>60873674</v>
+        <v>105185</v>
       </c>
       <c r="E738" t="s">
         <v>28</v>
@@ -24719,16 +24719,16 @@
         <v>46</v>
       </c>
       <c r="G738" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="H738" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I738" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="J738" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="739" spans="1:10">
@@ -24739,10 +24739,10 @@
         <v>11</v>
       </c>
       <c r="C739">
-        <v>30</v>
+        <v>48312</v>
       </c>
       <c r="D739">
-        <v>38632</v>
+        <v>61291031</v>
       </c>
       <c r="E739" t="s">
         <v>28</v>
@@ -24757,10 +24757,10 @@
         <v>215</v>
       </c>
       <c r="I739" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J739" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="740" spans="1:10">
@@ -24771,10 +24771,10 @@
         <v>11</v>
       </c>
       <c r="C740">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D740">
-        <v>52500</v>
+        <v>40132</v>
       </c>
       <c r="E740" t="s">
         <v>28</v>
@@ -24789,10 +24789,10 @@
         <v>215</v>
       </c>
       <c r="I740" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J740" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="741" spans="1:10">
@@ -24803,10 +24803,10 @@
         <v>11</v>
       </c>
       <c r="C741">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D741">
-        <v>4500</v>
+        <v>52500</v>
       </c>
       <c r="E741" t="s">
         <v>28</v>
@@ -24821,10 +24821,10 @@
         <v>215</v>
       </c>
       <c r="I741" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="J741" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="742" spans="1:10">
@@ -24835,10 +24835,10 @@
         <v>11</v>
       </c>
       <c r="C742">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="D742">
-        <v>252173</v>
+        <v>4500</v>
       </c>
       <c r="E742" t="s">
         <v>28</v>
@@ -24853,10 +24853,10 @@
         <v>215</v>
       </c>
       <c r="I742" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="J742" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="743" spans="1:10">
@@ -24867,10 +24867,10 @@
         <v>11</v>
       </c>
       <c r="C743">
-        <v>21583</v>
+        <v>170</v>
       </c>
       <c r="D743">
-        <v>31843588</v>
+        <v>253673</v>
       </c>
       <c r="E743" t="s">
         <v>28</v>
@@ -24885,10 +24885,10 @@
         <v>215</v>
       </c>
       <c r="I743" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="J743" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="744" spans="1:10">
@@ -24899,10 +24899,10 @@
         <v>11</v>
       </c>
       <c r="C744">
-        <v>12</v>
+        <v>21777</v>
       </c>
       <c r="D744">
-        <v>18000</v>
+        <v>32126417</v>
       </c>
       <c r="E744" t="s">
         <v>28</v>
@@ -24917,10 +24917,10 @@
         <v>215</v>
       </c>
       <c r="I744" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J744" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="745" spans="1:10">
@@ -24931,10 +24931,10 @@
         <v>11</v>
       </c>
       <c r="C745">
-        <v>14983</v>
+        <v>12</v>
       </c>
       <c r="D745">
-        <v>21823101</v>
+        <v>18000</v>
       </c>
       <c r="E745" t="s">
         <v>28</v>
@@ -24949,10 +24949,10 @@
         <v>215</v>
       </c>
       <c r="I745" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J745" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="746" spans="1:10">
@@ -24963,10 +24963,10 @@
         <v>11</v>
       </c>
       <c r="C746">
-        <v>326</v>
+        <v>15112</v>
       </c>
       <c r="D746">
-        <v>466450</v>
+        <v>22011757</v>
       </c>
       <c r="E746" t="s">
         <v>28</v>
@@ -24981,10 +24981,10 @@
         <v>215</v>
       </c>
       <c r="I746" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J746" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="747" spans="1:10">
@@ -24995,10 +24995,10 @@
         <v>11</v>
       </c>
       <c r="C747">
-        <v>632</v>
+        <v>326</v>
       </c>
       <c r="D747">
-        <v>888766</v>
+        <v>466450</v>
       </c>
       <c r="E747" t="s">
         <v>28</v>
@@ -25013,10 +25013,10 @@
         <v>215</v>
       </c>
       <c r="I747" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="J747" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="748" spans="1:10">
@@ -25027,10 +25027,10 @@
         <v>11</v>
       </c>
       <c r="C748">
-        <v>6523</v>
+        <v>642</v>
       </c>
       <c r="D748">
-        <v>8656258</v>
+        <v>902659</v>
       </c>
       <c r="E748" t="s">
         <v>28</v>
@@ -25039,16 +25039,16 @@
         <v>46</v>
       </c>
       <c r="G748" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H748" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I748" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="J748" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="749" spans="1:10">
@@ -25059,10 +25059,10 @@
         <v>11</v>
       </c>
       <c r="C749">
-        <v>13</v>
+        <v>6570</v>
       </c>
       <c r="D749">
-        <v>17762</v>
+        <v>8715113</v>
       </c>
       <c r="E749" t="s">
         <v>28</v>
@@ -25077,10 +25077,10 @@
         <v>216</v>
       </c>
       <c r="I749" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="J749" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="750" spans="1:10">
@@ -25091,10 +25091,10 @@
         <v>11</v>
       </c>
       <c r="C750">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D750">
-        <v>40935</v>
+        <v>17762</v>
       </c>
       <c r="E750" t="s">
         <v>28</v>
@@ -25109,10 +25109,10 @@
         <v>216</v>
       </c>
       <c r="I750" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="J750" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="751" spans="1:10">
@@ -25123,10 +25123,10 @@
         <v>11</v>
       </c>
       <c r="C751">
-        <v>2123</v>
+        <v>28</v>
       </c>
       <c r="D751">
-        <v>3133620</v>
+        <v>40935</v>
       </c>
       <c r="E751" t="s">
         <v>28</v>
@@ -25141,10 +25141,10 @@
         <v>216</v>
       </c>
       <c r="I751" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="J751" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="752" spans="1:10">
@@ -25155,10 +25155,10 @@
         <v>11</v>
       </c>
       <c r="C752">
-        <v>655</v>
+        <v>2135</v>
       </c>
       <c r="D752">
-        <v>958618</v>
+        <v>3149029</v>
       </c>
       <c r="E752" t="s">
         <v>28</v>
@@ -25173,10 +25173,10 @@
         <v>216</v>
       </c>
       <c r="I752" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J752" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="753" spans="1:10">
@@ -25187,10 +25187,10 @@
         <v>11</v>
       </c>
       <c r="C753">
-        <v>69</v>
+        <v>666</v>
       </c>
       <c r="D753">
-        <v>94356</v>
+        <v>972218</v>
       </c>
       <c r="E753" t="s">
         <v>28</v>
@@ -25205,10 +25205,10 @@
         <v>216</v>
       </c>
       <c r="I753" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J753" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="754" spans="1:10">
@@ -25219,10 +25219,10 @@
         <v>11</v>
       </c>
       <c r="C754">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="D754">
-        <v>9000</v>
+        <v>97356</v>
       </c>
       <c r="E754" t="s">
         <v>28</v>
@@ -25237,10 +25237,10 @@
         <v>216</v>
       </c>
       <c r="I754" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="J754" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="755" spans="1:10">
@@ -25251,10 +25251,10 @@
         <v>11</v>
       </c>
       <c r="C755">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D755">
-        <v>118848</v>
+        <v>9000</v>
       </c>
       <c r="E755" t="s">
         <v>28</v>
@@ -25269,10 +25269,10 @@
         <v>216</v>
       </c>
       <c r="I755" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="J755" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="756" spans="1:10">
@@ -25283,10 +25283,10 @@
         <v>11</v>
       </c>
       <c r="C756">
-        <v>33513</v>
+        <v>85</v>
       </c>
       <c r="D756">
-        <v>42288909</v>
+        <v>120348</v>
       </c>
       <c r="E756" t="s">
         <v>28</v>
@@ -25295,16 +25295,16 @@
         <v>46</v>
       </c>
       <c r="G756" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H756" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I756" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="J756" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="757" spans="1:10">
@@ -25315,10 +25315,10 @@
         <v>11</v>
       </c>
       <c r="C757">
-        <v>22</v>
+        <v>33762</v>
       </c>
       <c r="D757">
-        <v>24555</v>
+        <v>42593995</v>
       </c>
       <c r="E757" t="s">
         <v>28</v>
@@ -25333,10 +25333,10 @@
         <v>217</v>
       </c>
       <c r="I757" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J757" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="758" spans="1:10">
@@ -25347,10 +25347,10 @@
         <v>11</v>
       </c>
       <c r="C758">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D758">
-        <v>42928</v>
+        <v>24555</v>
       </c>
       <c r="E758" t="s">
         <v>28</v>
@@ -25365,10 +25365,10 @@
         <v>217</v>
       </c>
       <c r="I758" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J758" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="759" spans="1:10">
@@ -25379,10 +25379,10 @@
         <v>11</v>
       </c>
       <c r="C759">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="D759">
-        <v>133421</v>
+        <v>42928</v>
       </c>
       <c r="E759" t="s">
         <v>28</v>
@@ -25397,10 +25397,10 @@
         <v>217</v>
       </c>
       <c r="I759" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="J759" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="760" spans="1:10">
@@ -25411,10 +25411,10 @@
         <v>11</v>
       </c>
       <c r="C760">
-        <v>11870</v>
+        <v>91</v>
       </c>
       <c r="D760">
-        <v>17506696</v>
+        <v>136421</v>
       </c>
       <c r="E760" t="s">
         <v>28</v>
@@ -25429,10 +25429,10 @@
         <v>217</v>
       </c>
       <c r="I760" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="J760" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="761" spans="1:10">
@@ -25443,10 +25443,10 @@
         <v>11</v>
       </c>
       <c r="C761">
-        <v>12</v>
+        <v>11978</v>
       </c>
       <c r="D761">
-        <v>18000</v>
+        <v>17663900</v>
       </c>
       <c r="E761" t="s">
         <v>28</v>
@@ -25461,10 +25461,10 @@
         <v>217</v>
       </c>
       <c r="I761" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J761" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="762" spans="1:10">
@@ -25475,10 +25475,10 @@
         <v>11</v>
       </c>
       <c r="C762">
-        <v>7748</v>
+        <v>12</v>
       </c>
       <c r="D762">
-        <v>11250927</v>
+        <v>18000</v>
       </c>
       <c r="E762" t="s">
         <v>28</v>
@@ -25493,10 +25493,10 @@
         <v>217</v>
       </c>
       <c r="I762" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J762" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="763" spans="1:10">
@@ -25507,10 +25507,10 @@
         <v>11</v>
       </c>
       <c r="C763">
-        <v>264</v>
+        <v>7812</v>
       </c>
       <c r="D763">
-        <v>371300</v>
+        <v>11344160</v>
       </c>
       <c r="E763" t="s">
         <v>28</v>
@@ -25525,10 +25525,10 @@
         <v>217</v>
       </c>
       <c r="I763" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J763" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="764" spans="1:10">
@@ -25539,10 +25539,10 @@
         <v>11</v>
       </c>
       <c r="C764">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="D764">
-        <v>449339</v>
+        <v>374300</v>
       </c>
       <c r="E764" t="s">
         <v>28</v>
@@ -25557,10 +25557,10 @@
         <v>217</v>
       </c>
       <c r="I764" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="J764" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="765" spans="1:10">
@@ -25571,10 +25571,10 @@
         <v>11</v>
       </c>
       <c r="C765">
-        <v>16281</v>
+        <v>326</v>
       </c>
       <c r="D765">
-        <v>20413238</v>
+        <v>453839</v>
       </c>
       <c r="E765" t="s">
         <v>28</v>
@@ -25583,16 +25583,16 @@
         <v>46</v>
       </c>
       <c r="G765" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="H765" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I765" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="J765" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="766" spans="1:10">
@@ -25603,10 +25603,10 @@
         <v>11</v>
       </c>
       <c r="C766">
-        <v>4</v>
+        <v>16421</v>
       </c>
       <c r="D766">
-        <v>4871</v>
+        <v>20586842</v>
       </c>
       <c r="E766" t="s">
         <v>28</v>
@@ -25621,10 +25621,10 @@
         <v>218</v>
       </c>
       <c r="I766" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J766" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="767" spans="1:10">
@@ -25635,10 +25635,10 @@
         <v>11</v>
       </c>
       <c r="C767">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D767">
-        <v>13500</v>
+        <v>4871</v>
       </c>
       <c r="E767" t="s">
         <v>28</v>
@@ -25653,10 +25653,10 @@
         <v>218</v>
       </c>
       <c r="I767" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J767" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="768" spans="1:10">
@@ -25667,10 +25667,10 @@
         <v>11</v>
       </c>
       <c r="C768">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D768">
-        <v>59109</v>
+        <v>13500</v>
       </c>
       <c r="E768" t="s">
         <v>28</v>
@@ -25685,10 +25685,10 @@
         <v>218</v>
       </c>
       <c r="I768" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="J768" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="769" spans="1:10">
@@ -25699,10 +25699,10 @@
         <v>11</v>
       </c>
       <c r="C769">
-        <v>6606</v>
+        <v>42</v>
       </c>
       <c r="D769">
-        <v>9726211</v>
+        <v>62109</v>
       </c>
       <c r="E769" t="s">
         <v>28</v>
@@ -25717,10 +25717,10 @@
         <v>218</v>
       </c>
       <c r="I769" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="J769" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="770" spans="1:10">
@@ -25731,10 +25731,10 @@
         <v>11</v>
       </c>
       <c r="C770">
-        <v>7</v>
+        <v>6672</v>
       </c>
       <c r="D770">
-        <v>10500</v>
+        <v>9823827</v>
       </c>
       <c r="E770" t="s">
         <v>28</v>
@@ -25749,10 +25749,10 @@
         <v>218</v>
       </c>
       <c r="I770" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J770" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="771" spans="1:10">
@@ -25763,10 +25763,10 @@
         <v>11</v>
       </c>
       <c r="C771">
-        <v>3719</v>
+        <v>7</v>
       </c>
       <c r="D771">
-        <v>5412774</v>
+        <v>10500</v>
       </c>
       <c r="E771" t="s">
         <v>28</v>
@@ -25781,10 +25781,10 @@
         <v>218</v>
       </c>
       <c r="I771" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J771" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="772" spans="1:10">
@@ -25795,10 +25795,10 @@
         <v>11</v>
       </c>
       <c r="C772">
-        <v>288</v>
+        <v>3749</v>
       </c>
       <c r="D772">
-        <v>420389</v>
+        <v>5457414</v>
       </c>
       <c r="E772" t="s">
         <v>28</v>
@@ -25813,10 +25813,10 @@
         <v>218</v>
       </c>
       <c r="I772" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J772" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="773" spans="1:10">
@@ -25827,10 +25827,10 @@
         <v>11</v>
       </c>
       <c r="C773">
-        <v>170</v>
+        <v>294</v>
       </c>
       <c r="D773">
-        <v>238170</v>
+        <v>429389</v>
       </c>
       <c r="E773" t="s">
         <v>28</v>
@@ -25845,10 +25845,10 @@
         <v>218</v>
       </c>
       <c r="I773" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="J773" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="774" spans="1:10">
@@ -25859,28 +25859,28 @@
         <v>11</v>
       </c>
       <c r="C774">
-        <v>17973</v>
+        <v>170</v>
       </c>
       <c r="D774">
-        <v>23439075</v>
+        <v>238170</v>
       </c>
       <c r="E774" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F774" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G774" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="H774" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I774" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="J774" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="775" spans="1:10">
@@ -25891,10 +25891,10 @@
         <v>11</v>
       </c>
       <c r="C775">
-        <v>4</v>
+        <v>18135</v>
       </c>
       <c r="D775">
-        <v>6000</v>
+        <v>23651764</v>
       </c>
       <c r="E775" t="s">
         <v>29</v>
@@ -25909,10 +25909,10 @@
         <v>219</v>
       </c>
       <c r="I775" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="J775" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="776" spans="1:10">
@@ -25923,10 +25923,10 @@
         <v>11</v>
       </c>
       <c r="C776">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="D776">
-        <v>81888</v>
+        <v>6000</v>
       </c>
       <c r="E776" t="s">
         <v>29</v>
@@ -25941,10 +25941,10 @@
         <v>219</v>
       </c>
       <c r="I776" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="J776" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="777" spans="1:10">
@@ -25955,10 +25955,10 @@
         <v>11</v>
       </c>
       <c r="C777">
-        <v>8272</v>
+        <v>55</v>
       </c>
       <c r="D777">
-        <v>12241353</v>
+        <v>81888</v>
       </c>
       <c r="E777" t="s">
         <v>29</v>
@@ -25973,10 +25973,10 @@
         <v>219</v>
       </c>
       <c r="I777" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="J777" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="778" spans="1:10">
@@ -25987,10 +25987,10 @@
         <v>11</v>
       </c>
       <c r="C778">
-        <v>10</v>
+        <v>8353</v>
       </c>
       <c r="D778">
-        <v>15000</v>
+        <v>12361075</v>
       </c>
       <c r="E778" t="s">
         <v>29</v>
@@ -26005,10 +26005,10 @@
         <v>219</v>
       </c>
       <c r="I778" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J778" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="779" spans="1:10">
@@ -26019,10 +26019,10 @@
         <v>11</v>
       </c>
       <c r="C779">
-        <v>6685</v>
+        <v>10</v>
       </c>
       <c r="D779">
-        <v>9782870</v>
+        <v>15000</v>
       </c>
       <c r="E779" t="s">
         <v>29</v>
@@ -26037,10 +26037,10 @@
         <v>219</v>
       </c>
       <c r="I779" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J779" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="780" spans="1:10">
@@ -26051,10 +26051,10 @@
         <v>11</v>
       </c>
       <c r="C780">
-        <v>81</v>
+        <v>6761</v>
       </c>
       <c r="D780">
-        <v>117778</v>
+        <v>9893825</v>
       </c>
       <c r="E780" t="s">
         <v>29</v>
@@ -26069,10 +26069,10 @@
         <v>219</v>
       </c>
       <c r="I780" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J780" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="781" spans="1:10">
@@ -26083,10 +26083,10 @@
         <v>11</v>
       </c>
       <c r="C781">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D781">
-        <v>142863</v>
+        <v>117778</v>
       </c>
       <c r="E781" t="s">
         <v>29</v>
@@ -26101,10 +26101,10 @@
         <v>219</v>
       </c>
       <c r="I781" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="J781" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="782" spans="1:10">
@@ -26115,10 +26115,10 @@
         <v>11</v>
       </c>
       <c r="C782">
-        <v>27649</v>
+        <v>102</v>
       </c>
       <c r="D782">
-        <v>36649933</v>
+        <v>147363</v>
       </c>
       <c r="E782" t="s">
         <v>29</v>
@@ -26127,16 +26127,16 @@
         <v>47</v>
       </c>
       <c r="G782" t="s">
+        <v>126</v>
+      </c>
+      <c r="H782" t="s">
+        <v>219</v>
+      </c>
+      <c r="I782" t="s">
         <v>127</v>
       </c>
-      <c r="H782" t="s">
-        <v>220</v>
-      </c>
-      <c r="I782" t="s">
-        <v>78</v>
-      </c>
       <c r="J782" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="783" spans="1:10">
@@ -26147,10 +26147,10 @@
         <v>11</v>
       </c>
       <c r="C783">
-        <v>5</v>
+        <v>27937</v>
       </c>
       <c r="D783">
-        <v>5335</v>
+        <v>37015150</v>
       </c>
       <c r="E783" t="s">
         <v>29</v>
@@ -26165,10 +26165,10 @@
         <v>220</v>
       </c>
       <c r="I783" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J783" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="784" spans="1:10">
@@ -26179,10 +26179,10 @@
         <v>11</v>
       </c>
       <c r="C784">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D784">
-        <v>10279</v>
+        <v>5335</v>
       </c>
       <c r="E784" t="s">
         <v>29</v>
@@ -26197,10 +26197,10 @@
         <v>220</v>
       </c>
       <c r="I784" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J784" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="785" spans="1:10">
@@ -26211,10 +26211,10 @@
         <v>11</v>
       </c>
       <c r="C785">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D785">
-        <v>97500</v>
+        <v>10279</v>
       </c>
       <c r="E785" t="s">
         <v>29</v>
@@ -26229,10 +26229,10 @@
         <v>220</v>
       </c>
       <c r="I785" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="J785" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="786" spans="1:10">
@@ -26243,10 +26243,10 @@
         <v>11</v>
       </c>
       <c r="C786">
-        <v>13424</v>
+        <v>65</v>
       </c>
       <c r="D786">
-        <v>19825986</v>
+        <v>97500</v>
       </c>
       <c r="E786" t="s">
         <v>29</v>
@@ -26261,10 +26261,10 @@
         <v>220</v>
       </c>
       <c r="I786" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="J786" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="787" spans="1:10">
@@ -26275,10 +26275,10 @@
         <v>11</v>
       </c>
       <c r="C787">
-        <v>17</v>
+        <v>13570</v>
       </c>
       <c r="D787">
-        <v>25051</v>
+        <v>20039086</v>
       </c>
       <c r="E787" t="s">
         <v>29</v>
@@ -26293,10 +26293,10 @@
         <v>220</v>
       </c>
       <c r="I787" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J787" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="788" spans="1:10">
@@ -26307,10 +26307,10 @@
         <v>11</v>
       </c>
       <c r="C788">
-        <v>11957</v>
+        <v>18</v>
       </c>
       <c r="D788">
-        <v>17429683</v>
+        <v>26551</v>
       </c>
       <c r="E788" t="s">
         <v>29</v>
@@ -26325,10 +26325,10 @@
         <v>220</v>
       </c>
       <c r="I788" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J788" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="789" spans="1:10">
@@ -26339,10 +26339,10 @@
         <v>11</v>
       </c>
       <c r="C789">
-        <v>4</v>
+        <v>12081</v>
       </c>
       <c r="D789">
-        <v>6000</v>
+        <v>17611914</v>
       </c>
       <c r="E789" t="s">
         <v>29</v>
@@ -26357,10 +26357,10 @@
         <v>220</v>
       </c>
       <c r="I789" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J789" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="790" spans="1:10">
@@ -26371,10 +26371,10 @@
         <v>11</v>
       </c>
       <c r="C790">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="D790">
-        <v>127532</v>
+        <v>6000</v>
       </c>
       <c r="E790" t="s">
         <v>29</v>
@@ -26389,10 +26389,10 @@
         <v>220</v>
       </c>
       <c r="I790" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J790" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="791" spans="1:10">
@@ -26403,10 +26403,10 @@
         <v>11</v>
       </c>
       <c r="C791">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="D791">
-        <v>328737</v>
+        <v>136002</v>
       </c>
       <c r="E791" t="s">
         <v>29</v>
@@ -26421,10 +26421,10 @@
         <v>220</v>
       </c>
       <c r="I791" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="J791" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="792" spans="1:10">
@@ -26435,10 +26435,10 @@
         <v>11</v>
       </c>
       <c r="C792">
-        <v>68582</v>
+        <v>238</v>
       </c>
       <c r="D792">
-        <v>91172500</v>
+        <v>334737</v>
       </c>
       <c r="E792" t="s">
         <v>29</v>
@@ -26447,16 +26447,16 @@
         <v>47</v>
       </c>
       <c r="G792" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="H792" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I792" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="J792" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="793" spans="1:10">
@@ -26467,10 +26467,10 @@
         <v>11</v>
       </c>
       <c r="C793">
-        <v>13</v>
+        <v>69200</v>
       </c>
       <c r="D793">
-        <v>17224</v>
+        <v>91945557</v>
       </c>
       <c r="E793" t="s">
         <v>29</v>
@@ -26485,10 +26485,10 @@
         <v>221</v>
       </c>
       <c r="I793" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J793" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="794" spans="1:10">
@@ -26499,10 +26499,10 @@
         <v>11</v>
       </c>
       <c r="C794">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D794">
-        <v>93980</v>
+        <v>17224</v>
       </c>
       <c r="E794" t="s">
         <v>29</v>
@@ -26517,10 +26517,10 @@
         <v>221</v>
       </c>
       <c r="I794" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J794" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="795" spans="1:10">
@@ -26531,10 +26531,10 @@
         <v>11</v>
       </c>
       <c r="C795">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D795">
-        <v>6000</v>
+        <v>96980</v>
       </c>
       <c r="E795" t="s">
         <v>29</v>
@@ -26549,10 +26549,10 @@
         <v>221</v>
       </c>
       <c r="I795" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J795" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="796" spans="1:10">
@@ -26563,10 +26563,10 @@
         <v>11</v>
       </c>
       <c r="C796">
-        <v>235</v>
+        <v>4</v>
       </c>
       <c r="D796">
-        <v>351616</v>
+        <v>6000</v>
       </c>
       <c r="E796" t="s">
         <v>29</v>
@@ -26581,10 +26581,10 @@
         <v>221</v>
       </c>
       <c r="I796" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="J796" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="797" spans="1:10">
@@ -26595,10 +26595,10 @@
         <v>11</v>
       </c>
       <c r="C797">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="D797">
-        <v>14216</v>
+        <v>357616</v>
       </c>
       <c r="E797" t="s">
         <v>29</v>
@@ -26613,10 +26613,10 @@
         <v>221</v>
       </c>
       <c r="I797" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J797" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="798" spans="1:10">
@@ -26627,10 +26627,10 @@
         <v>11</v>
       </c>
       <c r="C798">
-        <v>45765</v>
+        <v>10</v>
       </c>
       <c r="D798">
-        <v>67610036</v>
+        <v>14216</v>
       </c>
       <c r="E798" t="s">
         <v>29</v>
@@ -26645,10 +26645,10 @@
         <v>221</v>
       </c>
       <c r="I798" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="J798" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="799" spans="1:10">
@@ -26659,10 +26659,10 @@
         <v>11</v>
       </c>
       <c r="C799">
-        <v>121</v>
+        <v>46235</v>
       </c>
       <c r="D799">
-        <v>180019</v>
+        <v>68294828</v>
       </c>
       <c r="E799" t="s">
         <v>29</v>
@@ -26677,10 +26677,10 @@
         <v>221</v>
       </c>
       <c r="I799" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J799" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="800" spans="1:10">
@@ -26691,10 +26691,10 @@
         <v>11</v>
       </c>
       <c r="C800">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D800">
-        <v>7500</v>
+        <v>183019</v>
       </c>
       <c r="E800" t="s">
         <v>29</v>
@@ -26709,10 +26709,10 @@
         <v>221</v>
       </c>
       <c r="I800" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="J800" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="801" spans="1:10">
@@ -26723,10 +26723,10 @@
         <v>11</v>
       </c>
       <c r="C801">
-        <v>31660</v>
+        <v>5</v>
       </c>
       <c r="D801">
-        <v>46136511</v>
+        <v>7500</v>
       </c>
       <c r="E801" t="s">
         <v>29</v>
@@ -26741,10 +26741,10 @@
         <v>221</v>
       </c>
       <c r="I801" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="J801" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="802" spans="1:10">
@@ -26755,10 +26755,10 @@
         <v>11</v>
       </c>
       <c r="C802">
-        <v>10</v>
+        <v>31987</v>
       </c>
       <c r="D802">
-        <v>13860</v>
+        <v>46609973</v>
       </c>
       <c r="E802" t="s">
         <v>29</v>
@@ -26773,10 +26773,10 @@
         <v>221</v>
       </c>
       <c r="I802" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J802" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="803" spans="1:10">
@@ -26787,10 +26787,10 @@
         <v>11</v>
       </c>
       <c r="C803">
-        <v>388</v>
+        <v>10</v>
       </c>
       <c r="D803">
-        <v>557783</v>
+        <v>13860</v>
       </c>
       <c r="E803" t="s">
         <v>29</v>
@@ -26805,10 +26805,10 @@
         <v>221</v>
       </c>
       <c r="I803" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J803" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="804" spans="1:10">
@@ -26819,10 +26819,10 @@
         <v>11</v>
       </c>
       <c r="C804">
-        <v>3</v>
+        <v>393</v>
       </c>
       <c r="D804">
-        <v>4222</v>
+        <v>565283</v>
       </c>
       <c r="E804" t="s">
         <v>29</v>
@@ -26837,10 +26837,10 @@
         <v>221</v>
       </c>
       <c r="I804" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="J804" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="805" spans="1:10">
@@ -26851,10 +26851,10 @@
         <v>11</v>
       </c>
       <c r="C805">
-        <v>959</v>
+        <v>3</v>
       </c>
       <c r="D805">
-        <v>1360368</v>
+        <v>4222</v>
       </c>
       <c r="E805" t="s">
         <v>29</v>
@@ -26869,10 +26869,10 @@
         <v>221</v>
       </c>
       <c r="I805" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="J805" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="806" spans="1:10">
@@ -26883,10 +26883,10 @@
         <v>11</v>
       </c>
       <c r="C806">
-        <v>7</v>
+        <v>984</v>
       </c>
       <c r="D806">
-        <v>10500</v>
+        <v>1395602</v>
       </c>
       <c r="E806" t="s">
         <v>29</v>
@@ -26901,10 +26901,10 @@
         <v>221</v>
       </c>
       <c r="I806" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="J806" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="807" spans="1:10">
@@ -26915,10 +26915,10 @@
         <v>11</v>
       </c>
       <c r="C807">
-        <v>27142</v>
+        <v>7</v>
       </c>
       <c r="D807">
-        <v>36241734</v>
+        <v>10500</v>
       </c>
       <c r="E807" t="s">
         <v>29</v>
@@ -26927,16 +26927,16 @@
         <v>47</v>
       </c>
       <c r="G807" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H807" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I807" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="J807" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
     <row r="808" spans="1:10">
@@ -26947,10 +26947,10 @@
         <v>11</v>
       </c>
       <c r="C808">
-        <v>4</v>
+        <v>27438</v>
       </c>
       <c r="D808">
-        <v>6000</v>
+        <v>36623877</v>
       </c>
       <c r="E808" t="s">
         <v>29</v>
@@ -26965,10 +26965,10 @@
         <v>222</v>
       </c>
       <c r="I808" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J808" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="809" spans="1:10">
@@ -26979,10 +26979,10 @@
         <v>11</v>
       </c>
       <c r="C809">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D809">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="E809" t="s">
         <v>29</v>
@@ -26997,10 +26997,10 @@
         <v>222</v>
       </c>
       <c r="I809" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J809" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="810" spans="1:10">
@@ -27011,10 +27011,10 @@
         <v>11</v>
       </c>
       <c r="C810">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D810">
-        <v>87838</v>
+        <v>15000</v>
       </c>
       <c r="E810" t="s">
         <v>29</v>
@@ -27029,10 +27029,10 @@
         <v>222</v>
       </c>
       <c r="I810" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="J810" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="811" spans="1:10">
@@ -27043,10 +27043,10 @@
         <v>11</v>
       </c>
       <c r="C811">
-        <v>13083</v>
+        <v>62</v>
       </c>
       <c r="D811">
-        <v>19361120</v>
+        <v>92338</v>
       </c>
       <c r="E811" t="s">
         <v>29</v>
@@ -27061,10 +27061,10 @@
         <v>222</v>
       </c>
       <c r="I811" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="J811" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="812" spans="1:10">
@@ -27075,10 +27075,10 @@
         <v>11</v>
       </c>
       <c r="C812">
-        <v>5</v>
+        <v>13237</v>
       </c>
       <c r="D812">
-        <v>7500</v>
+        <v>19587759</v>
       </c>
       <c r="E812" t="s">
         <v>29</v>
@@ -27093,10 +27093,10 @@
         <v>222</v>
       </c>
       <c r="I812" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J812" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="813" spans="1:10">
@@ -27107,10 +27107,10 @@
         <v>11</v>
       </c>
       <c r="C813">
-        <v>12193</v>
+        <v>5</v>
       </c>
       <c r="D813">
-        <v>17871048</v>
+        <v>7500</v>
       </c>
       <c r="E813" t="s">
         <v>29</v>
@@ -27125,10 +27125,10 @@
         <v>222</v>
       </c>
       <c r="I813" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J813" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="814" spans="1:10">
@@ -27139,10 +27139,10 @@
         <v>11</v>
       </c>
       <c r="C814">
-        <v>117</v>
+        <v>12321</v>
       </c>
       <c r="D814">
-        <v>161749</v>
+        <v>18056647</v>
       </c>
       <c r="E814" t="s">
         <v>29</v>
@@ -27157,10 +27157,10 @@
         <v>222</v>
       </c>
       <c r="I814" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J814" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="815" spans="1:10">
@@ -27171,10 +27171,10 @@
         <v>11</v>
       </c>
       <c r="C815">
-        <v>266</v>
+        <v>120</v>
       </c>
       <c r="D815">
-        <v>380828</v>
+        <v>166249</v>
       </c>
       <c r="E815" t="s">
         <v>29</v>
@@ -27189,10 +27189,10 @@
         <v>222</v>
       </c>
       <c r="I815" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="J815" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="816" spans="1:10">
@@ -27203,10 +27203,10 @@
         <v>11</v>
       </c>
       <c r="C816">
-        <v>21920</v>
+        <v>270</v>
       </c>
       <c r="D816">
-        <v>28569833</v>
+        <v>385678</v>
       </c>
       <c r="E816" t="s">
         <v>29</v>
@@ -27215,16 +27215,16 @@
         <v>47</v>
       </c>
       <c r="G816" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="H816" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I816" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="J816" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="817" spans="1:10">
@@ -27235,10 +27235,10 @@
         <v>11</v>
       </c>
       <c r="C817">
-        <v>9</v>
+        <v>22086</v>
       </c>
       <c r="D817">
-        <v>10353</v>
+        <v>28768283</v>
       </c>
       <c r="E817" t="s">
         <v>29</v>
@@ -27253,10 +27253,10 @@
         <v>223</v>
       </c>
       <c r="I817" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J817" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="818" spans="1:10">
@@ -27267,10 +27267,10 @@
         <v>11</v>
       </c>
       <c r="C818">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D818">
-        <v>7500</v>
+        <v>12753</v>
       </c>
       <c r="E818" t="s">
         <v>29</v>
@@ -27285,10 +27285,10 @@
         <v>223</v>
       </c>
       <c r="I818" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J818" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="819" spans="1:10">
@@ -27299,10 +27299,10 @@
         <v>11</v>
       </c>
       <c r="C819">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D819">
-        <v>121799</v>
+        <v>7500</v>
       </c>
       <c r="E819" t="s">
         <v>29</v>
@@ -27317,10 +27317,10 @@
         <v>223</v>
       </c>
       <c r="I819" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="J819" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="820" spans="1:10">
@@ -27331,10 +27331,10 @@
         <v>11</v>
       </c>
       <c r="C820">
-        <v>9455</v>
+        <v>84</v>
       </c>
       <c r="D820">
-        <v>13980610</v>
+        <v>124799</v>
       </c>
       <c r="E820" t="s">
         <v>29</v>
@@ -27349,10 +27349,10 @@
         <v>223</v>
       </c>
       <c r="I820" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="J820" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="821" spans="1:10">
@@ -27363,10 +27363,10 @@
         <v>11</v>
       </c>
       <c r="C821">
-        <v>7</v>
+        <v>9556</v>
       </c>
       <c r="D821">
-        <v>10500</v>
+        <v>14125420</v>
       </c>
       <c r="E821" t="s">
         <v>29</v>
@@ -27381,10 +27381,10 @@
         <v>223</v>
       </c>
       <c r="I821" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J821" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="822" spans="1:10">
@@ -27395,10 +27395,10 @@
         <v>11</v>
       </c>
       <c r="C822">
-        <v>7401</v>
+        <v>7</v>
       </c>
       <c r="D822">
-        <v>10772024</v>
+        <v>10500</v>
       </c>
       <c r="E822" t="s">
         <v>29</v>
@@ -27413,10 +27413,10 @@
         <v>223</v>
       </c>
       <c r="I822" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J822" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="823" spans="1:10">
@@ -27427,10 +27427,10 @@
         <v>11</v>
       </c>
       <c r="C823">
-        <v>160</v>
+        <v>7459</v>
       </c>
       <c r="D823">
-        <v>223094</v>
+        <v>10852898</v>
       </c>
       <c r="E823" t="s">
         <v>29</v>
@@ -27445,10 +27445,10 @@
         <v>223</v>
       </c>
       <c r="I823" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J823" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="824" spans="1:10">
@@ -27459,10 +27459,10 @@
         <v>11</v>
       </c>
       <c r="C824">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="D824">
-        <v>174357</v>
+        <v>228998</v>
       </c>
       <c r="E824" t="s">
         <v>29</v>
@@ -27477,10 +27477,10 @@
         <v>223</v>
       </c>
       <c r="I824" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="J824" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="825" spans="1:10">
@@ -27491,10 +27491,10 @@
         <v>11</v>
       </c>
       <c r="C825">
-        <v>19678</v>
+        <v>126</v>
       </c>
       <c r="D825">
-        <v>26108463</v>
+        <v>174357</v>
       </c>
       <c r="E825" t="s">
         <v>29</v>
@@ -27503,16 +27503,16 @@
         <v>47</v>
       </c>
       <c r="G825" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H825" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I825" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="J825" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="826" spans="1:10">
@@ -27523,10 +27523,10 @@
         <v>11</v>
       </c>
       <c r="C826">
-        <v>4</v>
+        <v>19785</v>
       </c>
       <c r="D826">
-        <v>6000</v>
+        <v>26245870</v>
       </c>
       <c r="E826" t="s">
         <v>29</v>
@@ -27541,10 +27541,10 @@
         <v>224</v>
       </c>
       <c r="I826" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="J826" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="827" spans="1:10">
@@ -27555,10 +27555,10 @@
         <v>11</v>
       </c>
       <c r="C827">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="D827">
-        <v>125207</v>
+        <v>6000</v>
       </c>
       <c r="E827" t="s">
         <v>29</v>
@@ -27573,10 +27573,10 @@
         <v>224</v>
       </c>
       <c r="I827" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="J827" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="828" spans="1:10">
@@ -27587,10 +27587,10 @@
         <v>11</v>
       </c>
       <c r="C828">
-        <v>8513</v>
+        <v>85</v>
       </c>
       <c r="D828">
-        <v>12599418</v>
+        <v>126707</v>
       </c>
       <c r="E828" t="s">
         <v>29</v>
@@ -27605,10 +27605,10 @@
         <v>224</v>
       </c>
       <c r="I828" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="J828" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="829" spans="1:10">
@@ -27619,10 +27619,10 @@
         <v>11</v>
       </c>
       <c r="C829">
-        <v>15</v>
+        <v>8595</v>
       </c>
       <c r="D829">
-        <v>22310</v>
+        <v>12718837</v>
       </c>
       <c r="E829" t="s">
         <v>29</v>
@@ -27637,10 +27637,10 @@
         <v>224</v>
       </c>
       <c r="I829" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J829" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="830" spans="1:10">
@@ -27651,10 +27651,10 @@
         <v>11</v>
       </c>
       <c r="C830">
-        <v>7773</v>
+        <v>15</v>
       </c>
       <c r="D830">
-        <v>11330277</v>
+        <v>22310</v>
       </c>
       <c r="E830" t="s">
         <v>29</v>
@@ -27669,10 +27669,10 @@
         <v>224</v>
       </c>
       <c r="I830" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J830" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="831" spans="1:10">
@@ -27683,10 +27683,10 @@
         <v>11</v>
       </c>
       <c r="C831">
-        <v>71</v>
+        <v>7841</v>
       </c>
       <c r="D831">
-        <v>100452</v>
+        <v>11423686</v>
       </c>
       <c r="E831" t="s">
         <v>29</v>
@@ -27701,10 +27701,10 @@
         <v>224</v>
       </c>
       <c r="I831" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J831" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="832" spans="1:10">
@@ -27715,10 +27715,10 @@
         <v>11</v>
       </c>
       <c r="C832">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D832">
-        <v>115192</v>
+        <v>101332</v>
       </c>
       <c r="E832" t="s">
         <v>29</v>
@@ -27733,10 +27733,10 @@
         <v>224</v>
       </c>
       <c r="I832" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="J832" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="833" spans="1:10">
@@ -27747,10 +27747,10 @@
         <v>11</v>
       </c>
       <c r="C833">
-        <v>24344</v>
+        <v>80</v>
       </c>
       <c r="D833">
-        <v>32319742</v>
+        <v>115192</v>
       </c>
       <c r="E833" t="s">
         <v>29</v>
@@ -27759,16 +27759,16 @@
         <v>47</v>
       </c>
       <c r="G833" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="H833" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I833" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="J833" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="834" spans="1:10">
@@ -27779,10 +27779,10 @@
         <v>11</v>
       </c>
       <c r="C834">
-        <v>10</v>
+        <v>24572</v>
       </c>
       <c r="D834">
-        <v>14278</v>
+        <v>32601172</v>
       </c>
       <c r="E834" t="s">
         <v>29</v>
@@ -27797,10 +27797,10 @@
         <v>225</v>
       </c>
       <c r="I834" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="J834" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="835" spans="1:10">
@@ -27811,10 +27811,10 @@
         <v>11</v>
       </c>
       <c r="C835">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D835">
-        <v>73583</v>
+        <v>14278</v>
       </c>
       <c r="E835" t="s">
         <v>29</v>
@@ -27829,10 +27829,10 @@
         <v>225</v>
       </c>
       <c r="I835" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="J835" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="836" spans="1:10">
@@ -27843,10 +27843,10 @@
         <v>11</v>
       </c>
       <c r="C836">
-        <v>10465</v>
+        <v>50</v>
       </c>
       <c r="D836">
-        <v>15459958</v>
+        <v>73583</v>
       </c>
       <c r="E836" t="s">
         <v>29</v>
@@ -27861,10 +27861,10 @@
         <v>225</v>
       </c>
       <c r="I836" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="J836" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="837" spans="1:10">
@@ -27875,10 +27875,10 @@
         <v>11</v>
       </c>
       <c r="C837">
-        <v>15</v>
+        <v>10574</v>
       </c>
       <c r="D837">
-        <v>22500</v>
+        <v>15618158</v>
       </c>
       <c r="E837" t="s">
         <v>29</v>
@@ -27893,10 +27893,10 @@
         <v>225</v>
       </c>
       <c r="I837" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J837" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="838" spans="1:10">
@@ -27907,10 +27907,10 @@
         <v>11</v>
       </c>
       <c r="C838">
-        <v>9651</v>
+        <v>15</v>
       </c>
       <c r="D838">
-        <v>14066739</v>
+        <v>22500</v>
       </c>
       <c r="E838" t="s">
         <v>29</v>
@@ -27925,10 +27925,10 @@
         <v>225</v>
       </c>
       <c r="I838" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J838" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="839" spans="1:10">
@@ -27939,10 +27939,10 @@
         <v>11</v>
       </c>
       <c r="C839">
-        <v>92</v>
+        <v>9751</v>
       </c>
       <c r="D839">
-        <v>124846</v>
+        <v>14208376</v>
       </c>
       <c r="E839" t="s">
         <v>29</v>
@@ -27957,10 +27957,10 @@
         <v>225</v>
       </c>
       <c r="I839" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J839" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="840" spans="1:10">
@@ -27971,10 +27971,10 @@
         <v>11</v>
       </c>
       <c r="C840">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="D840">
-        <v>293265</v>
+        <v>127746</v>
       </c>
       <c r="E840" t="s">
         <v>29</v>
@@ -27989,10 +27989,10 @@
         <v>225</v>
       </c>
       <c r="I840" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="J840" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="841" spans="1:10">
@@ -28003,10 +28003,10 @@
         <v>11</v>
       </c>
       <c r="C841">
-        <v>20928</v>
+        <v>208</v>
       </c>
       <c r="D841">
-        <v>27265122</v>
+        <v>302852</v>
       </c>
       <c r="E841" t="s">
         <v>29</v>
@@ -28015,16 +28015,16 @@
         <v>47</v>
       </c>
       <c r="G841" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="H841" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I841" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="J841" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="842" spans="1:10">
@@ -28035,10 +28035,10 @@
         <v>11</v>
       </c>
       <c r="C842">
-        <v>7</v>
+        <v>21143</v>
       </c>
       <c r="D842">
-        <v>10500</v>
+        <v>27530090</v>
       </c>
       <c r="E842" t="s">
         <v>29</v>
@@ -28053,10 +28053,10 @@
         <v>226</v>
       </c>
       <c r="I842" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="J842" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="843" spans="1:10">
@@ -28067,10 +28067,10 @@
         <v>11</v>
       </c>
       <c r="C843">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D843">
-        <v>98643</v>
+        <v>10500</v>
       </c>
       <c r="E843" t="s">
         <v>29</v>
@@ -28085,10 +28085,10 @@
         <v>226</v>
       </c>
       <c r="I843" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="J843" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="844" spans="1:10">
@@ -28099,10 +28099,10 @@
         <v>11</v>
       </c>
       <c r="C844">
-        <v>10057</v>
+        <v>68</v>
       </c>
       <c r="D844">
-        <v>14856503</v>
+        <v>100143</v>
       </c>
       <c r="E844" t="s">
         <v>29</v>
@@ -28117,10 +28117,10 @@
         <v>226</v>
       </c>
       <c r="I844" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="J844" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="845" spans="1:10">
@@ -28131,10 +28131,10 @@
         <v>11</v>
       </c>
       <c r="C845">
-        <v>16</v>
+        <v>10150</v>
       </c>
       <c r="D845">
-        <v>24000</v>
+        <v>14994224</v>
       </c>
       <c r="E845" t="s">
         <v>29</v>
@@ -28149,10 +28149,10 @@
         <v>226</v>
       </c>
       <c r="I845" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J845" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="846" spans="1:10">
@@ -28163,10 +28163,10 @@
         <v>11</v>
       </c>
       <c r="C846">
-        <v>7296</v>
+        <v>17</v>
       </c>
       <c r="D846">
-        <v>10579165</v>
+        <v>25500</v>
       </c>
       <c r="E846" t="s">
         <v>29</v>
@@ -28181,10 +28181,10 @@
         <v>226</v>
       </c>
       <c r="I846" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J846" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="847" spans="1:10">
@@ -28195,10 +28195,10 @@
         <v>11</v>
       </c>
       <c r="C847">
-        <v>4</v>
+        <v>7373</v>
       </c>
       <c r="D847">
-        <v>5972</v>
+        <v>10689793</v>
       </c>
       <c r="E847" t="s">
         <v>29</v>
@@ -28213,10 +28213,10 @@
         <v>226</v>
       </c>
       <c r="I847" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J847" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="848" spans="1:10">
@@ -28227,10 +28227,10 @@
         <v>11</v>
       </c>
       <c r="C848">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="D848">
-        <v>165945</v>
+        <v>5972</v>
       </c>
       <c r="E848" t="s">
         <v>29</v>
@@ -28245,10 +28245,10 @@
         <v>226</v>
       </c>
       <c r="I848" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J848" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="849" spans="1:10">
@@ -28259,10 +28259,10 @@
         <v>11</v>
       </c>
       <c r="C849">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D849">
-        <v>164124</v>
+        <v>169925</v>
       </c>
       <c r="E849" t="s">
         <v>29</v>
@@ -28277,9 +28277,41 @@
         <v>226</v>
       </c>
       <c r="I849" t="s">
+        <v>113</v>
+      </c>
+      <c r="J849" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="850" spans="1:10">
+      <c r="A850" t="s">
+        <v>10</v>
+      </c>
+      <c r="B850" t="s">
+        <v>11</v>
+      </c>
+      <c r="C850">
+        <v>121</v>
+      </c>
+      <c r="D850">
+        <v>168044</v>
+      </c>
+      <c r="E850" t="s">
+        <v>29</v>
+      </c>
+      <c r="F850" t="s">
+        <v>47</v>
+      </c>
+      <c r="G850" t="s">
+        <v>130</v>
+      </c>
+      <c r="H850" t="s">
+        <v>226</v>
+      </c>
+      <c r="I850" t="s">
         <v>127</v>
       </c>
-      <c r="J849" t="s">
+      <c r="J850" t="s">
         <v>236</v>
       </c>
     </row>

--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>9340</v>
+        <v>9381</v>
       </c>
       <c r="D2">
-        <v>11927702</v>
+        <v>11981531</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1251,10 +1251,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>3954</v>
+        <v>3969</v>
       </c>
       <c r="D5">
-        <v>5830422</v>
+        <v>5852242</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1315,10 +1315,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>1967</v>
+        <v>1980</v>
       </c>
       <c r="D7">
-        <v>2859733</v>
+        <v>2879233</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1411,10 +1411,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10">
-        <v>176128</v>
+        <v>177292</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1443,10 +1443,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>6495</v>
+        <v>6516</v>
       </c>
       <c r="D11">
-        <v>8266642</v>
+        <v>8291101</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1539,10 +1539,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>2133</v>
+        <v>2141</v>
       </c>
       <c r="D14">
-        <v>3135976</v>
+        <v>3147069</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1603,10 +1603,10 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D16">
-        <v>1267773</v>
+        <v>1269273</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1699,10 +1699,10 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>8545</v>
+        <v>8588</v>
       </c>
       <c r="D19">
-        <v>10666099</v>
+        <v>10715685</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1795,10 +1795,10 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>3174</v>
+        <v>3181</v>
       </c>
       <c r="D22">
-        <v>4675726</v>
+        <v>4686226</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1859,10 +1859,10 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="D24">
-        <v>1488928</v>
+        <v>1496428</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -1891,10 +1891,10 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D25">
-        <v>216907</v>
+        <v>218407</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -1923,10 +1923,10 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D26">
-        <v>176465</v>
+        <v>180235</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -1955,10 +1955,10 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>3354</v>
+        <v>3364</v>
       </c>
       <c r="D27">
-        <v>4454048</v>
+        <v>4467298</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -2019,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="D29">
-        <v>1514379</v>
+        <v>1518879</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -2051,10 +2051,10 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -2115,10 +2115,10 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D32">
-        <v>339269</v>
+        <v>340069</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -2211,10 +2211,10 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>13253</v>
+        <v>13308</v>
       </c>
       <c r="D35">
-        <v>16596929</v>
+        <v>16662388</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -2339,10 +2339,10 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>5200</v>
+        <v>5221</v>
       </c>
       <c r="D39">
-        <v>7672000</v>
+        <v>7702305</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -2403,10 +2403,10 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>2438</v>
+        <v>2441</v>
       </c>
       <c r="D41">
-        <v>3547293</v>
+        <v>3551502</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -2531,10 +2531,10 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>5107</v>
+        <v>5121</v>
       </c>
       <c r="D45">
-        <v>6618023</v>
+        <v>6636165</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2627,10 +2627,10 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>1800</v>
+        <v>1807</v>
       </c>
       <c r="D48">
-        <v>2634384</v>
+        <v>2643659</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2691,10 +2691,10 @@
         <v>11</v>
       </c>
       <c r="C50">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D50">
-        <v>923212</v>
+        <v>924712</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -2723,10 +2723,10 @@
         <v>11</v>
       </c>
       <c r="C51">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D51">
-        <v>133764</v>
+        <v>135264</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -2755,10 +2755,10 @@
         <v>11</v>
       </c>
       <c r="C52">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D52">
-        <v>142967</v>
+        <v>145173</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -2787,10 +2787,10 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>21718</v>
+        <v>21792</v>
       </c>
       <c r="D53">
-        <v>28431868</v>
+        <v>28520201</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -2915,10 +2915,10 @@
         <v>11</v>
       </c>
       <c r="C57">
-        <v>8240</v>
+        <v>8263</v>
       </c>
       <c r="D57">
-        <v>12173728</v>
+        <v>12205946</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -2979,10 +2979,10 @@
         <v>11</v>
       </c>
       <c r="C59">
-        <v>3121</v>
+        <v>3130</v>
       </c>
       <c r="D59">
-        <v>4543226</v>
+        <v>4553667</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -3043,10 +3043,10 @@
         <v>11</v>
       </c>
       <c r="C61">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D61">
-        <v>221456</v>
+        <v>222956</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -3139,10 +3139,10 @@
         <v>11</v>
       </c>
       <c r="C64">
-        <v>27665</v>
+        <v>27787</v>
       </c>
       <c r="D64">
-        <v>35775866</v>
+        <v>35929808</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -3235,10 +3235,10 @@
         <v>11</v>
       </c>
       <c r="C67">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D67">
-        <v>69561</v>
+        <v>71061</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -3267,10 +3267,10 @@
         <v>11</v>
       </c>
       <c r="C68">
-        <v>12102</v>
+        <v>12148</v>
       </c>
       <c r="D68">
-        <v>17849708</v>
+        <v>17918348</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -3331,10 +3331,10 @@
         <v>11</v>
       </c>
       <c r="C70">
-        <v>5746</v>
+        <v>5779</v>
       </c>
       <c r="D70">
-        <v>8356254</v>
+        <v>8405567</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -3363,10 +3363,10 @@
         <v>11</v>
       </c>
       <c r="C71">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D71">
-        <v>256663</v>
+        <v>259663</v>
       </c>
       <c r="E71" t="s">
         <v>12</v>
@@ -3395,10 +3395,10 @@
         <v>11</v>
       </c>
       <c r="C72">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D72">
-        <v>359856</v>
+        <v>365106</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
@@ -3427,10 +3427,10 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <v>15085</v>
+        <v>15153</v>
       </c>
       <c r="D73">
-        <v>19352226</v>
+        <v>19427215</v>
       </c>
       <c r="E73" t="s">
         <v>12</v>
@@ -3523,10 +3523,10 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>5816</v>
+        <v>5839</v>
       </c>
       <c r="D76">
-        <v>8598657</v>
+        <v>8631945</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -3587,10 +3587,10 @@
         <v>11</v>
       </c>
       <c r="C78">
-        <v>3085</v>
+        <v>3106</v>
       </c>
       <c r="D78">
-        <v>4493150</v>
+        <v>4523833</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
@@ -3619,10 +3619,10 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D79">
-        <v>266175</v>
+        <v>267675</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -3651,10 +3651,10 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D80">
-        <v>370597</v>
+        <v>375567</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -3683,10 +3683,10 @@
         <v>11</v>
       </c>
       <c r="C81">
-        <v>12960</v>
+        <v>13009</v>
       </c>
       <c r="D81">
-        <v>16455168</v>
+        <v>16518885</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -3811,10 +3811,10 @@
         <v>11</v>
       </c>
       <c r="C85">
-        <v>5907</v>
+        <v>5924</v>
       </c>
       <c r="D85">
-        <v>8696458</v>
+        <v>8720545</v>
       </c>
       <c r="E85" t="s">
         <v>12</v>
@@ -3875,10 +3875,10 @@
         <v>11</v>
       </c>
       <c r="C87">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D87">
-        <v>2885374</v>
+        <v>2889874</v>
       </c>
       <c r="E87" t="s">
         <v>12</v>
@@ -3971,10 +3971,10 @@
         <v>11</v>
       </c>
       <c r="C90">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D90">
-        <v>250857</v>
+        <v>256857</v>
       </c>
       <c r="E90" t="s">
         <v>12</v>
@@ -4003,10 +4003,10 @@
         <v>11</v>
       </c>
       <c r="C91">
-        <v>42470</v>
+        <v>42760</v>
       </c>
       <c r="D91">
-        <v>54781486</v>
+        <v>55119033</v>
       </c>
       <c r="E91" t="s">
         <v>12</v>
@@ -4163,10 +4163,10 @@
         <v>11</v>
       </c>
       <c r="C96">
-        <v>19933</v>
+        <v>20011</v>
       </c>
       <c r="D96">
-        <v>29464151</v>
+        <v>29574252</v>
       </c>
       <c r="E96" t="s">
         <v>12</v>
@@ -4227,10 +4227,10 @@
         <v>11</v>
       </c>
       <c r="C98">
-        <v>12399</v>
+        <v>12472</v>
       </c>
       <c r="D98">
-        <v>17998247</v>
+        <v>18101714</v>
       </c>
       <c r="E98" t="s">
         <v>12</v>
@@ -4323,10 +4323,10 @@
         <v>11</v>
       </c>
       <c r="C101">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D101">
-        <v>505189</v>
+        <v>506689</v>
       </c>
       <c r="E101" t="s">
         <v>12</v>
@@ -4387,10 +4387,10 @@
         <v>11</v>
       </c>
       <c r="C103">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="D103">
-        <v>1039927</v>
+        <v>1044083</v>
       </c>
       <c r="E103" t="s">
         <v>12</v>
@@ -4419,10 +4419,10 @@
         <v>11</v>
       </c>
       <c r="C104">
-        <v>17437</v>
+        <v>17514</v>
       </c>
       <c r="D104">
-        <v>23359374</v>
+        <v>23459758</v>
       </c>
       <c r="E104" t="s">
         <v>12</v>
@@ -4547,10 +4547,10 @@
         <v>11</v>
       </c>
       <c r="C108">
-        <v>6434</v>
+        <v>6465</v>
       </c>
       <c r="D108">
-        <v>9517593</v>
+        <v>9563677</v>
       </c>
       <c r="E108" t="s">
         <v>12</v>
@@ -4611,10 +4611,10 @@
         <v>11</v>
       </c>
       <c r="C110">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="D110">
-        <v>2933174</v>
+        <v>2945681</v>
       </c>
       <c r="E110" t="s">
         <v>12</v>
@@ -4739,10 +4739,10 @@
         <v>11</v>
       </c>
       <c r="C114">
-        <v>9276</v>
+        <v>9304</v>
       </c>
       <c r="D114">
-        <v>11779452</v>
+        <v>11815375</v>
       </c>
       <c r="E114" t="s">
         <v>13</v>
@@ -4835,10 +4835,10 @@
         <v>11</v>
       </c>
       <c r="C117">
-        <v>5128</v>
+        <v>5147</v>
       </c>
       <c r="D117">
-        <v>7561175</v>
+        <v>7588399</v>
       </c>
       <c r="E117" t="s">
         <v>13</v>
@@ -4899,10 +4899,10 @@
         <v>11</v>
       </c>
       <c r="C119">
-        <v>1358</v>
+        <v>1366</v>
       </c>
       <c r="D119">
-        <v>1956752</v>
+        <v>1968752</v>
       </c>
       <c r="E119" t="s">
         <v>13</v>
@@ -4963,10 +4963,10 @@
         <v>11</v>
       </c>
       <c r="C121">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D121">
-        <v>254924</v>
+        <v>258397</v>
       </c>
       <c r="E121" t="s">
         <v>13</v>
@@ -4995,10 +4995,10 @@
         <v>11</v>
       </c>
       <c r="C122">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D122">
-        <v>239632</v>
+        <v>241132</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -5027,10 +5027,10 @@
         <v>11</v>
       </c>
       <c r="C123">
-        <v>8180</v>
+        <v>8199</v>
       </c>
       <c r="D123">
-        <v>10471766</v>
+        <v>10491343</v>
       </c>
       <c r="E123" t="s">
         <v>13</v>
@@ -5155,10 +5155,10 @@
         <v>11</v>
       </c>
       <c r="C127">
-        <v>4192</v>
+        <v>4203</v>
       </c>
       <c r="D127">
-        <v>6182292</v>
+        <v>6197917</v>
       </c>
       <c r="E127" t="s">
         <v>13</v>
@@ -5219,10 +5219,10 @@
         <v>11</v>
       </c>
       <c r="C129">
-        <v>1221</v>
+        <v>1231</v>
       </c>
       <c r="D129">
-        <v>1774961</v>
+        <v>1789961</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -5347,10 +5347,10 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <v>3765</v>
+        <v>3784</v>
       </c>
       <c r="D133">
-        <v>4706003</v>
+        <v>4725162</v>
       </c>
       <c r="E133" t="s">
         <v>13</v>
@@ -5443,10 +5443,10 @@
         <v>11</v>
       </c>
       <c r="C136">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="D136">
-        <v>2062417</v>
+        <v>2063462</v>
       </c>
       <c r="E136" t="s">
         <v>13</v>
@@ -5475,10 +5475,10 @@
         <v>11</v>
       </c>
       <c r="C137">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D137">
-        <v>635345</v>
+        <v>636845</v>
       </c>
       <c r="E137" t="s">
         <v>13</v>
@@ -5571,10 +5571,10 @@
         <v>11</v>
       </c>
       <c r="C140">
-        <v>4664</v>
+        <v>4683</v>
       </c>
       <c r="D140">
-        <v>5901850</v>
+        <v>5923302</v>
       </c>
       <c r="E140" t="s">
         <v>13</v>
@@ -5635,10 +5635,10 @@
         <v>11</v>
       </c>
       <c r="C142">
-        <v>1883</v>
+        <v>1889</v>
       </c>
       <c r="D142">
-        <v>2774570</v>
+        <v>2783570</v>
       </c>
       <c r="E142" t="s">
         <v>13</v>
@@ -5667,10 +5667,10 @@
         <v>11</v>
       </c>
       <c r="C143">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="D143">
-        <v>1305806</v>
+        <v>1311096</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
@@ -5699,10 +5699,10 @@
         <v>11</v>
       </c>
       <c r="C144">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D144">
-        <v>136678</v>
+        <v>138178</v>
       </c>
       <c r="E144" t="s">
         <v>13</v>
@@ -5763,10 +5763,10 @@
         <v>11</v>
       </c>
       <c r="C146">
-        <v>3500</v>
+        <v>3512</v>
       </c>
       <c r="D146">
-        <v>4492932</v>
+        <v>4504360</v>
       </c>
       <c r="E146" t="s">
         <v>13</v>
@@ -5827,10 +5827,10 @@
         <v>11</v>
       </c>
       <c r="C148">
-        <v>1353</v>
+        <v>1362</v>
       </c>
       <c r="D148">
-        <v>1984075</v>
+        <v>1997575</v>
       </c>
       <c r="E148" t="s">
         <v>13</v>
@@ -5859,10 +5859,10 @@
         <v>11</v>
       </c>
       <c r="C149">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D149">
-        <v>621725</v>
+        <v>627487</v>
       </c>
       <c r="E149" t="s">
         <v>13</v>
@@ -5955,10 +5955,10 @@
         <v>11</v>
       </c>
       <c r="C152">
-        <v>9753</v>
+        <v>9789</v>
       </c>
       <c r="D152">
-        <v>12480763</v>
+        <v>12519782</v>
       </c>
       <c r="E152" t="s">
         <v>13</v>
@@ -6083,10 +6083,10 @@
         <v>11</v>
       </c>
       <c r="C156">
-        <v>4248</v>
+        <v>4263</v>
       </c>
       <c r="D156">
-        <v>6251610</v>
+        <v>6272760</v>
       </c>
       <c r="E156" t="s">
         <v>13</v>
@@ -6115,10 +6115,10 @@
         <v>11</v>
       </c>
       <c r="C157">
-        <v>1384</v>
+        <v>1390</v>
       </c>
       <c r="D157">
-        <v>2007587</v>
+        <v>2016587</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
@@ -6179,10 +6179,10 @@
         <v>11</v>
       </c>
       <c r="C159">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D159">
-        <v>227783</v>
+        <v>229283</v>
       </c>
       <c r="E159" t="s">
         <v>13</v>
@@ -6211,10 +6211,10 @@
         <v>11</v>
       </c>
       <c r="C160">
-        <v>1856</v>
+        <v>1863</v>
       </c>
       <c r="D160">
-        <v>2380669</v>
+        <v>2390539</v>
       </c>
       <c r="E160" t="s">
         <v>13</v>
@@ -6275,10 +6275,10 @@
         <v>11</v>
       </c>
       <c r="C162">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="D162">
-        <v>1468637</v>
+        <v>1471713</v>
       </c>
       <c r="E162" t="s">
         <v>13</v>
@@ -6339,10 +6339,10 @@
         <v>11</v>
       </c>
       <c r="C164">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D164">
-        <v>524339</v>
+        <v>527339</v>
       </c>
       <c r="E164" t="s">
         <v>13</v>
@@ -6435,10 +6435,10 @@
         <v>11</v>
       </c>
       <c r="C167">
-        <v>5636</v>
+        <v>5658</v>
       </c>
       <c r="D167">
-        <v>7156508</v>
+        <v>7186104</v>
       </c>
       <c r="E167" t="s">
         <v>13</v>
@@ -6531,10 +6531,10 @@
         <v>11</v>
       </c>
       <c r="C170">
-        <v>2224</v>
+        <v>2237</v>
       </c>
       <c r="D170">
-        <v>3286246</v>
+        <v>3304482</v>
       </c>
       <c r="E170" t="s">
         <v>13</v>
@@ -6563,10 +6563,10 @@
         <v>11</v>
       </c>
       <c r="C171">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="D171">
-        <v>1426303</v>
+        <v>1433241</v>
       </c>
       <c r="E171" t="s">
         <v>13</v>
@@ -6595,10 +6595,10 @@
         <v>11</v>
       </c>
       <c r="C172">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D172">
-        <v>137796</v>
+        <v>139296</v>
       </c>
       <c r="E172" t="s">
         <v>13</v>
@@ -6627,10 +6627,10 @@
         <v>11</v>
       </c>
       <c r="C173">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D173">
-        <v>112026</v>
+        <v>113526</v>
       </c>
       <c r="E173" t="s">
         <v>13</v>
@@ -6659,10 +6659,10 @@
         <v>11</v>
       </c>
       <c r="C174">
-        <v>10839</v>
+        <v>10871</v>
       </c>
       <c r="D174">
-        <v>13880505</v>
+        <v>13913166</v>
       </c>
       <c r="E174" t="s">
         <v>14</v>
@@ -6723,10 +6723,10 @@
         <v>11</v>
       </c>
       <c r="C176">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D176">
-        <v>158002</v>
+        <v>159502</v>
       </c>
       <c r="E176" t="s">
         <v>14</v>
@@ -6755,10 +6755,10 @@
         <v>11</v>
       </c>
       <c r="C177">
-        <v>5086</v>
+        <v>5101</v>
       </c>
       <c r="D177">
-        <v>7510768</v>
+        <v>7533009</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
@@ -6787,10 +6787,10 @@
         <v>11</v>
       </c>
       <c r="C178">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D178">
-        <v>1105412</v>
+        <v>1108412</v>
       </c>
       <c r="E178" t="s">
         <v>14</v>
@@ -6819,10 +6819,10 @@
         <v>11</v>
       </c>
       <c r="C179">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D179">
-        <v>209412</v>
+        <v>211041</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
@@ -6851,10 +6851,10 @@
         <v>11</v>
       </c>
       <c r="C180">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D180">
-        <v>246858</v>
+        <v>248358</v>
       </c>
       <c r="E180" t="s">
         <v>14</v>
@@ -6883,10 +6883,10 @@
         <v>11</v>
       </c>
       <c r="C181">
-        <v>16260</v>
+        <v>16333</v>
       </c>
       <c r="D181">
-        <v>20937728</v>
+        <v>21025697</v>
       </c>
       <c r="E181" t="s">
         <v>14</v>
@@ -7011,10 +7011,10 @@
         <v>11</v>
       </c>
       <c r="C185">
-        <v>7053</v>
+        <v>7082</v>
       </c>
       <c r="D185">
-        <v>10407062</v>
+        <v>10447607</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
@@ -7043,10 +7043,10 @@
         <v>11</v>
       </c>
       <c r="C186">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D186">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
@@ -7075,10 +7075,10 @@
         <v>11</v>
       </c>
       <c r="C187">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="D187">
-        <v>2389507</v>
+        <v>2395507</v>
       </c>
       <c r="E187" t="s">
         <v>14</v>
@@ -7107,10 +7107,10 @@
         <v>11</v>
       </c>
       <c r="C188">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D188">
-        <v>223477</v>
+        <v>226477</v>
       </c>
       <c r="E188" t="s">
         <v>14</v>
@@ -7139,10 +7139,10 @@
         <v>11</v>
       </c>
       <c r="C189">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D189">
-        <v>266488</v>
+        <v>270988</v>
       </c>
       <c r="E189" t="s">
         <v>14</v>
@@ -7171,10 +7171,10 @@
         <v>11</v>
       </c>
       <c r="C190">
-        <v>17202</v>
+        <v>17248</v>
       </c>
       <c r="D190">
-        <v>22140229</v>
+        <v>22189153</v>
       </c>
       <c r="E190" t="s">
         <v>14</v>
@@ -7267,10 +7267,10 @@
         <v>11</v>
       </c>
       <c r="C193">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D193">
-        <v>174517</v>
+        <v>176017</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
@@ -7299,10 +7299,10 @@
         <v>11</v>
       </c>
       <c r="C194">
-        <v>9822</v>
+        <v>9859</v>
       </c>
       <c r="D194">
-        <v>14504026</v>
+        <v>14559457</v>
       </c>
       <c r="E194" t="s">
         <v>14</v>
@@ -7363,10 +7363,10 @@
         <v>11</v>
       </c>
       <c r="C196">
-        <v>1616</v>
+        <v>1620</v>
       </c>
       <c r="D196">
-        <v>2321369</v>
+        <v>2327369</v>
       </c>
       <c r="E196" t="s">
         <v>14</v>
@@ -7427,10 +7427,10 @@
         <v>11</v>
       </c>
       <c r="C198">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D198">
-        <v>353937</v>
+        <v>356937</v>
       </c>
       <c r="E198" t="s">
         <v>14</v>
@@ -7459,10 +7459,10 @@
         <v>11</v>
       </c>
       <c r="C199">
-        <v>15180</v>
+        <v>15233</v>
       </c>
       <c r="D199">
-        <v>19467442</v>
+        <v>19533864</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
@@ -7619,10 +7619,10 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>7506</v>
+        <v>7527</v>
       </c>
       <c r="D204">
-        <v>11066677</v>
+        <v>11097405</v>
       </c>
       <c r="E204" t="s">
         <v>14</v>
@@ -7651,10 +7651,10 @@
         <v>11</v>
       </c>
       <c r="C205">
-        <v>1586</v>
+        <v>1591</v>
       </c>
       <c r="D205">
-        <v>2283464</v>
+        <v>2290119</v>
       </c>
       <c r="E205" t="s">
         <v>14</v>
@@ -7683,10 +7683,10 @@
         <v>11</v>
       </c>
       <c r="C206">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D206">
-        <v>335321</v>
+        <v>338321</v>
       </c>
       <c r="E206" t="s">
         <v>14</v>
@@ -7715,10 +7715,10 @@
         <v>11</v>
       </c>
       <c r="C207">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D207">
-        <v>220570</v>
+        <v>228070</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
@@ -7747,10 +7747,10 @@
         <v>11</v>
       </c>
       <c r="C208">
-        <v>4872</v>
+        <v>4895</v>
       </c>
       <c r="D208">
-        <v>6189544</v>
+        <v>6219123</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -7811,10 +7811,10 @@
         <v>11</v>
       </c>
       <c r="C210">
-        <v>1767</v>
+        <v>1785</v>
       </c>
       <c r="D210">
-        <v>2605861</v>
+        <v>2631006</v>
       </c>
       <c r="E210" t="s">
         <v>15</v>
@@ -7875,10 +7875,10 @@
         <v>11</v>
       </c>
       <c r="C212">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D212">
-        <v>862732</v>
+        <v>866732</v>
       </c>
       <c r="E212" t="s">
         <v>15</v>
@@ -7907,10 +7907,10 @@
         <v>11</v>
       </c>
       <c r="C213">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D213">
-        <v>147566</v>
+        <v>148666</v>
       </c>
       <c r="E213" t="s">
         <v>15</v>
@@ -7971,10 +7971,10 @@
         <v>11</v>
       </c>
       <c r="C215">
-        <v>6080</v>
+        <v>6101</v>
       </c>
       <c r="D215">
-        <v>7839825</v>
+        <v>7871325</v>
       </c>
       <c r="E215" t="s">
         <v>15</v>
@@ -8067,10 +8067,10 @@
         <v>11</v>
       </c>
       <c r="C218">
-        <v>2822</v>
+        <v>2834</v>
       </c>
       <c r="D218">
-        <v>4165383</v>
+        <v>4183383</v>
       </c>
       <c r="E218" t="s">
         <v>15</v>
@@ -8099,10 +8099,10 @@
         <v>11</v>
       </c>
       <c r="C219">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="D219">
-        <v>1965179</v>
+        <v>1971113</v>
       </c>
       <c r="E219" t="s">
         <v>15</v>
@@ -8195,10 +8195,10 @@
         <v>11</v>
       </c>
       <c r="C222">
-        <v>3474</v>
+        <v>3480</v>
       </c>
       <c r="D222">
-        <v>4382633</v>
+        <v>4389477</v>
       </c>
       <c r="E222" t="s">
         <v>15</v>
@@ -8291,10 +8291,10 @@
         <v>11</v>
       </c>
       <c r="C225">
-        <v>1335</v>
+        <v>1340</v>
       </c>
       <c r="D225">
-        <v>1968209</v>
+        <v>1975709</v>
       </c>
       <c r="E225" t="s">
         <v>15</v>
@@ -8355,10 +8355,10 @@
         <v>11</v>
       </c>
       <c r="C227">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D227">
-        <v>650508</v>
+        <v>652008</v>
       </c>
       <c r="E227" t="s">
         <v>15</v>
@@ -8419,10 +8419,10 @@
         <v>11</v>
       </c>
       <c r="C229">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D229">
-        <v>85625</v>
+        <v>88625</v>
       </c>
       <c r="E229" t="s">
         <v>15</v>
@@ -8451,10 +8451,10 @@
         <v>11</v>
       </c>
       <c r="C230">
-        <v>11117</v>
+        <v>11170</v>
       </c>
       <c r="D230">
-        <v>14182817</v>
+        <v>14244009</v>
       </c>
       <c r="E230" t="s">
         <v>15</v>
@@ -8547,10 +8547,10 @@
         <v>11</v>
       </c>
       <c r="C233">
-        <v>5184</v>
+        <v>5197</v>
       </c>
       <c r="D233">
-        <v>7642548</v>
+        <v>7662048</v>
       </c>
       <c r="E233" t="s">
         <v>15</v>
@@ -8579,10 +8579,10 @@
         <v>11</v>
       </c>
       <c r="C234">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="D234">
-        <v>2165800</v>
+        <v>2171800</v>
       </c>
       <c r="E234" t="s">
         <v>15</v>
@@ -8611,10 +8611,10 @@
         <v>11</v>
       </c>
       <c r="C235">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D235">
-        <v>407323</v>
+        <v>408823</v>
       </c>
       <c r="E235" t="s">
         <v>15</v>
@@ -8643,10 +8643,10 @@
         <v>11</v>
       </c>
       <c r="C236">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D236">
-        <v>228663</v>
+        <v>232383</v>
       </c>
       <c r="E236" t="s">
         <v>15</v>
@@ -8675,10 +8675,10 @@
         <v>11</v>
       </c>
       <c r="C237">
-        <v>5749</v>
+        <v>5781</v>
       </c>
       <c r="D237">
-        <v>7314454</v>
+        <v>7347328</v>
       </c>
       <c r="E237" t="s">
         <v>15</v>
@@ -8771,10 +8771,10 @@
         <v>11</v>
       </c>
       <c r="C240">
-        <v>2596</v>
+        <v>2606</v>
       </c>
       <c r="D240">
-        <v>3821872</v>
+        <v>3835018</v>
       </c>
       <c r="E240" t="s">
         <v>15</v>
@@ -8835,10 +8835,10 @@
         <v>11</v>
       </c>
       <c r="C242">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D242">
-        <v>179876</v>
+        <v>181376</v>
       </c>
       <c r="E242" t="s">
         <v>15</v>
@@ -8867,10 +8867,10 @@
         <v>11</v>
       </c>
       <c r="C243">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D243">
-        <v>100947</v>
+        <v>102447</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -8899,10 +8899,10 @@
         <v>11</v>
       </c>
       <c r="C244">
-        <v>9787</v>
+        <v>9824</v>
       </c>
       <c r="D244">
-        <v>12301407</v>
+        <v>12346386</v>
       </c>
       <c r="E244" t="s">
         <v>15</v>
@@ -8931,10 +8931,10 @@
         <v>11</v>
       </c>
       <c r="C245">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D245">
-        <v>8241</v>
+        <v>9741</v>
       </c>
       <c r="E245" t="s">
         <v>15</v>
@@ -8995,10 +8995,10 @@
         <v>11</v>
       </c>
       <c r="C247">
-        <v>4725</v>
+        <v>4760</v>
       </c>
       <c r="D247">
-        <v>6979227</v>
+        <v>7029846</v>
       </c>
       <c r="E247" t="s">
         <v>15</v>
@@ -9027,10 +9027,10 @@
         <v>11</v>
       </c>
       <c r="C248">
-        <v>2092</v>
+        <v>2102</v>
       </c>
       <c r="D248">
-        <v>3044667</v>
+        <v>3059667</v>
       </c>
       <c r="E248" t="s">
         <v>15</v>
@@ -9059,10 +9059,10 @@
         <v>11</v>
       </c>
       <c r="C249">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D249">
-        <v>129135</v>
+        <v>130885</v>
       </c>
       <c r="E249" t="s">
         <v>15</v>
@@ -9091,10 +9091,10 @@
         <v>11</v>
       </c>
       <c r="C250">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D250">
-        <v>157231</v>
+        <v>158731</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
@@ -9123,10 +9123,10 @@
         <v>11</v>
       </c>
       <c r="C251">
-        <v>4940</v>
+        <v>4966</v>
       </c>
       <c r="D251">
-        <v>6456829</v>
+        <v>6487970</v>
       </c>
       <c r="E251" t="s">
         <v>16</v>
@@ -9155,10 +9155,10 @@
         <v>11</v>
       </c>
       <c r="C252">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D252">
-        <v>11055</v>
+        <v>12555</v>
       </c>
       <c r="E252" t="s">
         <v>16</v>
@@ -9219,10 +9219,10 @@
         <v>11</v>
       </c>
       <c r="C254">
-        <v>2040</v>
+        <v>2048</v>
       </c>
       <c r="D254">
-        <v>2995923</v>
+        <v>3007923</v>
       </c>
       <c r="E254" t="s">
         <v>16</v>
@@ -9251,10 +9251,10 @@
         <v>11</v>
       </c>
       <c r="C255">
-        <v>1268</v>
+        <v>1282</v>
       </c>
       <c r="D255">
-        <v>1845768</v>
+        <v>1865495</v>
       </c>
       <c r="E255" t="s">
         <v>16</v>
@@ -9315,10 +9315,10 @@
         <v>11</v>
       </c>
       <c r="C257">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D257">
-        <v>64116</v>
+        <v>65616</v>
       </c>
       <c r="E257" t="s">
         <v>16</v>
@@ -9347,10 +9347,10 @@
         <v>11</v>
       </c>
       <c r="C258">
-        <v>6492</v>
+        <v>6526</v>
       </c>
       <c r="D258">
-        <v>8525748</v>
+        <v>8567699</v>
       </c>
       <c r="E258" t="s">
         <v>16</v>
@@ -9475,10 +9475,10 @@
         <v>11</v>
       </c>
       <c r="C262">
-        <v>2179</v>
+        <v>2183</v>
       </c>
       <c r="D262">
-        <v>3202245</v>
+        <v>3207637</v>
       </c>
       <c r="E262" t="s">
         <v>16</v>
@@ -9507,10 +9507,10 @@
         <v>11</v>
       </c>
       <c r="C263">
-        <v>1606</v>
+        <v>1614</v>
       </c>
       <c r="D263">
-        <v>2344434</v>
+        <v>2355552</v>
       </c>
       <c r="E263" t="s">
         <v>16</v>
@@ -9603,10 +9603,10 @@
         <v>11</v>
       </c>
       <c r="C266">
-        <v>4403</v>
+        <v>4421</v>
       </c>
       <c r="D266">
-        <v>5534251</v>
+        <v>5554580</v>
       </c>
       <c r="E266" t="s">
         <v>17</v>
@@ -9731,10 +9731,10 @@
         <v>11</v>
       </c>
       <c r="C270">
-        <v>1495</v>
+        <v>1501</v>
       </c>
       <c r="D270">
-        <v>2213395</v>
+        <v>2221283</v>
       </c>
       <c r="E270" t="s">
         <v>17</v>
@@ -9795,10 +9795,10 @@
         <v>11</v>
       </c>
       <c r="C272">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D272">
-        <v>660335</v>
+        <v>661835</v>
       </c>
       <c r="E272" t="s">
         <v>17</v>
@@ -9891,10 +9891,10 @@
         <v>11</v>
       </c>
       <c r="C275">
-        <v>4618</v>
+        <v>4636</v>
       </c>
       <c r="D275">
-        <v>5877643</v>
+        <v>5900124</v>
       </c>
       <c r="E275" t="s">
         <v>17</v>
@@ -9987,10 +9987,10 @@
         <v>11</v>
       </c>
       <c r="C278">
-        <v>2042</v>
+        <v>2051</v>
       </c>
       <c r="D278">
-        <v>3006470</v>
+        <v>3019970</v>
       </c>
       <c r="E278" t="s">
         <v>17</v>
@@ -10019,10 +10019,10 @@
         <v>11</v>
       </c>
       <c r="C279">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="D279">
-        <v>1137800</v>
+        <v>1143800</v>
       </c>
       <c r="E279" t="s">
         <v>17</v>
@@ -10115,10 +10115,10 @@
         <v>11</v>
       </c>
       <c r="C282">
-        <v>18273</v>
+        <v>18381</v>
       </c>
       <c r="D282">
-        <v>23319924</v>
+        <v>23449176</v>
       </c>
       <c r="E282" t="s">
         <v>17</v>
@@ -10275,10 +10275,10 @@
         <v>11</v>
       </c>
       <c r="C287">
-        <v>10589</v>
+        <v>10624</v>
       </c>
       <c r="D287">
-        <v>15626339</v>
+        <v>15677989</v>
       </c>
       <c r="E287" t="s">
         <v>17</v>
@@ -10371,10 +10371,10 @@
         <v>11</v>
       </c>
       <c r="C290">
-        <v>4866</v>
+        <v>4886</v>
       </c>
       <c r="D290">
-        <v>7071024</v>
+        <v>7099496</v>
       </c>
       <c r="E290" t="s">
         <v>17</v>
@@ -10403,10 +10403,10 @@
         <v>11</v>
       </c>
       <c r="C291">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D291">
-        <v>507341</v>
+        <v>510341</v>
       </c>
       <c r="E291" t="s">
         <v>17</v>
@@ -10435,10 +10435,10 @@
         <v>11</v>
       </c>
       <c r="C292">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D292">
-        <v>416931</v>
+        <v>417334</v>
       </c>
       <c r="E292" t="s">
         <v>17</v>
@@ -10467,10 +10467,10 @@
         <v>11</v>
       </c>
       <c r="C293">
-        <v>11588</v>
+        <v>11642</v>
       </c>
       <c r="D293">
-        <v>14628047</v>
+        <v>14693965</v>
       </c>
       <c r="E293" t="s">
         <v>17</v>
@@ -10563,10 +10563,10 @@
         <v>11</v>
       </c>
       <c r="C296">
-        <v>6399</v>
+        <v>6432</v>
       </c>
       <c r="D296">
-        <v>9452412</v>
+        <v>9500724</v>
       </c>
       <c r="E296" t="s">
         <v>17</v>
@@ -10627,10 +10627,10 @@
         <v>11</v>
       </c>
       <c r="C298">
-        <v>2936</v>
+        <v>2952</v>
       </c>
       <c r="D298">
-        <v>4273081</v>
+        <v>4297081</v>
       </c>
       <c r="E298" t="s">
         <v>17</v>
@@ -10659,10 +10659,10 @@
         <v>11</v>
       </c>
       <c r="C299">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D299">
-        <v>485360</v>
+        <v>486860</v>
       </c>
       <c r="E299" t="s">
         <v>17</v>
@@ -10691,10 +10691,10 @@
         <v>11</v>
       </c>
       <c r="C300">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D300">
-        <v>184320</v>
+        <v>188360</v>
       </c>
       <c r="E300" t="s">
         <v>17</v>
@@ -10723,10 +10723,10 @@
         <v>11</v>
       </c>
       <c r="C301">
-        <v>2437</v>
+        <v>2448</v>
       </c>
       <c r="D301">
-        <v>3090400</v>
+        <v>3106900</v>
       </c>
       <c r="E301" t="s">
         <v>17</v>
@@ -10819,10 +10819,10 @@
         <v>11</v>
       </c>
       <c r="C304">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="D304">
-        <v>1488010</v>
+        <v>1496716</v>
       </c>
       <c r="E304" t="s">
         <v>17</v>
@@ -10851,10 +10851,10 @@
         <v>11</v>
       </c>
       <c r="C305">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D305">
-        <v>565245</v>
+        <v>566745</v>
       </c>
       <c r="E305" t="s">
         <v>17</v>
@@ -10979,10 +10979,10 @@
         <v>11</v>
       </c>
       <c r="C309">
-        <v>8281</v>
+        <v>8310</v>
       </c>
       <c r="D309">
-        <v>10467450</v>
+        <v>10501091</v>
       </c>
       <c r="E309" t="s">
         <v>17</v>
@@ -11107,10 +11107,10 @@
         <v>11</v>
       </c>
       <c r="C313">
-        <v>4238</v>
+        <v>4250</v>
       </c>
       <c r="D313">
-        <v>6260298</v>
+        <v>6278218</v>
       </c>
       <c r="E313" t="s">
         <v>17</v>
@@ -11171,10 +11171,10 @@
         <v>11</v>
       </c>
       <c r="C315">
-        <v>1550</v>
+        <v>1558</v>
       </c>
       <c r="D315">
-        <v>2237751</v>
+        <v>2247257</v>
       </c>
       <c r="E315" t="s">
         <v>17</v>
@@ -11203,10 +11203,10 @@
         <v>11</v>
       </c>
       <c r="C316">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D316">
-        <v>380494</v>
+        <v>381994</v>
       </c>
       <c r="E316" t="s">
         <v>17</v>
@@ -11235,10 +11235,10 @@
         <v>11</v>
       </c>
       <c r="C317">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D317">
-        <v>124334</v>
+        <v>128077</v>
       </c>
       <c r="E317" t="s">
         <v>17</v>
@@ -11267,10 +11267,10 @@
         <v>11</v>
       </c>
       <c r="C318">
-        <v>10667</v>
+        <v>10696</v>
       </c>
       <c r="D318">
-        <v>13440813</v>
+        <v>13476067</v>
       </c>
       <c r="E318" t="s">
         <v>17</v>
@@ -11363,10 +11363,10 @@
         <v>11</v>
       </c>
       <c r="C321">
-        <v>4856</v>
+        <v>4871</v>
       </c>
       <c r="D321">
-        <v>7180273</v>
+        <v>7202773</v>
       </c>
       <c r="E321" t="s">
         <v>17</v>
@@ -11427,10 +11427,10 @@
         <v>11</v>
       </c>
       <c r="C323">
-        <v>1804</v>
+        <v>1813</v>
       </c>
       <c r="D323">
-        <v>2620062</v>
+        <v>2633562</v>
       </c>
       <c r="E323" t="s">
         <v>17</v>
@@ -11491,10 +11491,10 @@
         <v>11</v>
       </c>
       <c r="C325">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D325">
-        <v>207780</v>
+        <v>209280</v>
       </c>
       <c r="E325" t="s">
         <v>17</v>
@@ -11523,10 +11523,10 @@
         <v>11</v>
       </c>
       <c r="C326">
-        <v>2592</v>
+        <v>2604</v>
       </c>
       <c r="D326">
-        <v>3309272</v>
+        <v>3323940</v>
       </c>
       <c r="E326" t="s">
         <v>17</v>
@@ -11619,10 +11619,10 @@
         <v>11</v>
       </c>
       <c r="C329">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="D329">
-        <v>1356733</v>
+        <v>1361233</v>
       </c>
       <c r="E329" t="s">
         <v>17</v>
@@ -11747,10 +11747,10 @@
         <v>11</v>
       </c>
       <c r="C333">
-        <v>13600</v>
+        <v>13648</v>
       </c>
       <c r="D333">
-        <v>17110613</v>
+        <v>17166679</v>
       </c>
       <c r="E333" t="s">
         <v>17</v>
@@ -11843,10 +11843,10 @@
         <v>11</v>
       </c>
       <c r="C336">
-        <v>6343</v>
+        <v>6353</v>
       </c>
       <c r="D336">
-        <v>9396328</v>
+        <v>9409866</v>
       </c>
       <c r="E336" t="s">
         <v>17</v>
@@ -11907,10 +11907,10 @@
         <v>11</v>
       </c>
       <c r="C338">
-        <v>4015</v>
+        <v>4023</v>
       </c>
       <c r="D338">
-        <v>5867243</v>
+        <v>5875217</v>
       </c>
       <c r="E338" t="s">
         <v>17</v>
@@ -11939,10 +11939,10 @@
         <v>11</v>
       </c>
       <c r="C339">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D339">
-        <v>130923</v>
+        <v>136923</v>
       </c>
       <c r="E339" t="s">
         <v>17</v>
@@ -12003,10 +12003,10 @@
         <v>11</v>
       </c>
       <c r="C341">
-        <v>6932</v>
+        <v>6960</v>
       </c>
       <c r="D341">
-        <v>8715088</v>
+        <v>8744746</v>
       </c>
       <c r="E341" t="s">
         <v>17</v>
@@ -12099,10 +12099,10 @@
         <v>11</v>
       </c>
       <c r="C344">
-        <v>3534</v>
+        <v>3543</v>
       </c>
       <c r="D344">
-        <v>5198781</v>
+        <v>5212281</v>
       </c>
       <c r="E344" t="s">
         <v>17</v>
@@ -12163,10 +12163,10 @@
         <v>11</v>
       </c>
       <c r="C346">
-        <v>1171</v>
+        <v>1176</v>
       </c>
       <c r="D346">
-        <v>1707838</v>
+        <v>1715338</v>
       </c>
       <c r="E346" t="s">
         <v>17</v>
@@ -12195,10 +12195,10 @@
         <v>11</v>
       </c>
       <c r="C347">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D347">
-        <v>100128</v>
+        <v>101628</v>
       </c>
       <c r="E347" t="s">
         <v>17</v>
@@ -12227,10 +12227,10 @@
         <v>11</v>
       </c>
       <c r="C348">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D348">
-        <v>115783</v>
+        <v>117283</v>
       </c>
       <c r="E348" t="s">
         <v>17</v>
@@ -12259,10 +12259,10 @@
         <v>11</v>
       </c>
       <c r="C349">
-        <v>13329</v>
+        <v>13542</v>
       </c>
       <c r="D349">
-        <v>18070819</v>
+        <v>18358361</v>
       </c>
       <c r="E349" t="s">
         <v>18</v>
@@ -12387,10 +12387,10 @@
         <v>11</v>
       </c>
       <c r="C353">
-        <v>4226</v>
+        <v>4259</v>
       </c>
       <c r="D353">
-        <v>6234522</v>
+        <v>6282442</v>
       </c>
       <c r="E353" t="s">
         <v>18</v>
@@ -12451,10 +12451,10 @@
         <v>11</v>
       </c>
       <c r="C355">
-        <v>3311</v>
+        <v>3333</v>
       </c>
       <c r="D355">
-        <v>4781059</v>
+        <v>4813815</v>
       </c>
       <c r="E355" t="s">
         <v>18</v>
@@ -12515,10 +12515,10 @@
         <v>11</v>
       </c>
       <c r="C357">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D357">
-        <v>270811</v>
+        <v>278311</v>
       </c>
       <c r="E357" t="s">
         <v>18</v>
@@ -12547,10 +12547,10 @@
         <v>11</v>
       </c>
       <c r="C358">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D358">
-        <v>211482</v>
+        <v>217482</v>
       </c>
       <c r="E358" t="s">
         <v>18</v>
@@ -12579,10 +12579,10 @@
         <v>11</v>
       </c>
       <c r="C359">
-        <v>2818</v>
+        <v>2873</v>
       </c>
       <c r="D359">
-        <v>3879363</v>
+        <v>3953810</v>
       </c>
       <c r="E359" t="s">
         <v>19</v>
@@ -12611,10 +12611,10 @@
         <v>11</v>
       </c>
       <c r="C360">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="D360">
-        <v>1240864</v>
+        <v>1247754</v>
       </c>
       <c r="E360" t="s">
         <v>19</v>
@@ -12675,10 +12675,10 @@
         <v>11</v>
       </c>
       <c r="C362">
-        <v>1015</v>
+        <v>1026</v>
       </c>
       <c r="D362">
-        <v>1474516</v>
+        <v>1491016</v>
       </c>
       <c r="E362" t="s">
         <v>19</v>
@@ -12739,10 +12739,10 @@
         <v>11</v>
       </c>
       <c r="C364">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D364">
-        <v>53450</v>
+        <v>54950</v>
       </c>
       <c r="E364" t="s">
         <v>19</v>
@@ -12771,10 +12771,10 @@
         <v>11</v>
       </c>
       <c r="C365">
-        <v>7107</v>
+        <v>7125</v>
       </c>
       <c r="D365">
-        <v>8875250</v>
+        <v>8898799</v>
       </c>
       <c r="E365" t="s">
         <v>20</v>
@@ -12867,10 +12867,10 @@
         <v>11</v>
       </c>
       <c r="C368">
-        <v>2573</v>
+        <v>2583</v>
       </c>
       <c r="D368">
-        <v>3791125</v>
+        <v>3805106</v>
       </c>
       <c r="E368" t="s">
         <v>20</v>
@@ -12931,10 +12931,10 @@
         <v>11</v>
       </c>
       <c r="C370">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="D370">
-        <v>1707449</v>
+        <v>1713449</v>
       </c>
       <c r="E370" t="s">
         <v>20</v>
@@ -12995,10 +12995,10 @@
         <v>11</v>
       </c>
       <c r="C372">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D372">
-        <v>79118</v>
+        <v>83618</v>
       </c>
       <c r="E372" t="s">
         <v>20</v>
@@ -13027,10 +13027,10 @@
         <v>11</v>
       </c>
       <c r="C373">
-        <v>37359</v>
+        <v>37535</v>
       </c>
       <c r="D373">
-        <v>46731406</v>
+        <v>46928109</v>
       </c>
       <c r="E373" t="s">
         <v>20</v>
@@ -13155,10 +13155,10 @@
         <v>11</v>
       </c>
       <c r="C377">
-        <v>16739</v>
+        <v>16781</v>
       </c>
       <c r="D377">
-        <v>24646874</v>
+        <v>24708759</v>
       </c>
       <c r="E377" t="s">
         <v>20</v>
@@ -13219,10 +13219,10 @@
         <v>11</v>
       </c>
       <c r="C379">
-        <v>7921</v>
+        <v>7956</v>
       </c>
       <c r="D379">
-        <v>11513951</v>
+        <v>11566443</v>
       </c>
       <c r="E379" t="s">
         <v>20</v>
@@ -13283,10 +13283,10 @@
         <v>11</v>
       </c>
       <c r="C381">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D381">
-        <v>532295</v>
+        <v>533795</v>
       </c>
       <c r="E381" t="s">
         <v>20</v>
@@ -13347,10 +13347,10 @@
         <v>11</v>
       </c>
       <c r="C383">
-        <v>11613</v>
+        <v>11668</v>
       </c>
       <c r="D383">
-        <v>14788650</v>
+        <v>14856798</v>
       </c>
       <c r="E383" t="s">
         <v>20</v>
@@ -13443,10 +13443,10 @@
         <v>11</v>
       </c>
       <c r="C386">
-        <v>5065</v>
+        <v>5093</v>
       </c>
       <c r="D386">
-        <v>7486019</v>
+        <v>7526847</v>
       </c>
       <c r="E386" t="s">
         <v>20</v>
@@ -13507,10 +13507,10 @@
         <v>11</v>
       </c>
       <c r="C388">
-        <v>2962</v>
+        <v>2977</v>
       </c>
       <c r="D388">
-        <v>4318498</v>
+        <v>4339966</v>
       </c>
       <c r="E388" t="s">
         <v>20</v>
@@ -13571,10 +13571,10 @@
         <v>11</v>
       </c>
       <c r="C390">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D390">
-        <v>111759</v>
+        <v>112565</v>
       </c>
       <c r="E390" t="s">
         <v>20</v>
@@ -13603,10 +13603,10 @@
         <v>11</v>
       </c>
       <c r="C391">
-        <v>20614</v>
+        <v>20679</v>
       </c>
       <c r="D391">
-        <v>25510780</v>
+        <v>25582029</v>
       </c>
       <c r="E391" t="s">
         <v>20</v>
@@ -13731,10 +13731,10 @@
         <v>11</v>
       </c>
       <c r="C395">
-        <v>7909</v>
+        <v>7932</v>
       </c>
       <c r="D395">
-        <v>11652830</v>
+        <v>11687330</v>
       </c>
       <c r="E395" t="s">
         <v>20</v>
@@ -13795,10 +13795,10 @@
         <v>11</v>
       </c>
       <c r="C397">
-        <v>3227</v>
+        <v>3229</v>
       </c>
       <c r="D397">
-        <v>4697846</v>
+        <v>4700846</v>
       </c>
       <c r="E397" t="s">
         <v>20</v>
@@ -13827,10 +13827,10 @@
         <v>11</v>
       </c>
       <c r="C398">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D398">
-        <v>237965</v>
+        <v>242465</v>
       </c>
       <c r="E398" t="s">
         <v>20</v>
@@ -13859,10 +13859,10 @@
         <v>11</v>
       </c>
       <c r="C399">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D399">
-        <v>239869</v>
+        <v>242869</v>
       </c>
       <c r="E399" t="s">
         <v>20</v>
@@ -13891,10 +13891,10 @@
         <v>11</v>
       </c>
       <c r="C400">
-        <v>8792</v>
+        <v>8812</v>
       </c>
       <c r="D400">
-        <v>10915916</v>
+        <v>10938784</v>
       </c>
       <c r="E400" t="s">
         <v>20</v>
@@ -13987,10 +13987,10 @@
         <v>11</v>
       </c>
       <c r="C403">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D403">
-        <v>92529</v>
+        <v>97029</v>
       </c>
       <c r="E403" t="s">
         <v>20</v>
@@ -14019,10 +14019,10 @@
         <v>11</v>
       </c>
       <c r="C404">
-        <v>2941</v>
+        <v>2947</v>
       </c>
       <c r="D404">
-        <v>4352540</v>
+        <v>4361540</v>
       </c>
       <c r="E404" t="s">
         <v>20</v>
@@ -14051,10 +14051,10 @@
         <v>11</v>
       </c>
       <c r="C405">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="D405">
-        <v>1864389</v>
+        <v>1867389</v>
       </c>
       <c r="E405" t="s">
         <v>20</v>
@@ -14147,10 +14147,10 @@
         <v>11</v>
       </c>
       <c r="C408">
-        <v>24397</v>
+        <v>24545</v>
       </c>
       <c r="D408">
-        <v>32933132</v>
+        <v>33130177</v>
       </c>
       <c r="E408" t="s">
         <v>21</v>
@@ -14307,10 +14307,10 @@
         <v>11</v>
       </c>
       <c r="C413">
-        <v>8933</v>
+        <v>8976</v>
       </c>
       <c r="D413">
-        <v>13174729</v>
+        <v>13236125</v>
       </c>
       <c r="E413" t="s">
         <v>21</v>
@@ -14339,10 +14339,10 @@
         <v>11</v>
       </c>
       <c r="C414">
-        <v>2280</v>
+        <v>2291</v>
       </c>
       <c r="D414">
-        <v>3304566</v>
+        <v>3320096</v>
       </c>
       <c r="E414" t="s">
         <v>21</v>
@@ -14435,10 +14435,10 @@
         <v>11</v>
       </c>
       <c r="C417">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D417">
-        <v>212066</v>
+        <v>215066</v>
       </c>
       <c r="E417" t="s">
         <v>21</v>
@@ -14467,10 +14467,10 @@
         <v>11</v>
       </c>
       <c r="C418">
-        <v>8914</v>
+        <v>8997</v>
       </c>
       <c r="D418">
-        <v>11883524</v>
+        <v>11988811</v>
       </c>
       <c r="E418" t="s">
         <v>22</v>
@@ -14531,10 +14531,10 @@
         <v>11</v>
       </c>
       <c r="C420">
-        <v>4104</v>
+        <v>4137</v>
       </c>
       <c r="D420">
-        <v>6006964</v>
+        <v>6054347</v>
       </c>
       <c r="E420" t="s">
         <v>22</v>
@@ -14563,10 +14563,10 @@
         <v>11</v>
       </c>
       <c r="C421">
-        <v>2555</v>
+        <v>2581</v>
       </c>
       <c r="D421">
-        <v>3696231</v>
+        <v>3734785</v>
       </c>
       <c r="E421" t="s">
         <v>22</v>
@@ -14595,10 +14595,10 @@
         <v>11</v>
       </c>
       <c r="C422">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D422">
-        <v>175262</v>
+        <v>176762</v>
       </c>
       <c r="E422" t="s">
         <v>22</v>
@@ -14659,10 +14659,10 @@
         <v>11</v>
       </c>
       <c r="C424">
-        <v>2912</v>
+        <v>3012</v>
       </c>
       <c r="D424">
-        <v>4123230</v>
+        <v>4265629</v>
       </c>
       <c r="E424" t="s">
         <v>23</v>
@@ -14691,10 +14691,10 @@
         <v>11</v>
       </c>
       <c r="C425">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="D425">
-        <v>1114963</v>
+        <v>1130943</v>
       </c>
       <c r="E425" t="s">
         <v>23</v>
@@ -14819,10 +14819,10 @@
         <v>11</v>
       </c>
       <c r="C429">
-        <v>13500</v>
+        <v>13541</v>
       </c>
       <c r="D429">
-        <v>17223505</v>
+        <v>17274347</v>
       </c>
       <c r="E429" t="s">
         <v>24</v>
@@ -14947,10 +14947,10 @@
         <v>11</v>
       </c>
       <c r="C433">
-        <v>6042</v>
+        <v>6064</v>
       </c>
       <c r="D433">
-        <v>8887618</v>
+        <v>8920161</v>
       </c>
       <c r="E433" t="s">
         <v>24</v>
@@ -14979,10 +14979,10 @@
         <v>11</v>
       </c>
       <c r="C434">
-        <v>2087</v>
+        <v>2090</v>
       </c>
       <c r="D434">
-        <v>3010541</v>
+        <v>3013761</v>
       </c>
       <c r="E434" t="s">
         <v>24</v>
@@ -15011,10 +15011,10 @@
         <v>11</v>
       </c>
       <c r="C435">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D435">
-        <v>272906</v>
+        <v>274321</v>
       </c>
       <c r="E435" t="s">
         <v>24</v>
@@ -15043,10 +15043,10 @@
         <v>11</v>
       </c>
       <c r="C436">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D436">
-        <v>262004</v>
+        <v>265428</v>
       </c>
       <c r="E436" t="s">
         <v>24</v>
@@ -15075,10 +15075,10 @@
         <v>11</v>
       </c>
       <c r="C437">
-        <v>9050</v>
+        <v>9104</v>
       </c>
       <c r="D437">
-        <v>11489961</v>
+        <v>11552385</v>
       </c>
       <c r="E437" t="s">
         <v>24</v>
@@ -15171,10 +15171,10 @@
         <v>11</v>
       </c>
       <c r="C440">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D440">
-        <v>74438</v>
+        <v>77438</v>
       </c>
       <c r="E440" t="s">
         <v>24</v>
@@ -15203,10 +15203,10 @@
         <v>11</v>
       </c>
       <c r="C441">
-        <v>3973</v>
+        <v>3984</v>
       </c>
       <c r="D441">
-        <v>5865740</v>
+        <v>5881721</v>
       </c>
       <c r="E441" t="s">
         <v>24</v>
@@ -15235,10 +15235,10 @@
         <v>11</v>
       </c>
       <c r="C442">
-        <v>1695</v>
+        <v>1706</v>
       </c>
       <c r="D442">
-        <v>2453865</v>
+        <v>2469035</v>
       </c>
       <c r="E442" t="s">
         <v>24</v>
@@ -15331,10 +15331,10 @@
         <v>11</v>
       </c>
       <c r="C445">
-        <v>8817</v>
+        <v>8837</v>
       </c>
       <c r="D445">
-        <v>11368093</v>
+        <v>11392040</v>
       </c>
       <c r="E445" t="s">
         <v>24</v>
@@ -15459,10 +15459,10 @@
         <v>11</v>
       </c>
       <c r="C449">
-        <v>3552</v>
+        <v>3561</v>
       </c>
       <c r="D449">
-        <v>5249052</v>
+        <v>5261855</v>
       </c>
       <c r="E449" t="s">
         <v>24</v>
@@ -15491,10 +15491,10 @@
         <v>11</v>
       </c>
       <c r="C450">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="D450">
-        <v>1079374</v>
+        <v>1083866</v>
       </c>
       <c r="E450" t="s">
         <v>24</v>
@@ -15523,10 +15523,10 @@
         <v>11</v>
       </c>
       <c r="C451">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D451">
-        <v>212178</v>
+        <v>213678</v>
       </c>
       <c r="E451" t="s">
         <v>24</v>
@@ -15555,10 +15555,10 @@
         <v>11</v>
       </c>
       <c r="C452">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D452">
-        <v>135941</v>
+        <v>137441</v>
       </c>
       <c r="E452" t="s">
         <v>24</v>
@@ -15587,10 +15587,10 @@
         <v>11</v>
       </c>
       <c r="C453">
-        <v>4773</v>
+        <v>4798</v>
       </c>
       <c r="D453">
-        <v>6234766</v>
+        <v>6262307</v>
       </c>
       <c r="E453" t="s">
         <v>24</v>
@@ -15683,10 +15683,10 @@
         <v>11</v>
       </c>
       <c r="C456">
-        <v>1725</v>
+        <v>1735</v>
       </c>
       <c r="D456">
-        <v>2540105</v>
+        <v>2555105</v>
       </c>
       <c r="E456" t="s">
         <v>24</v>
@@ -15715,10 +15715,10 @@
         <v>11</v>
       </c>
       <c r="C457">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D457">
-        <v>798245</v>
+        <v>799745</v>
       </c>
       <c r="E457" t="s">
         <v>24</v>
@@ -15747,10 +15747,10 @@
         <v>11</v>
       </c>
       <c r="C458">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D458">
-        <v>138279</v>
+        <v>139779</v>
       </c>
       <c r="E458" t="s">
         <v>24</v>
@@ -15811,10 +15811,10 @@
         <v>11</v>
       </c>
       <c r="C460">
-        <v>17565</v>
+        <v>17631</v>
       </c>
       <c r="D460">
-        <v>21932936</v>
+        <v>22014681</v>
       </c>
       <c r="E460" t="s">
         <v>24</v>
@@ -15907,10 +15907,10 @@
         <v>11</v>
       </c>
       <c r="C463">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D463">
-        <v>129595</v>
+        <v>131095</v>
       </c>
       <c r="E463" t="s">
         <v>24</v>
@@ -15939,10 +15939,10 @@
         <v>11</v>
       </c>
       <c r="C464">
-        <v>7420</v>
+        <v>7448</v>
       </c>
       <c r="D464">
-        <v>10951709</v>
+        <v>10992459</v>
       </c>
       <c r="E464" t="s">
         <v>24</v>
@@ -16003,10 +16003,10 @@
         <v>11</v>
       </c>
       <c r="C466">
-        <v>2927</v>
+        <v>2943</v>
       </c>
       <c r="D466">
-        <v>4264475</v>
+        <v>4288475</v>
       </c>
       <c r="E466" t="s">
         <v>24</v>
@@ -16067,10 +16067,10 @@
         <v>11</v>
       </c>
       <c r="C468">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D468">
-        <v>342696</v>
+        <v>344196</v>
       </c>
       <c r="E468" t="s">
         <v>24</v>
@@ -16099,10 +16099,10 @@
         <v>11</v>
       </c>
       <c r="C469">
-        <v>7030</v>
+        <v>7060</v>
       </c>
       <c r="D469">
-        <v>8766006</v>
+        <v>8804650</v>
       </c>
       <c r="E469" t="s">
         <v>25</v>
@@ -16227,10 +16227,10 @@
         <v>11</v>
       </c>
       <c r="C473">
-        <v>2501</v>
+        <v>2508</v>
       </c>
       <c r="D473">
-        <v>3678599</v>
+        <v>3688301</v>
       </c>
       <c r="E473" t="s">
         <v>25</v>
@@ -16259,10 +16259,10 @@
         <v>11</v>
       </c>
       <c r="C474">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D474">
-        <v>1044614</v>
+        <v>1046864</v>
       </c>
       <c r="E474" t="s">
         <v>25</v>
@@ -16355,10 +16355,10 @@
         <v>11</v>
       </c>
       <c r="C477">
-        <v>17687</v>
+        <v>17755</v>
       </c>
       <c r="D477">
-        <v>22325908</v>
+        <v>22399088</v>
       </c>
       <c r="E477" t="s">
         <v>25</v>
@@ -16451,10 +16451,10 @@
         <v>11</v>
       </c>
       <c r="C480">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D480">
-        <v>113700</v>
+        <v>115200</v>
       </c>
       <c r="E480" t="s">
         <v>25</v>
@@ -16483,10 +16483,10 @@
         <v>11</v>
       </c>
       <c r="C481">
-        <v>7306</v>
+        <v>7330</v>
       </c>
       <c r="D481">
-        <v>10786362</v>
+        <v>10818088</v>
       </c>
       <c r="E481" t="s">
         <v>25</v>
@@ -16547,10 +16547,10 @@
         <v>11</v>
       </c>
       <c r="C483">
-        <v>1966</v>
+        <v>1975</v>
       </c>
       <c r="D483">
-        <v>2844767</v>
+        <v>2856292</v>
       </c>
       <c r="E483" t="s">
         <v>25</v>
@@ -16643,10 +16643,10 @@
         <v>11</v>
       </c>
       <c r="C486">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D486">
-        <v>233137</v>
+        <v>234637</v>
       </c>
       <c r="E486" t="s">
         <v>25</v>
@@ -16675,10 +16675,10 @@
         <v>11</v>
       </c>
       <c r="C487">
-        <v>4699</v>
+        <v>4725</v>
       </c>
       <c r="D487">
-        <v>6056558</v>
+        <v>6088405</v>
       </c>
       <c r="E487" t="s">
         <v>25</v>
@@ -16739,10 +16739,10 @@
         <v>11</v>
       </c>
       <c r="C489">
-        <v>1799</v>
+        <v>1807</v>
       </c>
       <c r="D489">
-        <v>2657557</v>
+        <v>2669293</v>
       </c>
       <c r="E489" t="s">
         <v>25</v>
@@ -16803,10 +16803,10 @@
         <v>11</v>
       </c>
       <c r="C491">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="D491">
-        <v>1219350</v>
+        <v>1226253</v>
       </c>
       <c r="E491" t="s">
         <v>25</v>
@@ -16899,10 +16899,10 @@
         <v>11</v>
       </c>
       <c r="C494">
-        <v>2268</v>
+        <v>2276</v>
       </c>
       <c r="D494">
-        <v>2811653</v>
+        <v>2820792</v>
       </c>
       <c r="E494" t="s">
         <v>25</v>
@@ -16963,10 +16963,10 @@
         <v>11</v>
       </c>
       <c r="C496">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D496">
-        <v>759429</v>
+        <v>762429</v>
       </c>
       <c r="E496" t="s">
         <v>25</v>
@@ -17027,10 +17027,10 @@
         <v>11</v>
       </c>
       <c r="C498">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D498">
-        <v>390435</v>
+        <v>393435</v>
       </c>
       <c r="E498" t="s">
         <v>25</v>
@@ -17123,10 +17123,10 @@
         <v>11</v>
       </c>
       <c r="C501">
-        <v>5762</v>
+        <v>5799</v>
       </c>
       <c r="D501">
-        <v>7351902</v>
+        <v>7396824</v>
       </c>
       <c r="E501" t="s">
         <v>25</v>
@@ -17219,10 +17219,10 @@
         <v>11</v>
       </c>
       <c r="C504">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D504">
-        <v>46500</v>
+        <v>46750</v>
       </c>
       <c r="E504" t="s">
         <v>25</v>
@@ -17251,10 +17251,10 @@
         <v>11</v>
       </c>
       <c r="C505">
-        <v>2401</v>
+        <v>2407</v>
       </c>
       <c r="D505">
-        <v>3555242</v>
+        <v>3564242</v>
       </c>
       <c r="E505" t="s">
         <v>25</v>
@@ -17283,10 +17283,10 @@
         <v>11</v>
       </c>
       <c r="C506">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D506">
-        <v>670742</v>
+        <v>672242</v>
       </c>
       <c r="E506" t="s">
         <v>25</v>
@@ -17315,10 +17315,10 @@
         <v>11</v>
       </c>
       <c r="C507">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D507">
-        <v>119479</v>
+        <v>125479</v>
       </c>
       <c r="E507" t="s">
         <v>25</v>
@@ -17347,10 +17347,10 @@
         <v>11</v>
       </c>
       <c r="C508">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D508">
-        <v>138384</v>
+        <v>139497</v>
       </c>
       <c r="E508" t="s">
         <v>25</v>
@@ -17379,10 +17379,10 @@
         <v>11</v>
       </c>
       <c r="C509">
-        <v>11844</v>
+        <v>11899</v>
       </c>
       <c r="D509">
-        <v>14713355</v>
+        <v>14774817</v>
       </c>
       <c r="E509" t="s">
         <v>25</v>
@@ -17507,10 +17507,10 @@
         <v>11</v>
       </c>
       <c r="C513">
-        <v>3701</v>
+        <v>3715</v>
       </c>
       <c r="D513">
-        <v>5427757</v>
+        <v>5444737</v>
       </c>
       <c r="E513" t="s">
         <v>25</v>
@@ -17635,10 +17635,10 @@
         <v>11</v>
       </c>
       <c r="C517">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D517">
-        <v>186436</v>
+        <v>190936</v>
       </c>
       <c r="E517" t="s">
         <v>25</v>
@@ -17667,10 +17667,10 @@
         <v>11</v>
       </c>
       <c r="C518">
-        <v>42950</v>
+        <v>43175</v>
       </c>
       <c r="D518">
-        <v>54517740</v>
+        <v>54799581</v>
       </c>
       <c r="E518" t="s">
         <v>25</v>
@@ -17795,10 +17795,10 @@
         <v>11</v>
       </c>
       <c r="C522">
-        <v>17556</v>
+        <v>17620</v>
       </c>
       <c r="D522">
-        <v>25885453</v>
+        <v>25977797</v>
       </c>
       <c r="E522" t="s">
         <v>25</v>
@@ -17859,10 +17859,10 @@
         <v>11</v>
       </c>
       <c r="C524">
-        <v>8032</v>
+        <v>8082</v>
       </c>
       <c r="D524">
-        <v>11616497</v>
+        <v>11688250</v>
       </c>
       <c r="E524" t="s">
         <v>25</v>
@@ -17923,10 +17923,10 @@
         <v>11</v>
       </c>
       <c r="C526">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="D526">
-        <v>1591115</v>
+        <v>1603491</v>
       </c>
       <c r="E526" t="s">
         <v>25</v>
@@ -17987,10 +17987,10 @@
         <v>11</v>
       </c>
       <c r="C528">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D528">
-        <v>642066</v>
+        <v>648066</v>
       </c>
       <c r="E528" t="s">
         <v>25</v>
@@ -18019,10 +18019,10 @@
         <v>11</v>
       </c>
       <c r="C529">
-        <v>6680</v>
+        <v>6716</v>
       </c>
       <c r="D529">
-        <v>8284735</v>
+        <v>8332965</v>
       </c>
       <c r="E529" t="s">
         <v>25</v>
@@ -18115,10 +18115,10 @@
         <v>11</v>
       </c>
       <c r="C532">
-        <v>2820</v>
+        <v>2829</v>
       </c>
       <c r="D532">
-        <v>4145554</v>
+        <v>4159054</v>
       </c>
       <c r="E532" t="s">
         <v>25</v>
@@ -18179,10 +18179,10 @@
         <v>11</v>
       </c>
       <c r="C534">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D534">
-        <v>1386388</v>
+        <v>1387888</v>
       </c>
       <c r="E534" t="s">
         <v>25</v>
@@ -18243,10 +18243,10 @@
         <v>11</v>
       </c>
       <c r="C536">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D536">
-        <v>105633</v>
+        <v>108633</v>
       </c>
       <c r="E536" t="s">
         <v>25</v>
@@ -18275,10 +18275,10 @@
         <v>11</v>
       </c>
       <c r="C537">
-        <v>10986</v>
+        <v>11021</v>
       </c>
       <c r="D537">
-        <v>13748053</v>
+        <v>13785017</v>
       </c>
       <c r="E537" t="s">
         <v>25</v>
@@ -18403,10 +18403,10 @@
         <v>11</v>
       </c>
       <c r="C541">
-        <v>4571</v>
+        <v>4594</v>
       </c>
       <c r="D541">
-        <v>6706145</v>
+        <v>6740347</v>
       </c>
       <c r="E541" t="s">
         <v>25</v>
@@ -18467,10 +18467,10 @@
         <v>11</v>
       </c>
       <c r="C543">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="D543">
-        <v>2002330</v>
+        <v>2006330</v>
       </c>
       <c r="E543" t="s">
         <v>25</v>
@@ -18499,10 +18499,10 @@
         <v>11</v>
       </c>
       <c r="C544">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D544">
-        <v>232810</v>
+        <v>235810</v>
       </c>
       <c r="E544" t="s">
         <v>25</v>
@@ -18531,10 +18531,10 @@
         <v>11</v>
       </c>
       <c r="C545">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D545">
-        <v>207725</v>
+        <v>209225</v>
       </c>
       <c r="E545" t="s">
         <v>25</v>
@@ -18563,10 +18563,10 @@
         <v>11</v>
       </c>
       <c r="C546">
-        <v>7187</v>
+        <v>7218</v>
       </c>
       <c r="D546">
-        <v>8998190</v>
+        <v>9028036</v>
       </c>
       <c r="E546" t="s">
         <v>25</v>
@@ -18627,10 +18627,10 @@
         <v>11</v>
       </c>
       <c r="C548">
-        <v>2878</v>
+        <v>2886</v>
       </c>
       <c r="D548">
-        <v>4244475</v>
+        <v>4256475</v>
       </c>
       <c r="E548" t="s">
         <v>25</v>
@@ -18691,10 +18691,10 @@
         <v>11</v>
       </c>
       <c r="C550">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D550">
-        <v>1531926</v>
+        <v>1536426</v>
       </c>
       <c r="E550" t="s">
         <v>25</v>
@@ -18723,10 +18723,10 @@
         <v>11</v>
       </c>
       <c r="C551">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D551">
-        <v>198670</v>
+        <v>200170</v>
       </c>
       <c r="E551" t="s">
         <v>25</v>
@@ -18755,10 +18755,10 @@
         <v>11</v>
       </c>
       <c r="C552">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D552">
-        <v>185907</v>
+        <v>187407</v>
       </c>
       <c r="E552" t="s">
         <v>25</v>
@@ -18787,10 +18787,10 @@
         <v>11</v>
       </c>
       <c r="C553">
-        <v>18017</v>
+        <v>18086</v>
       </c>
       <c r="D553">
-        <v>22790262</v>
+        <v>22873013</v>
       </c>
       <c r="E553" t="s">
         <v>25</v>
@@ -18915,10 +18915,10 @@
         <v>11</v>
       </c>
       <c r="C557">
-        <v>8343</v>
+        <v>8377</v>
       </c>
       <c r="D557">
-        <v>12264968</v>
+        <v>12315357</v>
       </c>
       <c r="E557" t="s">
         <v>25</v>
@@ -18979,10 +18979,10 @@
         <v>11</v>
       </c>
       <c r="C559">
-        <v>2606</v>
+        <v>2613</v>
       </c>
       <c r="D559">
-        <v>3760257</v>
+        <v>3769428</v>
       </c>
       <c r="E559" t="s">
         <v>25</v>
@@ -19043,10 +19043,10 @@
         <v>11</v>
       </c>
       <c r="C561">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D561">
-        <v>501373</v>
+        <v>504889</v>
       </c>
       <c r="E561" t="s">
         <v>25</v>
@@ -19075,10 +19075,10 @@
         <v>11</v>
       </c>
       <c r="C562">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D562">
-        <v>418648</v>
+        <v>423148</v>
       </c>
       <c r="E562" t="s">
         <v>25</v>
@@ -19107,10 +19107,10 @@
         <v>11</v>
       </c>
       <c r="C563">
-        <v>7248</v>
+        <v>7289</v>
       </c>
       <c r="D563">
-        <v>9095099</v>
+        <v>9134355</v>
       </c>
       <c r="E563" t="s">
         <v>25</v>
@@ -19203,10 +19203,10 @@
         <v>11</v>
       </c>
       <c r="C566">
-        <v>3141</v>
+        <v>3152</v>
       </c>
       <c r="D566">
-        <v>4622840</v>
+        <v>4639340</v>
       </c>
       <c r="E566" t="s">
         <v>25</v>
@@ -19235,10 +19235,10 @@
         <v>11</v>
       </c>
       <c r="C567">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D567">
-        <v>1026316</v>
+        <v>1029316</v>
       </c>
       <c r="E567" t="s">
         <v>25</v>
@@ -19267,10 +19267,10 @@
         <v>11</v>
       </c>
       <c r="C568">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D568">
-        <v>139930</v>
+        <v>141430</v>
       </c>
       <c r="E568" t="s">
         <v>25</v>
@@ -19331,10 +19331,10 @@
         <v>11</v>
       </c>
       <c r="C570">
-        <v>3892</v>
+        <v>3915</v>
       </c>
       <c r="D570">
-        <v>4669282</v>
+        <v>4693476</v>
       </c>
       <c r="E570" t="s">
         <v>26</v>
@@ -19395,10 +19395,10 @@
         <v>11</v>
       </c>
       <c r="C572">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="D572">
-        <v>1541537</v>
+        <v>1550537</v>
       </c>
       <c r="E572" t="s">
         <v>26</v>
@@ -19427,10 +19427,10 @@
         <v>11</v>
       </c>
       <c r="C573">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D573">
-        <v>862936</v>
+        <v>867806</v>
       </c>
       <c r="E573" t="s">
         <v>26</v>
@@ -19523,10 +19523,10 @@
         <v>11</v>
       </c>
       <c r="C576">
-        <v>10048</v>
+        <v>10095</v>
       </c>
       <c r="D576">
-        <v>12376136</v>
+        <v>12422322</v>
       </c>
       <c r="E576" t="s">
         <v>26</v>
@@ -19651,10 +19651,10 @@
         <v>11</v>
       </c>
       <c r="C580">
-        <v>3544</v>
+        <v>3551</v>
       </c>
       <c r="D580">
-        <v>5208452</v>
+        <v>5218952</v>
       </c>
       <c r="E580" t="s">
         <v>26</v>
@@ -19683,10 +19683,10 @@
         <v>11</v>
       </c>
       <c r="C581">
-        <v>2097</v>
+        <v>2110</v>
       </c>
       <c r="D581">
-        <v>3072507</v>
+        <v>3089675</v>
       </c>
       <c r="E581" t="s">
         <v>26</v>
@@ -19779,10 +19779,10 @@
         <v>11</v>
       </c>
       <c r="C584">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D584">
-        <v>151561</v>
+        <v>152601</v>
       </c>
       <c r="E584" t="s">
         <v>26</v>
@@ -19811,10 +19811,10 @@
         <v>11</v>
       </c>
       <c r="C585">
-        <v>6961</v>
+        <v>6992</v>
       </c>
       <c r="D585">
-        <v>8954805</v>
+        <v>8997870</v>
       </c>
       <c r="E585" t="s">
         <v>26</v>
@@ -19907,10 +19907,10 @@
         <v>11</v>
       </c>
       <c r="C588">
-        <v>2502</v>
+        <v>2521</v>
       </c>
       <c r="D588">
-        <v>3676453</v>
+        <v>3704897</v>
       </c>
       <c r="E588" t="s">
         <v>26</v>
@@ -19971,10 +19971,10 @@
         <v>11</v>
       </c>
       <c r="C590">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D590">
-        <v>1085761</v>
+        <v>1088761</v>
       </c>
       <c r="E590" t="s">
         <v>26</v>
@@ -20067,10 +20067,10 @@
         <v>11</v>
       </c>
       <c r="C593">
-        <v>19472</v>
+        <v>19530</v>
       </c>
       <c r="D593">
-        <v>24193031</v>
+        <v>24265956</v>
       </c>
       <c r="E593" t="s">
         <v>26</v>
@@ -20195,10 +20195,10 @@
         <v>11</v>
       </c>
       <c r="C597">
-        <v>8591</v>
+        <v>8622</v>
       </c>
       <c r="D597">
-        <v>12650396</v>
+        <v>12694065</v>
       </c>
       <c r="E597" t="s">
         <v>26</v>
@@ -20259,10 +20259,10 @@
         <v>11</v>
       </c>
       <c r="C599">
-        <v>3830</v>
+        <v>3843</v>
       </c>
       <c r="D599">
-        <v>5560361</v>
+        <v>5579861</v>
       </c>
       <c r="E599" t="s">
         <v>26</v>
@@ -20323,10 +20323,10 @@
         <v>11</v>
       </c>
       <c r="C601">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D601">
-        <v>364821</v>
+        <v>365426</v>
       </c>
       <c r="E601" t="s">
         <v>26</v>
@@ -20355,10 +20355,10 @@
         <v>11</v>
       </c>
       <c r="C602">
-        <v>4632</v>
+        <v>4653</v>
       </c>
       <c r="D602">
-        <v>5839581</v>
+        <v>5862939</v>
       </c>
       <c r="E602" t="s">
         <v>26</v>
@@ -20451,10 +20451,10 @@
         <v>11</v>
       </c>
       <c r="C605">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="D605">
-        <v>2565255</v>
+        <v>2576866</v>
       </c>
       <c r="E605" t="s">
         <v>26</v>
@@ -20483,10 +20483,10 @@
         <v>11</v>
       </c>
       <c r="C606">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D606">
-        <v>1034835</v>
+        <v>1037457</v>
       </c>
       <c r="E606" t="s">
         <v>26</v>
@@ -20515,10 +20515,10 @@
         <v>11</v>
       </c>
       <c r="C607">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D607">
-        <v>274594</v>
+        <v>276094</v>
       </c>
       <c r="E607" t="s">
         <v>26</v>
@@ -20579,10 +20579,10 @@
         <v>11</v>
       </c>
       <c r="C609">
-        <v>32294</v>
+        <v>32434</v>
       </c>
       <c r="D609">
-        <v>40537481</v>
+        <v>40702277</v>
       </c>
       <c r="E609" t="s">
         <v>26</v>
@@ -20707,10 +20707,10 @@
         <v>11</v>
       </c>
       <c r="C613">
-        <v>13856</v>
+        <v>13906</v>
       </c>
       <c r="D613">
-        <v>20390488</v>
+        <v>20462889</v>
       </c>
       <c r="E613" t="s">
         <v>26</v>
@@ -20739,10 +20739,10 @@
         <v>11</v>
       </c>
       <c r="C614">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D614">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E614" t="s">
         <v>26</v>
@@ -20803,10 +20803,10 @@
         <v>11</v>
       </c>
       <c r="C616">
-        <v>7551</v>
+        <v>7579</v>
       </c>
       <c r="D616">
-        <v>10951066</v>
+        <v>10989890</v>
       </c>
       <c r="E616" t="s">
         <v>26</v>
@@ -20899,10 +20899,10 @@
         <v>11</v>
       </c>
       <c r="C619">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D619">
-        <v>752369</v>
+        <v>755369</v>
       </c>
       <c r="E619" t="s">
         <v>26</v>
@@ -20931,10 +20931,10 @@
         <v>11</v>
       </c>
       <c r="C620">
-        <v>6604</v>
+        <v>6619</v>
       </c>
       <c r="D620">
-        <v>8375423</v>
+        <v>8391013</v>
       </c>
       <c r="E620" t="s">
         <v>26</v>
@@ -21059,10 +21059,10 @@
         <v>11</v>
       </c>
       <c r="C624">
-        <v>2373</v>
+        <v>2385</v>
       </c>
       <c r="D624">
-        <v>3486684</v>
+        <v>3504405</v>
       </c>
       <c r="E624" t="s">
         <v>26</v>
@@ -21123,10 +21123,10 @@
         <v>11</v>
       </c>
       <c r="C626">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="D626">
-        <v>1075694</v>
+        <v>1079104</v>
       </c>
       <c r="E626" t="s">
         <v>26</v>
@@ -21219,10 +21219,10 @@
         <v>11</v>
       </c>
       <c r="C629">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D629">
-        <v>139768</v>
+        <v>142768</v>
       </c>
       <c r="E629" t="s">
         <v>26</v>
@@ -21251,10 +21251,10 @@
         <v>11</v>
       </c>
       <c r="C630">
-        <v>34508</v>
+        <v>34611</v>
       </c>
       <c r="D630">
-        <v>43096412</v>
+        <v>43211739</v>
       </c>
       <c r="E630" t="s">
         <v>26</v>
@@ -21283,10 +21283,10 @@
         <v>11</v>
       </c>
       <c r="C631">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D631">
-        <v>27295</v>
+        <v>27773</v>
       </c>
       <c r="E631" t="s">
         <v>26</v>
@@ -21443,10 +21443,10 @@
         <v>11</v>
       </c>
       <c r="C636">
-        <v>14564</v>
+        <v>14630</v>
       </c>
       <c r="D636">
-        <v>21462193</v>
+        <v>21558883</v>
       </c>
       <c r="E636" t="s">
         <v>26</v>
@@ -21507,10 +21507,10 @@
         <v>11</v>
       </c>
       <c r="C638">
-        <v>8722</v>
+        <v>8758</v>
       </c>
       <c r="D638">
-        <v>12678093</v>
+        <v>12730609</v>
       </c>
       <c r="E638" t="s">
         <v>26</v>
@@ -21603,10 +21603,10 @@
         <v>11</v>
       </c>
       <c r="C641">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D641">
-        <v>691421</v>
+        <v>698001</v>
       </c>
       <c r="E641" t="s">
         <v>26</v>
@@ -21667,10 +21667,10 @@
         <v>11</v>
       </c>
       <c r="C643">
-        <v>4615</v>
+        <v>4630</v>
       </c>
       <c r="D643">
-        <v>5756619</v>
+        <v>5772782</v>
       </c>
       <c r="E643" t="s">
         <v>26</v>
@@ -21731,10 +21731,10 @@
         <v>11</v>
       </c>
       <c r="C645">
-        <v>1612</v>
+        <v>1621</v>
       </c>
       <c r="D645">
-        <v>2359729</v>
+        <v>2373229</v>
       </c>
       <c r="E645" t="s">
         <v>26</v>
@@ -21763,10 +21763,10 @@
         <v>11</v>
       </c>
       <c r="C646">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="D646">
-        <v>973556</v>
+        <v>982556</v>
       </c>
       <c r="E646" t="s">
         <v>26</v>
@@ -21795,10 +21795,10 @@
         <v>11</v>
       </c>
       <c r="C647">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D647">
-        <v>243605</v>
+        <v>245105</v>
       </c>
       <c r="E647" t="s">
         <v>26</v>
@@ -21859,10 +21859,10 @@
         <v>11</v>
       </c>
       <c r="C649">
-        <v>1761</v>
+        <v>1772</v>
       </c>
       <c r="D649">
-        <v>2263726</v>
+        <v>2276823</v>
       </c>
       <c r="E649" t="s">
         <v>26</v>
@@ -21923,10 +21923,10 @@
         <v>11</v>
       </c>
       <c r="C651">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="D651">
-        <v>1065599</v>
+        <v>1070099</v>
       </c>
       <c r="E651" t="s">
         <v>26</v>
@@ -21987,10 +21987,10 @@
         <v>11</v>
       </c>
       <c r="C653">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D653">
-        <v>315993</v>
+        <v>318993</v>
       </c>
       <c r="E653" t="s">
         <v>26</v>
@@ -22019,10 +22019,10 @@
         <v>11</v>
       </c>
       <c r="C654">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D654">
-        <v>62410</v>
+        <v>63910</v>
       </c>
       <c r="E654" t="s">
         <v>26</v>
@@ -22051,10 +22051,10 @@
         <v>11</v>
       </c>
       <c r="C655">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D655">
-        <v>60317</v>
+        <v>61817</v>
       </c>
       <c r="E655" t="s">
         <v>26</v>
@@ -22083,10 +22083,10 @@
         <v>11</v>
       </c>
       <c r="C656">
-        <v>13535</v>
+        <v>13591</v>
       </c>
       <c r="D656">
-        <v>17144499</v>
+        <v>17208810</v>
       </c>
       <c r="E656" t="s">
         <v>26</v>
@@ -22211,10 +22211,10 @@
         <v>11</v>
       </c>
       <c r="C660">
-        <v>5025</v>
+        <v>5044</v>
       </c>
       <c r="D660">
-        <v>7373793</v>
+        <v>7401784</v>
       </c>
       <c r="E660" t="s">
         <v>26</v>
@@ -22275,10 +22275,10 @@
         <v>11</v>
       </c>
       <c r="C662">
-        <v>2846</v>
+        <v>2854</v>
       </c>
       <c r="D662">
-        <v>4125922</v>
+        <v>4137854</v>
       </c>
       <c r="E662" t="s">
         <v>26</v>
@@ -22339,10 +22339,10 @@
         <v>11</v>
       </c>
       <c r="C664">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D664">
-        <v>302213</v>
+        <v>302616</v>
       </c>
       <c r="E664" t="s">
         <v>26</v>
@@ -22371,10 +22371,10 @@
         <v>11</v>
       </c>
       <c r="C665">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D665">
-        <v>192182</v>
+        <v>193682</v>
       </c>
       <c r="E665" t="s">
         <v>26</v>
@@ -22435,10 +22435,10 @@
         <v>11</v>
       </c>
       <c r="C667">
-        <v>8941</v>
+        <v>8975</v>
       </c>
       <c r="D667">
-        <v>10965961</v>
+        <v>11003025</v>
       </c>
       <c r="E667" t="s">
         <v>26</v>
@@ -22499,10 +22499,10 @@
         <v>11</v>
       </c>
       <c r="C669">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D669">
-        <v>36780</v>
+        <v>38280</v>
       </c>
       <c r="E669" t="s">
         <v>26</v>
@@ -22531,10 +22531,10 @@
         <v>11</v>
       </c>
       <c r="C670">
-        <v>3470</v>
+        <v>3482</v>
       </c>
       <c r="D670">
-        <v>5090212</v>
+        <v>5107057</v>
       </c>
       <c r="E670" t="s">
         <v>26</v>
@@ -22563,10 +22563,10 @@
         <v>11</v>
       </c>
       <c r="C671">
-        <v>1462</v>
+        <v>1471</v>
       </c>
       <c r="D671">
-        <v>2119131</v>
+        <v>2131734</v>
       </c>
       <c r="E671" t="s">
         <v>26</v>
@@ -22627,10 +22627,10 @@
         <v>11</v>
       </c>
       <c r="C673">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D673">
-        <v>170754</v>
+        <v>173754</v>
       </c>
       <c r="E673" t="s">
         <v>26</v>
@@ -22691,10 +22691,10 @@
         <v>11</v>
       </c>
       <c r="C675">
-        <v>5854</v>
+        <v>5876</v>
       </c>
       <c r="D675">
-        <v>7229647</v>
+        <v>7256879</v>
       </c>
       <c r="E675" t="s">
         <v>26</v>
@@ -22755,10 +22755,10 @@
         <v>11</v>
       </c>
       <c r="C677">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D677">
-        <v>20355</v>
+        <v>21855</v>
       </c>
       <c r="E677" t="s">
         <v>26</v>
@@ -22787,10 +22787,10 @@
         <v>11</v>
       </c>
       <c r="C678">
-        <v>2252</v>
+        <v>2263</v>
       </c>
       <c r="D678">
-        <v>3317703</v>
+        <v>3333210</v>
       </c>
       <c r="E678" t="s">
         <v>26</v>
@@ -22819,10 +22819,10 @@
         <v>11</v>
       </c>
       <c r="C679">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="D679">
-        <v>1345590</v>
+        <v>1353090</v>
       </c>
       <c r="E679" t="s">
         <v>26</v>
@@ -22915,10 +22915,10 @@
         <v>11</v>
       </c>
       <c r="C682">
-        <v>25899</v>
+        <v>25974</v>
       </c>
       <c r="D682">
-        <v>33134805</v>
+        <v>33220509</v>
       </c>
       <c r="E682" t="s">
         <v>27</v>
@@ -23011,10 +23011,10 @@
         <v>11</v>
       </c>
       <c r="C685">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D685">
-        <v>134369</v>
+        <v>135869</v>
       </c>
       <c r="E685" t="s">
         <v>27</v>
@@ -23043,10 +23043,10 @@
         <v>11</v>
       </c>
       <c r="C686">
-        <v>13984</v>
+        <v>14022</v>
       </c>
       <c r="D686">
-        <v>20620861</v>
+        <v>20676915</v>
       </c>
       <c r="E686" t="s">
         <v>27</v>
@@ -23107,10 +23107,10 @@
         <v>11</v>
       </c>
       <c r="C688">
-        <v>3544</v>
+        <v>3553</v>
       </c>
       <c r="D688">
-        <v>5119231</v>
+        <v>5129586</v>
       </c>
       <c r="E688" t="s">
         <v>27</v>
@@ -23139,10 +23139,10 @@
         <v>11</v>
       </c>
       <c r="C689">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D689">
-        <v>521798</v>
+        <v>524798</v>
       </c>
       <c r="E689" t="s">
         <v>27</v>
@@ -23171,10 +23171,10 @@
         <v>11</v>
       </c>
       <c r="C690">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D690">
-        <v>552720</v>
+        <v>555720</v>
       </c>
       <c r="E690" t="s">
         <v>27</v>
@@ -23203,10 +23203,10 @@
         <v>11</v>
       </c>
       <c r="C691">
-        <v>12844</v>
+        <v>12894</v>
       </c>
       <c r="D691">
-        <v>16242789</v>
+        <v>16301592</v>
       </c>
       <c r="E691" t="s">
         <v>27</v>
@@ -23299,10 +23299,10 @@
         <v>11</v>
       </c>
       <c r="C694">
-        <v>6658</v>
+        <v>6688</v>
       </c>
       <c r="D694">
-        <v>9814771</v>
+        <v>9857507</v>
       </c>
       <c r="E694" t="s">
         <v>27</v>
@@ -23363,10 +23363,10 @@
         <v>11</v>
       </c>
       <c r="C696">
-        <v>1373</v>
+        <v>1378</v>
       </c>
       <c r="D696">
-        <v>1988316</v>
+        <v>1995816</v>
       </c>
       <c r="E696" t="s">
         <v>27</v>
@@ -23395,10 +23395,10 @@
         <v>11</v>
       </c>
       <c r="C697">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D697">
-        <v>595091</v>
+        <v>596591</v>
       </c>
       <c r="E697" t="s">
         <v>27</v>
@@ -23427,10 +23427,10 @@
         <v>11</v>
       </c>
       <c r="C698">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D698">
-        <v>356245</v>
+        <v>357745</v>
       </c>
       <c r="E698" t="s">
         <v>27</v>
@@ -23459,10 +23459,10 @@
         <v>11</v>
       </c>
       <c r="C699">
-        <v>4291</v>
+        <v>4314</v>
       </c>
       <c r="D699">
-        <v>5525185</v>
+        <v>5549243</v>
       </c>
       <c r="E699" t="s">
         <v>27</v>
@@ -23491,10 +23491,10 @@
         <v>11</v>
       </c>
       <c r="C700">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D700">
-        <v>64688</v>
+        <v>66188</v>
       </c>
       <c r="E700" t="s">
         <v>27</v>
@@ -23523,10 +23523,10 @@
         <v>11</v>
       </c>
       <c r="C701">
-        <v>2058</v>
+        <v>2067</v>
       </c>
       <c r="D701">
-        <v>3051489</v>
+        <v>3063790</v>
       </c>
       <c r="E701" t="s">
         <v>27</v>
@@ -23555,10 +23555,10 @@
         <v>11</v>
       </c>
       <c r="C702">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D702">
-        <v>567679</v>
+        <v>573679</v>
       </c>
       <c r="E702" t="s">
         <v>27</v>
@@ -23651,10 +23651,10 @@
         <v>11</v>
       </c>
       <c r="C705">
-        <v>8146</v>
+        <v>8173</v>
       </c>
       <c r="D705">
-        <v>10301255</v>
+        <v>10334236</v>
       </c>
       <c r="E705" t="s">
         <v>27</v>
@@ -23715,10 +23715,10 @@
         <v>11</v>
       </c>
       <c r="C707">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D707">
-        <v>47130</v>
+        <v>51630</v>
       </c>
       <c r="E707" t="s">
         <v>27</v>
@@ -23747,10 +23747,10 @@
         <v>11</v>
       </c>
       <c r="C708">
-        <v>3540</v>
+        <v>3545</v>
       </c>
       <c r="D708">
-        <v>5213337</v>
+        <v>5220383</v>
       </c>
       <c r="E708" t="s">
         <v>27</v>
@@ -23811,10 +23811,10 @@
         <v>11</v>
       </c>
       <c r="C710">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="D710">
-        <v>1232322</v>
+        <v>1241322</v>
       </c>
       <c r="E710" t="s">
         <v>27</v>
@@ -23907,10 +23907,10 @@
         <v>11</v>
       </c>
       <c r="C713">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D713">
-        <v>122672</v>
+        <v>124172</v>
       </c>
       <c r="E713" t="s">
         <v>27</v>
@@ -23939,10 +23939,10 @@
         <v>11</v>
       </c>
       <c r="C714">
-        <v>12210</v>
+        <v>12253</v>
       </c>
       <c r="D714">
-        <v>15594753</v>
+        <v>15640547</v>
       </c>
       <c r="E714" t="s">
         <v>27</v>
@@ -24035,10 +24035,10 @@
         <v>11</v>
       </c>
       <c r="C717">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D717">
-        <v>104811</v>
+        <v>106311</v>
       </c>
       <c r="E717" t="s">
         <v>27</v>
@@ -24067,10 +24067,10 @@
         <v>11</v>
       </c>
       <c r="C718">
-        <v>6873</v>
+        <v>6895</v>
       </c>
       <c r="D718">
-        <v>10112397</v>
+        <v>10144648</v>
       </c>
       <c r="E718" t="s">
         <v>27</v>
@@ -24131,10 +24131,10 @@
         <v>11</v>
       </c>
       <c r="C720">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="D720">
-        <v>1876906</v>
+        <v>1882906</v>
       </c>
       <c r="E720" t="s">
         <v>27</v>
@@ -24163,10 +24163,10 @@
         <v>11</v>
       </c>
       <c r="C721">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D721">
-        <v>257318</v>
+        <v>258818</v>
       </c>
       <c r="E721" t="s">
         <v>27</v>
@@ -24227,10 +24227,10 @@
         <v>11</v>
       </c>
       <c r="C723">
-        <v>38509</v>
+        <v>38723</v>
       </c>
       <c r="D723">
-        <v>49718267</v>
+        <v>49974264</v>
       </c>
       <c r="E723" t="s">
         <v>28</v>
@@ -24323,10 +24323,10 @@
         <v>11</v>
       </c>
       <c r="C726">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D726">
-        <v>161729</v>
+        <v>163229</v>
       </c>
       <c r="E726" t="s">
         <v>28</v>
@@ -24387,10 +24387,10 @@
         <v>11</v>
       </c>
       <c r="C728">
-        <v>16071</v>
+        <v>16162</v>
       </c>
       <c r="D728">
-        <v>23691459</v>
+        <v>23822870</v>
       </c>
       <c r="E728" t="s">
         <v>28</v>
@@ -24451,10 +24451,10 @@
         <v>11</v>
       </c>
       <c r="C730">
-        <v>10210</v>
+        <v>10257</v>
       </c>
       <c r="D730">
-        <v>14860535</v>
+        <v>14926438</v>
       </c>
       <c r="E730" t="s">
         <v>28</v>
@@ -24515,10 +24515,10 @@
         <v>11</v>
       </c>
       <c r="C732">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D732">
-        <v>321871</v>
+        <v>323371</v>
       </c>
       <c r="E732" t="s">
         <v>28</v>
@@ -24547,10 +24547,10 @@
         <v>11</v>
       </c>
       <c r="C733">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D733">
-        <v>518819</v>
+        <v>527819</v>
       </c>
       <c r="E733" t="s">
         <v>28</v>
@@ -24579,10 +24579,10 @@
         <v>11</v>
       </c>
       <c r="C734">
-        <v>5228</v>
+        <v>5247</v>
       </c>
       <c r="D734">
-        <v>6652153</v>
+        <v>6674474</v>
       </c>
       <c r="E734" t="s">
         <v>28</v>
@@ -24707,10 +24707,10 @@
         <v>11</v>
       </c>
       <c r="C738">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="D738">
-        <v>2938737</v>
+        <v>2950737</v>
       </c>
       <c r="E738" t="s">
         <v>28</v>
@@ -24739,10 +24739,10 @@
         <v>11</v>
       </c>
       <c r="C739">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="D739">
-        <v>1302431</v>
+        <v>1306091</v>
       </c>
       <c r="E739" t="s">
         <v>28</v>
@@ -24771,10 +24771,10 @@
         <v>11</v>
       </c>
       <c r="C740">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D740">
-        <v>123633</v>
+        <v>125133</v>
       </c>
       <c r="E740" t="s">
         <v>28</v>
@@ -24803,10 +24803,10 @@
         <v>11</v>
       </c>
       <c r="C741">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D741">
-        <v>113125</v>
+        <v>114625</v>
       </c>
       <c r="E741" t="s">
         <v>28</v>
@@ -24835,10 +24835,10 @@
         <v>11</v>
       </c>
       <c r="C742">
-        <v>49202</v>
+        <v>49450</v>
       </c>
       <c r="D742">
-        <v>62365129</v>
+        <v>62661258</v>
       </c>
       <c r="E742" t="s">
         <v>28</v>
@@ -24963,10 +24963,10 @@
         <v>11</v>
       </c>
       <c r="C746">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D746">
-        <v>261173</v>
+        <v>265673</v>
       </c>
       <c r="E746" t="s">
         <v>28</v>
@@ -24995,10 +24995,10 @@
         <v>11</v>
       </c>
       <c r="C747">
-        <v>22199</v>
+        <v>22294</v>
       </c>
       <c r="D747">
-        <v>32740928</v>
+        <v>32877383</v>
       </c>
       <c r="E747" t="s">
         <v>28</v>
@@ -25059,10 +25059,10 @@
         <v>11</v>
       </c>
       <c r="C749">
-        <v>15471</v>
+        <v>15537</v>
       </c>
       <c r="D749">
-        <v>22529841</v>
+        <v>22623598</v>
       </c>
       <c r="E749" t="s">
         <v>28</v>
@@ -25123,10 +25123,10 @@
         <v>11</v>
       </c>
       <c r="C751">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="D751">
-        <v>1013707</v>
+        <v>1030868</v>
       </c>
       <c r="E751" t="s">
         <v>28</v>
@@ -25155,10 +25155,10 @@
         <v>11</v>
       </c>
       <c r="C752">
-        <v>6693</v>
+        <v>6725</v>
       </c>
       <c r="D752">
-        <v>8874514</v>
+        <v>8913269</v>
       </c>
       <c r="E752" t="s">
         <v>28</v>
@@ -25283,10 +25283,10 @@
         <v>11</v>
       </c>
       <c r="C756">
-        <v>2194</v>
+        <v>2199</v>
       </c>
       <c r="D756">
-        <v>3234375</v>
+        <v>3240773</v>
       </c>
       <c r="E756" t="s">
         <v>28</v>
@@ -25315,10 +25315,10 @@
         <v>11</v>
       </c>
       <c r="C757">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D757">
-        <v>995438</v>
+        <v>998438</v>
       </c>
       <c r="E757" t="s">
         <v>28</v>
@@ -25443,10 +25443,10 @@
         <v>11</v>
       </c>
       <c r="C761">
-        <v>34320</v>
+        <v>34435</v>
       </c>
       <c r="D761">
-        <v>43290707</v>
+        <v>43427819</v>
       </c>
       <c r="E761" t="s">
         <v>28</v>
@@ -25539,10 +25539,10 @@
         <v>11</v>
       </c>
       <c r="C764">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D764">
-        <v>145853</v>
+        <v>147353</v>
       </c>
       <c r="E764" t="s">
         <v>28</v>
@@ -25571,10 +25571,10 @@
         <v>11</v>
       </c>
       <c r="C765">
-        <v>12247</v>
+        <v>12297</v>
       </c>
       <c r="D765">
-        <v>18050370</v>
+        <v>18121690</v>
       </c>
       <c r="E765" t="s">
         <v>28</v>
@@ -25635,10 +25635,10 @@
         <v>11</v>
       </c>
       <c r="C767">
-        <v>7955</v>
+        <v>7993</v>
       </c>
       <c r="D767">
-        <v>11548718</v>
+        <v>11600818</v>
       </c>
       <c r="E767" t="s">
         <v>28</v>
@@ -25667,10 +25667,10 @@
         <v>11</v>
       </c>
       <c r="C768">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D768">
-        <v>400860</v>
+        <v>404710</v>
       </c>
       <c r="E768" t="s">
         <v>28</v>
@@ -25699,10 +25699,10 @@
         <v>11</v>
       </c>
       <c r="C769">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D769">
-        <v>471989</v>
+        <v>473489</v>
       </c>
       <c r="E769" t="s">
         <v>28</v>
@@ -25731,10 +25731,10 @@
         <v>11</v>
       </c>
       <c r="C770">
-        <v>16766</v>
+        <v>16865</v>
       </c>
       <c r="D770">
-        <v>20999626</v>
+        <v>21113409</v>
       </c>
       <c r="E770" t="s">
         <v>28</v>
@@ -25859,10 +25859,10 @@
         <v>11</v>
       </c>
       <c r="C774">
-        <v>6837</v>
+        <v>6856</v>
       </c>
       <c r="D774">
-        <v>10067873</v>
+        <v>10096373</v>
       </c>
       <c r="E774" t="s">
         <v>28</v>
@@ -25923,10 +25923,10 @@
         <v>11</v>
       </c>
       <c r="C776">
-        <v>3843</v>
+        <v>3860</v>
       </c>
       <c r="D776">
-        <v>5592336</v>
+        <v>5614152</v>
       </c>
       <c r="E776" t="s">
         <v>28</v>
@@ -25955,10 +25955,10 @@
         <v>11</v>
       </c>
       <c r="C777">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D777">
-        <v>448889</v>
+        <v>450389</v>
       </c>
       <c r="E777" t="s">
         <v>28</v>
@@ -26019,10 +26019,10 @@
         <v>11</v>
       </c>
       <c r="C779">
-        <v>18418</v>
+        <v>18490</v>
       </c>
       <c r="D779">
-        <v>24009193</v>
+        <v>24101743</v>
       </c>
       <c r="E779" t="s">
         <v>29</v>
@@ -26115,10 +26115,10 @@
         <v>11</v>
       </c>
       <c r="C782">
-        <v>8539</v>
+        <v>8571</v>
       </c>
       <c r="D782">
-        <v>12630824</v>
+        <v>12677195</v>
       </c>
       <c r="E782" t="s">
         <v>29</v>
@@ -26179,10 +26179,10 @@
         <v>11</v>
       </c>
       <c r="C784">
-        <v>6892</v>
+        <v>6931</v>
       </c>
       <c r="D784">
-        <v>10084360</v>
+        <v>10142228</v>
       </c>
       <c r="E784" t="s">
         <v>29</v>
@@ -26275,10 +26275,10 @@
         <v>11</v>
       </c>
       <c r="C787">
-        <v>28471</v>
+        <v>28586</v>
       </c>
       <c r="D787">
-        <v>37673936</v>
+        <v>37822666</v>
       </c>
       <c r="E787" t="s">
         <v>29</v>
@@ -26339,10 +26339,10 @@
         <v>11</v>
       </c>
       <c r="C789">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D789">
-        <v>16279</v>
+        <v>16729</v>
       </c>
       <c r="E789" t="s">
         <v>29</v>
@@ -26403,10 +26403,10 @@
         <v>11</v>
       </c>
       <c r="C791">
-        <v>13879</v>
+        <v>13935</v>
       </c>
       <c r="D791">
-        <v>20491800</v>
+        <v>20574992</v>
       </c>
       <c r="E791" t="s">
         <v>29</v>
@@ -26467,10 +26467,10 @@
         <v>11</v>
       </c>
       <c r="C793">
-        <v>12366</v>
+        <v>12447</v>
       </c>
       <c r="D793">
-        <v>18019590</v>
+        <v>18139991</v>
       </c>
       <c r="E793" t="s">
         <v>29</v>
@@ -26563,10 +26563,10 @@
         <v>11</v>
       </c>
       <c r="C796">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D796">
-        <v>344189</v>
+        <v>348689</v>
       </c>
       <c r="E796" t="s">
         <v>29</v>
@@ -26595,10 +26595,10 @@
         <v>11</v>
       </c>
       <c r="C797">
-        <v>71160</v>
+        <v>71756</v>
       </c>
       <c r="D797">
-        <v>94400652</v>
+        <v>95148852</v>
       </c>
       <c r="E797" t="s">
         <v>29</v>
@@ -26723,10 +26723,10 @@
         <v>11</v>
       </c>
       <c r="C801">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D801">
-        <v>367760</v>
+        <v>370760</v>
       </c>
       <c r="E801" t="s">
         <v>29</v>
@@ -26787,10 +26787,10 @@
         <v>11</v>
       </c>
       <c r="C803">
-        <v>47341</v>
+        <v>47631</v>
       </c>
       <c r="D803">
-        <v>69911858</v>
+        <v>70333060</v>
       </c>
       <c r="E803" t="s">
         <v>29</v>
@@ -26819,10 +26819,10 @@
         <v>11</v>
       </c>
       <c r="C804">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D804">
-        <v>186019</v>
+        <v>187519</v>
       </c>
       <c r="E804" t="s">
         <v>29</v>
@@ -26883,10 +26883,10 @@
         <v>11</v>
       </c>
       <c r="C806">
-        <v>32869</v>
+        <v>33084</v>
       </c>
       <c r="D806">
-        <v>47887457</v>
+        <v>48200008</v>
       </c>
       <c r="E806" t="s">
         <v>29</v>
@@ -26947,10 +26947,10 @@
         <v>11</v>
       </c>
       <c r="C808">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D808">
-        <v>614996</v>
+        <v>623996</v>
       </c>
       <c r="E808" t="s">
         <v>29</v>
@@ -27011,10 +27011,10 @@
         <v>11</v>
       </c>
       <c r="C810">
-        <v>1061</v>
+        <v>1074</v>
       </c>
       <c r="D810">
-        <v>1507128</v>
+        <v>1525938</v>
       </c>
       <c r="E810" t="s">
         <v>29</v>
@@ -27075,10 +27075,10 @@
         <v>11</v>
       </c>
       <c r="C812">
-        <v>27955</v>
+        <v>28107</v>
       </c>
       <c r="D812">
-        <v>37278095</v>
+        <v>37466571</v>
       </c>
       <c r="E812" t="s">
         <v>29</v>
@@ -27203,10 +27203,10 @@
         <v>11</v>
       </c>
       <c r="C816">
-        <v>13613</v>
+        <v>13711</v>
       </c>
       <c r="D816">
-        <v>20146087</v>
+        <v>20289069</v>
       </c>
       <c r="E816" t="s">
         <v>29</v>
@@ -27267,10 +27267,10 @@
         <v>11</v>
       </c>
       <c r="C818">
-        <v>12627</v>
+        <v>12716</v>
       </c>
       <c r="D818">
-        <v>18503624</v>
+        <v>18633156</v>
       </c>
       <c r="E818" t="s">
         <v>29</v>
@@ -27331,10 +27331,10 @@
         <v>11</v>
       </c>
       <c r="C820">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D820">
-        <v>407586</v>
+        <v>416881</v>
       </c>
       <c r="E820" t="s">
         <v>29</v>
@@ -27363,10 +27363,10 @@
         <v>11</v>
       </c>
       <c r="C821">
-        <v>22450</v>
+        <v>22548</v>
       </c>
       <c r="D821">
-        <v>29231418</v>
+        <v>29355365</v>
       </c>
       <c r="E821" t="s">
         <v>29</v>
@@ -27491,10 +27491,10 @@
         <v>11</v>
       </c>
       <c r="C825">
-        <v>9786</v>
+        <v>9825</v>
       </c>
       <c r="D825">
-        <v>14465279</v>
+        <v>14521831</v>
       </c>
       <c r="E825" t="s">
         <v>29</v>
@@ -27555,10 +27555,10 @@
         <v>11</v>
       </c>
       <c r="C827">
-        <v>7613</v>
+        <v>7650</v>
       </c>
       <c r="D827">
-        <v>11073788</v>
+        <v>11125986</v>
       </c>
       <c r="E827" t="s">
         <v>29</v>
@@ -27587,10 +27587,10 @@
         <v>11</v>
       </c>
       <c r="C828">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D828">
-        <v>236498</v>
+        <v>237998</v>
       </c>
       <c r="E828" t="s">
         <v>29</v>
@@ -27651,10 +27651,10 @@
         <v>11</v>
       </c>
       <c r="C830">
-        <v>20157</v>
+        <v>20301</v>
       </c>
       <c r="D830">
-        <v>26704637</v>
+        <v>26883430</v>
       </c>
       <c r="E830" t="s">
         <v>29</v>
@@ -27747,10 +27747,10 @@
         <v>11</v>
       </c>
       <c r="C833">
-        <v>8814</v>
+        <v>8874</v>
       </c>
       <c r="D833">
-        <v>13040509</v>
+        <v>13125783</v>
       </c>
       <c r="E833" t="s">
         <v>29</v>
@@ -27811,10 +27811,10 @@
         <v>11</v>
       </c>
       <c r="C835">
-        <v>8023</v>
+        <v>8078</v>
       </c>
       <c r="D835">
-        <v>11684557</v>
+        <v>11761875</v>
       </c>
       <c r="E835" t="s">
         <v>29</v>
@@ -27875,10 +27875,10 @@
         <v>11</v>
       </c>
       <c r="C837">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D837">
-        <v>120593</v>
+        <v>122099</v>
       </c>
       <c r="E837" t="s">
         <v>29</v>
@@ -27907,10 +27907,10 @@
         <v>11</v>
       </c>
       <c r="C838">
-        <v>25092</v>
+        <v>25307</v>
       </c>
       <c r="D838">
-        <v>33241703</v>
+        <v>33505709</v>
       </c>
       <c r="E838" t="s">
         <v>29</v>
@@ -28003,10 +28003,10 @@
         <v>11</v>
       </c>
       <c r="C841">
-        <v>10835</v>
+        <v>10904</v>
       </c>
       <c r="D841">
-        <v>16001804</v>
+        <v>16101338</v>
       </c>
       <c r="E841" t="s">
         <v>29</v>
@@ -28067,10 +28067,10 @@
         <v>11</v>
       </c>
       <c r="C843">
-        <v>10003</v>
+        <v>10062</v>
       </c>
       <c r="D843">
-        <v>14575540</v>
+        <v>14658575</v>
       </c>
       <c r="E843" t="s">
         <v>29</v>
@@ -28099,10 +28099,10 @@
         <v>11</v>
       </c>
       <c r="C844">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D844">
-        <v>132246</v>
+        <v>134605</v>
       </c>
       <c r="E844" t="s">
         <v>29</v>
@@ -28131,10 +28131,10 @@
         <v>11</v>
       </c>
       <c r="C845">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D845">
-        <v>320888</v>
+        <v>323888</v>
       </c>
       <c r="E845" t="s">
         <v>29</v>
@@ -28163,10 +28163,10 @@
         <v>11</v>
       </c>
       <c r="C846">
-        <v>21562</v>
+        <v>21650</v>
       </c>
       <c r="D846">
-        <v>28051088</v>
+        <v>28161631</v>
       </c>
       <c r="E846" t="s">
         <v>29</v>
@@ -28259,10 +28259,10 @@
         <v>11</v>
       </c>
       <c r="C849">
-        <v>10355</v>
+        <v>10390</v>
       </c>
       <c r="D849">
-        <v>15285017</v>
+        <v>15336703</v>
       </c>
       <c r="E849" t="s">
         <v>29</v>
@@ -28323,10 +28323,10 @@
         <v>11</v>
       </c>
       <c r="C851">
-        <v>7532</v>
+        <v>7582</v>
       </c>
       <c r="D851">
-        <v>10918979</v>
+        <v>10991599</v>
       </c>
       <c r="E851" t="s">
         <v>29</v>
@@ -28419,10 +28419,10 @@
         <v>11</v>
       </c>
       <c r="C854">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D854">
-        <v>173744</v>
+        <v>175986</v>
       </c>
       <c r="E854" t="s">
         <v>29</v>

--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>9381</v>
+        <v>9414</v>
       </c>
       <c r="D2">
-        <v>11981531</v>
+        <v>12024389</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1251,10 +1251,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>3969</v>
+        <v>3984</v>
       </c>
       <c r="D5">
-        <v>5852242</v>
+        <v>5874148</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1315,10 +1315,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>1980</v>
+        <v>1986</v>
       </c>
       <c r="D7">
-        <v>2879233</v>
+        <v>2887161</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1443,10 +1443,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>6516</v>
+        <v>6526</v>
       </c>
       <c r="D11">
-        <v>8291101</v>
+        <v>8302848</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1539,10 +1539,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>2141</v>
+        <v>2145</v>
       </c>
       <c r="D14">
-        <v>3147069</v>
+        <v>3153069</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1603,10 +1603,10 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="D16">
-        <v>1269273</v>
+        <v>1273773</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1699,10 +1699,10 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>8588</v>
+        <v>8599</v>
       </c>
       <c r="D19">
-        <v>10715685</v>
+        <v>10729151</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1795,10 +1795,10 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>3181</v>
+        <v>3188</v>
       </c>
       <c r="D22">
-        <v>4686226</v>
+        <v>4696461</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1859,10 +1859,10 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="D24">
-        <v>1496428</v>
+        <v>1501072</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -1955,10 +1955,10 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>3364</v>
+        <v>3373</v>
       </c>
       <c r="D27">
-        <v>4467298</v>
+        <v>4479900</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -2019,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="D29">
-        <v>1518879</v>
+        <v>1522212</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -2083,10 +2083,10 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D31">
-        <v>488759</v>
+        <v>491759</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2115,10 +2115,10 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D32">
-        <v>340069</v>
+        <v>343069</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -2211,10 +2211,10 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>13308</v>
+        <v>13326</v>
       </c>
       <c r="D35">
-        <v>16662388</v>
+        <v>16681856</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -2339,10 +2339,10 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>5221</v>
+        <v>5233</v>
       </c>
       <c r="D39">
-        <v>7702305</v>
+        <v>7718471</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -2403,10 +2403,10 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>2441</v>
+        <v>2446</v>
       </c>
       <c r="D41">
-        <v>3551502</v>
+        <v>3558476</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -2499,10 +2499,10 @@
         <v>11</v>
       </c>
       <c r="C44">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D44">
-        <v>259255</v>
+        <v>260755</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -2531,10 +2531,10 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>5121</v>
+        <v>5127</v>
       </c>
       <c r="D45">
-        <v>6636165</v>
+        <v>6642512</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2627,10 +2627,10 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="D48">
-        <v>2643659</v>
+        <v>2651159</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2691,10 +2691,10 @@
         <v>11</v>
       </c>
       <c r="C50">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D50">
-        <v>924712</v>
+        <v>927712</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -2787,10 +2787,10 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>21792</v>
+        <v>21840</v>
       </c>
       <c r="D53">
-        <v>28520201</v>
+        <v>28577087</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -2851,10 +2851,10 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D55">
-        <v>77798</v>
+        <v>79298</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -2883,10 +2883,10 @@
         <v>11</v>
       </c>
       <c r="C56">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D56">
-        <v>64500</v>
+        <v>66000</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -2915,10 +2915,10 @@
         <v>11</v>
       </c>
       <c r="C57">
-        <v>8263</v>
+        <v>8286</v>
       </c>
       <c r="D57">
-        <v>12205946</v>
+        <v>12238775</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -2979,10 +2979,10 @@
         <v>11</v>
       </c>
       <c r="C59">
-        <v>3130</v>
+        <v>3137</v>
       </c>
       <c r="D59">
-        <v>4553667</v>
+        <v>4564167</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -3139,10 +3139,10 @@
         <v>11</v>
       </c>
       <c r="C64">
-        <v>27787</v>
+        <v>27831</v>
       </c>
       <c r="D64">
-        <v>35929808</v>
+        <v>35984108</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -3203,10 +3203,10 @@
         <v>11</v>
       </c>
       <c r="C66">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D66">
-        <v>20984</v>
+        <v>23145</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3235,10 +3235,10 @@
         <v>11</v>
       </c>
       <c r="C67">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D67">
-        <v>71061</v>
+        <v>72006</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -3267,10 +3267,10 @@
         <v>11</v>
       </c>
       <c r="C68">
-        <v>12148</v>
+        <v>12168</v>
       </c>
       <c r="D68">
-        <v>17918348</v>
+        <v>17946876</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -3331,10 +3331,10 @@
         <v>11</v>
       </c>
       <c r="C70">
-        <v>5779</v>
+        <v>5793</v>
       </c>
       <c r="D70">
-        <v>8405567</v>
+        <v>8425217</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -3363,10 +3363,10 @@
         <v>11</v>
       </c>
       <c r="C71">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D71">
-        <v>259663</v>
+        <v>262218</v>
       </c>
       <c r="E71" t="s">
         <v>12</v>
@@ -3427,10 +3427,10 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <v>15153</v>
+        <v>15189</v>
       </c>
       <c r="D73">
-        <v>19427215</v>
+        <v>19466677</v>
       </c>
       <c r="E73" t="s">
         <v>12</v>
@@ -3491,10 +3491,10 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D75">
-        <v>106648</v>
+        <v>108148</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -3523,10 +3523,10 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>5839</v>
+        <v>5843</v>
       </c>
       <c r="D76">
-        <v>8631945</v>
+        <v>8637945</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -3587,10 +3587,10 @@
         <v>11</v>
       </c>
       <c r="C78">
-        <v>3106</v>
+        <v>3112</v>
       </c>
       <c r="D78">
-        <v>4523833</v>
+        <v>4532833</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
@@ -3683,10 +3683,10 @@
         <v>11</v>
       </c>
       <c r="C81">
-        <v>13009</v>
+        <v>13030</v>
       </c>
       <c r="D81">
-        <v>16518885</v>
+        <v>16545789</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -3811,10 +3811,10 @@
         <v>11</v>
       </c>
       <c r="C85">
-        <v>5924</v>
+        <v>5933</v>
       </c>
       <c r="D85">
-        <v>8720545</v>
+        <v>8734045</v>
       </c>
       <c r="E85" t="s">
         <v>12</v>
@@ -3843,10 +3843,10 @@
         <v>11</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -3875,10 +3875,10 @@
         <v>11</v>
       </c>
       <c r="C87">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D87">
-        <v>2889874</v>
+        <v>2896407</v>
       </c>
       <c r="E87" t="s">
         <v>12</v>
@@ -4003,10 +4003,10 @@
         <v>11</v>
       </c>
       <c r="C91">
-        <v>42760</v>
+        <v>42840</v>
       </c>
       <c r="D91">
-        <v>55119033</v>
+        <v>55218537</v>
       </c>
       <c r="E91" t="s">
         <v>12</v>
@@ -4163,10 +4163,10 @@
         <v>11</v>
       </c>
       <c r="C96">
-        <v>20011</v>
+        <v>20047</v>
       </c>
       <c r="D96">
-        <v>29574252</v>
+        <v>29628063</v>
       </c>
       <c r="E96" t="s">
         <v>12</v>
@@ -4227,10 +4227,10 @@
         <v>11</v>
       </c>
       <c r="C98">
-        <v>12472</v>
+        <v>12491</v>
       </c>
       <c r="D98">
-        <v>18101714</v>
+        <v>18129389</v>
       </c>
       <c r="E98" t="s">
         <v>12</v>
@@ -4387,10 +4387,10 @@
         <v>11</v>
       </c>
       <c r="C103">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="D103">
-        <v>1044083</v>
+        <v>1047683</v>
       </c>
       <c r="E103" t="s">
         <v>12</v>
@@ -4419,10 +4419,10 @@
         <v>11</v>
       </c>
       <c r="C104">
-        <v>17514</v>
+        <v>17544</v>
       </c>
       <c r="D104">
-        <v>23459758</v>
+        <v>23498878</v>
       </c>
       <c r="E104" t="s">
         <v>12</v>
@@ -4547,10 +4547,10 @@
         <v>11</v>
       </c>
       <c r="C108">
-        <v>6465</v>
+        <v>6482</v>
       </c>
       <c r="D108">
-        <v>9563677</v>
+        <v>9588310</v>
       </c>
       <c r="E108" t="s">
         <v>12</v>
@@ -4611,10 +4611,10 @@
         <v>11</v>
       </c>
       <c r="C110">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="D110">
-        <v>2945681</v>
+        <v>2956181</v>
       </c>
       <c r="E110" t="s">
         <v>12</v>
@@ -4643,10 +4643,10 @@
         <v>11</v>
       </c>
       <c r="C111">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D111">
-        <v>175771</v>
+        <v>176551</v>
       </c>
       <c r="E111" t="s">
         <v>12</v>
@@ -4707,10 +4707,10 @@
         <v>11</v>
       </c>
       <c r="C113">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D113">
-        <v>175934</v>
+        <v>177434</v>
       </c>
       <c r="E113" t="s">
         <v>12</v>
@@ -4739,10 +4739,10 @@
         <v>11</v>
       </c>
       <c r="C114">
-        <v>9304</v>
+        <v>9315</v>
       </c>
       <c r="D114">
-        <v>11815375</v>
+        <v>11830278</v>
       </c>
       <c r="E114" t="s">
         <v>13</v>
@@ -4835,10 +4835,10 @@
         <v>11</v>
       </c>
       <c r="C117">
-        <v>5147</v>
+        <v>5159</v>
       </c>
       <c r="D117">
-        <v>7588399</v>
+        <v>7606111</v>
       </c>
       <c r="E117" t="s">
         <v>13</v>
@@ -4899,10 +4899,10 @@
         <v>11</v>
       </c>
       <c r="C119">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="D119">
-        <v>1968752</v>
+        <v>1974752</v>
       </c>
       <c r="E119" t="s">
         <v>13</v>
@@ -4963,10 +4963,10 @@
         <v>11</v>
       </c>
       <c r="C121">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D121">
-        <v>258397</v>
+        <v>259897</v>
       </c>
       <c r="E121" t="s">
         <v>13</v>
@@ -4995,10 +4995,10 @@
         <v>11</v>
       </c>
       <c r="C122">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D122">
-        <v>241132</v>
+        <v>244132</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -5027,10 +5027,10 @@
         <v>11</v>
       </c>
       <c r="C123">
-        <v>8199</v>
+        <v>8207</v>
       </c>
       <c r="D123">
-        <v>10491343</v>
+        <v>10501769</v>
       </c>
       <c r="E123" t="s">
         <v>13</v>
@@ -5155,10 +5155,10 @@
         <v>11</v>
       </c>
       <c r="C127">
-        <v>4203</v>
+        <v>4216</v>
       </c>
       <c r="D127">
-        <v>6197917</v>
+        <v>6216536</v>
       </c>
       <c r="E127" t="s">
         <v>13</v>
@@ -5219,10 +5219,10 @@
         <v>11</v>
       </c>
       <c r="C129">
-        <v>1231</v>
+        <v>1236</v>
       </c>
       <c r="D129">
-        <v>1789961</v>
+        <v>1797461</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -5347,10 +5347,10 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <v>3784</v>
+        <v>3792</v>
       </c>
       <c r="D133">
-        <v>4725162</v>
+        <v>4736575</v>
       </c>
       <c r="E133" t="s">
         <v>13</v>
@@ -5443,10 +5443,10 @@
         <v>11</v>
       </c>
       <c r="C136">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="D136">
-        <v>2063462</v>
+        <v>2067191</v>
       </c>
       <c r="E136" t="s">
         <v>13</v>
@@ -5571,10 +5571,10 @@
         <v>11</v>
       </c>
       <c r="C140">
-        <v>4683</v>
+        <v>4690</v>
       </c>
       <c r="D140">
-        <v>5923302</v>
+        <v>5932674</v>
       </c>
       <c r="E140" t="s">
         <v>13</v>
@@ -5635,10 +5635,10 @@
         <v>11</v>
       </c>
       <c r="C142">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="D142">
-        <v>2783570</v>
+        <v>2788029</v>
       </c>
       <c r="E142" t="s">
         <v>13</v>
@@ -5667,10 +5667,10 @@
         <v>11</v>
       </c>
       <c r="C143">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D143">
-        <v>1311096</v>
+        <v>1315596</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
@@ -5699,10 +5699,10 @@
         <v>11</v>
       </c>
       <c r="C144">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D144">
-        <v>138178</v>
+        <v>139678</v>
       </c>
       <c r="E144" t="s">
         <v>13</v>
@@ -5763,10 +5763,10 @@
         <v>11</v>
       </c>
       <c r="C146">
-        <v>3512</v>
+        <v>3519</v>
       </c>
       <c r="D146">
-        <v>4504360</v>
+        <v>4510801</v>
       </c>
       <c r="E146" t="s">
         <v>13</v>
@@ -5827,10 +5827,10 @@
         <v>11</v>
       </c>
       <c r="C148">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="D148">
-        <v>1997575</v>
+        <v>2000575</v>
       </c>
       <c r="E148" t="s">
         <v>13</v>
@@ -5955,10 +5955,10 @@
         <v>11</v>
       </c>
       <c r="C152">
-        <v>9789</v>
+        <v>9803</v>
       </c>
       <c r="D152">
-        <v>12519782</v>
+        <v>12536099</v>
       </c>
       <c r="E152" t="s">
         <v>13</v>
@@ -6083,10 +6083,10 @@
         <v>11</v>
       </c>
       <c r="C156">
-        <v>4263</v>
+        <v>4276</v>
       </c>
       <c r="D156">
-        <v>6272760</v>
+        <v>6291514</v>
       </c>
       <c r="E156" t="s">
         <v>13</v>
@@ -6115,10 +6115,10 @@
         <v>11</v>
       </c>
       <c r="C157">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="D157">
-        <v>2016587</v>
+        <v>2021087</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
@@ -6211,10 +6211,10 @@
         <v>11</v>
       </c>
       <c r="C160">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="D160">
-        <v>2390539</v>
+        <v>2392501</v>
       </c>
       <c r="E160" t="s">
         <v>13</v>
@@ -6275,10 +6275,10 @@
         <v>11</v>
       </c>
       <c r="C162">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D162">
-        <v>1471713</v>
+        <v>1473213</v>
       </c>
       <c r="E162" t="s">
         <v>13</v>
@@ -6339,10 +6339,10 @@
         <v>11</v>
       </c>
       <c r="C164">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D164">
-        <v>527339</v>
+        <v>530339</v>
       </c>
       <c r="E164" t="s">
         <v>13</v>
@@ -6435,10 +6435,10 @@
         <v>11</v>
       </c>
       <c r="C167">
-        <v>5658</v>
+        <v>5670</v>
       </c>
       <c r="D167">
-        <v>7186104</v>
+        <v>7199146</v>
       </c>
       <c r="E167" t="s">
         <v>13</v>
@@ -6531,10 +6531,10 @@
         <v>11</v>
       </c>
       <c r="C170">
-        <v>2237</v>
+        <v>2244</v>
       </c>
       <c r="D170">
-        <v>3304482</v>
+        <v>3314982</v>
       </c>
       <c r="E170" t="s">
         <v>13</v>
@@ -6563,10 +6563,10 @@
         <v>11</v>
       </c>
       <c r="C171">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D171">
-        <v>1433241</v>
+        <v>1434741</v>
       </c>
       <c r="E171" t="s">
         <v>13</v>
@@ -6659,10 +6659,10 @@
         <v>11</v>
       </c>
       <c r="C174">
-        <v>10871</v>
+        <v>10888</v>
       </c>
       <c r="D174">
-        <v>13913166</v>
+        <v>13936451</v>
       </c>
       <c r="E174" t="s">
         <v>14</v>
@@ -6723,10 +6723,10 @@
         <v>11</v>
       </c>
       <c r="C176">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D176">
-        <v>159502</v>
+        <v>162502</v>
       </c>
       <c r="E176" t="s">
         <v>14</v>
@@ -6755,10 +6755,10 @@
         <v>11</v>
       </c>
       <c r="C177">
-        <v>5101</v>
+        <v>5113</v>
       </c>
       <c r="D177">
-        <v>7533009</v>
+        <v>7551009</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
@@ -6787,10 +6787,10 @@
         <v>11</v>
       </c>
       <c r="C178">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D178">
-        <v>1108412</v>
+        <v>1109912</v>
       </c>
       <c r="E178" t="s">
         <v>14</v>
@@ -6883,10 +6883,10 @@
         <v>11</v>
       </c>
       <c r="C181">
-        <v>16333</v>
+        <v>16360</v>
       </c>
       <c r="D181">
-        <v>21025697</v>
+        <v>21059995</v>
       </c>
       <c r="E181" t="s">
         <v>14</v>
@@ -6979,10 +6979,10 @@
         <v>11</v>
       </c>
       <c r="C184">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D184">
-        <v>249452</v>
+        <v>250952</v>
       </c>
       <c r="E184" t="s">
         <v>14</v>
@@ -7011,10 +7011,10 @@
         <v>11</v>
       </c>
       <c r="C185">
-        <v>7082</v>
+        <v>7094</v>
       </c>
       <c r="D185">
-        <v>10447607</v>
+        <v>10464017</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
@@ -7075,10 +7075,10 @@
         <v>11</v>
       </c>
       <c r="C187">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="D187">
-        <v>2395507</v>
+        <v>2397007</v>
       </c>
       <c r="E187" t="s">
         <v>14</v>
@@ -7171,10 +7171,10 @@
         <v>11</v>
       </c>
       <c r="C190">
-        <v>17248</v>
+        <v>17280</v>
       </c>
       <c r="D190">
-        <v>22189153</v>
+        <v>22231132</v>
       </c>
       <c r="E190" t="s">
         <v>14</v>
@@ -7299,10 +7299,10 @@
         <v>11</v>
       </c>
       <c r="C194">
-        <v>9859</v>
+        <v>9886</v>
       </c>
       <c r="D194">
-        <v>14559457</v>
+        <v>14598769</v>
       </c>
       <c r="E194" t="s">
         <v>14</v>
@@ -7363,10 +7363,10 @@
         <v>11</v>
       </c>
       <c r="C196">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="D196">
-        <v>2327369</v>
+        <v>2330369</v>
       </c>
       <c r="E196" t="s">
         <v>14</v>
@@ -7395,10 +7395,10 @@
         <v>11</v>
       </c>
       <c r="C197">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D197">
-        <v>272691</v>
+        <v>275106</v>
       </c>
       <c r="E197" t="s">
         <v>14</v>
@@ -7427,10 +7427,10 @@
         <v>11</v>
       </c>
       <c r="C198">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D198">
-        <v>356937</v>
+        <v>359937</v>
       </c>
       <c r="E198" t="s">
         <v>14</v>
@@ -7459,10 +7459,10 @@
         <v>11</v>
       </c>
       <c r="C199">
-        <v>15233</v>
+        <v>15257</v>
       </c>
       <c r="D199">
-        <v>19533864</v>
+        <v>19566727</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
@@ -7619,10 +7619,10 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>7527</v>
+        <v>7544</v>
       </c>
       <c r="D204">
-        <v>11097405</v>
+        <v>11122905</v>
       </c>
       <c r="E204" t="s">
         <v>14</v>
@@ -7651,10 +7651,10 @@
         <v>11</v>
       </c>
       <c r="C205">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="D205">
-        <v>2290119</v>
+        <v>2294619</v>
       </c>
       <c r="E205" t="s">
         <v>14</v>
@@ -7715,10 +7715,10 @@
         <v>11</v>
       </c>
       <c r="C207">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D207">
-        <v>228070</v>
+        <v>229388</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
@@ -7747,10 +7747,10 @@
         <v>11</v>
       </c>
       <c r="C208">
-        <v>4895</v>
+        <v>4900</v>
       </c>
       <c r="D208">
-        <v>6219123</v>
+        <v>6223865</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -7811,10 +7811,10 @@
         <v>11</v>
       </c>
       <c r="C210">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="D210">
-        <v>2631006</v>
+        <v>2634651</v>
       </c>
       <c r="E210" t="s">
         <v>15</v>
@@ -7875,10 +7875,10 @@
         <v>11</v>
       </c>
       <c r="C212">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D212">
-        <v>866732</v>
+        <v>872732</v>
       </c>
       <c r="E212" t="s">
         <v>15</v>
@@ -7971,10 +7971,10 @@
         <v>11</v>
       </c>
       <c r="C215">
-        <v>6101</v>
+        <v>6108</v>
       </c>
       <c r="D215">
-        <v>7871325</v>
+        <v>7880695</v>
       </c>
       <c r="E215" t="s">
         <v>15</v>
@@ -8067,10 +8067,10 @@
         <v>11</v>
       </c>
       <c r="C218">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="D218">
-        <v>4183383</v>
+        <v>4187883</v>
       </c>
       <c r="E218" t="s">
         <v>15</v>
@@ -8099,10 +8099,10 @@
         <v>11</v>
       </c>
       <c r="C219">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="D219">
-        <v>1971113</v>
+        <v>1974113</v>
       </c>
       <c r="E219" t="s">
         <v>15</v>
@@ -8195,10 +8195,10 @@
         <v>11</v>
       </c>
       <c r="C222">
-        <v>3480</v>
+        <v>3485</v>
       </c>
       <c r="D222">
-        <v>4389477</v>
+        <v>4396677</v>
       </c>
       <c r="E222" t="s">
         <v>15</v>
@@ -8291,10 +8291,10 @@
         <v>11</v>
       </c>
       <c r="C225">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="D225">
-        <v>1975709</v>
+        <v>1980209</v>
       </c>
       <c r="E225" t="s">
         <v>15</v>
@@ -8355,10 +8355,10 @@
         <v>11</v>
       </c>
       <c r="C227">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D227">
-        <v>652008</v>
+        <v>656508</v>
       </c>
       <c r="E227" t="s">
         <v>15</v>
@@ -8451,10 +8451,10 @@
         <v>11</v>
       </c>
       <c r="C230">
-        <v>11170</v>
+        <v>11183</v>
       </c>
       <c r="D230">
-        <v>14244009</v>
+        <v>14260554</v>
       </c>
       <c r="E230" t="s">
         <v>15</v>
@@ -8547,10 +8547,10 @@
         <v>11</v>
       </c>
       <c r="C233">
-        <v>5197</v>
+        <v>5214</v>
       </c>
       <c r="D233">
-        <v>7662048</v>
+        <v>7686469</v>
       </c>
       <c r="E233" t="s">
         <v>15</v>
@@ -8579,10 +8579,10 @@
         <v>11</v>
       </c>
       <c r="C234">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="D234">
-        <v>2171800</v>
+        <v>2173651</v>
       </c>
       <c r="E234" t="s">
         <v>15</v>
@@ -8675,10 +8675,10 @@
         <v>11</v>
       </c>
       <c r="C237">
-        <v>5781</v>
+        <v>5788</v>
       </c>
       <c r="D237">
-        <v>7347328</v>
+        <v>7357078</v>
       </c>
       <c r="E237" t="s">
         <v>15</v>
@@ -8771,10 +8771,10 @@
         <v>11</v>
       </c>
       <c r="C240">
-        <v>2606</v>
+        <v>2610</v>
       </c>
       <c r="D240">
-        <v>3835018</v>
+        <v>3841018</v>
       </c>
       <c r="E240" t="s">
         <v>15</v>
@@ -8803,10 +8803,10 @@
         <v>11</v>
       </c>
       <c r="C241">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="D241">
-        <v>1106470</v>
+        <v>1110970</v>
       </c>
       <c r="E241" t="s">
         <v>15</v>
@@ -8867,10 +8867,10 @@
         <v>11</v>
       </c>
       <c r="C243">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D243">
-        <v>102447</v>
+        <v>105147</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -8899,10 +8899,10 @@
         <v>11</v>
       </c>
       <c r="C244">
-        <v>9824</v>
+        <v>9843</v>
       </c>
       <c r="D244">
-        <v>12346386</v>
+        <v>12368508</v>
       </c>
       <c r="E244" t="s">
         <v>15</v>
@@ -8995,10 +8995,10 @@
         <v>11</v>
       </c>
       <c r="C247">
-        <v>4760</v>
+        <v>4771</v>
       </c>
       <c r="D247">
-        <v>7029846</v>
+        <v>7044957</v>
       </c>
       <c r="E247" t="s">
         <v>15</v>
@@ -9027,10 +9027,10 @@
         <v>11</v>
       </c>
       <c r="C248">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="D248">
-        <v>3059667</v>
+        <v>3061167</v>
       </c>
       <c r="E248" t="s">
         <v>15</v>
@@ -9091,10 +9091,10 @@
         <v>11</v>
       </c>
       <c r="C250">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D250">
-        <v>158731</v>
+        <v>160231</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
@@ -9123,10 +9123,10 @@
         <v>11</v>
       </c>
       <c r="C251">
-        <v>4966</v>
+        <v>4975</v>
       </c>
       <c r="D251">
-        <v>6487970</v>
+        <v>6498983</v>
       </c>
       <c r="E251" t="s">
         <v>16</v>
@@ -9219,10 +9219,10 @@
         <v>11</v>
       </c>
       <c r="C254">
-        <v>2048</v>
+        <v>2054</v>
       </c>
       <c r="D254">
-        <v>3007923</v>
+        <v>3014824</v>
       </c>
       <c r="E254" t="s">
         <v>16</v>
@@ -9251,10 +9251,10 @@
         <v>11</v>
       </c>
       <c r="C255">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="D255">
-        <v>1865495</v>
+        <v>1868495</v>
       </c>
       <c r="E255" t="s">
         <v>16</v>
@@ -9347,10 +9347,10 @@
         <v>11</v>
       </c>
       <c r="C258">
-        <v>6526</v>
+        <v>6539</v>
       </c>
       <c r="D258">
-        <v>8567699</v>
+        <v>8586963</v>
       </c>
       <c r="E258" t="s">
         <v>16</v>
@@ -9475,10 +9475,10 @@
         <v>11</v>
       </c>
       <c r="C262">
-        <v>2183</v>
+        <v>2193</v>
       </c>
       <c r="D262">
-        <v>3207637</v>
+        <v>3220600</v>
       </c>
       <c r="E262" t="s">
         <v>16</v>
@@ -9507,10 +9507,10 @@
         <v>11</v>
       </c>
       <c r="C263">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="D263">
-        <v>2355552</v>
+        <v>2357052</v>
       </c>
       <c r="E263" t="s">
         <v>16</v>
@@ -9603,10 +9603,10 @@
         <v>11</v>
       </c>
       <c r="C266">
-        <v>4421</v>
+        <v>4428</v>
       </c>
       <c r="D266">
-        <v>5554580</v>
+        <v>5557631</v>
       </c>
       <c r="E266" t="s">
         <v>17</v>
@@ -9731,10 +9731,10 @@
         <v>11</v>
       </c>
       <c r="C270">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="D270">
-        <v>2221283</v>
+        <v>2227283</v>
       </c>
       <c r="E270" t="s">
         <v>17</v>
@@ -9827,10 +9827,10 @@
         <v>11</v>
       </c>
       <c r="C273">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D273">
-        <v>39243</v>
+        <v>40743</v>
       </c>
       <c r="E273" t="s">
         <v>17</v>
@@ -9859,10 +9859,10 @@
         <v>11</v>
       </c>
       <c r="C274">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D274">
-        <v>39271</v>
+        <v>43771</v>
       </c>
       <c r="E274" t="s">
         <v>17</v>
@@ -9891,10 +9891,10 @@
         <v>11</v>
       </c>
       <c r="C275">
-        <v>4636</v>
+        <v>4646</v>
       </c>
       <c r="D275">
-        <v>5900124</v>
+        <v>5913018</v>
       </c>
       <c r="E275" t="s">
         <v>17</v>
@@ -9987,10 +9987,10 @@
         <v>11</v>
       </c>
       <c r="C278">
-        <v>2051</v>
+        <v>2058</v>
       </c>
       <c r="D278">
-        <v>3019970</v>
+        <v>3029841</v>
       </c>
       <c r="E278" t="s">
         <v>17</v>
@@ -10019,10 +10019,10 @@
         <v>11</v>
       </c>
       <c r="C279">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="D279">
-        <v>1143800</v>
+        <v>1154300</v>
       </c>
       <c r="E279" t="s">
         <v>17</v>
@@ -10115,10 +10115,10 @@
         <v>11</v>
       </c>
       <c r="C282">
-        <v>18381</v>
+        <v>18415</v>
       </c>
       <c r="D282">
-        <v>23449176</v>
+        <v>23493792</v>
       </c>
       <c r="E282" t="s">
         <v>17</v>
@@ -10275,10 +10275,10 @@
         <v>11</v>
       </c>
       <c r="C287">
-        <v>10624</v>
+        <v>10654</v>
       </c>
       <c r="D287">
-        <v>15677989</v>
+        <v>15719815</v>
       </c>
       <c r="E287" t="s">
         <v>17</v>
@@ -10371,10 +10371,10 @@
         <v>11</v>
       </c>
       <c r="C290">
-        <v>4886</v>
+        <v>4904</v>
       </c>
       <c r="D290">
-        <v>7099496</v>
+        <v>7125608</v>
       </c>
       <c r="E290" t="s">
         <v>17</v>
@@ -10435,10 +10435,10 @@
         <v>11</v>
       </c>
       <c r="C292">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D292">
-        <v>417334</v>
+        <v>418834</v>
       </c>
       <c r="E292" t="s">
         <v>17</v>
@@ -10467,10 +10467,10 @@
         <v>11</v>
       </c>
       <c r="C293">
-        <v>11642</v>
+        <v>11666</v>
       </c>
       <c r="D293">
-        <v>14693965</v>
+        <v>14721697</v>
       </c>
       <c r="E293" t="s">
         <v>17</v>
@@ -10563,10 +10563,10 @@
         <v>11</v>
       </c>
       <c r="C296">
-        <v>6432</v>
+        <v>6457</v>
       </c>
       <c r="D296">
-        <v>9500724</v>
+        <v>9536494</v>
       </c>
       <c r="E296" t="s">
         <v>17</v>
@@ -10627,10 +10627,10 @@
         <v>11</v>
       </c>
       <c r="C298">
-        <v>2952</v>
+        <v>2963</v>
       </c>
       <c r="D298">
-        <v>4297081</v>
+        <v>4311963</v>
       </c>
       <c r="E298" t="s">
         <v>17</v>
@@ -10723,10 +10723,10 @@
         <v>11</v>
       </c>
       <c r="C301">
-        <v>2448</v>
+        <v>2452</v>
       </c>
       <c r="D301">
-        <v>3106900</v>
+        <v>3111135</v>
       </c>
       <c r="E301" t="s">
         <v>17</v>
@@ -10819,10 +10819,10 @@
         <v>11</v>
       </c>
       <c r="C304">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D304">
-        <v>1496716</v>
+        <v>1498216</v>
       </c>
       <c r="E304" t="s">
         <v>17</v>
@@ -10979,10 +10979,10 @@
         <v>11</v>
       </c>
       <c r="C309">
-        <v>8310</v>
+        <v>8321</v>
       </c>
       <c r="D309">
-        <v>10501091</v>
+        <v>10516891</v>
       </c>
       <c r="E309" t="s">
         <v>17</v>
@@ -11107,10 +11107,10 @@
         <v>11</v>
       </c>
       <c r="C313">
-        <v>4250</v>
+        <v>4257</v>
       </c>
       <c r="D313">
-        <v>6278218</v>
+        <v>6287918</v>
       </c>
       <c r="E313" t="s">
         <v>17</v>
@@ -11171,10 +11171,10 @@
         <v>11</v>
       </c>
       <c r="C315">
-        <v>1558</v>
+        <v>1566</v>
       </c>
       <c r="D315">
-        <v>2247257</v>
+        <v>2256886</v>
       </c>
       <c r="E315" t="s">
         <v>17</v>
@@ -11267,10 +11267,10 @@
         <v>11</v>
       </c>
       <c r="C318">
-        <v>10696</v>
+        <v>10717</v>
       </c>
       <c r="D318">
-        <v>13476067</v>
+        <v>13500219</v>
       </c>
       <c r="E318" t="s">
         <v>17</v>
@@ -11363,10 +11363,10 @@
         <v>11</v>
       </c>
       <c r="C321">
-        <v>4871</v>
+        <v>4887</v>
       </c>
       <c r="D321">
-        <v>7202773</v>
+        <v>7224445</v>
       </c>
       <c r="E321" t="s">
         <v>17</v>
@@ -11427,10 +11427,10 @@
         <v>11</v>
       </c>
       <c r="C323">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="D323">
-        <v>2633562</v>
+        <v>2638062</v>
       </c>
       <c r="E323" t="s">
         <v>17</v>
@@ -11523,10 +11523,10 @@
         <v>11</v>
       </c>
       <c r="C326">
-        <v>2604</v>
+        <v>2608</v>
       </c>
       <c r="D326">
-        <v>3323940</v>
+        <v>3328543</v>
       </c>
       <c r="E326" t="s">
         <v>17</v>
@@ -11619,10 +11619,10 @@
         <v>11</v>
       </c>
       <c r="C329">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="D329">
-        <v>1361233</v>
+        <v>1365129</v>
       </c>
       <c r="E329" t="s">
         <v>17</v>
@@ -11651,10 +11651,10 @@
         <v>11</v>
       </c>
       <c r="C330">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D330">
-        <v>523453</v>
+        <v>524953</v>
       </c>
       <c r="E330" t="s">
         <v>17</v>
@@ -11747,10 +11747,10 @@
         <v>11</v>
       </c>
       <c r="C333">
-        <v>13648</v>
+        <v>13681</v>
       </c>
       <c r="D333">
-        <v>17166679</v>
+        <v>17202015</v>
       </c>
       <c r="E333" t="s">
         <v>17</v>
@@ -11843,10 +11843,10 @@
         <v>11</v>
       </c>
       <c r="C336">
-        <v>6353</v>
+        <v>6366</v>
       </c>
       <c r="D336">
-        <v>9409866</v>
+        <v>9428299</v>
       </c>
       <c r="E336" t="s">
         <v>17</v>
@@ -11907,10 +11907,10 @@
         <v>11</v>
       </c>
       <c r="C338">
-        <v>4023</v>
+        <v>4030</v>
       </c>
       <c r="D338">
-        <v>5875217</v>
+        <v>5885717</v>
       </c>
       <c r="E338" t="s">
         <v>17</v>
@@ -11971,10 +11971,10 @@
         <v>11</v>
       </c>
       <c r="C340">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D340">
-        <v>194339</v>
+        <v>197339</v>
       </c>
       <c r="E340" t="s">
         <v>17</v>
@@ -12003,10 +12003,10 @@
         <v>11</v>
       </c>
       <c r="C341">
-        <v>6960</v>
+        <v>6969</v>
       </c>
       <c r="D341">
-        <v>8744746</v>
+        <v>8756008</v>
       </c>
       <c r="E341" t="s">
         <v>17</v>
@@ -12099,10 +12099,10 @@
         <v>11</v>
       </c>
       <c r="C344">
-        <v>3543</v>
+        <v>3556</v>
       </c>
       <c r="D344">
-        <v>5212281</v>
+        <v>5230548</v>
       </c>
       <c r="E344" t="s">
         <v>17</v>
@@ -12163,10 +12163,10 @@
         <v>11</v>
       </c>
       <c r="C346">
-        <v>1176</v>
+        <v>1181</v>
       </c>
       <c r="D346">
-        <v>1715338</v>
+        <v>1721552</v>
       </c>
       <c r="E346" t="s">
         <v>17</v>
@@ -12195,10 +12195,10 @@
         <v>11</v>
       </c>
       <c r="C347">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D347">
-        <v>101628</v>
+        <v>103438</v>
       </c>
       <c r="E347" t="s">
         <v>17</v>
@@ -12259,10 +12259,10 @@
         <v>11</v>
       </c>
       <c r="C349">
-        <v>13542</v>
+        <v>13636</v>
       </c>
       <c r="D349">
-        <v>18358361</v>
+        <v>18487120</v>
       </c>
       <c r="E349" t="s">
         <v>18</v>
@@ -12387,10 +12387,10 @@
         <v>11</v>
       </c>
       <c r="C353">
-        <v>4259</v>
+        <v>4266</v>
       </c>
       <c r="D353">
-        <v>6282442</v>
+        <v>6291862</v>
       </c>
       <c r="E353" t="s">
         <v>18</v>
@@ -12451,10 +12451,10 @@
         <v>11</v>
       </c>
       <c r="C355">
-        <v>3333</v>
+        <v>3354</v>
       </c>
       <c r="D355">
-        <v>4813815</v>
+        <v>4844868</v>
       </c>
       <c r="E355" t="s">
         <v>18</v>
@@ -12515,10 +12515,10 @@
         <v>11</v>
       </c>
       <c r="C357">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D357">
-        <v>278311</v>
+        <v>281311</v>
       </c>
       <c r="E357" t="s">
         <v>18</v>
@@ -12579,10 +12579,10 @@
         <v>11</v>
       </c>
       <c r="C359">
-        <v>2873</v>
+        <v>2884</v>
       </c>
       <c r="D359">
-        <v>3953810</v>
+        <v>3970010</v>
       </c>
       <c r="E359" t="s">
         <v>19</v>
@@ -12611,10 +12611,10 @@
         <v>11</v>
       </c>
       <c r="C360">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D360">
-        <v>1247754</v>
+        <v>1253754</v>
       </c>
       <c r="E360" t="s">
         <v>19</v>
@@ -12675,10 +12675,10 @@
         <v>11</v>
       </c>
       <c r="C362">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="D362">
-        <v>1491016</v>
+        <v>1503016</v>
       </c>
       <c r="E362" t="s">
         <v>19</v>
@@ -12771,10 +12771,10 @@
         <v>11</v>
       </c>
       <c r="C365">
-        <v>7125</v>
+        <v>7135</v>
       </c>
       <c r="D365">
-        <v>8898799</v>
+        <v>8912523</v>
       </c>
       <c r="E365" t="s">
         <v>20</v>
@@ -12867,10 +12867,10 @@
         <v>11</v>
       </c>
       <c r="C368">
-        <v>2583</v>
+        <v>2586</v>
       </c>
       <c r="D368">
-        <v>3805106</v>
+        <v>3809606</v>
       </c>
       <c r="E368" t="s">
         <v>20</v>
@@ -12931,10 +12931,10 @@
         <v>11</v>
       </c>
       <c r="C370">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D370">
-        <v>1713449</v>
+        <v>1714342</v>
       </c>
       <c r="E370" t="s">
         <v>20</v>
@@ -13027,10 +13027,10 @@
         <v>11</v>
       </c>
       <c r="C373">
-        <v>37535</v>
+        <v>37598</v>
       </c>
       <c r="D373">
-        <v>46928109</v>
+        <v>47011572</v>
       </c>
       <c r="E373" t="s">
         <v>20</v>
@@ -13123,10 +13123,10 @@
         <v>11</v>
       </c>
       <c r="C376">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D376">
-        <v>250435</v>
+        <v>251935</v>
       </c>
       <c r="E376" t="s">
         <v>20</v>
@@ -13155,10 +13155,10 @@
         <v>11</v>
       </c>
       <c r="C377">
-        <v>16781</v>
+        <v>16814</v>
       </c>
       <c r="D377">
-        <v>24708759</v>
+        <v>24755495</v>
       </c>
       <c r="E377" t="s">
         <v>20</v>
@@ -13219,10 +13219,10 @@
         <v>11</v>
       </c>
       <c r="C379">
-        <v>7956</v>
+        <v>7971</v>
       </c>
       <c r="D379">
-        <v>11566443</v>
+        <v>11587691</v>
       </c>
       <c r="E379" t="s">
         <v>20</v>
@@ -13251,10 +13251,10 @@
         <v>11</v>
       </c>
       <c r="C380">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D380">
-        <v>324892</v>
+        <v>327892</v>
       </c>
       <c r="E380" t="s">
         <v>20</v>
@@ -13283,10 +13283,10 @@
         <v>11</v>
       </c>
       <c r="C381">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D381">
-        <v>533795</v>
+        <v>538295</v>
       </c>
       <c r="E381" t="s">
         <v>20</v>
@@ -13347,10 +13347,10 @@
         <v>11</v>
       </c>
       <c r="C383">
-        <v>11668</v>
+        <v>11688</v>
       </c>
       <c r="D383">
-        <v>14856798</v>
+        <v>14884897</v>
       </c>
       <c r="E383" t="s">
         <v>20</v>
@@ -13411,10 +13411,10 @@
         <v>11</v>
       </c>
       <c r="C385">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D385">
-        <v>117444</v>
+        <v>118944</v>
       </c>
       <c r="E385" t="s">
         <v>20</v>
@@ -13443,10 +13443,10 @@
         <v>11</v>
       </c>
       <c r="C386">
-        <v>5093</v>
+        <v>5114</v>
       </c>
       <c r="D386">
-        <v>7526847</v>
+        <v>7556358</v>
       </c>
       <c r="E386" t="s">
         <v>20</v>
@@ -13507,10 +13507,10 @@
         <v>11</v>
       </c>
       <c r="C388">
-        <v>2977</v>
+        <v>2980</v>
       </c>
       <c r="D388">
-        <v>4339966</v>
+        <v>4344466</v>
       </c>
       <c r="E388" t="s">
         <v>20</v>
@@ -13571,10 +13571,10 @@
         <v>11</v>
       </c>
       <c r="C390">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D390">
-        <v>112565</v>
+        <v>114065</v>
       </c>
       <c r="E390" t="s">
         <v>20</v>
@@ -13603,10 +13603,10 @@
         <v>11</v>
       </c>
       <c r="C391">
-        <v>20679</v>
+        <v>20708</v>
       </c>
       <c r="D391">
-        <v>25582029</v>
+        <v>25620922</v>
       </c>
       <c r="E391" t="s">
         <v>20</v>
@@ -13699,10 +13699,10 @@
         <v>11</v>
       </c>
       <c r="C394">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D394">
-        <v>244203</v>
+        <v>245703</v>
       </c>
       <c r="E394" t="s">
         <v>20</v>
@@ -13731,10 +13731,10 @@
         <v>11</v>
       </c>
       <c r="C395">
-        <v>7932</v>
+        <v>7954</v>
       </c>
       <c r="D395">
-        <v>11687330</v>
+        <v>11719210</v>
       </c>
       <c r="E395" t="s">
         <v>20</v>
@@ -13795,10 +13795,10 @@
         <v>11</v>
       </c>
       <c r="C397">
-        <v>3229</v>
+        <v>3239</v>
       </c>
       <c r="D397">
-        <v>4700846</v>
+        <v>4714695</v>
       </c>
       <c r="E397" t="s">
         <v>20</v>
@@ -13827,10 +13827,10 @@
         <v>11</v>
       </c>
       <c r="C398">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D398">
-        <v>242465</v>
+        <v>245465</v>
       </c>
       <c r="E398" t="s">
         <v>20</v>
@@ -13859,10 +13859,10 @@
         <v>11</v>
       </c>
       <c r="C399">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D399">
-        <v>242869</v>
+        <v>243468</v>
       </c>
       <c r="E399" t="s">
         <v>20</v>
@@ -13891,10 +13891,10 @@
         <v>11</v>
       </c>
       <c r="C400">
-        <v>8812</v>
+        <v>8835</v>
       </c>
       <c r="D400">
-        <v>10938784</v>
+        <v>10967032</v>
       </c>
       <c r="E400" t="s">
         <v>20</v>
@@ -14019,10 +14019,10 @@
         <v>11</v>
       </c>
       <c r="C404">
-        <v>2947</v>
+        <v>2952</v>
       </c>
       <c r="D404">
-        <v>4361540</v>
+        <v>4369040</v>
       </c>
       <c r="E404" t="s">
         <v>20</v>
@@ -14051,10 +14051,10 @@
         <v>11</v>
       </c>
       <c r="C405">
-        <v>1289</v>
+        <v>1295</v>
       </c>
       <c r="D405">
-        <v>1867389</v>
+        <v>1874041</v>
       </c>
       <c r="E405" t="s">
         <v>20</v>
@@ -14083,10 +14083,10 @@
         <v>11</v>
       </c>
       <c r="C406">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D406">
-        <v>102502</v>
+        <v>104002</v>
       </c>
       <c r="E406" t="s">
         <v>20</v>
@@ -14115,10 +14115,10 @@
         <v>11</v>
       </c>
       <c r="C407">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D407">
-        <v>194045</v>
+        <v>197045</v>
       </c>
       <c r="E407" t="s">
         <v>20</v>
@@ -14147,10 +14147,10 @@
         <v>11</v>
       </c>
       <c r="C408">
-        <v>24545</v>
+        <v>24638</v>
       </c>
       <c r="D408">
-        <v>33130177</v>
+        <v>33256848</v>
       </c>
       <c r="E408" t="s">
         <v>21</v>
@@ -14307,10 +14307,10 @@
         <v>11</v>
       </c>
       <c r="C413">
-        <v>8976</v>
+        <v>9009</v>
       </c>
       <c r="D413">
-        <v>13236125</v>
+        <v>13284682</v>
       </c>
       <c r="E413" t="s">
         <v>21</v>
@@ -14339,10 +14339,10 @@
         <v>11</v>
       </c>
       <c r="C414">
-        <v>2291</v>
+        <v>2300</v>
       </c>
       <c r="D414">
-        <v>3320096</v>
+        <v>3333482</v>
       </c>
       <c r="E414" t="s">
         <v>21</v>
@@ -14403,10 +14403,10 @@
         <v>11</v>
       </c>
       <c r="C416">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D416">
-        <v>294215</v>
+        <v>297215</v>
       </c>
       <c r="E416" t="s">
         <v>21</v>
@@ -14435,10 +14435,10 @@
         <v>11</v>
       </c>
       <c r="C417">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D417">
-        <v>215066</v>
+        <v>216566</v>
       </c>
       <c r="E417" t="s">
         <v>21</v>
@@ -14467,10 +14467,10 @@
         <v>11</v>
       </c>
       <c r="C418">
-        <v>8997</v>
+        <v>9016</v>
       </c>
       <c r="D418">
-        <v>11988811</v>
+        <v>12014981</v>
       </c>
       <c r="E418" t="s">
         <v>22</v>
@@ -14531,10 +14531,10 @@
         <v>11</v>
       </c>
       <c r="C420">
-        <v>4137</v>
+        <v>4147</v>
       </c>
       <c r="D420">
-        <v>6054347</v>
+        <v>6069347</v>
       </c>
       <c r="E420" t="s">
         <v>22</v>
@@ -14563,10 +14563,10 @@
         <v>11</v>
       </c>
       <c r="C421">
-        <v>2581</v>
+        <v>2588</v>
       </c>
       <c r="D421">
-        <v>3734785</v>
+        <v>3743585</v>
       </c>
       <c r="E421" t="s">
         <v>22</v>
@@ -14659,10 +14659,10 @@
         <v>11</v>
       </c>
       <c r="C424">
-        <v>3012</v>
+        <v>3036</v>
       </c>
       <c r="D424">
-        <v>4265629</v>
+        <v>4300309</v>
       </c>
       <c r="E424" t="s">
         <v>23</v>
@@ -14691,10 +14691,10 @@
         <v>11</v>
       </c>
       <c r="C425">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="D425">
-        <v>1130943</v>
+        <v>1136943</v>
       </c>
       <c r="E425" t="s">
         <v>23</v>
@@ -14819,10 +14819,10 @@
         <v>11</v>
       </c>
       <c r="C429">
-        <v>13541</v>
+        <v>13559</v>
       </c>
       <c r="D429">
-        <v>17274347</v>
+        <v>17297908</v>
       </c>
       <c r="E429" t="s">
         <v>24</v>
@@ -14947,10 +14947,10 @@
         <v>11</v>
       </c>
       <c r="C433">
-        <v>6064</v>
+        <v>6073</v>
       </c>
       <c r="D433">
-        <v>8920161</v>
+        <v>8933575</v>
       </c>
       <c r="E433" t="s">
         <v>24</v>
@@ -14979,10 +14979,10 @@
         <v>11</v>
       </c>
       <c r="C434">
-        <v>2090</v>
+        <v>2093</v>
       </c>
       <c r="D434">
-        <v>3013761</v>
+        <v>3018261</v>
       </c>
       <c r="E434" t="s">
         <v>24</v>
@@ -15011,10 +15011,10 @@
         <v>11</v>
       </c>
       <c r="C435">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D435">
-        <v>274321</v>
+        <v>275821</v>
       </c>
       <c r="E435" t="s">
         <v>24</v>
@@ -15075,10 +15075,10 @@
         <v>11</v>
       </c>
       <c r="C437">
-        <v>9104</v>
+        <v>9118</v>
       </c>
       <c r="D437">
-        <v>11552385</v>
+        <v>11571182</v>
       </c>
       <c r="E437" t="s">
         <v>24</v>
@@ -15203,10 +15203,10 @@
         <v>11</v>
       </c>
       <c r="C441">
-        <v>3984</v>
+        <v>3997</v>
       </c>
       <c r="D441">
-        <v>5881721</v>
+        <v>5899846</v>
       </c>
       <c r="E441" t="s">
         <v>24</v>
@@ -15235,10 +15235,10 @@
         <v>11</v>
       </c>
       <c r="C442">
-        <v>1706</v>
+        <v>1713</v>
       </c>
       <c r="D442">
-        <v>2469035</v>
+        <v>2478364</v>
       </c>
       <c r="E442" t="s">
         <v>24</v>
@@ -15331,10 +15331,10 @@
         <v>11</v>
       </c>
       <c r="C445">
-        <v>8837</v>
+        <v>8851</v>
       </c>
       <c r="D445">
-        <v>11392040</v>
+        <v>11410118</v>
       </c>
       <c r="E445" t="s">
         <v>24</v>
@@ -15459,10 +15459,10 @@
         <v>11</v>
       </c>
       <c r="C449">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="D449">
-        <v>5261855</v>
+        <v>5263355</v>
       </c>
       <c r="E449" t="s">
         <v>24</v>
@@ -15587,10 +15587,10 @@
         <v>11</v>
       </c>
       <c r="C453">
-        <v>4798</v>
+        <v>4803</v>
       </c>
       <c r="D453">
-        <v>6262307</v>
+        <v>6268693</v>
       </c>
       <c r="E453" t="s">
         <v>24</v>
@@ -15683,10 +15683,10 @@
         <v>11</v>
       </c>
       <c r="C456">
-        <v>1735</v>
+        <v>1740</v>
       </c>
       <c r="D456">
-        <v>2555105</v>
+        <v>2562505</v>
       </c>
       <c r="E456" t="s">
         <v>24</v>
@@ -15811,10 +15811,10 @@
         <v>11</v>
       </c>
       <c r="C460">
-        <v>17631</v>
+        <v>17670</v>
       </c>
       <c r="D460">
-        <v>22014681</v>
+        <v>22063579</v>
       </c>
       <c r="E460" t="s">
         <v>24</v>
@@ -15907,10 +15907,10 @@
         <v>11</v>
       </c>
       <c r="C463">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D463">
-        <v>131095</v>
+        <v>132595</v>
       </c>
       <c r="E463" t="s">
         <v>24</v>
@@ -15939,10 +15939,10 @@
         <v>11</v>
       </c>
       <c r="C464">
-        <v>7448</v>
+        <v>7472</v>
       </c>
       <c r="D464">
-        <v>10992459</v>
+        <v>11027858</v>
       </c>
       <c r="E464" t="s">
         <v>24</v>
@@ -16003,10 +16003,10 @@
         <v>11</v>
       </c>
       <c r="C466">
-        <v>2943</v>
+        <v>2952</v>
       </c>
       <c r="D466">
-        <v>4288475</v>
+        <v>4301611</v>
       </c>
       <c r="E466" t="s">
         <v>24</v>
@@ -16035,10 +16035,10 @@
         <v>11</v>
       </c>
       <c r="C467">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D467">
-        <v>196516</v>
+        <v>198016</v>
       </c>
       <c r="E467" t="s">
         <v>24</v>
@@ -16067,10 +16067,10 @@
         <v>11</v>
       </c>
       <c r="C468">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D468">
-        <v>344196</v>
+        <v>345696</v>
       </c>
       <c r="E468" t="s">
         <v>24</v>
@@ -16099,10 +16099,10 @@
         <v>11</v>
       </c>
       <c r="C469">
-        <v>7060</v>
+        <v>7072</v>
       </c>
       <c r="D469">
-        <v>8804650</v>
+        <v>8817771</v>
       </c>
       <c r="E469" t="s">
         <v>25</v>
@@ -16227,10 +16227,10 @@
         <v>11</v>
       </c>
       <c r="C473">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="D473">
-        <v>3688301</v>
+        <v>3689801</v>
       </c>
       <c r="E473" t="s">
         <v>25</v>
@@ -16291,10 +16291,10 @@
         <v>11</v>
       </c>
       <c r="C475">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D475">
-        <v>68112</v>
+        <v>71112</v>
       </c>
       <c r="E475" t="s">
         <v>25</v>
@@ -16355,10 +16355,10 @@
         <v>11</v>
       </c>
       <c r="C477">
-        <v>17755</v>
+        <v>17775</v>
       </c>
       <c r="D477">
-        <v>22399088</v>
+        <v>22425871</v>
       </c>
       <c r="E477" t="s">
         <v>25</v>
@@ -16483,10 +16483,10 @@
         <v>11</v>
       </c>
       <c r="C481">
-        <v>7330</v>
+        <v>7335</v>
       </c>
       <c r="D481">
-        <v>10818088</v>
+        <v>10825588</v>
       </c>
       <c r="E481" t="s">
         <v>25</v>
@@ -16547,10 +16547,10 @@
         <v>11</v>
       </c>
       <c r="C483">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="D483">
-        <v>2856292</v>
+        <v>2860792</v>
       </c>
       <c r="E483" t="s">
         <v>25</v>
@@ -16643,10 +16643,10 @@
         <v>11</v>
       </c>
       <c r="C486">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D486">
-        <v>234637</v>
+        <v>236137</v>
       </c>
       <c r="E486" t="s">
         <v>25</v>
@@ -16675,10 +16675,10 @@
         <v>11</v>
       </c>
       <c r="C487">
-        <v>4725</v>
+        <v>4732</v>
       </c>
       <c r="D487">
-        <v>6088405</v>
+        <v>6096791</v>
       </c>
       <c r="E487" t="s">
         <v>25</v>
@@ -16739,10 +16739,10 @@
         <v>11</v>
       </c>
       <c r="C489">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="D489">
-        <v>2669293</v>
+        <v>2672293</v>
       </c>
       <c r="E489" t="s">
         <v>25</v>
@@ -16803,10 +16803,10 @@
         <v>11</v>
       </c>
       <c r="C491">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D491">
-        <v>1226253</v>
+        <v>1227753</v>
       </c>
       <c r="E491" t="s">
         <v>25</v>
@@ -16899,10 +16899,10 @@
         <v>11</v>
       </c>
       <c r="C494">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="D494">
-        <v>2820792</v>
+        <v>2823419</v>
       </c>
       <c r="E494" t="s">
         <v>25</v>
@@ -16963,10 +16963,10 @@
         <v>11</v>
       </c>
       <c r="C496">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D496">
-        <v>762429</v>
+        <v>763929</v>
       </c>
       <c r="E496" t="s">
         <v>25</v>
@@ -17027,10 +17027,10 @@
         <v>11</v>
       </c>
       <c r="C498">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D498">
-        <v>393435</v>
+        <v>396435</v>
       </c>
       <c r="E498" t="s">
         <v>25</v>
@@ -17123,10 +17123,10 @@
         <v>11</v>
       </c>
       <c r="C501">
-        <v>5799</v>
+        <v>5812</v>
       </c>
       <c r="D501">
-        <v>7396824</v>
+        <v>7414480</v>
       </c>
       <c r="E501" t="s">
         <v>25</v>
@@ -17251,10 +17251,10 @@
         <v>11</v>
       </c>
       <c r="C505">
-        <v>2407</v>
+        <v>2413</v>
       </c>
       <c r="D505">
-        <v>3564242</v>
+        <v>3570863</v>
       </c>
       <c r="E505" t="s">
         <v>25</v>
@@ -17283,10 +17283,10 @@
         <v>11</v>
       </c>
       <c r="C506">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D506">
-        <v>672242</v>
+        <v>672938</v>
       </c>
       <c r="E506" t="s">
         <v>25</v>
@@ -17379,10 +17379,10 @@
         <v>11</v>
       </c>
       <c r="C509">
-        <v>11899</v>
+        <v>11916</v>
       </c>
       <c r="D509">
-        <v>14774817</v>
+        <v>14797219</v>
       </c>
       <c r="E509" t="s">
         <v>25</v>
@@ -17507,10 +17507,10 @@
         <v>11</v>
       </c>
       <c r="C513">
-        <v>3715</v>
+        <v>3720</v>
       </c>
       <c r="D513">
-        <v>5444737</v>
+        <v>5450969</v>
       </c>
       <c r="E513" t="s">
         <v>25</v>
@@ -17571,10 +17571,10 @@
         <v>11</v>
       </c>
       <c r="C515">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="D515">
-        <v>2050144</v>
+        <v>2053144</v>
       </c>
       <c r="E515" t="s">
         <v>25</v>
@@ -17635,10 +17635,10 @@
         <v>11</v>
       </c>
       <c r="C517">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D517">
-        <v>190936</v>
+        <v>193936</v>
       </c>
       <c r="E517" t="s">
         <v>25</v>
@@ -17667,10 +17667,10 @@
         <v>11</v>
       </c>
       <c r="C518">
-        <v>43175</v>
+        <v>43243</v>
       </c>
       <c r="D518">
-        <v>54799581</v>
+        <v>54878912</v>
       </c>
       <c r="E518" t="s">
         <v>25</v>
@@ -17795,10 +17795,10 @@
         <v>11</v>
       </c>
       <c r="C522">
-        <v>17620</v>
+        <v>17664</v>
       </c>
       <c r="D522">
-        <v>25977797</v>
+        <v>26040543</v>
       </c>
       <c r="E522" t="s">
         <v>25</v>
@@ -17859,10 +17859,10 @@
         <v>11</v>
       </c>
       <c r="C524">
-        <v>8082</v>
+        <v>8098</v>
       </c>
       <c r="D524">
-        <v>11688250</v>
+        <v>11710553</v>
       </c>
       <c r="E524" t="s">
         <v>25</v>
@@ -17923,10 +17923,10 @@
         <v>11</v>
       </c>
       <c r="C526">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="D526">
-        <v>1603491</v>
+        <v>1611756</v>
       </c>
       <c r="E526" t="s">
         <v>25</v>
@@ -17987,10 +17987,10 @@
         <v>11</v>
       </c>
       <c r="C528">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D528">
-        <v>648066</v>
+        <v>649566</v>
       </c>
       <c r="E528" t="s">
         <v>25</v>
@@ -18019,10 +18019,10 @@
         <v>11</v>
       </c>
       <c r="C529">
-        <v>6716</v>
+        <v>6728</v>
       </c>
       <c r="D529">
-        <v>8332965</v>
+        <v>8347632</v>
       </c>
       <c r="E529" t="s">
         <v>25</v>
@@ -18115,10 +18115,10 @@
         <v>11</v>
       </c>
       <c r="C532">
-        <v>2829</v>
+        <v>2835</v>
       </c>
       <c r="D532">
-        <v>4159054</v>
+        <v>4168054</v>
       </c>
       <c r="E532" t="s">
         <v>25</v>
@@ -18179,10 +18179,10 @@
         <v>11</v>
       </c>
       <c r="C534">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D534">
-        <v>1387888</v>
+        <v>1390888</v>
       </c>
       <c r="E534" t="s">
         <v>25</v>
@@ -18243,10 +18243,10 @@
         <v>11</v>
       </c>
       <c r="C536">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D536">
-        <v>108633</v>
+        <v>111633</v>
       </c>
       <c r="E536" t="s">
         <v>25</v>
@@ -18275,10 +18275,10 @@
         <v>11</v>
       </c>
       <c r="C537">
-        <v>11021</v>
+        <v>11039</v>
       </c>
       <c r="D537">
-        <v>13785017</v>
+        <v>13805130</v>
       </c>
       <c r="E537" t="s">
         <v>25</v>
@@ -18403,10 +18403,10 @@
         <v>11</v>
       </c>
       <c r="C541">
-        <v>4594</v>
+        <v>4605</v>
       </c>
       <c r="D541">
-        <v>6740347</v>
+        <v>6755523</v>
       </c>
       <c r="E541" t="s">
         <v>25</v>
@@ -18467,10 +18467,10 @@
         <v>11</v>
       </c>
       <c r="C543">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D543">
-        <v>2006330</v>
+        <v>2007830</v>
       </c>
       <c r="E543" t="s">
         <v>25</v>
@@ -18499,10 +18499,10 @@
         <v>11</v>
       </c>
       <c r="C544">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D544">
-        <v>235810</v>
+        <v>237310</v>
       </c>
       <c r="E544" t="s">
         <v>25</v>
@@ -18563,10 +18563,10 @@
         <v>11</v>
       </c>
       <c r="C546">
-        <v>7218</v>
+        <v>7234</v>
       </c>
       <c r="D546">
-        <v>9028036</v>
+        <v>9047132</v>
       </c>
       <c r="E546" t="s">
         <v>25</v>
@@ -18627,10 +18627,10 @@
         <v>11</v>
       </c>
       <c r="C548">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="D548">
-        <v>4256475</v>
+        <v>4257975</v>
       </c>
       <c r="E548" t="s">
         <v>25</v>
@@ -18691,10 +18691,10 @@
         <v>11</v>
       </c>
       <c r="C550">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D550">
-        <v>1536426</v>
+        <v>1537926</v>
       </c>
       <c r="E550" t="s">
         <v>25</v>
@@ -18723,10 +18723,10 @@
         <v>11</v>
       </c>
       <c r="C551">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D551">
-        <v>200170</v>
+        <v>201670</v>
       </c>
       <c r="E551" t="s">
         <v>25</v>
@@ -18787,10 +18787,10 @@
         <v>11</v>
       </c>
       <c r="C553">
-        <v>18086</v>
+        <v>18121</v>
       </c>
       <c r="D553">
-        <v>22873013</v>
+        <v>22912694</v>
       </c>
       <c r="E553" t="s">
         <v>25</v>
@@ -18883,10 +18883,10 @@
         <v>11</v>
       </c>
       <c r="C556">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D556">
-        <v>101554</v>
+        <v>103054</v>
       </c>
       <c r="E556" t="s">
         <v>25</v>
@@ -18915,10 +18915,10 @@
         <v>11</v>
       </c>
       <c r="C557">
-        <v>8377</v>
+        <v>8396</v>
       </c>
       <c r="D557">
-        <v>12315357</v>
+        <v>12343857</v>
       </c>
       <c r="E557" t="s">
         <v>25</v>
@@ -18979,10 +18979,10 @@
         <v>11</v>
       </c>
       <c r="C559">
-        <v>2613</v>
+        <v>2621</v>
       </c>
       <c r="D559">
-        <v>3769428</v>
+        <v>3781428</v>
       </c>
       <c r="E559" t="s">
         <v>25</v>
@@ -19043,10 +19043,10 @@
         <v>11</v>
       </c>
       <c r="C561">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D561">
-        <v>504889</v>
+        <v>512389</v>
       </c>
       <c r="E561" t="s">
         <v>25</v>
@@ -19075,10 +19075,10 @@
         <v>11</v>
       </c>
       <c r="C562">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D562">
-        <v>423148</v>
+        <v>427339</v>
       </c>
       <c r="E562" t="s">
         <v>25</v>
@@ -19107,10 +19107,10 @@
         <v>11</v>
       </c>
       <c r="C563">
-        <v>7289</v>
+        <v>7301</v>
       </c>
       <c r="D563">
-        <v>9134355</v>
+        <v>9146704</v>
       </c>
       <c r="E563" t="s">
         <v>25</v>
@@ -19203,10 +19203,10 @@
         <v>11</v>
       </c>
       <c r="C566">
-        <v>3152</v>
+        <v>3161</v>
       </c>
       <c r="D566">
-        <v>4639340</v>
+        <v>4652840</v>
       </c>
       <c r="E566" t="s">
         <v>25</v>
@@ -19235,10 +19235,10 @@
         <v>11</v>
       </c>
       <c r="C567">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D567">
-        <v>1029316</v>
+        <v>1032316</v>
       </c>
       <c r="E567" t="s">
         <v>25</v>
@@ -19299,10 +19299,10 @@
         <v>11</v>
       </c>
       <c r="C569">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D569">
-        <v>199546</v>
+        <v>201046</v>
       </c>
       <c r="E569" t="s">
         <v>25</v>
@@ -19331,10 +19331,10 @@
         <v>11</v>
       </c>
       <c r="C570">
-        <v>3915</v>
+        <v>3921</v>
       </c>
       <c r="D570">
-        <v>4693476</v>
+        <v>4700007</v>
       </c>
       <c r="E570" t="s">
         <v>26</v>
@@ -19395,10 +19395,10 @@
         <v>11</v>
       </c>
       <c r="C572">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D572">
-        <v>1550537</v>
+        <v>1553537</v>
       </c>
       <c r="E572" t="s">
         <v>26</v>
@@ -19427,10 +19427,10 @@
         <v>11</v>
       </c>
       <c r="C573">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D573">
-        <v>867806</v>
+        <v>872306</v>
       </c>
       <c r="E573" t="s">
         <v>26</v>
@@ -19459,10 +19459,10 @@
         <v>11</v>
       </c>
       <c r="C574">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D574">
-        <v>119816</v>
+        <v>125816</v>
       </c>
       <c r="E574" t="s">
         <v>26</v>
@@ -19523,10 +19523,10 @@
         <v>11</v>
       </c>
       <c r="C576">
-        <v>10095</v>
+        <v>10108</v>
       </c>
       <c r="D576">
-        <v>12422322</v>
+        <v>12437886</v>
       </c>
       <c r="E576" t="s">
         <v>26</v>
@@ -19651,10 +19651,10 @@
         <v>11</v>
       </c>
       <c r="C580">
-        <v>3551</v>
+        <v>3562</v>
       </c>
       <c r="D580">
-        <v>5218952</v>
+        <v>5235452</v>
       </c>
       <c r="E580" t="s">
         <v>26</v>
@@ -19683,10 +19683,10 @@
         <v>11</v>
       </c>
       <c r="C581">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="D581">
-        <v>3089675</v>
+        <v>3092675</v>
       </c>
       <c r="E581" t="s">
         <v>26</v>
@@ -19811,10 +19811,10 @@
         <v>11</v>
       </c>
       <c r="C585">
-        <v>6992</v>
+        <v>7001</v>
       </c>
       <c r="D585">
-        <v>8997870</v>
+        <v>9008880</v>
       </c>
       <c r="E585" t="s">
         <v>26</v>
@@ -19907,10 +19907,10 @@
         <v>11</v>
       </c>
       <c r="C588">
-        <v>2521</v>
+        <v>2527</v>
       </c>
       <c r="D588">
-        <v>3704897</v>
+        <v>3713897</v>
       </c>
       <c r="E588" t="s">
         <v>26</v>
@@ -20035,10 +20035,10 @@
         <v>11</v>
       </c>
       <c r="C592">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D592">
-        <v>137671</v>
+        <v>139171</v>
       </c>
       <c r="E592" t="s">
         <v>26</v>
@@ -20067,10 +20067,10 @@
         <v>11</v>
       </c>
       <c r="C593">
-        <v>19530</v>
+        <v>19546</v>
       </c>
       <c r="D593">
-        <v>24265956</v>
+        <v>24283511</v>
       </c>
       <c r="E593" t="s">
         <v>26</v>
@@ -20195,10 +20195,10 @@
         <v>11</v>
       </c>
       <c r="C597">
-        <v>8622</v>
+        <v>8634</v>
       </c>
       <c r="D597">
-        <v>12694065</v>
+        <v>12712065</v>
       </c>
       <c r="E597" t="s">
         <v>26</v>
@@ -20259,10 +20259,10 @@
         <v>11</v>
       </c>
       <c r="C599">
-        <v>3843</v>
+        <v>3847</v>
       </c>
       <c r="D599">
-        <v>5579861</v>
+        <v>5585602</v>
       </c>
       <c r="E599" t="s">
         <v>26</v>
@@ -20323,10 +20323,10 @@
         <v>11</v>
       </c>
       <c r="C601">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D601">
-        <v>365426</v>
+        <v>366926</v>
       </c>
       <c r="E601" t="s">
         <v>26</v>
@@ -20355,10 +20355,10 @@
         <v>11</v>
       </c>
       <c r="C602">
-        <v>4653</v>
+        <v>4662</v>
       </c>
       <c r="D602">
-        <v>5862939</v>
+        <v>5874705</v>
       </c>
       <c r="E602" t="s">
         <v>26</v>
@@ -20451,10 +20451,10 @@
         <v>11</v>
       </c>
       <c r="C605">
-        <v>1753</v>
+        <v>1760</v>
       </c>
       <c r="D605">
-        <v>2576866</v>
+        <v>2585865</v>
       </c>
       <c r="E605" t="s">
         <v>26</v>
@@ -20483,10 +20483,10 @@
         <v>11</v>
       </c>
       <c r="C606">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D606">
-        <v>1037457</v>
+        <v>1040457</v>
       </c>
       <c r="E606" t="s">
         <v>26</v>
@@ -20515,10 +20515,10 @@
         <v>11</v>
       </c>
       <c r="C607">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D607">
-        <v>276094</v>
+        <v>277420</v>
       </c>
       <c r="E607" t="s">
         <v>26</v>
@@ -20547,10 +20547,10 @@
         <v>11</v>
       </c>
       <c r="C608">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D608">
-        <v>124931</v>
+        <v>127931</v>
       </c>
       <c r="E608" t="s">
         <v>26</v>
@@ -20579,10 +20579,10 @@
         <v>11</v>
       </c>
       <c r="C609">
-        <v>32434</v>
+        <v>32497</v>
       </c>
       <c r="D609">
-        <v>40702277</v>
+        <v>40778370</v>
       </c>
       <c r="E609" t="s">
         <v>26</v>
@@ -20707,10 +20707,10 @@
         <v>11</v>
       </c>
       <c r="C613">
-        <v>13906</v>
+        <v>13928</v>
       </c>
       <c r="D613">
-        <v>20462889</v>
+        <v>20494998</v>
       </c>
       <c r="E613" t="s">
         <v>26</v>
@@ -20803,10 +20803,10 @@
         <v>11</v>
       </c>
       <c r="C616">
-        <v>7579</v>
+        <v>7593</v>
       </c>
       <c r="D616">
-        <v>10989890</v>
+        <v>11010005</v>
       </c>
       <c r="E616" t="s">
         <v>26</v>
@@ -20867,10 +20867,10 @@
         <v>11</v>
       </c>
       <c r="C618">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D618">
-        <v>349634</v>
+        <v>351134</v>
       </c>
       <c r="E618" t="s">
         <v>26</v>
@@ -20899,10 +20899,10 @@
         <v>11</v>
       </c>
       <c r="C619">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D619">
-        <v>755369</v>
+        <v>758369</v>
       </c>
       <c r="E619" t="s">
         <v>26</v>
@@ -20931,10 +20931,10 @@
         <v>11</v>
       </c>
       <c r="C620">
-        <v>6619</v>
+        <v>6628</v>
       </c>
       <c r="D620">
-        <v>8391013</v>
+        <v>8402673</v>
       </c>
       <c r="E620" t="s">
         <v>26</v>
@@ -21059,10 +21059,10 @@
         <v>11</v>
       </c>
       <c r="C624">
-        <v>2385</v>
+        <v>2389</v>
       </c>
       <c r="D624">
-        <v>3504405</v>
+        <v>3510405</v>
       </c>
       <c r="E624" t="s">
         <v>26</v>
@@ -21123,10 +21123,10 @@
         <v>11</v>
       </c>
       <c r="C626">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D626">
-        <v>1079104</v>
+        <v>1082104</v>
       </c>
       <c r="E626" t="s">
         <v>26</v>
@@ -21251,10 +21251,10 @@
         <v>11</v>
       </c>
       <c r="C630">
-        <v>34611</v>
+        <v>34664</v>
       </c>
       <c r="D630">
-        <v>43211739</v>
+        <v>43274148</v>
       </c>
       <c r="E630" t="s">
         <v>26</v>
@@ -21443,10 +21443,10 @@
         <v>11</v>
       </c>
       <c r="C636">
-        <v>14630</v>
+        <v>14657</v>
       </c>
       <c r="D636">
-        <v>21558883</v>
+        <v>21597439</v>
       </c>
       <c r="E636" t="s">
         <v>26</v>
@@ -21507,10 +21507,10 @@
         <v>11</v>
       </c>
       <c r="C638">
-        <v>8758</v>
+        <v>8770</v>
       </c>
       <c r="D638">
-        <v>12730609</v>
+        <v>12746408</v>
       </c>
       <c r="E638" t="s">
         <v>26</v>
@@ -21571,10 +21571,10 @@
         <v>11</v>
       </c>
       <c r="C640">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D640">
-        <v>745521</v>
+        <v>753021</v>
       </c>
       <c r="E640" t="s">
         <v>26</v>
@@ -21603,10 +21603,10 @@
         <v>11</v>
       </c>
       <c r="C641">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D641">
-        <v>698001</v>
+        <v>698534</v>
       </c>
       <c r="E641" t="s">
         <v>26</v>
@@ -21667,10 +21667,10 @@
         <v>11</v>
       </c>
       <c r="C643">
-        <v>4630</v>
+        <v>4641</v>
       </c>
       <c r="D643">
-        <v>5772782</v>
+        <v>5789209</v>
       </c>
       <c r="E643" t="s">
         <v>26</v>
@@ -21731,10 +21731,10 @@
         <v>11</v>
       </c>
       <c r="C645">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="D645">
-        <v>2373229</v>
+        <v>2379229</v>
       </c>
       <c r="E645" t="s">
         <v>26</v>
@@ -21763,10 +21763,10 @@
         <v>11</v>
       </c>
       <c r="C646">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D646">
-        <v>982556</v>
+        <v>987056</v>
       </c>
       <c r="E646" t="s">
         <v>26</v>
@@ -21859,10 +21859,10 @@
         <v>11</v>
       </c>
       <c r="C649">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="D649">
-        <v>2276823</v>
+        <v>2281323</v>
       </c>
       <c r="E649" t="s">
         <v>26</v>
@@ -21923,10 +21923,10 @@
         <v>11</v>
       </c>
       <c r="C651">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D651">
-        <v>1070099</v>
+        <v>1073099</v>
       </c>
       <c r="E651" t="s">
         <v>26</v>
@@ -21987,10 +21987,10 @@
         <v>11</v>
       </c>
       <c r="C653">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D653">
-        <v>318993</v>
+        <v>320493</v>
       </c>
       <c r="E653" t="s">
         <v>26</v>
@@ -22019,10 +22019,10 @@
         <v>11</v>
       </c>
       <c r="C654">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D654">
-        <v>63910</v>
+        <v>65190</v>
       </c>
       <c r="E654" t="s">
         <v>26</v>
@@ -22083,10 +22083,10 @@
         <v>11</v>
       </c>
       <c r="C656">
-        <v>13591</v>
+        <v>13622</v>
       </c>
       <c r="D656">
-        <v>17208810</v>
+        <v>17247186</v>
       </c>
       <c r="E656" t="s">
         <v>26</v>
@@ -22211,10 +22211,10 @@
         <v>11</v>
       </c>
       <c r="C660">
-        <v>5044</v>
+        <v>5050</v>
       </c>
       <c r="D660">
-        <v>7401784</v>
+        <v>7410784</v>
       </c>
       <c r="E660" t="s">
         <v>26</v>
@@ -22275,10 +22275,10 @@
         <v>11</v>
       </c>
       <c r="C662">
-        <v>2854</v>
+        <v>2862</v>
       </c>
       <c r="D662">
-        <v>4137854</v>
+        <v>4149854</v>
       </c>
       <c r="E662" t="s">
         <v>26</v>
@@ -22435,10 +22435,10 @@
         <v>11</v>
       </c>
       <c r="C667">
-        <v>8975</v>
+        <v>8989</v>
       </c>
       <c r="D667">
-        <v>11003025</v>
+        <v>11020598</v>
       </c>
       <c r="E667" t="s">
         <v>26</v>
@@ -22531,10 +22531,10 @@
         <v>11</v>
       </c>
       <c r="C670">
-        <v>3482</v>
+        <v>3488</v>
       </c>
       <c r="D670">
-        <v>5107057</v>
+        <v>5116057</v>
       </c>
       <c r="E670" t="s">
         <v>26</v>
@@ -22563,10 +22563,10 @@
         <v>11</v>
       </c>
       <c r="C671">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="D671">
-        <v>2131734</v>
+        <v>2134885</v>
       </c>
       <c r="E671" t="s">
         <v>26</v>
@@ -22659,10 +22659,10 @@
         <v>11</v>
       </c>
       <c r="C674">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D674">
-        <v>155536</v>
+        <v>157036</v>
       </c>
       <c r="E674" t="s">
         <v>26</v>
@@ -22691,10 +22691,10 @@
         <v>11</v>
       </c>
       <c r="C675">
-        <v>5876</v>
+        <v>5885</v>
       </c>
       <c r="D675">
-        <v>7256879</v>
+        <v>7269577</v>
       </c>
       <c r="E675" t="s">
         <v>26</v>
@@ -22787,10 +22787,10 @@
         <v>11</v>
       </c>
       <c r="C678">
-        <v>2263</v>
+        <v>2269</v>
       </c>
       <c r="D678">
-        <v>3333210</v>
+        <v>3342210</v>
       </c>
       <c r="E678" t="s">
         <v>26</v>
@@ -22915,10 +22915,10 @@
         <v>11</v>
       </c>
       <c r="C682">
-        <v>25974</v>
+        <v>26025</v>
       </c>
       <c r="D682">
-        <v>33220509</v>
+        <v>33278338</v>
       </c>
       <c r="E682" t="s">
         <v>27</v>
@@ -23043,10 +23043,10 @@
         <v>11</v>
       </c>
       <c r="C686">
-        <v>14022</v>
+        <v>14043</v>
       </c>
       <c r="D686">
-        <v>20676915</v>
+        <v>20707449</v>
       </c>
       <c r="E686" t="s">
         <v>27</v>
@@ -23107,10 +23107,10 @@
         <v>11</v>
       </c>
       <c r="C688">
-        <v>3553</v>
+        <v>3558</v>
       </c>
       <c r="D688">
-        <v>5129586</v>
+        <v>5137086</v>
       </c>
       <c r="E688" t="s">
         <v>27</v>
@@ -23139,10 +23139,10 @@
         <v>11</v>
       </c>
       <c r="C689">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D689">
-        <v>524798</v>
+        <v>526298</v>
       </c>
       <c r="E689" t="s">
         <v>27</v>
@@ -23171,10 +23171,10 @@
         <v>11</v>
       </c>
       <c r="C690">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D690">
-        <v>555720</v>
+        <v>560220</v>
       </c>
       <c r="E690" t="s">
         <v>27</v>
@@ -23203,10 +23203,10 @@
         <v>11</v>
       </c>
       <c r="C691">
-        <v>12894</v>
+        <v>12913</v>
       </c>
       <c r="D691">
-        <v>16301592</v>
+        <v>16327276</v>
       </c>
       <c r="E691" t="s">
         <v>27</v>
@@ -23299,10 +23299,10 @@
         <v>11</v>
       </c>
       <c r="C694">
-        <v>6688</v>
+        <v>6700</v>
       </c>
       <c r="D694">
-        <v>9857507</v>
+        <v>9873636</v>
       </c>
       <c r="E694" t="s">
         <v>27</v>
@@ -23363,10 +23363,10 @@
         <v>11</v>
       </c>
       <c r="C696">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="D696">
-        <v>1995816</v>
+        <v>1997901</v>
       </c>
       <c r="E696" t="s">
         <v>27</v>
@@ -23427,10 +23427,10 @@
         <v>11</v>
       </c>
       <c r="C698">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D698">
-        <v>357745</v>
+        <v>362245</v>
       </c>
       <c r="E698" t="s">
         <v>27</v>
@@ -23459,10 +23459,10 @@
         <v>11</v>
       </c>
       <c r="C699">
-        <v>4314</v>
+        <v>4323</v>
       </c>
       <c r="D699">
-        <v>5549243</v>
+        <v>5558120</v>
       </c>
       <c r="E699" t="s">
         <v>27</v>
@@ -23523,10 +23523,10 @@
         <v>11</v>
       </c>
       <c r="C701">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="D701">
-        <v>3063790</v>
+        <v>3066790</v>
       </c>
       <c r="E701" t="s">
         <v>27</v>
@@ -23555,10 +23555,10 @@
         <v>11</v>
       </c>
       <c r="C702">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D702">
-        <v>573679</v>
+        <v>575179</v>
       </c>
       <c r="E702" t="s">
         <v>27</v>
@@ -23651,10 +23651,10 @@
         <v>11</v>
       </c>
       <c r="C705">
-        <v>8173</v>
+        <v>8183</v>
       </c>
       <c r="D705">
-        <v>10334236</v>
+        <v>10347104</v>
       </c>
       <c r="E705" t="s">
         <v>27</v>
@@ -23747,10 +23747,10 @@
         <v>11</v>
       </c>
       <c r="C708">
-        <v>3545</v>
+        <v>3552</v>
       </c>
       <c r="D708">
-        <v>5220383</v>
+        <v>5230883</v>
       </c>
       <c r="E708" t="s">
         <v>27</v>
@@ -23811,10 +23811,10 @@
         <v>11</v>
       </c>
       <c r="C710">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D710">
-        <v>1241322</v>
+        <v>1242822</v>
       </c>
       <c r="E710" t="s">
         <v>27</v>
@@ -23939,10 +23939,10 @@
         <v>11</v>
       </c>
       <c r="C714">
-        <v>12253</v>
+        <v>12276</v>
       </c>
       <c r="D714">
-        <v>15640547</v>
+        <v>15671255</v>
       </c>
       <c r="E714" t="s">
         <v>27</v>
@@ -24067,10 +24067,10 @@
         <v>11</v>
       </c>
       <c r="C718">
-        <v>6895</v>
+        <v>6899</v>
       </c>
       <c r="D718">
-        <v>10144648</v>
+        <v>10150648</v>
       </c>
       <c r="E718" t="s">
         <v>27</v>
@@ -24131,10 +24131,10 @@
         <v>11</v>
       </c>
       <c r="C720">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="D720">
-        <v>1882906</v>
+        <v>1890406</v>
       </c>
       <c r="E720" t="s">
         <v>27</v>
@@ -24195,10 +24195,10 @@
         <v>11</v>
       </c>
       <c r="C722">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D722">
-        <v>273000</v>
+        <v>274500</v>
       </c>
       <c r="E722" t="s">
         <v>27</v>
@@ -24227,10 +24227,10 @@
         <v>11</v>
       </c>
       <c r="C723">
-        <v>38723</v>
+        <v>38812</v>
       </c>
       <c r="D723">
-        <v>49974264</v>
+        <v>50085428</v>
       </c>
       <c r="E723" t="s">
         <v>28</v>
@@ -24291,10 +24291,10 @@
         <v>11</v>
       </c>
       <c r="C725">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D725">
-        <v>59070</v>
+        <v>60060</v>
       </c>
       <c r="E725" t="s">
         <v>28</v>
@@ -24387,10 +24387,10 @@
         <v>11</v>
       </c>
       <c r="C728">
-        <v>16162</v>
+        <v>16200</v>
       </c>
       <c r="D728">
-        <v>23822870</v>
+        <v>23877778</v>
       </c>
       <c r="E728" t="s">
         <v>28</v>
@@ -24451,10 +24451,10 @@
         <v>11</v>
       </c>
       <c r="C730">
-        <v>10257</v>
+        <v>10274</v>
       </c>
       <c r="D730">
-        <v>14926438</v>
+        <v>14951882</v>
       </c>
       <c r="E730" t="s">
         <v>28</v>
@@ -24547,10 +24547,10 @@
         <v>11</v>
       </c>
       <c r="C733">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D733">
-        <v>527819</v>
+        <v>528679</v>
       </c>
       <c r="E733" t="s">
         <v>28</v>
@@ -24579,10 +24579,10 @@
         <v>11</v>
       </c>
       <c r="C734">
-        <v>5247</v>
+        <v>5254</v>
       </c>
       <c r="D734">
-        <v>6674474</v>
+        <v>6682937</v>
       </c>
       <c r="E734" t="s">
         <v>28</v>
@@ -24707,10 +24707,10 @@
         <v>11</v>
       </c>
       <c r="C738">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D738">
-        <v>2950737</v>
+        <v>2956737</v>
       </c>
       <c r="E738" t="s">
         <v>28</v>
@@ -24739,10 +24739,10 @@
         <v>11</v>
       </c>
       <c r="C739">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D739">
-        <v>1306091</v>
+        <v>1307591</v>
       </c>
       <c r="E739" t="s">
         <v>28</v>
@@ -24835,10 +24835,10 @@
         <v>11</v>
       </c>
       <c r="C742">
-        <v>49450</v>
+        <v>49535</v>
       </c>
       <c r="D742">
-        <v>62661258</v>
+        <v>62767596</v>
       </c>
       <c r="E742" t="s">
         <v>28</v>
@@ -24995,10 +24995,10 @@
         <v>11</v>
       </c>
       <c r="C747">
-        <v>22294</v>
+        <v>22350</v>
       </c>
       <c r="D747">
-        <v>32877383</v>
+        <v>32958403</v>
       </c>
       <c r="E747" t="s">
         <v>28</v>
@@ -25059,10 +25059,10 @@
         <v>11</v>
       </c>
       <c r="C749">
-        <v>15537</v>
+        <v>15571</v>
       </c>
       <c r="D749">
-        <v>22623598</v>
+        <v>22670282</v>
       </c>
       <c r="E749" t="s">
         <v>28</v>
@@ -25091,10 +25091,10 @@
         <v>11</v>
       </c>
       <c r="C750">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D750">
-        <v>483976</v>
+        <v>485476</v>
       </c>
       <c r="E750" t="s">
         <v>28</v>
@@ -25123,10 +25123,10 @@
         <v>11</v>
       </c>
       <c r="C751">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D751">
-        <v>1030868</v>
+        <v>1032068</v>
       </c>
       <c r="E751" t="s">
         <v>28</v>
@@ -25155,10 +25155,10 @@
         <v>11</v>
       </c>
       <c r="C752">
-        <v>6725</v>
+        <v>6737</v>
       </c>
       <c r="D752">
-        <v>8913269</v>
+        <v>8929887</v>
       </c>
       <c r="E752" t="s">
         <v>28</v>
@@ -25283,10 +25283,10 @@
         <v>11</v>
       </c>
       <c r="C756">
-        <v>2199</v>
+        <v>2204</v>
       </c>
       <c r="D756">
-        <v>3240773</v>
+        <v>3248273</v>
       </c>
       <c r="E756" t="s">
         <v>28</v>
@@ -25315,10 +25315,10 @@
         <v>11</v>
       </c>
       <c r="C757">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="D757">
-        <v>998438</v>
+        <v>1002938</v>
       </c>
       <c r="E757" t="s">
         <v>28</v>
@@ -25443,10 +25443,10 @@
         <v>11</v>
       </c>
       <c r="C761">
-        <v>34435</v>
+        <v>34505</v>
       </c>
       <c r="D761">
-        <v>43427819</v>
+        <v>43512130</v>
       </c>
       <c r="E761" t="s">
         <v>28</v>
@@ -25571,10 +25571,10 @@
         <v>11</v>
       </c>
       <c r="C765">
-        <v>12297</v>
+        <v>12327</v>
       </c>
       <c r="D765">
-        <v>18121690</v>
+        <v>18164802</v>
       </c>
       <c r="E765" t="s">
         <v>28</v>
@@ -25635,10 +25635,10 @@
         <v>11</v>
       </c>
       <c r="C767">
-        <v>7993</v>
+        <v>8017</v>
       </c>
       <c r="D767">
-        <v>11600818</v>
+        <v>11633349</v>
       </c>
       <c r="E767" t="s">
         <v>28</v>
@@ -25699,10 +25699,10 @@
         <v>11</v>
       </c>
       <c r="C769">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D769">
-        <v>473489</v>
+        <v>473831</v>
       </c>
       <c r="E769" t="s">
         <v>28</v>
@@ -25731,10 +25731,10 @@
         <v>11</v>
       </c>
       <c r="C770">
-        <v>16865</v>
+        <v>16883</v>
       </c>
       <c r="D770">
-        <v>21113409</v>
+        <v>21135891</v>
       </c>
       <c r="E770" t="s">
         <v>28</v>
@@ -25859,10 +25859,10 @@
         <v>11</v>
       </c>
       <c r="C774">
-        <v>6856</v>
+        <v>6873</v>
       </c>
       <c r="D774">
-        <v>10096373</v>
+        <v>10121873</v>
       </c>
       <c r="E774" t="s">
         <v>28</v>
@@ -25923,10 +25923,10 @@
         <v>11</v>
       </c>
       <c r="C776">
-        <v>3860</v>
+        <v>3864</v>
       </c>
       <c r="D776">
-        <v>5614152</v>
+        <v>5619260</v>
       </c>
       <c r="E776" t="s">
         <v>28</v>
@@ -25955,10 +25955,10 @@
         <v>11</v>
       </c>
       <c r="C777">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D777">
-        <v>450389</v>
+        <v>451889</v>
       </c>
       <c r="E777" t="s">
         <v>28</v>
@@ -26019,10 +26019,10 @@
         <v>11</v>
       </c>
       <c r="C779">
-        <v>18490</v>
+        <v>18516</v>
       </c>
       <c r="D779">
-        <v>24101743</v>
+        <v>24138123</v>
       </c>
       <c r="E779" t="s">
         <v>29</v>
@@ -26083,10 +26083,10 @@
         <v>11</v>
       </c>
       <c r="C781">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D781">
-        <v>84888</v>
+        <v>86388</v>
       </c>
       <c r="E781" t="s">
         <v>29</v>
@@ -26115,10 +26115,10 @@
         <v>11</v>
       </c>
       <c r="C782">
-        <v>8571</v>
+        <v>8588</v>
       </c>
       <c r="D782">
-        <v>12677195</v>
+        <v>12702695</v>
       </c>
       <c r="E782" t="s">
         <v>29</v>
@@ -26179,10 +26179,10 @@
         <v>11</v>
       </c>
       <c r="C784">
-        <v>6931</v>
+        <v>6946</v>
       </c>
       <c r="D784">
-        <v>10142228</v>
+        <v>10164728</v>
       </c>
       <c r="E784" t="s">
         <v>29</v>
@@ -26211,10 +26211,10 @@
         <v>11</v>
       </c>
       <c r="C785">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D785">
-        <v>126778</v>
+        <v>128278</v>
       </c>
       <c r="E785" t="s">
         <v>29</v>
@@ -26275,10 +26275,10 @@
         <v>11</v>
       </c>
       <c r="C787">
-        <v>28586</v>
+        <v>28656</v>
       </c>
       <c r="D787">
-        <v>37822666</v>
+        <v>37910132</v>
       </c>
       <c r="E787" t="s">
         <v>29</v>
@@ -26403,10 +26403,10 @@
         <v>11</v>
       </c>
       <c r="C791">
-        <v>13935</v>
+        <v>13961</v>
       </c>
       <c r="D791">
-        <v>20574992</v>
+        <v>20613992</v>
       </c>
       <c r="E791" t="s">
         <v>29</v>
@@ -26467,10 +26467,10 @@
         <v>11</v>
       </c>
       <c r="C793">
-        <v>12447</v>
+        <v>12478</v>
       </c>
       <c r="D793">
-        <v>18139991</v>
+        <v>18183084</v>
       </c>
       <c r="E793" t="s">
         <v>29</v>
@@ -26531,10 +26531,10 @@
         <v>11</v>
       </c>
       <c r="C795">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D795">
-        <v>146002</v>
+        <v>147502</v>
       </c>
       <c r="E795" t="s">
         <v>29</v>
@@ -26595,10 +26595,10 @@
         <v>11</v>
       </c>
       <c r="C797">
-        <v>71756</v>
+        <v>71897</v>
       </c>
       <c r="D797">
-        <v>95148852</v>
+        <v>95328434</v>
       </c>
       <c r="E797" t="s">
         <v>29</v>
@@ -26723,10 +26723,10 @@
         <v>11</v>
       </c>
       <c r="C801">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D801">
-        <v>370760</v>
+        <v>373760</v>
       </c>
       <c r="E801" t="s">
         <v>29</v>
@@ -26787,10 +26787,10 @@
         <v>11</v>
       </c>
       <c r="C803">
-        <v>47631</v>
+        <v>47752</v>
       </c>
       <c r="D803">
-        <v>70333060</v>
+        <v>70509355</v>
       </c>
       <c r="E803" t="s">
         <v>29</v>
@@ -26819,10 +26819,10 @@
         <v>11</v>
       </c>
       <c r="C804">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D804">
-        <v>187519</v>
+        <v>189019</v>
       </c>
       <c r="E804" t="s">
         <v>29</v>
@@ -26883,10 +26883,10 @@
         <v>11</v>
       </c>
       <c r="C806">
-        <v>33084</v>
+        <v>33156</v>
       </c>
       <c r="D806">
-        <v>48200008</v>
+        <v>48304636</v>
       </c>
       <c r="E806" t="s">
         <v>29</v>
@@ -27011,10 +27011,10 @@
         <v>11</v>
       </c>
       <c r="C810">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="D810">
-        <v>1525938</v>
+        <v>1530438</v>
       </c>
       <c r="E810" t="s">
         <v>29</v>
@@ -27075,10 +27075,10 @@
         <v>11</v>
       </c>
       <c r="C812">
-        <v>28107</v>
+        <v>28168</v>
       </c>
       <c r="D812">
-        <v>37466571</v>
+        <v>37553439</v>
       </c>
       <c r="E812" t="s">
         <v>29</v>
@@ -27203,10 +27203,10 @@
         <v>11</v>
       </c>
       <c r="C816">
-        <v>13711</v>
+        <v>13744</v>
       </c>
       <c r="D816">
-        <v>20289069</v>
+        <v>20337436</v>
       </c>
       <c r="E816" t="s">
         <v>29</v>
@@ -27267,10 +27267,10 @@
         <v>11</v>
       </c>
       <c r="C818">
-        <v>12716</v>
+        <v>12747</v>
       </c>
       <c r="D818">
-        <v>18633156</v>
+        <v>18678752</v>
       </c>
       <c r="E818" t="s">
         <v>29</v>
@@ -27331,10 +27331,10 @@
         <v>11</v>
       </c>
       <c r="C820">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D820">
-        <v>416881</v>
+        <v>418381</v>
       </c>
       <c r="E820" t="s">
         <v>29</v>
@@ -27363,10 +27363,10 @@
         <v>11</v>
       </c>
       <c r="C821">
-        <v>22548</v>
+        <v>22587</v>
       </c>
       <c r="D821">
-        <v>29355365</v>
+        <v>29398951</v>
       </c>
       <c r="E821" t="s">
         <v>29</v>
@@ -27491,10 +27491,10 @@
         <v>11</v>
       </c>
       <c r="C825">
-        <v>9825</v>
+        <v>9853</v>
       </c>
       <c r="D825">
-        <v>14521831</v>
+        <v>14563831</v>
       </c>
       <c r="E825" t="s">
         <v>29</v>
@@ -27555,10 +27555,10 @@
         <v>11</v>
       </c>
       <c r="C827">
-        <v>7650</v>
+        <v>7667</v>
       </c>
       <c r="D827">
-        <v>11125986</v>
+        <v>11150491</v>
       </c>
       <c r="E827" t="s">
         <v>29</v>
@@ -27651,10 +27651,10 @@
         <v>11</v>
       </c>
       <c r="C830">
-        <v>20301</v>
+        <v>20344</v>
       </c>
       <c r="D830">
-        <v>26883430</v>
+        <v>26940101</v>
       </c>
       <c r="E830" t="s">
         <v>29</v>
@@ -27747,10 +27747,10 @@
         <v>11</v>
       </c>
       <c r="C833">
-        <v>8874</v>
+        <v>8904</v>
       </c>
       <c r="D833">
-        <v>13125783</v>
+        <v>13167835</v>
       </c>
       <c r="E833" t="s">
         <v>29</v>
@@ -27811,10 +27811,10 @@
         <v>11</v>
       </c>
       <c r="C835">
-        <v>8078</v>
+        <v>8111</v>
       </c>
       <c r="D835">
-        <v>11761875</v>
+        <v>11811242</v>
       </c>
       <c r="E835" t="s">
         <v>29</v>
@@ -27907,10 +27907,10 @@
         <v>11</v>
       </c>
       <c r="C838">
-        <v>25307</v>
+        <v>25353</v>
       </c>
       <c r="D838">
-        <v>33505709</v>
+        <v>33565460</v>
       </c>
       <c r="E838" t="s">
         <v>29</v>
@@ -28003,10 +28003,10 @@
         <v>11</v>
       </c>
       <c r="C841">
-        <v>10904</v>
+        <v>10938</v>
       </c>
       <c r="D841">
-        <v>16101338</v>
+        <v>16150891</v>
       </c>
       <c r="E841" t="s">
         <v>29</v>
@@ -28067,10 +28067,10 @@
         <v>11</v>
       </c>
       <c r="C843">
-        <v>10062</v>
+        <v>10086</v>
       </c>
       <c r="D843">
-        <v>14658575</v>
+        <v>14692119</v>
       </c>
       <c r="E843" t="s">
         <v>29</v>
@@ -28099,10 +28099,10 @@
         <v>11</v>
       </c>
       <c r="C844">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D844">
-        <v>134605</v>
+        <v>136105</v>
       </c>
       <c r="E844" t="s">
         <v>29</v>
@@ -28131,10 +28131,10 @@
         <v>11</v>
       </c>
       <c r="C845">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D845">
-        <v>323888</v>
+        <v>325388</v>
       </c>
       <c r="E845" t="s">
         <v>29</v>
@@ -28163,10 +28163,10 @@
         <v>11</v>
       </c>
       <c r="C846">
-        <v>21650</v>
+        <v>21684</v>
       </c>
       <c r="D846">
-        <v>28161631</v>
+        <v>28203817</v>
       </c>
       <c r="E846" t="s">
         <v>29</v>
@@ -28259,10 +28259,10 @@
         <v>11</v>
       </c>
       <c r="C849">
-        <v>10390</v>
+        <v>10416</v>
       </c>
       <c r="D849">
-        <v>15336703</v>
+        <v>15373342</v>
       </c>
       <c r="E849" t="s">
         <v>29</v>
@@ -28323,10 +28323,10 @@
         <v>11</v>
       </c>
       <c r="C851">
-        <v>7582</v>
+        <v>7603</v>
       </c>
       <c r="D851">
-        <v>10991599</v>
+        <v>11021473</v>
       </c>
       <c r="E851" t="s">
         <v>29</v>
@@ -28387,10 +28387,10 @@
         <v>11</v>
       </c>
       <c r="C853">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D853">
-        <v>176359</v>
+        <v>179359</v>
       </c>
       <c r="E853" t="s">
         <v>29</v>
@@ -28419,10 +28419,10 @@
         <v>11</v>
       </c>
       <c r="C854">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D854">
-        <v>175986</v>
+        <v>177486</v>
       </c>
       <c r="E854" t="s">
         <v>29</v>

--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -1191,10 +1191,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>14579</v>
+        <v>14614</v>
       </c>
       <c r="D2">
-        <v>18372704</v>
+        <v>18419433</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1255,10 +1255,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>63000</v>
+        <v>64500</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1287,10 +1287,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>5727</v>
+        <v>5752</v>
       </c>
       <c r="D5">
-        <v>8387917</v>
+        <v>8423364</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1351,10 +1351,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>2963</v>
+        <v>2975</v>
       </c>
       <c r="D7">
-        <v>4283722</v>
+        <v>4299848</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1383,10 +1383,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D8">
-        <v>263330</v>
+        <v>264830</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1447,10 +1447,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D10">
-        <v>384792</v>
+        <v>387792</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1479,10 +1479,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>9584</v>
+        <v>9626</v>
       </c>
       <c r="D11">
-        <v>12120432</v>
+        <v>12173354</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1575,10 +1575,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>54230</v>
+        <v>55730</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1607,10 +1607,10 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>2972</v>
+        <v>2980</v>
       </c>
       <c r="D15">
-        <v>4338616</v>
+        <v>4348349</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1671,10 +1671,10 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="D17">
-        <v>1865101</v>
+        <v>1869601</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1703,10 +1703,10 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D18">
-        <v>399143</v>
+        <v>402143</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -1735,10 +1735,10 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D19">
-        <v>192828</v>
+        <v>194328</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1767,10 +1767,10 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>12758</v>
+        <v>12794</v>
       </c>
       <c r="D20">
-        <v>15760110</v>
+        <v>15805832</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1831,10 +1831,10 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>50924</v>
+        <v>53924</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1863,10 +1863,10 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>4510</v>
+        <v>4537</v>
       </c>
       <c r="D23">
-        <v>6611389</v>
+        <v>6650260</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -1927,10 +1927,10 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>1530</v>
+        <v>1536</v>
       </c>
       <c r="D25">
-        <v>2189529</v>
+        <v>2197801</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -2023,10 +2023,10 @@
         <v>11</v>
       </c>
       <c r="C28">
-        <v>5583</v>
+        <v>5652</v>
       </c>
       <c r="D28">
-        <v>7404440</v>
+        <v>7503976</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -2119,10 +2119,10 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>1459</v>
+        <v>1464</v>
       </c>
       <c r="D31">
-        <v>2111246</v>
+        <v>2118746</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2183,10 +2183,10 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D33">
-        <v>719097</v>
+        <v>731097</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -2215,10 +2215,10 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D34">
-        <v>653670</v>
+        <v>660608</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -2311,10 +2311,10 @@
         <v>11</v>
       </c>
       <c r="C37">
-        <v>19625</v>
+        <v>19666</v>
       </c>
       <c r="D37">
-        <v>24294125</v>
+        <v>24345768</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -2503,10 +2503,10 @@
         <v>11</v>
       </c>
       <c r="C43">
-        <v>7169</v>
+        <v>7195</v>
       </c>
       <c r="D43">
-        <v>10535718</v>
+        <v>10572698</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -2567,10 +2567,10 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>3467</v>
+        <v>3479</v>
       </c>
       <c r="D45">
-        <v>5027615</v>
+        <v>5043282</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2631,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D47">
-        <v>361336</v>
+        <v>362836</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -2663,10 +2663,10 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D48">
-        <v>619795</v>
+        <v>627113</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2695,10 +2695,10 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>7392</v>
+        <v>7409</v>
       </c>
       <c r="D49">
-        <v>9475930</v>
+        <v>9497623</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -2823,10 +2823,10 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>2543</v>
+        <v>2552</v>
       </c>
       <c r="D53">
-        <v>3705194</v>
+        <v>3718694</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -2887,10 +2887,10 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="D55">
-        <v>1337009</v>
+        <v>1345066</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -2951,10 +2951,10 @@
         <v>11</v>
       </c>
       <c r="C57">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D57">
-        <v>289438</v>
+        <v>293649</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -2983,10 +2983,10 @@
         <v>11</v>
       </c>
       <c r="C58">
-        <v>31921</v>
+        <v>31998</v>
       </c>
       <c r="D58">
-        <v>41278156</v>
+        <v>41376686</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -3111,10 +3111,10 @@
         <v>11</v>
       </c>
       <c r="C62">
-        <v>11692</v>
+        <v>11768</v>
       </c>
       <c r="D62">
-        <v>17180322</v>
+        <v>17294322</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -3175,10 +3175,10 @@
         <v>11</v>
       </c>
       <c r="C64">
-        <v>4536</v>
+        <v>4557</v>
       </c>
       <c r="D64">
-        <v>6570694</v>
+        <v>6600556</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -3239,10 +3239,10 @@
         <v>11</v>
       </c>
       <c r="C66">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D66">
-        <v>354524</v>
+        <v>359024</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3303,10 +3303,10 @@
         <v>11</v>
       </c>
       <c r="C68">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D68">
-        <v>351135</v>
+        <v>355635</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -3335,10 +3335,10 @@
         <v>11</v>
       </c>
       <c r="C69">
-        <v>41030</v>
+        <v>41129</v>
       </c>
       <c r="D69">
-        <v>52665168</v>
+        <v>52794620</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -3463,10 +3463,10 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <v>16662</v>
+        <v>16727</v>
       </c>
       <c r="D73">
-        <v>24461085</v>
+        <v>24556972</v>
       </c>
       <c r="E73" t="s">
         <v>12</v>
@@ -3527,10 +3527,10 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <v>8319</v>
+        <v>8346</v>
       </c>
       <c r="D75">
-        <v>12030588</v>
+        <v>12070583</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -3591,10 +3591,10 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D77">
-        <v>427635</v>
+        <v>429135</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -3655,10 +3655,10 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D79">
-        <v>835358</v>
+        <v>842582</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -3687,10 +3687,10 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>22091</v>
+        <v>22151</v>
       </c>
       <c r="D80">
-        <v>27931128</v>
+        <v>28003984</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -3751,10 +3751,10 @@
         <v>11</v>
       </c>
       <c r="C82">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D82">
-        <v>162912</v>
+        <v>164412</v>
       </c>
       <c r="E82" t="s">
         <v>12</v>
@@ -3815,10 +3815,10 @@
         <v>11</v>
       </c>
       <c r="C84">
-        <v>7992</v>
+        <v>8010</v>
       </c>
       <c r="D84">
-        <v>11744981</v>
+        <v>11771981</v>
       </c>
       <c r="E84" t="s">
         <v>12</v>
@@ -3879,10 +3879,10 @@
         <v>11</v>
       </c>
       <c r="C86">
-        <v>4380</v>
+        <v>4408</v>
       </c>
       <c r="D86">
-        <v>6345342</v>
+        <v>6387342</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -3911,10 +3911,10 @@
         <v>11</v>
       </c>
       <c r="C87">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D87">
-        <v>443466</v>
+        <v>447966</v>
       </c>
       <c r="E87" t="s">
         <v>12</v>
@@ -3943,10 +3943,10 @@
         <v>11</v>
       </c>
       <c r="C88">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D88">
-        <v>866695</v>
+        <v>875775</v>
       </c>
       <c r="E88" t="s">
         <v>12</v>
@@ -3975,10 +3975,10 @@
         <v>11</v>
       </c>
       <c r="C89">
-        <v>19373</v>
+        <v>19440</v>
       </c>
       <c r="D89">
-        <v>24420774</v>
+        <v>24507331</v>
       </c>
       <c r="E89" t="s">
         <v>12</v>
@@ -4103,10 +4103,10 @@
         <v>11</v>
       </c>
       <c r="C93">
-        <v>8302</v>
+        <v>8339</v>
       </c>
       <c r="D93">
-        <v>12170015</v>
+        <v>12223209</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -4167,10 +4167,10 @@
         <v>11</v>
       </c>
       <c r="C95">
-        <v>2958</v>
+        <v>2977</v>
       </c>
       <c r="D95">
-        <v>4234328</v>
+        <v>4260212</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
@@ -4263,10 +4263,10 @@
         <v>11</v>
       </c>
       <c r="C98">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D98">
-        <v>284077</v>
+        <v>287077</v>
       </c>
       <c r="E98" t="s">
         <v>12</v>
@@ -4295,10 +4295,10 @@
         <v>11</v>
       </c>
       <c r="C99">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D99">
-        <v>451656</v>
+        <v>457656</v>
       </c>
       <c r="E99" t="s">
         <v>12</v>
@@ -4327,10 +4327,10 @@
         <v>11</v>
       </c>
       <c r="C100">
-        <v>68022</v>
+        <v>68292</v>
       </c>
       <c r="D100">
-        <v>87276420</v>
+        <v>87624013</v>
       </c>
       <c r="E100" t="s">
         <v>12</v>
@@ -4519,10 +4519,10 @@
         <v>11</v>
       </c>
       <c r="C106">
-        <v>27718</v>
+        <v>27809</v>
       </c>
       <c r="D106">
-        <v>40761482</v>
+        <v>40895908</v>
       </c>
       <c r="E106" t="s">
         <v>12</v>
@@ -4583,10 +4583,10 @@
         <v>11</v>
       </c>
       <c r="C108">
-        <v>18209</v>
+        <v>18300</v>
       </c>
       <c r="D108">
-        <v>26331859</v>
+        <v>26462246</v>
       </c>
       <c r="E108" t="s">
         <v>12</v>
@@ -4679,10 +4679,10 @@
         <v>11</v>
       </c>
       <c r="C111">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D111">
-        <v>829283</v>
+        <v>834633</v>
       </c>
       <c r="E111" t="s">
         <v>12</v>
@@ -4775,10 +4775,10 @@
         <v>11</v>
       </c>
       <c r="C114">
-        <v>1399</v>
+        <v>1411</v>
       </c>
       <c r="D114">
-        <v>1974079</v>
+        <v>1989855</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -4807,10 +4807,10 @@
         <v>11</v>
       </c>
       <c r="C115">
-        <v>24861</v>
+        <v>24944</v>
       </c>
       <c r="D115">
-        <v>32963321</v>
+        <v>33068542</v>
       </c>
       <c r="E115" t="s">
         <v>12</v>
@@ -4935,10 +4935,10 @@
         <v>11</v>
       </c>
       <c r="C119">
-        <v>8821</v>
+        <v>8855</v>
       </c>
       <c r="D119">
-        <v>12961964</v>
+        <v>13009519</v>
       </c>
       <c r="E119" t="s">
         <v>12</v>
@@ -4999,10 +4999,10 @@
         <v>11</v>
       </c>
       <c r="C121">
-        <v>2873</v>
+        <v>2886</v>
       </c>
       <c r="D121">
-        <v>4187566</v>
+        <v>4205813</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
@@ -5031,10 +5031,10 @@
         <v>11</v>
       </c>
       <c r="C122">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D122">
-        <v>275352</v>
+        <v>276852</v>
       </c>
       <c r="E122" t="s">
         <v>12</v>
@@ -5095,10 +5095,10 @@
         <v>11</v>
       </c>
       <c r="C124">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D124">
-        <v>366396</v>
+        <v>369396</v>
       </c>
       <c r="E124" t="s">
         <v>12</v>
@@ -5127,10 +5127,10 @@
         <v>11</v>
       </c>
       <c r="C125">
-        <v>13990</v>
+        <v>14029</v>
       </c>
       <c r="D125">
-        <v>17562316</v>
+        <v>17611474</v>
       </c>
       <c r="E125" t="s">
         <v>13</v>
@@ -5223,10 +5223,10 @@
         <v>11</v>
       </c>
       <c r="C128">
-        <v>7067</v>
+        <v>7101</v>
       </c>
       <c r="D128">
-        <v>10368630</v>
+        <v>10418346</v>
       </c>
       <c r="E128" t="s">
         <v>13</v>
@@ -5287,10 +5287,10 @@
         <v>11</v>
       </c>
       <c r="C130">
-        <v>1953</v>
+        <v>1958</v>
       </c>
       <c r="D130">
-        <v>2802713</v>
+        <v>2810213</v>
       </c>
       <c r="E130" t="s">
         <v>13</v>
@@ -5351,10 +5351,10 @@
         <v>11</v>
       </c>
       <c r="C132">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D132">
-        <v>386456</v>
+        <v>389456</v>
       </c>
       <c r="E132" t="s">
         <v>13</v>
@@ -5415,10 +5415,10 @@
         <v>11</v>
       </c>
       <c r="C134">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D134">
-        <v>431607</v>
+        <v>436107</v>
       </c>
       <c r="E134" t="s">
         <v>13</v>
@@ -5447,10 +5447,10 @@
         <v>11</v>
       </c>
       <c r="C135">
-        <v>12105</v>
+        <v>12146</v>
       </c>
       <c r="D135">
-        <v>15265001</v>
+        <v>15313740</v>
       </c>
       <c r="E135" t="s">
         <v>13</v>
@@ -5543,10 +5543,10 @@
         <v>11</v>
       </c>
       <c r="C138">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D138">
-        <v>64500</v>
+        <v>66000</v>
       </c>
       <c r="E138" t="s">
         <v>13</v>
@@ -5575,10 +5575,10 @@
         <v>11</v>
       </c>
       <c r="C139">
-        <v>5755</v>
+        <v>5776</v>
       </c>
       <c r="D139">
-        <v>8441294</v>
+        <v>8471581</v>
       </c>
       <c r="E139" t="s">
         <v>13</v>
@@ -5639,10 +5639,10 @@
         <v>11</v>
       </c>
       <c r="C141">
-        <v>1767</v>
+        <v>1774</v>
       </c>
       <c r="D141">
-        <v>2557022</v>
+        <v>2567522</v>
       </c>
       <c r="E141" t="s">
         <v>13</v>
@@ -5703,10 +5703,10 @@
         <v>11</v>
       </c>
       <c r="C143">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D143">
-        <v>143990</v>
+        <v>145119</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
@@ -5735,10 +5735,10 @@
         <v>11</v>
       </c>
       <c r="C144">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D144">
-        <v>401569</v>
+        <v>407569</v>
       </c>
       <c r="E144" t="s">
         <v>13</v>
@@ -5767,10 +5767,10 @@
         <v>11</v>
       </c>
       <c r="C145">
-        <v>5442</v>
+        <v>5459</v>
       </c>
       <c r="D145">
-        <v>6690592</v>
+        <v>6708867</v>
       </c>
       <c r="E145" t="s">
         <v>13</v>
@@ -5863,10 +5863,10 @@
         <v>11</v>
       </c>
       <c r="C148">
-        <v>1905</v>
+        <v>1909</v>
       </c>
       <c r="D148">
-        <v>2792316</v>
+        <v>2797855</v>
       </c>
       <c r="E148" t="s">
         <v>13</v>
@@ -5895,10 +5895,10 @@
         <v>11</v>
       </c>
       <c r="C149">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D149">
-        <v>893643</v>
+        <v>896643</v>
       </c>
       <c r="E149" t="s">
         <v>13</v>
@@ -5927,10 +5927,10 @@
         <v>11</v>
       </c>
       <c r="C150">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D150">
-        <v>123677</v>
+        <v>125177</v>
       </c>
       <c r="E150" t="s">
         <v>13</v>
@@ -5991,10 +5991,10 @@
         <v>11</v>
       </c>
       <c r="C152">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D152">
-        <v>95194</v>
+        <v>98194</v>
       </c>
       <c r="E152" t="s">
         <v>13</v>
@@ -6023,10 +6023,10 @@
         <v>11</v>
       </c>
       <c r="C153">
-        <v>6761</v>
+        <v>6774</v>
       </c>
       <c r="D153">
-        <v>8437154</v>
+        <v>8453629</v>
       </c>
       <c r="E153" t="s">
         <v>13</v>
@@ -6087,10 +6087,10 @@
         <v>11</v>
       </c>
       <c r="C155">
-        <v>2615</v>
+        <v>2623</v>
       </c>
       <c r="D155">
-        <v>3836816</v>
+        <v>3848816</v>
       </c>
       <c r="E155" t="s">
         <v>13</v>
@@ -6119,10 +6119,10 @@
         <v>11</v>
       </c>
       <c r="C156">
-        <v>1259</v>
+        <v>1269</v>
       </c>
       <c r="D156">
-        <v>1811965</v>
+        <v>1825600</v>
       </c>
       <c r="E156" t="s">
         <v>13</v>
@@ -6215,10 +6215,10 @@
         <v>11</v>
       </c>
       <c r="C159">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D159">
-        <v>157996</v>
+        <v>159496</v>
       </c>
       <c r="E159" t="s">
         <v>13</v>
@@ -6247,10 +6247,10 @@
         <v>11</v>
       </c>
       <c r="C160">
-        <v>5118</v>
+        <v>5131</v>
       </c>
       <c r="D160">
-        <v>6482997</v>
+        <v>6498439</v>
       </c>
       <c r="E160" t="s">
         <v>13</v>
@@ -6375,10 +6375,10 @@
         <v>11</v>
       </c>
       <c r="C164">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D164">
-        <v>58681</v>
+        <v>60181</v>
       </c>
       <c r="E164" t="s">
         <v>13</v>
@@ -6407,10 +6407,10 @@
         <v>11</v>
       </c>
       <c r="C165">
-        <v>1863</v>
+        <v>1871</v>
       </c>
       <c r="D165">
-        <v>2720640</v>
+        <v>2731988</v>
       </c>
       <c r="E165" t="s">
         <v>13</v>
@@ -6471,10 +6471,10 @@
         <v>11</v>
       </c>
       <c r="C167">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D167">
-        <v>893283</v>
+        <v>894783</v>
       </c>
       <c r="E167" t="s">
         <v>13</v>
@@ -6503,10 +6503,10 @@
         <v>11</v>
       </c>
       <c r="C168">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D168">
-        <v>154882</v>
+        <v>156382</v>
       </c>
       <c r="E168" t="s">
         <v>13</v>
@@ -6535,10 +6535,10 @@
         <v>11</v>
       </c>
       <c r="C169">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D169">
-        <v>113504</v>
+        <v>115004</v>
       </c>
       <c r="E169" t="s">
         <v>13</v>
@@ -6567,10 +6567,10 @@
         <v>11</v>
       </c>
       <c r="C170">
-        <v>14310</v>
+        <v>14348</v>
       </c>
       <c r="D170">
-        <v>18041269</v>
+        <v>18084263</v>
       </c>
       <c r="E170" t="s">
         <v>13</v>
@@ -6663,10 +6663,10 @@
         <v>11</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D173">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="E173" t="s">
         <v>13</v>
@@ -6727,10 +6727,10 @@
         <v>11</v>
       </c>
       <c r="C175">
-        <v>5863</v>
+        <v>5877</v>
       </c>
       <c r="D175">
-        <v>8572448</v>
+        <v>8591983</v>
       </c>
       <c r="E175" t="s">
         <v>13</v>
@@ -6759,10 +6759,10 @@
         <v>11</v>
       </c>
       <c r="C176">
-        <v>1975</v>
+        <v>1985</v>
       </c>
       <c r="D176">
-        <v>2853353</v>
+        <v>2868353</v>
       </c>
       <c r="E176" t="s">
         <v>13</v>
@@ -6823,10 +6823,10 @@
         <v>11</v>
       </c>
       <c r="C178">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D178">
-        <v>619390</v>
+        <v>622390</v>
       </c>
       <c r="E178" t="s">
         <v>13</v>
@@ -6855,10 +6855,10 @@
         <v>11</v>
       </c>
       <c r="C179">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D179">
-        <v>470788</v>
+        <v>476788</v>
       </c>
       <c r="E179" t="s">
         <v>13</v>
@@ -6887,10 +6887,10 @@
         <v>11</v>
       </c>
       <c r="C180">
-        <v>2734</v>
+        <v>2739</v>
       </c>
       <c r="D180">
-        <v>3454157</v>
+        <v>3461404</v>
       </c>
       <c r="E180" t="s">
         <v>13</v>
@@ -6951,10 +6951,10 @@
         <v>11</v>
       </c>
       <c r="C182">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="D182">
-        <v>1954686</v>
+        <v>1957800</v>
       </c>
       <c r="E182" t="s">
         <v>13</v>
@@ -7015,10 +7015,10 @@
         <v>11</v>
       </c>
       <c r="C184">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D184">
-        <v>741101</v>
+        <v>742601</v>
       </c>
       <c r="E184" t="s">
         <v>13</v>
@@ -7143,10 +7143,10 @@
         <v>11</v>
       </c>
       <c r="C188">
-        <v>8206</v>
+        <v>8232</v>
       </c>
       <c r="D188">
-        <v>10310642</v>
+        <v>10346874</v>
       </c>
       <c r="E188" t="s">
         <v>13</v>
@@ -7271,10 +7271,10 @@
         <v>11</v>
       </c>
       <c r="C192">
-        <v>3133</v>
+        <v>3147</v>
       </c>
       <c r="D192">
-        <v>4610404</v>
+        <v>4631404</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
@@ -7303,10 +7303,10 @@
         <v>11</v>
       </c>
       <c r="C193">
-        <v>1439</v>
+        <v>1444</v>
       </c>
       <c r="D193">
-        <v>2075540</v>
+        <v>2081728</v>
       </c>
       <c r="E193" t="s">
         <v>13</v>
@@ -7335,10 +7335,10 @@
         <v>11</v>
       </c>
       <c r="C194">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D194">
-        <v>226946</v>
+        <v>232946</v>
       </c>
       <c r="E194" t="s">
         <v>13</v>
@@ -7399,10 +7399,10 @@
         <v>11</v>
       </c>
       <c r="C196">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D196">
-        <v>229680</v>
+        <v>231180</v>
       </c>
       <c r="E196" t="s">
         <v>13</v>
@@ -7431,10 +7431,10 @@
         <v>11</v>
       </c>
       <c r="C197">
-        <v>15634</v>
+        <v>15673</v>
       </c>
       <c r="D197">
-        <v>19704535</v>
+        <v>19750297</v>
       </c>
       <c r="E197" t="s">
         <v>14</v>
@@ -7527,10 +7527,10 @@
         <v>11</v>
       </c>
       <c r="C200">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D200">
-        <v>256028</v>
+        <v>257528</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
@@ -7559,10 +7559,10 @@
         <v>11</v>
       </c>
       <c r="C201">
-        <v>7077</v>
+        <v>7092</v>
       </c>
       <c r="D201">
-        <v>10410328</v>
+        <v>10432828</v>
       </c>
       <c r="E201" t="s">
         <v>14</v>
@@ -7591,10 +7591,10 @@
         <v>11</v>
       </c>
       <c r="C202">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="D202">
-        <v>1599838</v>
+        <v>1605838</v>
       </c>
       <c r="E202" t="s">
         <v>14</v>
@@ -7623,10 +7623,10 @@
         <v>11</v>
       </c>
       <c r="C203">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D203">
-        <v>339068</v>
+        <v>342068</v>
       </c>
       <c r="E203" t="s">
         <v>14</v>
@@ -7655,10 +7655,10 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D204">
-        <v>504890</v>
+        <v>507890</v>
       </c>
       <c r="E204" t="s">
         <v>14</v>
@@ -7687,10 +7687,10 @@
         <v>11</v>
       </c>
       <c r="C205">
-        <v>23696</v>
+        <v>23745</v>
       </c>
       <c r="D205">
-        <v>30086277</v>
+        <v>30146950</v>
       </c>
       <c r="E205" t="s">
         <v>14</v>
@@ -7719,10 +7719,10 @@
         <v>11</v>
       </c>
       <c r="C206">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D206">
-        <v>29435</v>
+        <v>30535</v>
       </c>
       <c r="E206" t="s">
         <v>14</v>
@@ -7783,10 +7783,10 @@
         <v>11</v>
       </c>
       <c r="C208">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D208">
-        <v>367782</v>
+        <v>370782</v>
       </c>
       <c r="E208" t="s">
         <v>14</v>
@@ -7815,10 +7815,10 @@
         <v>11</v>
       </c>
       <c r="C209">
-        <v>9717</v>
+        <v>9748</v>
       </c>
       <c r="D209">
-        <v>14241745</v>
+        <v>14285615</v>
       </c>
       <c r="E209" t="s">
         <v>14</v>
@@ -7879,10 +7879,10 @@
         <v>11</v>
       </c>
       <c r="C211">
-        <v>2368</v>
+        <v>2379</v>
       </c>
       <c r="D211">
-        <v>3425332</v>
+        <v>3441832</v>
       </c>
       <c r="E211" t="s">
         <v>14</v>
@@ -7975,10 +7975,10 @@
         <v>11</v>
       </c>
       <c r="C214">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="D214">
-        <v>642748</v>
+        <v>654748</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
@@ -8007,10 +8007,10 @@
         <v>11</v>
       </c>
       <c r="C215">
-        <v>25585</v>
+        <v>25650</v>
       </c>
       <c r="D215">
-        <v>32499588</v>
+        <v>32579118</v>
       </c>
       <c r="E215" t="s">
         <v>14</v>
@@ -8135,10 +8135,10 @@
         <v>11</v>
       </c>
       <c r="C219">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D219">
-        <v>271836</v>
+        <v>274136</v>
       </c>
       <c r="E219" t="s">
         <v>14</v>
@@ -8167,10 +8167,10 @@
         <v>11</v>
       </c>
       <c r="C220">
-        <v>13562</v>
+        <v>13590</v>
       </c>
       <c r="D220">
-        <v>19934629</v>
+        <v>19974786</v>
       </c>
       <c r="E220" t="s">
         <v>14</v>
@@ -8231,10 +8231,10 @@
         <v>11</v>
       </c>
       <c r="C222">
-        <v>2358</v>
+        <v>2367</v>
       </c>
       <c r="D222">
-        <v>3384608</v>
+        <v>3398108</v>
       </c>
       <c r="E222" t="s">
         <v>14</v>
@@ -8327,10 +8327,10 @@
         <v>11</v>
       </c>
       <c r="C225">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D225">
-        <v>772219</v>
+        <v>780709</v>
       </c>
       <c r="E225" t="s">
         <v>14</v>
@@ -8359,10 +8359,10 @@
         <v>11</v>
       </c>
       <c r="C226">
-        <v>22029</v>
+        <v>22076</v>
       </c>
       <c r="D226">
-        <v>27958662</v>
+        <v>28019094</v>
       </c>
       <c r="E226" t="s">
         <v>14</v>
@@ -8423,10 +8423,10 @@
         <v>11</v>
       </c>
       <c r="C228">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D228">
-        <v>46482</v>
+        <v>47982</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
@@ -8487,10 +8487,10 @@
         <v>11</v>
       </c>
       <c r="C230">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D230">
-        <v>278512</v>
+        <v>281512</v>
       </c>
       <c r="E230" t="s">
         <v>14</v>
@@ -8519,10 +8519,10 @@
         <v>11</v>
       </c>
       <c r="C231">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D231">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="E231" t="s">
         <v>14</v>
@@ -8551,10 +8551,10 @@
         <v>11</v>
       </c>
       <c r="C232">
-        <v>10308</v>
+        <v>10345</v>
       </c>
       <c r="D232">
-        <v>15131235</v>
+        <v>15184864</v>
       </c>
       <c r="E232" t="s">
         <v>14</v>
@@ -8583,10 +8583,10 @@
         <v>11</v>
       </c>
       <c r="C233">
-        <v>2279</v>
+        <v>2285</v>
       </c>
       <c r="D233">
-        <v>3258249</v>
+        <v>3267249</v>
       </c>
       <c r="E233" t="s">
         <v>14</v>
@@ -8679,10 +8679,10 @@
         <v>11</v>
       </c>
       <c r="C236">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D236">
-        <v>461026</v>
+        <v>468480</v>
       </c>
       <c r="E236" t="s">
         <v>14</v>
@@ -8711,10 +8711,10 @@
         <v>11</v>
       </c>
       <c r="C237">
-        <v>7121</v>
+        <v>7135</v>
       </c>
       <c r="D237">
-        <v>8950892</v>
+        <v>8969466</v>
       </c>
       <c r="E237" t="s">
         <v>15</v>
@@ -8839,10 +8839,10 @@
         <v>11</v>
       </c>
       <c r="C241">
-        <v>2463</v>
+        <v>2468</v>
       </c>
       <c r="D241">
-        <v>3619257</v>
+        <v>3626757</v>
       </c>
       <c r="E241" t="s">
         <v>15</v>
@@ -8903,10 +8903,10 @@
         <v>11</v>
       </c>
       <c r="C243">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="D243">
-        <v>1258968</v>
+        <v>1264968</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -8999,10 +8999,10 @@
         <v>11</v>
       </c>
       <c r="C246">
-        <v>8745</v>
+        <v>8761</v>
       </c>
       <c r="D246">
-        <v>11206250</v>
+        <v>11226074</v>
       </c>
       <c r="E246" t="s">
         <v>15</v>
@@ -9127,10 +9127,10 @@
         <v>11</v>
       </c>
       <c r="C250">
-        <v>3853</v>
+        <v>3861</v>
       </c>
       <c r="D250">
-        <v>5664944</v>
+        <v>5676944</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
@@ -9191,10 +9191,10 @@
         <v>11</v>
       </c>
       <c r="C252">
-        <v>1952</v>
+        <v>1957</v>
       </c>
       <c r="D252">
-        <v>2824394</v>
+        <v>2831894</v>
       </c>
       <c r="E252" t="s">
         <v>15</v>
@@ -9255,10 +9255,10 @@
         <v>11</v>
       </c>
       <c r="C254">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D254">
-        <v>139317</v>
+        <v>142317</v>
       </c>
       <c r="E254" t="s">
         <v>15</v>
@@ -9287,10 +9287,10 @@
         <v>11</v>
       </c>
       <c r="C255">
-        <v>5003</v>
+        <v>5014</v>
       </c>
       <c r="D255">
-        <v>6238107</v>
+        <v>6251673</v>
       </c>
       <c r="E255" t="s">
         <v>15</v>
@@ -9383,10 +9383,10 @@
         <v>11</v>
       </c>
       <c r="C258">
-        <v>1829</v>
+        <v>1838</v>
       </c>
       <c r="D258">
-        <v>2687975</v>
+        <v>2700819</v>
       </c>
       <c r="E258" t="s">
         <v>15</v>
@@ -9447,10 +9447,10 @@
         <v>11</v>
       </c>
       <c r="C260">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D260">
-        <v>929477</v>
+        <v>934587</v>
       </c>
       <c r="E260" t="s">
         <v>15</v>
@@ -9479,10 +9479,10 @@
         <v>11</v>
       </c>
       <c r="C261">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D261">
-        <v>173590</v>
+        <v>174478</v>
       </c>
       <c r="E261" t="s">
         <v>15</v>
@@ -9543,10 +9543,10 @@
         <v>11</v>
       </c>
       <c r="C263">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D263">
-        <v>168376</v>
+        <v>169876</v>
       </c>
       <c r="E263" t="s">
         <v>15</v>
@@ -9575,10 +9575,10 @@
         <v>11</v>
       </c>
       <c r="C264">
-        <v>16586</v>
+        <v>16631</v>
       </c>
       <c r="D264">
-        <v>20998270</v>
+        <v>21050305</v>
       </c>
       <c r="E264" t="s">
         <v>15</v>
@@ -9671,10 +9671,10 @@
         <v>11</v>
       </c>
       <c r="C267">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D267">
-        <v>94445</v>
+        <v>95945</v>
       </c>
       <c r="E267" t="s">
         <v>15</v>
@@ -9703,10 +9703,10 @@
         <v>11</v>
       </c>
       <c r="C268">
-        <v>7266</v>
+        <v>7283</v>
       </c>
       <c r="D268">
-        <v>10661663</v>
+        <v>10685678</v>
       </c>
       <c r="E268" t="s">
         <v>15</v>
@@ -9767,10 +9767,10 @@
         <v>11</v>
       </c>
       <c r="C270">
-        <v>2234</v>
+        <v>2246</v>
       </c>
       <c r="D270">
-        <v>3213939</v>
+        <v>3229451</v>
       </c>
       <c r="E270" t="s">
         <v>15</v>
@@ -9863,10 +9863,10 @@
         <v>11</v>
       </c>
       <c r="C273">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D273">
-        <v>506893</v>
+        <v>510860</v>
       </c>
       <c r="E273" t="s">
         <v>15</v>
@@ -9927,10 +9927,10 @@
         <v>11</v>
       </c>
       <c r="C275">
-        <v>8356</v>
+        <v>8377</v>
       </c>
       <c r="D275">
-        <v>10542791</v>
+        <v>10571175</v>
       </c>
       <c r="E275" t="s">
         <v>15</v>
@@ -10055,10 +10055,10 @@
         <v>11</v>
       </c>
       <c r="C279">
-        <v>3581</v>
+        <v>3601</v>
       </c>
       <c r="D279">
-        <v>5246371</v>
+        <v>5274506</v>
       </c>
       <c r="E279" t="s">
         <v>15</v>
@@ -10087,10 +10087,10 @@
         <v>11</v>
       </c>
       <c r="C280">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="D280">
-        <v>1612956</v>
+        <v>1617456</v>
       </c>
       <c r="E280" t="s">
         <v>15</v>
@@ -10119,10 +10119,10 @@
         <v>11</v>
       </c>
       <c r="C281">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D281">
-        <v>282989</v>
+        <v>284489</v>
       </c>
       <c r="E281" t="s">
         <v>15</v>
@@ -10183,10 +10183,10 @@
         <v>11</v>
       </c>
       <c r="C283">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D283">
-        <v>232016</v>
+        <v>233516</v>
       </c>
       <c r="E283" t="s">
         <v>15</v>
@@ -10215,10 +10215,10 @@
         <v>11</v>
       </c>
       <c r="C284">
-        <v>14584</v>
+        <v>14618</v>
       </c>
       <c r="D284">
-        <v>18113286</v>
+        <v>18156339</v>
       </c>
       <c r="E284" t="s">
         <v>15</v>
@@ -10311,10 +10311,10 @@
         <v>11</v>
       </c>
       <c r="C287">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D287">
-        <v>115478</v>
+        <v>116978</v>
       </c>
       <c r="E287" t="s">
         <v>15</v>
@@ -10343,10 +10343,10 @@
         <v>11</v>
       </c>
       <c r="C288">
-        <v>6571</v>
+        <v>6593</v>
       </c>
       <c r="D288">
-        <v>9655580</v>
+        <v>9686591</v>
       </c>
       <c r="E288" t="s">
         <v>15</v>
@@ -10375,10 +10375,10 @@
         <v>11</v>
       </c>
       <c r="C289">
-        <v>2997</v>
+        <v>3008</v>
       </c>
       <c r="D289">
-        <v>4349181</v>
+        <v>4365581</v>
       </c>
       <c r="E289" t="s">
         <v>15</v>
@@ -10471,10 +10471,10 @@
         <v>11</v>
       </c>
       <c r="C292">
-        <v>7985</v>
+        <v>8046</v>
       </c>
       <c r="D292">
-        <v>10421111</v>
+        <v>10501429</v>
       </c>
       <c r="E292" t="s">
         <v>16</v>
@@ -10599,10 +10599,10 @@
         <v>11</v>
       </c>
       <c r="C296">
-        <v>3196</v>
+        <v>3212</v>
       </c>
       <c r="D296">
-        <v>4669603</v>
+        <v>4693603</v>
       </c>
       <c r="E296" t="s">
         <v>16</v>
@@ -10631,10 +10631,10 @@
         <v>11</v>
       </c>
       <c r="C297">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="D297">
-        <v>2916938</v>
+        <v>2930273</v>
       </c>
       <c r="E297" t="s">
         <v>16</v>
@@ -10663,10 +10663,10 @@
         <v>11</v>
       </c>
       <c r="C298">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D298">
-        <v>275218</v>
+        <v>276718</v>
       </c>
       <c r="E298" t="s">
         <v>16</v>
@@ -10695,10 +10695,10 @@
         <v>11</v>
       </c>
       <c r="C299">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D299">
-        <v>123727</v>
+        <v>128227</v>
       </c>
       <c r="E299" t="s">
         <v>16</v>
@@ -10727,10 +10727,10 @@
         <v>11</v>
       </c>
       <c r="C300">
-        <v>9708</v>
+        <v>9730</v>
       </c>
       <c r="D300">
-        <v>12742857</v>
+        <v>12769007</v>
       </c>
       <c r="E300" t="s">
         <v>16</v>
@@ -10855,10 +10855,10 @@
         <v>11</v>
       </c>
       <c r="C304">
-        <v>3245</v>
+        <v>3253</v>
       </c>
       <c r="D304">
-        <v>4756048</v>
+        <v>4766389</v>
       </c>
       <c r="E304" t="s">
         <v>16</v>
@@ -10887,10 +10887,10 @@
         <v>11</v>
       </c>
       <c r="C305">
-        <v>2385</v>
+        <v>2394</v>
       </c>
       <c r="D305">
-        <v>3462873</v>
+        <v>3475437</v>
       </c>
       <c r="E305" t="s">
         <v>16</v>
@@ -10951,10 +10951,10 @@
         <v>11</v>
       </c>
       <c r="C307">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D307">
-        <v>175329</v>
+        <v>179829</v>
       </c>
       <c r="E307" t="s">
         <v>16</v>
@@ -10983,10 +10983,10 @@
         <v>11</v>
       </c>
       <c r="C308">
-        <v>6213</v>
+        <v>6232</v>
       </c>
       <c r="D308">
-        <v>7741342</v>
+        <v>7765315</v>
       </c>
       <c r="E308" t="s">
         <v>17</v>
@@ -11111,10 +11111,10 @@
         <v>11</v>
       </c>
       <c r="C312">
-        <v>2113</v>
+        <v>2118</v>
       </c>
       <c r="D312">
-        <v>3102692</v>
+        <v>3109590</v>
       </c>
       <c r="E312" t="s">
         <v>17</v>
@@ -11175,10 +11175,10 @@
         <v>11</v>
       </c>
       <c r="C314">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="D314">
-        <v>1002856</v>
+        <v>1011856</v>
       </c>
       <c r="E314" t="s">
         <v>17</v>
@@ -11239,10 +11239,10 @@
         <v>11</v>
       </c>
       <c r="C316">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D316">
-        <v>120356</v>
+        <v>121856</v>
       </c>
       <c r="E316" t="s">
         <v>17</v>
@@ -11271,10 +11271,10 @@
         <v>11</v>
       </c>
       <c r="C317">
-        <v>6751</v>
+        <v>6766</v>
       </c>
       <c r="D317">
-        <v>8497902</v>
+        <v>8515634</v>
       </c>
       <c r="E317" t="s">
         <v>17</v>
@@ -11399,10 +11399,10 @@
         <v>11</v>
       </c>
       <c r="C321">
-        <v>2826</v>
+        <v>2844</v>
       </c>
       <c r="D321">
-        <v>4135696</v>
+        <v>4161649</v>
       </c>
       <c r="E321" t="s">
         <v>17</v>
@@ -11431,10 +11431,10 @@
         <v>11</v>
       </c>
       <c r="C322">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="D322">
-        <v>1646506</v>
+        <v>1652506</v>
       </c>
       <c r="E322" t="s">
         <v>17</v>
@@ -11495,10 +11495,10 @@
         <v>11</v>
       </c>
       <c r="C324">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D324">
-        <v>137771</v>
+        <v>139271</v>
       </c>
       <c r="E324" t="s">
         <v>17</v>
@@ -11527,10 +11527,10 @@
         <v>11</v>
       </c>
       <c r="C325">
-        <v>28034</v>
+        <v>28136</v>
       </c>
       <c r="D325">
-        <v>35409512</v>
+        <v>35525476</v>
       </c>
       <c r="E325" t="s">
         <v>17</v>
@@ -11623,10 +11623,10 @@
         <v>11</v>
       </c>
       <c r="C328">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D328">
-        <v>25500</v>
+        <v>27000</v>
       </c>
       <c r="E328" t="s">
         <v>17</v>
@@ -11719,10 +11719,10 @@
         <v>11</v>
       </c>
       <c r="C331">
-        <v>14919</v>
+        <v>14987</v>
       </c>
       <c r="D331">
-        <v>21864210</v>
+        <v>21960766</v>
       </c>
       <c r="E331" t="s">
         <v>17</v>
@@ -11751,10 +11751,10 @@
         <v>11</v>
       </c>
       <c r="C332">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D332">
-        <v>30082</v>
+        <v>31582</v>
       </c>
       <c r="E332" t="s">
         <v>17</v>
@@ -11815,10 +11815,10 @@
         <v>11</v>
       </c>
       <c r="C334">
-        <v>7135</v>
+        <v>7166</v>
       </c>
       <c r="D334">
-        <v>10301300</v>
+        <v>10346958</v>
       </c>
       <c r="E334" t="s">
         <v>17</v>
@@ -11847,10 +11847,10 @@
         <v>11</v>
       </c>
       <c r="C335">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D335">
-        <v>785092</v>
+        <v>788092</v>
       </c>
       <c r="E335" t="s">
         <v>17</v>
@@ -11879,10 +11879,10 @@
         <v>11</v>
       </c>
       <c r="C336">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="D336">
-        <v>806530</v>
+        <v>821307</v>
       </c>
       <c r="E336" t="s">
         <v>17</v>
@@ -11911,10 +11911,10 @@
         <v>11</v>
       </c>
       <c r="C337">
-        <v>17282</v>
+        <v>17331</v>
       </c>
       <c r="D337">
-        <v>21574734</v>
+        <v>21635318</v>
       </c>
       <c r="E337" t="s">
         <v>17</v>
@@ -12039,10 +12039,10 @@
         <v>11</v>
       </c>
       <c r="C341">
-        <v>8964</v>
+        <v>8987</v>
       </c>
       <c r="D341">
-        <v>13176191</v>
+        <v>13210161</v>
       </c>
       <c r="E341" t="s">
         <v>17</v>
@@ -12103,10 +12103,10 @@
         <v>11</v>
       </c>
       <c r="C343">
-        <v>4211</v>
+        <v>4226</v>
       </c>
       <c r="D343">
-        <v>6106060</v>
+        <v>6127020</v>
       </c>
       <c r="E343" t="s">
         <v>17</v>
@@ -12167,10 +12167,10 @@
         <v>11</v>
       </c>
       <c r="C345">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D345">
-        <v>371536</v>
+        <v>374536</v>
       </c>
       <c r="E345" t="s">
         <v>17</v>
@@ -12199,10 +12199,10 @@
         <v>11</v>
       </c>
       <c r="C346">
-        <v>3506</v>
+        <v>3514</v>
       </c>
       <c r="D346">
-        <v>4386831</v>
+        <v>4398033</v>
       </c>
       <c r="E346" t="s">
         <v>17</v>
@@ -12295,10 +12295,10 @@
         <v>11</v>
       </c>
       <c r="C349">
-        <v>1378</v>
+        <v>1389</v>
       </c>
       <c r="D349">
-        <v>2030961</v>
+        <v>2046632</v>
       </c>
       <c r="E349" t="s">
         <v>17</v>
@@ -12327,10 +12327,10 @@
         <v>11</v>
       </c>
       <c r="C350">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D350">
-        <v>783385</v>
+        <v>790885</v>
       </c>
       <c r="E350" t="s">
         <v>17</v>
@@ -12423,10 +12423,10 @@
         <v>11</v>
       </c>
       <c r="C353">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D353">
-        <v>104088</v>
+        <v>105588</v>
       </c>
       <c r="E353" t="s">
         <v>17</v>
@@ -12455,10 +12455,10 @@
         <v>11</v>
       </c>
       <c r="C354">
-        <v>12146</v>
+        <v>12193</v>
       </c>
       <c r="D354">
-        <v>15219732</v>
+        <v>15271666</v>
       </c>
       <c r="E354" t="s">
         <v>17</v>
@@ -12583,10 +12583,10 @@
         <v>11</v>
       </c>
       <c r="C358">
-        <v>5858</v>
+        <v>5870</v>
       </c>
       <c r="D358">
-        <v>8587033</v>
+        <v>8603696</v>
       </c>
       <c r="E358" t="s">
         <v>17</v>
@@ -12647,10 +12647,10 @@
         <v>11</v>
       </c>
       <c r="C360">
-        <v>2195</v>
+        <v>2207</v>
       </c>
       <c r="D360">
-        <v>3154156</v>
+        <v>3170923</v>
       </c>
       <c r="E360" t="s">
         <v>17</v>
@@ -12679,10 +12679,10 @@
         <v>11</v>
       </c>
       <c r="C361">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="D361">
-        <v>827075</v>
+        <v>842075</v>
       </c>
       <c r="E361" t="s">
         <v>17</v>
@@ -12711,10 +12711,10 @@
         <v>11</v>
       </c>
       <c r="C362">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D362">
-        <v>263736</v>
+        <v>269316</v>
       </c>
       <c r="E362" t="s">
         <v>17</v>
@@ -12743,10 +12743,10 @@
         <v>11</v>
       </c>
       <c r="C363">
-        <v>15862</v>
+        <v>15927</v>
       </c>
       <c r="D363">
-        <v>19826210</v>
+        <v>19900789</v>
       </c>
       <c r="E363" t="s">
         <v>17</v>
@@ -12839,10 +12839,10 @@
         <v>11</v>
       </c>
       <c r="C366">
-        <v>6607</v>
+        <v>6622</v>
       </c>
       <c r="D366">
-        <v>9729803</v>
+        <v>9752303</v>
       </c>
       <c r="E366" t="s">
         <v>17</v>
@@ -12903,10 +12903,10 @@
         <v>11</v>
       </c>
       <c r="C368">
-        <v>2547</v>
+        <v>2559</v>
       </c>
       <c r="D368">
-        <v>3704600</v>
+        <v>3722374</v>
       </c>
       <c r="E368" t="s">
         <v>17</v>
@@ -12967,10 +12967,10 @@
         <v>11</v>
       </c>
       <c r="C370">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D370">
-        <v>180896</v>
+        <v>182286</v>
       </c>
       <c r="E370" t="s">
         <v>17</v>
@@ -12999,10 +12999,10 @@
         <v>11</v>
       </c>
       <c r="C371">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D371">
-        <v>418737</v>
+        <v>424412</v>
       </c>
       <c r="E371" t="s">
         <v>17</v>
@@ -13031,10 +13031,10 @@
         <v>11</v>
       </c>
       <c r="C372">
-        <v>3732</v>
+        <v>3743</v>
       </c>
       <c r="D372">
-        <v>4694127</v>
+        <v>4708182</v>
       </c>
       <c r="E372" t="s">
         <v>17</v>
@@ -13127,10 +13127,10 @@
         <v>11</v>
       </c>
       <c r="C375">
-        <v>1269</v>
+        <v>1274</v>
       </c>
       <c r="D375">
-        <v>1860180</v>
+        <v>1867680</v>
       </c>
       <c r="E375" t="s">
         <v>17</v>
@@ -13159,10 +13159,10 @@
         <v>11</v>
       </c>
       <c r="C376">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D376">
-        <v>757975</v>
+        <v>760975</v>
       </c>
       <c r="E376" t="s">
         <v>17</v>
@@ -13255,10 +13255,10 @@
         <v>11</v>
       </c>
       <c r="C379">
-        <v>20001</v>
+        <v>20063</v>
       </c>
       <c r="D379">
-        <v>24953574</v>
+        <v>25031804</v>
       </c>
       <c r="E379" t="s">
         <v>17</v>
@@ -13351,10 +13351,10 @@
         <v>11</v>
       </c>
       <c r="C382">
-        <v>8592</v>
+        <v>8632</v>
       </c>
       <c r="D382">
-        <v>12661460</v>
+        <v>12719480</v>
       </c>
       <c r="E382" t="s">
         <v>17</v>
@@ -13383,10 +13383,10 @@
         <v>11</v>
       </c>
       <c r="C383">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D383">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="E383" t="s">
         <v>17</v>
@@ -13415,10 +13415,10 @@
         <v>11</v>
       </c>
       <c r="C384">
-        <v>5636</v>
+        <v>5664</v>
       </c>
       <c r="D384">
-        <v>8190792</v>
+        <v>8231736</v>
       </c>
       <c r="E384" t="s">
         <v>17</v>
@@ -13479,10 +13479,10 @@
         <v>11</v>
       </c>
       <c r="C386">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D386">
-        <v>375041</v>
+        <v>376541</v>
       </c>
       <c r="E386" t="s">
         <v>17</v>
@@ -13511,10 +13511,10 @@
         <v>11</v>
       </c>
       <c r="C387">
-        <v>9997</v>
+        <v>10015</v>
       </c>
       <c r="D387">
-        <v>12376648</v>
+        <v>12400734</v>
       </c>
       <c r="E387" t="s">
         <v>17</v>
@@ -13607,10 +13607,10 @@
         <v>11</v>
       </c>
       <c r="C390">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D390">
-        <v>55097</v>
+        <v>56597</v>
       </c>
       <c r="E390" t="s">
         <v>17</v>
@@ -13671,10 +13671,10 @@
         <v>11</v>
       </c>
       <c r="C392">
-        <v>4905</v>
+        <v>4930</v>
       </c>
       <c r="D392">
-        <v>7177138</v>
+        <v>7213652</v>
       </c>
       <c r="E392" t="s">
         <v>17</v>
@@ -13735,10 +13735,10 @@
         <v>11</v>
       </c>
       <c r="C394">
-        <v>1661</v>
+        <v>1674</v>
       </c>
       <c r="D394">
-        <v>2415428</v>
+        <v>2434928</v>
       </c>
       <c r="E394" t="s">
         <v>17</v>
@@ -13799,10 +13799,10 @@
         <v>11</v>
       </c>
       <c r="C396">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D396">
-        <v>231831</v>
+        <v>234831</v>
       </c>
       <c r="E396" t="s">
         <v>17</v>
@@ -13831,10 +13831,10 @@
         <v>11</v>
       </c>
       <c r="C397">
-        <v>23612</v>
+        <v>23784</v>
       </c>
       <c r="D397">
-        <v>32069750</v>
+        <v>32297817</v>
       </c>
       <c r="E397" t="s">
         <v>18</v>
@@ -13959,10 +13959,10 @@
         <v>11</v>
       </c>
       <c r="C401">
-        <v>6328</v>
+        <v>6356</v>
       </c>
       <c r="D401">
-        <v>9329839</v>
+        <v>9368176</v>
       </c>
       <c r="E401" t="s">
         <v>18</v>
@@ -14023,10 +14023,10 @@
         <v>11</v>
       </c>
       <c r="C403">
-        <v>5483</v>
+        <v>5523</v>
       </c>
       <c r="D403">
-        <v>7947196</v>
+        <v>8006034</v>
       </c>
       <c r="E403" t="s">
         <v>18</v>
@@ -14087,10 +14087,10 @@
         <v>11</v>
       </c>
       <c r="C405">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D405">
-        <v>542159</v>
+        <v>545809</v>
       </c>
       <c r="E405" t="s">
         <v>18</v>
@@ -14119,10 +14119,10 @@
         <v>11</v>
       </c>
       <c r="C406">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D406">
-        <v>461161</v>
+        <v>464161</v>
       </c>
       <c r="E406" t="s">
         <v>18</v>
@@ -14151,10 +14151,10 @@
         <v>11</v>
       </c>
       <c r="C407">
-        <v>5345</v>
+        <v>5394</v>
       </c>
       <c r="D407">
-        <v>7403181</v>
+        <v>7473286</v>
       </c>
       <c r="E407" t="s">
         <v>19</v>
@@ -14215,10 +14215,10 @@
         <v>11</v>
       </c>
       <c r="C409">
-        <v>1358</v>
+        <v>1368</v>
       </c>
       <c r="D409">
-        <v>1999062</v>
+        <v>2014062</v>
       </c>
       <c r="E409" t="s">
         <v>19</v>
@@ -14279,10 +14279,10 @@
         <v>11</v>
       </c>
       <c r="C411">
-        <v>1859</v>
+        <v>1871</v>
       </c>
       <c r="D411">
-        <v>2712626</v>
+        <v>2730601</v>
       </c>
       <c r="E411" t="s">
         <v>19</v>
@@ -14343,10 +14343,10 @@
         <v>11</v>
       </c>
       <c r="C413">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D413">
-        <v>91520</v>
+        <v>93020</v>
       </c>
       <c r="E413" t="s">
         <v>19</v>
@@ -14375,10 +14375,10 @@
         <v>11</v>
       </c>
       <c r="C414">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D414">
-        <v>128412</v>
+        <v>133789</v>
       </c>
       <c r="E414" t="s">
         <v>19</v>
@@ -14407,10 +14407,10 @@
         <v>11</v>
       </c>
       <c r="C415">
-        <v>9995</v>
+        <v>10010</v>
       </c>
       <c r="D415">
-        <v>12387528</v>
+        <v>12401316</v>
       </c>
       <c r="E415" t="s">
         <v>20</v>
@@ -14503,10 +14503,10 @@
         <v>11</v>
       </c>
       <c r="C418">
-        <v>3489</v>
+        <v>3498</v>
       </c>
       <c r="D418">
-        <v>5124127</v>
+        <v>5137627</v>
       </c>
       <c r="E418" t="s">
         <v>20</v>
@@ -14567,10 +14567,10 @@
         <v>11</v>
       </c>
       <c r="C420">
-        <v>1665</v>
+        <v>1670</v>
       </c>
       <c r="D420">
-        <v>2399799</v>
+        <v>2407299</v>
       </c>
       <c r="E420" t="s">
         <v>20</v>
@@ -14631,10 +14631,10 @@
         <v>11</v>
       </c>
       <c r="C422">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D422">
-        <v>169441</v>
+        <v>170941</v>
       </c>
       <c r="E422" t="s">
         <v>20</v>
@@ -14663,10 +14663,10 @@
         <v>11</v>
       </c>
       <c r="C423">
-        <v>55635</v>
+        <v>55759</v>
       </c>
       <c r="D423">
-        <v>69122955</v>
+        <v>69277164</v>
       </c>
       <c r="E423" t="s">
         <v>20</v>
@@ -14759,10 +14759,10 @@
         <v>11</v>
       </c>
       <c r="C426">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D426">
-        <v>397696</v>
+        <v>405196</v>
       </c>
       <c r="E426" t="s">
         <v>20</v>
@@ -14791,10 +14791,10 @@
         <v>11</v>
       </c>
       <c r="C427">
-        <v>22923</v>
+        <v>22992</v>
       </c>
       <c r="D427">
-        <v>33630720</v>
+        <v>33733065</v>
       </c>
       <c r="E427" t="s">
         <v>20</v>
@@ -14823,10 +14823,10 @@
         <v>11</v>
       </c>
       <c r="C428">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D428">
-        <v>64500</v>
+        <v>66000</v>
       </c>
       <c r="E428" t="s">
         <v>20</v>
@@ -14855,10 +14855,10 @@
         <v>11</v>
       </c>
       <c r="C429">
-        <v>11458</v>
+        <v>11503</v>
       </c>
       <c r="D429">
-        <v>16618595</v>
+        <v>16683080</v>
       </c>
       <c r="E429" t="s">
         <v>20</v>
@@ -14887,10 +14887,10 @@
         <v>11</v>
       </c>
       <c r="C430">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D430">
-        <v>545827</v>
+        <v>551034</v>
       </c>
       <c r="E430" t="s">
         <v>20</v>
@@ -14983,10 +14983,10 @@
         <v>11</v>
       </c>
       <c r="C433">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="D433">
-        <v>1108660</v>
+        <v>1117650</v>
       </c>
       <c r="E433" t="s">
         <v>20</v>
@@ -15047,10 +15047,10 @@
         <v>11</v>
       </c>
       <c r="C435">
-        <v>16932</v>
+        <v>16969</v>
       </c>
       <c r="D435">
-        <v>21390265</v>
+        <v>21436103</v>
       </c>
       <c r="E435" t="s">
         <v>20</v>
@@ -15143,10 +15143,10 @@
         <v>11</v>
       </c>
       <c r="C438">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D438">
-        <v>204976</v>
+        <v>206476</v>
       </c>
       <c r="E438" t="s">
         <v>20</v>
@@ -15175,10 +15175,10 @@
         <v>11</v>
       </c>
       <c r="C439">
-        <v>7041</v>
+        <v>7060</v>
       </c>
       <c r="D439">
-        <v>10357624</v>
+        <v>10386124</v>
       </c>
       <c r="E439" t="s">
         <v>20</v>
@@ -15239,10 +15239,10 @@
         <v>11</v>
       </c>
       <c r="C441">
-        <v>4281</v>
+        <v>4291</v>
       </c>
       <c r="D441">
-        <v>6216875</v>
+        <v>6231875</v>
       </c>
       <c r="E441" t="s">
         <v>20</v>
@@ -15335,10 +15335,10 @@
         <v>11</v>
       </c>
       <c r="C444">
-        <v>29457</v>
+        <v>29508</v>
       </c>
       <c r="D444">
-        <v>36144872</v>
+        <v>36206292</v>
       </c>
       <c r="E444" t="s">
         <v>20</v>
@@ -15463,10 +15463,10 @@
         <v>11</v>
       </c>
       <c r="C448">
-        <v>10609</v>
+        <v>10633</v>
       </c>
       <c r="D448">
-        <v>15550551</v>
+        <v>15585922</v>
       </c>
       <c r="E448" t="s">
         <v>20</v>
@@ -15527,10 +15527,10 @@
         <v>11</v>
       </c>
       <c r="C450">
-        <v>4488</v>
+        <v>4499</v>
       </c>
       <c r="D450">
-        <v>6517550</v>
+        <v>6533070</v>
       </c>
       <c r="E450" t="s">
         <v>20</v>
@@ -15559,10 +15559,10 @@
         <v>11</v>
       </c>
       <c r="C451">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D451">
-        <v>423154</v>
+        <v>424654</v>
       </c>
       <c r="E451" t="s">
         <v>20</v>
@@ -15591,10 +15591,10 @@
         <v>11</v>
       </c>
       <c r="C452">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D452">
-        <v>451730</v>
+        <v>456230</v>
       </c>
       <c r="E452" t="s">
         <v>20</v>
@@ -15623,10 +15623,10 @@
         <v>11</v>
       </c>
       <c r="C453">
-        <v>12855</v>
+        <v>12882</v>
       </c>
       <c r="D453">
-        <v>15800904</v>
+        <v>15832362</v>
       </c>
       <c r="E453" t="s">
         <v>20</v>
@@ -15719,10 +15719,10 @@
         <v>11</v>
       </c>
       <c r="C456">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D456">
-        <v>148393</v>
+        <v>149893</v>
       </c>
       <c r="E456" t="s">
         <v>20</v>
@@ -15783,10 +15783,10 @@
         <v>11</v>
       </c>
       <c r="C458">
-        <v>4051</v>
+        <v>4067</v>
       </c>
       <c r="D458">
-        <v>5959919</v>
+        <v>5983919</v>
       </c>
       <c r="E458" t="s">
         <v>20</v>
@@ -15847,10 +15847,10 @@
         <v>11</v>
       </c>
       <c r="C460">
-        <v>1847</v>
+        <v>1856</v>
       </c>
       <c r="D460">
-        <v>2667987</v>
+        <v>2678611</v>
       </c>
       <c r="E460" t="s">
         <v>20</v>
@@ -15879,10 +15879,10 @@
         <v>11</v>
       </c>
       <c r="C461">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D461">
-        <v>175232</v>
+        <v>176937</v>
       </c>
       <c r="E461" t="s">
         <v>20</v>
@@ -15911,10 +15911,10 @@
         <v>11</v>
       </c>
       <c r="C462">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D462">
-        <v>349701</v>
+        <v>353733</v>
       </c>
       <c r="E462" t="s">
         <v>20</v>
@@ -15943,10 +15943,10 @@
         <v>11</v>
       </c>
       <c r="C463">
-        <v>37300</v>
+        <v>37421</v>
       </c>
       <c r="D463">
-        <v>50054497</v>
+        <v>50207259</v>
       </c>
       <c r="E463" t="s">
         <v>21</v>
@@ -15975,10 +15975,10 @@
         <v>11</v>
       </c>
       <c r="C464">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D464">
-        <v>31153</v>
+        <v>32653</v>
       </c>
       <c r="E464" t="s">
         <v>21</v>
@@ -16135,10 +16135,10 @@
         <v>11</v>
       </c>
       <c r="C469">
-        <v>12397</v>
+        <v>12429</v>
       </c>
       <c r="D469">
-        <v>18225420</v>
+        <v>18273127</v>
       </c>
       <c r="E469" t="s">
         <v>21</v>
@@ -16167,10 +16167,10 @@
         <v>11</v>
       </c>
       <c r="C470">
-        <v>3239</v>
+        <v>3247</v>
       </c>
       <c r="D470">
-        <v>4677466</v>
+        <v>4688941</v>
       </c>
       <c r="E470" t="s">
         <v>21</v>
@@ -16263,10 +16263,10 @@
         <v>11</v>
       </c>
       <c r="C473">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D473">
-        <v>470536</v>
+        <v>472036</v>
       </c>
       <c r="E473" t="s">
         <v>21</v>
@@ -16327,10 +16327,10 @@
         <v>11</v>
       </c>
       <c r="C475">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D475">
-        <v>408690</v>
+        <v>413190</v>
       </c>
       <c r="E475" t="s">
         <v>21</v>
@@ -16359,10 +16359,10 @@
         <v>11</v>
       </c>
       <c r="C476">
-        <v>14080</v>
+        <v>14150</v>
       </c>
       <c r="D476">
-        <v>18686782</v>
+        <v>18777683</v>
       </c>
       <c r="E476" t="s">
         <v>22</v>
@@ -16487,10 +16487,10 @@
         <v>11</v>
       </c>
       <c r="C480">
-        <v>6039</v>
+        <v>6071</v>
       </c>
       <c r="D480">
-        <v>8800752</v>
+        <v>8848752</v>
       </c>
       <c r="E480" t="s">
         <v>22</v>
@@ -16551,10 +16551,10 @@
         <v>11</v>
       </c>
       <c r="C482">
-        <v>3999</v>
+        <v>4020</v>
       </c>
       <c r="D482">
-        <v>5772169</v>
+        <v>5799615</v>
       </c>
       <c r="E482" t="s">
         <v>22</v>
@@ -16615,10 +16615,10 @@
         <v>11</v>
       </c>
       <c r="C484">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D484">
-        <v>287933</v>
+        <v>289433</v>
       </c>
       <c r="E484" t="s">
         <v>22</v>
@@ -16647,10 +16647,10 @@
         <v>11</v>
       </c>
       <c r="C485">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D485">
-        <v>243164</v>
+        <v>250664</v>
       </c>
       <c r="E485" t="s">
         <v>22</v>
@@ -16711,10 +16711,10 @@
         <v>11</v>
       </c>
       <c r="C487">
-        <v>8745</v>
+        <v>8872</v>
       </c>
       <c r="D487">
-        <v>12619681</v>
+        <v>12805026</v>
       </c>
       <c r="E487" t="s">
         <v>23</v>
@@ -16743,10 +16743,10 @@
         <v>11</v>
       </c>
       <c r="C488">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="D488">
-        <v>1940578</v>
+        <v>1945078</v>
       </c>
       <c r="E488" t="s">
         <v>23</v>
@@ -16775,10 +16775,10 @@
         <v>11</v>
       </c>
       <c r="C489">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D489">
-        <v>261171</v>
+        <v>265671</v>
       </c>
       <c r="E489" t="s">
         <v>23</v>
@@ -16807,10 +16807,10 @@
         <v>11</v>
       </c>
       <c r="C490">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D490">
-        <v>37190</v>
+        <v>38690</v>
       </c>
       <c r="E490" t="s">
         <v>23</v>
@@ -16871,10 +16871,10 @@
         <v>11</v>
       </c>
       <c r="C492">
-        <v>19527</v>
+        <v>19584</v>
       </c>
       <c r="D492">
-        <v>24597963</v>
+        <v>24666146</v>
       </c>
       <c r="E492" t="s">
         <v>24</v>
@@ -16999,10 +16999,10 @@
         <v>11</v>
       </c>
       <c r="C496">
-        <v>8297</v>
+        <v>8312</v>
       </c>
       <c r="D496">
-        <v>12174834</v>
+        <v>12197334</v>
       </c>
       <c r="E496" t="s">
         <v>24</v>
@@ -17063,10 +17063,10 @@
         <v>11</v>
       </c>
       <c r="C498">
-        <v>2964</v>
+        <v>2977</v>
       </c>
       <c r="D498">
-        <v>4263803</v>
+        <v>4283303</v>
       </c>
       <c r="E498" t="s">
         <v>24</v>
@@ -17127,10 +17127,10 @@
         <v>11</v>
       </c>
       <c r="C500">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D500">
-        <v>482336</v>
+        <v>485336</v>
       </c>
       <c r="E500" t="s">
         <v>24</v>
@@ -17191,10 +17191,10 @@
         <v>11</v>
       </c>
       <c r="C502">
-        <v>13112</v>
+        <v>13140</v>
       </c>
       <c r="D502">
-        <v>16494410</v>
+        <v>16530042</v>
       </c>
       <c r="E502" t="s">
         <v>24</v>
@@ -17287,10 +17287,10 @@
         <v>11</v>
       </c>
       <c r="C505">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D505">
-        <v>117938</v>
+        <v>119438</v>
       </c>
       <c r="E505" t="s">
         <v>24</v>
@@ -17319,10 +17319,10 @@
         <v>11</v>
       </c>
       <c r="C506">
-        <v>5357</v>
+        <v>5379</v>
       </c>
       <c r="D506">
-        <v>7874129</v>
+        <v>7904747</v>
       </c>
       <c r="E506" t="s">
         <v>24</v>
@@ -17383,10 +17383,10 @@
         <v>11</v>
       </c>
       <c r="C508">
-        <v>2414</v>
+        <v>2425</v>
       </c>
       <c r="D508">
-        <v>3483642</v>
+        <v>3499884</v>
       </c>
       <c r="E508" t="s">
         <v>24</v>
@@ -17479,10 +17479,10 @@
         <v>11</v>
       </c>
       <c r="C511">
-        <v>12493</v>
+        <v>12534</v>
       </c>
       <c r="D511">
-        <v>15897862</v>
+        <v>15947356</v>
       </c>
       <c r="E511" t="s">
         <v>24</v>
@@ -17575,10 +17575,10 @@
         <v>11</v>
       </c>
       <c r="C514">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D514">
-        <v>214883</v>
+        <v>216383</v>
       </c>
       <c r="E514" t="s">
         <v>24</v>
@@ -17607,10 +17607,10 @@
         <v>11</v>
       </c>
       <c r="C515">
-        <v>4797</v>
+        <v>4821</v>
       </c>
       <c r="D515">
-        <v>7041369</v>
+        <v>7074036</v>
       </c>
       <c r="E515" t="s">
         <v>24</v>
@@ -17639,10 +17639,10 @@
         <v>11</v>
       </c>
       <c r="C516">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="D516">
-        <v>1496279</v>
+        <v>1500779</v>
       </c>
       <c r="E516" t="s">
         <v>24</v>
@@ -17735,10 +17735,10 @@
         <v>11</v>
       </c>
       <c r="C519">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D519">
-        <v>293990</v>
+        <v>296990</v>
       </c>
       <c r="E519" t="s">
         <v>24</v>
@@ -17767,10 +17767,10 @@
         <v>11</v>
       </c>
       <c r="C520">
-        <v>6751</v>
+        <v>6773</v>
       </c>
       <c r="D520">
-        <v>8725634</v>
+        <v>8752755</v>
       </c>
       <c r="E520" t="s">
         <v>24</v>
@@ -17927,10 +17927,10 @@
         <v>11</v>
       </c>
       <c r="C525">
-        <v>2341</v>
+        <v>2350</v>
       </c>
       <c r="D525">
-        <v>3437531</v>
+        <v>3451031</v>
       </c>
       <c r="E525" t="s">
         <v>24</v>
@@ -17959,10 +17959,10 @@
         <v>11</v>
       </c>
       <c r="C526">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="D526">
-        <v>1101914</v>
+        <v>1109001</v>
       </c>
       <c r="E526" t="s">
         <v>24</v>
@@ -18055,10 +18055,10 @@
         <v>11</v>
       </c>
       <c r="C529">
-        <v>25533</v>
+        <v>25589</v>
       </c>
       <c r="D529">
-        <v>31552735</v>
+        <v>31617135</v>
       </c>
       <c r="E529" t="s">
         <v>24</v>
@@ -18151,10 +18151,10 @@
         <v>11</v>
       </c>
       <c r="C532">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D532">
-        <v>204797</v>
+        <v>206297</v>
       </c>
       <c r="E532" t="s">
         <v>24</v>
@@ -18183,10 +18183,10 @@
         <v>11</v>
       </c>
       <c r="C533">
-        <v>10159</v>
+        <v>10202</v>
       </c>
       <c r="D533">
-        <v>14916751</v>
+        <v>14979452</v>
       </c>
       <c r="E533" t="s">
         <v>24</v>
@@ -18247,10 +18247,10 @@
         <v>11</v>
       </c>
       <c r="C535">
-        <v>4290</v>
+        <v>4301</v>
       </c>
       <c r="D535">
-        <v>6228125</v>
+        <v>6244625</v>
       </c>
       <c r="E535" t="s">
         <v>24</v>
@@ -18311,10 +18311,10 @@
         <v>11</v>
       </c>
       <c r="C537">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D537">
-        <v>316568</v>
+        <v>318068</v>
       </c>
       <c r="E537" t="s">
         <v>24</v>
@@ -18343,10 +18343,10 @@
         <v>11</v>
       </c>
       <c r="C538">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D538">
-        <v>637519</v>
+        <v>639019</v>
       </c>
       <c r="E538" t="s">
         <v>24</v>
@@ -18375,10 +18375,10 @@
         <v>11</v>
       </c>
       <c r="C539">
-        <v>10226</v>
+        <v>10248</v>
       </c>
       <c r="D539">
-        <v>12513008</v>
+        <v>12538681</v>
       </c>
       <c r="E539" t="s">
         <v>25</v>
@@ -18535,10 +18535,10 @@
         <v>11</v>
       </c>
       <c r="C544">
-        <v>3389</v>
+        <v>3399</v>
       </c>
       <c r="D544">
-        <v>4966178</v>
+        <v>4979865</v>
       </c>
       <c r="E544" t="s">
         <v>25</v>
@@ -18567,10 +18567,10 @@
         <v>11</v>
       </c>
       <c r="C545">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="D545">
-        <v>1449198</v>
+        <v>1453045</v>
       </c>
       <c r="E545" t="s">
         <v>25</v>
@@ -18599,10 +18599,10 @@
         <v>11</v>
       </c>
       <c r="C546">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D546">
-        <v>109192</v>
+        <v>112192</v>
       </c>
       <c r="E546" t="s">
         <v>25</v>
@@ -18631,10 +18631,10 @@
         <v>11</v>
       </c>
       <c r="C547">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D547">
-        <v>249580</v>
+        <v>251080</v>
       </c>
       <c r="E547" t="s">
         <v>25</v>
@@ -18663,10 +18663,10 @@
         <v>11</v>
       </c>
       <c r="C548">
-        <v>25712</v>
+        <v>25761</v>
       </c>
       <c r="D548">
-        <v>32120551</v>
+        <v>32181782</v>
       </c>
       <c r="E548" t="s">
         <v>25</v>
@@ -18791,10 +18791,10 @@
         <v>11</v>
       </c>
       <c r="C552">
-        <v>9984</v>
+        <v>9996</v>
       </c>
       <c r="D552">
-        <v>14686337</v>
+        <v>14704337</v>
       </c>
       <c r="E552" t="s">
         <v>25</v>
@@ -18855,10 +18855,10 @@
         <v>11</v>
       </c>
       <c r="C554">
-        <v>2814</v>
+        <v>2829</v>
       </c>
       <c r="D554">
-        <v>4062704</v>
+        <v>4082205</v>
       </c>
       <c r="E554" t="s">
         <v>25</v>
@@ -18951,10 +18951,10 @@
         <v>11</v>
       </c>
       <c r="C557">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D557">
-        <v>524456</v>
+        <v>528956</v>
       </c>
       <c r="E557" t="s">
         <v>25</v>
@@ -18983,10 +18983,10 @@
         <v>11</v>
       </c>
       <c r="C558">
-        <v>6765</v>
+        <v>6787</v>
       </c>
       <c r="D558">
-        <v>8612098</v>
+        <v>8638338</v>
       </c>
       <c r="E558" t="s">
         <v>25</v>
@@ -19047,10 +19047,10 @@
         <v>11</v>
       </c>
       <c r="C560">
-        <v>2454</v>
+        <v>2461</v>
       </c>
       <c r="D560">
-        <v>3609058</v>
+        <v>3617888</v>
       </c>
       <c r="E560" t="s">
         <v>25</v>
@@ -19111,10 +19111,10 @@
         <v>11</v>
       </c>
       <c r="C562">
-        <v>1190</v>
+        <v>1197</v>
       </c>
       <c r="D562">
-        <v>1715398</v>
+        <v>1725898</v>
       </c>
       <c r="E562" t="s">
         <v>25</v>
@@ -19239,10 +19239,10 @@
         <v>11</v>
       </c>
       <c r="C566">
-        <v>3351</v>
+        <v>3356</v>
       </c>
       <c r="D566">
-        <v>4097894</v>
+        <v>4103837</v>
       </c>
       <c r="E566" t="s">
         <v>25</v>
@@ -19463,10 +19463,10 @@
         <v>11</v>
       </c>
       <c r="C573">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D573">
-        <v>158308</v>
+        <v>161308</v>
       </c>
       <c r="E573" t="s">
         <v>25</v>
@@ -19495,10 +19495,10 @@
         <v>11</v>
       </c>
       <c r="C574">
-        <v>8355</v>
+        <v>8362</v>
       </c>
       <c r="D574">
-        <v>10501579</v>
+        <v>10508977</v>
       </c>
       <c r="E574" t="s">
         <v>25</v>
@@ -19623,10 +19623,10 @@
         <v>11</v>
       </c>
       <c r="C578">
-        <v>3227</v>
+        <v>3235</v>
       </c>
       <c r="D578">
-        <v>4761347</v>
+        <v>4771105</v>
       </c>
       <c r="E578" t="s">
         <v>25</v>
@@ -19655,10 +19655,10 @@
         <v>11</v>
       </c>
       <c r="C579">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D579">
-        <v>972392</v>
+        <v>974934</v>
       </c>
       <c r="E579" t="s">
         <v>25</v>
@@ -19687,10 +19687,10 @@
         <v>11</v>
       </c>
       <c r="C580">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D580">
-        <v>201444</v>
+        <v>204444</v>
       </c>
       <c r="E580" t="s">
         <v>25</v>
@@ -19719,10 +19719,10 @@
         <v>11</v>
       </c>
       <c r="C581">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D581">
-        <v>291216</v>
+        <v>294216</v>
       </c>
       <c r="E581" t="s">
         <v>25</v>
@@ -19751,10 +19751,10 @@
         <v>11</v>
       </c>
       <c r="C582">
-        <v>17253</v>
+        <v>17287</v>
       </c>
       <c r="D582">
-        <v>21198238</v>
+        <v>21234319</v>
       </c>
       <c r="E582" t="s">
         <v>25</v>
@@ -19879,10 +19879,10 @@
         <v>11</v>
       </c>
       <c r="C586">
-        <v>5172</v>
+        <v>5189</v>
       </c>
       <c r="D586">
-        <v>7558825</v>
+        <v>7581862</v>
       </c>
       <c r="E586" t="s">
         <v>25</v>
@@ -19943,10 +19943,10 @@
         <v>11</v>
       </c>
       <c r="C588">
-        <v>2017</v>
+        <v>2025</v>
       </c>
       <c r="D588">
-        <v>2909124</v>
+        <v>2921124</v>
       </c>
       <c r="E588" t="s">
         <v>25</v>
@@ -20039,10 +20039,10 @@
         <v>11</v>
       </c>
       <c r="C591">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D591">
-        <v>346897</v>
+        <v>349667</v>
       </c>
       <c r="E591" t="s">
         <v>25</v>
@@ -20071,10 +20071,10 @@
         <v>11</v>
       </c>
       <c r="C592">
-        <v>64753</v>
+        <v>64896</v>
       </c>
       <c r="D592">
-        <v>81587261</v>
+        <v>81756845</v>
       </c>
       <c r="E592" t="s">
         <v>25</v>
@@ -20231,10 +20231,10 @@
         <v>11</v>
       </c>
       <c r="C597">
-        <v>24262</v>
+        <v>24327</v>
       </c>
       <c r="D597">
-        <v>35655243</v>
+        <v>35750281</v>
       </c>
       <c r="E597" t="s">
         <v>25</v>
@@ -20327,10 +20327,10 @@
         <v>11</v>
       </c>
       <c r="C600">
-        <v>11688</v>
+        <v>11721</v>
       </c>
       <c r="D600">
-        <v>16852702</v>
+        <v>16897287</v>
       </c>
       <c r="E600" t="s">
         <v>25</v>
@@ -20423,10 +20423,10 @@
         <v>11</v>
       </c>
       <c r="C603">
-        <v>1718</v>
+        <v>1728</v>
       </c>
       <c r="D603">
-        <v>2479999</v>
+        <v>2494999</v>
       </c>
       <c r="E603" t="s">
         <v>25</v>
@@ -20487,10 +20487,10 @@
         <v>11</v>
       </c>
       <c r="C605">
-        <v>935</v>
+        <v>950</v>
       </c>
       <c r="D605">
-        <v>1315562</v>
+        <v>1336714</v>
       </c>
       <c r="E605" t="s">
         <v>25</v>
@@ -20519,10 +20519,10 @@
         <v>11</v>
       </c>
       <c r="C606">
-        <v>9812</v>
+        <v>9836</v>
       </c>
       <c r="D606">
-        <v>12047195</v>
+        <v>12071246</v>
       </c>
       <c r="E606" t="s">
         <v>25</v>
@@ -20551,10 +20551,10 @@
         <v>11</v>
       </c>
       <c r="C607">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D607">
-        <v>27000</v>
+        <v>28500</v>
       </c>
       <c r="E607" t="s">
         <v>25</v>
@@ -20583,10 +20583,10 @@
         <v>11</v>
       </c>
       <c r="C608">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D608">
-        <v>100832</v>
+        <v>102332</v>
       </c>
       <c r="E608" t="s">
         <v>25</v>
@@ -20615,10 +20615,10 @@
         <v>11</v>
       </c>
       <c r="C609">
-        <v>3796</v>
+        <v>3803</v>
       </c>
       <c r="D609">
-        <v>5562469</v>
+        <v>5572562</v>
       </c>
       <c r="E609" t="s">
         <v>25</v>
@@ -20679,10 +20679,10 @@
         <v>11</v>
       </c>
       <c r="C611">
-        <v>1354</v>
+        <v>1360</v>
       </c>
       <c r="D611">
-        <v>1954711</v>
+        <v>1963711</v>
       </c>
       <c r="E611" t="s">
         <v>25</v>
@@ -20743,10 +20743,10 @@
         <v>11</v>
       </c>
       <c r="C613">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D613">
-        <v>258468</v>
+        <v>259968</v>
       </c>
       <c r="E613" t="s">
         <v>25</v>
@@ -20775,10 +20775,10 @@
         <v>11</v>
       </c>
       <c r="C614">
-        <v>15904</v>
+        <v>15940</v>
       </c>
       <c r="D614">
-        <v>19729865</v>
+        <v>19775827</v>
       </c>
       <c r="E614" t="s">
         <v>25</v>
@@ -20903,10 +20903,10 @@
         <v>11</v>
       </c>
       <c r="C618">
-        <v>6309</v>
+        <v>6321</v>
       </c>
       <c r="D618">
-        <v>9228905</v>
+        <v>9246165</v>
       </c>
       <c r="E618" t="s">
         <v>25</v>
@@ -20967,10 +20967,10 @@
         <v>11</v>
       </c>
       <c r="C620">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="D620">
-        <v>2841961</v>
+        <v>2844961</v>
       </c>
       <c r="E620" t="s">
         <v>25</v>
@@ -21031,10 +21031,10 @@
         <v>11</v>
       </c>
       <c r="C622">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D622">
-        <v>377474</v>
+        <v>378974</v>
       </c>
       <c r="E622" t="s">
         <v>25</v>
@@ -21063,10 +21063,10 @@
         <v>11</v>
       </c>
       <c r="C623">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D623">
-        <v>364198</v>
+        <v>365698</v>
       </c>
       <c r="E623" t="s">
         <v>25</v>
@@ -21127,10 +21127,10 @@
         <v>11</v>
       </c>
       <c r="C625">
-        <v>10240</v>
+        <v>10267</v>
       </c>
       <c r="D625">
-        <v>12657204</v>
+        <v>12688304</v>
       </c>
       <c r="E625" t="s">
         <v>25</v>
@@ -21255,10 +21255,10 @@
         <v>11</v>
       </c>
       <c r="C629">
-        <v>3887</v>
+        <v>3894</v>
       </c>
       <c r="D629">
-        <v>5699139</v>
+        <v>5709639</v>
       </c>
       <c r="E629" t="s">
         <v>25</v>
@@ -21319,10 +21319,10 @@
         <v>11</v>
       </c>
       <c r="C631">
-        <v>1447</v>
+        <v>1452</v>
       </c>
       <c r="D631">
-        <v>2095088</v>
+        <v>2102588</v>
       </c>
       <c r="E631" t="s">
         <v>25</v>
@@ -21351,10 +21351,10 @@
         <v>11</v>
       </c>
       <c r="C632">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D632">
-        <v>290261</v>
+        <v>291761</v>
       </c>
       <c r="E632" t="s">
         <v>25</v>
@@ -21415,10 +21415,10 @@
         <v>11</v>
       </c>
       <c r="C634">
-        <v>26438</v>
+        <v>26522</v>
       </c>
       <c r="D634">
-        <v>33025131</v>
+        <v>33126895</v>
       </c>
       <c r="E634" t="s">
         <v>25</v>
@@ -21575,10 +21575,10 @@
         <v>11</v>
       </c>
       <c r="C639">
-        <v>11531</v>
+        <v>11574</v>
       </c>
       <c r="D639">
-        <v>16884953</v>
+        <v>16946724</v>
       </c>
       <c r="E639" t="s">
         <v>25</v>
@@ -21639,10 +21639,10 @@
         <v>11</v>
       </c>
       <c r="C641">
-        <v>3700</v>
+        <v>3716</v>
       </c>
       <c r="D641">
-        <v>5297233</v>
+        <v>5319903</v>
       </c>
       <c r="E641" t="s">
         <v>25</v>
@@ -21703,10 +21703,10 @@
         <v>11</v>
       </c>
       <c r="C643">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D643">
-        <v>907461</v>
+        <v>910461</v>
       </c>
       <c r="E643" t="s">
         <v>25</v>
@@ -21735,10 +21735,10 @@
         <v>11</v>
       </c>
       <c r="C644">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D644">
-        <v>753882</v>
+        <v>755382</v>
       </c>
       <c r="E644" t="s">
         <v>25</v>
@@ -21799,10 +21799,10 @@
         <v>11</v>
       </c>
       <c r="C646">
-        <v>10703</v>
+        <v>10729</v>
       </c>
       <c r="D646">
-        <v>13264840</v>
+        <v>13303611</v>
       </c>
       <c r="E646" t="s">
         <v>25</v>
@@ -21895,10 +21895,10 @@
         <v>11</v>
       </c>
       <c r="C649">
-        <v>4245</v>
+        <v>4255</v>
       </c>
       <c r="D649">
-        <v>6213989</v>
+        <v>6228312</v>
       </c>
       <c r="E649" t="s">
         <v>25</v>
@@ -21927,10 +21927,10 @@
         <v>11</v>
       </c>
       <c r="C650">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="D650">
-        <v>1446422</v>
+        <v>1452384</v>
       </c>
       <c r="E650" t="s">
         <v>25</v>
@@ -21959,10 +21959,10 @@
         <v>11</v>
       </c>
       <c r="C651">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D651">
-        <v>214394</v>
+        <v>215894</v>
       </c>
       <c r="E651" t="s">
         <v>25</v>
@@ -22023,10 +22023,10 @@
         <v>11</v>
       </c>
       <c r="C653">
-        <v>5892</v>
+        <v>5917</v>
       </c>
       <c r="D653">
-        <v>6978507</v>
+        <v>7004382</v>
       </c>
       <c r="E653" t="s">
         <v>26</v>
@@ -22087,10 +22087,10 @@
         <v>11</v>
       </c>
       <c r="C655">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="D655">
-        <v>2228460</v>
+        <v>2233609</v>
       </c>
       <c r="E655" t="s">
         <v>26</v>
@@ -22119,10 +22119,10 @@
         <v>11</v>
       </c>
       <c r="C656">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="D656">
-        <v>1289947</v>
+        <v>1297236</v>
       </c>
       <c r="E656" t="s">
         <v>26</v>
@@ -22151,10 +22151,10 @@
         <v>11</v>
       </c>
       <c r="C657">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D657">
-        <v>199634</v>
+        <v>200509</v>
       </c>
       <c r="E657" t="s">
         <v>26</v>
@@ -22183,10 +22183,10 @@
         <v>11</v>
       </c>
       <c r="C658">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D658">
-        <v>167908</v>
+        <v>169312</v>
       </c>
       <c r="E658" t="s">
         <v>26</v>
@@ -22215,10 +22215,10 @@
         <v>11</v>
       </c>
       <c r="C659">
-        <v>14848</v>
+        <v>14884</v>
       </c>
       <c r="D659">
-        <v>18089107</v>
+        <v>18132816</v>
       </c>
       <c r="E659" t="s">
         <v>26</v>
@@ -22375,10 +22375,10 @@
         <v>11</v>
       </c>
       <c r="C664">
-        <v>4980</v>
+        <v>5003</v>
       </c>
       <c r="D664">
-        <v>7298308</v>
+        <v>7331959</v>
       </c>
       <c r="E664" t="s">
         <v>26</v>
@@ -22439,10 +22439,10 @@
         <v>11</v>
       </c>
       <c r="C666">
-        <v>3017</v>
+        <v>3030</v>
       </c>
       <c r="D666">
-        <v>4417125</v>
+        <v>4436625</v>
       </c>
       <c r="E666" t="s">
         <v>26</v>
@@ -22503,10 +22503,10 @@
         <v>11</v>
       </c>
       <c r="C668">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D668">
-        <v>467188</v>
+        <v>473188</v>
       </c>
       <c r="E668" t="s">
         <v>26</v>
@@ -22535,10 +22535,10 @@
         <v>11</v>
       </c>
       <c r="C669">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D669">
-        <v>282263</v>
+        <v>284709</v>
       </c>
       <c r="E669" t="s">
         <v>26</v>
@@ -22567,10 +22567,10 @@
         <v>11</v>
       </c>
       <c r="C670">
-        <v>10172</v>
+        <v>10214</v>
       </c>
       <c r="D670">
-        <v>12983769</v>
+        <v>13036452</v>
       </c>
       <c r="E670" t="s">
         <v>26</v>
@@ -22695,10 +22695,10 @@
         <v>11</v>
       </c>
       <c r="C674">
-        <v>3608</v>
+        <v>3633</v>
       </c>
       <c r="D674">
-        <v>5287106</v>
+        <v>5323261</v>
       </c>
       <c r="E674" t="s">
         <v>26</v>
@@ -22759,10 +22759,10 @@
         <v>11</v>
       </c>
       <c r="C676">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="D676">
-        <v>1597923</v>
+        <v>1605423</v>
       </c>
       <c r="E676" t="s">
         <v>26</v>
@@ -22823,10 +22823,10 @@
         <v>11</v>
       </c>
       <c r="C678">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D678">
-        <v>626190</v>
+        <v>630690</v>
       </c>
       <c r="E678" t="s">
         <v>26</v>
@@ -22855,10 +22855,10 @@
         <v>11</v>
       </c>
       <c r="C679">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D679">
-        <v>248226</v>
+        <v>252766</v>
       </c>
       <c r="E679" t="s">
         <v>26</v>
@@ -22887,10 +22887,10 @@
         <v>11</v>
       </c>
       <c r="C680">
-        <v>28624</v>
+        <v>28711</v>
       </c>
       <c r="D680">
-        <v>35384214</v>
+        <v>35490749</v>
       </c>
       <c r="E680" t="s">
         <v>26</v>
@@ -22919,10 +22919,10 @@
         <v>11</v>
       </c>
       <c r="C681">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D681">
-        <v>7940</v>
+        <v>10940</v>
       </c>
       <c r="E681" t="s">
         <v>26</v>
@@ -22983,10 +22983,10 @@
         <v>11</v>
       </c>
       <c r="C683">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D683">
-        <v>110803</v>
+        <v>111058</v>
       </c>
       <c r="E683" t="s">
         <v>26</v>
@@ -23015,10 +23015,10 @@
         <v>11</v>
       </c>
       <c r="C684">
-        <v>11948</v>
+        <v>11988</v>
       </c>
       <c r="D684">
-        <v>17506976</v>
+        <v>17563281</v>
       </c>
       <c r="E684" t="s">
         <v>26</v>
@@ -23079,10 +23079,10 @@
         <v>11</v>
       </c>
       <c r="C686">
-        <v>5431</v>
+        <v>5456</v>
       </c>
       <c r="D686">
-        <v>7855367</v>
+        <v>7888895</v>
       </c>
       <c r="E686" t="s">
         <v>26</v>
@@ -23111,10 +23111,10 @@
         <v>11</v>
       </c>
       <c r="C687">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D687">
-        <v>620453</v>
+        <v>623453</v>
       </c>
       <c r="E687" t="s">
         <v>26</v>
@@ -23175,10 +23175,10 @@
         <v>11</v>
       </c>
       <c r="C689">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="D689">
-        <v>689301</v>
+        <v>698992</v>
       </c>
       <c r="E689" t="s">
         <v>26</v>
@@ -23207,10 +23207,10 @@
         <v>11</v>
       </c>
       <c r="C690">
-        <v>6783</v>
+        <v>6809</v>
       </c>
       <c r="D690">
-        <v>8432960</v>
+        <v>8464475</v>
       </c>
       <c r="E690" t="s">
         <v>26</v>
@@ -23399,10 +23399,10 @@
         <v>11</v>
       </c>
       <c r="C696">
-        <v>2422</v>
+        <v>2432</v>
       </c>
       <c r="D696">
-        <v>3546783</v>
+        <v>3561118</v>
       </c>
       <c r="E696" t="s">
         <v>26</v>
@@ -23431,10 +23431,10 @@
         <v>11</v>
       </c>
       <c r="C697">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="D697">
-        <v>1444621</v>
+        <v>1454361</v>
       </c>
       <c r="E697" t="s">
         <v>26</v>
@@ -23463,10 +23463,10 @@
         <v>11</v>
       </c>
       <c r="C698">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D698">
-        <v>446568</v>
+        <v>449568</v>
       </c>
       <c r="E698" t="s">
         <v>26</v>
@@ -23527,10 +23527,10 @@
         <v>11</v>
       </c>
       <c r="C700">
-        <v>49810</v>
+        <v>49969</v>
       </c>
       <c r="D700">
-        <v>62169697</v>
+        <v>62352536</v>
       </c>
       <c r="E700" t="s">
         <v>26</v>
@@ -23655,10 +23655,10 @@
         <v>11</v>
       </c>
       <c r="C704">
-        <v>19203</v>
+        <v>19273</v>
       </c>
       <c r="D704">
-        <v>28126291</v>
+        <v>28223421</v>
       </c>
       <c r="E704" t="s">
         <v>26</v>
@@ -23751,10 +23751,10 @@
         <v>11</v>
       </c>
       <c r="C707">
-        <v>11071</v>
+        <v>11115</v>
       </c>
       <c r="D707">
-        <v>15990552</v>
+        <v>16050087</v>
       </c>
       <c r="E707" t="s">
         <v>26</v>
@@ -23815,10 +23815,10 @@
         <v>11</v>
       </c>
       <c r="C709">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D709">
-        <v>535216</v>
+        <v>539716</v>
       </c>
       <c r="E709" t="s">
         <v>26</v>
@@ -23847,10 +23847,10 @@
         <v>11</v>
       </c>
       <c r="C710">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="D710">
-        <v>1395014</v>
+        <v>1402514</v>
       </c>
       <c r="E710" t="s">
         <v>26</v>
@@ -23879,10 +23879,10 @@
         <v>11</v>
       </c>
       <c r="C711">
-        <v>9712</v>
+        <v>9747</v>
       </c>
       <c r="D711">
-        <v>12161528</v>
+        <v>12202423</v>
       </c>
       <c r="E711" t="s">
         <v>26</v>
@@ -24007,10 +24007,10 @@
         <v>11</v>
       </c>
       <c r="C715">
-        <v>3366</v>
+        <v>3384</v>
       </c>
       <c r="D715">
-        <v>4900225</v>
+        <v>4925954</v>
       </c>
       <c r="E715" t="s">
         <v>26</v>
@@ -24071,10 +24071,10 @@
         <v>11</v>
       </c>
       <c r="C717">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="D717">
-        <v>1548665</v>
+        <v>1553165</v>
       </c>
       <c r="E717" t="s">
         <v>26</v>
@@ -24135,10 +24135,10 @@
         <v>11</v>
       </c>
       <c r="C719">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D719">
-        <v>148831</v>
+        <v>153331</v>
       </c>
       <c r="E719" t="s">
         <v>26</v>
@@ -24231,10 +24231,10 @@
         <v>11</v>
       </c>
       <c r="C722">
-        <v>51301</v>
+        <v>51487</v>
       </c>
       <c r="D722">
-        <v>63726583</v>
+        <v>63952964</v>
       </c>
       <c r="E722" t="s">
         <v>26</v>
@@ -24295,10 +24295,10 @@
         <v>11</v>
       </c>
       <c r="C724">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D724">
-        <v>47252</v>
+        <v>48752</v>
       </c>
       <c r="E724" t="s">
         <v>26</v>
@@ -24391,10 +24391,10 @@
         <v>11</v>
       </c>
       <c r="C727">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D727">
-        <v>117158</v>
+        <v>120158</v>
       </c>
       <c r="E727" t="s">
         <v>26</v>
@@ -24423,10 +24423,10 @@
         <v>11</v>
       </c>
       <c r="C728">
-        <v>20210</v>
+        <v>20275</v>
       </c>
       <c r="D728">
-        <v>29674482</v>
+        <v>29767702</v>
       </c>
       <c r="E728" t="s">
         <v>26</v>
@@ -24487,10 +24487,10 @@
         <v>11</v>
       </c>
       <c r="C730">
-        <v>12654</v>
+        <v>12709</v>
       </c>
       <c r="D730">
-        <v>18346334</v>
+        <v>18426340</v>
       </c>
       <c r="E730" t="s">
         <v>26</v>
@@ -24551,10 +24551,10 @@
         <v>11</v>
       </c>
       <c r="C732">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D732">
-        <v>1141884</v>
+        <v>1144228</v>
       </c>
       <c r="E732" t="s">
         <v>26</v>
@@ -24583,10 +24583,10 @@
         <v>11</v>
       </c>
       <c r="C733">
-        <v>956</v>
+        <v>965</v>
       </c>
       <c r="D733">
-        <v>1327805</v>
+        <v>1338907</v>
       </c>
       <c r="E733" t="s">
         <v>26</v>
@@ -24647,10 +24647,10 @@
         <v>11</v>
       </c>
       <c r="C735">
-        <v>6845</v>
+        <v>6857</v>
       </c>
       <c r="D735">
-        <v>8448234</v>
+        <v>8464638</v>
       </c>
       <c r="E735" t="s">
         <v>26</v>
@@ -24711,10 +24711,10 @@
         <v>11</v>
       </c>
       <c r="C737">
-        <v>2310</v>
+        <v>2324</v>
       </c>
       <c r="D737">
-        <v>3371678</v>
+        <v>3392499</v>
       </c>
       <c r="E737" t="s">
         <v>26</v>
@@ -24743,10 +24743,10 @@
         <v>11</v>
       </c>
       <c r="C738">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D738">
-        <v>1393570</v>
+        <v>1398070</v>
       </c>
       <c r="E738" t="s">
         <v>26</v>
@@ -24839,10 +24839,10 @@
         <v>11</v>
       </c>
       <c r="C741">
-        <v>2784</v>
+        <v>2790</v>
       </c>
       <c r="D741">
-        <v>3573194</v>
+        <v>3582194</v>
       </c>
       <c r="E741" t="s">
         <v>26</v>
@@ -24935,10 +24935,10 @@
         <v>11</v>
       </c>
       <c r="C744">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D744">
-        <v>1529453</v>
+        <v>1530953</v>
       </c>
       <c r="E744" t="s">
         <v>26</v>
@@ -24999,10 +24999,10 @@
         <v>11</v>
       </c>
       <c r="C746">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D746">
-        <v>476830</v>
+        <v>478330</v>
       </c>
       <c r="E746" t="s">
         <v>26</v>
@@ -25063,10 +25063,10 @@
         <v>11</v>
       </c>
       <c r="C748">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D748">
-        <v>110323</v>
+        <v>114261</v>
       </c>
       <c r="E748" t="s">
         <v>26</v>
@@ -25095,10 +25095,10 @@
         <v>11</v>
       </c>
       <c r="C749">
-        <v>19935</v>
+        <v>19983</v>
       </c>
       <c r="D749">
-        <v>25052835</v>
+        <v>25113969</v>
       </c>
       <c r="E749" t="s">
         <v>26</v>
@@ -25223,10 +25223,10 @@
         <v>11</v>
       </c>
       <c r="C753">
-        <v>7036</v>
+        <v>7060</v>
       </c>
       <c r="D753">
-        <v>10281336</v>
+        <v>10315364</v>
       </c>
       <c r="E753" t="s">
         <v>26</v>
@@ -25287,10 +25287,10 @@
         <v>11</v>
       </c>
       <c r="C755">
-        <v>4133</v>
+        <v>4149</v>
       </c>
       <c r="D755">
-        <v>5987097</v>
+        <v>6010546</v>
       </c>
       <c r="E755" t="s">
         <v>26</v>
@@ -25351,10 +25351,10 @@
         <v>11</v>
       </c>
       <c r="C757">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D757">
-        <v>452314</v>
+        <v>453814</v>
       </c>
       <c r="E757" t="s">
         <v>26</v>
@@ -25383,10 +25383,10 @@
         <v>11</v>
       </c>
       <c r="C758">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D758">
-        <v>464741</v>
+        <v>466088</v>
       </c>
       <c r="E758" t="s">
         <v>26</v>
@@ -25447,10 +25447,10 @@
         <v>11</v>
       </c>
       <c r="C760">
-        <v>12981</v>
+        <v>13005</v>
       </c>
       <c r="D760">
-        <v>15725956</v>
+        <v>15752283</v>
       </c>
       <c r="E760" t="s">
         <v>26</v>
@@ -25543,10 +25543,10 @@
         <v>11</v>
       </c>
       <c r="C763">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D763">
-        <v>62526</v>
+        <v>64026</v>
       </c>
       <c r="E763" t="s">
         <v>26</v>
@@ -25575,10 +25575,10 @@
         <v>11</v>
       </c>
       <c r="C764">
-        <v>4799</v>
+        <v>4817</v>
       </c>
       <c r="D764">
-        <v>7003091</v>
+        <v>7030091</v>
       </c>
       <c r="E764" t="s">
         <v>26</v>
@@ -25639,10 +25639,10 @@
         <v>11</v>
       </c>
       <c r="C766">
-        <v>2104</v>
+        <v>2112</v>
       </c>
       <c r="D766">
-        <v>3030723</v>
+        <v>3042350</v>
       </c>
       <c r="E766" t="s">
         <v>26</v>
@@ -25735,10 +25735,10 @@
         <v>11</v>
       </c>
       <c r="C769">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D769">
-        <v>309215</v>
+        <v>313482</v>
       </c>
       <c r="E769" t="s">
         <v>26</v>
@@ -25767,10 +25767,10 @@
         <v>11</v>
       </c>
       <c r="C770">
-        <v>8615</v>
+        <v>8648</v>
       </c>
       <c r="D770">
-        <v>10589152</v>
+        <v>10630232</v>
       </c>
       <c r="E770" t="s">
         <v>26</v>
@@ -25863,10 +25863,10 @@
         <v>11</v>
       </c>
       <c r="C773">
-        <v>3110</v>
+        <v>3125</v>
       </c>
       <c r="D773">
-        <v>4566948</v>
+        <v>4586830</v>
       </c>
       <c r="E773" t="s">
         <v>26</v>
@@ -25895,10 +25895,10 @@
         <v>11</v>
       </c>
       <c r="C774">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="D774">
-        <v>1921839</v>
+        <v>1927839</v>
       </c>
       <c r="E774" t="s">
         <v>26</v>
@@ -25927,10 +25927,10 @@
         <v>11</v>
       </c>
       <c r="C775">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D775">
-        <v>155896</v>
+        <v>157396</v>
       </c>
       <c r="E775" t="s">
         <v>26</v>
@@ -25959,10 +25959,10 @@
         <v>11</v>
       </c>
       <c r="C776">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D776">
-        <v>219515</v>
+        <v>223189</v>
       </c>
       <c r="E776" t="s">
         <v>26</v>
@@ -25991,10 +25991,10 @@
         <v>11</v>
       </c>
       <c r="C777">
-        <v>39518</v>
+        <v>39629</v>
       </c>
       <c r="D777">
-        <v>49911364</v>
+        <v>50049603</v>
       </c>
       <c r="E777" t="s">
         <v>27</v>
@@ -26023,10 +26023,10 @@
         <v>11</v>
       </c>
       <c r="C778">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D778">
-        <v>25790</v>
+        <v>28852</v>
       </c>
       <c r="E778" t="s">
         <v>27</v>
@@ -26087,10 +26087,10 @@
         <v>11</v>
       </c>
       <c r="C780">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D780">
-        <v>215511</v>
+        <v>217011</v>
       </c>
       <c r="E780" t="s">
         <v>27</v>
@@ -26119,10 +26119,10 @@
         <v>11</v>
       </c>
       <c r="C781">
-        <v>19371</v>
+        <v>19423</v>
       </c>
       <c r="D781">
-        <v>28435265</v>
+        <v>28509811</v>
       </c>
       <c r="E781" t="s">
         <v>27</v>
@@ -26183,10 +26183,10 @@
         <v>11</v>
       </c>
       <c r="C783">
-        <v>5214</v>
+        <v>5236</v>
       </c>
       <c r="D783">
-        <v>7508795</v>
+        <v>7538702</v>
       </c>
       <c r="E783" t="s">
         <v>27</v>
@@ -26215,10 +26215,10 @@
         <v>11</v>
       </c>
       <c r="C784">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D784">
-        <v>825808</v>
+        <v>828808</v>
       </c>
       <c r="E784" t="s">
         <v>27</v>
@@ -26247,10 +26247,10 @@
         <v>11</v>
       </c>
       <c r="C785">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D785">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="E785" t="s">
         <v>27</v>
@@ -26279,10 +26279,10 @@
         <v>11</v>
       </c>
       <c r="C786">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="D786">
-        <v>1041922</v>
+        <v>1045232</v>
       </c>
       <c r="E786" t="s">
         <v>27</v>
@@ -26311,10 +26311,10 @@
         <v>11</v>
       </c>
       <c r="C787">
-        <v>18894</v>
+        <v>18925</v>
       </c>
       <c r="D787">
-        <v>23627751</v>
+        <v>23665497</v>
       </c>
       <c r="E787" t="s">
         <v>27</v>
@@ -26375,10 +26375,10 @@
         <v>11</v>
       </c>
       <c r="C789">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D789">
-        <v>149323</v>
+        <v>150823</v>
       </c>
       <c r="E789" t="s">
         <v>27</v>
@@ -26407,10 +26407,10 @@
         <v>11</v>
       </c>
       <c r="C790">
-        <v>9056</v>
+        <v>9083</v>
       </c>
       <c r="D790">
-        <v>13275942</v>
+        <v>13314530</v>
       </c>
       <c r="E790" t="s">
         <v>27</v>
@@ -26471,10 +26471,10 @@
         <v>11</v>
       </c>
       <c r="C792">
-        <v>2026</v>
+        <v>2034</v>
       </c>
       <c r="D792">
-        <v>2913901</v>
+        <v>2925901</v>
       </c>
       <c r="E792" t="s">
         <v>27</v>
@@ -26535,10 +26535,10 @@
         <v>11</v>
       </c>
       <c r="C794">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D794">
-        <v>808824</v>
+        <v>813726</v>
       </c>
       <c r="E794" t="s">
         <v>27</v>
@@ -26567,10 +26567,10 @@
         <v>11</v>
       </c>
       <c r="C795">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D795">
-        <v>700310</v>
+        <v>709310</v>
       </c>
       <c r="E795" t="s">
         <v>27</v>
@@ -26599,10 +26599,10 @@
         <v>11</v>
       </c>
       <c r="C796">
-        <v>6214</v>
+        <v>6242</v>
       </c>
       <c r="D796">
-        <v>7887668</v>
+        <v>7923889</v>
       </c>
       <c r="E796" t="s">
         <v>27</v>
@@ -26759,10 +26759,10 @@
         <v>11</v>
       </c>
       <c r="C801">
-        <v>2772</v>
+        <v>2780</v>
       </c>
       <c r="D801">
-        <v>4085148</v>
+        <v>4096762</v>
       </c>
       <c r="E801" t="s">
         <v>27</v>
@@ -26791,10 +26791,10 @@
         <v>11</v>
       </c>
       <c r="C802">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D802">
-        <v>817821</v>
+        <v>822321</v>
       </c>
       <c r="E802" t="s">
         <v>27</v>
@@ -26823,10 +26823,10 @@
         <v>11</v>
       </c>
       <c r="C803">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D803">
-        <v>190218</v>
+        <v>193218</v>
       </c>
       <c r="E803" t="s">
         <v>27</v>
@@ -26855,10 +26855,10 @@
         <v>11</v>
       </c>
       <c r="C804">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D804">
-        <v>196972</v>
+        <v>198472</v>
       </c>
       <c r="E804" t="s">
         <v>27</v>
@@ -26887,10 +26887,10 @@
         <v>11</v>
       </c>
       <c r="C805">
-        <v>11635</v>
+        <v>11658</v>
       </c>
       <c r="D805">
-        <v>14561006</v>
+        <v>14590831</v>
       </c>
       <c r="E805" t="s">
         <v>27</v>
@@ -27015,10 +27015,10 @@
         <v>11</v>
       </c>
       <c r="C809">
-        <v>4816</v>
+        <v>4825</v>
       </c>
       <c r="D809">
-        <v>7049369</v>
+        <v>7062869</v>
       </c>
       <c r="E809" t="s">
         <v>27</v>
@@ -27079,10 +27079,10 @@
         <v>11</v>
       </c>
       <c r="C811">
-        <v>1225</v>
+        <v>1231</v>
       </c>
       <c r="D811">
-        <v>1762263</v>
+        <v>1770369</v>
       </c>
       <c r="E811" t="s">
         <v>27</v>
@@ -27143,10 +27143,10 @@
         <v>11</v>
       </c>
       <c r="C813">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D813">
-        <v>178273</v>
+        <v>179773</v>
       </c>
       <c r="E813" t="s">
         <v>27</v>
@@ -27207,10 +27207,10 @@
         <v>11</v>
       </c>
       <c r="C815">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D815">
-        <v>275004</v>
+        <v>279324</v>
       </c>
       <c r="E815" t="s">
         <v>27</v>
@@ -27239,10 +27239,10 @@
         <v>11</v>
       </c>
       <c r="C816">
-        <v>17591</v>
+        <v>17631</v>
       </c>
       <c r="D816">
-        <v>22150221</v>
+        <v>22201592</v>
       </c>
       <c r="E816" t="s">
         <v>27</v>
@@ -27335,10 +27335,10 @@
         <v>11</v>
       </c>
       <c r="C819">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D819">
-        <v>174480</v>
+        <v>175980</v>
       </c>
       <c r="E819" t="s">
         <v>27</v>
@@ -27367,10 +27367,10 @@
         <v>11</v>
       </c>
       <c r="C820">
-        <v>9336</v>
+        <v>9368</v>
       </c>
       <c r="D820">
-        <v>13665322</v>
+        <v>13713322</v>
       </c>
       <c r="E820" t="s">
         <v>27</v>
@@ -27431,10 +27431,10 @@
         <v>11</v>
       </c>
       <c r="C822">
-        <v>1862</v>
+        <v>1868</v>
       </c>
       <c r="D822">
-        <v>2684531</v>
+        <v>2693413</v>
       </c>
       <c r="E822" t="s">
         <v>27</v>
@@ -27495,10 +27495,10 @@
         <v>11</v>
       </c>
       <c r="C824">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D824">
-        <v>478242</v>
+        <v>487242</v>
       </c>
       <c r="E824" t="s">
         <v>27</v>
@@ -27527,10 +27527,10 @@
         <v>11</v>
       </c>
       <c r="C825">
-        <v>58292</v>
+        <v>58469</v>
       </c>
       <c r="D825">
-        <v>74957941</v>
+        <v>75179818</v>
       </c>
       <c r="E825" t="s">
         <v>28</v>
@@ -27591,10 +27591,10 @@
         <v>11</v>
       </c>
       <c r="C827">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D827">
-        <v>93350</v>
+        <v>94850</v>
       </c>
       <c r="E827" t="s">
         <v>28</v>
@@ -27751,10 +27751,10 @@
         <v>11</v>
       </c>
       <c r="C832">
-        <v>22765</v>
+        <v>22826</v>
       </c>
       <c r="D832">
-        <v>33410576</v>
+        <v>33500020</v>
       </c>
       <c r="E832" t="s">
         <v>28</v>
@@ -27815,10 +27815,10 @@
         <v>11</v>
       </c>
       <c r="C834">
-        <v>15251</v>
+        <v>15315</v>
       </c>
       <c r="D834">
-        <v>22145118</v>
+        <v>22238702</v>
       </c>
       <c r="E834" t="s">
         <v>28</v>
@@ -27879,10 +27879,10 @@
         <v>11</v>
       </c>
       <c r="C836">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D836">
-        <v>532142</v>
+        <v>539642</v>
       </c>
       <c r="E836" t="s">
         <v>28</v>
@@ -27911,10 +27911,10 @@
         <v>11</v>
       </c>
       <c r="C837">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D837">
-        <v>988790</v>
+        <v>991790</v>
       </c>
       <c r="E837" t="s">
         <v>28</v>
@@ -27943,10 +27943,10 @@
         <v>11</v>
       </c>
       <c r="C838">
-        <v>7681</v>
+        <v>7698</v>
       </c>
       <c r="D838">
-        <v>9656206</v>
+        <v>9680741</v>
       </c>
       <c r="E838" t="s">
         <v>28</v>
@@ -28039,10 +28039,10 @@
         <v>11</v>
       </c>
       <c r="C841">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D841">
-        <v>61500</v>
+        <v>64500</v>
       </c>
       <c r="E841" t="s">
         <v>28</v>
@@ -28103,10 +28103,10 @@
         <v>11</v>
       </c>
       <c r="C843">
-        <v>2877</v>
+        <v>2891</v>
       </c>
       <c r="D843">
-        <v>4205289</v>
+        <v>4226289</v>
       </c>
       <c r="E843" t="s">
         <v>28</v>
@@ -28135,10 +28135,10 @@
         <v>11</v>
       </c>
       <c r="C844">
-        <v>1339</v>
+        <v>1349</v>
       </c>
       <c r="D844">
-        <v>1934540</v>
+        <v>1948695</v>
       </c>
       <c r="E844" t="s">
         <v>28</v>
@@ -28199,10 +28199,10 @@
         <v>11</v>
       </c>
       <c r="C846">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D846">
-        <v>200907</v>
+        <v>202382</v>
       </c>
       <c r="E846" t="s">
         <v>28</v>
@@ -28231,10 +28231,10 @@
         <v>11</v>
       </c>
       <c r="C847">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D847">
-        <v>235358</v>
+        <v>236858</v>
       </c>
       <c r="E847" t="s">
         <v>28</v>
@@ -28263,10 +28263,10 @@
         <v>11</v>
       </c>
       <c r="C848">
-        <v>73625</v>
+        <v>73818</v>
       </c>
       <c r="D848">
-        <v>92711696</v>
+        <v>92949754</v>
       </c>
       <c r="E848" t="s">
         <v>28</v>
@@ -28455,10 +28455,10 @@
         <v>11</v>
       </c>
       <c r="C854">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D854">
-        <v>377280</v>
+        <v>378780</v>
       </c>
       <c r="E854" t="s">
         <v>28</v>
@@ -28487,10 +28487,10 @@
         <v>11</v>
       </c>
       <c r="C855">
-        <v>30837</v>
+        <v>30939</v>
       </c>
       <c r="D855">
-        <v>45284619</v>
+        <v>45432090</v>
       </c>
       <c r="E855" t="s">
         <v>28</v>
@@ -28583,10 +28583,10 @@
         <v>11</v>
       </c>
       <c r="C858">
-        <v>22388</v>
+        <v>22469</v>
       </c>
       <c r="D858">
-        <v>32511431</v>
+        <v>32625482</v>
       </c>
       <c r="E858" t="s">
         <v>28</v>
@@ -28615,10 +28615,10 @@
         <v>11</v>
       </c>
       <c r="C859">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D859">
-        <v>767632</v>
+        <v>769132</v>
       </c>
       <c r="E859" t="s">
         <v>28</v>
@@ -28679,10 +28679,10 @@
         <v>11</v>
       </c>
       <c r="C861">
-        <v>1515</v>
+        <v>1524</v>
       </c>
       <c r="D861">
-        <v>2135105</v>
+        <v>2146975</v>
       </c>
       <c r="E861" t="s">
         <v>28</v>
@@ -28711,10 +28711,10 @@
         <v>11</v>
       </c>
       <c r="C862">
-        <v>9601</v>
+        <v>9628</v>
       </c>
       <c r="D862">
-        <v>12575270</v>
+        <v>12608080</v>
       </c>
       <c r="E862" t="s">
         <v>28</v>
@@ -28839,10 +28839,10 @@
         <v>11</v>
       </c>
       <c r="C866">
-        <v>3082</v>
+        <v>3099</v>
       </c>
       <c r="D866">
-        <v>4507850</v>
+        <v>4531738</v>
       </c>
       <c r="E866" t="s">
         <v>28</v>
@@ -28871,10 +28871,10 @@
         <v>11</v>
       </c>
       <c r="C867">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="D867">
-        <v>1399315</v>
+        <v>1403822</v>
       </c>
       <c r="E867" t="s">
         <v>28</v>
@@ -29031,10 +29031,10 @@
         <v>11</v>
       </c>
       <c r="C872">
-        <v>50338</v>
+        <v>50463</v>
       </c>
       <c r="D872">
-        <v>63135684</v>
+        <v>63288916</v>
       </c>
       <c r="E872" t="s">
         <v>28</v>
@@ -29063,10 +29063,10 @@
         <v>11</v>
       </c>
       <c r="C873">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D873">
-        <v>37390</v>
+        <v>38890</v>
       </c>
       <c r="E873" t="s">
         <v>28</v>
@@ -29191,10 +29191,10 @@
         <v>11</v>
       </c>
       <c r="C877">
-        <v>17063</v>
+        <v>17124</v>
       </c>
       <c r="D877">
-        <v>25026938</v>
+        <v>25114584</v>
       </c>
       <c r="E877" t="s">
         <v>28</v>
@@ -29255,10 +29255,10 @@
         <v>11</v>
       </c>
       <c r="C879">
-        <v>11398</v>
+        <v>11448</v>
       </c>
       <c r="D879">
-        <v>16510428</v>
+        <v>16583680</v>
       </c>
       <c r="E879" t="s">
         <v>28</v>
@@ -29287,10 +29287,10 @@
         <v>11</v>
       </c>
       <c r="C880">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D880">
-        <v>617730</v>
+        <v>619230</v>
       </c>
       <c r="E880" t="s">
         <v>28</v>
@@ -29319,10 +29319,10 @@
         <v>11</v>
       </c>
       <c r="C881">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D881">
-        <v>836674</v>
+        <v>838159</v>
       </c>
       <c r="E881" t="s">
         <v>28</v>
@@ -29351,10 +29351,10 @@
         <v>11</v>
       </c>
       <c r="C882">
-        <v>25054</v>
+        <v>25136</v>
       </c>
       <c r="D882">
-        <v>31247494</v>
+        <v>31351865</v>
       </c>
       <c r="E882" t="s">
         <v>28</v>
@@ -29479,10 +29479,10 @@
         <v>11</v>
       </c>
       <c r="C886">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D886">
-        <v>95760</v>
+        <v>97260</v>
       </c>
       <c r="E886" t="s">
         <v>28</v>
@@ -29511,10 +29511,10 @@
         <v>11</v>
       </c>
       <c r="C887">
-        <v>9529</v>
+        <v>9554</v>
       </c>
       <c r="D887">
-        <v>13968995</v>
+        <v>14004030</v>
       </c>
       <c r="E887" t="s">
         <v>28</v>
@@ -29575,10 +29575,10 @@
         <v>11</v>
       </c>
       <c r="C889">
-        <v>5571</v>
+        <v>5584</v>
       </c>
       <c r="D889">
-        <v>8096438</v>
+        <v>8113904</v>
       </c>
       <c r="E889" t="s">
         <v>28</v>
@@ -29607,10 +29607,10 @@
         <v>11</v>
       </c>
       <c r="C890">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D890">
-        <v>668372</v>
+        <v>671372</v>
       </c>
       <c r="E890" t="s">
         <v>28</v>
@@ -29639,10 +29639,10 @@
         <v>11</v>
       </c>
       <c r="C891">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D891">
-        <v>533680</v>
+        <v>539330</v>
       </c>
       <c r="E891" t="s">
         <v>28</v>
@@ -29671,10 +29671,10 @@
         <v>11</v>
       </c>
       <c r="C892">
-        <v>29060</v>
+        <v>29143</v>
       </c>
       <c r="D892">
-        <v>37720199</v>
+        <v>37827941</v>
       </c>
       <c r="E892" t="s">
         <v>29</v>
@@ -29703,10 +29703,10 @@
         <v>11</v>
       </c>
       <c r="C893">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D893">
-        <v>3843</v>
+        <v>5343</v>
       </c>
       <c r="E893" t="s">
         <v>29</v>
@@ -29799,10 +29799,10 @@
         <v>11</v>
       </c>
       <c r="C896">
-        <v>12076</v>
+        <v>12111</v>
       </c>
       <c r="D896">
-        <v>17795019</v>
+        <v>17844631</v>
       </c>
       <c r="E896" t="s">
         <v>29</v>
@@ -29863,10 +29863,10 @@
         <v>11</v>
       </c>
       <c r="C898">
-        <v>10305</v>
+        <v>10339</v>
       </c>
       <c r="D898">
-        <v>15037491</v>
+        <v>15082829</v>
       </c>
       <c r="E898" t="s">
         <v>29</v>
@@ -29895,10 +29895,10 @@
         <v>11</v>
       </c>
       <c r="C899">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D899">
-        <v>213036</v>
+        <v>214388</v>
       </c>
       <c r="E899" t="s">
         <v>29</v>
@@ -29959,10 +29959,10 @@
         <v>11</v>
       </c>
       <c r="C901">
-        <v>47307</v>
+        <v>47574</v>
       </c>
       <c r="D901">
-        <v>62257130</v>
+        <v>62612322</v>
       </c>
       <c r="E901" t="s">
         <v>29</v>
@@ -30055,10 +30055,10 @@
         <v>11</v>
       </c>
       <c r="C904">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D904">
-        <v>154955</v>
+        <v>156455</v>
       </c>
       <c r="E904" t="s">
         <v>29</v>
@@ -30119,10 +30119,10 @@
         <v>11</v>
       </c>
       <c r="C906">
-        <v>20044</v>
+        <v>20107</v>
       </c>
       <c r="D906">
-        <v>29486402</v>
+        <v>29575264</v>
       </c>
       <c r="E906" t="s">
         <v>29</v>
@@ -30183,10 +30183,10 @@
         <v>11</v>
       </c>
       <c r="C908">
-        <v>18820</v>
+        <v>18871</v>
       </c>
       <c r="D908">
-        <v>27357778</v>
+        <v>27434278</v>
       </c>
       <c r="E908" t="s">
         <v>29</v>
@@ -30247,10 +30247,10 @@
         <v>11</v>
       </c>
       <c r="C910">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D910">
-        <v>293812</v>
+        <v>304312</v>
       </c>
       <c r="E910" t="s">
         <v>29</v>
@@ -30279,10 +30279,10 @@
         <v>11</v>
       </c>
       <c r="C911">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D911">
-        <v>675768</v>
+        <v>683268</v>
       </c>
       <c r="E911" t="s">
         <v>29</v>
@@ -30311,10 +30311,10 @@
         <v>11</v>
       </c>
       <c r="C912">
-        <v>118984</v>
+        <v>119543</v>
       </c>
       <c r="D912">
-        <v>156625490</v>
+        <v>157358801</v>
       </c>
       <c r="E912" t="s">
         <v>29</v>
@@ -30471,10 +30471,10 @@
         <v>11</v>
       </c>
       <c r="C917">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D917">
-        <v>563836</v>
+        <v>566836</v>
       </c>
       <c r="E917" t="s">
         <v>29</v>
@@ -30535,10 +30535,10 @@
         <v>11</v>
       </c>
       <c r="C919">
-        <v>69846</v>
+        <v>70152</v>
       </c>
       <c r="D919">
-        <v>102771356</v>
+        <v>103220313</v>
       </c>
       <c r="E919" t="s">
         <v>29</v>
@@ -30567,10 +30567,10 @@
         <v>11</v>
       </c>
       <c r="C920">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D920">
-        <v>284842</v>
+        <v>286342</v>
       </c>
       <c r="E920" t="s">
         <v>29</v>
@@ -30631,10 +30631,10 @@
         <v>11</v>
       </c>
       <c r="C922">
-        <v>50168</v>
+        <v>50395</v>
       </c>
       <c r="D922">
-        <v>72913550</v>
+        <v>73241605</v>
       </c>
       <c r="E922" t="s">
         <v>29</v>
@@ -30695,10 +30695,10 @@
         <v>11</v>
       </c>
       <c r="C924">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="D924">
-        <v>1156790</v>
+        <v>1173921</v>
       </c>
       <c r="E924" t="s">
         <v>29</v>
@@ -30759,10 +30759,10 @@
         <v>11</v>
       </c>
       <c r="C926">
-        <v>2071</v>
+        <v>2092</v>
       </c>
       <c r="D926">
-        <v>2928843</v>
+        <v>2957968</v>
       </c>
       <c r="E926" t="s">
         <v>29</v>
@@ -30823,10 +30823,10 @@
         <v>11</v>
       </c>
       <c r="C928">
-        <v>47658</v>
+        <v>47950</v>
       </c>
       <c r="D928">
-        <v>63503232</v>
+        <v>63889993</v>
       </c>
       <c r="E928" t="s">
         <v>29</v>
@@ -30951,10 +30951,10 @@
         <v>11</v>
       </c>
       <c r="C932">
-        <v>20221</v>
+        <v>20316</v>
       </c>
       <c r="D932">
-        <v>29870275</v>
+        <v>30011248</v>
       </c>
       <c r="E932" t="s">
         <v>29</v>
@@ -31015,10 +31015,10 @@
         <v>11</v>
       </c>
       <c r="C934">
-        <v>19820</v>
+        <v>19896</v>
       </c>
       <c r="D934">
-        <v>29012061</v>
+        <v>29123195</v>
       </c>
       <c r="E934" t="s">
         <v>29</v>
@@ -31047,10 +31047,10 @@
         <v>11</v>
       </c>
       <c r="C935">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D935">
-        <v>301801</v>
+        <v>303331</v>
       </c>
       <c r="E935" t="s">
         <v>29</v>
@@ -31079,10 +31079,10 @@
         <v>11</v>
       </c>
       <c r="C936">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D936">
-        <v>872998</v>
+        <v>877498</v>
       </c>
       <c r="E936" t="s">
         <v>29</v>
@@ -31111,10 +31111,10 @@
         <v>11</v>
       </c>
       <c r="C937">
-        <v>34452</v>
+        <v>34534</v>
       </c>
       <c r="D937">
-        <v>44666300</v>
+        <v>44774912</v>
       </c>
       <c r="E937" t="s">
         <v>29</v>
@@ -31239,10 +31239,10 @@
         <v>11</v>
       </c>
       <c r="C941">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D941">
-        <v>196599</v>
+        <v>198099</v>
       </c>
       <c r="E941" t="s">
         <v>29</v>
@@ -31271,10 +31271,10 @@
         <v>11</v>
       </c>
       <c r="C942">
-        <v>13759</v>
+        <v>13794</v>
       </c>
       <c r="D942">
-        <v>20257982</v>
+        <v>20309264</v>
       </c>
       <c r="E942" t="s">
         <v>29</v>
@@ -31303,10 +31303,10 @@
         <v>11</v>
       </c>
       <c r="C943">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D943">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="E943" t="s">
         <v>29</v>
@@ -31335,10 +31335,10 @@
         <v>11</v>
       </c>
       <c r="C944">
-        <v>11191</v>
+        <v>11228</v>
       </c>
       <c r="D944">
-        <v>16240059</v>
+        <v>16291517</v>
       </c>
       <c r="E944" t="s">
         <v>29</v>
@@ -31463,10 +31463,10 @@
         <v>11</v>
       </c>
       <c r="C948">
-        <v>32743</v>
+        <v>32878</v>
       </c>
       <c r="D948">
-        <v>43213408</v>
+        <v>43402504</v>
       </c>
       <c r="E948" t="s">
         <v>29</v>
@@ -31559,10 +31559,10 @@
         <v>11</v>
       </c>
       <c r="C951">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D951">
-        <v>208340</v>
+        <v>209840</v>
       </c>
       <c r="E951" t="s">
         <v>29</v>
@@ -31591,10 +31591,10 @@
         <v>11</v>
       </c>
       <c r="C952">
-        <v>12545</v>
+        <v>12595</v>
       </c>
       <c r="D952">
-        <v>18516910</v>
+        <v>18591910</v>
       </c>
       <c r="E952" t="s">
         <v>29</v>
@@ -31655,10 +31655,10 @@
         <v>11</v>
       </c>
       <c r="C954">
-        <v>12085</v>
+        <v>12147</v>
       </c>
       <c r="D954">
-        <v>17569901</v>
+        <v>17654121</v>
       </c>
       <c r="E954" t="s">
         <v>29</v>
@@ -31687,10 +31687,10 @@
         <v>11</v>
       </c>
       <c r="C955">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D955">
-        <v>204417</v>
+        <v>205853</v>
       </c>
       <c r="E955" t="s">
         <v>29</v>
@@ -31751,10 +31751,10 @@
         <v>11</v>
       </c>
       <c r="C957">
-        <v>41895</v>
+        <v>42071</v>
       </c>
       <c r="D957">
-        <v>55180401</v>
+        <v>55408315</v>
       </c>
       <c r="E957" t="s">
         <v>29</v>
@@ -31847,10 +31847,10 @@
         <v>11</v>
       </c>
       <c r="C960">
-        <v>15551</v>
+        <v>15606</v>
       </c>
       <c r="D960">
-        <v>22877271</v>
+        <v>22958076</v>
       </c>
       <c r="E960" t="s">
         <v>29</v>
@@ -31911,10 +31911,10 @@
         <v>11</v>
       </c>
       <c r="C962">
-        <v>15370</v>
+        <v>15443</v>
       </c>
       <c r="D962">
-        <v>22349479</v>
+        <v>22454125</v>
       </c>
       <c r="E962" t="s">
         <v>29</v>
@@ -31975,10 +31975,10 @@
         <v>11</v>
       </c>
       <c r="C964">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D964">
-        <v>642873</v>
+        <v>647373</v>
       </c>
       <c r="E964" t="s">
         <v>29</v>
@@ -32007,10 +32007,10 @@
         <v>11</v>
       </c>
       <c r="C965">
-        <v>33985</v>
+        <v>34136</v>
       </c>
       <c r="D965">
-        <v>44014669</v>
+        <v>44220166</v>
       </c>
       <c r="E965" t="s">
         <v>29</v>
@@ -32135,10 +32135,10 @@
         <v>11</v>
       </c>
       <c r="C969">
-        <v>14488</v>
+        <v>14540</v>
       </c>
       <c r="D969">
-        <v>21292196</v>
+        <v>21364489</v>
       </c>
       <c r="E969" t="s">
         <v>29</v>
@@ -32199,10 +32199,10 @@
         <v>11</v>
       </c>
       <c r="C971">
-        <v>11229</v>
+        <v>11277</v>
       </c>
       <c r="D971">
-        <v>16255287</v>
+        <v>16325737</v>
       </c>
       <c r="E971" t="s">
         <v>29</v>
@@ -32295,10 +32295,10 @@
         <v>11</v>
       </c>
       <c r="C974">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D974">
-        <v>359917</v>
+        <v>362917</v>
       </c>
       <c r="E974" t="s">
         <v>29</v>

--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14955</v>
+        <v>14974</v>
       </c>
       <c r="D2" t="n">
-        <v>18832802</v>
+        <v>18854347</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5884</v>
+        <v>5890</v>
       </c>
       <c r="D6" t="n">
-        <v>8616967</v>
+        <v>8624404</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3038</v>
+        <v>3043</v>
       </c>
       <c r="D8" t="n">
-        <v>4394980</v>
+        <v>4402480</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D11" t="n">
-        <v>426647</v>
+        <v>429647</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9965</v>
+        <v>9975</v>
       </c>
       <c r="D12" t="n">
-        <v>12588214</v>
+        <v>12602318</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="D16" t="n">
-        <v>4448440</v>
+        <v>4451828</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="D18" t="n">
-        <v>1912715</v>
+        <v>1915345</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D20" t="n">
-        <v>213784</v>
+        <v>214060</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13088</v>
+        <v>13097</v>
       </c>
       <c r="D21" t="n">
-        <v>16115968</v>
+        <v>16126269</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4629</v>
+        <v>4634</v>
       </c>
       <c r="D25" t="n">
-        <v>6782121</v>
+        <v>6789621</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5921</v>
+        <v>5937</v>
       </c>
       <c r="D31" t="n">
-        <v>7870234</v>
+        <v>7892619</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="D34" t="n">
-        <v>2173046</v>
+        <v>2176046</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D37" t="n">
-        <v>680416</v>
+        <v>681916</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>20145</v>
+        <v>20162</v>
       </c>
       <c r="D40" t="n">
-        <v>24882295</v>
+        <v>24902781</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7364</v>
+        <v>7377</v>
       </c>
       <c r="D46" t="n">
-        <v>10818353</v>
+        <v>10837659</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3575</v>
+        <v>3577</v>
       </c>
       <c r="D48" t="n">
-        <v>5175979</v>
+        <v>5178979</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7592</v>
+        <v>7593</v>
       </c>
       <c r="D52" t="n">
-        <v>9727628</v>
+        <v>9729128</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="D56" t="n">
-        <v>3824346</v>
+        <v>3825846</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>32964</v>
+        <v>33002</v>
       </c>
       <c r="D61" t="n">
-        <v>42523266</v>
+        <v>42570242</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>12189</v>
+        <v>12199</v>
       </c>
       <c r="D65" t="n">
-        <v>17895415</v>
+        <v>17908622</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4708</v>
+        <v>4711</v>
       </c>
       <c r="D67" t="n">
-        <v>6809663</v>
+        <v>6814163</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D69" t="n">
-        <v>370961</v>
+        <v>373227</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D71" t="n">
-        <v>385639</v>
+        <v>392408</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>42295</v>
+        <v>42344</v>
       </c>
       <c r="D73" t="n">
-        <v>54233413</v>
+        <v>54293672</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>17139</v>
+        <v>17147</v>
       </c>
       <c r="D77" t="n">
-        <v>25130175</v>
+        <v>25142175</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8604</v>
+        <v>8610</v>
       </c>
       <c r="D79" t="n">
-        <v>12429487</v>
+        <v>12438487</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>22699</v>
+        <v>22729</v>
       </c>
       <c r="D84" t="n">
-        <v>28669297</v>
+        <v>28705929</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4558,10 +4558,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>8213</v>
+        <v>8223</v>
       </c>
       <c r="D88" t="n">
-        <v>12060642</v>
+        <v>12072696</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4534</v>
+        <v>4536</v>
       </c>
       <c r="D90" t="n">
-        <v>6565907</v>
+        <v>6568907</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D91" t="n">
-        <v>459813</v>
+        <v>461313</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D92" t="n">
-        <v>918973</v>
+        <v>921973</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>20047</v>
+        <v>20059</v>
       </c>
       <c r="D93" t="n">
-        <v>25220204</v>
+        <v>25235136</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D94" t="n">
-        <v>27224</v>
+        <v>27634</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>8544</v>
+        <v>8556</v>
       </c>
       <c r="D97" t="n">
-        <v>12519284</v>
+        <v>12537284</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3051</v>
+        <v>3053</v>
       </c>
       <c r="D99" t="n">
-        <v>4362957</v>
+        <v>4365957</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>71639</v>
+        <v>71834</v>
       </c>
       <c r="D104" t="n">
-        <v>91794736</v>
+        <v>92023252</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>28571</v>
+        <v>28594</v>
       </c>
       <c r="D111" t="n">
-        <v>41963297</v>
+        <v>41995910</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5758,10 +5758,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>18865</v>
+        <v>18881</v>
       </c>
       <c r="D113" t="n">
-        <v>27260109</v>
+        <v>27284109</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D116" t="n">
-        <v>894108</v>
+        <v>896632</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -6046,10 +6046,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1565</v>
+        <v>1571</v>
       </c>
       <c r="D119" t="n">
-        <v>2204211</v>
+        <v>2210579</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -6094,10 +6094,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>25684</v>
+        <v>25708</v>
       </c>
       <c r="D120" t="n">
-        <v>34002999</v>
+        <v>34029942</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>9138</v>
+        <v>9148</v>
       </c>
       <c r="D124" t="n">
-        <v>13412668</v>
+        <v>13426817</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2994</v>
+        <v>3000</v>
       </c>
       <c r="D126" t="n">
-        <v>4360644</v>
+        <v>4367232</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>14395</v>
+        <v>14422</v>
       </c>
       <c r="D130" t="n">
-        <v>18013948</v>
+        <v>18046013</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>7297</v>
+        <v>7300</v>
       </c>
       <c r="D133" t="n">
-        <v>10689622</v>
+        <v>10694122</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2034</v>
+        <v>2042</v>
       </c>
       <c r="D135" t="n">
-        <v>2913919</v>
+        <v>2921363</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>12453</v>
+        <v>12473</v>
       </c>
       <c r="D140" t="n">
-        <v>15625861</v>
+        <v>15648827</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>5900</v>
+        <v>5910</v>
       </c>
       <c r="D144" t="n">
-        <v>8648357</v>
+        <v>8663357</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="D146" t="n">
-        <v>2632233</v>
+        <v>2635233</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>5579</v>
+        <v>5585</v>
       </c>
       <c r="D150" t="n">
-        <v>6856484</v>
+        <v>6860710</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="D153" t="n">
-        <v>2872077</v>
+        <v>2875077</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>6926</v>
+        <v>6929</v>
       </c>
       <c r="D158" t="n">
-        <v>8635413</v>
+        <v>8639079</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2710</v>
+        <v>2712</v>
       </c>
       <c r="D161" t="n">
-        <v>3972773</v>
+        <v>3975773</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D162" t="n">
-        <v>1870481</v>
+        <v>1871981</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>5242</v>
+        <v>5250</v>
       </c>
       <c r="D166" t="n">
-        <v>6631149</v>
+        <v>6638135</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8542,10 +8542,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="D171" t="n">
-        <v>2791408</v>
+        <v>2792908</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D174" t="n">
-        <v>156382</v>
+        <v>157882</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>14679</v>
+        <v>14700</v>
       </c>
       <c r="D176" t="n">
-        <v>18490028</v>
+        <v>18520771</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>6026</v>
+        <v>6036</v>
       </c>
       <c r="D181" t="n">
-        <v>8804550</v>
+        <v>8818950</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2054</v>
+        <v>2057</v>
       </c>
       <c r="D182" t="n">
-        <v>2959780</v>
+        <v>2964280</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D184" t="n">
-        <v>659871</v>
+        <v>664998</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D185" t="n">
-        <v>507653</v>
+        <v>509153</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2830</v>
+        <v>2833</v>
       </c>
       <c r="D186" t="n">
-        <v>3574394</v>
+        <v>3576492</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="D188" t="n">
-        <v>2008073</v>
+        <v>2014073</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D190" t="n">
-        <v>760169</v>
+        <v>763169</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>8470</v>
+        <v>8480</v>
       </c>
       <c r="D194" t="n">
-        <v>10612325</v>
+        <v>10624350</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9886,10 +9886,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="D199" t="n">
-        <v>2139154</v>
+        <v>2143654</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>16068</v>
+        <v>16072</v>
       </c>
       <c r="D203" t="n">
-        <v>20193239</v>
+        <v>20195771</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>7251</v>
+        <v>7258</v>
       </c>
       <c r="D207" t="n">
-        <v>10656877</v>
+        <v>10667377</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10318,10 +10318,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D208" t="n">
-        <v>1655158</v>
+        <v>1656658</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>24387</v>
+        <v>24410</v>
       </c>
       <c r="D211" t="n">
-        <v>30894329</v>
+        <v>30921695</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D214" t="n">
-        <v>398715</v>
+        <v>401715</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>9935</v>
+        <v>9941</v>
       </c>
       <c r="D215" t="n">
-        <v>14533891</v>
+        <v>14541330</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10750,10 +10750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="D217" t="n">
-        <v>3519413</v>
+        <v>3520913</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10894,10 +10894,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D220" t="n">
-        <v>711520</v>
+        <v>713020</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>26233</v>
+        <v>26263</v>
       </c>
       <c r="D221" t="n">
-        <v>33245183</v>
+        <v>33283318</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>13937</v>
+        <v>13948</v>
       </c>
       <c r="D226" t="n">
-        <v>20470642</v>
+        <v>20484837</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2429</v>
+        <v>2433</v>
       </c>
       <c r="D228" t="n">
-        <v>3486532</v>
+        <v>3492532</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D230" t="n">
-        <v>464185</v>
+        <v>467185</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11422,10 +11422,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D231" t="n">
-        <v>858204</v>
+        <v>864204</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>22555</v>
+        <v>22578</v>
       </c>
       <c r="D232" t="n">
-        <v>28584767</v>
+        <v>28604666</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>10576</v>
+        <v>10583</v>
       </c>
       <c r="D238" t="n">
-        <v>15520538</v>
+        <v>15531038</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11806,10 +11806,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>2329</v>
+        <v>2332</v>
       </c>
       <c r="D239" t="n">
-        <v>3332696</v>
+        <v>3337196</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D242" t="n">
-        <v>497863</v>
+        <v>499751</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>7334</v>
+        <v>7337</v>
       </c>
       <c r="D243" t="n">
-        <v>9206690</v>
+        <v>9209800</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>2532</v>
+        <v>2536</v>
       </c>
       <c r="D247" t="n">
-        <v>3719015</v>
+        <v>3724237</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12286,10 +12286,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="D249" t="n">
-        <v>1314173</v>
+        <v>1318673</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -12382,10 +12382,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D251" t="n">
-        <v>177745</v>
+        <v>179245</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>9025</v>
+        <v>9031</v>
       </c>
       <c r="D252" t="n">
-        <v>11534102</v>
+        <v>11541552</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12718,10 +12718,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="D258" t="n">
-        <v>2896380</v>
+        <v>2901552</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>5156</v>
+        <v>5157</v>
       </c>
       <c r="D261" t="n">
-        <v>6414896</v>
+        <v>6415584</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1888</v>
+        <v>1894</v>
       </c>
       <c r="D264" t="n">
-        <v>2773513</v>
+        <v>2782513</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>17301</v>
+        <v>17327</v>
       </c>
       <c r="D270" t="n">
-        <v>21921392</v>
+        <v>21953281</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13486,10 +13486,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>7444</v>
+        <v>7446</v>
       </c>
       <c r="D274" t="n">
-        <v>10917072</v>
+        <v>10920072</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -13582,10 +13582,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="D276" t="n">
-        <v>3313095</v>
+        <v>3316095</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>15136</v>
+        <v>15174</v>
       </c>
       <c r="D281" t="n">
-        <v>18780766</v>
+        <v>18828373</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>6761</v>
+        <v>6767</v>
       </c>
       <c r="D285" t="n">
-        <v>9921642</v>
+        <v>9930080</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14062,10 +14062,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>3090</v>
+        <v>3093</v>
       </c>
       <c r="D286" t="n">
-        <v>4478485</v>
+        <v>4482985</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>8579</v>
+        <v>8588</v>
       </c>
       <c r="D290" t="n">
-        <v>10792328</v>
+        <v>10805213</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D292" t="n">
-        <v>76870</v>
+        <v>77000</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>3669</v>
+        <v>3673</v>
       </c>
       <c r="D294" t="n">
-        <v>5373783</v>
+        <v>5379783</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D295" t="n">
-        <v>1661918</v>
+        <v>1664340</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14542,10 +14542,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D296" t="n">
-        <v>294839</v>
+        <v>295379</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>8193</v>
+        <v>8197</v>
       </c>
       <c r="D299" t="n">
-        <v>10684715</v>
+        <v>10690715</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14878,10 +14878,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>3282</v>
+        <v>3287</v>
       </c>
       <c r="D303" t="n">
-        <v>4794742</v>
+        <v>4802168</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="D304" t="n">
-        <v>2992197</v>
+        <v>2996697</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>9991</v>
+        <v>10001</v>
       </c>
       <c r="D307" t="n">
-        <v>13102594</v>
+        <v>13115602</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>3357</v>
+        <v>3360</v>
       </c>
       <c r="D311" t="n">
-        <v>4919219</v>
+        <v>4922353</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>6381</v>
+        <v>6386</v>
       </c>
       <c r="D316" t="n">
-        <v>7928797</v>
+        <v>7935761</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="D320" t="n">
-        <v>3185429</v>
+        <v>3186929</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D322" t="n">
-        <v>1043022</v>
+        <v>1044522</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15934,10 +15934,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>6937</v>
+        <v>6941</v>
       </c>
       <c r="D325" t="n">
-        <v>8713050</v>
+        <v>8716594</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -16126,10 +16126,10 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="D329" t="n">
-        <v>4285725</v>
+        <v>4287225</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -16318,10 +16318,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>29007</v>
+        <v>29053</v>
       </c>
       <c r="D333" t="n">
-        <v>36569136</v>
+        <v>36627594</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -16606,10 +16606,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>15471</v>
+        <v>15484</v>
       </c>
       <c r="D339" t="n">
-        <v>22647085</v>
+        <v>22666285</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>7419</v>
+        <v>7426</v>
       </c>
       <c r="D342" t="n">
-        <v>10696579</v>
+        <v>10706114</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>3598</v>
+        <v>3601</v>
       </c>
       <c r="D345" t="n">
-        <v>4501837</v>
+        <v>4505643</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>17803</v>
+        <v>17829</v>
       </c>
       <c r="D353" t="n">
-        <v>22214864</v>
+        <v>22241673</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17470,10 +17470,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>9244</v>
+        <v>9252</v>
       </c>
       <c r="D357" t="n">
-        <v>13580919</v>
+        <v>13591389</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>4396</v>
+        <v>4406</v>
       </c>
       <c r="D359" t="n">
-        <v>6366635</v>
+        <v>6380532</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17710,10 +17710,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>12755</v>
+        <v>12774</v>
       </c>
       <c r="D362" t="n">
-        <v>15961939</v>
+        <v>15989606</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>6082</v>
+        <v>6091</v>
       </c>
       <c r="D366" t="n">
-        <v>8907782</v>
+        <v>8919735</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D369" t="n">
-        <v>935577</v>
+        <v>939464</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>16530</v>
+        <v>16545</v>
       </c>
       <c r="D371" t="n">
-        <v>20666439</v>
+        <v>20676249</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18286,10 +18286,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>6790</v>
+        <v>6798</v>
       </c>
       <c r="D374" t="n">
-        <v>9991793</v>
+        <v>10000927</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>2627</v>
+        <v>2630</v>
       </c>
       <c r="D376" t="n">
-        <v>3820641</v>
+        <v>3825141</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D378" t="n">
-        <v>196996</v>
+        <v>198496</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>3830</v>
+        <v>3832</v>
       </c>
       <c r="D380" t="n">
-        <v>4810388</v>
+        <v>4810653</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D383" t="n">
-        <v>1912112</v>
+        <v>1913612</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D386" t="n">
-        <v>93216</v>
+        <v>96216</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>20628</v>
+        <v>20659</v>
       </c>
       <c r="D387" t="n">
-        <v>25670874</v>
+        <v>25710184</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>8902</v>
+        <v>8913</v>
       </c>
       <c r="D390" t="n">
-        <v>13112139</v>
+        <v>13127774</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19150,10 +19150,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>5847</v>
+        <v>5850</v>
       </c>
       <c r="D392" t="n">
-        <v>8499954</v>
+        <v>8504454</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D393" t="n">
-        <v>214561</v>
+        <v>219061</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>10314</v>
+        <v>10321</v>
       </c>
       <c r="D395" t="n">
-        <v>12746417</v>
+        <v>12750961</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19534,10 +19534,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>5033</v>
+        <v>5039</v>
       </c>
       <c r="D400" t="n">
-        <v>7362410</v>
+        <v>7371410</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="D402" t="n">
-        <v>2483835</v>
+        <v>2486835</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>26085</v>
+        <v>26229</v>
       </c>
       <c r="D405" t="n">
-        <v>35376245</v>
+        <v>35566253</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19966,10 +19966,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>6682</v>
+        <v>6698</v>
       </c>
       <c r="D409" t="n">
-        <v>9847374</v>
+        <v>9870874</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20062,10 +20062,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>5885</v>
+        <v>5897</v>
       </c>
       <c r="D411" t="n">
-        <v>8523417</v>
+        <v>8541412</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D413" t="n">
-        <v>590549</v>
+        <v>592049</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20254,10 +20254,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>6232</v>
+        <v>6289</v>
       </c>
       <c r="D415" t="n">
-        <v>8623575</v>
+        <v>8706226</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>1551</v>
+        <v>1574</v>
       </c>
       <c r="D417" t="n">
-        <v>2282407</v>
+        <v>2316907</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>2095</v>
+        <v>2112</v>
       </c>
       <c r="D419" t="n">
-        <v>3051637</v>
+        <v>3075017</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20542,10 +20542,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D421" t="n">
-        <v>109370</v>
+        <v>113870</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>10263</v>
+        <v>10270</v>
       </c>
       <c r="D423" t="n">
-        <v>12683137</v>
+        <v>12690399</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>3591</v>
+        <v>3597</v>
       </c>
       <c r="D426" t="n">
-        <v>5273447</v>
+        <v>5282424</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="D428" t="n">
-        <v>2491087</v>
+        <v>2491691</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -21022,10 +21022,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>57371</v>
+        <v>57451</v>
       </c>
       <c r="D431" t="n">
-        <v>71150441</v>
+        <v>71243637</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -21214,10 +21214,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>23524</v>
+        <v>23541</v>
       </c>
       <c r="D435" t="n">
-        <v>34506678</v>
+        <v>34531898</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -21310,10 +21310,10 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>11867</v>
+        <v>11876</v>
       </c>
       <c r="D437" t="n">
-        <v>17207847</v>
+        <v>17220527</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -21502,10 +21502,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="D441" t="n">
-        <v>1233126</v>
+        <v>1239659</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>17369</v>
+        <v>17382</v>
       </c>
       <c r="D443" t="n">
-        <v>21949263</v>
+        <v>21965751</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21790,10 +21790,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>7229</v>
+        <v>7238</v>
       </c>
       <c r="D447" t="n">
-        <v>10625604</v>
+        <v>10638953</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>30156</v>
+        <v>30191</v>
       </c>
       <c r="D452" t="n">
-        <v>36945049</v>
+        <v>36984649</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22222,10 +22222,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>10903</v>
+        <v>10910</v>
       </c>
       <c r="D456" t="n">
-        <v>15966017</v>
+        <v>15976055</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>4625</v>
+        <v>4626</v>
       </c>
       <c r="D458" t="n">
-        <v>6711543</v>
+        <v>6713043</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22414,10 +22414,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D460" t="n">
-        <v>485995</v>
+        <v>487495</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>13272</v>
+        <v>13289</v>
       </c>
       <c r="D461" t="n">
-        <v>16277733</v>
+        <v>16301396</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="D466" t="n">
-        <v>6132840</v>
+        <v>6134340</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="D468" t="n">
-        <v>2791188</v>
+        <v>2792688</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22942,10 +22942,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>30887</v>
+        <v>30990</v>
       </c>
       <c r="D471" t="n">
-        <v>40114238</v>
+        <v>40251769</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -23134,10 +23134,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>12527</v>
+        <v>12538</v>
       </c>
       <c r="D475" t="n">
-        <v>18445095</v>
+        <v>18461595</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>10722</v>
+        <v>10732</v>
       </c>
       <c r="D477" t="n">
-        <v>15635716</v>
+        <v>15648746</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D479" t="n">
-        <v>334740</v>
+        <v>337740</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23374,10 +23374,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>51265</v>
+        <v>51480</v>
       </c>
       <c r="D480" t="n">
-        <v>67572847</v>
+        <v>67865329</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>20871</v>
+        <v>20900</v>
       </c>
       <c r="D485" t="n">
-        <v>30667771</v>
+        <v>30709306</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>19631</v>
+        <v>19660</v>
       </c>
       <c r="D487" t="n">
-        <v>28503297</v>
+        <v>28546506</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D489" t="n">
-        <v>326608</v>
+        <v>327608</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -23902,10 +23902,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>127003</v>
+        <v>127357</v>
       </c>
       <c r="D491" t="n">
-        <v>166988132</v>
+        <v>167458598</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -24190,10 +24190,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D497" t="n">
-        <v>23273</v>
+        <v>24773</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24238,10 +24238,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>72881</v>
+        <v>72982</v>
       </c>
       <c r="D498" t="n">
-        <v>107157106</v>
+        <v>107296365</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -24382,10 +24382,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>52530</v>
+        <v>52622</v>
       </c>
       <c r="D501" t="n">
-        <v>76275393</v>
+        <v>76409428</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -24478,10 +24478,10 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D503" t="n">
-        <v>1233162</v>
+        <v>1236162</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
@@ -24574,10 +24574,10 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>2256</v>
+        <v>2261</v>
       </c>
       <c r="D505" t="n">
-        <v>3182062</v>
+        <v>3188362</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>35854</v>
+        <v>35921</v>
       </c>
       <c r="D507" t="n">
-        <v>46459386</v>
+        <v>46544569</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24910,10 +24910,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>14164</v>
+        <v>14184</v>
       </c>
       <c r="D512" t="n">
-        <v>20833537</v>
+        <v>20856602</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -25006,10 +25006,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>11638</v>
+        <v>11654</v>
       </c>
       <c r="D514" t="n">
-        <v>16870554</v>
+        <v>16890990</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D516" t="n">
-        <v>403066</v>
+        <v>404566</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25198,10 +25198,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>52640</v>
+        <v>52942</v>
       </c>
       <c r="D518" t="n">
-        <v>70295284</v>
+        <v>70709946</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>21141</v>
+        <v>21183</v>
       </c>
       <c r="D522" t="n">
-        <v>31215767</v>
+        <v>31278507</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25486,10 +25486,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>20868</v>
+        <v>20897</v>
       </c>
       <c r="D524" t="n">
-        <v>30541865</v>
+        <v>30582911</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25582,10 +25582,10 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D526" t="n">
-        <v>322233</v>
+        <v>325233</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="D527" t="n">
-        <v>967242</v>
+        <v>980742</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25678,10 +25678,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>45160</v>
+        <v>45375</v>
       </c>
       <c r="D528" t="n">
-        <v>59599637</v>
+        <v>59893010</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>16212</v>
+        <v>16239</v>
       </c>
       <c r="D531" t="n">
-        <v>23839114</v>
+        <v>23878932</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25918,10 +25918,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>16027</v>
+        <v>16052</v>
       </c>
       <c r="D533" t="n">
-        <v>23290741</v>
+        <v>23328223</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D534" t="n">
-        <v>284167</v>
+        <v>285087</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>34569</v>
+        <v>34673</v>
       </c>
       <c r="D536" t="n">
-        <v>45627700</v>
+        <v>45775879</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26254,10 +26254,10 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>13055</v>
+        <v>13069</v>
       </c>
       <c r="D540" t="n">
-        <v>19259453</v>
+        <v>19279903</v>
       </c>
       <c r="E540" t="inlineStr">
         <is>
@@ -26350,10 +26350,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>12629</v>
+        <v>12666</v>
       </c>
       <c r="D542" t="n">
-        <v>18349259</v>
+        <v>18399033</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>35833</v>
+        <v>35926</v>
       </c>
       <c r="D545" t="n">
-        <v>46382502</v>
+        <v>46509403</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26686,10 +26686,10 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>14960</v>
+        <v>14984</v>
       </c>
       <c r="D549" t="n">
-        <v>21967419</v>
+        <v>22001052</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
@@ -26782,10 +26782,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>11637</v>
+        <v>11659</v>
       </c>
       <c r="D551" t="n">
-        <v>16841253</v>
+        <v>16869986</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>38703</v>
+        <v>38734</v>
       </c>
       <c r="D555" t="n">
-        <v>51829668</v>
+        <v>51871227</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>12806</v>
+        <v>12817</v>
       </c>
       <c r="D561" t="n">
-        <v>18814557</v>
+        <v>18829297</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="D562" t="n">
-        <v>4819946</v>
+        <v>4821446</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D567" t="n">
-        <v>454159</v>
+        <v>457159</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27598,10 +27598,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>14885</v>
+        <v>14912</v>
       </c>
       <c r="D568" t="n">
-        <v>19740753</v>
+        <v>19779305</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>6291</v>
+        <v>6304</v>
       </c>
       <c r="D572" t="n">
-        <v>9166528</v>
+        <v>9185514</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27886,10 +27886,10 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>4203</v>
+        <v>4208</v>
       </c>
       <c r="D574" t="n">
-        <v>6062961</v>
+        <v>6070161</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D577" t="n">
-        <v>288001</v>
+        <v>292501</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>10815</v>
+        <v>10918</v>
       </c>
       <c r="D579" t="n">
-        <v>15628754</v>
+        <v>15780204</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28174,10 +28174,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>1385</v>
+        <v>1392</v>
       </c>
       <c r="D580" t="n">
-        <v>2059078</v>
+        <v>2069578</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>20183</v>
+        <v>20213</v>
       </c>
       <c r="D584" t="n">
-        <v>25404957</v>
+        <v>25439422</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28606,10 +28606,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>8471</v>
+        <v>8473</v>
       </c>
       <c r="D589" t="n">
-        <v>12420189</v>
+        <v>12422379</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>3087</v>
+        <v>3092</v>
       </c>
       <c r="D591" t="n">
-        <v>4433868</v>
+        <v>4441368</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28750,10 +28750,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D592" t="n">
-        <v>442238</v>
+        <v>445108</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D593" t="n">
-        <v>536084</v>
+        <v>540584</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>13461</v>
+        <v>13484</v>
       </c>
       <c r="D595" t="n">
-        <v>16907905</v>
+        <v>16938376</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -29086,10 +29086,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>5498</v>
+        <v>5508</v>
       </c>
       <c r="D599" t="n">
-        <v>8075148</v>
+        <v>8089686</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>2481</v>
+        <v>2486</v>
       </c>
       <c r="D601" t="n">
-        <v>3577504</v>
+        <v>3585004</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>12772</v>
+        <v>12797</v>
       </c>
       <c r="D604" t="n">
-        <v>16206889</v>
+        <v>16236183</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>4908</v>
+        <v>4912</v>
       </c>
       <c r="D608" t="n">
-        <v>7198907</v>
+        <v>7204907</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>6962</v>
+        <v>6970</v>
       </c>
       <c r="D613" t="n">
-        <v>8983331</v>
+        <v>8994339</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29998,10 +29998,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>2422</v>
+        <v>2424</v>
       </c>
       <c r="D618" t="n">
-        <v>3553727</v>
+        <v>3556727</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -30190,10 +30190,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>26473</v>
+        <v>26507</v>
       </c>
       <c r="D622" t="n">
-        <v>32698169</v>
+        <v>32743082</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30382,10 +30382,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>10445</v>
+        <v>10453</v>
       </c>
       <c r="D626" t="n">
-        <v>15330269</v>
+        <v>15341796</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -30478,10 +30478,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>4443</v>
+        <v>4453</v>
       </c>
       <c r="D628" t="n">
-        <v>6449497</v>
+        <v>6464497</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
@@ -30622,10 +30622,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D631" t="n">
-        <v>670903</v>
+        <v>673903</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>10504</v>
+        <v>10514</v>
       </c>
       <c r="D632" t="n">
-        <v>12793120</v>
+        <v>12802181</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30910,10 +30910,10 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>3469</v>
+        <v>3472</v>
       </c>
       <c r="D637" t="n">
-        <v>5081079</v>
+        <v>5085579</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
@@ -30958,10 +30958,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="D638" t="n">
-        <v>1493322</v>
+        <v>1499322</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
@@ -31150,10 +31150,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>26204</v>
+        <v>26226</v>
       </c>
       <c r="D642" t="n">
-        <v>32707553</v>
+        <v>32727979</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31342,10 +31342,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>10212</v>
+        <v>10219</v>
       </c>
       <c r="D646" t="n">
-        <v>15015796</v>
+        <v>15022557</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -31438,10 +31438,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>2873</v>
+        <v>2875</v>
       </c>
       <c r="D648" t="n">
-        <v>4143149</v>
+        <v>4146149</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -31630,10 +31630,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>6970</v>
+        <v>6976</v>
       </c>
       <c r="D652" t="n">
-        <v>8852581</v>
+        <v>8860290</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="D654" t="n">
-        <v>3697603</v>
+        <v>3700603</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31870,10 +31870,10 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D657" t="n">
-        <v>314684</v>
+        <v>316184</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -31966,10 +31966,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D659" t="n">
-        <v>196471</v>
+        <v>196973</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>3477</v>
+        <v>3482</v>
       </c>
       <c r="D660" t="n">
-        <v>4234367</v>
+        <v>4240277</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32206,10 +32206,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D664" t="n">
-        <v>1071135</v>
+        <v>1072656</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>8576</v>
+        <v>8591</v>
       </c>
       <c r="D669" t="n">
-        <v>10738002</v>
+        <v>10757540</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32686,10 +32686,10 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D674" t="n">
-        <v>1010547</v>
+        <v>1012848</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -32878,10 +32878,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>17651</v>
+        <v>17668</v>
       </c>
       <c r="D678" t="n">
-        <v>21648657</v>
+        <v>21669072</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>5318</v>
+        <v>5323</v>
       </c>
       <c r="D682" t="n">
-        <v>7770714</v>
+        <v>7778214</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>67024</v>
+        <v>67104</v>
       </c>
       <c r="D688" t="n">
-        <v>84392957</v>
+        <v>84481689</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33598,10 +33598,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>24866</v>
+        <v>24895</v>
       </c>
       <c r="D693" t="n">
-        <v>36532065</v>
+        <v>36572931</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>12080</v>
+        <v>12098</v>
       </c>
       <c r="D696" t="n">
-        <v>17415924</v>
+        <v>17441469</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33886,10 +33886,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="D699" t="n">
-        <v>2554817</v>
+        <v>2556317</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -33982,10 +33982,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D701" t="n">
-        <v>1403845</v>
+        <v>1405345</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -34030,10 +34030,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>10119</v>
+        <v>10132</v>
       </c>
       <c r="D702" t="n">
-        <v>12417723</v>
+        <v>12431149</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -34174,10 +34174,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>3901</v>
+        <v>3908</v>
       </c>
       <c r="D705" t="n">
-        <v>5711778</v>
+        <v>5721797</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34270,10 +34270,10 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D707" t="n">
-        <v>2022517</v>
+        <v>2024017</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -34366,10 +34366,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D709" t="n">
-        <v>289490</v>
+        <v>292912</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -34414,10 +34414,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>16268</v>
+        <v>16280</v>
       </c>
       <c r="D710" t="n">
-        <v>20137735</v>
+        <v>20151766</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>6465</v>
+        <v>6469</v>
       </c>
       <c r="D714" t="n">
-        <v>9450193</v>
+        <v>9456193</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34942,10 +34942,10 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>10522</v>
+        <v>10542</v>
       </c>
       <c r="D721" t="n">
-        <v>12997222</v>
+        <v>13023011</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -35134,10 +35134,10 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>3999</v>
+        <v>4002</v>
       </c>
       <c r="D725" t="n">
-        <v>5865170</v>
+        <v>5869218</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -35230,10 +35230,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="D727" t="n">
-        <v>2139476</v>
+        <v>2142026</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -35374,10 +35374,10 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>27142</v>
+        <v>27186</v>
       </c>
       <c r="D730" t="n">
-        <v>33858935</v>
+        <v>33909850</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -35614,10 +35614,10 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>11887</v>
+        <v>11901</v>
       </c>
       <c r="D735" t="n">
-        <v>17396448</v>
+        <v>17416464</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -35710,10 +35710,10 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>3845</v>
+        <v>3848</v>
       </c>
       <c r="D737" t="n">
-        <v>5501896</v>
+        <v>5506396</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -35806,10 +35806,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="D739" t="n">
-        <v>953439</v>
+        <v>967798</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -35950,10 +35950,10 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>11042</v>
+        <v>11070</v>
       </c>
       <c r="D742" t="n">
-        <v>13694359</v>
+        <v>13729666</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -36094,10 +36094,10 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>4364</v>
+        <v>4369</v>
       </c>
       <c r="D745" t="n">
-        <v>6383424</v>
+        <v>6390242</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -36142,10 +36142,10 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D746" t="n">
-        <v>1492095</v>
+        <v>1493595</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -36190,10 +36190,10 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D747" t="n">
-        <v>221660</v>
+        <v>223160</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -36238,10 +36238,10 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D748" t="n">
-        <v>432079</v>
+        <v>432455</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -36286,10 +36286,10 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>6070</v>
+        <v>6077</v>
       </c>
       <c r="D749" t="n">
-        <v>7153713</v>
+        <v>7159022</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -36574,10 +36574,10 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>15256</v>
+        <v>15266</v>
       </c>
       <c r="D755" t="n">
-        <v>18549367</v>
+        <v>18561147</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -36814,10 +36814,10 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>5121</v>
+        <v>5122</v>
       </c>
       <c r="D760" t="n">
-        <v>7505876</v>
+        <v>7506676</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -37102,10 +37102,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>10467</v>
+        <v>10477</v>
       </c>
       <c r="D766" t="n">
-        <v>13333935</v>
+        <v>13343904</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -37246,10 +37246,10 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>3725</v>
+        <v>3726</v>
       </c>
       <c r="D769" t="n">
-        <v>5451428</v>
+        <v>5451923</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -37342,10 +37342,10 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D771" t="n">
-        <v>1655721</v>
+        <v>1657221</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -37486,10 +37486,10 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D774" t="n">
-        <v>257442</v>
+        <v>263442</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -37534,10 +37534,10 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>29384</v>
+        <v>29406</v>
       </c>
       <c r="D775" t="n">
-        <v>36289367</v>
+        <v>36315111</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -37630,10 +37630,10 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D777" t="n">
-        <v>50350</v>
+        <v>51850</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -37726,10 +37726,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>12301</v>
+        <v>12315</v>
       </c>
       <c r="D779" t="n">
-        <v>18012198</v>
+        <v>18032232</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -37822,10 +37822,10 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>5625</v>
+        <v>5629</v>
       </c>
       <c r="D781" t="n">
-        <v>8129726</v>
+        <v>8135726</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -37870,10 +37870,10 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D782" t="n">
-        <v>661672</v>
+        <v>663172</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -38014,10 +38014,10 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>6980</v>
+        <v>6985</v>
       </c>
       <c r="D785" t="n">
-        <v>8660867</v>
+        <v>8665276</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -38302,10 +38302,10 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="D791" t="n">
-        <v>3646519</v>
+        <v>3648019</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -38350,10 +38350,10 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="D792" t="n">
-        <v>1488184</v>
+        <v>1493056</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -38398,10 +38398,10 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D793" t="n">
-        <v>466708</v>
+        <v>468565</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -38494,10 +38494,10 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>52073</v>
+        <v>52191</v>
       </c>
       <c r="D795" t="n">
-        <v>65002993</v>
+        <v>65155852</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -38734,10 +38734,10 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>19754</v>
+        <v>19767</v>
       </c>
       <c r="D800" t="n">
-        <v>28922140</v>
+        <v>28941640</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -38878,10 +38878,10 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>11507</v>
+        <v>11520</v>
       </c>
       <c r="D803" t="n">
-        <v>16610805</v>
+        <v>16629480</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -39118,10 +39118,10 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>1087</v>
+        <v>1094</v>
       </c>
       <c r="D808" t="n">
-        <v>1513879</v>
+        <v>1523879</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -39166,10 +39166,10 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>10051</v>
+        <v>10059</v>
       </c>
       <c r="D809" t="n">
-        <v>12558050</v>
+        <v>12568263</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -39358,10 +39358,10 @@
         </is>
       </c>
       <c r="C813" t="n">
-        <v>3498</v>
+        <v>3503</v>
       </c>
       <c r="D813" t="n">
-        <v>5088299</v>
+        <v>5095799</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -39550,10 +39550,10 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D817" t="n">
-        <v>168123</v>
+        <v>171123</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -39646,10 +39646,10 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D819" t="n">
-        <v>299306</v>
+        <v>300806</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -39694,10 +39694,10 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>52849</v>
+        <v>52892</v>
       </c>
       <c r="D820" t="n">
-        <v>65539475</v>
+        <v>65588854</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -39934,10 +39934,10 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D825" t="n">
-        <v>120158</v>
+        <v>121658</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -39982,10 +39982,10 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>20853</v>
+        <v>20867</v>
       </c>
       <c r="D826" t="n">
-        <v>30602997</v>
+        <v>30621184</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -40078,10 +40078,10 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>13109</v>
+        <v>13116</v>
       </c>
       <c r="D828" t="n">
-        <v>18997569</v>
+        <v>19006293</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -40174,10 +40174,10 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D830" t="n">
-        <v>1179289</v>
+        <v>1182289</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -40222,10 +40222,10 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="D831" t="n">
-        <v>1394421</v>
+        <v>1397609</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -40318,10 +40318,10 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>7074</v>
+        <v>7082</v>
       </c>
       <c r="D833" t="n">
-        <v>8719363</v>
+        <v>8727463</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -40414,10 +40414,10 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>2387</v>
+        <v>2390</v>
       </c>
       <c r="D835" t="n">
-        <v>3481270</v>
+        <v>3484539</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -40462,10 +40462,10 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="D836" t="n">
-        <v>1441217</v>
+        <v>1445717</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -40510,10 +40510,10 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D837" t="n">
-        <v>408097</v>
+        <v>412597</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -40606,10 +40606,10 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>2963</v>
+        <v>2984</v>
       </c>
       <c r="D839" t="n">
-        <v>3806033</v>
+        <v>3831864</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -40750,10 +40750,10 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="D842" t="n">
-        <v>1604170</v>
+        <v>1607170</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -40846,10 +40846,10 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D844" t="n">
-        <v>498190</v>
+        <v>498440</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -40942,10 +40942,10 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D846" t="n">
-        <v>122584</v>
+        <v>124084</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -40990,10 +40990,10 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>20422</v>
+        <v>20432</v>
       </c>
       <c r="D847" t="n">
-        <v>25628995</v>
+        <v>25642400</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -41182,10 +41182,10 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>7218</v>
+        <v>7221</v>
       </c>
       <c r="D851" t="n">
-        <v>10538196</v>
+        <v>10542696</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -41278,10 +41278,10 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>4284</v>
+        <v>4286</v>
       </c>
       <c r="D853" t="n">
-        <v>6197230</v>
+        <v>6200230</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -41422,10 +41422,10 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D856" t="n">
-        <v>500202</v>
+        <v>501702</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -41518,10 +41518,10 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>13350</v>
+        <v>13362</v>
       </c>
       <c r="D858" t="n">
-        <v>16161401</v>
+        <v>16172279</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -41950,10 +41950,10 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D867" t="n">
-        <v>329166</v>
+        <v>333666</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -41998,10 +41998,10 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>8924</v>
+        <v>8932</v>
       </c>
       <c r="D868" t="n">
-        <v>10962394</v>
+        <v>10970304</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -42142,10 +42142,10 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>3193</v>
+        <v>3195</v>
       </c>
       <c r="D871" t="n">
-        <v>4683284</v>
+        <v>4685484</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -42190,10 +42190,10 @@
         </is>
       </c>
       <c r="C872" t="n">
-        <v>1384</v>
+        <v>1388</v>
       </c>
       <c r="D872" t="n">
-        <v>1987967</v>
+        <v>1993967</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -42238,10 +42238,10 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D873" t="n">
-        <v>161896</v>
+        <v>163396</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -42286,10 +42286,10 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D874" t="n">
-        <v>239159</v>
+        <v>240659</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -42334,10 +42334,10 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>40547</v>
+        <v>40582</v>
       </c>
       <c r="D875" t="n">
-        <v>51095643</v>
+        <v>51142115</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -42574,10 +42574,10 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>19831</v>
+        <v>19844</v>
       </c>
       <c r="D880" t="n">
-        <v>29093548</v>
+        <v>29111619</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -42670,10 +42670,10 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>5357</v>
+        <v>5365</v>
       </c>
       <c r="D882" t="n">
-        <v>7714012</v>
+        <v>7725308</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -42814,10 +42814,10 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="D885" t="n">
-        <v>1122312</v>
+        <v>1127381</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -42862,10 +42862,10 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>19502</v>
+        <v>19529</v>
       </c>
       <c r="D886" t="n">
-        <v>24345932</v>
+        <v>24374415</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -43006,10 +43006,10 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>9255</v>
+        <v>9261</v>
       </c>
       <c r="D889" t="n">
-        <v>13562704</v>
+        <v>13571704</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -43102,10 +43102,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="D891" t="n">
-        <v>3014711</v>
+        <v>3016211</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -43246,10 +43246,10 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D894" t="n">
-        <v>777135</v>
+        <v>780135</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -43294,10 +43294,10 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>6451</v>
+        <v>6453</v>
       </c>
       <c r="D895" t="n">
-        <v>8168609</v>
+        <v>8170559</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -43534,10 +43534,10 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="D900" t="n">
-        <v>4198353</v>
+        <v>4199853</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -43726,10 +43726,10 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>11960</v>
+        <v>11967</v>
       </c>
       <c r="D904" t="n">
-        <v>14939502</v>
+        <v>14949860</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -43918,10 +43918,10 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>4938</v>
+        <v>4940</v>
       </c>
       <c r="D908" t="n">
-        <v>7222608</v>
+        <v>7225608</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -44110,10 +44110,10 @@
         </is>
       </c>
       <c r="C912" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D912" t="n">
-        <v>190273</v>
+        <v>191773</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -44254,10 +44254,10 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>17932</v>
+        <v>17947</v>
       </c>
       <c r="D915" t="n">
-        <v>22527603</v>
+        <v>22543470</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -44446,10 +44446,10 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>9548</v>
+        <v>9556</v>
       </c>
       <c r="D919" t="n">
-        <v>13967478</v>
+        <v>13978866</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -44542,10 +44542,10 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>1921</v>
+        <v>1926</v>
       </c>
       <c r="D921" t="n">
-        <v>2770513</v>
+        <v>2778013</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -44686,10 +44686,10 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>7894</v>
+        <v>7903</v>
       </c>
       <c r="D924" t="n">
-        <v>9894186</v>
+        <v>9906505</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -44926,10 +44926,10 @@
         </is>
       </c>
       <c r="C929" t="n">
-        <v>2974</v>
+        <v>2977</v>
       </c>
       <c r="D929" t="n">
-        <v>4341071</v>
+        <v>4345571</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -44974,10 +44974,10 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="D930" t="n">
-        <v>1992330</v>
+        <v>1998329</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -45166,10 +45166,10 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>60138</v>
+        <v>60219</v>
       </c>
       <c r="D934" t="n">
-        <v>77238227</v>
+        <v>77332274</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -45502,10 +45502,10 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>23489</v>
+        <v>23516</v>
       </c>
       <c r="D941" t="n">
-        <v>34455032</v>
+        <v>34494025</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -45598,10 +45598,10 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>15758</v>
+        <v>15776</v>
       </c>
       <c r="D943" t="n">
-        <v>22866235</v>
+        <v>22893235</v>
       </c>
       <c r="E943" t="inlineStr">
         <is>
@@ -45694,10 +45694,10 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D945" t="n">
-        <v>586073</v>
+        <v>590573</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -45742,10 +45742,10 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="D946" t="n">
-        <v>1056548</v>
+        <v>1061048</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -45790,10 +45790,10 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>75841</v>
+        <v>75925</v>
       </c>
       <c r="D947" t="n">
-        <v>95357764</v>
+        <v>95447088</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -45886,10 +45886,10 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D949" t="n">
-        <v>86260</v>
+        <v>87760</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -46126,10 +46126,10 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>31719</v>
+        <v>31752</v>
       </c>
       <c r="D954" t="n">
-        <v>46554448</v>
+        <v>46602095</v>
       </c>
       <c r="E954" t="inlineStr">
         <is>
@@ -46270,10 +46270,10 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>23153</v>
+        <v>23177</v>
       </c>
       <c r="D957" t="n">
-        <v>33592580</v>
+        <v>33628580</v>
       </c>
       <c r="E957" t="inlineStr">
         <is>
@@ -46414,10 +46414,10 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="D960" t="n">
-        <v>2317820</v>
+        <v>2319320</v>
       </c>
       <c r="E960" t="inlineStr">
         <is>
@@ -46462,10 +46462,10 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>9837</v>
+        <v>9841</v>
       </c>
       <c r="D961" t="n">
-        <v>12858440</v>
+        <v>12862654</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
@@ -46894,10 +46894,10 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D970" t="n">
-        <v>225389</v>
+        <v>226889</v>
       </c>
       <c r="E970" t="inlineStr">
         <is>
@@ -46942,10 +46942,10 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>51536</v>
+        <v>51579</v>
       </c>
       <c r="D971" t="n">
-        <v>64588508</v>
+        <v>64634121</v>
       </c>
       <c r="E971" t="inlineStr">
         <is>
@@ -46990,10 +46990,10 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D972" t="n">
-        <v>39835</v>
+        <v>41335</v>
       </c>
       <c r="E972" t="inlineStr">
         <is>
@@ -47182,10 +47182,10 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>17478</v>
+        <v>17484</v>
       </c>
       <c r="D976" t="n">
-        <v>25614561</v>
+        <v>25622092</v>
       </c>
       <c r="E976" t="inlineStr">
         <is>
@@ -47278,10 +47278,10 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>11744</v>
+        <v>11754</v>
       </c>
       <c r="D978" t="n">
-        <v>17000057</v>
+        <v>17014712</v>
       </c>
       <c r="E978" t="inlineStr">
         <is>
@@ -47326,10 +47326,10 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D979" t="n">
-        <v>635130</v>
+        <v>636630</v>
       </c>
       <c r="E979" t="inlineStr">
         <is>
@@ -47422,10 +47422,10 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D981" t="n">
-        <v>893133</v>
+        <v>895002</v>
       </c>
       <c r="E981" t="inlineStr">
         <is>
@@ -47470,10 +47470,10 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>25730</v>
+        <v>25760</v>
       </c>
       <c r="D982" t="n">
-        <v>32049373</v>
+        <v>32082997</v>
       </c>
       <c r="E982" t="inlineStr">
         <is>
@@ -47710,10 +47710,10 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>9777</v>
+        <v>9791</v>
       </c>
       <c r="D987" t="n">
-        <v>14329360</v>
+        <v>14348905</v>
       </c>
       <c r="E987" t="inlineStr">
         <is>
@@ -47806,10 +47806,10 @@
         </is>
       </c>
       <c r="C989" t="n">
-        <v>5736</v>
+        <v>5742</v>
       </c>
       <c r="D989" t="n">
-        <v>8324219</v>
+        <v>8333219</v>
       </c>
       <c r="E989" t="inlineStr">
         <is>
@@ -47902,10 +47902,10 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D991" t="n">
-        <v>577173</v>
+        <v>579329</v>
       </c>
       <c r="E991" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15630</v>
+        <v>15725</v>
       </c>
       <c r="D2" t="n">
-        <v>19659369</v>
+        <v>19779700</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6037</v>
+        <v>6055</v>
       </c>
       <c r="D6" t="n">
-        <v>8839372</v>
+        <v>8865122</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3149</v>
+        <v>3168</v>
       </c>
       <c r="D8" t="n">
-        <v>4557896</v>
+        <v>4585403</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D11" t="n">
-        <v>467272</v>
+        <v>471772</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10380</v>
+        <v>10442</v>
       </c>
       <c r="D12" t="n">
-        <v>13105357</v>
+        <v>13181707</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3139</v>
+        <v>3157</v>
       </c>
       <c r="D16" t="n">
-        <v>4575692</v>
+        <v>4601785</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1392</v>
+        <v>1398</v>
       </c>
       <c r="D18" t="n">
-        <v>2003220</v>
+        <v>2012220</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D19" t="n">
-        <v>461297</v>
+        <v>464524</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D20" t="n">
-        <v>250135</v>
+        <v>256768</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13619</v>
+        <v>13703</v>
       </c>
       <c r="D21" t="n">
-        <v>16754231</v>
+        <v>16852584</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4766</v>
+        <v>4783</v>
       </c>
       <c r="D25" t="n">
-        <v>6980937</v>
+        <v>7005214</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="D27" t="n">
-        <v>2366426</v>
+        <v>2374151</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D30" t="n">
-        <v>407029</v>
+        <v>414170</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6120</v>
+        <v>6153</v>
       </c>
       <c r="D31" t="n">
-        <v>8127530</v>
+        <v>8174028</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1918,10 +1918,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D33" t="n">
-        <v>55976</v>
+        <v>57476</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1555</v>
+        <v>1562</v>
       </c>
       <c r="D34" t="n">
-        <v>2246546</v>
+        <v>2254491</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D36" t="n">
-        <v>782025</v>
+        <v>785025</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D37" t="n">
-        <v>690326</v>
+        <v>693326</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>20937</v>
+        <v>21047</v>
       </c>
       <c r="D40" t="n">
-        <v>25841232</v>
+        <v>25971976</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7577</v>
+        <v>7605</v>
       </c>
       <c r="D46" t="n">
-        <v>11130601</v>
+        <v>11172197</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3682</v>
+        <v>3695</v>
       </c>
       <c r="D48" t="n">
-        <v>5330987</v>
+        <v>5350487</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D50" t="n">
-        <v>394238</v>
+        <v>396500</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D51" t="n">
-        <v>728563</v>
+        <v>734563</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7859</v>
+        <v>7886</v>
       </c>
       <c r="D52" t="n">
-        <v>10057255</v>
+        <v>10088890</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2694</v>
+        <v>2703</v>
       </c>
       <c r="D56" t="n">
-        <v>3920190</v>
+        <v>3932481</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" t="n">
-        <v>255784</v>
+        <v>257284</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>34516</v>
+        <v>34724</v>
       </c>
       <c r="D61" t="n">
-        <v>44516259</v>
+        <v>44783366</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D62" t="n">
-        <v>50186</v>
+        <v>50738</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>12612</v>
+        <v>12672</v>
       </c>
       <c r="D65" t="n">
-        <v>18507064</v>
+        <v>18594152</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4896</v>
+        <v>4930</v>
       </c>
       <c r="D67" t="n">
-        <v>7077538</v>
+        <v>7128079</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D69" t="n">
-        <v>384833</v>
+        <v>387088</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>44141</v>
+        <v>44412</v>
       </c>
       <c r="D73" t="n">
-        <v>56546431</v>
+        <v>56878268</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>17590</v>
+        <v>17636</v>
       </c>
       <c r="D77" t="n">
-        <v>25785664</v>
+        <v>25851740</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8897</v>
+        <v>8958</v>
       </c>
       <c r="D79" t="n">
-        <v>12851529</v>
+        <v>12939657</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="D83" t="n">
-        <v>1024319</v>
+        <v>1039169</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>23627</v>
+        <v>23763</v>
       </c>
       <c r="D84" t="n">
-        <v>29833517</v>
+        <v>29993166</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4558,10 +4558,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>8420</v>
+        <v>8444</v>
       </c>
       <c r="D88" t="n">
-        <v>12361876</v>
+        <v>12394648</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4696</v>
+        <v>4710</v>
       </c>
       <c r="D90" t="n">
-        <v>6795984</v>
+        <v>6816412</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="D92" t="n">
-        <v>989919</v>
+        <v>1006469</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>20981</v>
+        <v>21095</v>
       </c>
       <c r="D93" t="n">
-        <v>26373051</v>
+        <v>26507873</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>8824</v>
+        <v>8865</v>
       </c>
       <c r="D97" t="n">
-        <v>12925721</v>
+        <v>12985470</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3177</v>
+        <v>3194</v>
       </c>
       <c r="D99" t="n">
-        <v>4547162</v>
+        <v>4572302</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D103" t="n">
-        <v>559710</v>
+        <v>564210</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>76523</v>
+        <v>77201</v>
       </c>
       <c r="D104" t="n">
-        <v>98182715</v>
+        <v>99056889</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>29444</v>
+        <v>29580</v>
       </c>
       <c r="D111" t="n">
-        <v>43244374</v>
+        <v>43440924</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5758,10 +5758,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>19718</v>
+        <v>19907</v>
       </c>
       <c r="D113" t="n">
-        <v>28489536</v>
+        <v>28758355</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D114" t="n">
-        <v>20177</v>
+        <v>21677</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D116" t="n">
-        <v>924910</v>
+        <v>926410</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -6046,10 +6046,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1687</v>
+        <v>1697</v>
       </c>
       <c r="D119" t="n">
-        <v>2377435</v>
+        <v>2391820</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -6094,10 +6094,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>26579</v>
+        <v>26690</v>
       </c>
       <c r="D120" t="n">
-        <v>35145194</v>
+        <v>35277072</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>9429</v>
+        <v>9476</v>
       </c>
       <c r="D124" t="n">
-        <v>13837702</v>
+        <v>13904457</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3113</v>
+        <v>3132</v>
       </c>
       <c r="D126" t="n">
-        <v>4526316</v>
+        <v>4553485</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D127" t="n">
-        <v>298567</v>
+        <v>300067</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D129" t="n">
-        <v>420375</v>
+        <v>421875</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>15026</v>
+        <v>15128</v>
       </c>
       <c r="D130" t="n">
-        <v>18787621</v>
+        <v>18901519</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D132" t="n">
-        <v>55616</v>
+        <v>57116</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>7504</v>
+        <v>7532</v>
       </c>
       <c r="D133" t="n">
-        <v>10992099</v>
+        <v>11032953</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2118</v>
+        <v>2129</v>
       </c>
       <c r="D135" t="n">
-        <v>3030211</v>
+        <v>3046711</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D137" t="n">
-        <v>406385</v>
+        <v>407438</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -7006,10 +7006,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D139" t="n">
-        <v>493526</v>
+        <v>496710</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>12981</v>
+        <v>13075</v>
       </c>
       <c r="D140" t="n">
-        <v>16264043</v>
+        <v>16375756</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>6058</v>
+        <v>6076</v>
       </c>
       <c r="D144" t="n">
-        <v>8874865</v>
+        <v>8901005</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1898</v>
+        <v>1915</v>
       </c>
       <c r="D146" t="n">
-        <v>2743824</v>
+        <v>2767324</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7486,10 +7486,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D149" t="n">
-        <v>457631</v>
+        <v>460631</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>5768</v>
+        <v>5795</v>
       </c>
       <c r="D150" t="n">
-        <v>7074863</v>
+        <v>7099584</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="D153" t="n">
-        <v>2947649</v>
+        <v>2958149</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D154" t="n">
-        <v>947907</v>
+        <v>950907</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D155" t="n">
-        <v>135677</v>
+        <v>135867</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>7155</v>
+        <v>7186</v>
       </c>
       <c r="D158" t="n">
-        <v>8904245</v>
+        <v>8943876</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2770</v>
+        <v>2782</v>
       </c>
       <c r="D161" t="n">
-        <v>4062773</v>
+        <v>4080702</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1342</v>
+        <v>1352</v>
       </c>
       <c r="D162" t="n">
-        <v>1927494</v>
+        <v>1941410</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>5446</v>
+        <v>5466</v>
       </c>
       <c r="D166" t="n">
-        <v>6874960</v>
+        <v>6898646</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8542,10 +8542,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1963</v>
+        <v>1974</v>
       </c>
       <c r="D171" t="n">
-        <v>2865573</v>
+        <v>2882073</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8638,10 +8638,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D173" t="n">
-        <v>958798</v>
+        <v>960298</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D174" t="n">
-        <v>164732</v>
+        <v>165874</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>15274</v>
+        <v>15344</v>
       </c>
       <c r="D176" t="n">
-        <v>19232119</v>
+        <v>19306859</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>6201</v>
+        <v>6219</v>
       </c>
       <c r="D181" t="n">
-        <v>9059104</v>
+        <v>9086104</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2139</v>
+        <v>2146</v>
       </c>
       <c r="D182" t="n">
-        <v>3078745</v>
+        <v>3089245</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D184" t="n">
-        <v>696355</v>
+        <v>702355</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D185" t="n">
-        <v>559776</v>
+        <v>561276</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2926</v>
+        <v>2946</v>
       </c>
       <c r="D186" t="n">
-        <v>3694103</v>
+        <v>3719828</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="D188" t="n">
-        <v>2086352</v>
+        <v>2092352</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9550,10 +9550,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D192" t="n">
-        <v>36130</v>
+        <v>37630</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -9598,10 +9598,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D193" t="n">
-        <v>62865</v>
+        <v>65215</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>8874</v>
+        <v>8906</v>
       </c>
       <c r="D194" t="n">
-        <v>11106668</v>
+        <v>11146657</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3330</v>
+        <v>3336</v>
       </c>
       <c r="D198" t="n">
-        <v>4892268</v>
+        <v>4901058</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9886,10 +9886,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1546</v>
+        <v>1552</v>
       </c>
       <c r="D199" t="n">
-        <v>2228882</v>
+        <v>2237566</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D202" t="n">
-        <v>272158</v>
+        <v>275158</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>16657</v>
+        <v>16736</v>
       </c>
       <c r="D203" t="n">
-        <v>20884695</v>
+        <v>20958635</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>7455</v>
+        <v>7481</v>
       </c>
       <c r="D207" t="n">
-        <v>10953120</v>
+        <v>10991413</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10318,10 +10318,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1191</v>
+        <v>1198</v>
       </c>
       <c r="D208" t="n">
-        <v>1704137</v>
+        <v>1714199</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D209" t="n">
-        <v>361973</v>
+        <v>362366</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D210" t="n">
-        <v>607034</v>
+        <v>612468</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>25236</v>
+        <v>25374</v>
       </c>
       <c r="D211" t="n">
-        <v>31911237</v>
+        <v>32071595</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D212" t="n">
-        <v>31665</v>
+        <v>33163</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D213" t="n">
-        <v>20267</v>
+        <v>21642</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D214" t="n">
-        <v>409215</v>
+        <v>413715</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>10207</v>
+        <v>10253</v>
       </c>
       <c r="D215" t="n">
-        <v>14932204</v>
+        <v>14998420</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10750,10 +10750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2525</v>
+        <v>2542</v>
       </c>
       <c r="D217" t="n">
-        <v>3647194</v>
+        <v>3671585</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10798,10 +10798,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D218" t="n">
-        <v>419466</v>
+        <v>424726</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>27395</v>
+        <v>27522</v>
       </c>
       <c r="D221" t="n">
-        <v>34654725</v>
+        <v>34807906</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D223" t="n">
-        <v>8357</v>
+        <v>9857</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>14359</v>
+        <v>14417</v>
       </c>
       <c r="D226" t="n">
-        <v>21084371</v>
+        <v>21165117</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2531</v>
+        <v>2543</v>
       </c>
       <c r="D228" t="n">
-        <v>3633553</v>
+        <v>3651033</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D230" t="n">
-        <v>481844</v>
+        <v>484844</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11422,10 +11422,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="D231" t="n">
-        <v>928666</v>
+        <v>942108</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>23397</v>
+        <v>23514</v>
       </c>
       <c r="D232" t="n">
-        <v>29595828</v>
+        <v>29736730</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D233" t="n">
-        <v>16107</v>
+        <v>17363</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11662,10 +11662,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D236" t="n">
-        <v>319012</v>
+        <v>321775</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>10870</v>
+        <v>10917</v>
       </c>
       <c r="D238" t="n">
-        <v>15942595</v>
+        <v>16008959</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11806,10 +11806,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>2430</v>
+        <v>2445</v>
       </c>
       <c r="D239" t="n">
-        <v>3476532</v>
+        <v>3495366</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11902,10 +11902,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D241" t="n">
-        <v>555921</v>
+        <v>558921</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D242" t="n">
-        <v>542427</v>
+        <v>547977</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>7608</v>
+        <v>7656</v>
       </c>
       <c r="D243" t="n">
-        <v>9534026</v>
+        <v>9593935</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>2602</v>
+        <v>2616</v>
       </c>
       <c r="D247" t="n">
-        <v>3821934</v>
+        <v>3842022</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>954</v>
+        <v>968</v>
       </c>
       <c r="D250" t="n">
-        <v>1379021</v>
+        <v>1400021</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D252" t="n">
-        <v>189745</v>
+        <v>192400</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12478,10 +12478,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>9408</v>
+        <v>9467</v>
       </c>
       <c r="D253" t="n">
-        <v>12017984</v>
+        <v>12087987</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>4052</v>
+        <v>4066</v>
       </c>
       <c r="D257" t="n">
-        <v>5950117</v>
+        <v>5971117</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12766,10 +12766,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>2067</v>
+        <v>2078</v>
       </c>
       <c r="D259" t="n">
-        <v>2989612</v>
+        <v>3006112</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12814,10 +12814,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D260" t="n">
-        <v>136196</v>
+        <v>137696</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D261" t="n">
-        <v>161181</v>
+        <v>162681</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>5354</v>
+        <v>5366</v>
       </c>
       <c r="D262" t="n">
-        <v>6649854</v>
+        <v>6661778</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1952</v>
+        <v>1958</v>
       </c>
       <c r="D265" t="n">
-        <v>2869199</v>
+        <v>2878199</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13150,10 +13150,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="D267" t="n">
-        <v>987832</v>
+        <v>997806</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D268" t="n">
-        <v>199078</v>
+        <v>203578</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13342,10 +13342,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>18135</v>
+        <v>18247</v>
       </c>
       <c r="D271" t="n">
-        <v>22972123</v>
+        <v>23098117</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13534,10 +13534,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>7673</v>
+        <v>7707</v>
       </c>
       <c r="D275" t="n">
-        <v>11253081</v>
+        <v>11301061</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2380</v>
+        <v>2396</v>
       </c>
       <c r="D277" t="n">
-        <v>3418413</v>
+        <v>3442413</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13678,10 +13678,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D278" t="n">
-        <v>671389</v>
+        <v>678181</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13774,10 +13774,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D280" t="n">
-        <v>592956</v>
+        <v>603456</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13870,10 +13870,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>15839</v>
+        <v>15929</v>
       </c>
       <c r="D282" t="n">
-        <v>19648837</v>
+        <v>19755852</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D285" t="n">
-        <v>127478</v>
+        <v>128978</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14062,10 +14062,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>6963</v>
+        <v>6991</v>
       </c>
       <c r="D286" t="n">
-        <v>10214080</v>
+        <v>10252765</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -14110,10 +14110,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>3190</v>
+        <v>3199</v>
       </c>
       <c r="D287" t="n">
-        <v>4628152</v>
+        <v>4641562</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D290" t="n">
-        <v>421743</v>
+        <v>424736</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>8936</v>
+        <v>8992</v>
       </c>
       <c r="D291" t="n">
-        <v>11229755</v>
+        <v>11298721</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>3792</v>
+        <v>3817</v>
       </c>
       <c r="D295" t="n">
-        <v>5552551</v>
+        <v>5588617</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14542,10 +14542,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1198</v>
+        <v>1211</v>
       </c>
       <c r="D296" t="n">
-        <v>1733787</v>
+        <v>1753287</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D300" t="n">
-        <v>268448</v>
+        <v>272948</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14782,10 +14782,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>8676</v>
+        <v>8754</v>
       </c>
       <c r="D301" t="n">
-        <v>11318985</v>
+        <v>11422823</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>3490</v>
+        <v>3515</v>
       </c>
       <c r="D305" t="n">
-        <v>5099367</v>
+        <v>5136867</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15022,10 +15022,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>2194</v>
+        <v>2206</v>
       </c>
       <c r="D306" t="n">
-        <v>3189208</v>
+        <v>3205909</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D307" t="n">
-        <v>308165</v>
+        <v>312665</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>10513</v>
+        <v>10575</v>
       </c>
       <c r="D309" t="n">
-        <v>13796663</v>
+        <v>13882755</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>3548</v>
+        <v>3585</v>
       </c>
       <c r="D313" t="n">
-        <v>5200577</v>
+        <v>5256054</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15454,10 +15454,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2584</v>
+        <v>2603</v>
       </c>
       <c r="D315" t="n">
-        <v>3748073</v>
+        <v>3776093</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D316" t="n">
-        <v>326524</v>
+        <v>331024</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15550,10 +15550,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D317" t="n">
-        <v>204721</v>
+        <v>206221</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>6605</v>
+        <v>6641</v>
       </c>
       <c r="D318" t="n">
-        <v>8186078</v>
+        <v>8225235</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>2232</v>
+        <v>2242</v>
       </c>
       <c r="D322" t="n">
-        <v>3275281</v>
+        <v>3289166</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15886,10 +15886,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="D324" t="n">
-        <v>1068278</v>
+        <v>1074278</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -15934,10 +15934,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D325" t="n">
-        <v>66899</v>
+        <v>79428</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -15982,10 +15982,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D326" t="n">
-        <v>146157</v>
+        <v>156657</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>7244</v>
+        <v>7286</v>
       </c>
       <c r="D327" t="n">
-        <v>9093965</v>
+        <v>9140038</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>3018</v>
+        <v>3029</v>
       </c>
       <c r="D331" t="n">
-        <v>4412021</v>
+        <v>4428521</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16270,10 +16270,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="D332" t="n">
-        <v>1776059</v>
+        <v>1785059</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16366,10 +16366,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D334" t="n">
-        <v>162010</v>
+        <v>163510</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -16414,10 +16414,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>30392</v>
+        <v>30576</v>
       </c>
       <c r="D335" t="n">
-        <v>38261882</v>
+        <v>38480880</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16702,10 +16702,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>15936</v>
+        <v>16005</v>
       </c>
       <c r="D341" t="n">
-        <v>23321867</v>
+        <v>23421559</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D342" t="n">
-        <v>37582</v>
+        <v>39082</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16846,10 +16846,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>7665</v>
+        <v>7692</v>
       </c>
       <c r="D344" t="n">
-        <v>11052044</v>
+        <v>11091494</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D345" t="n">
-        <v>849079</v>
+        <v>852079</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="D346" t="n">
-        <v>980069</v>
+        <v>989353</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -16990,10 +16990,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>3751</v>
+        <v>3771</v>
       </c>
       <c r="D347" t="n">
-        <v>4682710</v>
+        <v>4707830</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>1444</v>
+        <v>1455</v>
       </c>
       <c r="D350" t="n">
-        <v>2129961</v>
+        <v>2146461</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D351" t="n">
-        <v>816442</v>
+        <v>822442</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17326,10 +17326,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D354" t="n">
-        <v>111305</v>
+        <v>112805</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>18527</v>
+        <v>18612</v>
       </c>
       <c r="D355" t="n">
-        <v>23109298</v>
+        <v>23219687</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>9514</v>
+        <v>9555</v>
       </c>
       <c r="D359" t="n">
-        <v>13962115</v>
+        <v>14020528</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17662,10 +17662,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>4546</v>
+        <v>4568</v>
       </c>
       <c r="D361" t="n">
-        <v>6586693</v>
+        <v>6619693</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -17710,10 +17710,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D362" t="n">
-        <v>817969</v>
+        <v>819469</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D363" t="n">
-        <v>444162</v>
+        <v>448570</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>13293</v>
+        <v>13370</v>
       </c>
       <c r="D364" t="n">
-        <v>16645308</v>
+        <v>16737010</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>6277</v>
+        <v>6299</v>
       </c>
       <c r="D368" t="n">
-        <v>9191828</v>
+        <v>9223652</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18094,10 +18094,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="D370" t="n">
-        <v>3456702</v>
+        <v>3458814</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D371" t="n">
-        <v>955931</v>
+        <v>960431</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D372" t="n">
-        <v>334717</v>
+        <v>336217</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>17262</v>
+        <v>17342</v>
       </c>
       <c r="D373" t="n">
-        <v>21541052</v>
+        <v>21635373</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D376" t="n">
-        <v>68560</v>
+        <v>70060</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>6951</v>
+        <v>6969</v>
       </c>
       <c r="D377" t="n">
-        <v>10222191</v>
+        <v>10247934</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18526,10 +18526,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2708</v>
+        <v>2722</v>
       </c>
       <c r="D379" t="n">
-        <v>3940923</v>
+        <v>3961923</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18622,10 +18622,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D381" t="n">
-        <v>204396</v>
+        <v>206009</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D382" t="n">
-        <v>505904</v>
+        <v>510404</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>3973</v>
+        <v>3997</v>
       </c>
       <c r="D383" t="n">
-        <v>4986254</v>
+        <v>5014820</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>1356</v>
+        <v>1362</v>
       </c>
       <c r="D386" t="n">
-        <v>1981962</v>
+        <v>1990877</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D387" t="n">
-        <v>800931</v>
+        <v>806931</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>21420</v>
+        <v>21528</v>
       </c>
       <c r="D390" t="n">
-        <v>26628385</v>
+        <v>26760676</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>9100</v>
+        <v>9127</v>
       </c>
       <c r="D393" t="n">
-        <v>13401514</v>
+        <v>13441246</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>6005</v>
+        <v>6027</v>
       </c>
       <c r="D395" t="n">
-        <v>8732724</v>
+        <v>8763892</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19342,10 +19342,10 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D396" t="n">
-        <v>223561</v>
+        <v>226561</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D397" t="n">
-        <v>436608</v>
+        <v>440896</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>10761</v>
+        <v>10811</v>
       </c>
       <c r="D398" t="n">
-        <v>13275975</v>
+        <v>13339234</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D401" t="n">
-        <v>58097</v>
+        <v>59597</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>5183</v>
+        <v>5206</v>
       </c>
       <c r="D403" t="n">
-        <v>7579926</v>
+        <v>7613115</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>1767</v>
+        <v>1779</v>
       </c>
       <c r="D405" t="n">
-        <v>2570822</v>
+        <v>2585889</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19822,10 +19822,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D406" t="n">
-        <v>180201</v>
+        <v>182831</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19870,10 +19870,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D407" t="n">
-        <v>268706</v>
+        <v>270206</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -19918,10 +19918,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>28496</v>
+        <v>28967</v>
       </c>
       <c r="D408" t="n">
-        <v>38669069</v>
+        <v>39301571</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -20110,10 +20110,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>7178</v>
+        <v>7301</v>
       </c>
       <c r="D412" t="n">
-        <v>10575520</v>
+        <v>10752256</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20206,10 +20206,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>6389</v>
+        <v>6516</v>
       </c>
       <c r="D414" t="n">
-        <v>9260975</v>
+        <v>9445503</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20302,10 +20302,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D416" t="n">
-        <v>645943</v>
+        <v>660905</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D417" t="n">
-        <v>632481</v>
+        <v>638407</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20398,10 +20398,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>7134</v>
+        <v>7387</v>
       </c>
       <c r="D418" t="n">
-        <v>9903273</v>
+        <v>10246285</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1812</v>
+        <v>1862</v>
       </c>
       <c r="D420" t="n">
-        <v>2666618</v>
+        <v>2740613</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2462</v>
+        <v>2517</v>
       </c>
       <c r="D422" t="n">
-        <v>3593112</v>
+        <v>3673883</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D423" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20686,10 +20686,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D424" t="n">
-        <v>142690</v>
+        <v>145620</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D425" t="n">
-        <v>172689</v>
+        <v>178689</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>10678</v>
+        <v>10714</v>
       </c>
       <c r="D426" t="n">
-        <v>13185342</v>
+        <v>13232652</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20926,10 +20926,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>3703</v>
+        <v>3713</v>
       </c>
       <c r="D429" t="n">
-        <v>5438253</v>
+        <v>5452303</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -21022,10 +21022,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>1788</v>
+        <v>1798</v>
       </c>
       <c r="D431" t="n">
-        <v>2566798</v>
+        <v>2580585</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -21070,10 +21070,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D432" t="n">
-        <v>149985</v>
+        <v>151485</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D433" t="n">
-        <v>202310</v>
+        <v>202451</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>60020</v>
+        <v>60369</v>
       </c>
       <c r="D434" t="n">
-        <v>74464386</v>
+        <v>74898044</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21310,10 +21310,10 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D437" t="n">
-        <v>426869</v>
+        <v>429869</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -21358,10 +21358,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>24193</v>
+        <v>24304</v>
       </c>
       <c r="D438" t="n">
-        <v>35476079</v>
+        <v>35637986</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>12350</v>
+        <v>12428</v>
       </c>
       <c r="D440" t="n">
-        <v>17910364</v>
+        <v>18022443</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21502,10 +21502,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D441" t="n">
-        <v>604403</v>
+        <v>607403</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21646,10 +21646,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="D444" t="n">
-        <v>1334157</v>
+        <v>1345429</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21742,10 +21742,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>18101</v>
+        <v>18229</v>
       </c>
       <c r="D446" t="n">
-        <v>22884229</v>
+        <v>23041979</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -21934,10 +21934,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>7459</v>
+        <v>7497</v>
       </c>
       <c r="D450" t="n">
-        <v>10952099</v>
+        <v>11008259</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>4613</v>
+        <v>4645</v>
       </c>
       <c r="D452" t="n">
-        <v>6695866</v>
+        <v>6742788</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D454" t="n">
-        <v>352595</v>
+        <v>355595</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>31229</v>
+        <v>31368</v>
       </c>
       <c r="D455" t="n">
-        <v>38225622</v>
+        <v>38386351</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D458" t="n">
-        <v>430691</v>
+        <v>433784</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22366,10 +22366,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>11170</v>
+        <v>11207</v>
       </c>
       <c r="D459" t="n">
-        <v>16349785</v>
+        <v>16403872</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>4768</v>
+        <v>4786</v>
       </c>
       <c r="D461" t="n">
-        <v>6920478</v>
+        <v>6947478</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22510,10 +22510,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D462" t="n">
-        <v>481098</v>
+        <v>485498</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22558,10 +22558,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D463" t="n">
-        <v>522223</v>
+        <v>523723</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22606,10 +22606,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>13843</v>
+        <v>13899</v>
       </c>
       <c r="D464" t="n">
-        <v>16948317</v>
+        <v>17010094</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>4280</v>
+        <v>4289</v>
       </c>
       <c r="D469" t="n">
-        <v>6289735</v>
+        <v>6302753</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -22942,10 +22942,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="D471" t="n">
-        <v>2891999</v>
+        <v>2908499</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -22990,10 +22990,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D472" t="n">
-        <v>190869</v>
+        <v>192369</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D473" t="n">
-        <v>402559</v>
+        <v>411629</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23086,10 +23086,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>33472</v>
+        <v>33783</v>
       </c>
       <c r="D474" t="n">
-        <v>43569850</v>
+        <v>43985287</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D477" t="n">
-        <v>138888</v>
+        <v>140388</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>12994</v>
+        <v>13053</v>
       </c>
       <c r="D478" t="n">
-        <v>19125328</v>
+        <v>19210886</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23374,10 +23374,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>11350</v>
+        <v>11419</v>
       </c>
       <c r="D480" t="n">
-        <v>16559237</v>
+        <v>16660401</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23422,10 +23422,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D481" t="n">
-        <v>243429</v>
+        <v>249429</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23470,10 +23470,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D482" t="n">
-        <v>379382</v>
+        <v>385448</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>56809</v>
+        <v>57462</v>
       </c>
       <c r="D483" t="n">
-        <v>75136649</v>
+        <v>76024779</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>21927</v>
+        <v>22081</v>
       </c>
       <c r="D488" t="n">
-        <v>32206221</v>
+        <v>32431995</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23854,10 +23854,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>21069</v>
+        <v>21201</v>
       </c>
       <c r="D490" t="n">
-        <v>30595201</v>
+        <v>30787403</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D492" t="n">
-        <v>350501</v>
+        <v>352001</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="D493" t="n">
-        <v>783314</v>
+        <v>796814</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>138198</v>
+        <v>139872</v>
       </c>
       <c r="D494" t="n">
-        <v>181856121</v>
+        <v>184084028</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D499" t="n">
-        <v>639482</v>
+        <v>648482</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24334,10 +24334,10 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D500" t="n">
-        <v>32273</v>
+        <v>33773</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
@@ -24382,10 +24382,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>76807</v>
+        <v>77419</v>
       </c>
       <c r="D501" t="n">
-        <v>112904149</v>
+        <v>113800847</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D502" t="n">
-        <v>313342</v>
+        <v>322342</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24526,10 +24526,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>56033</v>
+        <v>56531</v>
       </c>
       <c r="D504" t="n">
-        <v>81387700</v>
+        <v>82107589</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>953</v>
+        <v>966</v>
       </c>
       <c r="D506" t="n">
-        <v>1357767</v>
+        <v>1377067</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D507" t="n">
-        <v>16222</v>
+        <v>17722</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>2436</v>
+        <v>2470</v>
       </c>
       <c r="D508" t="n">
-        <v>3439469</v>
+        <v>3488725</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>38577</v>
+        <v>38926</v>
       </c>
       <c r="D510" t="n">
-        <v>50088519</v>
+        <v>50560108</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -25006,10 +25006,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D514" t="n">
-        <v>210099</v>
+        <v>213099</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>14704</v>
+        <v>14781</v>
       </c>
       <c r="D515" t="n">
-        <v>21617332</v>
+        <v>21726145</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25150,10 +25150,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>12243</v>
+        <v>12318</v>
       </c>
       <c r="D517" t="n">
-        <v>17748597</v>
+        <v>17856448</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -25198,10 +25198,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D518" t="n">
-        <v>427318</v>
+        <v>428345</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25246,10 +25246,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D519" t="n">
-        <v>440882</v>
+        <v>448132</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25342,10 +25342,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>59237</v>
+        <v>60227</v>
       </c>
       <c r="D521" t="n">
-        <v>79446012</v>
+        <v>80842213</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25486,10 +25486,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D524" t="n">
-        <v>175707</v>
+        <v>177207</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25534,10 +25534,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>22059</v>
+        <v>22213</v>
       </c>
       <c r="D525" t="n">
-        <v>32570083</v>
+        <v>32798425</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>22537</v>
+        <v>22721</v>
       </c>
       <c r="D527" t="n">
-        <v>32991523</v>
+        <v>33261979</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25726,10 +25726,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D529" t="n">
-        <v>339487</v>
+        <v>346987</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="D530" t="n">
-        <v>1059959</v>
+        <v>1075277</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>50005</v>
+        <v>50652</v>
       </c>
       <c r="D531" t="n">
-        <v>66229125</v>
+        <v>67113078</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25918,10 +25918,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D533" t="n">
-        <v>134026</v>
+        <v>134609</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>16920</v>
+        <v>17020</v>
       </c>
       <c r="D534" t="n">
-        <v>24871464</v>
+        <v>25015521</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>17158</v>
+        <v>17296</v>
       </c>
       <c r="D536" t="n">
-        <v>24948951</v>
+        <v>25153100</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D537" t="n">
-        <v>302206</v>
+        <v>303545</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26158,10 +26158,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D538" t="n">
-        <v>770414</v>
+        <v>776344</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26206,10 +26206,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>38072</v>
+        <v>38598</v>
       </c>
       <c r="D539" t="n">
-        <v>50468661</v>
+        <v>51196353</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>13614</v>
+        <v>13708</v>
       </c>
       <c r="D543" t="n">
-        <v>20085894</v>
+        <v>20226710</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>13520</v>
+        <v>13629</v>
       </c>
       <c r="D545" t="n">
-        <v>19645394</v>
+        <v>19799423</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D547" t="n">
-        <v>345224</v>
+        <v>351224</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26638,10 +26638,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>38638</v>
+        <v>38984</v>
       </c>
       <c r="D548" t="n">
-        <v>50123090</v>
+        <v>50563275</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26782,10 +26782,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D551" t="n">
-        <v>187248</v>
+        <v>188748</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>15552</v>
+        <v>15618</v>
       </c>
       <c r="D552" t="n">
-        <v>22829728</v>
+        <v>22927037</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26926,10 +26926,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>12289</v>
+        <v>12356</v>
       </c>
       <c r="D554" t="n">
-        <v>17784803</v>
+        <v>17882719</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -27022,10 +27022,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D556" t="n">
-        <v>352880</v>
+        <v>354380</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D557" t="n">
-        <v>432319</v>
+        <v>436819</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>41266</v>
+        <v>41562</v>
       </c>
       <c r="D558" t="n">
-        <v>55223901</v>
+        <v>55606820</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27166,10 +27166,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D559" t="n">
-        <v>35291</v>
+        <v>36791</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D561" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27406,10 +27406,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>13379</v>
+        <v>13430</v>
       </c>
       <c r="D564" t="n">
-        <v>19643189</v>
+        <v>19717097</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27454,10 +27454,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>3511</v>
+        <v>3544</v>
       </c>
       <c r="D565" t="n">
-        <v>5066464</v>
+        <v>5112511</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27598,10 +27598,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D568" t="n">
-        <v>516519</v>
+        <v>520222</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D570" t="n">
-        <v>475809</v>
+        <v>481809</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>15952</v>
+        <v>16118</v>
       </c>
       <c r="D571" t="n">
-        <v>21135979</v>
+        <v>21353642</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D572" t="n">
-        <v>9126</v>
+        <v>10626</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>6628</v>
+        <v>6699</v>
       </c>
       <c r="D575" t="n">
-        <v>9651353</v>
+        <v>9750622</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>4517</v>
+        <v>4569</v>
       </c>
       <c r="D577" t="n">
-        <v>6510041</v>
+        <v>6584361</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D579" t="n">
-        <v>343960</v>
+        <v>352535</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28174,10 +28174,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D580" t="n">
-        <v>315096</v>
+        <v>325433</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28270,10 +28270,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>12718</v>
+        <v>13077</v>
       </c>
       <c r="D582" t="n">
-        <v>18420635</v>
+        <v>18949397</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28318,10 +28318,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>1572</v>
+        <v>1605</v>
       </c>
       <c r="D583" t="n">
-        <v>2338038</v>
+        <v>2387538</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28510,10 +28510,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D587" t="n">
-        <v>110949</v>
+        <v>112449</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>21093</v>
+        <v>21247</v>
       </c>
       <c r="D588" t="n">
-        <v>26497732</v>
+        <v>26678848</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D591" t="n">
-        <v>254822</v>
+        <v>256322</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>8729</v>
+        <v>8758</v>
       </c>
       <c r="D593" t="n">
-        <v>12792328</v>
+        <v>12831838</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>3236</v>
+        <v>3254</v>
       </c>
       <c r="D595" t="n">
-        <v>4648817</v>
+        <v>4674555</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D596" t="n">
-        <v>461663</v>
+        <v>467663</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -28990,10 +28990,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D597" t="n">
-        <v>585652</v>
+        <v>594328</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29086,10 +29086,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>14065</v>
+        <v>14166</v>
       </c>
       <c r="D599" t="n">
-        <v>17650817</v>
+        <v>17783330</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29278,10 +29278,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>5642</v>
+        <v>5658</v>
       </c>
       <c r="D603" t="n">
-        <v>8287438</v>
+        <v>8311330</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -29374,10 +29374,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>2568</v>
+        <v>2574</v>
       </c>
       <c r="D605" t="n">
-        <v>3705841</v>
+        <v>3713542</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -29422,10 +29422,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D606" t="n">
-        <v>242009</v>
+        <v>243509</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29470,10 +29470,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D607" t="n">
-        <v>238016</v>
+        <v>238451</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>13249</v>
+        <v>13325</v>
       </c>
       <c r="D608" t="n">
-        <v>16791351</v>
+        <v>16879982</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29614,10 +29614,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D610" t="n">
-        <v>48290</v>
+        <v>49667</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -29662,10 +29662,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D611" t="n">
-        <v>234225</v>
+        <v>235725</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>5044</v>
+        <v>5065</v>
       </c>
       <c r="D612" t="n">
-        <v>7394901</v>
+        <v>7424645</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>1111</v>
+        <v>1122</v>
       </c>
       <c r="D613" t="n">
-        <v>1612334</v>
+        <v>1628468</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29854,10 +29854,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D615" t="n">
-        <v>354895</v>
+        <v>357895</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -29902,10 +29902,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D616" t="n">
-        <v>340423</v>
+        <v>341923</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -29950,10 +29950,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>7236</v>
+        <v>7285</v>
       </c>
       <c r="D617" t="n">
-        <v>9326247</v>
+        <v>9381151</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -30190,10 +30190,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>2494</v>
+        <v>2501</v>
       </c>
       <c r="D622" t="n">
-        <v>3657184</v>
+        <v>3666889</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30238,10 +30238,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="D623" t="n">
-        <v>1184710</v>
+        <v>1193617</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -30334,10 +30334,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D625" t="n">
-        <v>166007</v>
+        <v>170507</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30382,10 +30382,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>27595</v>
+        <v>27760</v>
       </c>
       <c r="D626" t="n">
-        <v>34032246</v>
+        <v>34232585</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -30430,10 +30430,10 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D627" t="n">
-        <v>15213</v>
+        <v>16713</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
@@ -30574,10 +30574,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>10716</v>
+        <v>10744</v>
       </c>
       <c r="D630" t="n">
-        <v>15729253</v>
+        <v>15770612</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -30622,10 +30622,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D631" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>4614</v>
+        <v>4636</v>
       </c>
       <c r="D632" t="n">
-        <v>6697257</v>
+        <v>6728553</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30766,10 +30766,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D634" t="n">
-        <v>326608</v>
+        <v>328108</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -30814,10 +30814,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D635" t="n">
-        <v>713074</v>
+        <v>716074</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -30862,10 +30862,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>10933</v>
+        <v>10996</v>
       </c>
       <c r="D636" t="n">
-        <v>13275514</v>
+        <v>13349012</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -31102,10 +31102,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>3560</v>
+        <v>3574</v>
       </c>
       <c r="D641" t="n">
-        <v>5211455</v>
+        <v>5231969</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31150,10 +31150,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>1064</v>
+        <v>1073</v>
       </c>
       <c r="D642" t="n">
-        <v>1541374</v>
+        <v>1554140</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31294,10 +31294,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D645" t="n">
-        <v>288533</v>
+        <v>293033</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -31342,10 +31342,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>27244</v>
+        <v>27367</v>
       </c>
       <c r="D646" t="n">
-        <v>33938370</v>
+        <v>34101303</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>10472</v>
+        <v>10506</v>
       </c>
       <c r="D650" t="n">
-        <v>15390928</v>
+        <v>15441928</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31582,10 +31582,10 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D651" t="n">
-        <v>25833</v>
+        <v>27333</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -31630,10 +31630,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>2965</v>
+        <v>2978</v>
       </c>
       <c r="D652" t="n">
-        <v>4276409</v>
+        <v>4295350</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D654" t="n">
-        <v>681111</v>
+        <v>687111</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31774,10 +31774,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D655" t="n">
-        <v>591963</v>
+        <v>596463</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31822,10 +31822,10 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>7206</v>
+        <v>7230</v>
       </c>
       <c r="D656" t="n">
-        <v>9144908</v>
+        <v>9167038</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -31870,10 +31870,10 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D657" t="n">
-        <v>72839</v>
+        <v>74339</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>2572</v>
+        <v>2581</v>
       </c>
       <c r="D658" t="n">
-        <v>3773342</v>
+        <v>3786255</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="D660" t="n">
-        <v>1810113</v>
+        <v>1818031</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32062,10 +32062,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D661" t="n">
-        <v>323684</v>
+        <v>325184</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32158,10 +32158,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D663" t="n">
-        <v>212479</v>
+        <v>218479</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32206,10 +32206,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>3604</v>
+        <v>3619</v>
       </c>
       <c r="D664" t="n">
-        <v>4370093</v>
+        <v>4388074</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D668" t="n">
-        <v>1111457</v>
+        <v>1115957</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32542,10 +32542,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D671" t="n">
-        <v>149930</v>
+        <v>154430</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D672" t="n">
-        <v>180231</v>
+        <v>186231</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32638,10 +32638,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>8951</v>
+        <v>9015</v>
       </c>
       <c r="D673" t="n">
-        <v>11206628</v>
+        <v>11284152</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D676" t="n">
-        <v>64750</v>
+        <v>66250</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32830,10 +32830,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>3392</v>
+        <v>3402</v>
       </c>
       <c r="D677" t="n">
-        <v>5000222</v>
+        <v>5015222</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -32878,10 +32878,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D678" t="n">
-        <v>1042468</v>
+        <v>1046968</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D680" t="n">
-        <v>220344</v>
+        <v>223299</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33022,10 +33022,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D681" t="n">
-        <v>340134</v>
+        <v>348703</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>18434</v>
+        <v>18527</v>
       </c>
       <c r="D682" t="n">
-        <v>22591536</v>
+        <v>22697350</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33262,10 +33262,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>5514</v>
+        <v>5545</v>
       </c>
       <c r="D686" t="n">
-        <v>8056669</v>
+        <v>8100082</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>2156</v>
+        <v>2168</v>
       </c>
       <c r="D688" t="n">
-        <v>3102700</v>
+        <v>3118530</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D689" t="n">
-        <v>480322</v>
+        <v>484822</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33502,10 +33502,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D691" t="n">
-        <v>384686</v>
+        <v>387007</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -33550,10 +33550,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>70479</v>
+        <v>70944</v>
       </c>
       <c r="D692" t="n">
-        <v>88726167</v>
+        <v>89312066</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33790,10 +33790,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>25674</v>
+        <v>25770</v>
       </c>
       <c r="D697" t="n">
-        <v>37711566</v>
+        <v>37850676</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -33934,10 +33934,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>12577</v>
+        <v>12649</v>
       </c>
       <c r="D700" t="n">
-        <v>18145929</v>
+        <v>18248288</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -34078,10 +34078,10 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>1820</v>
+        <v>1831</v>
       </c>
       <c r="D703" t="n">
-        <v>2621786</v>
+        <v>2638286</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -34174,10 +34174,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>1068</v>
+        <v>1081</v>
       </c>
       <c r="D705" t="n">
-        <v>1495063</v>
+        <v>1513401</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34222,10 +34222,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>10541</v>
+        <v>10612</v>
       </c>
       <c r="D706" t="n">
-        <v>12910083</v>
+        <v>13005185</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -34366,10 +34366,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>3999</v>
+        <v>4008</v>
       </c>
       <c r="D709" t="n">
-        <v>5853215</v>
+        <v>5866553</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -34462,10 +34462,10 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="D711" t="n">
-        <v>2088276</v>
+        <v>2095560</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -34558,10 +34558,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D713" t="n">
-        <v>311909</v>
+        <v>313409</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>16916</v>
+        <v>17010</v>
       </c>
       <c r="D714" t="n">
-        <v>20920847</v>
+        <v>21025313</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34654,10 +34654,10 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D715" t="n">
-        <v>21204</v>
+        <v>21564</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -34798,10 +34798,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>6633</v>
+        <v>6663</v>
       </c>
       <c r="D718" t="n">
-        <v>9694107</v>
+        <v>9739107</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34894,10 +34894,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>2094</v>
+        <v>2100</v>
       </c>
       <c r="D720" t="n">
-        <v>3004313</v>
+        <v>3013313</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -34990,10 +34990,10 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D722" t="n">
-        <v>426224</v>
+        <v>433724</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -35038,10 +35038,10 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D723" t="n">
-        <v>409641</v>
+        <v>412641</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -35134,10 +35134,10 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>10974</v>
+        <v>11033</v>
       </c>
       <c r="D725" t="n">
-        <v>13562021</v>
+        <v>13629279</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -35326,10 +35326,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>4116</v>
+        <v>4140</v>
       </c>
       <c r="D729" t="n">
-        <v>6036169</v>
+        <v>6072169</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -35422,10 +35422,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>1525</v>
+        <v>1537</v>
       </c>
       <c r="D731" t="n">
-        <v>2208385</v>
+        <v>2225804</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -35518,10 +35518,10 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D733" t="n">
-        <v>383705</v>
+        <v>385209</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -35566,10 +35566,10 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>28266</v>
+        <v>28415</v>
       </c>
       <c r="D734" t="n">
-        <v>35220953</v>
+        <v>35396331</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -35806,10 +35806,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>12254</v>
+        <v>12294</v>
       </c>
       <c r="D739" t="n">
-        <v>17934447</v>
+        <v>17993689</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -35902,10 +35902,10 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>4000</v>
+        <v>4030</v>
       </c>
       <c r="D741" t="n">
-        <v>5722212</v>
+        <v>5765503</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -35998,10 +35998,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D743" t="n">
-        <v>1013312</v>
+        <v>1016312</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -36046,10 +36046,10 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D744" t="n">
-        <v>869949</v>
+        <v>875949</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -36142,10 +36142,10 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>11644</v>
+        <v>11738</v>
       </c>
       <c r="D746" t="n">
-        <v>14429304</v>
+        <v>14547402</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -36238,10 +36238,10 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D748" t="n">
-        <v>103845</v>
+        <v>105345</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -36286,10 +36286,10 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>4513</v>
+        <v>4533</v>
       </c>
       <c r="D749" t="n">
-        <v>6597662</v>
+        <v>6626402</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -36334,10 +36334,10 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>1093</v>
+        <v>1105</v>
       </c>
       <c r="D750" t="n">
-        <v>1556612</v>
+        <v>1572594</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -36430,10 +36430,10 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D752" t="n">
-        <v>482351</v>
+        <v>486851</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -36478,10 +36478,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>6325</v>
+        <v>6372</v>
       </c>
       <c r="D753" t="n">
-        <v>7446267</v>
+        <v>7500073</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -36670,10 +36670,10 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>1625</v>
+        <v>1633</v>
       </c>
       <c r="D757" t="n">
-        <v>2366554</v>
+        <v>2378554</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -36718,10 +36718,10 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="D758" t="n">
-        <v>1375893</v>
+        <v>1381893</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -36814,10 +36814,10 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D760" t="n">
-        <v>198515</v>
+        <v>200015</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -36862,10 +36862,10 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>15991</v>
+        <v>16103</v>
       </c>
       <c r="D761" t="n">
-        <v>19431323</v>
+        <v>19564391</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -37102,10 +37102,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>5288</v>
+        <v>5326</v>
       </c>
       <c r="D766" t="n">
-        <v>7752665</v>
+        <v>7806831</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -37198,10 +37198,10 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>3229</v>
+        <v>3241</v>
       </c>
       <c r="D768" t="n">
-        <v>4724209</v>
+        <v>4741708</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -37294,10 +37294,10 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D770" t="n">
-        <v>499928</v>
+        <v>502928</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -37342,10 +37342,10 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D771" t="n">
-        <v>322186</v>
+        <v>329098</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -37390,10 +37390,10 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>10847</v>
+        <v>10914</v>
       </c>
       <c r="D772" t="n">
-        <v>13785821</v>
+        <v>13860710</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -37534,10 +37534,10 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>3826</v>
+        <v>3841</v>
       </c>
       <c r="D775" t="n">
-        <v>5596418</v>
+        <v>5618918</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -37630,10 +37630,10 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>1180</v>
+        <v>1192</v>
       </c>
       <c r="D777" t="n">
-        <v>1713225</v>
+        <v>1731225</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -37726,10 +37726,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D779" t="n">
-        <v>673095</v>
+        <v>674595</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -37774,10 +37774,10 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D780" t="n">
-        <v>286167</v>
+        <v>287667</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -37822,10 +37822,10 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>30684</v>
+        <v>30855</v>
       </c>
       <c r="D781" t="n">
-        <v>37868045</v>
+        <v>38079870</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -37870,10 +37870,10 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D782" t="n">
-        <v>7940</v>
+        <v>9440</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -38014,10 +38014,10 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>12692</v>
+        <v>12769</v>
       </c>
       <c r="D785" t="n">
-        <v>18580824</v>
+        <v>18692498</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -38110,10 +38110,10 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>5824</v>
+        <v>5853</v>
       </c>
       <c r="D787" t="n">
-        <v>8416344</v>
+        <v>8459249</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -38158,10 +38158,10 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D788" t="n">
-        <v>683669</v>
+        <v>686956</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -38254,10 +38254,10 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="D790" t="n">
-        <v>814972</v>
+        <v>829552</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -38302,10 +38302,10 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>7269</v>
+        <v>7301</v>
       </c>
       <c r="D791" t="n">
-        <v>8997796</v>
+        <v>9035674</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -38590,10 +38590,10 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>2584</v>
+        <v>2593</v>
       </c>
       <c r="D797" t="n">
-        <v>3771668</v>
+        <v>3784755</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -38638,10 +38638,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>1099</v>
+        <v>1106</v>
       </c>
       <c r="D798" t="n">
-        <v>1572250</v>
+        <v>1579613</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -38686,10 +38686,10 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D799" t="n">
-        <v>474631</v>
+        <v>477631</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -38734,10 +38734,10 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D800" t="n">
-        <v>295255</v>
+        <v>301255</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -38782,10 +38782,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>55017</v>
+        <v>55446</v>
       </c>
       <c r="D801" t="n">
-        <v>68715922</v>
+        <v>69250482</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -39022,10 +39022,10 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>20316</v>
+        <v>20394</v>
       </c>
       <c r="D806" t="n">
-        <v>29742513</v>
+        <v>29859063</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -39166,10 +39166,10 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>11983</v>
+        <v>12031</v>
       </c>
       <c r="D809" t="n">
-        <v>17298961</v>
+        <v>17368402</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -39262,10 +39262,10 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="D811" t="n">
-        <v>589079</v>
+        <v>601161</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -39406,10 +39406,10 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>1183</v>
+        <v>1205</v>
       </c>
       <c r="D814" t="n">
-        <v>1648016</v>
+        <v>1679549</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -39454,10 +39454,10 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>10537</v>
+        <v>10595</v>
       </c>
       <c r="D815" t="n">
-        <v>13159153</v>
+        <v>13227767</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -39646,10 +39646,10 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>3698</v>
+        <v>3724</v>
       </c>
       <c r="D819" t="n">
-        <v>5377894</v>
+        <v>5416180</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -39742,10 +39742,10 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>1163</v>
+        <v>1175</v>
       </c>
       <c r="D821" t="n">
-        <v>1670819</v>
+        <v>1686931</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -39838,10 +39838,10 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D823" t="n">
-        <v>180313</v>
+        <v>186106</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -39934,10 +39934,10 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D825" t="n">
-        <v>319296</v>
+        <v>325790</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -39982,10 +39982,10 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>55583</v>
+        <v>55946</v>
       </c>
       <c r="D826" t="n">
-        <v>68842117</v>
+        <v>69270369</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -40222,10 +40222,10 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D831" t="n">
-        <v>124658</v>
+        <v>129158</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -40270,10 +40270,10 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>21503</v>
+        <v>21605</v>
       </c>
       <c r="D832" t="n">
-        <v>31560006</v>
+        <v>31707865</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -40366,10 +40366,10 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>13626</v>
+        <v>13699</v>
       </c>
       <c r="D834" t="n">
-        <v>19746562</v>
+        <v>19849534</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -40462,10 +40462,10 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D836" t="n">
-        <v>1221963</v>
+        <v>1223793</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -40510,10 +40510,10 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>1096</v>
+        <v>1106</v>
       </c>
       <c r="D837" t="n">
-        <v>1524871</v>
+        <v>1539051</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -40606,10 +40606,10 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>7373</v>
+        <v>7433</v>
       </c>
       <c r="D839" t="n">
-        <v>9062146</v>
+        <v>9128974</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -40702,10 +40702,10 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>2458</v>
+        <v>2480</v>
       </c>
       <c r="D841" t="n">
-        <v>3581431</v>
+        <v>3611437</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -40750,10 +40750,10 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>1035</v>
+        <v>1046</v>
       </c>
       <c r="D842" t="n">
-        <v>1499263</v>
+        <v>1513188</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -40798,10 +40798,10 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D843" t="n">
-        <v>417097</v>
+        <v>418597</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -40846,10 +40846,10 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D844" t="n">
-        <v>225411</v>
+        <v>226911</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -40894,10 +40894,10 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>3137</v>
+        <v>3173</v>
       </c>
       <c r="D845" t="n">
-        <v>4038161</v>
+        <v>4089361</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -41038,10 +41038,10 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="D848" t="n">
-        <v>1658170</v>
+        <v>1662783</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -41134,10 +41134,10 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D850" t="n">
-        <v>513440</v>
+        <v>518750</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -41182,10 +41182,10 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D851" t="n">
-        <v>173082</v>
+        <v>174582</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -41230,10 +41230,10 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D852" t="n">
-        <v>133215</v>
+        <v>134715</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -41278,10 +41278,10 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>21314</v>
+        <v>21426</v>
       </c>
       <c r="D853" t="n">
-        <v>26737919</v>
+        <v>26877181</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -41470,10 +41470,10 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>7420</v>
+        <v>7460</v>
       </c>
       <c r="D857" t="n">
-        <v>10832399</v>
+        <v>10888281</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -41566,10 +41566,10 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>4413</v>
+        <v>4434</v>
       </c>
       <c r="D859" t="n">
-        <v>6384869</v>
+        <v>6415753</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -41662,10 +41662,10 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D861" t="n">
-        <v>502551</v>
+        <v>507355</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -41710,10 +41710,10 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D862" t="n">
-        <v>543247</v>
+        <v>546847</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -41806,10 +41806,10 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>13866</v>
+        <v>13939</v>
       </c>
       <c r="D864" t="n">
-        <v>16744585</v>
+        <v>16837466</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -41998,10 +41998,10 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>5035</v>
+        <v>5060</v>
       </c>
       <c r="D868" t="n">
-        <v>7347830</v>
+        <v>7382109</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -42094,10 +42094,10 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>2248</v>
+        <v>2262</v>
       </c>
       <c r="D870" t="n">
-        <v>3235127</v>
+        <v>3255061</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -42238,10 +42238,10 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D873" t="n">
-        <v>351666</v>
+        <v>360568</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -42286,10 +42286,10 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>9324</v>
+        <v>9376</v>
       </c>
       <c r="D874" t="n">
-        <v>11454217</v>
+        <v>11522019</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -42334,10 +42334,10 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D875" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -42430,10 +42430,10 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>3254</v>
+        <v>3259</v>
       </c>
       <c r="D877" t="n">
-        <v>4770506</v>
+        <v>4778006</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -42478,10 +42478,10 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="D878" t="n">
-        <v>2069508</v>
+        <v>2075508</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -42574,10 +42574,10 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D880" t="n">
-        <v>252558</v>
+        <v>260058</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -42622,10 +42622,10 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>42484</v>
+        <v>42719</v>
       </c>
       <c r="D881" t="n">
-        <v>53486342</v>
+        <v>53779791</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -42670,10 +42670,10 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D882" t="n">
-        <v>29400</v>
+        <v>30384</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -42862,10 +42862,10 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>20421</v>
+        <v>20489</v>
       </c>
       <c r="D886" t="n">
-        <v>29958540</v>
+        <v>30059276</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -42958,10 +42958,10 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>5618</v>
+        <v>5653</v>
       </c>
       <c r="D888" t="n">
-        <v>8094892</v>
+        <v>8145532</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -43006,10 +43006,10 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D889" t="n">
-        <v>865726</v>
+        <v>867226</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -43102,10 +43102,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>852</v>
+        <v>868</v>
       </c>
       <c r="D891" t="n">
-        <v>1194027</v>
+        <v>1218027</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -43150,10 +43150,10 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>20277</v>
+        <v>20391</v>
       </c>
       <c r="D892" t="n">
-        <v>25268017</v>
+        <v>25404461</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -43246,10 +43246,10 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D894" t="n">
-        <v>156823</v>
+        <v>158323</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -43294,10 +43294,10 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>9499</v>
+        <v>9529</v>
       </c>
       <c r="D895" t="n">
-        <v>13921615</v>
+        <v>13964273</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -43390,10 +43390,10 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>2178</v>
+        <v>2187</v>
       </c>
       <c r="D897" t="n">
-        <v>3128756</v>
+        <v>3142256</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -43486,10 +43486,10 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D899" t="n">
-        <v>852724</v>
+        <v>855724</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -43534,10 +43534,10 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D900" t="n">
-        <v>831008</v>
+        <v>837008</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -43582,10 +43582,10 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>6729</v>
+        <v>6778</v>
       </c>
       <c r="D901" t="n">
-        <v>8486670</v>
+        <v>8540144</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -43774,10 +43774,10 @@
         </is>
       </c>
       <c r="C905" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D905" t="n">
-        <v>113868</v>
+        <v>115368</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -43822,10 +43822,10 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>2917</v>
+        <v>2930</v>
       </c>
       <c r="D906" t="n">
-        <v>4296685</v>
+        <v>4316160</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -43870,10 +43870,10 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="D907" t="n">
-        <v>868606</v>
+        <v>879106</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -43966,10 +43966,10 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D909" t="n">
-        <v>244425</v>
+        <v>245925</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -44014,10 +44014,10 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>12469</v>
+        <v>12548</v>
       </c>
       <c r="D910" t="n">
-        <v>15556363</v>
+        <v>15658207</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -44158,10 +44158,10 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D913" t="n">
-        <v>108334</v>
+        <v>109834</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -44206,10 +44206,10 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>5083</v>
+        <v>5107</v>
       </c>
       <c r="D914" t="n">
-        <v>7431138</v>
+        <v>7466426</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -44302,10 +44302,10 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="D916" t="n">
-        <v>1894608</v>
+        <v>1898995</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -44494,10 +44494,10 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D920" t="n">
-        <v>334184</v>
+        <v>335684</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -44542,10 +44542,10 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>18656</v>
+        <v>18738</v>
       </c>
       <c r="D921" t="n">
-        <v>23391584</v>
+        <v>23487260</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -44686,10 +44686,10 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D924" t="n">
-        <v>182803</v>
+        <v>185803</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -44734,10 +44734,10 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>9836</v>
+        <v>9862</v>
       </c>
       <c r="D925" t="n">
-        <v>14382350</v>
+        <v>14419371</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -44830,10 +44830,10 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>1989</v>
+        <v>2003</v>
       </c>
       <c r="D927" t="n">
-        <v>2865985</v>
+        <v>2885906</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -44878,10 +44878,10 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D928" t="n">
-        <v>452822</v>
+        <v>460322</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -44926,10 +44926,10 @@
         </is>
       </c>
       <c r="C929" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D929" t="n">
-        <v>563829</v>
+        <v>572829</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -44974,10 +44974,10 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>8262</v>
+        <v>8303</v>
       </c>
       <c r="D930" t="n">
-        <v>10330233</v>
+        <v>10377993</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -45214,10 +45214,10 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>3086</v>
+        <v>3095</v>
       </c>
       <c r="D935" t="n">
-        <v>4505808</v>
+        <v>4519308</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -45262,10 +45262,10 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>1423</v>
+        <v>1440</v>
       </c>
       <c r="D936" t="n">
-        <v>2055395</v>
+        <v>2080137</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -45358,10 +45358,10 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D938" t="n">
-        <v>215333</v>
+        <v>216833</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -45406,10 +45406,10 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D939" t="n">
-        <v>266575</v>
+        <v>267765</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -45454,10 +45454,10 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>63771</v>
+        <v>64198</v>
       </c>
       <c r="D940" t="n">
-        <v>81949780</v>
+        <v>82506987</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -45694,10 +45694,10 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D945" t="n">
-        <v>271347</v>
+        <v>272847</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -45790,10 +45790,10 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>24487</v>
+        <v>24617</v>
       </c>
       <c r="D947" t="n">
-        <v>35913230</v>
+        <v>36102443</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -45886,10 +45886,10 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>16672</v>
+        <v>16798</v>
       </c>
       <c r="D949" t="n">
-        <v>24197405</v>
+        <v>24370776</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -45982,10 +45982,10 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D951" t="n">
-        <v>642023</v>
+        <v>649523</v>
       </c>
       <c r="E951" t="inlineStr">
         <is>
@@ -46030,10 +46030,10 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D952" t="n">
-        <v>1136463</v>
+        <v>1152578</v>
       </c>
       <c r="E952" t="inlineStr">
         <is>
@@ -46078,10 +46078,10 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>79465</v>
+        <v>79994</v>
       </c>
       <c r="D953" t="n">
-        <v>99940642</v>
+        <v>100587403</v>
       </c>
       <c r="E953" t="inlineStr">
         <is>
@@ -46366,10 +46366,10 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D959" t="n">
-        <v>401280</v>
+        <v>402780</v>
       </c>
       <c r="E959" t="inlineStr">
         <is>
@@ -46414,10 +46414,10 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>32663</v>
+        <v>32799</v>
       </c>
       <c r="D960" t="n">
-        <v>47934738</v>
+        <v>48135257</v>
       </c>
       <c r="E960" t="inlineStr">
         <is>
@@ -46558,10 +46558,10 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>24029</v>
+        <v>24164</v>
       </c>
       <c r="D963" t="n">
-        <v>34863402</v>
+        <v>35058277</v>
       </c>
       <c r="E963" t="inlineStr">
         <is>
@@ -46606,10 +46606,10 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D964" t="n">
-        <v>829469</v>
+        <v>833969</v>
       </c>
       <c r="E964" t="inlineStr">
         <is>
@@ -46702,10 +46702,10 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>1774</v>
+        <v>1795</v>
       </c>
       <c r="D966" t="n">
-        <v>2496593</v>
+        <v>2524577</v>
       </c>
       <c r="E966" t="inlineStr">
         <is>
@@ -46750,10 +46750,10 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>10272</v>
+        <v>10321</v>
       </c>
       <c r="D967" t="n">
-        <v>13425005</v>
+        <v>13486329</v>
       </c>
       <c r="E967" t="inlineStr">
         <is>
@@ -46942,10 +46942,10 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>3331</v>
+        <v>3356</v>
       </c>
       <c r="D971" t="n">
-        <v>4866362</v>
+        <v>4903819</v>
       </c>
       <c r="E971" t="inlineStr">
         <is>
@@ -46990,10 +46990,10 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>1048</v>
+        <v>1055</v>
       </c>
       <c r="D972" t="n">
-        <v>1514102</v>
+        <v>1524602</v>
       </c>
       <c r="E972" t="inlineStr">
         <is>
@@ -47182,10 +47182,10 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D976" t="n">
-        <v>232889</v>
+        <v>235889</v>
       </c>
       <c r="E976" t="inlineStr">
         <is>
@@ -47230,10 +47230,10 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>53664</v>
+        <v>53948</v>
       </c>
       <c r="D977" t="n">
-        <v>67254927</v>
+        <v>67611735</v>
       </c>
       <c r="E977" t="inlineStr">
         <is>
@@ -47422,10 +47422,10 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D981" t="n">
-        <v>250242</v>
+        <v>256242</v>
       </c>
       <c r="E981" t="inlineStr">
         <is>
@@ -47470,10 +47470,10 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>17985</v>
+        <v>18048</v>
       </c>
       <c r="D982" t="n">
-        <v>26349767</v>
+        <v>26442404</v>
       </c>
       <c r="E982" t="inlineStr">
         <is>
@@ -47566,10 +47566,10 @@
         </is>
       </c>
       <c r="C984" t="n">
-        <v>12116</v>
+        <v>12176</v>
       </c>
       <c r="D984" t="n">
-        <v>17536277</v>
+        <v>17621094</v>
       </c>
       <c r="E984" t="inlineStr">
         <is>
@@ -47614,10 +47614,10 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D985" t="n">
-        <v>655773</v>
+        <v>658773</v>
       </c>
       <c r="E985" t="inlineStr">
         <is>
@@ -47710,10 +47710,10 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D987" t="n">
-        <v>954129</v>
+        <v>964461</v>
       </c>
       <c r="E987" t="inlineStr">
         <is>
@@ -47758,10 +47758,10 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>26871</v>
+        <v>27021</v>
       </c>
       <c r="D988" t="n">
-        <v>33470234</v>
+        <v>33651741</v>
       </c>
       <c r="E988" t="inlineStr">
         <is>
@@ -47998,10 +47998,10 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>10106</v>
+        <v>10151</v>
       </c>
       <c r="D993" t="n">
-        <v>14811729</v>
+        <v>14877920</v>
       </c>
       <c r="E993" t="inlineStr">
         <is>
@@ -48094,10 +48094,10 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>5939</v>
+        <v>5979</v>
       </c>
       <c r="D995" t="n">
-        <v>8615665</v>
+        <v>8673871</v>
       </c>
       <c r="E995" t="inlineStr">
         <is>
@@ -48142,10 +48142,10 @@
         </is>
       </c>
       <c r="C996" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D996" t="n">
-        <v>716257</v>
+        <v>717757</v>
       </c>
       <c r="E996" t="inlineStr">
         <is>
@@ -48190,10 +48190,10 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D997" t="n">
-        <v>628258</v>
+        <v>636583</v>
       </c>
       <c r="E997" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15725</v>
+        <v>15883</v>
       </c>
       <c r="D2" t="n">
-        <v>19779700</v>
+        <v>19982446</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2682</v>
+        <v>3470</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6055</v>
+        <v>6077</v>
       </c>
       <c r="D6" t="n">
-        <v>8865122</v>
+        <v>8896856</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3168</v>
+        <v>3188</v>
       </c>
       <c r="D8" t="n">
-        <v>4585403</v>
+        <v>4615075</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D11" t="n">
-        <v>471772</v>
+        <v>482104</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10442</v>
+        <v>10550</v>
       </c>
       <c r="D12" t="n">
-        <v>13181707</v>
+        <v>13305539</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3157</v>
+        <v>3171</v>
       </c>
       <c r="D16" t="n">
-        <v>4601785</v>
+        <v>4622785</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="D18" t="n">
-        <v>2012220</v>
+        <v>2017414</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D19" t="n">
-        <v>464524</v>
+        <v>467524</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D20" t="n">
-        <v>256768</v>
+        <v>267438</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13703</v>
+        <v>13833</v>
       </c>
       <c r="D21" t="n">
-        <v>16852584</v>
+        <v>16998594</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4783</v>
+        <v>4811</v>
       </c>
       <c r="D25" t="n">
-        <v>7005214</v>
+        <v>7043702</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1660</v>
+        <v>1672</v>
       </c>
       <c r="D27" t="n">
-        <v>2374151</v>
+        <v>2392151</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D30" t="n">
-        <v>414170</v>
+        <v>417170</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6153</v>
+        <v>6187</v>
       </c>
       <c r="D31" t="n">
-        <v>8174028</v>
+        <v>8213290</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="D34" t="n">
-        <v>2254491</v>
+        <v>2260361</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D36" t="n">
-        <v>785025</v>
+        <v>791025</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D37" t="n">
-        <v>693326</v>
+        <v>696326</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21047</v>
+        <v>21225</v>
       </c>
       <c r="D40" t="n">
-        <v>25971976</v>
+        <v>26178890</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7605</v>
+        <v>7647</v>
       </c>
       <c r="D46" t="n">
-        <v>11172197</v>
+        <v>11235197</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3695</v>
+        <v>3719</v>
       </c>
       <c r="D48" t="n">
-        <v>5350487</v>
+        <v>5382271</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="D51" t="n">
-        <v>734563</v>
+        <v>750123</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7886</v>
+        <v>7924</v>
       </c>
       <c r="D52" t="n">
-        <v>10088890</v>
+        <v>10137436</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>12614</v>
+        <v>15614</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2703</v>
+        <v>2709</v>
       </c>
       <c r="D56" t="n">
-        <v>3932481</v>
+        <v>3940761</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="D58" t="n">
-        <v>1402444</v>
+        <v>1411444</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D60" t="n">
-        <v>337961</v>
+        <v>340961</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>34724</v>
+        <v>35118</v>
       </c>
       <c r="D61" t="n">
-        <v>44783366</v>
+        <v>45270998</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>12672</v>
+        <v>12732</v>
       </c>
       <c r="D65" t="n">
-        <v>18594152</v>
+        <v>18675632</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4930</v>
+        <v>4964</v>
       </c>
       <c r="D67" t="n">
-        <v>7128079</v>
+        <v>7178549</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D69" t="n">
-        <v>387088</v>
+        <v>397984</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D71" t="n">
-        <v>429663</v>
+        <v>432663</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>44412</v>
+        <v>44866</v>
       </c>
       <c r="D73" t="n">
-        <v>56878268</v>
+        <v>57437768</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D75" t="n">
-        <v>43101</v>
+        <v>46101</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>17636</v>
+        <v>17724</v>
       </c>
       <c r="D77" t="n">
-        <v>25851740</v>
+        <v>25981166</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8958</v>
+        <v>9024</v>
       </c>
       <c r="D79" t="n">
-        <v>12939657</v>
+        <v>13033373</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D81" t="n">
-        <v>458454</v>
+        <v>460154</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>736</v>
+        <v>750</v>
       </c>
       <c r="D83" t="n">
-        <v>1039169</v>
+        <v>1058951</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>23763</v>
+        <v>24045</v>
       </c>
       <c r="D84" t="n">
-        <v>29993166</v>
+        <v>30341760</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4558,10 +4558,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>8444</v>
+        <v>8488</v>
       </c>
       <c r="D88" t="n">
-        <v>12394648</v>
+        <v>12460340</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4710</v>
+        <v>4728</v>
       </c>
       <c r="D90" t="n">
-        <v>6816412</v>
+        <v>6836420</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="D92" t="n">
-        <v>1006469</v>
+        <v>1020425</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>21095</v>
+        <v>21323</v>
       </c>
       <c r="D93" t="n">
-        <v>26507873</v>
+        <v>26781765</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D94" t="n">
-        <v>27634</v>
+        <v>30634</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>8865</v>
+        <v>8923</v>
       </c>
       <c r="D97" t="n">
-        <v>12985470</v>
+        <v>13072470</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3194</v>
+        <v>3218</v>
       </c>
       <c r="D99" t="n">
-        <v>4572302</v>
+        <v>4607722</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="D103" t="n">
-        <v>564210</v>
+        <v>576210</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>77201</v>
+        <v>78525</v>
       </c>
       <c r="D104" t="n">
-        <v>99056889</v>
+        <v>100736881</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D109" t="n">
-        <v>210009</v>
+        <v>213009</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>29580</v>
+        <v>29742</v>
       </c>
       <c r="D111" t="n">
-        <v>43440924</v>
+        <v>43674092</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5758,10 +5758,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>19907</v>
+        <v>20071</v>
       </c>
       <c r="D113" t="n">
-        <v>28758355</v>
+        <v>28995177</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D116" t="n">
-        <v>926410</v>
+        <v>929410</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -6046,10 +6046,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1697</v>
+        <v>1733</v>
       </c>
       <c r="D119" t="n">
-        <v>2391820</v>
+        <v>2443066</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -6094,10 +6094,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>26690</v>
+        <v>26906</v>
       </c>
       <c r="D120" t="n">
-        <v>35277072</v>
+        <v>35546426</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>9476</v>
+        <v>9514</v>
       </c>
       <c r="D124" t="n">
-        <v>13904457</v>
+        <v>13960197</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3132</v>
+        <v>3148</v>
       </c>
       <c r="D126" t="n">
-        <v>4553485</v>
+        <v>4575573</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D129" t="n">
-        <v>421875</v>
+        <v>440535</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>15128</v>
+        <v>15294</v>
       </c>
       <c r="D130" t="n">
-        <v>18901519</v>
+        <v>19085527</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>7532</v>
+        <v>7574</v>
       </c>
       <c r="D133" t="n">
-        <v>11032953</v>
+        <v>11092529</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2129</v>
+        <v>2149</v>
       </c>
       <c r="D135" t="n">
-        <v>3046711</v>
+        <v>3076711</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -7006,10 +7006,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D139" t="n">
-        <v>496710</v>
+        <v>511146</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>13075</v>
+        <v>13215</v>
       </c>
       <c r="D140" t="n">
-        <v>16375756</v>
+        <v>16523398</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>6076</v>
+        <v>6104</v>
       </c>
       <c r="D144" t="n">
-        <v>8901005</v>
+        <v>8943005</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1915</v>
+        <v>1933</v>
       </c>
       <c r="D146" t="n">
-        <v>2767324</v>
+        <v>2794324</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7486,10 +7486,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D149" t="n">
-        <v>460631</v>
+        <v>466631</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>5795</v>
+        <v>5847</v>
       </c>
       <c r="D150" t="n">
-        <v>7099584</v>
+        <v>7156398</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D153" t="n">
-        <v>2958149</v>
+        <v>2961149</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D154" t="n">
-        <v>950907</v>
+        <v>956907</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D155" t="n">
-        <v>135867</v>
+        <v>141867</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>7186</v>
+        <v>7262</v>
       </c>
       <c r="D158" t="n">
-        <v>8943876</v>
+        <v>9031258</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2782</v>
+        <v>2788</v>
       </c>
       <c r="D161" t="n">
-        <v>4080702</v>
+        <v>4089702</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="D162" t="n">
-        <v>1941410</v>
+        <v>1947410</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D163" t="n">
-        <v>210345</v>
+        <v>215845</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>5466</v>
+        <v>5494</v>
       </c>
       <c r="D166" t="n">
-        <v>6898646</v>
+        <v>6932028</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8542,10 +8542,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1974</v>
+        <v>1994</v>
       </c>
       <c r="D171" t="n">
-        <v>2882073</v>
+        <v>2910833</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8638,10 +8638,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="D173" t="n">
-        <v>960298</v>
+        <v>975298</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>15344</v>
+        <v>15456</v>
       </c>
       <c r="D176" t="n">
-        <v>19306859</v>
+        <v>19448397</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>6219</v>
+        <v>6235</v>
       </c>
       <c r="D181" t="n">
-        <v>9086104</v>
+        <v>9110104</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2146</v>
+        <v>2164</v>
       </c>
       <c r="D182" t="n">
-        <v>3089245</v>
+        <v>3116043</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D185" t="n">
-        <v>561276</v>
+        <v>570276</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2946</v>
+        <v>2982</v>
       </c>
       <c r="D186" t="n">
-        <v>3719828</v>
+        <v>3764646</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1429</v>
+        <v>1439</v>
       </c>
       <c r="D188" t="n">
-        <v>2092352</v>
+        <v>2104504</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D190" t="n">
-        <v>785761</v>
+        <v>788761</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9598,10 +9598,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D193" t="n">
-        <v>65215</v>
+        <v>68215</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>8906</v>
+        <v>8964</v>
       </c>
       <c r="D194" t="n">
-        <v>11146657</v>
+        <v>11219931</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3336</v>
+        <v>3358</v>
       </c>
       <c r="D198" t="n">
-        <v>4901058</v>
+        <v>4934028</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9886,10 +9886,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1552</v>
+        <v>1564</v>
       </c>
       <c r="D199" t="n">
-        <v>2237566</v>
+        <v>2255566</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D200" t="n">
-        <v>248888</v>
+        <v>257372</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>16736</v>
+        <v>16876</v>
       </c>
       <c r="D203" t="n">
-        <v>20958635</v>
+        <v>21109991</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D205" t="n">
-        <v>27547</v>
+        <v>30547</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>7481</v>
+        <v>7505</v>
       </c>
       <c r="D207" t="n">
-        <v>10991413</v>
+        <v>11025617</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10318,10 +10318,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1198</v>
+        <v>1214</v>
       </c>
       <c r="D208" t="n">
-        <v>1714199</v>
+        <v>1734065</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="D209" t="n">
-        <v>362366</v>
+        <v>374366</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D210" t="n">
-        <v>612468</v>
+        <v>621468</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>25374</v>
+        <v>25586</v>
       </c>
       <c r="D211" t="n">
-        <v>32071595</v>
+        <v>32327165</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D212" t="n">
-        <v>33163</v>
+        <v>36163</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>10253</v>
+        <v>10323</v>
       </c>
       <c r="D215" t="n">
-        <v>14998420</v>
+        <v>15090552</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10750,10 +10750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2542</v>
+        <v>2580</v>
       </c>
       <c r="D217" t="n">
-        <v>3671585</v>
+        <v>3727763</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10894,10 +10894,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="D220" t="n">
-        <v>770944</v>
+        <v>783838</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>27522</v>
+        <v>27802</v>
       </c>
       <c r="D221" t="n">
-        <v>34807906</v>
+        <v>35149636</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>14417</v>
+        <v>14475</v>
       </c>
       <c r="D226" t="n">
-        <v>21165117</v>
+        <v>21250517</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2543</v>
+        <v>2557</v>
       </c>
       <c r="D228" t="n">
-        <v>3651033</v>
+        <v>3667953</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D230" t="n">
-        <v>484844</v>
+        <v>493844</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11422,10 +11422,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="D231" t="n">
-        <v>942108</v>
+        <v>963508</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>23514</v>
+        <v>23748</v>
       </c>
       <c r="D232" t="n">
-        <v>29736730</v>
+        <v>30022496</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D233" t="n">
-        <v>17363</v>
+        <v>20363</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D234" t="n">
-        <v>46482</v>
+        <v>50442</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>10917</v>
+        <v>10961</v>
       </c>
       <c r="D238" t="n">
-        <v>16008959</v>
+        <v>16072921</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11806,10 +11806,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>2445</v>
+        <v>2451</v>
       </c>
       <c r="D239" t="n">
-        <v>3495366</v>
+        <v>3504366</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D242" t="n">
-        <v>547977</v>
+        <v>559725</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>7656</v>
+        <v>7714</v>
       </c>
       <c r="D243" t="n">
-        <v>9593935</v>
+        <v>9665279</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>2616</v>
+        <v>2636</v>
       </c>
       <c r="D247" t="n">
-        <v>3842022</v>
+        <v>3872022</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>968</v>
+        <v>988</v>
       </c>
       <c r="D250" t="n">
-        <v>1400021</v>
+        <v>1429767</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12382,10 +12382,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D251" t="n">
-        <v>273550</v>
+        <v>276550</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D252" t="n">
-        <v>192400</v>
+        <v>204400</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12478,10 +12478,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>9467</v>
+        <v>9545</v>
       </c>
       <c r="D253" t="n">
-        <v>12087987</v>
+        <v>12184819</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>4066</v>
+        <v>4084</v>
       </c>
       <c r="D257" t="n">
-        <v>5971117</v>
+        <v>5998117</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12718,10 +12718,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D258" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -12766,10 +12766,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>2078</v>
+        <v>2092</v>
       </c>
       <c r="D259" t="n">
-        <v>3006112</v>
+        <v>3027112</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12814,10 +12814,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D260" t="n">
-        <v>137696</v>
+        <v>140696</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D261" t="n">
-        <v>162681</v>
+        <v>165681</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>5366</v>
+        <v>5412</v>
       </c>
       <c r="D262" t="n">
-        <v>6661778</v>
+        <v>6712162</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1958</v>
+        <v>1968</v>
       </c>
       <c r="D265" t="n">
-        <v>2878199</v>
+        <v>2888391</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13342,10 +13342,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>18247</v>
+        <v>18473</v>
       </c>
       <c r="D271" t="n">
-        <v>23098117</v>
+        <v>23373401</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13438,10 +13438,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D273" t="n">
-        <v>14794</v>
+        <v>17794</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13534,10 +13534,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>7707</v>
+        <v>7761</v>
       </c>
       <c r="D275" t="n">
-        <v>11301061</v>
+        <v>11380509</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2396</v>
+        <v>2410</v>
       </c>
       <c r="D277" t="n">
-        <v>3442413</v>
+        <v>3463413</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13678,10 +13678,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D278" t="n">
-        <v>678181</v>
+        <v>684015</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13774,10 +13774,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D280" t="n">
-        <v>603456</v>
+        <v>612456</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13870,10 +13870,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>15929</v>
+        <v>16095</v>
       </c>
       <c r="D282" t="n">
-        <v>19755852</v>
+        <v>19953370</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -14062,10 +14062,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>6991</v>
+        <v>7043</v>
       </c>
       <c r="D286" t="n">
-        <v>10252765</v>
+        <v>10327047</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -14110,10 +14110,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>3199</v>
+        <v>3229</v>
       </c>
       <c r="D287" t="n">
-        <v>4641562</v>
+        <v>4679466</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D290" t="n">
-        <v>424736</v>
+        <v>425318</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>8992</v>
+        <v>9086</v>
       </c>
       <c r="D291" t="n">
-        <v>11298721</v>
+        <v>11423325</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D292" t="n">
-        <v>14623</v>
+        <v>17623</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>3817</v>
+        <v>3825</v>
       </c>
       <c r="D295" t="n">
-        <v>5588617</v>
+        <v>5600617</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14542,10 +14542,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1211</v>
+        <v>1221</v>
       </c>
       <c r="D296" t="n">
-        <v>1753287</v>
+        <v>1766485</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14590,10 +14590,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D297" t="n">
-        <v>304165</v>
+        <v>307165</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D300" t="n">
-        <v>272948</v>
+        <v>284948</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14782,10 +14782,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>8754</v>
+        <v>8856</v>
       </c>
       <c r="D301" t="n">
-        <v>11422823</v>
+        <v>11558283</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>3515</v>
+        <v>3549</v>
       </c>
       <c r="D305" t="n">
-        <v>5136867</v>
+        <v>5187867</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15022,10 +15022,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>2206</v>
+        <v>2224</v>
       </c>
       <c r="D306" t="n">
-        <v>3205909</v>
+        <v>3232909</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15118,10 +15118,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D308" t="n">
-        <v>136387</v>
+        <v>139387</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>10575</v>
+        <v>10685</v>
       </c>
       <c r="D309" t="n">
-        <v>13882755</v>
+        <v>14021487</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>3585</v>
+        <v>3625</v>
       </c>
       <c r="D313" t="n">
-        <v>5256054</v>
+        <v>5316054</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15454,10 +15454,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2603</v>
+        <v>2619</v>
       </c>
       <c r="D315" t="n">
-        <v>3776093</v>
+        <v>3799893</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D316" t="n">
-        <v>331024</v>
+        <v>337024</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15550,10 +15550,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D317" t="n">
-        <v>206221</v>
+        <v>210517</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>6641</v>
+        <v>6685</v>
       </c>
       <c r="D318" t="n">
-        <v>8225235</v>
+        <v>8268875</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>2242</v>
+        <v>2252</v>
       </c>
       <c r="D322" t="n">
-        <v>3289166</v>
+        <v>3304166</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15886,10 +15886,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="D324" t="n">
-        <v>1074278</v>
+        <v>1080278</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -15934,10 +15934,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D325" t="n">
-        <v>79428</v>
+        <v>82428</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>7286</v>
+        <v>7356</v>
       </c>
       <c r="D327" t="n">
-        <v>9140038</v>
+        <v>9221370</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>3029</v>
+        <v>3047</v>
       </c>
       <c r="D331" t="n">
-        <v>4428521</v>
+        <v>4454173</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16270,10 +16270,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1247</v>
+        <v>1255</v>
       </c>
       <c r="D332" t="n">
-        <v>1785059</v>
+        <v>1797059</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16366,10 +16366,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D334" t="n">
-        <v>163510</v>
+        <v>166510</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -16414,10 +16414,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>30576</v>
+        <v>30884</v>
       </c>
       <c r="D335" t="n">
-        <v>38480880</v>
+        <v>38849914</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16606,10 +16606,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D339" t="n">
-        <v>39394</v>
+        <v>42394</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -16702,10 +16702,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>16005</v>
+        <v>16081</v>
       </c>
       <c r="D341" t="n">
-        <v>23421559</v>
+        <v>23528779</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -16846,10 +16846,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>7692</v>
+        <v>7748</v>
       </c>
       <c r="D344" t="n">
-        <v>11091494</v>
+        <v>11165650</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D345" t="n">
-        <v>852079</v>
+        <v>855079</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="D346" t="n">
-        <v>989353</v>
+        <v>1003237</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -16990,10 +16990,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>3771</v>
+        <v>3805</v>
       </c>
       <c r="D347" t="n">
-        <v>4707830</v>
+        <v>4752256</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="D350" t="n">
-        <v>2146461</v>
+        <v>2149461</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D351" t="n">
-        <v>822442</v>
+        <v>828442</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>18612</v>
+        <v>18800</v>
       </c>
       <c r="D355" t="n">
-        <v>23219687</v>
+        <v>23449443</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>9555</v>
+        <v>9587</v>
       </c>
       <c r="D359" t="n">
-        <v>14020528</v>
+        <v>14065796</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17662,10 +17662,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>4568</v>
+        <v>4600</v>
       </c>
       <c r="D361" t="n">
-        <v>6619693</v>
+        <v>6664121</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -17710,10 +17710,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D362" t="n">
-        <v>819469</v>
+        <v>822469</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D363" t="n">
-        <v>448570</v>
+        <v>454570</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>13370</v>
+        <v>13520</v>
       </c>
       <c r="D364" t="n">
-        <v>16737010</v>
+        <v>16922230</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>6299</v>
+        <v>6313</v>
       </c>
       <c r="D368" t="n">
-        <v>9223652</v>
+        <v>9243856</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18094,10 +18094,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2407</v>
+        <v>2415</v>
       </c>
       <c r="D370" t="n">
-        <v>3458814</v>
+        <v>3470814</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D372" t="n">
-        <v>336217</v>
+        <v>339217</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>17342</v>
+        <v>17520</v>
       </c>
       <c r="D373" t="n">
-        <v>21635373</v>
+        <v>21856701</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>6969</v>
+        <v>7021</v>
       </c>
       <c r="D377" t="n">
-        <v>10247934</v>
+        <v>10325934</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18526,10 +18526,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2722</v>
+        <v>2748</v>
       </c>
       <c r="D379" t="n">
-        <v>3961923</v>
+        <v>4000823</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="D382" t="n">
-        <v>510404</v>
+        <v>528404</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>3997</v>
+        <v>4023</v>
       </c>
       <c r="D383" t="n">
-        <v>5014820</v>
+        <v>5045362</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D385" t="n">
-        <v>46465</v>
+        <v>49465</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>1362</v>
+        <v>1372</v>
       </c>
       <c r="D386" t="n">
-        <v>1990877</v>
+        <v>2003067</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D387" t="n">
-        <v>806931</v>
+        <v>809931</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D389" t="n">
-        <v>104810</v>
+        <v>110810</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>21528</v>
+        <v>21726</v>
       </c>
       <c r="D390" t="n">
-        <v>26760676</v>
+        <v>26997420</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>9127</v>
+        <v>9155</v>
       </c>
       <c r="D393" t="n">
-        <v>13441246</v>
+        <v>13483246</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>6027</v>
+        <v>6051</v>
       </c>
       <c r="D395" t="n">
-        <v>8763892</v>
+        <v>8798808</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>10811</v>
+        <v>10911</v>
       </c>
       <c r="D398" t="n">
-        <v>13339234</v>
+        <v>13459584</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D399" t="n">
-        <v>4978</v>
+        <v>6628</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>5206</v>
+        <v>5228</v>
       </c>
       <c r="D403" t="n">
-        <v>7613115</v>
+        <v>7644473</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>1779</v>
+        <v>1795</v>
       </c>
       <c r="D405" t="n">
-        <v>2585889</v>
+        <v>2609493</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19822,10 +19822,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D406" t="n">
-        <v>182831</v>
+        <v>184105</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19918,10 +19918,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>28967</v>
+        <v>29757</v>
       </c>
       <c r="D408" t="n">
-        <v>39301571</v>
+        <v>40326921</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -20110,10 +20110,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>7301</v>
+        <v>7451</v>
       </c>
       <c r="D412" t="n">
-        <v>10752256</v>
+        <v>10973440</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20206,10 +20206,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>6516</v>
+        <v>6706</v>
       </c>
       <c r="D414" t="n">
-        <v>9445503</v>
+        <v>9717049</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20302,10 +20302,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D416" t="n">
-        <v>660905</v>
+        <v>672805</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="D417" t="n">
-        <v>638407</v>
+        <v>653139</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20398,10 +20398,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>7387</v>
+        <v>7605</v>
       </c>
       <c r="D418" t="n">
-        <v>10246285</v>
+        <v>10535403</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1862</v>
+        <v>1932</v>
       </c>
       <c r="D420" t="n">
-        <v>2740613</v>
+        <v>2842255</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2517</v>
+        <v>2621</v>
       </c>
       <c r="D422" t="n">
-        <v>3673883</v>
+        <v>3827867</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20686,10 +20686,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D424" t="n">
-        <v>145620</v>
+        <v>157620</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D425" t="n">
-        <v>178689</v>
+        <v>181689</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>10714</v>
+        <v>10800</v>
       </c>
       <c r="D426" t="n">
-        <v>13232652</v>
+        <v>13342158</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20926,10 +20926,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>3713</v>
+        <v>3729</v>
       </c>
       <c r="D429" t="n">
-        <v>5452303</v>
+        <v>5476303</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -21022,10 +21022,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>1798</v>
+        <v>1816</v>
       </c>
       <c r="D431" t="n">
-        <v>2580585</v>
+        <v>2605595</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -21070,10 +21070,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D432" t="n">
-        <v>151485</v>
+        <v>154485</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>60369</v>
+        <v>61059</v>
       </c>
       <c r="D434" t="n">
-        <v>74898044</v>
+        <v>75728286</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21358,10 +21358,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>24304</v>
+        <v>24438</v>
       </c>
       <c r="D438" t="n">
-        <v>35637986</v>
+        <v>35835148</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>12428</v>
+        <v>12538</v>
       </c>
       <c r="D440" t="n">
-        <v>18022443</v>
+        <v>18187183</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21502,10 +21502,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D441" t="n">
-        <v>607403</v>
+        <v>616403</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21646,10 +21646,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>956</v>
+        <v>980</v>
       </c>
       <c r="D444" t="n">
-        <v>1345429</v>
+        <v>1379583</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21742,10 +21742,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>18229</v>
+        <v>18431</v>
       </c>
       <c r="D446" t="n">
-        <v>23041979</v>
+        <v>23309339</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -21886,10 +21886,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D449" t="n">
-        <v>219976</v>
+        <v>222976</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -21934,10 +21934,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>7497</v>
+        <v>7539</v>
       </c>
       <c r="D450" t="n">
-        <v>11008259</v>
+        <v>11068999</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>4645</v>
+        <v>4703</v>
       </c>
       <c r="D452" t="n">
-        <v>6742788</v>
+        <v>6826982</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D454" t="n">
-        <v>355595</v>
+        <v>364595</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>31368</v>
+        <v>31592</v>
       </c>
       <c r="D455" t="n">
-        <v>38386351</v>
+        <v>38644441</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D458" t="n">
-        <v>433784</v>
+        <v>436784</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22366,10 +22366,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>11207</v>
+        <v>11251</v>
       </c>
       <c r="D459" t="n">
-        <v>16403872</v>
+        <v>16469872</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>4786</v>
+        <v>4816</v>
       </c>
       <c r="D461" t="n">
-        <v>6947478</v>
+        <v>6988884</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22510,10 +22510,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D462" t="n">
-        <v>485498</v>
+        <v>491498</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22558,10 +22558,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D463" t="n">
-        <v>523723</v>
+        <v>526723</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22606,10 +22606,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>13899</v>
+        <v>14009</v>
       </c>
       <c r="D464" t="n">
-        <v>17010094</v>
+        <v>17144162</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>4289</v>
+        <v>4313</v>
       </c>
       <c r="D469" t="n">
-        <v>6302753</v>
+        <v>6337495</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -22942,10 +22942,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>2017</v>
+        <v>2043</v>
       </c>
       <c r="D471" t="n">
-        <v>2908499</v>
+        <v>2945115</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D473" t="n">
-        <v>411629</v>
+        <v>414629</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23086,10 +23086,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>33783</v>
+        <v>34319</v>
       </c>
       <c r="D474" t="n">
-        <v>43985287</v>
+        <v>44707269</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>13053</v>
+        <v>13169</v>
       </c>
       <c r="D478" t="n">
-        <v>19210886</v>
+        <v>19381538</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23374,10 +23374,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>11419</v>
+        <v>11573</v>
       </c>
       <c r="D480" t="n">
-        <v>16660401</v>
+        <v>16888451</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23422,10 +23422,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D481" t="n">
-        <v>249429</v>
+        <v>264429</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23470,10 +23470,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="D482" t="n">
-        <v>385448</v>
+        <v>406448</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>57462</v>
+        <v>58760</v>
       </c>
       <c r="D483" t="n">
-        <v>76024779</v>
+        <v>77777661</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23662,10 +23662,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D486" t="n">
-        <v>181955</v>
+        <v>184955</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>22081</v>
+        <v>22331</v>
       </c>
       <c r="D488" t="n">
-        <v>32431995</v>
+        <v>32800269</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23854,10 +23854,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>21201</v>
+        <v>21505</v>
       </c>
       <c r="D490" t="n">
-        <v>30787403</v>
+        <v>31227383</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="D493" t="n">
-        <v>796814</v>
+        <v>813596</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>139872</v>
+        <v>142686</v>
       </c>
       <c r="D494" t="n">
-        <v>184084028</v>
+        <v>187743930</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24094,10 +24094,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D495" t="n">
-        <v>44434</v>
+        <v>47434</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D499" t="n">
-        <v>648482</v>
+        <v>657482</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24382,10 +24382,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>77419</v>
+        <v>78391</v>
       </c>
       <c r="D501" t="n">
-        <v>113800847</v>
+        <v>115212593</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D502" t="n">
-        <v>322342</v>
+        <v>328342</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24526,10 +24526,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>56531</v>
+        <v>57269</v>
       </c>
       <c r="D504" t="n">
-        <v>82107589</v>
+        <v>83186831</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>966</v>
+        <v>996</v>
       </c>
       <c r="D506" t="n">
-        <v>1377067</v>
+        <v>1420565</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>2470</v>
+        <v>2528</v>
       </c>
       <c r="D508" t="n">
-        <v>3488725</v>
+        <v>3569909</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>38926</v>
+        <v>39564</v>
       </c>
       <c r="D510" t="n">
-        <v>50560108</v>
+        <v>51392326</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24862,10 +24862,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D511" t="n">
-        <v>29437</v>
+        <v>32437</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>14781</v>
+        <v>14893</v>
       </c>
       <c r="D515" t="n">
-        <v>21726145</v>
+        <v>21883867</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25150,10 +25150,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>12318</v>
+        <v>12474</v>
       </c>
       <c r="D517" t="n">
-        <v>17856448</v>
+        <v>18084622</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -25198,10 +25198,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D518" t="n">
-        <v>428345</v>
+        <v>431345</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25246,10 +25246,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="D519" t="n">
-        <v>448132</v>
+        <v>476026</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25342,10 +25342,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>60227</v>
+        <v>61923</v>
       </c>
       <c r="D521" t="n">
-        <v>80842213</v>
+        <v>83187745</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25486,10 +25486,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D524" t="n">
-        <v>177207</v>
+        <v>192207</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25534,10 +25534,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>22213</v>
+        <v>22475</v>
       </c>
       <c r="D525" t="n">
-        <v>32798425</v>
+        <v>33178015</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>22721</v>
+        <v>23061</v>
       </c>
       <c r="D527" t="n">
-        <v>33261979</v>
+        <v>33760073</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25726,10 +25726,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D529" t="n">
-        <v>346987</v>
+        <v>349987</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="D530" t="n">
-        <v>1075277</v>
+        <v>1099035</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>50652</v>
+        <v>51968</v>
       </c>
       <c r="D531" t="n">
-        <v>67113078</v>
+        <v>68861136</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>17020</v>
+        <v>17182</v>
       </c>
       <c r="D534" t="n">
-        <v>25015521</v>
+        <v>25247253</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>17296</v>
+        <v>17574</v>
       </c>
       <c r="D536" t="n">
-        <v>25153100</v>
+        <v>25564342</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26158,10 +26158,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="D538" t="n">
-        <v>776344</v>
+        <v>799264</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26206,10 +26206,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>38598</v>
+        <v>39476</v>
       </c>
       <c r="D539" t="n">
-        <v>51196353</v>
+        <v>52407641</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>13708</v>
+        <v>13830</v>
       </c>
       <c r="D543" t="n">
-        <v>20226710</v>
+        <v>20408310</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>13629</v>
+        <v>13849</v>
       </c>
       <c r="D545" t="n">
-        <v>19799423</v>
+        <v>20122669</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D546" t="n">
-        <v>233479</v>
+        <v>242479</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D547" t="n">
-        <v>351224</v>
+        <v>354224</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26638,10 +26638,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>38984</v>
+        <v>39660</v>
       </c>
       <c r="D548" t="n">
-        <v>50563275</v>
+        <v>51429303</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>15618</v>
+        <v>15758</v>
       </c>
       <c r="D552" t="n">
-        <v>22927037</v>
+        <v>23129045</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D553" t="n">
-        <v>40500</v>
+        <v>43500</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26926,10 +26926,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>12356</v>
+        <v>12550</v>
       </c>
       <c r="D554" t="n">
-        <v>17882719</v>
+        <v>18159431</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="D557" t="n">
-        <v>436819</v>
+        <v>461715</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>41562</v>
+        <v>42126</v>
       </c>
       <c r="D558" t="n">
-        <v>55606820</v>
+        <v>56330028</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D562" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27406,10 +27406,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>13430</v>
+        <v>13530</v>
       </c>
       <c r="D564" t="n">
-        <v>19717097</v>
+        <v>19860035</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27454,10 +27454,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>3544</v>
+        <v>3564</v>
       </c>
       <c r="D565" t="n">
-        <v>5112511</v>
+        <v>5141043</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27598,10 +27598,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D568" t="n">
-        <v>520222</v>
+        <v>532222</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D570" t="n">
-        <v>481809</v>
+        <v>487809</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>16118</v>
+        <v>16412</v>
       </c>
       <c r="D571" t="n">
-        <v>21353642</v>
+        <v>21742798</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>6699</v>
+        <v>6791</v>
       </c>
       <c r="D575" t="n">
-        <v>9750622</v>
+        <v>9885802</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>4569</v>
+        <v>4625</v>
       </c>
       <c r="D577" t="n">
-        <v>6584361</v>
+        <v>6657989</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28174,10 +28174,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="D580" t="n">
-        <v>325433</v>
+        <v>355433</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28270,10 +28270,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>13077</v>
+        <v>13659</v>
       </c>
       <c r="D582" t="n">
-        <v>18949397</v>
+        <v>19817831</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28318,10 +28318,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>1605</v>
+        <v>1633</v>
       </c>
       <c r="D583" t="n">
-        <v>2387538</v>
+        <v>2429138</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D584" t="n">
-        <v>308302</v>
+        <v>317302</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28510,10 +28510,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D587" t="n">
-        <v>112449</v>
+        <v>118449</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>21247</v>
+        <v>21415</v>
       </c>
       <c r="D588" t="n">
-        <v>26678848</v>
+        <v>26871866</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>8758</v>
+        <v>8802</v>
       </c>
       <c r="D593" t="n">
-        <v>12831838</v>
+        <v>12897838</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>3254</v>
+        <v>3268</v>
       </c>
       <c r="D595" t="n">
-        <v>4674555</v>
+        <v>4695555</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D596" t="n">
-        <v>467663</v>
+        <v>476359</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -28990,10 +28990,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="D597" t="n">
-        <v>594328</v>
+        <v>615328</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29086,10 +29086,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>14166</v>
+        <v>14300</v>
       </c>
       <c r="D599" t="n">
-        <v>17783330</v>
+        <v>17932590</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29278,10 +29278,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>5658</v>
+        <v>5684</v>
       </c>
       <c r="D603" t="n">
-        <v>8311330</v>
+        <v>8349640</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -29374,10 +29374,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>2574</v>
+        <v>2586</v>
       </c>
       <c r="D605" t="n">
-        <v>3713542</v>
+        <v>3731542</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -29470,10 +29470,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D607" t="n">
-        <v>238451</v>
+        <v>241451</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>13325</v>
+        <v>13441</v>
       </c>
       <c r="D608" t="n">
-        <v>16879982</v>
+        <v>17020016</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>5065</v>
+        <v>5097</v>
       </c>
       <c r="D612" t="n">
-        <v>7424645</v>
+        <v>7472349</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="D613" t="n">
-        <v>1628468</v>
+        <v>1637468</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29854,10 +29854,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D615" t="n">
-        <v>357895</v>
+        <v>360895</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -29902,10 +29902,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D616" t="n">
-        <v>341923</v>
+        <v>350923</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -29950,10 +29950,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>7285</v>
+        <v>7343</v>
       </c>
       <c r="D617" t="n">
-        <v>9381151</v>
+        <v>9450231</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -30190,10 +30190,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>2501</v>
+        <v>2515</v>
       </c>
       <c r="D622" t="n">
-        <v>3666889</v>
+        <v>3687889</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30238,10 +30238,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D623" t="n">
-        <v>1193617</v>
+        <v>1194771</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D624" t="n">
-        <v>240805</v>
+        <v>243805</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30334,10 +30334,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D625" t="n">
-        <v>170507</v>
+        <v>173507</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30382,10 +30382,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>27760</v>
+        <v>28108</v>
       </c>
       <c r="D626" t="n">
-        <v>34232585</v>
+        <v>34625605</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -30526,10 +30526,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D629" t="n">
-        <v>210797</v>
+        <v>212997</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30574,10 +30574,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>10744</v>
+        <v>10792</v>
       </c>
       <c r="D630" t="n">
-        <v>15770612</v>
+        <v>15841448</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>4636</v>
+        <v>4668</v>
       </c>
       <c r="D632" t="n">
-        <v>6728553</v>
+        <v>6776553</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30814,10 +30814,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D635" t="n">
-        <v>716074</v>
+        <v>725074</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -30862,10 +30862,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>10996</v>
+        <v>11074</v>
       </c>
       <c r="D636" t="n">
-        <v>13349012</v>
+        <v>13440584</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -31102,10 +31102,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>3574</v>
+        <v>3582</v>
       </c>
       <c r="D641" t="n">
-        <v>5231969</v>
+        <v>5243969</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31150,10 +31150,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="D642" t="n">
-        <v>1554140</v>
+        <v>1561206</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31246,10 +31246,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D644" t="n">
-        <v>116692</v>
+        <v>118752</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31294,10 +31294,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D645" t="n">
-        <v>293033</v>
+        <v>297499</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -31342,10 +31342,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>27367</v>
+        <v>27605</v>
       </c>
       <c r="D646" t="n">
-        <v>34101303</v>
+        <v>34366767</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>10506</v>
+        <v>10560</v>
       </c>
       <c r="D650" t="n">
-        <v>15441928</v>
+        <v>15521724</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31630,10 +31630,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>2978</v>
+        <v>3002</v>
       </c>
       <c r="D652" t="n">
-        <v>4295350</v>
+        <v>4328514</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D654" t="n">
-        <v>687111</v>
+        <v>690111</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31774,10 +31774,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="D655" t="n">
-        <v>596463</v>
+        <v>614463</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31822,10 +31822,10 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>7230</v>
+        <v>7274</v>
       </c>
       <c r="D656" t="n">
-        <v>9167038</v>
+        <v>9229058</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>2581</v>
+        <v>2593</v>
       </c>
       <c r="D658" t="n">
-        <v>3786255</v>
+        <v>3804255</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -32062,10 +32062,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D661" t="n">
-        <v>325184</v>
+        <v>331184</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32158,10 +32158,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D663" t="n">
-        <v>218479</v>
+        <v>219843</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32206,10 +32206,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>3619</v>
+        <v>3653</v>
       </c>
       <c r="D664" t="n">
-        <v>4388074</v>
+        <v>4425150</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D668" t="n">
-        <v>1115957</v>
+        <v>1118957</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D670" t="n">
-        <v>614914</v>
+        <v>617914</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32542,10 +32542,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D671" t="n">
-        <v>154430</v>
+        <v>157430</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -32638,10 +32638,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>9015</v>
+        <v>9091</v>
       </c>
       <c r="D673" t="n">
-        <v>11284152</v>
+        <v>11366778</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -32830,10 +32830,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>3402</v>
+        <v>3414</v>
       </c>
       <c r="D677" t="n">
-        <v>5015222</v>
+        <v>5033222</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -32878,10 +32878,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D678" t="n">
-        <v>1046968</v>
+        <v>1049968</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D680" t="n">
-        <v>223299</v>
+        <v>226299</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33022,10 +33022,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D681" t="n">
-        <v>348703</v>
+        <v>354703</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>18527</v>
+        <v>18663</v>
       </c>
       <c r="D682" t="n">
-        <v>22697350</v>
+        <v>22858954</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33262,10 +33262,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>5545</v>
+        <v>5573</v>
       </c>
       <c r="D686" t="n">
-        <v>8100082</v>
+        <v>8141064</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>2168</v>
+        <v>2186</v>
       </c>
       <c r="D688" t="n">
-        <v>3118530</v>
+        <v>3145530</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D689" t="n">
-        <v>484822</v>
+        <v>490822</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33550,10 +33550,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>70944</v>
+        <v>71748</v>
       </c>
       <c r="D692" t="n">
-        <v>89312066</v>
+        <v>90326000</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33790,10 +33790,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>25770</v>
+        <v>25882</v>
       </c>
       <c r="D697" t="n">
-        <v>37850676</v>
+        <v>38013832</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -33934,10 +33934,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>12649</v>
+        <v>12725</v>
       </c>
       <c r="D700" t="n">
-        <v>18248288</v>
+        <v>18356834</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -34078,10 +34078,10 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="D703" t="n">
-        <v>2638286</v>
+        <v>2641648</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -34174,10 +34174,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>1081</v>
+        <v>1103</v>
       </c>
       <c r="D705" t="n">
-        <v>1513401</v>
+        <v>1545685</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34222,10 +34222,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>10612</v>
+        <v>10734</v>
       </c>
       <c r="D706" t="n">
-        <v>13005185</v>
+        <v>13140651</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -34366,10 +34366,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>4008</v>
+        <v>4028</v>
       </c>
       <c r="D709" t="n">
-        <v>5866553</v>
+        <v>5891073</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -34462,10 +34462,10 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>1455</v>
+        <v>1467</v>
       </c>
       <c r="D711" t="n">
-        <v>2095560</v>
+        <v>2112440</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -34558,10 +34558,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D713" t="n">
-        <v>313409</v>
+        <v>316303</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>17010</v>
+        <v>17178</v>
       </c>
       <c r="D714" t="n">
-        <v>21025313</v>
+        <v>21212313</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34798,10 +34798,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>6663</v>
+        <v>6701</v>
       </c>
       <c r="D718" t="n">
-        <v>9739107</v>
+        <v>9795159</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34894,10 +34894,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>2100</v>
+        <v>2114</v>
       </c>
       <c r="D720" t="n">
-        <v>3013313</v>
+        <v>3030469</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -35038,10 +35038,10 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D723" t="n">
-        <v>412641</v>
+        <v>418641</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -35134,10 +35134,10 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>11033</v>
+        <v>11167</v>
       </c>
       <c r="D725" t="n">
-        <v>13629279</v>
+        <v>13796471</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -35326,10 +35326,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>4140</v>
+        <v>4154</v>
       </c>
       <c r="D729" t="n">
-        <v>6072169</v>
+        <v>6090721</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -35422,10 +35422,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>1537</v>
+        <v>1559</v>
       </c>
       <c r="D731" t="n">
-        <v>2225804</v>
+        <v>2258804</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -35566,10 +35566,10 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>28415</v>
+        <v>28655</v>
       </c>
       <c r="D734" t="n">
-        <v>35396331</v>
+        <v>35685631</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -35806,10 +35806,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>12294</v>
+        <v>12362</v>
       </c>
       <c r="D739" t="n">
-        <v>17993689</v>
+        <v>18094157</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -35902,10 +35902,10 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>4030</v>
+        <v>4052</v>
       </c>
       <c r="D741" t="n">
-        <v>5765503</v>
+        <v>5795661</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -35998,10 +35998,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D743" t="n">
-        <v>1016312</v>
+        <v>1019312</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -36046,10 +36046,10 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="D744" t="n">
-        <v>875949</v>
+        <v>893949</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -36094,10 +36094,10 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D745" t="n">
-        <v>8947</v>
+        <v>10411</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -36142,10 +36142,10 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>11738</v>
+        <v>11880</v>
       </c>
       <c r="D746" t="n">
-        <v>14547402</v>
+        <v>14725422</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -36286,10 +36286,10 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>4533</v>
+        <v>4547</v>
       </c>
       <c r="D749" t="n">
-        <v>6626402</v>
+        <v>6645684</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -36334,10 +36334,10 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>1105</v>
+        <v>1121</v>
       </c>
       <c r="D750" t="n">
-        <v>1572594</v>
+        <v>1594720</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -36382,10 +36382,10 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D751" t="n">
-        <v>231392</v>
+        <v>236032</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -36430,10 +36430,10 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="D752" t="n">
-        <v>486851</v>
+        <v>501857</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -36478,10 +36478,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>6372</v>
+        <v>6462</v>
       </c>
       <c r="D753" t="n">
-        <v>7500073</v>
+        <v>7599059</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -36718,10 +36718,10 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="D758" t="n">
-        <v>1381893</v>
+        <v>1392695</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -36766,10 +36766,10 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D759" t="n">
-        <v>206655</v>
+        <v>207333</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -36814,10 +36814,10 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D760" t="n">
-        <v>200015</v>
+        <v>203015</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -36862,10 +36862,10 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>16103</v>
+        <v>16285</v>
       </c>
       <c r="D761" t="n">
-        <v>19564391</v>
+        <v>19760941</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -37006,10 +37006,10 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D764" t="n">
-        <v>56920</v>
+        <v>62920</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -37102,10 +37102,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>5326</v>
+        <v>5348</v>
       </c>
       <c r="D766" t="n">
-        <v>7806831</v>
+        <v>7839255</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -37198,10 +37198,10 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>3241</v>
+        <v>3273</v>
       </c>
       <c r="D768" t="n">
-        <v>4741708</v>
+        <v>4786054</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -37294,10 +37294,10 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D770" t="n">
-        <v>502928</v>
+        <v>508928</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -37342,10 +37342,10 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D771" t="n">
-        <v>329098</v>
+        <v>337040</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -37390,10 +37390,10 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>10914</v>
+        <v>11028</v>
       </c>
       <c r="D772" t="n">
-        <v>13860710</v>
+        <v>13988026</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -37534,10 +37534,10 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>3841</v>
+        <v>3851</v>
       </c>
       <c r="D775" t="n">
-        <v>5618918</v>
+        <v>5633918</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -37630,10 +37630,10 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>1192</v>
+        <v>1200</v>
       </c>
       <c r="D777" t="n">
-        <v>1731225</v>
+        <v>1743225</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -37726,10 +37726,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D779" t="n">
-        <v>674595</v>
+        <v>680595</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -37774,10 +37774,10 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D780" t="n">
-        <v>287667</v>
+        <v>301133</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -37822,10 +37822,10 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>30855</v>
+        <v>31181</v>
       </c>
       <c r="D781" t="n">
-        <v>38079870</v>
+        <v>38472558</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -38014,10 +38014,10 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>12769</v>
+        <v>12851</v>
       </c>
       <c r="D785" t="n">
-        <v>18692498</v>
+        <v>18811098</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -38110,10 +38110,10 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>5853</v>
+        <v>5869</v>
       </c>
       <c r="D787" t="n">
-        <v>8459249</v>
+        <v>8482609</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -38158,10 +38158,10 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="D788" t="n">
-        <v>686956</v>
+        <v>697356</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -38254,10 +38254,10 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="D790" t="n">
-        <v>829552</v>
+        <v>860910</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -38302,10 +38302,10 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>7301</v>
+        <v>7359</v>
       </c>
       <c r="D791" t="n">
-        <v>9035674</v>
+        <v>9105816</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -38590,10 +38590,10 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>2593</v>
+        <v>2599</v>
       </c>
       <c r="D797" t="n">
-        <v>3784755</v>
+        <v>3793733</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -38638,10 +38638,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="D798" t="n">
-        <v>1579613</v>
+        <v>1588613</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -38686,10 +38686,10 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D799" t="n">
-        <v>477631</v>
+        <v>480631</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -38734,10 +38734,10 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D800" t="n">
-        <v>301255</v>
+        <v>304255</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -38782,10 +38782,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>55446</v>
+        <v>56254</v>
       </c>
       <c r="D801" t="n">
-        <v>69250482</v>
+        <v>70261498</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -39022,10 +39022,10 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>20394</v>
+        <v>20484</v>
       </c>
       <c r="D806" t="n">
-        <v>29859063</v>
+        <v>29992591</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -39166,10 +39166,10 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>12031</v>
+        <v>12133</v>
       </c>
       <c r="D809" t="n">
-        <v>17368402</v>
+        <v>17517022</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -39262,10 +39262,10 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="D811" t="n">
-        <v>601161</v>
+        <v>622161</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -39406,10 +39406,10 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>1205</v>
+        <v>1231</v>
       </c>
       <c r="D814" t="n">
-        <v>1679549</v>
+        <v>1714361</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -39454,10 +39454,10 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>10595</v>
+        <v>10709</v>
       </c>
       <c r="D815" t="n">
-        <v>13227767</v>
+        <v>13389213</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -39598,10 +39598,10 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D818" t="n">
-        <v>47659</v>
+        <v>50659</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -39646,10 +39646,10 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>3724</v>
+        <v>3770</v>
       </c>
       <c r="D819" t="n">
-        <v>5416180</v>
+        <v>5481390</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -39742,10 +39742,10 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>1175</v>
+        <v>1201</v>
       </c>
       <c r="D821" t="n">
-        <v>1686931</v>
+        <v>1724091</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -39934,10 +39934,10 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D825" t="n">
-        <v>325790</v>
+        <v>331790</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -39982,10 +39982,10 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>55946</v>
+        <v>56528</v>
       </c>
       <c r="D826" t="n">
-        <v>69270369</v>
+        <v>69971935</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -40270,10 +40270,10 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>21605</v>
+        <v>21709</v>
       </c>
       <c r="D832" t="n">
-        <v>31707865</v>
+        <v>31861265</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -40366,10 +40366,10 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>13699</v>
+        <v>13789</v>
       </c>
       <c r="D834" t="n">
-        <v>19849534</v>
+        <v>19980454</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -40414,10 +40414,10 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D835" t="n">
-        <v>7709</v>
+        <v>9403</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -40462,10 +40462,10 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="D836" t="n">
-        <v>1223793</v>
+        <v>1238231</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -40510,10 +40510,10 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>1106</v>
+        <v>1132</v>
       </c>
       <c r="D837" t="n">
-        <v>1539051</v>
+        <v>1574777</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -40606,10 +40606,10 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>7433</v>
+        <v>7509</v>
       </c>
       <c r="D839" t="n">
-        <v>9128974</v>
+        <v>9216378</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -40702,10 +40702,10 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>2480</v>
+        <v>2490</v>
       </c>
       <c r="D841" t="n">
-        <v>3611437</v>
+        <v>3625653</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -40750,10 +40750,10 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="D842" t="n">
-        <v>1513188</v>
+        <v>1516472</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -40846,10 +40846,10 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D844" t="n">
-        <v>226911</v>
+        <v>242399</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -40894,10 +40894,10 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>3173</v>
+        <v>3231</v>
       </c>
       <c r="D845" t="n">
-        <v>4089361</v>
+        <v>4159955</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -41038,10 +41038,10 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="D848" t="n">
-        <v>1662783</v>
+        <v>1667929</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -41134,10 +41134,10 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D850" t="n">
-        <v>518750</v>
+        <v>521750</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -41278,10 +41278,10 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>21426</v>
+        <v>21650</v>
       </c>
       <c r="D853" t="n">
-        <v>26877181</v>
+        <v>27168315</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -41422,10 +41422,10 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D856" t="n">
-        <v>52539</v>
+        <v>55539</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -41470,10 +41470,10 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>7460</v>
+        <v>7510</v>
       </c>
       <c r="D857" t="n">
-        <v>10888281</v>
+        <v>10959665</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -41566,10 +41566,10 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>4434</v>
+        <v>4454</v>
       </c>
       <c r="D859" t="n">
-        <v>6415753</v>
+        <v>6444635</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -41662,10 +41662,10 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D861" t="n">
-        <v>507355</v>
+        <v>511755</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -41710,10 +41710,10 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D862" t="n">
-        <v>546847</v>
+        <v>554043</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -41806,10 +41806,10 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>13939</v>
+        <v>14087</v>
       </c>
       <c r="D864" t="n">
-        <v>16837466</v>
+        <v>16997918</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -41998,10 +41998,10 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>5060</v>
+        <v>5098</v>
       </c>
       <c r="D868" t="n">
-        <v>7382109</v>
+        <v>7437869</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -42094,10 +42094,10 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>2262</v>
+        <v>2274</v>
       </c>
       <c r="D870" t="n">
-        <v>3255061</v>
+        <v>3271901</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -42190,10 +42190,10 @@
         </is>
       </c>
       <c r="C872" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D872" t="n">
-        <v>308050</v>
+        <v>314050</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -42238,10 +42238,10 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D873" t="n">
-        <v>360568</v>
+        <v>375568</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -42286,10 +42286,10 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>9376</v>
+        <v>9482</v>
       </c>
       <c r="D874" t="n">
-        <v>11522019</v>
+        <v>11655071</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -42430,10 +42430,10 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>3259</v>
+        <v>3281</v>
       </c>
       <c r="D877" t="n">
-        <v>4778006</v>
+        <v>4811006</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -42478,10 +42478,10 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>1443</v>
+        <v>1453</v>
       </c>
       <c r="D878" t="n">
-        <v>2075508</v>
+        <v>2090508</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -42622,10 +42622,10 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>42719</v>
+        <v>43189</v>
       </c>
       <c r="D881" t="n">
-        <v>53779791</v>
+        <v>54352011</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -42862,10 +42862,10 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>20489</v>
+        <v>20607</v>
       </c>
       <c r="D886" t="n">
-        <v>30059276</v>
+        <v>30234930</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -42958,10 +42958,10 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>5653</v>
+        <v>5701</v>
       </c>
       <c r="D888" t="n">
-        <v>8145532</v>
+        <v>8213116</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -43006,10 +43006,10 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D889" t="n">
-        <v>867226</v>
+        <v>870226</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -43102,10 +43102,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>868</v>
+        <v>882</v>
       </c>
       <c r="D891" t="n">
-        <v>1218027</v>
+        <v>1239027</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -43150,10 +43150,10 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>20391</v>
+        <v>20613</v>
       </c>
       <c r="D892" t="n">
-        <v>25404461</v>
+        <v>25673467</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -43246,10 +43246,10 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D894" t="n">
-        <v>158323</v>
+        <v>164323</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -43294,10 +43294,10 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>9529</v>
+        <v>9571</v>
       </c>
       <c r="D895" t="n">
-        <v>13964273</v>
+        <v>14025115</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -43390,10 +43390,10 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>2187</v>
+        <v>2211</v>
       </c>
       <c r="D897" t="n">
-        <v>3142256</v>
+        <v>3172298</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -43486,10 +43486,10 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D899" t="n">
-        <v>855724</v>
+        <v>858724</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -43534,10 +43534,10 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="D900" t="n">
-        <v>837008</v>
+        <v>848568</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -43582,10 +43582,10 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>6778</v>
+        <v>6850</v>
       </c>
       <c r="D901" t="n">
-        <v>8540144</v>
+        <v>8625700</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -43822,10 +43822,10 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>2930</v>
+        <v>2940</v>
       </c>
       <c r="D906" t="n">
-        <v>4316160</v>
+        <v>4331160</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -43870,10 +43870,10 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D907" t="n">
-        <v>879106</v>
+        <v>882106</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -43918,10 +43918,10 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D908" t="n">
-        <v>213468</v>
+        <v>216468</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -43966,10 +43966,10 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D909" t="n">
-        <v>245925</v>
+        <v>248925</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -44014,10 +44014,10 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>12548</v>
+        <v>12660</v>
       </c>
       <c r="D910" t="n">
-        <v>15658207</v>
+        <v>15797585</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -44206,10 +44206,10 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>5107</v>
+        <v>5137</v>
       </c>
       <c r="D914" t="n">
-        <v>7466426</v>
+        <v>7508764</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -44302,10 +44302,10 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>1322</v>
+        <v>1336</v>
       </c>
       <c r="D916" t="n">
-        <v>1898995</v>
+        <v>1917329</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -44494,10 +44494,10 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D920" t="n">
-        <v>335684</v>
+        <v>341684</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -44542,10 +44542,10 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>18738</v>
+        <v>18886</v>
       </c>
       <c r="D921" t="n">
-        <v>23487260</v>
+        <v>23665088</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -44686,10 +44686,10 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D924" t="n">
-        <v>185803</v>
+        <v>188803</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -44734,10 +44734,10 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>9862</v>
+        <v>9896</v>
       </c>
       <c r="D925" t="n">
-        <v>14419371</v>
+        <v>14468207</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -44830,10 +44830,10 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="D927" t="n">
-        <v>2885906</v>
+        <v>2894698</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -44926,10 +44926,10 @@
         </is>
       </c>
       <c r="C929" t="n">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="D929" t="n">
-        <v>572829</v>
+        <v>584829</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -44974,10 +44974,10 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>8303</v>
+        <v>8381</v>
       </c>
       <c r="D930" t="n">
-        <v>10377993</v>
+        <v>10475645</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -45214,10 +45214,10 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>3095</v>
+        <v>3115</v>
       </c>
       <c r="D935" t="n">
-        <v>4519308</v>
+        <v>4541262</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -45262,10 +45262,10 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>1440</v>
+        <v>1454</v>
       </c>
       <c r="D936" t="n">
-        <v>2080137</v>
+        <v>2100847</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -45406,10 +45406,10 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D939" t="n">
-        <v>267765</v>
+        <v>276765</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -45454,10 +45454,10 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>64198</v>
+        <v>64878</v>
       </c>
       <c r="D940" t="n">
-        <v>82506987</v>
+        <v>83343751</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -45550,10 +45550,10 @@
         </is>
       </c>
       <c r="C942" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D942" t="n">
-        <v>98705</v>
+        <v>101705</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -45790,10 +45790,10 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>24617</v>
+        <v>24785</v>
       </c>
       <c r="D947" t="n">
-        <v>36102443</v>
+        <v>36344487</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -45886,10 +45886,10 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>16798</v>
+        <v>16972</v>
       </c>
       <c r="D949" t="n">
-        <v>24370776</v>
+        <v>24619672</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -45982,10 +45982,10 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D951" t="n">
-        <v>649523</v>
+        <v>661123</v>
       </c>
       <c r="E951" t="inlineStr">
         <is>
@@ -46030,10 +46030,10 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="D952" t="n">
-        <v>1152578</v>
+        <v>1161578</v>
       </c>
       <c r="E952" t="inlineStr">
         <is>
@@ -46078,10 +46078,10 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>79994</v>
+        <v>80852</v>
       </c>
       <c r="D953" t="n">
-        <v>100587403</v>
+        <v>101628307</v>
       </c>
       <c r="E953" t="inlineStr">
         <is>
@@ -46414,10 +46414,10 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>32799</v>
+        <v>32951</v>
       </c>
       <c r="D960" t="n">
-        <v>48135257</v>
+        <v>48346817</v>
       </c>
       <c r="E960" t="inlineStr">
         <is>
@@ -46558,10 +46558,10 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>24164</v>
+        <v>24334</v>
       </c>
       <c r="D963" t="n">
-        <v>35058277</v>
+        <v>35310599</v>
       </c>
       <c r="E963" t="inlineStr">
         <is>
@@ -46606,10 +46606,10 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D964" t="n">
-        <v>833969</v>
+        <v>839969</v>
       </c>
       <c r="E964" t="inlineStr">
         <is>
@@ -46702,10 +46702,10 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>1795</v>
+        <v>1829</v>
       </c>
       <c r="D966" t="n">
-        <v>2524577</v>
+        <v>2574727</v>
       </c>
       <c r="E966" t="inlineStr">
         <is>
@@ -46750,10 +46750,10 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>10321</v>
+        <v>10451</v>
       </c>
       <c r="D967" t="n">
-        <v>13486329</v>
+        <v>13645133</v>
       </c>
       <c r="E967" t="inlineStr">
         <is>
@@ -46798,10 +46798,10 @@
         </is>
       </c>
       <c r="C968" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D968" t="n">
-        <v>8836</v>
+        <v>10866</v>
       </c>
       <c r="E968" t="inlineStr">
         <is>
@@ -46942,10 +46942,10 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>3356</v>
+        <v>3382</v>
       </c>
       <c r="D971" t="n">
-        <v>4903819</v>
+        <v>4938163</v>
       </c>
       <c r="E971" t="inlineStr">
         <is>
@@ -46990,10 +46990,10 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="D972" t="n">
-        <v>1524602</v>
+        <v>1539602</v>
       </c>
       <c r="E972" t="inlineStr">
         <is>
@@ -47038,10 +47038,10 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D973" t="n">
-        <v>145387</v>
+        <v>150587</v>
       </c>
       <c r="E973" t="inlineStr">
         <is>
@@ -47182,10 +47182,10 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D976" t="n">
-        <v>235889</v>
+        <v>238889</v>
       </c>
       <c r="E976" t="inlineStr">
         <is>
@@ -47230,10 +47230,10 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>53948</v>
+        <v>54426</v>
       </c>
       <c r="D977" t="n">
-        <v>67611735</v>
+        <v>68194377</v>
       </c>
       <c r="E977" t="inlineStr">
         <is>
@@ -47470,10 +47470,10 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>18048</v>
+        <v>18138</v>
       </c>
       <c r="D982" t="n">
-        <v>26442404</v>
+        <v>26573782</v>
       </c>
       <c r="E982" t="inlineStr">
         <is>
@@ -47566,10 +47566,10 @@
         </is>
       </c>
       <c r="C984" t="n">
-        <v>12176</v>
+        <v>12258</v>
       </c>
       <c r="D984" t="n">
-        <v>17621094</v>
+        <v>17742654</v>
       </c>
       <c r="E984" t="inlineStr">
         <is>
@@ -47614,10 +47614,10 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D985" t="n">
-        <v>658773</v>
+        <v>667773</v>
       </c>
       <c r="E985" t="inlineStr">
         <is>
@@ -47710,10 +47710,10 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>692</v>
+        <v>708</v>
       </c>
       <c r="D987" t="n">
-        <v>964461</v>
+        <v>986059</v>
       </c>
       <c r="E987" t="inlineStr">
         <is>
@@ -47758,10 +47758,10 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>27021</v>
+        <v>27309</v>
       </c>
       <c r="D988" t="n">
-        <v>33651741</v>
+        <v>34020137</v>
       </c>
       <c r="E988" t="inlineStr">
         <is>
@@ -47998,10 +47998,10 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>10151</v>
+        <v>10209</v>
       </c>
       <c r="D993" t="n">
-        <v>14877920</v>
+        <v>14961464</v>
       </c>
       <c r="E993" t="inlineStr">
         <is>
@@ -48094,10 +48094,10 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>5979</v>
+        <v>6023</v>
       </c>
       <c r="D995" t="n">
-        <v>8673871</v>
+        <v>8736979</v>
       </c>
       <c r="E995" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,10 +498,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15883</v>
+        <v>15804</v>
       </c>
       <c r="D2" t="n">
-        <v>19982446</v>
+        <v>19881073</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -478,10 +546,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>3470</v>
+        <v>3076</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -622,10 +690,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6077</v>
+        <v>6066</v>
       </c>
       <c r="D6" t="n">
-        <v>8896856</v>
+        <v>8880989</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +786,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3188</v>
+        <v>3178</v>
       </c>
       <c r="D8" t="n">
-        <v>4615075</v>
+        <v>4600239</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,10 +930,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D11" t="n">
-        <v>482104</v>
+        <v>476938</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +978,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10550</v>
+        <v>10496</v>
       </c>
       <c r="D12" t="n">
-        <v>13305539</v>
+        <v>13243623</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1102,10 +1170,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3171</v>
+        <v>3164</v>
       </c>
       <c r="D16" t="n">
-        <v>4622785</v>
+        <v>4612285</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1198,10 +1266,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="D18" t="n">
-        <v>2017414</v>
+        <v>2014817</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1246,10 +1314,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D19" t="n">
-        <v>467524</v>
+        <v>466024</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1294,10 +1362,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D20" t="n">
-        <v>267438</v>
+        <v>262103</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1342,10 +1410,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13833</v>
+        <v>13768</v>
       </c>
       <c r="D21" t="n">
-        <v>16998594</v>
+        <v>16925589</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1534,10 +1602,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4811</v>
+        <v>4797</v>
       </c>
       <c r="D25" t="n">
-        <v>7043702</v>
+        <v>7024458</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1630,10 +1698,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="D27" t="n">
-        <v>2392151</v>
+        <v>2383151</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1774,10 +1842,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D30" t="n">
-        <v>417170</v>
+        <v>415670</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1890,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6187</v>
+        <v>6170</v>
       </c>
       <c r="D31" t="n">
-        <v>8213290</v>
+        <v>8193659</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1966,10 +2034,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="D34" t="n">
-        <v>2260361</v>
+        <v>2257426</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2062,10 +2130,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D36" t="n">
-        <v>791025</v>
+        <v>788025</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2110,10 +2178,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D37" t="n">
-        <v>696326</v>
+        <v>694826</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2254,10 +2322,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21225</v>
+        <v>21136</v>
       </c>
       <c r="D40" t="n">
-        <v>26178890</v>
+        <v>26075433</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2542,10 +2610,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7647</v>
+        <v>7626</v>
       </c>
       <c r="D46" t="n">
-        <v>11235197</v>
+        <v>11203697</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2638,10 +2706,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3719</v>
+        <v>3707</v>
       </c>
       <c r="D48" t="n">
-        <v>5382271</v>
+        <v>5366379</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2782,10 +2850,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D51" t="n">
-        <v>750123</v>
+        <v>742343</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2898,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7924</v>
+        <v>7905</v>
       </c>
       <c r="D52" t="n">
-        <v>10137436</v>
+        <v>10113163</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2926,10 +2994,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>15614</v>
+        <v>14114</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3022,10 +3090,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2709</v>
+        <v>2706</v>
       </c>
       <c r="D56" t="n">
-        <v>3940761</v>
+        <v>3936621</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3118,10 +3186,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="D58" t="n">
-        <v>1411444</v>
+        <v>1406944</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3214,10 +3282,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D60" t="n">
-        <v>340961</v>
+        <v>339461</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3330,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35118</v>
+        <v>34921</v>
       </c>
       <c r="D61" t="n">
-        <v>45270998</v>
+        <v>45027182</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3454,10 +3522,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>12732</v>
+        <v>12702</v>
       </c>
       <c r="D65" t="n">
-        <v>18675632</v>
+        <v>18634892</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3550,10 +3618,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4964</v>
+        <v>4947</v>
       </c>
       <c r="D67" t="n">
-        <v>7178549</v>
+        <v>7153314</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3646,10 +3714,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D69" t="n">
-        <v>397984</v>
+        <v>392536</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3742,10 +3810,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D71" t="n">
-        <v>432663</v>
+        <v>431163</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3838,10 +3906,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>44866</v>
+        <v>44639</v>
       </c>
       <c r="D73" t="n">
-        <v>57437768</v>
+        <v>57158018</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3934,10 +4002,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D75" t="n">
-        <v>46101</v>
+        <v>44601</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4030,10 +4098,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>17724</v>
+        <v>17680</v>
       </c>
       <c r="D77" t="n">
-        <v>25981166</v>
+        <v>25916453</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4126,10 +4194,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>9024</v>
+        <v>8991</v>
       </c>
       <c r="D79" t="n">
-        <v>13033373</v>
+        <v>12986515</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4222,10 +4290,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D81" t="n">
-        <v>460154</v>
+        <v>459304</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4318,10 +4386,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="D83" t="n">
-        <v>1058951</v>
+        <v>1049060</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4366,10 +4434,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>24045</v>
+        <v>23904</v>
       </c>
       <c r="D84" t="n">
-        <v>30341760</v>
+        <v>30167463</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4558,10 +4626,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>8488</v>
+        <v>8466</v>
       </c>
       <c r="D88" t="n">
-        <v>12460340</v>
+        <v>12427494</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4654,10 +4722,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4728</v>
+        <v>4719</v>
       </c>
       <c r="D90" t="n">
-        <v>6836420</v>
+        <v>6826416</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4750,10 +4818,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D92" t="n">
-        <v>1020425</v>
+        <v>1013447</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4798,10 +4866,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>21323</v>
+        <v>21209</v>
       </c>
       <c r="D93" t="n">
-        <v>26781765</v>
+        <v>26644819</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4846,10 +4914,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D94" t="n">
-        <v>30634</v>
+        <v>29134</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4990,10 +5058,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>8923</v>
+        <v>8894</v>
       </c>
       <c r="D97" t="n">
-        <v>13072470</v>
+        <v>13028970</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5086,10 +5154,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3218</v>
+        <v>3206</v>
       </c>
       <c r="D99" t="n">
-        <v>4607722</v>
+        <v>4590012</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5278,10 +5346,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D103" t="n">
-        <v>576210</v>
+        <v>570210</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5326,10 +5394,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>78525</v>
+        <v>77863</v>
       </c>
       <c r="D104" t="n">
-        <v>100736881</v>
+        <v>99896885</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5566,10 +5634,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D109" t="n">
-        <v>213009</v>
+        <v>211509</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5662,10 +5730,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>29742</v>
+        <v>29661</v>
       </c>
       <c r="D111" t="n">
-        <v>43674092</v>
+        <v>43557508</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5758,10 +5826,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>20071</v>
+        <v>19989</v>
       </c>
       <c r="D113" t="n">
-        <v>28995177</v>
+        <v>28876766</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5902,10 +5970,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D116" t="n">
-        <v>929410</v>
+        <v>927910</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -6046,10 +6114,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1733</v>
+        <v>1715</v>
       </c>
       <c r="D119" t="n">
-        <v>2443066</v>
+        <v>2417443</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -6094,10 +6162,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>26906</v>
+        <v>26798</v>
       </c>
       <c r="D120" t="n">
-        <v>35546426</v>
+        <v>35411749</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -6286,10 +6354,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>9514</v>
+        <v>9495</v>
       </c>
       <c r="D124" t="n">
-        <v>13960197</v>
+        <v>13932327</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6382,10 +6450,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3148</v>
+        <v>3140</v>
       </c>
       <c r="D126" t="n">
-        <v>4575573</v>
+        <v>4564529</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6526,10 +6594,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D129" t="n">
-        <v>440535</v>
+        <v>431205</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6574,10 +6642,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>15294</v>
+        <v>15211</v>
       </c>
       <c r="D130" t="n">
-        <v>19085527</v>
+        <v>18993523</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6718,10 +6786,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>7574</v>
+        <v>7553</v>
       </c>
       <c r="D133" t="n">
-        <v>11092529</v>
+        <v>11062741</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6814,10 +6882,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2149</v>
+        <v>2139</v>
       </c>
       <c r="D135" t="n">
-        <v>3076711</v>
+        <v>3061711</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -7006,10 +7074,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D139" t="n">
-        <v>511146</v>
+        <v>503928</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -7054,10 +7122,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>13215</v>
+        <v>13145</v>
       </c>
       <c r="D140" t="n">
-        <v>16523398</v>
+        <v>16449577</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7246,10 +7314,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>6104</v>
+        <v>6090</v>
       </c>
       <c r="D144" t="n">
-        <v>8943005</v>
+        <v>8922005</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7342,10 +7410,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1933</v>
+        <v>1924</v>
       </c>
       <c r="D146" t="n">
-        <v>2794324</v>
+        <v>2780824</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7486,10 +7554,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D149" t="n">
-        <v>466631</v>
+        <v>463631</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7534,10 +7602,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>5847</v>
+        <v>5821</v>
       </c>
       <c r="D150" t="n">
-        <v>7156398</v>
+        <v>7127991</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7678,10 +7746,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D153" t="n">
-        <v>2961149</v>
+        <v>2959649</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7726,10 +7794,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D154" t="n">
-        <v>956907</v>
+        <v>953907</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7774,10 +7842,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D155" t="n">
-        <v>141867</v>
+        <v>138867</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7918,10 +7986,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>7262</v>
+        <v>7224</v>
       </c>
       <c r="D158" t="n">
-        <v>9031258</v>
+        <v>8987567</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -8062,10 +8130,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="D161" t="n">
-        <v>4089702</v>
+        <v>4085202</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8178,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="D162" t="n">
-        <v>1947410</v>
+        <v>1944410</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8158,10 +8226,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D163" t="n">
-        <v>215845</v>
+        <v>213095</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8302,10 +8370,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>5494</v>
+        <v>5480</v>
       </c>
       <c r="D166" t="n">
-        <v>6932028</v>
+        <v>6915337</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8542,10 +8610,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1994</v>
+        <v>1984</v>
       </c>
       <c r="D171" t="n">
-        <v>2910833</v>
+        <v>2896453</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8638,10 +8706,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D173" t="n">
-        <v>975298</v>
+        <v>967798</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -8782,10 +8850,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>15456</v>
+        <v>15400</v>
       </c>
       <c r="D176" t="n">
-        <v>19448397</v>
+        <v>19377628</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -9022,10 +9090,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>6235</v>
+        <v>6227</v>
       </c>
       <c r="D181" t="n">
-        <v>9110104</v>
+        <v>9098104</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -9070,10 +9138,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2164</v>
+        <v>2155</v>
       </c>
       <c r="D182" t="n">
-        <v>3116043</v>
+        <v>3102644</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9214,10 +9282,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D185" t="n">
-        <v>570276</v>
+        <v>565776</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9262,10 +9330,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2982</v>
+        <v>2964</v>
       </c>
       <c r="D186" t="n">
-        <v>3764646</v>
+        <v>3742237</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9358,10 +9426,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="D188" t="n">
-        <v>2104504</v>
+        <v>2098428</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9454,10 +9522,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D190" t="n">
-        <v>788761</v>
+        <v>787261</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9598,10 +9666,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D193" t="n">
-        <v>68215</v>
+        <v>66715</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -9646,10 +9714,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>8964</v>
+        <v>8935</v>
       </c>
       <c r="D194" t="n">
-        <v>11219931</v>
+        <v>11183294</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9838,10 +9906,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3358</v>
+        <v>3347</v>
       </c>
       <c r="D198" t="n">
-        <v>4934028</v>
+        <v>4917543</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9886,10 +9954,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="D199" t="n">
-        <v>2255566</v>
+        <v>2246566</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -9934,10 +10002,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D200" t="n">
-        <v>257372</v>
+        <v>253130</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -10078,10 +10146,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>16876</v>
+        <v>16806</v>
       </c>
       <c r="D203" t="n">
-        <v>21109991</v>
+        <v>21034313</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10174,10 +10242,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D205" t="n">
-        <v>30547</v>
+        <v>29047</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10270,10 +10338,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>7505</v>
+        <v>7493</v>
       </c>
       <c r="D207" t="n">
-        <v>11025617</v>
+        <v>11008515</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10318,10 +10386,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="D208" t="n">
-        <v>1734065</v>
+        <v>1724132</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -10366,10 +10434,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D209" t="n">
-        <v>374366</v>
+        <v>368366</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10482,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D210" t="n">
-        <v>621468</v>
+        <v>616968</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10462,10 +10530,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>25586</v>
+        <v>25480</v>
       </c>
       <c r="D211" t="n">
-        <v>32327165</v>
+        <v>32199380</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10510,10 +10578,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D212" t="n">
-        <v>36163</v>
+        <v>34663</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10654,10 +10722,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>10323</v>
+        <v>10288</v>
       </c>
       <c r="D215" t="n">
-        <v>15090552</v>
+        <v>15044486</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10750,10 +10818,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2580</v>
+        <v>2561</v>
       </c>
       <c r="D217" t="n">
-        <v>3727763</v>
+        <v>3699674</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10894,10 +10962,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D220" t="n">
-        <v>783838</v>
+        <v>777391</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -10942,10 +11010,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>27802</v>
+        <v>27662</v>
       </c>
       <c r="D221" t="n">
-        <v>35149636</v>
+        <v>34978771</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -11182,10 +11250,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>14475</v>
+        <v>14446</v>
       </c>
       <c r="D226" t="n">
-        <v>21250517</v>
+        <v>21207817</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -11278,10 +11346,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2557</v>
+        <v>2550</v>
       </c>
       <c r="D228" t="n">
-        <v>3667953</v>
+        <v>3659493</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11374,10 +11442,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D230" t="n">
-        <v>493844</v>
+        <v>489344</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11422,10 +11490,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="D231" t="n">
-        <v>963508</v>
+        <v>952808</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11470,10 +11538,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>23748</v>
+        <v>23631</v>
       </c>
       <c r="D232" t="n">
-        <v>30022496</v>
+        <v>29879613</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11518,10 +11586,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D233" t="n">
-        <v>20363</v>
+        <v>18863</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11634,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D234" t="n">
-        <v>50442</v>
+        <v>48462</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11758,10 +11826,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>10961</v>
+        <v>10939</v>
       </c>
       <c r="D238" t="n">
-        <v>16072921</v>
+        <v>16040940</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11806,10 +11874,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="D239" t="n">
-        <v>3504366</v>
+        <v>3499866</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11950,10 +12018,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D242" t="n">
-        <v>559725</v>
+        <v>553851</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -11998,10 +12066,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>7714</v>
+        <v>7685</v>
       </c>
       <c r="D243" t="n">
-        <v>9665279</v>
+        <v>9629607</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12190,10 +12258,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>2636</v>
+        <v>2626</v>
       </c>
       <c r="D247" t="n">
-        <v>3872022</v>
+        <v>3857022</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12334,10 +12402,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="D250" t="n">
-        <v>1429767</v>
+        <v>1414894</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12382,10 +12450,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D251" t="n">
-        <v>276550</v>
+        <v>275050</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -12430,10 +12498,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D252" t="n">
-        <v>204400</v>
+        <v>198400</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12478,10 +12546,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>9545</v>
+        <v>9506</v>
       </c>
       <c r="D253" t="n">
-        <v>12184819</v>
+        <v>12136403</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -12670,10 +12738,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>4084</v>
+        <v>4075</v>
       </c>
       <c r="D257" t="n">
-        <v>5998117</v>
+        <v>5984617</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12718,10 +12786,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -12766,10 +12834,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>2092</v>
+        <v>2085</v>
       </c>
       <c r="D259" t="n">
-        <v>3027112</v>
+        <v>3016612</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12814,10 +12882,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D260" t="n">
-        <v>140696</v>
+        <v>139196</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12862,10 +12930,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D261" t="n">
-        <v>165681</v>
+        <v>164181</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12910,10 +12978,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>5412</v>
+        <v>5389</v>
       </c>
       <c r="D262" t="n">
-        <v>6712162</v>
+        <v>6686970</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -13054,10 +13122,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="D265" t="n">
-        <v>2888391</v>
+        <v>2883295</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13342,10 +13410,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>18473</v>
+        <v>18360</v>
       </c>
       <c r="D271" t="n">
-        <v>23373401</v>
+        <v>23235759</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13438,10 +13506,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D273" t="n">
-        <v>17794</v>
+        <v>16294</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13534,10 +13602,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>7761</v>
+        <v>7734</v>
       </c>
       <c r="D275" t="n">
-        <v>11380509</v>
+        <v>11340785</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13630,10 +13698,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2410</v>
+        <v>2403</v>
       </c>
       <c r="D277" t="n">
-        <v>3463413</v>
+        <v>3452913</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13678,10 +13746,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D278" t="n">
-        <v>684015</v>
+        <v>681098</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13774,10 +13842,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D280" t="n">
-        <v>612456</v>
+        <v>607956</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13870,10 +13938,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>16095</v>
+        <v>16012</v>
       </c>
       <c r="D282" t="n">
-        <v>19953370</v>
+        <v>19854611</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -14062,10 +14130,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>7043</v>
+        <v>7017</v>
       </c>
       <c r="D286" t="n">
-        <v>10327047</v>
+        <v>10289906</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -14110,10 +14178,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>3229</v>
+        <v>3214</v>
       </c>
       <c r="D287" t="n">
-        <v>4679466</v>
+        <v>4660514</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -14254,10 +14322,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D290" t="n">
-        <v>425318</v>
+        <v>425027</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14370,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>9086</v>
+        <v>9039</v>
       </c>
       <c r="D291" t="n">
-        <v>11423325</v>
+        <v>11361023</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14350,10 +14418,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D292" t="n">
-        <v>17623</v>
+        <v>16123</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14494,10 +14562,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>3825</v>
+        <v>3821</v>
       </c>
       <c r="D295" t="n">
-        <v>5600617</v>
+        <v>5594617</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14542,10 +14610,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="D296" t="n">
-        <v>1766485</v>
+        <v>1759886</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14590,10 +14658,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D297" t="n">
-        <v>307165</v>
+        <v>305665</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14734,10 +14802,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D300" t="n">
-        <v>284948</v>
+        <v>278948</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14782,10 +14850,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>8856</v>
+        <v>8805</v>
       </c>
       <c r="D301" t="n">
-        <v>11558283</v>
+        <v>11490553</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -14974,10 +15042,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>3549</v>
+        <v>3532</v>
       </c>
       <c r="D305" t="n">
-        <v>5187867</v>
+        <v>5162367</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15022,10 +15090,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>2224</v>
+        <v>2215</v>
       </c>
       <c r="D306" t="n">
-        <v>3232909</v>
+        <v>3219409</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15118,10 +15186,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D308" t="n">
-        <v>139387</v>
+        <v>137887</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -15166,10 +15234,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>10685</v>
+        <v>10630</v>
       </c>
       <c r="D309" t="n">
-        <v>14021487</v>
+        <v>13952121</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15358,10 +15426,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>3625</v>
+        <v>3605</v>
       </c>
       <c r="D313" t="n">
-        <v>5316054</v>
+        <v>5286054</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15454,10 +15522,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2619</v>
+        <v>2611</v>
       </c>
       <c r="D315" t="n">
-        <v>3799893</v>
+        <v>3787993</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15502,10 +15570,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D316" t="n">
-        <v>337024</v>
+        <v>334024</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15550,10 +15618,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D317" t="n">
-        <v>210517</v>
+        <v>208369</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -15598,10 +15666,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>6685</v>
+        <v>6663</v>
       </c>
       <c r="D318" t="n">
-        <v>8268875</v>
+        <v>8247055</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15790,10 +15858,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>2252</v>
+        <v>2247</v>
       </c>
       <c r="D322" t="n">
-        <v>3304166</v>
+        <v>3296666</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15886,10 +15954,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D324" t="n">
-        <v>1080278</v>
+        <v>1077278</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -15934,10 +16002,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D325" t="n">
-        <v>82428</v>
+        <v>80928</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -16030,10 +16098,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>7356</v>
+        <v>7321</v>
       </c>
       <c r="D327" t="n">
-        <v>9221370</v>
+        <v>9180704</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16222,10 +16290,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>3047</v>
+        <v>3038</v>
       </c>
       <c r="D331" t="n">
-        <v>4454173</v>
+        <v>4441347</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16270,10 +16338,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="D332" t="n">
-        <v>1797059</v>
+        <v>1791059</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16366,10 +16434,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D334" t="n">
-        <v>166510</v>
+        <v>165010</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -16414,10 +16482,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>30884</v>
+        <v>30730</v>
       </c>
       <c r="D335" t="n">
-        <v>38849914</v>
+        <v>38665397</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16606,10 +16674,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D339" t="n">
-        <v>42394</v>
+        <v>40894</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -16702,10 +16770,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>16081</v>
+        <v>16043</v>
       </c>
       <c r="D341" t="n">
-        <v>23528779</v>
+        <v>23475169</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -16846,10 +16914,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>7748</v>
+        <v>7720</v>
       </c>
       <c r="D344" t="n">
-        <v>11165650</v>
+        <v>11128572</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -16894,10 +16962,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D345" t="n">
-        <v>855079</v>
+        <v>853579</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -16942,10 +17010,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D346" t="n">
-        <v>1003237</v>
+        <v>996295</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -16990,10 +17058,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>3805</v>
+        <v>3788</v>
       </c>
       <c r="D347" t="n">
-        <v>4752256</v>
+        <v>4730043</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17134,10 +17202,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D350" t="n">
-        <v>2149461</v>
+        <v>2147961</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17250,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D351" t="n">
-        <v>828442</v>
+        <v>825442</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17374,10 +17442,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>18800</v>
+        <v>18706</v>
       </c>
       <c r="D355" t="n">
-        <v>23449443</v>
+        <v>23334565</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17566,10 +17634,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>9587</v>
+        <v>9571</v>
       </c>
       <c r="D359" t="n">
-        <v>14065796</v>
+        <v>14043162</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17662,10 +17730,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>4600</v>
+        <v>4584</v>
       </c>
       <c r="D361" t="n">
-        <v>6664121</v>
+        <v>6641907</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -17710,10 +17778,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D362" t="n">
-        <v>822469</v>
+        <v>820969</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17758,10 +17826,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D363" t="n">
-        <v>454570</v>
+        <v>451570</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17806,10 +17874,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>13520</v>
+        <v>13445</v>
       </c>
       <c r="D364" t="n">
-        <v>16922230</v>
+        <v>16829620</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17998,10 +18066,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>6313</v>
+        <v>6306</v>
       </c>
       <c r="D368" t="n">
-        <v>9243856</v>
+        <v>9233754</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18094,10 +18162,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="D370" t="n">
-        <v>3470814</v>
+        <v>3464814</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18190,10 +18258,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D372" t="n">
-        <v>339217</v>
+        <v>337717</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18238,10 +18306,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>17520</v>
+        <v>17431</v>
       </c>
       <c r="D373" t="n">
-        <v>21856701</v>
+        <v>21746037</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18430,10 +18498,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>7021</v>
+        <v>6995</v>
       </c>
       <c r="D377" t="n">
-        <v>10325934</v>
+        <v>10286934</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18526,10 +18594,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2748</v>
+        <v>2735</v>
       </c>
       <c r="D379" t="n">
-        <v>4000823</v>
+        <v>3981373</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18670,10 +18738,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D382" t="n">
-        <v>528404</v>
+        <v>519404</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18718,10 +18786,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>4023</v>
+        <v>4010</v>
       </c>
       <c r="D383" t="n">
-        <v>5045362</v>
+        <v>5030091</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18814,10 +18882,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D385" t="n">
-        <v>49465</v>
+        <v>47965</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18862,10 +18930,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="D386" t="n">
-        <v>2003067</v>
+        <v>1996972</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18978,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D387" t="n">
-        <v>809931</v>
+        <v>808431</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -19006,10 +19074,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D389" t="n">
-        <v>110810</v>
+        <v>107810</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19054,10 +19122,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>21726</v>
+        <v>21627</v>
       </c>
       <c r="D390" t="n">
-        <v>26997420</v>
+        <v>26879048</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19198,10 +19266,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>9155</v>
+        <v>9141</v>
       </c>
       <c r="D393" t="n">
-        <v>13483246</v>
+        <v>13462246</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19294,10 +19362,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>6051</v>
+        <v>6039</v>
       </c>
       <c r="D395" t="n">
-        <v>8798808</v>
+        <v>8781350</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19438,10 +19506,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>10911</v>
+        <v>10861</v>
       </c>
       <c r="D398" t="n">
-        <v>13459584</v>
+        <v>13399409</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19486,10 +19554,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D399" t="n">
-        <v>6628</v>
+        <v>5803</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19678,10 +19746,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>5228</v>
+        <v>5217</v>
       </c>
       <c r="D403" t="n">
-        <v>7644473</v>
+        <v>7628794</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19774,10 +19842,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>1795</v>
+        <v>1787</v>
       </c>
       <c r="D405" t="n">
-        <v>2609493</v>
+        <v>2597691</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19822,10 +19890,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D406" t="n">
-        <v>184105</v>
+        <v>183468</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19918,10 +19986,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>29757</v>
+        <v>29362</v>
       </c>
       <c r="D408" t="n">
-        <v>40326921</v>
+        <v>39814246</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -20110,10 +20178,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>7451</v>
+        <v>7376</v>
       </c>
       <c r="D412" t="n">
-        <v>10973440</v>
+        <v>10862848</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20206,10 +20274,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>6706</v>
+        <v>6611</v>
       </c>
       <c r="D414" t="n">
-        <v>9717049</v>
+        <v>9581276</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20302,10 +20370,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D416" t="n">
-        <v>672805</v>
+        <v>666855</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20350,10 +20418,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D417" t="n">
-        <v>653139</v>
+        <v>645773</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20398,10 +20466,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>7605</v>
+        <v>7496</v>
       </c>
       <c r="D418" t="n">
-        <v>10535403</v>
+        <v>10390844</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -20494,10 +20562,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1932</v>
+        <v>1897</v>
       </c>
       <c r="D420" t="n">
-        <v>2842255</v>
+        <v>2791434</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20590,10 +20658,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2621</v>
+        <v>2569</v>
       </c>
       <c r="D422" t="n">
-        <v>3827867</v>
+        <v>3750875</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20686,10 +20754,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D424" t="n">
-        <v>157620</v>
+        <v>151620</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20734,10 +20802,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D425" t="n">
-        <v>181689</v>
+        <v>180189</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20782,10 +20850,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>10800</v>
+        <v>10757</v>
       </c>
       <c r="D426" t="n">
-        <v>13342158</v>
+        <v>13287405</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20926,10 +20994,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>3729</v>
+        <v>3721</v>
       </c>
       <c r="D429" t="n">
-        <v>5476303</v>
+        <v>5464303</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -21022,10 +21090,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>1816</v>
+        <v>1807</v>
       </c>
       <c r="D431" t="n">
-        <v>2605595</v>
+        <v>2593090</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -21070,10 +21138,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D432" t="n">
-        <v>154485</v>
+        <v>152985</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21166,10 +21234,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>61059</v>
+        <v>60714</v>
       </c>
       <c r="D434" t="n">
-        <v>75728286</v>
+        <v>75313165</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21358,10 +21426,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>24438</v>
+        <v>24371</v>
       </c>
       <c r="D438" t="n">
-        <v>35835148</v>
+        <v>35736567</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21454,10 +21522,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>12538</v>
+        <v>12483</v>
       </c>
       <c r="D440" t="n">
-        <v>18187183</v>
+        <v>18104813</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21502,10 +21570,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D441" t="n">
-        <v>616403</v>
+        <v>611903</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21646,10 +21714,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="D444" t="n">
-        <v>1379583</v>
+        <v>1362506</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21742,10 +21810,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>18431</v>
+        <v>18330</v>
       </c>
       <c r="D446" t="n">
-        <v>23309339</v>
+        <v>23175659</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -21886,10 +21954,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D449" t="n">
-        <v>222976</v>
+        <v>221476</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -21934,10 +22002,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>7539</v>
+        <v>7518</v>
       </c>
       <c r="D450" t="n">
-        <v>11068999</v>
+        <v>11038629</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -22030,10 +22098,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>4703</v>
+        <v>4674</v>
       </c>
       <c r="D452" t="n">
-        <v>6826982</v>
+        <v>6784885</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22126,10 +22194,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D454" t="n">
-        <v>364595</v>
+        <v>360095</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22174,10 +22242,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>31592</v>
+        <v>31480</v>
       </c>
       <c r="D455" t="n">
-        <v>38644441</v>
+        <v>38515396</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22318,10 +22386,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D458" t="n">
-        <v>436784</v>
+        <v>435284</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22366,10 +22434,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>11251</v>
+        <v>11229</v>
       </c>
       <c r="D459" t="n">
-        <v>16469872</v>
+        <v>16436872</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -22462,10 +22530,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>4816</v>
+        <v>4801</v>
       </c>
       <c r="D461" t="n">
-        <v>6988884</v>
+        <v>6968181</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22510,10 +22578,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D462" t="n">
-        <v>491498</v>
+        <v>488498</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22558,10 +22626,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D463" t="n">
-        <v>526723</v>
+        <v>525223</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22606,10 +22674,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>14009</v>
+        <v>13954</v>
       </c>
       <c r="D464" t="n">
-        <v>17144162</v>
+        <v>17077128</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22846,10 +22914,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>4313</v>
+        <v>4301</v>
       </c>
       <c r="D469" t="n">
-        <v>6337495</v>
+        <v>6320124</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -22942,10 +23010,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>2043</v>
+        <v>2030</v>
       </c>
       <c r="D471" t="n">
-        <v>2945115</v>
+        <v>2926807</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -23038,10 +23106,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D473" t="n">
-        <v>414629</v>
+        <v>413129</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23086,10 +23154,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>34319</v>
+        <v>34051</v>
       </c>
       <c r="D474" t="n">
-        <v>44707269</v>
+        <v>44346278</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23278,10 +23346,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>13169</v>
+        <v>13111</v>
       </c>
       <c r="D478" t="n">
-        <v>19381538</v>
+        <v>19296212</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23374,10 +23442,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>11573</v>
+        <v>11496</v>
       </c>
       <c r="D480" t="n">
-        <v>16888451</v>
+        <v>16774426</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23422,10 +23490,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D481" t="n">
-        <v>264429</v>
+        <v>256929</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23470,10 +23538,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D482" t="n">
-        <v>406448</v>
+        <v>395948</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23518,10 +23586,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>58760</v>
+        <v>58111</v>
       </c>
       <c r="D483" t="n">
-        <v>77777661</v>
+        <v>76901220</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23662,10 +23730,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D486" t="n">
-        <v>184955</v>
+        <v>183455</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23758,10 +23826,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>22331</v>
+        <v>22206</v>
       </c>
       <c r="D488" t="n">
-        <v>32800269</v>
+        <v>32616132</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23854,10 +23922,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>21505</v>
+        <v>21353</v>
       </c>
       <c r="D490" t="n">
-        <v>31227383</v>
+        <v>31007393</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -23998,10 +24066,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="D493" t="n">
-        <v>813596</v>
+        <v>805205</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24046,10 +24114,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>142686</v>
+        <v>141279</v>
       </c>
       <c r="D494" t="n">
-        <v>187743930</v>
+        <v>185913979</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24094,10 +24162,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D495" t="n">
-        <v>47434</v>
+        <v>45934</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24286,10 +24354,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D499" t="n">
-        <v>657482</v>
+        <v>652982</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24382,10 +24450,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>78391</v>
+        <v>77905</v>
       </c>
       <c r="D501" t="n">
-        <v>115212593</v>
+        <v>114506720</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -24430,10 +24498,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D502" t="n">
-        <v>328342</v>
+        <v>325342</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24526,10 +24594,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>57269</v>
+        <v>56900</v>
       </c>
       <c r="D504" t="n">
-        <v>83186831</v>
+        <v>82647210</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24622,10 +24690,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>996</v>
+        <v>981</v>
       </c>
       <c r="D506" t="n">
-        <v>1420565</v>
+        <v>1398816</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24718,10 +24786,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>2528</v>
+        <v>2499</v>
       </c>
       <c r="D508" t="n">
-        <v>3569909</v>
+        <v>3529317</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24814,10 +24882,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>39564</v>
+        <v>39245</v>
       </c>
       <c r="D510" t="n">
-        <v>51392326</v>
+        <v>50976217</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24862,10 +24930,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D511" t="n">
-        <v>32437</v>
+        <v>30937</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -25054,10 +25122,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>14893</v>
+        <v>14837</v>
       </c>
       <c r="D515" t="n">
-        <v>21883867</v>
+        <v>21805006</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25150,10 +25218,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>12474</v>
+        <v>12396</v>
       </c>
       <c r="D517" t="n">
-        <v>18084622</v>
+        <v>17970535</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -25198,10 +25266,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D518" t="n">
-        <v>431345</v>
+        <v>429845</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25246,10 +25314,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D519" t="n">
-        <v>476026</v>
+        <v>462079</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25342,10 +25410,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>61923</v>
+        <v>61075</v>
       </c>
       <c r="D521" t="n">
-        <v>83187745</v>
+        <v>82014979</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25486,10 +25554,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D524" t="n">
-        <v>192207</v>
+        <v>184707</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25534,10 +25602,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>22475</v>
+        <v>22344</v>
       </c>
       <c r="D525" t="n">
-        <v>33178015</v>
+        <v>32988220</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25630,10 +25698,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>23061</v>
+        <v>22891</v>
       </c>
       <c r="D527" t="n">
-        <v>33760073</v>
+        <v>33511026</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25726,10 +25794,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D529" t="n">
-        <v>349987</v>
+        <v>348487</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25774,10 +25842,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="D530" t="n">
-        <v>1099035</v>
+        <v>1087156</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25822,10 +25890,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>51968</v>
+        <v>51310</v>
       </c>
       <c r="D531" t="n">
-        <v>68861136</v>
+        <v>67987107</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25966,10 +26034,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>17182</v>
+        <v>17101</v>
       </c>
       <c r="D534" t="n">
-        <v>25247253</v>
+        <v>25131387</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26062,10 +26130,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>17574</v>
+        <v>17435</v>
       </c>
       <c r="D536" t="n">
-        <v>25564342</v>
+        <v>25358721</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26158,10 +26226,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D538" t="n">
-        <v>799264</v>
+        <v>787804</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26206,10 +26274,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>39476</v>
+        <v>39037</v>
       </c>
       <c r="D539" t="n">
-        <v>52407641</v>
+        <v>51801997</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -26398,10 +26466,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>13830</v>
+        <v>13769</v>
       </c>
       <c r="D543" t="n">
-        <v>20408310</v>
+        <v>20317510</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26494,10 +26562,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>13849</v>
+        <v>13739</v>
       </c>
       <c r="D545" t="n">
-        <v>20122669</v>
+        <v>19961046</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26542,10 +26610,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D546" t="n">
-        <v>242479</v>
+        <v>237979</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26590,10 +26658,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D547" t="n">
-        <v>354224</v>
+        <v>352724</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26638,10 +26706,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>39660</v>
+        <v>39322</v>
       </c>
       <c r="D548" t="n">
-        <v>51429303</v>
+        <v>50996289</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26830,10 +26898,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>15758</v>
+        <v>15688</v>
       </c>
       <c r="D552" t="n">
-        <v>23129045</v>
+        <v>23028041</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26878,10 +26946,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D553" t="n">
-        <v>43500</v>
+        <v>42000</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26926,10 +26994,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>12550</v>
+        <v>12453</v>
       </c>
       <c r="D554" t="n">
-        <v>18159431</v>
+        <v>18021075</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -27070,10 +27138,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D557" t="n">
-        <v>461715</v>
+        <v>449267</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27118,10 +27186,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>42126</v>
+        <v>41844</v>
       </c>
       <c r="D558" t="n">
-        <v>56330028</v>
+        <v>55968424</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27310,10 +27378,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D562" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27406,10 +27474,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>13530</v>
+        <v>13480</v>
       </c>
       <c r="D564" t="n">
-        <v>19860035</v>
+        <v>19788566</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27454,10 +27522,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>3564</v>
+        <v>3554</v>
       </c>
       <c r="D565" t="n">
-        <v>5141043</v>
+        <v>5126777</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27598,10 +27666,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D568" t="n">
-        <v>532222</v>
+        <v>526222</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27694,10 +27762,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D570" t="n">
-        <v>487809</v>
+        <v>484809</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27810,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>16412</v>
+        <v>16265</v>
       </c>
       <c r="D571" t="n">
-        <v>21742798</v>
+        <v>21548220</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27934,10 +28002,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>6791</v>
+        <v>6745</v>
       </c>
       <c r="D575" t="n">
-        <v>9885802</v>
+        <v>9818212</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -28030,10 +28098,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>4625</v>
+        <v>4597</v>
       </c>
       <c r="D577" t="n">
-        <v>6657989</v>
+        <v>6621175</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28174,10 +28242,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D580" t="n">
-        <v>355433</v>
+        <v>340433</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28270,10 +28338,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>13659</v>
+        <v>13368</v>
       </c>
       <c r="D582" t="n">
-        <v>19817831</v>
+        <v>19383614</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28318,10 +28386,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>1633</v>
+        <v>1619</v>
       </c>
       <c r="D583" t="n">
-        <v>2429138</v>
+        <v>2408338</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28366,10 +28434,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D584" t="n">
-        <v>317302</v>
+        <v>312802</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28510,10 +28578,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D587" t="n">
-        <v>118449</v>
+        <v>115449</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -28558,10 +28626,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>21415</v>
+        <v>21331</v>
       </c>
       <c r="D588" t="n">
-        <v>26871866</v>
+        <v>26775357</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28798,10 +28866,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>8802</v>
+        <v>8780</v>
       </c>
       <c r="D593" t="n">
-        <v>12897838</v>
+        <v>12864838</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28894,10 +28962,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>3268</v>
+        <v>3261</v>
       </c>
       <c r="D595" t="n">
-        <v>4695555</v>
+        <v>4685055</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -28942,10 +29010,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D596" t="n">
-        <v>476359</v>
+        <v>472011</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -28990,10 +29058,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D597" t="n">
-        <v>615328</v>
+        <v>604828</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29086,10 +29154,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>14300</v>
+        <v>14233</v>
       </c>
       <c r="D599" t="n">
-        <v>17932590</v>
+        <v>17857960</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29278,10 +29346,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>5684</v>
+        <v>5671</v>
       </c>
       <c r="D603" t="n">
-        <v>8349640</v>
+        <v>8330485</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -29374,10 +29442,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>2586</v>
+        <v>2580</v>
       </c>
       <c r="D605" t="n">
-        <v>3731542</v>
+        <v>3722542</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -29470,10 +29538,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D607" t="n">
-        <v>241451</v>
+        <v>239951</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29518,10 +29586,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>13441</v>
+        <v>13383</v>
       </c>
       <c r="D608" t="n">
-        <v>17020016</v>
+        <v>16949999</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29710,10 +29778,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>5097</v>
+        <v>5081</v>
       </c>
       <c r="D612" t="n">
-        <v>7472349</v>
+        <v>7448497</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29758,10 +29826,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D613" t="n">
-        <v>1637468</v>
+        <v>1632968</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29854,10 +29922,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D615" t="n">
-        <v>360895</v>
+        <v>359395</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -29902,10 +29970,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D616" t="n">
-        <v>350923</v>
+        <v>346423</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -29950,10 +30018,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>7343</v>
+        <v>7314</v>
       </c>
       <c r="D617" t="n">
-        <v>9450231</v>
+        <v>9415691</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -30190,10 +30258,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>2515</v>
+        <v>2508</v>
       </c>
       <c r="D622" t="n">
-        <v>3687889</v>
+        <v>3677389</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30238,10 +30306,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D623" t="n">
-        <v>1194771</v>
+        <v>1194194</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -30286,10 +30354,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D624" t="n">
-        <v>243805</v>
+        <v>242305</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30334,10 +30402,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D625" t="n">
-        <v>173507</v>
+        <v>172007</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30382,10 +30450,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>28108</v>
+        <v>27934</v>
       </c>
       <c r="D626" t="n">
-        <v>34625605</v>
+        <v>34429095</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -30526,10 +30594,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D629" t="n">
-        <v>212997</v>
+        <v>211897</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30574,10 +30642,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>10792</v>
+        <v>10768</v>
       </c>
       <c r="D630" t="n">
-        <v>15841448</v>
+        <v>15806030</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -30670,10 +30738,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>4668</v>
+        <v>4652</v>
       </c>
       <c r="D632" t="n">
-        <v>6776553</v>
+        <v>6752553</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30814,10 +30882,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D635" t="n">
-        <v>725074</v>
+        <v>720574</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -30862,10 +30930,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>11074</v>
+        <v>11035</v>
       </c>
       <c r="D636" t="n">
-        <v>13440584</v>
+        <v>13394798</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -31102,10 +31170,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>3582</v>
+        <v>3578</v>
       </c>
       <c r="D641" t="n">
-        <v>5243969</v>
+        <v>5237969</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31150,10 +31218,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="D642" t="n">
-        <v>1561206</v>
+        <v>1557673</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31246,10 +31314,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D644" t="n">
-        <v>118752</v>
+        <v>117722</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31294,10 +31362,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D645" t="n">
-        <v>297499</v>
+        <v>295266</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -31342,10 +31410,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>27605</v>
+        <v>27486</v>
       </c>
       <c r="D646" t="n">
-        <v>34366767</v>
+        <v>34234035</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -31534,10 +31602,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>10560</v>
+        <v>10533</v>
       </c>
       <c r="D650" t="n">
-        <v>15521724</v>
+        <v>15481826</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31630,10 +31698,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>3002</v>
+        <v>2990</v>
       </c>
       <c r="D652" t="n">
-        <v>4328514</v>
+        <v>4311932</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31726,10 +31794,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D654" t="n">
-        <v>690111</v>
+        <v>688611</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31774,10 +31842,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D655" t="n">
-        <v>614463</v>
+        <v>605463</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31822,10 +31890,10 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>7274</v>
+        <v>7252</v>
       </c>
       <c r="D656" t="n">
-        <v>9229058</v>
+        <v>9198048</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -31918,10 +31986,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>2593</v>
+        <v>2587</v>
       </c>
       <c r="D658" t="n">
-        <v>3804255</v>
+        <v>3795255</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -32062,10 +32130,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D661" t="n">
-        <v>331184</v>
+        <v>328184</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32158,10 +32226,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D663" t="n">
-        <v>219843</v>
+        <v>219161</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32206,10 +32274,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>3653</v>
+        <v>3636</v>
       </c>
       <c r="D664" t="n">
-        <v>4425150</v>
+        <v>4406612</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -32398,10 +32466,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D668" t="n">
-        <v>1118957</v>
+        <v>1117457</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32494,10 +32562,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D670" t="n">
-        <v>617914</v>
+        <v>616414</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32542,10 +32610,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D671" t="n">
-        <v>157430</v>
+        <v>155930</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -32638,10 +32706,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>9091</v>
+        <v>9053</v>
       </c>
       <c r="D673" t="n">
-        <v>11366778</v>
+        <v>11325465</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -32830,10 +32898,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>3414</v>
+        <v>3408</v>
       </c>
       <c r="D677" t="n">
-        <v>5033222</v>
+        <v>5024222</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -32878,10 +32946,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D678" t="n">
-        <v>1049968</v>
+        <v>1048468</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32974,10 +33042,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D680" t="n">
-        <v>226299</v>
+        <v>224799</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33022,10 +33090,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D681" t="n">
-        <v>354703</v>
+        <v>351703</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -33070,10 +33138,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>18663</v>
+        <v>18595</v>
       </c>
       <c r="D682" t="n">
-        <v>22858954</v>
+        <v>22778152</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33262,10 +33330,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>5573</v>
+        <v>5559</v>
       </c>
       <c r="D686" t="n">
-        <v>8141064</v>
+        <v>8120573</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33358,10 +33426,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>2186</v>
+        <v>2177</v>
       </c>
       <c r="D688" t="n">
-        <v>3145530</v>
+        <v>3132030</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33474,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D689" t="n">
-        <v>490822</v>
+        <v>487822</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33550,10 +33618,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>71748</v>
+        <v>71346</v>
       </c>
       <c r="D692" t="n">
-        <v>90326000</v>
+        <v>89819033</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33790,10 +33858,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>25882</v>
+        <v>25826</v>
       </c>
       <c r="D697" t="n">
-        <v>38013832</v>
+        <v>37932254</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -33934,10 +34002,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>12725</v>
+        <v>12687</v>
       </c>
       <c r="D700" t="n">
-        <v>18356834</v>
+        <v>18302561</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -34078,10 +34146,10 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D703" t="n">
-        <v>2641648</v>
+        <v>2639967</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -34174,10 +34242,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="D705" t="n">
-        <v>1545685</v>
+        <v>1529543</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34222,10 +34290,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>10734</v>
+        <v>10673</v>
       </c>
       <c r="D706" t="n">
-        <v>13140651</v>
+        <v>13072918</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -34366,10 +34434,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>4028</v>
+        <v>4018</v>
       </c>
       <c r="D709" t="n">
-        <v>5891073</v>
+        <v>5878813</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -34462,10 +34530,10 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="D711" t="n">
-        <v>2112440</v>
+        <v>2104000</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -34558,10 +34626,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D713" t="n">
-        <v>316303</v>
+        <v>314856</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -34606,10 +34674,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>17178</v>
+        <v>17094</v>
       </c>
       <c r="D714" t="n">
-        <v>21212313</v>
+        <v>21118813</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34798,10 +34866,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>6701</v>
+        <v>6682</v>
       </c>
       <c r="D718" t="n">
-        <v>9795159</v>
+        <v>9767133</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34894,10 +34962,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>2114</v>
+        <v>2107</v>
       </c>
       <c r="D720" t="n">
-        <v>3030469</v>
+        <v>3021891</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -35038,10 +35106,10 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D723" t="n">
-        <v>418641</v>
+        <v>415641</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -35134,10 +35202,10 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>11167</v>
+        <v>11100</v>
       </c>
       <c r="D725" t="n">
-        <v>13796471</v>
+        <v>13712875</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -35326,10 +35394,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>4154</v>
+        <v>4147</v>
       </c>
       <c r="D729" t="n">
-        <v>6090721</v>
+        <v>6081445</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -35422,10 +35490,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="D731" t="n">
-        <v>2258804</v>
+        <v>2242304</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -35566,10 +35634,10 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>28655</v>
+        <v>28535</v>
       </c>
       <c r="D734" t="n">
-        <v>35685631</v>
+        <v>35540981</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -35806,10 +35874,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>12362</v>
+        <v>12328</v>
       </c>
       <c r="D739" t="n">
-        <v>18094157</v>
+        <v>18043923</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -35902,10 +35970,10 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>4052</v>
+        <v>4041</v>
       </c>
       <c r="D741" t="n">
-        <v>5795661</v>
+        <v>5780582</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -35998,10 +36066,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D743" t="n">
-        <v>1019312</v>
+        <v>1017812</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -36046,10 +36114,10 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D744" t="n">
-        <v>893949</v>
+        <v>884949</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -36094,10 +36162,10 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D745" t="n">
-        <v>10411</v>
+        <v>9679</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -36142,10 +36210,10 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>11880</v>
+        <v>11809</v>
       </c>
       <c r="D746" t="n">
-        <v>14725422</v>
+        <v>14636412</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -36286,10 +36354,10 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>4547</v>
+        <v>4540</v>
       </c>
       <c r="D749" t="n">
-        <v>6645684</v>
+        <v>6636043</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -36334,10 +36402,10 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="D750" t="n">
-        <v>1594720</v>
+        <v>1583657</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -36382,10 +36450,10 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D751" t="n">
-        <v>236032</v>
+        <v>233712</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -36430,10 +36498,10 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D752" t="n">
-        <v>501857</v>
+        <v>494354</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -36478,10 +36546,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>6462</v>
+        <v>6417</v>
       </c>
       <c r="D753" t="n">
-        <v>7599059</v>
+        <v>7549566</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -36718,10 +36786,10 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="D758" t="n">
-        <v>1392695</v>
+        <v>1387294</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -36766,10 +36834,10 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D759" t="n">
-        <v>207333</v>
+        <v>206994</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -36814,10 +36882,10 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D760" t="n">
-        <v>203015</v>
+        <v>201515</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -36862,10 +36930,10 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>16285</v>
+        <v>16194</v>
       </c>
       <c r="D761" t="n">
-        <v>19760941</v>
+        <v>19662666</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -37006,10 +37074,10 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D764" t="n">
-        <v>62920</v>
+        <v>59920</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -37102,10 +37170,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>5348</v>
+        <v>5337</v>
       </c>
       <c r="D766" t="n">
-        <v>7839255</v>
+        <v>7823043</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -37198,10 +37266,10 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>3273</v>
+        <v>3257</v>
       </c>
       <c r="D768" t="n">
-        <v>4786054</v>
+        <v>4763881</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -37294,10 +37362,10 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D770" t="n">
-        <v>508928</v>
+        <v>505928</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -37342,10 +37410,10 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D771" t="n">
-        <v>337040</v>
+        <v>333069</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -37390,10 +37458,10 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>11028</v>
+        <v>10971</v>
       </c>
       <c r="D772" t="n">
-        <v>13988026</v>
+        <v>13924368</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -37534,10 +37602,10 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>3851</v>
+        <v>3846</v>
       </c>
       <c r="D775" t="n">
-        <v>5633918</v>
+        <v>5626418</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -37630,10 +37698,10 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="D777" t="n">
-        <v>1743225</v>
+        <v>1737225</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -37726,10 +37794,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D779" t="n">
-        <v>680595</v>
+        <v>677595</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -37774,10 +37842,10 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D780" t="n">
-        <v>301133</v>
+        <v>294400</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -37822,10 +37890,10 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>31181</v>
+        <v>31018</v>
       </c>
       <c r="D781" t="n">
-        <v>38472558</v>
+        <v>38276214</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -38014,10 +38082,10 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>12851</v>
+        <v>12810</v>
       </c>
       <c r="D785" t="n">
-        <v>18811098</v>
+        <v>18751798</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -38110,10 +38178,10 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>5869</v>
+        <v>5861</v>
       </c>
       <c r="D787" t="n">
-        <v>8482609</v>
+        <v>8470929</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -38158,10 +38226,10 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D788" t="n">
-        <v>697356</v>
+        <v>692156</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -38254,10 +38322,10 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D790" t="n">
-        <v>860910</v>
+        <v>845231</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -38302,10 +38370,10 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>7359</v>
+        <v>7330</v>
       </c>
       <c r="D791" t="n">
-        <v>9105816</v>
+        <v>9070745</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -38590,10 +38658,10 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>2599</v>
+        <v>2596</v>
       </c>
       <c r="D797" t="n">
-        <v>3793733</v>
+        <v>3789244</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -38638,10 +38706,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="D798" t="n">
-        <v>1588613</v>
+        <v>1584113</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -38686,10 +38754,10 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D799" t="n">
-        <v>480631</v>
+        <v>479131</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -38734,10 +38802,10 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D800" t="n">
-        <v>304255</v>
+        <v>302755</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -38782,10 +38850,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>56254</v>
+        <v>55850</v>
       </c>
       <c r="D801" t="n">
-        <v>70261498</v>
+        <v>69755990</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -39022,10 +39090,10 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>20484</v>
+        <v>20439</v>
       </c>
       <c r="D806" t="n">
-        <v>29992591</v>
+        <v>29925827</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -39166,10 +39234,10 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>12133</v>
+        <v>12082</v>
       </c>
       <c r="D809" t="n">
-        <v>17517022</v>
+        <v>17442712</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -39262,10 +39330,10 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D811" t="n">
-        <v>622161</v>
+        <v>611661</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -39406,10 +39474,10 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="D814" t="n">
-        <v>1714361</v>
+        <v>1696955</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -39454,10 +39522,10 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>10709</v>
+        <v>10652</v>
       </c>
       <c r="D815" t="n">
-        <v>13389213</v>
+        <v>13308490</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -39598,10 +39666,10 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D818" t="n">
-        <v>50659</v>
+        <v>49159</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -39646,10 +39714,10 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>3770</v>
+        <v>3747</v>
       </c>
       <c r="D819" t="n">
-        <v>5481390</v>
+        <v>5448785</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -39742,10 +39810,10 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>1201</v>
+        <v>1188</v>
       </c>
       <c r="D821" t="n">
-        <v>1724091</v>
+        <v>1705511</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -39934,10 +40002,10 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D825" t="n">
-        <v>331790</v>
+        <v>328790</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -39982,10 +40050,10 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>56528</v>
+        <v>56237</v>
       </c>
       <c r="D826" t="n">
-        <v>69971935</v>
+        <v>69621152</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -40270,10 +40338,10 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>21709</v>
+        <v>21657</v>
       </c>
       <c r="D832" t="n">
-        <v>31861265</v>
+        <v>31784565</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -40366,10 +40434,10 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>13789</v>
+        <v>13744</v>
       </c>
       <c r="D834" t="n">
-        <v>19980454</v>
+        <v>19914994</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -40414,10 +40482,10 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D835" t="n">
-        <v>9403</v>
+        <v>8556</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -40462,10 +40530,10 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="D836" t="n">
-        <v>1238231</v>
+        <v>1231012</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -40510,10 +40578,10 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>1132</v>
+        <v>1119</v>
       </c>
       <c r="D837" t="n">
-        <v>1574777</v>
+        <v>1556914</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -40606,10 +40674,10 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>7509</v>
+        <v>7471</v>
       </c>
       <c r="D839" t="n">
-        <v>9216378</v>
+        <v>9172676</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -40702,10 +40770,10 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>2490</v>
+        <v>2485</v>
       </c>
       <c r="D841" t="n">
-        <v>3625653</v>
+        <v>3618545</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -40750,10 +40818,10 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D842" t="n">
-        <v>1516472</v>
+        <v>1514830</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -40846,10 +40914,10 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D844" t="n">
-        <v>242399</v>
+        <v>234655</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -40894,10 +40962,10 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>3231</v>
+        <v>3202</v>
       </c>
       <c r="D845" t="n">
-        <v>4159955</v>
+        <v>4124658</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -41038,10 +41106,10 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D848" t="n">
-        <v>1667929</v>
+        <v>1665356</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -41134,10 +41202,10 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D850" t="n">
-        <v>521750</v>
+        <v>520250</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -41278,10 +41346,10 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>21650</v>
+        <v>21538</v>
       </c>
       <c r="D853" t="n">
-        <v>27168315</v>
+        <v>27022748</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -41422,10 +41490,10 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D856" t="n">
-        <v>55539</v>
+        <v>54039</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -41470,10 +41538,10 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>7510</v>
+        <v>7485</v>
       </c>
       <c r="D857" t="n">
-        <v>10959665</v>
+        <v>10923973</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -41566,10 +41634,10 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>4454</v>
+        <v>4444</v>
       </c>
       <c r="D859" t="n">
-        <v>6444635</v>
+        <v>6430194</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -41662,10 +41730,10 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D861" t="n">
-        <v>511755</v>
+        <v>509555</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -41710,10 +41778,10 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D862" t="n">
-        <v>554043</v>
+        <v>550445</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -41806,10 +41874,10 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>14087</v>
+        <v>14013</v>
       </c>
       <c r="D864" t="n">
-        <v>16997918</v>
+        <v>16917692</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -41998,10 +42066,10 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>5098</v>
+        <v>5079</v>
       </c>
       <c r="D868" t="n">
-        <v>7437869</v>
+        <v>7409989</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -42094,10 +42162,10 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>2274</v>
+        <v>2268</v>
       </c>
       <c r="D870" t="n">
-        <v>3271901</v>
+        <v>3263481</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -42190,10 +42258,10 @@
         </is>
       </c>
       <c r="C872" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D872" t="n">
-        <v>314050</v>
+        <v>311050</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -42238,10 +42306,10 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D873" t="n">
-        <v>375568</v>
+        <v>368068</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -42286,10 +42354,10 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>9482</v>
+        <v>9429</v>
       </c>
       <c r="D874" t="n">
-        <v>11655071</v>
+        <v>11588545</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -42430,10 +42498,10 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>3281</v>
+        <v>3270</v>
       </c>
       <c r="D877" t="n">
-        <v>4811006</v>
+        <v>4794506</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -42478,10 +42546,10 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="D878" t="n">
-        <v>2090508</v>
+        <v>2083008</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -42622,10 +42690,10 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>43189</v>
+        <v>42954</v>
       </c>
       <c r="D881" t="n">
-        <v>54352011</v>
+        <v>54065901</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -42862,10 +42930,10 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>20607</v>
+        <v>20548</v>
       </c>
       <c r="D886" t="n">
-        <v>30234930</v>
+        <v>30147103</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -42958,10 +43026,10 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>5701</v>
+        <v>5677</v>
       </c>
       <c r="D888" t="n">
-        <v>8213116</v>
+        <v>8179324</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -43006,10 +43074,10 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D889" t="n">
-        <v>870226</v>
+        <v>868726</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -43102,10 +43170,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="D891" t="n">
-        <v>1239027</v>
+        <v>1228527</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -43150,10 +43218,10 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>20613</v>
+        <v>20502</v>
       </c>
       <c r="D892" t="n">
-        <v>25673467</v>
+        <v>25538964</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -43246,10 +43314,10 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D894" t="n">
-        <v>164323</v>
+        <v>161323</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -43294,10 +43362,10 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>9571</v>
+        <v>9550</v>
       </c>
       <c r="D895" t="n">
-        <v>14025115</v>
+        <v>13994694</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -43390,10 +43458,10 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>2211</v>
+        <v>2199</v>
       </c>
       <c r="D897" t="n">
-        <v>3172298</v>
+        <v>3157277</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -43486,10 +43554,10 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D899" t="n">
-        <v>858724</v>
+        <v>857224</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -43534,10 +43602,10 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D900" t="n">
-        <v>848568</v>
+        <v>842788</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -43582,10 +43650,10 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>6850</v>
+        <v>6814</v>
       </c>
       <c r="D901" t="n">
-        <v>8625700</v>
+        <v>8582922</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -43822,10 +43890,10 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>2940</v>
+        <v>2935</v>
       </c>
       <c r="D906" t="n">
-        <v>4331160</v>
+        <v>4323660</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -43870,10 +43938,10 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D907" t="n">
-        <v>882106</v>
+        <v>880606</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -43918,10 +43986,10 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D908" t="n">
-        <v>216468</v>
+        <v>214968</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -43966,10 +44034,10 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D909" t="n">
-        <v>248925</v>
+        <v>247425</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -44014,10 +44082,10 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>12660</v>
+        <v>12604</v>
       </c>
       <c r="D910" t="n">
-        <v>15797585</v>
+        <v>15727896</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -44206,10 +44274,10 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>5137</v>
+        <v>5122</v>
       </c>
       <c r="D914" t="n">
-        <v>7508764</v>
+        <v>7487595</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -44302,10 +44370,10 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="D916" t="n">
-        <v>1917329</v>
+        <v>1908162</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -44494,10 +44562,10 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D920" t="n">
-        <v>341684</v>
+        <v>338684</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -44542,10 +44610,10 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>18886</v>
+        <v>18812</v>
       </c>
       <c r="D921" t="n">
-        <v>23665088</v>
+        <v>23576174</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -44686,10 +44754,10 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D924" t="n">
-        <v>188803</v>
+        <v>187303</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -44734,10 +44802,10 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>9896</v>
+        <v>9879</v>
       </c>
       <c r="D925" t="n">
-        <v>14468207</v>
+        <v>14443789</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -44830,10 +44898,10 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D927" t="n">
-        <v>2894698</v>
+        <v>2890302</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -44926,10 +44994,10 @@
         </is>
       </c>
       <c r="C929" t="n">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D929" t="n">
-        <v>584829</v>
+        <v>578829</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -44974,10 +45042,10 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>8381</v>
+        <v>8342</v>
       </c>
       <c r="D930" t="n">
-        <v>10475645</v>
+        <v>10426819</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -45214,10 +45282,10 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>3115</v>
+        <v>3105</v>
       </c>
       <c r="D935" t="n">
-        <v>4541262</v>
+        <v>4530285</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -45262,10 +45330,10 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="D936" t="n">
-        <v>2100847</v>
+        <v>2090492</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -45406,10 +45474,10 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D939" t="n">
-        <v>276765</v>
+        <v>272265</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -45454,10 +45522,10 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>64878</v>
+        <v>64538</v>
       </c>
       <c r="D940" t="n">
-        <v>83343751</v>
+        <v>82925369</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -45550,10 +45618,10 @@
         </is>
       </c>
       <c r="C942" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D942" t="n">
-        <v>101705</v>
+        <v>100205</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -45790,10 +45858,10 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>24785</v>
+        <v>24701</v>
       </c>
       <c r="D947" t="n">
-        <v>36344487</v>
+        <v>36223465</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -45886,10 +45954,10 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>16972</v>
+        <v>16885</v>
       </c>
       <c r="D949" t="n">
-        <v>24619672</v>
+        <v>24495224</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -45982,10 +46050,10 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D951" t="n">
-        <v>661123</v>
+        <v>655323</v>
       </c>
       <c r="E951" t="inlineStr">
         <is>
@@ -46030,10 +46098,10 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D952" t="n">
-        <v>1161578</v>
+        <v>1157078</v>
       </c>
       <c r="E952" t="inlineStr">
         <is>
@@ -46078,10 +46146,10 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>80852</v>
+        <v>80423</v>
       </c>
       <c r="D953" t="n">
-        <v>101628307</v>
+        <v>101107855</v>
       </c>
       <c r="E953" t="inlineStr">
         <is>
@@ -46414,10 +46482,10 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>32951</v>
+        <v>32875</v>
       </c>
       <c r="D960" t="n">
-        <v>48346817</v>
+        <v>48241037</v>
       </c>
       <c r="E960" t="inlineStr">
         <is>
@@ -46558,10 +46626,10 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>24334</v>
+        <v>24249</v>
       </c>
       <c r="D963" t="n">
-        <v>35310599</v>
+        <v>35184438</v>
       </c>
       <c r="E963" t="inlineStr">
         <is>
@@ -46606,10 +46674,10 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D964" t="n">
-        <v>839969</v>
+        <v>836969</v>
       </c>
       <c r="E964" t="inlineStr">
         <is>
@@ -46702,10 +46770,10 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>1829</v>
+        <v>1812</v>
       </c>
       <c r="D966" t="n">
-        <v>2574727</v>
+        <v>2549652</v>
       </c>
       <c r="E966" t="inlineStr">
         <is>
@@ -46750,10 +46818,10 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>10451</v>
+        <v>10386</v>
       </c>
       <c r="D967" t="n">
-        <v>13645133</v>
+        <v>13565731</v>
       </c>
       <c r="E967" t="inlineStr">
         <is>
@@ -46798,10 +46866,10 @@
         </is>
       </c>
       <c r="C968" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D968" t="n">
-        <v>10866</v>
+        <v>9851</v>
       </c>
       <c r="E968" t="inlineStr">
         <is>
@@ -46942,10 +47010,10 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>3382</v>
+        <v>3369</v>
       </c>
       <c r="D971" t="n">
-        <v>4938163</v>
+        <v>4920991</v>
       </c>
       <c r="E971" t="inlineStr">
         <is>
@@ -46990,10 +47058,10 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="D972" t="n">
-        <v>1539602</v>
+        <v>1532102</v>
       </c>
       <c r="E972" t="inlineStr">
         <is>
@@ -47038,10 +47106,10 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D973" t="n">
-        <v>150587</v>
+        <v>147987</v>
       </c>
       <c r="E973" t="inlineStr">
         <is>
@@ -47182,10 +47250,10 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D976" t="n">
-        <v>238889</v>
+        <v>237389</v>
       </c>
       <c r="E976" t="inlineStr">
         <is>
@@ -47230,10 +47298,10 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>54426</v>
+        <v>54187</v>
       </c>
       <c r="D977" t="n">
-        <v>68194377</v>
+        <v>67903056</v>
       </c>
       <c r="E977" t="inlineStr">
         <is>
@@ -47470,10 +47538,10 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>18138</v>
+        <v>18093</v>
       </c>
       <c r="D982" t="n">
-        <v>26573782</v>
+        <v>26508093</v>
       </c>
       <c r="E982" t="inlineStr">
         <is>
@@ -47566,10 +47634,10 @@
         </is>
       </c>
       <c r="C984" t="n">
-        <v>12258</v>
+        <v>12217</v>
       </c>
       <c r="D984" t="n">
-        <v>17742654</v>
+        <v>17681874</v>
       </c>
       <c r="E984" t="inlineStr">
         <is>
@@ -47614,10 +47682,10 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D985" t="n">
-        <v>667773</v>
+        <v>663273</v>
       </c>
       <c r="E985" t="inlineStr">
         <is>
@@ -47710,10 +47778,10 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="D987" t="n">
-        <v>986059</v>
+        <v>975260</v>
       </c>
       <c r="E987" t="inlineStr">
         <is>
@@ -47758,10 +47826,10 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>27309</v>
+        <v>27165</v>
       </c>
       <c r="D988" t="n">
-        <v>34020137</v>
+        <v>33835939</v>
       </c>
       <c r="E988" t="inlineStr">
         <is>
@@ -47998,10 +48066,10 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>10209</v>
+        <v>10180</v>
       </c>
       <c r="D993" t="n">
-        <v>14961464</v>
+        <v>14919692</v>
       </c>
       <c r="E993" t="inlineStr">
         <is>
@@ -48094,10 +48162,10 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>6023</v>
+        <v>6001</v>
       </c>
       <c r="D995" t="n">
-        <v>8736979</v>
+        <v>8705425</v>
       </c>
       <c r="E995" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16222</v>
+        <v>16242</v>
       </c>
       <c r="D2" t="n">
-        <v>20403245</v>
+        <v>20425093</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>11579</v>
+        <v>13079</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6205</v>
+        <v>6212</v>
       </c>
       <c r="D6" t="n">
-        <v>9075723</v>
+        <v>9086223</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3269</v>
+        <v>3273</v>
       </c>
       <c r="D8" t="n">
-        <v>4734201</v>
+        <v>4738379</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D11" t="n">
-        <v>501708</v>
+        <v>503208</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10887</v>
+        <v>10905</v>
       </c>
       <c r="D12" t="n">
-        <v>13743599</v>
+        <v>13765323</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="D16" t="n">
-        <v>4692807</v>
+        <v>4694307</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="D18" t="n">
-        <v>2080220</v>
+        <v>2083220</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D19" t="n">
-        <v>523174</v>
+        <v>529174</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14104</v>
+        <v>14129</v>
       </c>
       <c r="D21" t="n">
-        <v>17322105</v>
+        <v>17349503</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4920</v>
+        <v>4923</v>
       </c>
       <c r="D25" t="n">
-        <v>7194428</v>
+        <v>7198928</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D30" t="n">
-        <v>458287</v>
+        <v>462363</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6424</v>
+        <v>6440</v>
       </c>
       <c r="D31" t="n">
-        <v>8526772</v>
+        <v>8547852</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="D34" t="n">
-        <v>2306867</v>
+        <v>2309620</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D36" t="n">
-        <v>800034</v>
+        <v>803034</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D39" t="n">
-        <v>176114</v>
+        <v>179114</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21672</v>
+        <v>21697</v>
       </c>
       <c r="D40" t="n">
-        <v>26694698</v>
+        <v>26725818</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7758</v>
+        <v>7763</v>
       </c>
       <c r="D46" t="n">
-        <v>11396023</v>
+        <v>11403523</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3811</v>
+        <v>3814</v>
       </c>
       <c r="D48" t="n">
-        <v>5516284</v>
+        <v>5520784</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D51" t="n">
-        <v>812587</v>
+        <v>816237</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8087</v>
+        <v>8097</v>
       </c>
       <c r="D52" t="n">
-        <v>10329031</v>
+        <v>10343116</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="D56" t="n">
-        <v>4024606</v>
+        <v>4029987</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="D58" t="n">
-        <v>1430211</v>
+        <v>1435052</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D59" t="n">
-        <v>264209</v>
+        <v>268001</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D60" t="n">
-        <v>346961</v>
+        <v>348461</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35782</v>
+        <v>35851</v>
       </c>
       <c r="D61" t="n">
-        <v>46085389</v>
+        <v>46170306</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>13034</v>
+        <v>13063</v>
       </c>
       <c r="D65" t="n">
-        <v>19119356</v>
+        <v>19160221</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5103</v>
+        <v>5114</v>
       </c>
       <c r="D67" t="n">
-        <v>7380540</v>
+        <v>7397040</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D71" t="n">
-        <v>471829</v>
+        <v>473538</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>45869</v>
+        <v>45915</v>
       </c>
       <c r="D73" t="n">
-        <v>58674486</v>
+        <v>58727195</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>18006</v>
+        <v>18034</v>
       </c>
       <c r="D77" t="n">
-        <v>26386161</v>
+        <v>26426811</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>9256</v>
+        <v>9264</v>
       </c>
       <c r="D79" t="n">
-        <v>13364505</v>
+        <v>13376505</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>24664</v>
+        <v>24703</v>
       </c>
       <c r="D84" t="n">
-        <v>31104531</v>
+        <v>31154531</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4558,10 +4558,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>8633</v>
+        <v>8642</v>
       </c>
       <c r="D88" t="n">
-        <v>12672421</v>
+        <v>12685921</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4856</v>
+        <v>4862</v>
       </c>
       <c r="D90" t="n">
-        <v>7019241</v>
+        <v>7028241</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D91" t="n">
-        <v>503122</v>
+        <v>505622</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D92" t="n">
-        <v>1047265</v>
+        <v>1051765</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>21763</v>
+        <v>21790</v>
       </c>
       <c r="D93" t="n">
-        <v>27321898</v>
+        <v>27350661</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>9099</v>
+        <v>9112</v>
       </c>
       <c r="D97" t="n">
-        <v>13320119</v>
+        <v>13339029</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3292</v>
+        <v>3296</v>
       </c>
       <c r="D99" t="n">
-        <v>4714885</v>
+        <v>4720746</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D102" t="n">
-        <v>338304</v>
+        <v>339543</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D103" t="n">
-        <v>612828</v>
+        <v>614328</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>80644</v>
+        <v>80804</v>
       </c>
       <c r="D104" t="n">
-        <v>103387588</v>
+        <v>103586565</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D109" t="n">
-        <v>218280</v>
+        <v>219780</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>30392</v>
+        <v>30430</v>
       </c>
       <c r="D111" t="n">
-        <v>44599842</v>
+        <v>44655905</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5758,10 +5758,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>20602</v>
+        <v>20655</v>
       </c>
       <c r="D113" t="n">
-        <v>29734040</v>
+        <v>29809568</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -6094,10 +6094,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="D120" t="n">
-        <v>2604875</v>
+        <v>2615915</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>27460</v>
+        <v>27505</v>
       </c>
       <c r="D121" t="n">
-        <v>36240595</v>
+        <v>36303900</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>9796</v>
+        <v>9807</v>
       </c>
       <c r="D125" t="n">
-        <v>14366390</v>
+        <v>14382890</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3235</v>
+        <v>3245</v>
       </c>
       <c r="D127" t="n">
-        <v>4703956</v>
+        <v>4718256</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D130" t="n">
-        <v>476982</v>
+        <v>478482</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6622,10 +6622,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>15603</v>
+        <v>15623</v>
       </c>
       <c r="D131" t="n">
-        <v>19432652</v>
+        <v>19458389</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>7715</v>
+        <v>7722</v>
       </c>
       <c r="D134" t="n">
-        <v>11291816</v>
+        <v>11301216</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>2200</v>
+        <v>2203</v>
       </c>
       <c r="D136" t="n">
-        <v>3140610</v>
+        <v>3145110</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D140" t="n">
-        <v>531736</v>
+        <v>533236</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>13413</v>
+        <v>13434</v>
       </c>
       <c r="D141" t="n">
-        <v>16767011</v>
+        <v>16791054</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="D147" t="n">
-        <v>2865871</v>
+        <v>2867071</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D150" t="n">
-        <v>497408</v>
+        <v>500408</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>5949</v>
+        <v>5952</v>
       </c>
       <c r="D151" t="n">
-        <v>7278409</v>
+        <v>7281921</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2051</v>
+        <v>2055</v>
       </c>
       <c r="D154" t="n">
-        <v>3007857</v>
+        <v>3013857</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D155" t="n">
-        <v>967607</v>
+        <v>968327</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>7387</v>
+        <v>7406</v>
       </c>
       <c r="D159" t="n">
-        <v>9167442</v>
+        <v>9188001</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2836</v>
+        <v>2841</v>
       </c>
       <c r="D162" t="n">
-        <v>4159840</v>
+        <v>4167340</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8350,10 +8350,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>5578</v>
+        <v>5581</v>
       </c>
       <c r="D167" t="n">
-        <v>7025713</v>
+        <v>7028558</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -8590,10 +8590,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D172" t="n">
-        <v>2946541</v>
+        <v>2949541</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>15850</v>
+        <v>15875</v>
       </c>
       <c r="D177" t="n">
-        <v>19924175</v>
+        <v>19953088</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>6359</v>
+        <v>6363</v>
       </c>
       <c r="D182" t="n">
-        <v>9287794</v>
+        <v>9293794</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>2201</v>
+        <v>2206</v>
       </c>
       <c r="D183" t="n">
-        <v>3162423</v>
+        <v>3169673</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D185" t="n">
-        <v>732655</v>
+        <v>734155</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D186" t="n">
-        <v>612912</v>
+        <v>614412</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9310,10 +9310,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="D187" t="n">
-        <v>3817569</v>
+        <v>3819069</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="D189" t="n">
-        <v>2146530</v>
+        <v>2151030</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>9119</v>
+        <v>9127</v>
       </c>
       <c r="D195" t="n">
-        <v>11388256</v>
+        <v>11400156</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9886,10 +9886,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>3402</v>
+        <v>3406</v>
       </c>
       <c r="D199" t="n">
-        <v>4997576</v>
+        <v>5003576</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="D200" t="n">
-        <v>2294766</v>
+        <v>2300680</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -10126,10 +10126,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>17127</v>
+        <v>17152</v>
       </c>
       <c r="D204" t="n">
-        <v>21409482</v>
+        <v>21434498</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10318,10 +10318,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>7650</v>
+        <v>7662</v>
       </c>
       <c r="D208" t="n">
-        <v>11238796</v>
+        <v>11255476</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="D209" t="n">
-        <v>1758154</v>
+        <v>1767154</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D211" t="n">
-        <v>650183</v>
+        <v>651683</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>25959</v>
+        <v>25993</v>
       </c>
       <c r="D212" t="n">
-        <v>32759716</v>
+        <v>32798685</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D214" t="n">
-        <v>24642</v>
+        <v>26142</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>10452</v>
+        <v>10461</v>
       </c>
       <c r="D216" t="n">
-        <v>15269240</v>
+        <v>15281654</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10798,10 +10798,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>2619</v>
+        <v>2622</v>
       </c>
       <c r="D218" t="n">
-        <v>3779511</v>
+        <v>3783768</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>28240</v>
+        <v>28284</v>
       </c>
       <c r="D222" t="n">
-        <v>35663325</v>
+        <v>35716810</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>14666</v>
+        <v>14679</v>
       </c>
       <c r="D227" t="n">
-        <v>21524154</v>
+        <v>21542255</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11326,10 +11326,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2628</v>
+        <v>2634</v>
       </c>
       <c r="D229" t="n">
-        <v>3771955</v>
+        <v>3780955</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>24109</v>
+        <v>24140</v>
       </c>
       <c r="D233" t="n">
-        <v>30426617</v>
+        <v>30464063</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11806,10 +11806,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>11121</v>
+        <v>11137</v>
       </c>
       <c r="D239" t="n">
-        <v>16303342</v>
+        <v>16327342</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11902,10 +11902,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="D241" t="n">
-        <v>3566823</v>
+        <v>3568043</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D243" t="n">
-        <v>582343</v>
+        <v>583843</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D244" t="n">
-        <v>612671</v>
+        <v>616889</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12094,10 +12094,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>7822</v>
+        <v>7831</v>
       </c>
       <c r="D245" t="n">
-        <v>9791063</v>
+        <v>9803260</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -12286,10 +12286,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>2684</v>
+        <v>2688</v>
       </c>
       <c r="D249" t="n">
-        <v>3940382</v>
+        <v>3945991</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>9742</v>
+        <v>9750</v>
       </c>
       <c r="D255" t="n">
-        <v>12424425</v>
+        <v>12433611</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -12766,10 +12766,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>4168</v>
+        <v>4173</v>
       </c>
       <c r="D259" t="n">
-        <v>6120547</v>
+        <v>6128047</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="D261" t="n">
-        <v>3113623</v>
+        <v>3118123</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>5494</v>
+        <v>5499</v>
       </c>
       <c r="D264" t="n">
-        <v>6817539</v>
+        <v>6823939</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13150,10 +13150,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="D267" t="n">
-        <v>2932939</v>
+        <v>2935939</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -13246,10 +13246,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D269" t="n">
-        <v>1022372</v>
+        <v>1023872</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -13390,10 +13390,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D272" t="n">
-        <v>226156</v>
+        <v>227656</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -13438,10 +13438,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>18897</v>
+        <v>18927</v>
       </c>
       <c r="D273" t="n">
-        <v>23883981</v>
+        <v>23923320</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>7873</v>
+        <v>7886</v>
       </c>
       <c r="D277" t="n">
-        <v>11543508</v>
+        <v>11563008</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13726,10 +13726,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>2472</v>
+        <v>2477</v>
       </c>
       <c r="D279" t="n">
-        <v>3550657</v>
+        <v>3557482</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13870,10 +13870,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D282" t="n">
-        <v>632923</v>
+        <v>634423</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -13966,10 +13966,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>16434</v>
+        <v>16466</v>
       </c>
       <c r="D284" t="n">
-        <v>20364106</v>
+        <v>20405438</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -14158,10 +14158,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>7139</v>
+        <v>7141</v>
       </c>
       <c r="D288" t="n">
-        <v>10471473</v>
+        <v>10473997</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -14206,10 +14206,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>3306</v>
+        <v>3311</v>
       </c>
       <c r="D289" t="n">
-        <v>4792321</v>
+        <v>4799243</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D292" t="n">
-        <v>452443</v>
+        <v>455443</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>9270</v>
+        <v>9279</v>
       </c>
       <c r="D293" t="n">
-        <v>11649462</v>
+        <v>11661263</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14590,10 +14590,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>3897</v>
+        <v>3902</v>
       </c>
       <c r="D297" t="n">
-        <v>5703332</v>
+        <v>5710832</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D298" t="n">
-        <v>1799599</v>
+        <v>1801099</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D299" t="n">
-        <v>310165</v>
+        <v>311665</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D302" t="n">
-        <v>286398</v>
+        <v>287898</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14878,10 +14878,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>9093</v>
+        <v>9119</v>
       </c>
       <c r="D303" t="n">
-        <v>11873084</v>
+        <v>11909076</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D305" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>3693</v>
+        <v>3706</v>
       </c>
       <c r="D307" t="n">
-        <v>5398194</v>
+        <v>5417694</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15118,10 +15118,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>2325</v>
+        <v>2329</v>
       </c>
       <c r="D308" t="n">
-        <v>3380568</v>
+        <v>3386568</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>10955</v>
+        <v>10974</v>
       </c>
       <c r="D311" t="n">
-        <v>14386131</v>
+        <v>14411655</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15454,10 +15454,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>3744</v>
+        <v>3752</v>
       </c>
       <c r="D315" t="n">
-        <v>5489167</v>
+        <v>5501167</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15550,10 +15550,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2674</v>
+        <v>2678</v>
       </c>
       <c r="D317" t="n">
-        <v>3877048</v>
+        <v>3883048</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>6769</v>
+        <v>6777</v>
       </c>
       <c r="D320" t="n">
-        <v>8370892</v>
+        <v>8381888</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15934,10 +15934,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>2289</v>
+        <v>2293</v>
       </c>
       <c r="D325" t="n">
-        <v>3358084</v>
+        <v>3364084</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -16174,10 +16174,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>7471</v>
+        <v>7481</v>
       </c>
       <c r="D330" t="n">
-        <v>9359989</v>
+        <v>9370556</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -16414,10 +16414,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3117</v>
+        <v>3119</v>
       </c>
       <c r="D335" t="n">
-        <v>4553815</v>
+        <v>4556815</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D336" t="n">
-        <v>1836695</v>
+        <v>1838195</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16606,10 +16606,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>31622</v>
+        <v>31674</v>
       </c>
       <c r="D339" t="n">
-        <v>39750151</v>
+        <v>39811659</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D343" t="n">
-        <v>46894</v>
+        <v>48394</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>16427</v>
+        <v>16453</v>
       </c>
       <c r="D345" t="n">
-        <v>24023736</v>
+        <v>24061872</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -17038,10 +17038,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>7958</v>
+        <v>7977</v>
       </c>
       <c r="D348" t="n">
-        <v>11469310</v>
+        <v>11493493</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D349" t="n">
-        <v>898822</v>
+        <v>900322</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="D350" t="n">
-        <v>1066482</v>
+        <v>1075330</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>3863</v>
+        <v>3866</v>
       </c>
       <c r="D351" t="n">
-        <v>4816810</v>
+        <v>4820316</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17326,10 +17326,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D354" t="n">
-        <v>2197157</v>
+        <v>2198657</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D355" t="n">
-        <v>843512</v>
+        <v>845012</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17518,10 +17518,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D358" t="n">
-        <v>115595</v>
+        <v>117095</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>19207</v>
+        <v>19244</v>
       </c>
       <c r="D359" t="n">
-        <v>23962298</v>
+        <v>24008917</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>9853</v>
+        <v>9864</v>
       </c>
       <c r="D363" t="n">
-        <v>14445393</v>
+        <v>14461893</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17854,10 +17854,10 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>4702</v>
+        <v>4709</v>
       </c>
       <c r="D365" t="n">
-        <v>6804659</v>
+        <v>6815159</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D366" t="n">
-        <v>852469</v>
+        <v>856969</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>13798</v>
+        <v>13821</v>
       </c>
       <c r="D368" t="n">
-        <v>17268442</v>
+        <v>17293414</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>6400</v>
+        <v>6412</v>
       </c>
       <c r="D372" t="n">
-        <v>9371544</v>
+        <v>9388033</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18286,10 +18286,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="D374" t="n">
-        <v>3545042</v>
+        <v>3548042</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D375" t="n">
-        <v>1009181</v>
+        <v>1015001</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>17859</v>
+        <v>17883</v>
       </c>
       <c r="D377" t="n">
-        <v>22278693</v>
+        <v>22304182</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18622,10 +18622,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>7111</v>
+        <v>7117</v>
       </c>
       <c r="D381" t="n">
-        <v>10453764</v>
+        <v>10461966</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2821</v>
+        <v>2825</v>
       </c>
       <c r="D383" t="n">
-        <v>4105192</v>
+        <v>4111192</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D385" t="n">
-        <v>215009</v>
+        <v>221009</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D386" t="n">
-        <v>548154</v>
+        <v>549654</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>4061</v>
+        <v>4066</v>
       </c>
       <c r="D387" t="n">
-        <v>5095303</v>
+        <v>5100295</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="D390" t="n">
-        <v>2020076</v>
+        <v>2021576</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D391" t="n">
-        <v>827915</v>
+        <v>830772</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D393" t="n">
-        <v>116810</v>
+        <v>118310</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19246,10 +19246,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>22123</v>
+        <v>22154</v>
       </c>
       <c r="D394" t="n">
-        <v>27457593</v>
+        <v>27491802</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>9321</v>
+        <v>9331</v>
       </c>
       <c r="D397" t="n">
-        <v>13720917</v>
+        <v>13735917</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>6162</v>
+        <v>6167</v>
       </c>
       <c r="D399" t="n">
-        <v>8963076</v>
+        <v>8969956</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>11063</v>
+        <v>11075</v>
       </c>
       <c r="D402" t="n">
-        <v>13639961</v>
+        <v>13655453</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D405" t="n">
-        <v>62597</v>
+        <v>63952</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19870,10 +19870,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>5313</v>
+        <v>5316</v>
       </c>
       <c r="D407" t="n">
-        <v>7765203</v>
+        <v>7769703</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -20062,10 +20062,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D411" t="n">
-        <v>290089</v>
+        <v>293089</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20110,10 +20110,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>31414</v>
+        <v>31494</v>
       </c>
       <c r="D412" t="n">
-        <v>42563441</v>
+        <v>42669798</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20302,10 +20302,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>7717</v>
+        <v>7725</v>
       </c>
       <c r="D416" t="n">
-        <v>11349394</v>
+        <v>11360101</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20398,10 +20398,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>6973</v>
+        <v>7000</v>
       </c>
       <c r="D418" t="n">
-        <v>10106870</v>
+        <v>10146480</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>8386</v>
+        <v>8439</v>
       </c>
       <c r="D422" t="n">
-        <v>11644525</v>
+        <v>11717672</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20686,10 +20686,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>2134</v>
+        <v>2139</v>
       </c>
       <c r="D424" t="n">
-        <v>3142970</v>
+        <v>3150470</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>2870</v>
+        <v>2882</v>
       </c>
       <c r="D426" t="n">
-        <v>4192919</v>
+        <v>4210919</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>10955</v>
+        <v>10969</v>
       </c>
       <c r="D430" t="n">
-        <v>13529142</v>
+        <v>13543382</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>3773</v>
+        <v>3776</v>
       </c>
       <c r="D433" t="n">
-        <v>5538641</v>
+        <v>5543141</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -21310,10 +21310,10 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D437" t="n">
-        <v>219511</v>
+        <v>221011</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -21358,10 +21358,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>62344</v>
+        <v>62448</v>
       </c>
       <c r="D438" t="n">
-        <v>77289768</v>
+        <v>77416694</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21550,10 +21550,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>24815</v>
+        <v>24837</v>
       </c>
       <c r="D442" t="n">
-        <v>36379894</v>
+        <v>36412894</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -21646,10 +21646,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>12809</v>
+        <v>12834</v>
       </c>
       <c r="D444" t="n">
-        <v>18575364</v>
+        <v>18611928</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21838,10 +21838,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="D448" t="n">
-        <v>1432391</v>
+        <v>1438391</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -21934,10 +21934,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>18766</v>
+        <v>18800</v>
       </c>
       <c r="D450" t="n">
-        <v>23723649</v>
+        <v>23764986</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>7660</v>
+        <v>7669</v>
       </c>
       <c r="D454" t="n">
-        <v>11246579</v>
+        <v>11258597</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22222,10 +22222,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>4806</v>
+        <v>4813</v>
       </c>
       <c r="D456" t="n">
-        <v>6972025</v>
+        <v>6982525</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -22366,10 +22366,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>32019</v>
+        <v>32075</v>
       </c>
       <c r="D459" t="n">
-        <v>39145261</v>
+        <v>39218623</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -22558,10 +22558,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>11400</v>
+        <v>11414</v>
       </c>
       <c r="D463" t="n">
-        <v>16680544</v>
+        <v>16701134</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22654,10 +22654,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>4874</v>
+        <v>4882</v>
       </c>
       <c r="D465" t="n">
-        <v>7072154</v>
+        <v>7084014</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D466" t="n">
-        <v>508544</v>
+        <v>514544</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D467" t="n">
-        <v>542274</v>
+        <v>546774</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>14292</v>
+        <v>14316</v>
       </c>
       <c r="D468" t="n">
-        <v>17483520</v>
+        <v>17513035</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -23134,10 +23134,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="D475" t="n">
-        <v>2969383</v>
+        <v>2972383</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>35568</v>
+        <v>35645</v>
       </c>
       <c r="D478" t="n">
-        <v>46352124</v>
+        <v>46450723</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23470,10 +23470,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>13458</v>
+        <v>13476</v>
       </c>
       <c r="D482" t="n">
-        <v>19803084</v>
+        <v>19828210</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23566,10 +23566,10 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>11876</v>
+        <v>11908</v>
       </c>
       <c r="D484" t="n">
-        <v>17331826</v>
+        <v>17377790</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>61485</v>
+        <v>61626</v>
       </c>
       <c r="D487" t="n">
-        <v>81418311</v>
+        <v>81595662</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>22879</v>
+        <v>22920</v>
       </c>
       <c r="D492" t="n">
-        <v>33572254</v>
+        <v>33629373</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>22174</v>
+        <v>22221</v>
       </c>
       <c r="D494" t="n">
-        <v>32192488</v>
+        <v>32258886</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24190,10 +24190,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D497" t="n">
-        <v>870230</v>
+        <v>871730</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24238,10 +24238,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>148427</v>
+        <v>148844</v>
       </c>
       <c r="D498" t="n">
-        <v>195293956</v>
+        <v>195825337</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -24334,10 +24334,10 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D500" t="n">
-        <v>176480</v>
+        <v>177980</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
@@ -24478,10 +24478,10 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D503" t="n">
-        <v>687055</v>
+        <v>691555</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
@@ -24574,10 +24574,10 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>80716</v>
+        <v>80892</v>
       </c>
       <c r="D505" t="n">
-        <v>118585134</v>
+        <v>118843386</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D506" t="n">
-        <v>338842</v>
+        <v>341842</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>59275</v>
+        <v>59418</v>
       </c>
       <c r="D508" t="n">
-        <v>86046848</v>
+        <v>86252761</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="D510" t="n">
-        <v>1504067</v>
+        <v>1509995</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24910,10 +24910,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>2726</v>
+        <v>2740</v>
       </c>
       <c r="D512" t="n">
-        <v>3857304</v>
+        <v>3877570</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -25006,10 +25006,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>40636</v>
+        <v>40712</v>
       </c>
       <c r="D514" t="n">
-        <v>52821428</v>
+        <v>52919372</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25246,10 +25246,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>15135</v>
+        <v>15155</v>
       </c>
       <c r="D519" t="n">
-        <v>22234457</v>
+        <v>22263185</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25342,10 +25342,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>12779</v>
+        <v>12812</v>
       </c>
       <c r="D521" t="n">
-        <v>18520475</v>
+        <v>18569975</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25438,10 +25438,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D523" t="n">
-        <v>449345</v>
+        <v>456545</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25486,10 +25486,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D524" t="n">
-        <v>489148</v>
+        <v>492148</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25582,10 +25582,10 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>65184</v>
+        <v>65322</v>
       </c>
       <c r="D526" t="n">
-        <v>87619593</v>
+        <v>87798939</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>23065</v>
+        <v>23114</v>
       </c>
       <c r="D530" t="n">
-        <v>34036281</v>
+        <v>34108910</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25870,10 +25870,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>23838</v>
+        <v>23877</v>
       </c>
       <c r="D532" t="n">
-        <v>34888857</v>
+        <v>34946147</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -26014,10 +26014,10 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D535" t="n">
-        <v>1200069</v>
+        <v>1207469</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>54300</v>
+        <v>54406</v>
       </c>
       <c r="D536" t="n">
-        <v>72015358</v>
+        <v>72161806</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26302,10 +26302,10 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>17634</v>
+        <v>17654</v>
       </c>
       <c r="D541" t="n">
-        <v>25912831</v>
+        <v>25942107</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>18116</v>
+        <v>18151</v>
       </c>
       <c r="D543" t="n">
-        <v>26334159</v>
+        <v>26383821</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D545" t="n">
-        <v>863962</v>
+        <v>868253</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>40993</v>
+        <v>41093</v>
       </c>
       <c r="D546" t="n">
-        <v>54454597</v>
+        <v>54581909</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26734,10 +26734,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>14089</v>
+        <v>14109</v>
       </c>
       <c r="D550" t="n">
-        <v>20778782</v>
+        <v>20808486</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>14218</v>
+        <v>14251</v>
       </c>
       <c r="D552" t="n">
-        <v>20655691</v>
+        <v>20701365</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D553" t="n">
-        <v>240979</v>
+        <v>242479</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>40920</v>
+        <v>40992</v>
       </c>
       <c r="D555" t="n">
-        <v>53055131</v>
+        <v>53140130</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -27166,10 +27166,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>16064</v>
+        <v>16098</v>
       </c>
       <c r="D559" t="n">
-        <v>23575031</v>
+        <v>23620507</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>12876</v>
+        <v>12894</v>
       </c>
       <c r="D561" t="n">
-        <v>18624690</v>
+        <v>18650652</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D563" t="n">
-        <v>367560</v>
+        <v>370560</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27406,10 +27406,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D564" t="n">
-        <v>491267</v>
+        <v>494267</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27454,10 +27454,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>43323</v>
+        <v>43450</v>
       </c>
       <c r="D565" t="n">
-        <v>57861480</v>
+        <v>58024573</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>13780</v>
+        <v>13804</v>
       </c>
       <c r="D571" t="n">
-        <v>20219830</v>
+        <v>20255424</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>3659</v>
+        <v>3672</v>
       </c>
       <c r="D572" t="n">
-        <v>5278299</v>
+        <v>5296465</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D575" t="n">
-        <v>550502</v>
+        <v>553431</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D577" t="n">
-        <v>511251</v>
+        <v>515751</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>17025</v>
+        <v>17061</v>
       </c>
       <c r="D578" t="n">
-        <v>22500403</v>
+        <v>22549202</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28270,10 +28270,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>6969</v>
+        <v>6977</v>
       </c>
       <c r="D582" t="n">
-        <v>10137638</v>
+        <v>10149416</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>4861</v>
+        <v>4866</v>
       </c>
       <c r="D584" t="n">
-        <v>6995956</v>
+        <v>7003456</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28510,10 +28510,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D587" t="n">
-        <v>366783</v>
+        <v>368283</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -28606,10 +28606,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>14409</v>
+        <v>14457</v>
       </c>
       <c r="D589" t="n">
-        <v>20895860</v>
+        <v>20964860</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>1696</v>
+        <v>1702</v>
       </c>
       <c r="D590" t="n">
-        <v>2522630</v>
+        <v>2531630</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D591" t="n">
-        <v>339802</v>
+        <v>341302</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>21847</v>
+        <v>21876</v>
       </c>
       <c r="D595" t="n">
-        <v>27414593</v>
+        <v>27450775</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -29134,10 +29134,10 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>8953</v>
+        <v>8961</v>
       </c>
       <c r="D600" t="n">
-        <v>13117697</v>
+        <v>13129697</v>
       </c>
       <c r="E600" t="inlineStr">
         <is>
@@ -29230,10 +29230,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>3334</v>
+        <v>3340</v>
       </c>
       <c r="D602" t="n">
-        <v>4788674</v>
+        <v>4797674</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -29422,10 +29422,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>14538</v>
+        <v>14548</v>
       </c>
       <c r="D606" t="n">
-        <v>18237630</v>
+        <v>18248387</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29614,10 +29614,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>5758</v>
+        <v>5765</v>
       </c>
       <c r="D610" t="n">
-        <v>8457360</v>
+        <v>8466651</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>2659</v>
+        <v>2663</v>
       </c>
       <c r="D612" t="n">
-        <v>3832087</v>
+        <v>3838087</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D613" t="n">
-        <v>251009</v>
+        <v>252509</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D614" t="n">
-        <v>256136</v>
+        <v>257636</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29854,10 +29854,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>13673</v>
+        <v>13690</v>
       </c>
       <c r="D615" t="n">
-        <v>17276867</v>
+        <v>17297944</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -30046,10 +30046,10 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>5205</v>
+        <v>5210</v>
       </c>
       <c r="D619" t="n">
-        <v>7629783</v>
+        <v>7637283</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
@@ -30094,10 +30094,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D620" t="n">
-        <v>1672568</v>
+        <v>1674068</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>7440</v>
+        <v>7447</v>
       </c>
       <c r="D624" t="n">
-        <v>9575137</v>
+        <v>9582682</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30526,10 +30526,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>2547</v>
+        <v>2551</v>
       </c>
       <c r="D629" t="n">
-        <v>3731833</v>
+        <v>3737833</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D632" t="n">
-        <v>179456</v>
+        <v>180956</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>28580</v>
+        <v>28614</v>
       </c>
       <c r="D633" t="n">
-        <v>35205628</v>
+        <v>35248898</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30862,10 +30862,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D636" t="n">
-        <v>218499</v>
+        <v>219999</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -30910,10 +30910,10 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>10958</v>
+        <v>10964</v>
       </c>
       <c r="D637" t="n">
-        <v>16078972</v>
+        <v>16086930</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>4774</v>
+        <v>4781</v>
       </c>
       <c r="D639" t="n">
-        <v>6927047</v>
+        <v>6937547</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31150,10 +31150,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D642" t="n">
-        <v>791436</v>
+        <v>792936</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31198,10 +31198,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>11223</v>
+        <v>11229</v>
       </c>
       <c r="D643" t="n">
-        <v>13612435</v>
+        <v>13619683</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -31438,10 +31438,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>3628</v>
+        <v>3630</v>
       </c>
       <c r="D648" t="n">
-        <v>5310719</v>
+        <v>5313719</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -31630,10 +31630,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D652" t="n">
-        <v>311790</v>
+        <v>314790</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>28068</v>
+        <v>28094</v>
       </c>
       <c r="D653" t="n">
-        <v>34919043</v>
+        <v>34948888</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31870,10 +31870,10 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>10680</v>
+        <v>10693</v>
       </c>
       <c r="D657" t="n">
-        <v>15691964</v>
+        <v>15711464</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -31966,10 +31966,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>3050</v>
+        <v>3053</v>
       </c>
       <c r="D659" t="n">
-        <v>4397467</v>
+        <v>4401967</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -32062,10 +32062,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D661" t="n">
-        <v>707319</v>
+        <v>710319</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32110,10 +32110,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D662" t="n">
-        <v>647898</v>
+        <v>654474</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -32158,10 +32158,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>7412</v>
+        <v>7426</v>
       </c>
       <c r="D663" t="n">
-        <v>9402277</v>
+        <v>9420302</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32254,10 +32254,10 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="D665" t="n">
-        <v>3849707</v>
+        <v>3852707</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -32350,10 +32350,10 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="D667" t="n">
-        <v>1860821</v>
+        <v>1865321</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -32542,10 +32542,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>3738</v>
+        <v>3746</v>
       </c>
       <c r="D671" t="n">
-        <v>4529124</v>
+        <v>4538940</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -32734,10 +32734,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D675" t="n">
-        <v>1137287</v>
+        <v>1138787</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32830,10 +32830,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D677" t="n">
-        <v>634420</v>
+        <v>635920</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -32926,10 +32926,10 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D679" t="n">
-        <v>192299</v>
+        <v>193608</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>9234</v>
+        <v>9242</v>
       </c>
       <c r="D680" t="n">
-        <v>11531075</v>
+        <v>11537000</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33166,10 +33166,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="D684" t="n">
-        <v>5085822</v>
+        <v>5087322</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -33214,10 +33214,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D685" t="n">
-        <v>1066602</v>
+        <v>1068102</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D688" t="n">
-        <v>373320</v>
+        <v>375069</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>19050</v>
+        <v>19076</v>
       </c>
       <c r="D689" t="n">
-        <v>23323198</v>
+        <v>23355733</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33502,10 +33502,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D691" t="n">
-        <v>53020</v>
+        <v>54520</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -33598,10 +33598,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>5674</v>
+        <v>5679</v>
       </c>
       <c r="D693" t="n">
-        <v>8287777</v>
+        <v>8295277</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -33694,10 +33694,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>2223</v>
+        <v>2228</v>
       </c>
       <c r="D695" t="n">
-        <v>3199104</v>
+        <v>3205881</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -33886,10 +33886,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D699" t="n">
-        <v>412770</v>
+        <v>414554</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -33934,10 +33934,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>73402</v>
+        <v>73576</v>
       </c>
       <c r="D700" t="n">
-        <v>92395147</v>
+        <v>92619702</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -34174,10 +34174,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>26324</v>
+        <v>26351</v>
       </c>
       <c r="D705" t="n">
-        <v>38655524</v>
+        <v>38694325</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34318,10 +34318,10 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>13019</v>
+        <v>13042</v>
       </c>
       <c r="D708" t="n">
-        <v>18779732</v>
+        <v>18812999</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -34462,10 +34462,10 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="D711" t="n">
-        <v>2765629</v>
+        <v>2767129</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -34558,10 +34558,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>1161</v>
+        <v>1166</v>
       </c>
       <c r="D713" t="n">
-        <v>1618046</v>
+        <v>1625546</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>11003</v>
+        <v>11020</v>
       </c>
       <c r="D714" t="n">
-        <v>13462988</v>
+        <v>13481053</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34702,10 +34702,10 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D716" t="n">
-        <v>112832</v>
+        <v>114332</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -34750,10 +34750,10 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>4079</v>
+        <v>4083</v>
       </c>
       <c r="D717" t="n">
-        <v>5968623</v>
+        <v>5974345</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -34846,10 +34846,10 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="D719" t="n">
-        <v>2131000</v>
+        <v>2135500</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -34942,10 +34942,10 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D721" t="n">
-        <v>330882</v>
+        <v>332382</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -34990,10 +34990,10 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>17419</v>
+        <v>17435</v>
       </c>
       <c r="D722" t="n">
-        <v>21494397</v>
+        <v>21513319</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -35182,10 +35182,10 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>6802</v>
+        <v>6809</v>
       </c>
       <c r="D726" t="n">
-        <v>9942212</v>
+        <v>9952712</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -35278,10 +35278,10 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>2154</v>
+        <v>2162</v>
       </c>
       <c r="D728" t="n">
-        <v>3088327</v>
+        <v>3099372</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -35422,10 +35422,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D731" t="n">
-        <v>443999</v>
+        <v>446749</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -35518,10 +35518,10 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>11371</v>
+        <v>11391</v>
       </c>
       <c r="D733" t="n">
-        <v>14042015</v>
+        <v>14067222</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -35710,10 +35710,10 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>4203</v>
+        <v>4209</v>
       </c>
       <c r="D737" t="n">
-        <v>6163637</v>
+        <v>6171805</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -35806,10 +35806,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="D739" t="n">
-        <v>2297804</v>
+        <v>2300804</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -35950,10 +35950,10 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>29254</v>
+        <v>29294</v>
       </c>
       <c r="D742" t="n">
-        <v>36383742</v>
+        <v>36424716</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -36142,10 +36142,10 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D746" t="n">
-        <v>164895</v>
+        <v>166395</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -36190,10 +36190,10 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>12607</v>
+        <v>12630</v>
       </c>
       <c r="D747" t="n">
-        <v>18453102</v>
+        <v>18486634</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -36286,10 +36286,10 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>4172</v>
+        <v>4180</v>
       </c>
       <c r="D749" t="n">
-        <v>5959457</v>
+        <v>5971457</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -36382,10 +36382,10 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="D751" t="n">
-        <v>1059457</v>
+        <v>1066657</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -36430,10 +36430,10 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D752" t="n">
-        <v>930304</v>
+        <v>933304</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -36526,10 +36526,10 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>12189</v>
+        <v>12207</v>
       </c>
       <c r="D754" t="n">
-        <v>15100547</v>
+        <v>15119306</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -36670,10 +36670,10 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>4632</v>
+        <v>4636</v>
       </c>
       <c r="D757" t="n">
-        <v>6770007</v>
+        <v>6776007</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -36718,10 +36718,10 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="D758" t="n">
-        <v>1634394</v>
+        <v>1637394</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -36766,10 +36766,10 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D759" t="n">
-        <v>255249</v>
+        <v>258249</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -36814,10 +36814,10 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D760" t="n">
-        <v>513162</v>
+        <v>514662</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -36862,10 +36862,10 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>6622</v>
+        <v>6635</v>
       </c>
       <c r="D761" t="n">
-        <v>7794388</v>
+        <v>7806270</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -37054,10 +37054,10 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>1680</v>
+        <v>1684</v>
       </c>
       <c r="D765" t="n">
-        <v>2448780</v>
+        <v>2454780</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -37102,10 +37102,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D766" t="n">
-        <v>1437180</v>
+        <v>1438680</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -37198,10 +37198,10 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D768" t="n">
-        <v>204515</v>
+        <v>206015</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -37246,10 +37246,10 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>16605</v>
+        <v>16642</v>
       </c>
       <c r="D769" t="n">
-        <v>20143142</v>
+        <v>20187790</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -37486,10 +37486,10 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>5482</v>
+        <v>5498</v>
       </c>
       <c r="D774" t="n">
-        <v>8033455</v>
+        <v>8057071</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -37582,10 +37582,10 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>3360</v>
+        <v>3368</v>
       </c>
       <c r="D776" t="n">
-        <v>4907954</v>
+        <v>4919512</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -37726,10 +37726,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D779" t="n">
-        <v>379348</v>
+        <v>385348</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -37774,10 +37774,10 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>11231</v>
+        <v>11260</v>
       </c>
       <c r="D780" t="n">
-        <v>14235649</v>
+        <v>14271410</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -37966,10 +37966,10 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>3928</v>
+        <v>3929</v>
       </c>
       <c r="D784" t="n">
-        <v>5744193</v>
+        <v>5745693</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -38062,10 +38062,10 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="D786" t="n">
-        <v>1792468</v>
+        <v>1796968</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -38158,10 +38158,10 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D788" t="n">
-        <v>709662</v>
+        <v>712662</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -38206,10 +38206,10 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D789" t="n">
-        <v>304431</v>
+        <v>314381</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -38254,10 +38254,10 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>31760</v>
+        <v>31818</v>
       </c>
       <c r="D790" t="n">
-        <v>39200418</v>
+        <v>39268388</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -38446,10 +38446,10 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>13086</v>
+        <v>13103</v>
       </c>
       <c r="D794" t="n">
-        <v>19149759</v>
+        <v>19174748</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -38542,10 +38542,10 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>5990</v>
+        <v>6000</v>
       </c>
       <c r="D796" t="n">
-        <v>8656726</v>
+        <v>8670267</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -38590,10 +38590,10 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D797" t="n">
-        <v>724317</v>
+        <v>725817</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -38686,10 +38686,10 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D799" t="n">
-        <v>896165</v>
+        <v>900665</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -38734,10 +38734,10 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>7512</v>
+        <v>7525</v>
       </c>
       <c r="D800" t="n">
-        <v>9295893</v>
+        <v>9309900</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -39022,10 +39022,10 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>2657</v>
+        <v>2660</v>
       </c>
       <c r="D806" t="n">
-        <v>3875617</v>
+        <v>3880117</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -39070,10 +39070,10 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D807" t="n">
-        <v>1620652</v>
+        <v>1622152</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -39118,10 +39118,10 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D808" t="n">
-        <v>521681</v>
+        <v>535872</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -39214,10 +39214,10 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>57768</v>
+        <v>57927</v>
       </c>
       <c r="D810" t="n">
-        <v>72179041</v>
+        <v>72392259</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -39454,10 +39454,10 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>20927</v>
+        <v>20970</v>
       </c>
       <c r="D815" t="n">
-        <v>30625141</v>
+        <v>30685741</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -39598,10 +39598,10 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>12443</v>
+        <v>12469</v>
       </c>
       <c r="D818" t="n">
-        <v>17963524</v>
+        <v>17999193</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -39694,10 +39694,10 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D820" t="n">
-        <v>625861</v>
+        <v>627361</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -39838,10 +39838,10 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="D823" t="n">
-        <v>1801820</v>
+        <v>1806320</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -39886,10 +39886,10 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>10989</v>
+        <v>11009</v>
       </c>
       <c r="D824" t="n">
-        <v>13698870</v>
+        <v>13722676</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -40078,10 +40078,10 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>3871</v>
+        <v>3874</v>
       </c>
       <c r="D828" t="n">
-        <v>5628572</v>
+        <v>5633072</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -40174,10 +40174,10 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="D830" t="n">
-        <v>1750995</v>
+        <v>1753990</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -40366,10 +40366,10 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D834" t="n">
-        <v>358790</v>
+        <v>359910</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -40414,10 +40414,10 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>57781</v>
+        <v>57906</v>
       </c>
       <c r="D835" t="n">
-        <v>71467739</v>
+        <v>71609536</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -40654,10 +40654,10 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D840" t="n">
-        <v>129158</v>
+        <v>130658</v>
       </c>
       <c r="E840" t="inlineStr">
         <is>
@@ -40702,10 +40702,10 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>22131</v>
+        <v>22165</v>
       </c>
       <c r="D841" t="n">
-        <v>32477948</v>
+        <v>32525142</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -40798,10 +40798,10 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>14166</v>
+        <v>14191</v>
       </c>
       <c r="D843" t="n">
-        <v>20512260</v>
+        <v>20546750</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -40894,10 +40894,10 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="D845" t="n">
-        <v>1256013</v>
+        <v>1260601</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -40942,10 +40942,10 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="D846" t="n">
-        <v>1685432</v>
+        <v>1688432</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -41038,10 +41038,10 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>7653</v>
+        <v>7663</v>
       </c>
       <c r="D848" t="n">
-        <v>9393281</v>
+        <v>9406292</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -41134,10 +41134,10 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>2545</v>
+        <v>2552</v>
       </c>
       <c r="D850" t="n">
-        <v>3705198</v>
+        <v>3715698</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -41182,10 +41182,10 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="D851" t="n">
-        <v>1538830</v>
+        <v>1543330</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -41326,10 +41326,10 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>3536</v>
+        <v>3547</v>
       </c>
       <c r="D854" t="n">
-        <v>4570467</v>
+        <v>4585477</v>
       </c>
       <c r="E854" t="inlineStr">
         <is>
@@ -41662,10 +41662,10 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D861" t="n">
-        <v>140655</v>
+        <v>142155</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -41710,10 +41710,10 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>22099</v>
+        <v>22143</v>
       </c>
       <c r="D862" t="n">
-        <v>27697986</v>
+        <v>27749600</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -41902,10 +41902,10 @@
         </is>
       </c>
       <c r="C866" t="n">
-        <v>7675</v>
+        <v>7686</v>
       </c>
       <c r="D866" t="n">
-        <v>11202180</v>
+        <v>11218680</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -41998,10 +41998,10 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>4573</v>
+        <v>4580</v>
       </c>
       <c r="D868" t="n">
-        <v>6612330</v>
+        <v>6621608</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -42094,10 +42094,10 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D870" t="n">
-        <v>531562</v>
+        <v>533062</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -42142,10 +42142,10 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D871" t="n">
-        <v>579450</v>
+        <v>585450</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -42238,10 +42238,10 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>14357</v>
+        <v>14374</v>
       </c>
       <c r="D873" t="n">
-        <v>17315619</v>
+        <v>17335137</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -42286,10 +42286,10 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D874" t="n">
-        <v>2459</v>
+        <v>3024</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -42430,10 +42430,10 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>5206</v>
+        <v>5209</v>
       </c>
       <c r="D877" t="n">
-        <v>7592000</v>
+        <v>7596500</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -42526,10 +42526,10 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="D879" t="n">
-        <v>3368224</v>
+        <v>3371224</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -42718,10 +42718,10 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>9675</v>
+        <v>9683</v>
       </c>
       <c r="D883" t="n">
-        <v>11890499</v>
+        <v>11898585</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -42862,10 +42862,10 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>3325</v>
+        <v>3328</v>
       </c>
       <c r="D886" t="n">
-        <v>4872401</v>
+        <v>4876160</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -42910,10 +42910,10 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D887" t="n">
-        <v>2131219</v>
+        <v>2132719</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -43054,10 +43054,10 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>44111</v>
+        <v>44182</v>
       </c>
       <c r="D890" t="n">
-        <v>55446846</v>
+        <v>55533659</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -43294,10 +43294,10 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>20900</v>
+        <v>20919</v>
       </c>
       <c r="D895" t="n">
-        <v>30651269</v>
+        <v>30678802</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -43390,10 +43390,10 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>5822</v>
+        <v>5836</v>
       </c>
       <c r="D897" t="n">
-        <v>8387806</v>
+        <v>8408341</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -43438,10 +43438,10 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D898" t="n">
-        <v>883726</v>
+        <v>885226</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -43534,10 +43534,10 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D900" t="n">
-        <v>1276453</v>
+        <v>1280953</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -43582,10 +43582,10 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>20994</v>
+        <v>21020</v>
       </c>
       <c r="D901" t="n">
-        <v>26133090</v>
+        <v>26164257</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -43726,10 +43726,10 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>9716</v>
+        <v>9724</v>
       </c>
       <c r="D904" t="n">
-        <v>14236869</v>
+        <v>14248869</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -43822,10 +43822,10 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="D906" t="n">
-        <v>3229175</v>
+        <v>3230675</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -43918,10 +43918,10 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D908" t="n">
-        <v>881433</v>
+        <v>882933</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -44014,10 +44014,10 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>6972</v>
+        <v>6976</v>
       </c>
       <c r="D910" t="n">
-        <v>8774038</v>
+        <v>8777217</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -44254,10 +44254,10 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>2995</v>
+        <v>2999</v>
       </c>
       <c r="D915" t="n">
-        <v>4411322</v>
+        <v>4417322</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -44302,10 +44302,10 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D916" t="n">
-        <v>903949</v>
+        <v>906949</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -44446,10 +44446,10 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>12920</v>
+        <v>12937</v>
       </c>
       <c r="D919" t="n">
-        <v>16113608</v>
+        <v>16133134</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -44638,10 +44638,10 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>5212</v>
+        <v>5221</v>
       </c>
       <c r="D923" t="n">
-        <v>7616868</v>
+        <v>7629285</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -44734,10 +44734,10 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>1369</v>
+        <v>1374</v>
       </c>
       <c r="D925" t="n">
-        <v>1965688</v>
+        <v>1972408</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -44926,10 +44926,10 @@
         </is>
       </c>
       <c r="C929" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D929" t="n">
-        <v>353684</v>
+        <v>355184</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -44974,10 +44974,10 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>19152</v>
+        <v>19177</v>
       </c>
       <c r="D930" t="n">
-        <v>23949383</v>
+        <v>23974367</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -45166,10 +45166,10 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>10033</v>
+        <v>10041</v>
       </c>
       <c r="D934" t="n">
-        <v>14666416</v>
+        <v>14678264</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -45262,10 +45262,10 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>2048</v>
+        <v>2051</v>
       </c>
       <c r="D936" t="n">
-        <v>2952819</v>
+        <v>2957319</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -45310,10 +45310,10 @@
         </is>
       </c>
       <c r="C937" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D937" t="n">
-        <v>485147</v>
+        <v>486647</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -45358,10 +45358,10 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D938" t="n">
-        <v>609307</v>
+        <v>610807</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -45406,10 +45406,10 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>8547</v>
+        <v>8562</v>
       </c>
       <c r="D939" t="n">
-        <v>10669032</v>
+        <v>10685537</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -45502,10 +45502,10 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D941" t="n">
-        <v>29802</v>
+        <v>31302</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -45646,10 +45646,10 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>3177</v>
+        <v>3184</v>
       </c>
       <c r="D944" t="n">
-        <v>4633641</v>
+        <v>4644141</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
@@ -45694,10 +45694,10 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="D945" t="n">
-        <v>2140409</v>
+        <v>2143409</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -45790,10 +45790,10 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D947" t="n">
-        <v>221417</v>
+        <v>222075</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -45886,10 +45886,10 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>66397</v>
+        <v>66502</v>
       </c>
       <c r="D949" t="n">
-        <v>85271523</v>
+        <v>85406046</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -45934,10 +45934,10 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D950" t="n">
-        <v>67269</v>
+        <v>68769</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -46222,10 +46222,10 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>25352</v>
+        <v>25394</v>
       </c>
       <c r="D956" t="n">
-        <v>37161356</v>
+        <v>37222494</v>
       </c>
       <c r="E956" t="inlineStr">
         <is>
@@ -46270,10 +46270,10 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D957" t="n">
-        <v>45161</v>
+        <v>46661</v>
       </c>
       <c r="E957" t="inlineStr">
         <is>
@@ -46318,10 +46318,10 @@
         </is>
       </c>
       <c r="C958" t="n">
-        <v>17396</v>
+        <v>17442</v>
       </c>
       <c r="D958" t="n">
-        <v>25227949</v>
+        <v>25295548</v>
       </c>
       <c r="E958" t="inlineStr">
         <is>
@@ -46462,10 +46462,10 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="D961" t="n">
-        <v>1213978</v>
+        <v>1222638</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
@@ -46510,10 +46510,10 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>82836</v>
+        <v>82979</v>
       </c>
       <c r="D962" t="n">
-        <v>104070599</v>
+        <v>104242806</v>
       </c>
       <c r="E962" t="inlineStr">
         <is>
@@ -46846,10 +46846,10 @@
         </is>
       </c>
       <c r="C969" t="n">
-        <v>33536</v>
+        <v>33569</v>
       </c>
       <c r="D969" t="n">
-        <v>49195294</v>
+        <v>49244794</v>
       </c>
       <c r="E969" t="inlineStr">
         <is>
@@ -46990,10 +46990,10 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>24913</v>
+        <v>24951</v>
       </c>
       <c r="D972" t="n">
-        <v>36134569</v>
+        <v>36188552</v>
       </c>
       <c r="E972" t="inlineStr">
         <is>
@@ -47038,10 +47038,10 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D973" t="n">
-        <v>860402</v>
+        <v>861902</v>
       </c>
       <c r="E973" t="inlineStr">
         <is>
@@ -47134,10 +47134,10 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>1936</v>
+        <v>1953</v>
       </c>
       <c r="D975" t="n">
-        <v>2724826</v>
+        <v>2748980</v>
       </c>
       <c r="E975" t="inlineStr">
         <is>
@@ -47182,10 +47182,10 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>10642</v>
+        <v>10660</v>
       </c>
       <c r="D976" t="n">
-        <v>13891197</v>
+        <v>13915542</v>
       </c>
       <c r="E976" t="inlineStr">
         <is>
@@ -47278,10 +47278,10 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D978" t="n">
-        <v>33332</v>
+        <v>34832</v>
       </c>
       <c r="E978" t="inlineStr">
         <is>
@@ -47374,10 +47374,10 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="D980" t="n">
-        <v>5019910</v>
+        <v>5021410</v>
       </c>
       <c r="E980" t="inlineStr">
         <is>
@@ -47422,10 +47422,10 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="D981" t="n">
-        <v>1591369</v>
+        <v>1594369</v>
       </c>
       <c r="E981" t="inlineStr">
         <is>
@@ -47662,10 +47662,10 @@
         </is>
       </c>
       <c r="C986" t="n">
-        <v>55473</v>
+        <v>55565</v>
       </c>
       <c r="D986" t="n">
-        <v>69451279</v>
+        <v>69563341</v>
       </c>
       <c r="E986" t="inlineStr">
         <is>
@@ -47902,10 +47902,10 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>18413</v>
+        <v>18427</v>
       </c>
       <c r="D991" t="n">
-        <v>26966701</v>
+        <v>26987033</v>
       </c>
       <c r="E991" t="inlineStr">
         <is>
@@ -47998,10 +47998,10 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>12498</v>
+        <v>12519</v>
       </c>
       <c r="D993" t="n">
-        <v>18074702</v>
+        <v>18103827</v>
       </c>
       <c r="E993" t="inlineStr">
         <is>
@@ -48142,10 +48142,10 @@
         </is>
       </c>
       <c r="C996" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="D996" t="n">
-        <v>1009200</v>
+        <v>1013700</v>
       </c>
       <c r="E996" t="inlineStr">
         <is>
@@ -48190,10 +48190,10 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>27862</v>
+        <v>27916</v>
       </c>
       <c r="D997" t="n">
-        <v>34673067</v>
+        <v>34742254</v>
       </c>
       <c r="E997" t="inlineStr">
         <is>
@@ -48430,10 +48430,10 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>10415</v>
+        <v>10432</v>
       </c>
       <c r="D1002" t="n">
-        <v>15253477</v>
+        <v>15278977</v>
       </c>
       <c r="E1002" t="inlineStr">
         <is>
@@ -48526,10 +48526,10 @@
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>6165</v>
+        <v>6175</v>
       </c>
       <c r="D1004" t="n">
-        <v>8939390</v>
+        <v>8953574</v>
       </c>
       <c r="E1004" t="inlineStr">
         <is>
@@ -48574,10 +48574,10 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D1005" t="n">
-        <v>740418</v>
+        <v>743418</v>
       </c>
       <c r="E1005" t="inlineStr">
         <is>
@@ -48622,10 +48622,10 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D1006" t="n">
-        <v>699645</v>
+        <v>705629</v>
       </c>
       <c r="E1006" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16242</v>
+        <v>16280</v>
       </c>
       <c r="D2" t="n">
-        <v>20425093</v>
+        <v>20468499</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6212</v>
+        <v>6219</v>
       </c>
       <c r="D6" t="n">
-        <v>9086223</v>
+        <v>9095922</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3273</v>
+        <v>3277</v>
       </c>
       <c r="D8" t="n">
-        <v>4738379</v>
+        <v>4744379</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10905</v>
+        <v>10922</v>
       </c>
       <c r="D12" t="n">
-        <v>13765323</v>
+        <v>13787799</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D18" t="n">
-        <v>2083220</v>
+        <v>2084720</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D19" t="n">
-        <v>529174</v>
+        <v>535174</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14129</v>
+        <v>14158</v>
       </c>
       <c r="D21" t="n">
-        <v>17349503</v>
+        <v>17382908</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4923</v>
+        <v>4929</v>
       </c>
       <c r="D25" t="n">
-        <v>7198928</v>
+        <v>7207928</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="D27" t="n">
-        <v>2452899</v>
+        <v>2454399</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D28" t="n">
-        <v>353659</v>
+        <v>355159</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D30" t="n">
-        <v>462363</v>
+        <v>463403</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6440</v>
+        <v>6474</v>
       </c>
       <c r="D31" t="n">
-        <v>8547852</v>
+        <v>8596363</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="D34" t="n">
-        <v>2309620</v>
+        <v>2311120</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="D37" t="n">
-        <v>732153</v>
+        <v>744153</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21697</v>
+        <v>21729</v>
       </c>
       <c r="D40" t="n">
-        <v>26725818</v>
+        <v>26762901</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7763</v>
+        <v>7773</v>
       </c>
       <c r="D46" t="n">
-        <v>11403523</v>
+        <v>11418523</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3814</v>
+        <v>3818</v>
       </c>
       <c r="D48" t="n">
-        <v>5520784</v>
+        <v>5526784</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8097</v>
+        <v>8101</v>
       </c>
       <c r="D52" t="n">
-        <v>10343116</v>
+        <v>10346282</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="D56" t="n">
-        <v>4029987</v>
+        <v>4031487</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D58" t="n">
-        <v>1435052</v>
+        <v>1436552</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D59" t="n">
-        <v>268001</v>
+        <v>269501</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D60" t="n">
-        <v>348461</v>
+        <v>349961</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35851</v>
+        <v>35920</v>
       </c>
       <c r="D61" t="n">
-        <v>46170306</v>
+        <v>46253735</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>13063</v>
+        <v>13081</v>
       </c>
       <c r="D65" t="n">
-        <v>19160221</v>
+        <v>19186182</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5114</v>
+        <v>5129</v>
       </c>
       <c r="D67" t="n">
-        <v>7397040</v>
+        <v>7418750</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>45915</v>
+        <v>45996</v>
       </c>
       <c r="D73" t="n">
-        <v>58727195</v>
+        <v>58828345</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>18034</v>
+        <v>18056</v>
       </c>
       <c r="D77" t="n">
-        <v>26426811</v>
+        <v>26456754</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>9264</v>
+        <v>9275</v>
       </c>
       <c r="D79" t="n">
-        <v>13376505</v>
+        <v>13391559</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D81" t="n">
-        <v>469323</v>
+        <v>470823</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D83" t="n">
-        <v>1102180</v>
+        <v>1106680</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>24703</v>
+        <v>24744</v>
       </c>
       <c r="D84" t="n">
-        <v>31154531</v>
+        <v>31205333</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" t="n">
-        <v>35994</v>
+        <v>37283</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4558,10 +4558,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>8642</v>
+        <v>8647</v>
       </c>
       <c r="D88" t="n">
-        <v>12685921</v>
+        <v>12693421</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4862</v>
+        <v>4870</v>
       </c>
       <c r="D90" t="n">
-        <v>7028241</v>
+        <v>7040241</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>21790</v>
+        <v>21838</v>
       </c>
       <c r="D93" t="n">
-        <v>27350661</v>
+        <v>27414530</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>9112</v>
+        <v>9124</v>
       </c>
       <c r="D97" t="n">
-        <v>13339029</v>
+        <v>13357029</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3296</v>
+        <v>3298</v>
       </c>
       <c r="D99" t="n">
-        <v>4720746</v>
+        <v>4723746</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="n">
-        <v>10771</v>
+        <v>12271</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D103" t="n">
-        <v>614328</v>
+        <v>619219</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>80804</v>
+        <v>81028</v>
       </c>
       <c r="D104" t="n">
-        <v>103586565</v>
+        <v>103873539</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>30430</v>
+        <v>30475</v>
       </c>
       <c r="D111" t="n">
-        <v>44655905</v>
+        <v>44721417</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5758,10 +5758,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>20655</v>
+        <v>20694</v>
       </c>
       <c r="D113" t="n">
-        <v>29809568</v>
+        <v>29865242</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -6094,10 +6094,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1859</v>
+        <v>1863</v>
       </c>
       <c r="D120" t="n">
-        <v>2615915</v>
+        <v>2620258</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>27505</v>
+        <v>27548</v>
       </c>
       <c r="D121" t="n">
-        <v>36303900</v>
+        <v>36360481</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D124" t="n">
-        <v>134105</v>
+        <v>135605</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>9807</v>
+        <v>9824</v>
       </c>
       <c r="D125" t="n">
-        <v>14382890</v>
+        <v>14407249</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3245</v>
+        <v>3249</v>
       </c>
       <c r="D127" t="n">
-        <v>4718256</v>
+        <v>4724256</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D130" t="n">
-        <v>478482</v>
+        <v>484482</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6622,10 +6622,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>15623</v>
+        <v>15652</v>
       </c>
       <c r="D131" t="n">
-        <v>19458389</v>
+        <v>19490536</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>7722</v>
+        <v>7733</v>
       </c>
       <c r="D134" t="n">
-        <v>11301216</v>
+        <v>11317623</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>2203</v>
+        <v>2207</v>
       </c>
       <c r="D136" t="n">
-        <v>3145110</v>
+        <v>3151110</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6958,10 +6958,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D138" t="n">
-        <v>435707</v>
+        <v>437207</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D140" t="n">
-        <v>533236</v>
+        <v>538999</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>13434</v>
+        <v>13449</v>
       </c>
       <c r="D141" t="n">
-        <v>16791054</v>
+        <v>16808320</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7294,10 +7294,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>6218</v>
+        <v>6225</v>
       </c>
       <c r="D145" t="n">
-        <v>9109839</v>
+        <v>9120339</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="D147" t="n">
-        <v>2867071</v>
+        <v>2868499</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>5952</v>
+        <v>5957</v>
       </c>
       <c r="D151" t="n">
-        <v>7281921</v>
+        <v>7285945</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="D154" t="n">
-        <v>3013857</v>
+        <v>3015357</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D155" t="n">
-        <v>968327</v>
+        <v>969827</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>7406</v>
+        <v>7410</v>
       </c>
       <c r="D159" t="n">
-        <v>9188001</v>
+        <v>9193101</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2841</v>
+        <v>2843</v>
       </c>
       <c r="D162" t="n">
-        <v>4167340</v>
+        <v>4170340</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="D163" t="n">
-        <v>2002058</v>
+        <v>2004471</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8350,10 +8350,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>5581</v>
+        <v>5586</v>
       </c>
       <c r="D167" t="n">
-        <v>7028558</v>
+        <v>7034714</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -8590,10 +8590,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D172" t="n">
-        <v>2949541</v>
+        <v>2951041</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D174" t="n">
-        <v>991898</v>
+        <v>993398</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>15875</v>
+        <v>15894</v>
       </c>
       <c r="D177" t="n">
-        <v>19953088</v>
+        <v>19975587</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>6363</v>
+        <v>6367</v>
       </c>
       <c r="D182" t="n">
-        <v>9293794</v>
+        <v>9299794</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="D183" t="n">
-        <v>3169673</v>
+        <v>3171173</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="D186" t="n">
-        <v>614412</v>
+        <v>626412</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9310,10 +9310,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="D187" t="n">
-        <v>3819069</v>
+        <v>3828842</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D191" t="n">
-        <v>809136</v>
+        <v>810636</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>9127</v>
+        <v>9149</v>
       </c>
       <c r="D195" t="n">
-        <v>11400156</v>
+        <v>11426985</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9886,10 +9886,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>3406</v>
+        <v>3411</v>
       </c>
       <c r="D199" t="n">
-        <v>5003576</v>
+        <v>5011076</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1596</v>
+        <v>1601</v>
       </c>
       <c r="D200" t="n">
-        <v>2300680</v>
+        <v>2308180</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D203" t="n">
-        <v>291597</v>
+        <v>293097</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10126,10 +10126,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>17152</v>
+        <v>17170</v>
       </c>
       <c r="D204" t="n">
-        <v>21434498</v>
+        <v>21455477</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10318,10 +10318,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>7662</v>
+        <v>7666</v>
       </c>
       <c r="D208" t="n">
-        <v>11255476</v>
+        <v>11261476</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D209" t="n">
-        <v>1767154</v>
+        <v>1768654</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D210" t="n">
-        <v>386366</v>
+        <v>387866</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>25993</v>
+        <v>26017</v>
       </c>
       <c r="D212" t="n">
-        <v>32798685</v>
+        <v>32834035</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>10461</v>
+        <v>10468</v>
       </c>
       <c r="D216" t="n">
-        <v>15281654</v>
+        <v>15290746</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10798,10 +10798,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="D218" t="n">
-        <v>3783768</v>
+        <v>3785268</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D221" t="n">
-        <v>824266</v>
+        <v>830266</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>28284</v>
+        <v>28333</v>
       </c>
       <c r="D222" t="n">
-        <v>35716810</v>
+        <v>35776804</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>14679</v>
+        <v>14689</v>
       </c>
       <c r="D227" t="n">
-        <v>21542255</v>
+        <v>21557094</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D228" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11326,10 +11326,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2634</v>
+        <v>2639</v>
       </c>
       <c r="D229" t="n">
-        <v>3780955</v>
+        <v>3788455</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D232" t="n">
-        <v>1009226</v>
+        <v>1012226</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>24140</v>
+        <v>24165</v>
       </c>
       <c r="D233" t="n">
-        <v>30464063</v>
+        <v>30494794</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11710,10 +11710,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D237" t="n">
-        <v>329275</v>
+        <v>330775</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -11806,10 +11806,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>11137</v>
+        <v>11147</v>
       </c>
       <c r="D239" t="n">
-        <v>16327342</v>
+        <v>16342222</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11902,10 +11902,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>2496</v>
+        <v>2499</v>
       </c>
       <c r="D241" t="n">
-        <v>3568043</v>
+        <v>3571847</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D244" t="n">
-        <v>616889</v>
+        <v>619889</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12094,10 +12094,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>7831</v>
+        <v>7840</v>
       </c>
       <c r="D245" t="n">
-        <v>9803260</v>
+        <v>9813248</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -12286,10 +12286,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>2688</v>
+        <v>2690</v>
       </c>
       <c r="D249" t="n">
-        <v>3945991</v>
+        <v>3948991</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D252" t="n">
-        <v>1446615</v>
+        <v>1449615</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>9750</v>
+        <v>9768</v>
       </c>
       <c r="D255" t="n">
-        <v>12433611</v>
+        <v>12458033</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -12766,10 +12766,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>4173</v>
+        <v>4179</v>
       </c>
       <c r="D259" t="n">
-        <v>6128047</v>
+        <v>6136747</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="D261" t="n">
-        <v>3118123</v>
+        <v>3122279</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>5499</v>
+        <v>5507</v>
       </c>
       <c r="D264" t="n">
-        <v>6823939</v>
+        <v>6833359</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13150,10 +13150,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D267" t="n">
-        <v>2935939</v>
+        <v>2937439</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -13246,10 +13246,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D269" t="n">
-        <v>1023872</v>
+        <v>1026872</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -13438,10 +13438,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>18927</v>
+        <v>18968</v>
       </c>
       <c r="D273" t="n">
-        <v>23923320</v>
+        <v>23973061</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>7886</v>
+        <v>7894</v>
       </c>
       <c r="D277" t="n">
-        <v>11563008</v>
+        <v>11573705</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13726,10 +13726,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>2477</v>
+        <v>2486</v>
       </c>
       <c r="D279" t="n">
-        <v>3557482</v>
+        <v>3570782</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13870,10 +13870,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D282" t="n">
-        <v>634423</v>
+        <v>638923</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -13966,10 +13966,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>16466</v>
+        <v>16512</v>
       </c>
       <c r="D284" t="n">
-        <v>20405438</v>
+        <v>20461281</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -14158,10 +14158,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>7141</v>
+        <v>7159</v>
       </c>
       <c r="D288" t="n">
-        <v>10473997</v>
+        <v>10500997</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -14206,10 +14206,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>3311</v>
+        <v>3318</v>
       </c>
       <c r="D289" t="n">
-        <v>4799243</v>
+        <v>4809743</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D292" t="n">
-        <v>455443</v>
+        <v>458443</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>9279</v>
+        <v>9289</v>
       </c>
       <c r="D293" t="n">
-        <v>11661263</v>
+        <v>11675584</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14590,10 +14590,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>3902</v>
+        <v>3904</v>
       </c>
       <c r="D297" t="n">
-        <v>5710832</v>
+        <v>5713832</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="D298" t="n">
-        <v>1801099</v>
+        <v>1805599</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14878,10 +14878,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>9119</v>
+        <v>9145</v>
       </c>
       <c r="D303" t="n">
-        <v>11909076</v>
+        <v>11942778</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>3706</v>
+        <v>3711</v>
       </c>
       <c r="D307" t="n">
-        <v>5417694</v>
+        <v>5425194</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15118,10 +15118,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>2329</v>
+        <v>2338</v>
       </c>
       <c r="D308" t="n">
-        <v>3386568</v>
+        <v>3400068</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D309" t="n">
-        <v>323165</v>
+        <v>324665</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>10974</v>
+        <v>10999</v>
       </c>
       <c r="D311" t="n">
-        <v>14411655</v>
+        <v>14443190</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15454,10 +15454,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>3752</v>
+        <v>3756</v>
       </c>
       <c r="D315" t="n">
-        <v>5501167</v>
+        <v>5507167</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15550,10 +15550,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2678</v>
+        <v>2685</v>
       </c>
       <c r="D317" t="n">
-        <v>3883048</v>
+        <v>3892638</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D318" t="n">
-        <v>346574</v>
+        <v>351074</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>6777</v>
+        <v>6783</v>
       </c>
       <c r="D320" t="n">
-        <v>8381888</v>
+        <v>8388764</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15934,10 +15934,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="D325" t="n">
-        <v>3364084</v>
+        <v>3365584</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="D327" t="n">
-        <v>1118342</v>
+        <v>1124342</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16126,10 +16126,10 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D329" t="n">
-        <v>171843</v>
+        <v>173343</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -16174,10 +16174,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>7481</v>
+        <v>7491</v>
       </c>
       <c r="D330" t="n">
-        <v>9370556</v>
+        <v>9382435</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -16414,10 +16414,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3119</v>
+        <v>3123</v>
       </c>
       <c r="D335" t="n">
-        <v>4556815</v>
+        <v>4562815</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="D336" t="n">
-        <v>1838195</v>
+        <v>1841195</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D337" t="n">
-        <v>194445</v>
+        <v>195945</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16606,10 +16606,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>31674</v>
+        <v>31762</v>
       </c>
       <c r="D339" t="n">
-        <v>39811659</v>
+        <v>39910458</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>16453</v>
+        <v>16472</v>
       </c>
       <c r="D345" t="n">
-        <v>24061872</v>
+        <v>24089431</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -17038,10 +17038,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>7977</v>
+        <v>7999</v>
       </c>
       <c r="D348" t="n">
-        <v>11493493</v>
+        <v>11521764</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D349" t="n">
-        <v>900322</v>
+        <v>904822</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="D350" t="n">
-        <v>1075330</v>
+        <v>1082830</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>3866</v>
+        <v>3870</v>
       </c>
       <c r="D351" t="n">
-        <v>4820316</v>
+        <v>4823351</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>19244</v>
+        <v>19285</v>
       </c>
       <c r="D359" t="n">
-        <v>24008917</v>
+        <v>24051184</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>9864</v>
+        <v>9869</v>
       </c>
       <c r="D363" t="n">
-        <v>14461893</v>
+        <v>14469393</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17854,10 +17854,10 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>4709</v>
+        <v>4718</v>
       </c>
       <c r="D365" t="n">
-        <v>6815159</v>
+        <v>6827234</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>13821</v>
+        <v>13849</v>
       </c>
       <c r="D368" t="n">
-        <v>17293414</v>
+        <v>17328934</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>6412</v>
+        <v>6419</v>
       </c>
       <c r="D372" t="n">
-        <v>9388033</v>
+        <v>9398533</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D375" t="n">
-        <v>1015001</v>
+        <v>1016501</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>17883</v>
+        <v>17910</v>
       </c>
       <c r="D377" t="n">
-        <v>22304182</v>
+        <v>22337812</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18622,10 +18622,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>7117</v>
+        <v>7119</v>
       </c>
       <c r="D381" t="n">
-        <v>10461966</v>
+        <v>10464966</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="D383" t="n">
-        <v>4111192</v>
+        <v>4113692</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D386" t="n">
-        <v>549654</v>
+        <v>551154</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>4066</v>
+        <v>4070</v>
       </c>
       <c r="D387" t="n">
-        <v>5100295</v>
+        <v>5105165</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D390" t="n">
-        <v>2021576</v>
+        <v>2023076</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D391" t="n">
-        <v>830772</v>
+        <v>832272</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19246,10 +19246,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>22154</v>
+        <v>22180</v>
       </c>
       <c r="D394" t="n">
-        <v>27491802</v>
+        <v>27522136</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>9331</v>
+        <v>9339</v>
       </c>
       <c r="D397" t="n">
-        <v>13735917</v>
+        <v>13747917</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>6167</v>
+        <v>6175</v>
       </c>
       <c r="D399" t="n">
-        <v>8969956</v>
+        <v>8981956</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D401" t="n">
-        <v>482302</v>
+        <v>483802</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>11075</v>
+        <v>11096</v>
       </c>
       <c r="D402" t="n">
-        <v>13655453</v>
+        <v>13680048</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19870,10 +19870,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>5316</v>
+        <v>5319</v>
       </c>
       <c r="D407" t="n">
-        <v>7769703</v>
+        <v>7774203</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -19966,10 +19966,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="D409" t="n">
-        <v>2659989</v>
+        <v>2662989</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20062,10 +20062,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D411" t="n">
-        <v>293089</v>
+        <v>294489</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20110,10 +20110,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>31494</v>
+        <v>31684</v>
       </c>
       <c r="D412" t="n">
-        <v>42669798</v>
+        <v>42935818</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20302,10 +20302,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>7725</v>
+        <v>7732</v>
       </c>
       <c r="D416" t="n">
-        <v>11360101</v>
+        <v>11369567</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20398,10 +20398,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>7000</v>
+        <v>7027</v>
       </c>
       <c r="D418" t="n">
-        <v>10146480</v>
+        <v>10186733</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D420" t="n">
-        <v>725575</v>
+        <v>728005</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20542,10 +20542,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D421" t="n">
-        <v>683524</v>
+        <v>688443</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>8439</v>
+        <v>8565</v>
       </c>
       <c r="D422" t="n">
-        <v>11717672</v>
+        <v>11884856</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20686,10 +20686,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>2139</v>
+        <v>2155</v>
       </c>
       <c r="D424" t="n">
-        <v>3150470</v>
+        <v>3174470</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>2882</v>
+        <v>2905</v>
       </c>
       <c r="D426" t="n">
-        <v>4210919</v>
+        <v>4241402</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D428" t="n">
-        <v>168120</v>
+        <v>171120</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20926,10 +20926,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D429" t="n">
-        <v>224265</v>
+        <v>224586</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>10969</v>
+        <v>10986</v>
       </c>
       <c r="D430" t="n">
-        <v>13543382</v>
+        <v>13562087</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>3776</v>
+        <v>3778</v>
       </c>
       <c r="D433" t="n">
-        <v>5543141</v>
+        <v>5546141</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -21214,10 +21214,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="D435" t="n">
-        <v>2659465</v>
+        <v>2659737</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -21262,10 +21262,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D436" t="n">
-        <v>155985</v>
+        <v>157485</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -21358,10 +21358,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>62448</v>
+        <v>62567</v>
       </c>
       <c r="D438" t="n">
-        <v>77416694</v>
+        <v>77561921</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21550,10 +21550,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>24837</v>
+        <v>24857</v>
       </c>
       <c r="D442" t="n">
-        <v>36412894</v>
+        <v>36438490</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D443" t="n">
-        <v>71300</v>
+        <v>72800</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21646,10 +21646,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>12834</v>
+        <v>12866</v>
       </c>
       <c r="D444" t="n">
-        <v>18611928</v>
+        <v>18658141</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D445" t="n">
-        <v>654070</v>
+        <v>656056</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21934,10 +21934,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>18800</v>
+        <v>18821</v>
       </c>
       <c r="D450" t="n">
-        <v>23764986</v>
+        <v>23791538</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>7669</v>
+        <v>7677</v>
       </c>
       <c r="D454" t="n">
-        <v>11258597</v>
+        <v>11268170</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22222,10 +22222,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>4813</v>
+        <v>4819</v>
       </c>
       <c r="D456" t="n">
-        <v>6982525</v>
+        <v>6991525</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D458" t="n">
-        <v>389694</v>
+        <v>392694</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22366,10 +22366,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>32075</v>
+        <v>32125</v>
       </c>
       <c r="D459" t="n">
-        <v>39218623</v>
+        <v>39274337</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -22558,10 +22558,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>11414</v>
+        <v>11428</v>
       </c>
       <c r="D463" t="n">
-        <v>16701134</v>
+        <v>16721175</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22654,10 +22654,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>4882</v>
+        <v>4888</v>
       </c>
       <c r="D465" t="n">
-        <v>7084014</v>
+        <v>7093014</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D466" t="n">
-        <v>514544</v>
+        <v>519044</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>14316</v>
+        <v>14338</v>
       </c>
       <c r="D468" t="n">
-        <v>17513035</v>
+        <v>17537960</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="D473" t="n">
-        <v>6420350</v>
+        <v>6421850</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23134,10 +23134,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="D475" t="n">
-        <v>2972383</v>
+        <v>2976783</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D477" t="n">
-        <v>453848</v>
+        <v>455348</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>35645</v>
+        <v>35748</v>
       </c>
       <c r="D478" t="n">
-        <v>46450723</v>
+        <v>46589157</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23470,10 +23470,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>13476</v>
+        <v>13499</v>
       </c>
       <c r="D482" t="n">
-        <v>19828210</v>
+        <v>19861709</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23566,10 +23566,10 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>11908</v>
+        <v>11934</v>
       </c>
       <c r="D484" t="n">
-        <v>17377790</v>
+        <v>17416588</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D485" t="n">
-        <v>262421</v>
+        <v>268421</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>61626</v>
+        <v>61876</v>
       </c>
       <c r="D487" t="n">
-        <v>81595662</v>
+        <v>81931234</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>22920</v>
+        <v>22963</v>
       </c>
       <c r="D492" t="n">
-        <v>33629373</v>
+        <v>33693142</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>22221</v>
+        <v>22269</v>
       </c>
       <c r="D494" t="n">
-        <v>32258886</v>
+        <v>32330389</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24238,10 +24238,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>148844</v>
+        <v>149500</v>
       </c>
       <c r="D498" t="n">
-        <v>195825337</v>
+        <v>196663339</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -24334,10 +24334,10 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D500" t="n">
-        <v>177980</v>
+        <v>179220</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
@@ -24478,10 +24478,10 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D503" t="n">
-        <v>691555</v>
+        <v>693055</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
@@ -24574,10 +24574,10 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>80892</v>
+        <v>81063</v>
       </c>
       <c r="D505" t="n">
-        <v>118843386</v>
+        <v>119092182</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>59418</v>
+        <v>59564</v>
       </c>
       <c r="D508" t="n">
-        <v>86252761</v>
+        <v>86464684</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="D510" t="n">
-        <v>1509995</v>
+        <v>1518607</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24910,10 +24910,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>2740</v>
+        <v>2752</v>
       </c>
       <c r="D512" t="n">
-        <v>3877570</v>
+        <v>3895080</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -25006,10 +25006,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>40712</v>
+        <v>40823</v>
       </c>
       <c r="D514" t="n">
-        <v>52919372</v>
+        <v>53057331</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25246,10 +25246,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>15155</v>
+        <v>15174</v>
       </c>
       <c r="D519" t="n">
-        <v>22263185</v>
+        <v>22290839</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25342,10 +25342,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>12812</v>
+        <v>12852</v>
       </c>
       <c r="D521" t="n">
-        <v>18569975</v>
+        <v>18628810</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25438,10 +25438,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D523" t="n">
-        <v>456545</v>
+        <v>459545</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25582,10 +25582,10 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>65322</v>
+        <v>65630</v>
       </c>
       <c r="D526" t="n">
-        <v>87798939</v>
+        <v>88208005</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>23114</v>
+        <v>23165</v>
       </c>
       <c r="D530" t="n">
-        <v>34108910</v>
+        <v>34184757</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25870,10 +25870,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>23877</v>
+        <v>23937</v>
       </c>
       <c r="D532" t="n">
-        <v>34946147</v>
+        <v>35034322</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -26014,10 +26014,10 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D535" t="n">
-        <v>1207469</v>
+        <v>1208969</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>54406</v>
+        <v>54641</v>
       </c>
       <c r="D536" t="n">
-        <v>72161806</v>
+        <v>72480842</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26254,10 +26254,10 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D540" t="n">
-        <v>134609</v>
+        <v>136109</v>
       </c>
       <c r="E540" t="inlineStr">
         <is>
@@ -26302,10 +26302,10 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>17654</v>
+        <v>17672</v>
       </c>
       <c r="D541" t="n">
-        <v>25942107</v>
+        <v>25967981</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>18151</v>
+        <v>18207</v>
       </c>
       <c r="D543" t="n">
-        <v>26383821</v>
+        <v>26465632</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D544" t="n">
-        <v>333751</v>
+        <v>335251</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D545" t="n">
-        <v>868253</v>
+        <v>871253</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>41093</v>
+        <v>41261</v>
       </c>
       <c r="D546" t="n">
-        <v>54581909</v>
+        <v>54803181</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26734,10 +26734,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>14109</v>
+        <v>14135</v>
       </c>
       <c r="D550" t="n">
-        <v>20808486</v>
+        <v>20846759</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>14251</v>
+        <v>14301</v>
       </c>
       <c r="D552" t="n">
-        <v>20701365</v>
+        <v>20771417</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26926,10 +26926,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D554" t="n">
-        <v>388038</v>
+        <v>390930</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>40992</v>
+        <v>41091</v>
       </c>
       <c r="D555" t="n">
-        <v>53140130</v>
+        <v>53275899</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -27166,10 +27166,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>16098</v>
+        <v>16120</v>
       </c>
       <c r="D559" t="n">
-        <v>23620507</v>
+        <v>23653141</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -27214,10 +27214,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D560" t="n">
-        <v>43500</v>
+        <v>45000</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>12894</v>
+        <v>12923</v>
       </c>
       <c r="D561" t="n">
-        <v>18650652</v>
+        <v>18690323</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D563" t="n">
-        <v>370560</v>
+        <v>372060</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27454,10 +27454,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>43450</v>
+        <v>43553</v>
       </c>
       <c r="D565" t="n">
-        <v>58024573</v>
+        <v>58160226</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>13804</v>
+        <v>13836</v>
       </c>
       <c r="D571" t="n">
-        <v>20255424</v>
+        <v>20294557</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>3672</v>
+        <v>3685</v>
       </c>
       <c r="D572" t="n">
-        <v>5296465</v>
+        <v>5315965</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D575" t="n">
-        <v>553431</v>
+        <v>559431</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>17061</v>
+        <v>17125</v>
       </c>
       <c r="D578" t="n">
-        <v>22549202</v>
+        <v>22633593</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28270,10 +28270,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>6977</v>
+        <v>7001</v>
       </c>
       <c r="D582" t="n">
-        <v>10149416</v>
+        <v>10185416</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>4866</v>
+        <v>4874</v>
       </c>
       <c r="D584" t="n">
-        <v>7003456</v>
+        <v>7015456</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28510,10 +28510,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D587" t="n">
-        <v>368283</v>
+        <v>369783</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -28606,10 +28606,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>14457</v>
+        <v>14796</v>
       </c>
       <c r="D589" t="n">
-        <v>20964860</v>
+        <v>21463720</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>1702</v>
+        <v>1716</v>
       </c>
       <c r="D590" t="n">
-        <v>2531630</v>
+        <v>2552630</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D591" t="n">
-        <v>341302</v>
+        <v>342802</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D593" t="n">
-        <v>70190</v>
+        <v>71690</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>21876</v>
+        <v>21902</v>
       </c>
       <c r="D595" t="n">
-        <v>27450775</v>
+        <v>27481506</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -29134,10 +29134,10 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>8961</v>
+        <v>8965</v>
       </c>
       <c r="D600" t="n">
-        <v>13129697</v>
+        <v>13135697</v>
       </c>
       <c r="E600" t="inlineStr">
         <is>
@@ -29230,10 +29230,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>3340</v>
+        <v>3343</v>
       </c>
       <c r="D602" t="n">
-        <v>4797674</v>
+        <v>4802174</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -29278,10 +29278,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D603" t="n">
-        <v>490484</v>
+        <v>494984</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -29422,10 +29422,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>14548</v>
+        <v>14569</v>
       </c>
       <c r="D606" t="n">
-        <v>18248387</v>
+        <v>18274144</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29614,10 +29614,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>5765</v>
+        <v>5772</v>
       </c>
       <c r="D610" t="n">
-        <v>8466651</v>
+        <v>8477151</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="D612" t="n">
-        <v>3838087</v>
+        <v>3839587</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D613" t="n">
-        <v>252509</v>
+        <v>253709</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29854,10 +29854,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>13690</v>
+        <v>13703</v>
       </c>
       <c r="D615" t="n">
-        <v>17297944</v>
+        <v>17315072</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -30046,10 +30046,10 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>5210</v>
+        <v>5211</v>
       </c>
       <c r="D619" t="n">
-        <v>7637283</v>
+        <v>7638783</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>7447</v>
+        <v>7457</v>
       </c>
       <c r="D624" t="n">
-        <v>9582682</v>
+        <v>9596428</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30478,10 +30478,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D628" t="n">
-        <v>91234</v>
+        <v>92734</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
@@ -30526,10 +30526,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="D629" t="n">
-        <v>3737833</v>
+        <v>3739333</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30574,10 +30574,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D630" t="n">
-        <v>1213114</v>
+        <v>1216114</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D632" t="n">
-        <v>180956</v>
+        <v>182456</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>28614</v>
+        <v>28669</v>
       </c>
       <c r="D633" t="n">
-        <v>35248898</v>
+        <v>35318594</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30910,10 +30910,10 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>10964</v>
+        <v>10973</v>
       </c>
       <c r="D637" t="n">
-        <v>16086930</v>
+        <v>16100430</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>4781</v>
+        <v>4787</v>
       </c>
       <c r="D639" t="n">
-        <v>6937547</v>
+        <v>6946547</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31150,10 +31150,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D642" t="n">
-        <v>792936</v>
+        <v>798936</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31198,10 +31198,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>11229</v>
+        <v>11248</v>
       </c>
       <c r="D643" t="n">
-        <v>13619683</v>
+        <v>13641145</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -31438,10 +31438,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>3630</v>
+        <v>3631</v>
       </c>
       <c r="D648" t="n">
-        <v>5313719</v>
+        <v>5315219</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -31486,10 +31486,10 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D649" t="n">
-        <v>1583449</v>
+        <v>1584949</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>28094</v>
+        <v>28130</v>
       </c>
       <c r="D653" t="n">
-        <v>34948888</v>
+        <v>34988755</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31870,10 +31870,10 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>10693</v>
+        <v>10701</v>
       </c>
       <c r="D657" t="n">
-        <v>15711464</v>
+        <v>15723464</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -31966,10 +31966,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>3053</v>
+        <v>3056</v>
       </c>
       <c r="D659" t="n">
-        <v>4401967</v>
+        <v>4406467</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -32062,10 +32062,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D661" t="n">
-        <v>710319</v>
+        <v>711551</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32110,10 +32110,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D662" t="n">
-        <v>654474</v>
+        <v>659647</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -32158,10 +32158,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>7426</v>
+        <v>7441</v>
       </c>
       <c r="D663" t="n">
-        <v>9420302</v>
+        <v>9438811</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32254,10 +32254,10 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="D665" t="n">
-        <v>3852707</v>
+        <v>3854207</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -32542,10 +32542,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>3746</v>
+        <v>3757</v>
       </c>
       <c r="D671" t="n">
-        <v>4538940</v>
+        <v>4553360</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -32734,10 +32734,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D675" t="n">
-        <v>1138787</v>
+        <v>1141787</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32878,10 +32878,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D678" t="n">
-        <v>164245</v>
+        <v>167245</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>9242</v>
+        <v>9261</v>
       </c>
       <c r="D680" t="n">
-        <v>11537000</v>
+        <v>11559762</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33166,10 +33166,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>3451</v>
+        <v>3454</v>
       </c>
       <c r="D684" t="n">
-        <v>5087322</v>
+        <v>5091822</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -33214,10 +33214,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D685" t="n">
-        <v>1068102</v>
+        <v>1071102</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33310,10 +33310,10 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D687" t="n">
-        <v>236799</v>
+        <v>238299</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D688" t="n">
-        <v>375069</v>
+        <v>376569</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>19076</v>
+        <v>19100</v>
       </c>
       <c r="D689" t="n">
-        <v>23355733</v>
+        <v>23383932</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33598,10 +33598,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>5679</v>
+        <v>5687</v>
       </c>
       <c r="D693" t="n">
-        <v>8295277</v>
+        <v>8307277</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -33694,10 +33694,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>2228</v>
+        <v>2231</v>
       </c>
       <c r="D695" t="n">
-        <v>3205881</v>
+        <v>3210247</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -33886,10 +33886,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D699" t="n">
-        <v>414554</v>
+        <v>416690</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -33934,10 +33934,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>73576</v>
+        <v>73789</v>
       </c>
       <c r="D700" t="n">
-        <v>92619702</v>
+        <v>92891803</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -34174,10 +34174,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>26351</v>
+        <v>26390</v>
       </c>
       <c r="D705" t="n">
-        <v>38694325</v>
+        <v>38751910</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34318,10 +34318,10 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>13042</v>
+        <v>13055</v>
       </c>
       <c r="D708" t="n">
-        <v>18812999</v>
+        <v>18830309</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -34462,10 +34462,10 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>1920</v>
+        <v>1923</v>
       </c>
       <c r="D711" t="n">
-        <v>2767129</v>
+        <v>2771629</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -34558,10 +34558,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>1166</v>
+        <v>1171</v>
       </c>
       <c r="D713" t="n">
-        <v>1625546</v>
+        <v>1632776</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>11020</v>
+        <v>11051</v>
       </c>
       <c r="D714" t="n">
-        <v>13481053</v>
+        <v>13521079</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34750,10 +34750,10 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="D717" t="n">
-        <v>5974345</v>
+        <v>5975845</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -34846,10 +34846,10 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D719" t="n">
-        <v>2135500</v>
+        <v>2137000</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -34942,10 +34942,10 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D721" t="n">
-        <v>332382</v>
+        <v>335382</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -34990,10 +34990,10 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>17435</v>
+        <v>17457</v>
       </c>
       <c r="D722" t="n">
-        <v>21513319</v>
+        <v>21541802</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -35182,10 +35182,10 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>6809</v>
+        <v>6812</v>
       </c>
       <c r="D726" t="n">
-        <v>9952712</v>
+        <v>9957212</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -35278,10 +35278,10 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>2162</v>
+        <v>2166</v>
       </c>
       <c r="D728" t="n">
-        <v>3099372</v>
+        <v>3105038</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -35374,10 +35374,10 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D730" t="n">
-        <v>446991</v>
+        <v>449489</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -35422,10 +35422,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D731" t="n">
-        <v>446749</v>
+        <v>447219</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -35518,10 +35518,10 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>11391</v>
+        <v>11408</v>
       </c>
       <c r="D733" t="n">
-        <v>14067222</v>
+        <v>14087889</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -35710,10 +35710,10 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>4209</v>
+        <v>4213</v>
       </c>
       <c r="D737" t="n">
-        <v>6171805</v>
+        <v>6177805</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -35806,10 +35806,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="D739" t="n">
-        <v>2300804</v>
+        <v>2305304</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -35854,10 +35854,10 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D740" t="n">
-        <v>310429</v>
+        <v>313213</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -35902,10 +35902,10 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D741" t="n">
-        <v>420423</v>
+        <v>423423</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -35950,10 +35950,10 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>29294</v>
+        <v>29341</v>
       </c>
       <c r="D742" t="n">
-        <v>36424716</v>
+        <v>36474778</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -36190,10 +36190,10 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>12630</v>
+        <v>12647</v>
       </c>
       <c r="D747" t="n">
-        <v>18486634</v>
+        <v>18511774</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -36286,10 +36286,10 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>4180</v>
+        <v>4190</v>
       </c>
       <c r="D749" t="n">
-        <v>5971457</v>
+        <v>5985619</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -36430,10 +36430,10 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="D752" t="n">
-        <v>933304</v>
+        <v>946004</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -36526,10 +36526,10 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>12207</v>
+        <v>12219</v>
       </c>
       <c r="D754" t="n">
-        <v>15119306</v>
+        <v>15131276</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -36670,10 +36670,10 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>4636</v>
+        <v>4640</v>
       </c>
       <c r="D757" t="n">
-        <v>6776007</v>
+        <v>6782007</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -36718,10 +36718,10 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D758" t="n">
-        <v>1637394</v>
+        <v>1638894</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -36862,10 +36862,10 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>6635</v>
+        <v>6653</v>
       </c>
       <c r="D761" t="n">
-        <v>7806270</v>
+        <v>7820255</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -37054,10 +37054,10 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>1684</v>
+        <v>1689</v>
       </c>
       <c r="D765" t="n">
-        <v>2454780</v>
+        <v>2462280</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -37102,10 +37102,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="D766" t="n">
-        <v>1438680</v>
+        <v>1444344</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -37150,10 +37150,10 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D767" t="n">
-        <v>208494</v>
+        <v>209994</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -37246,10 +37246,10 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>16642</v>
+        <v>16664</v>
       </c>
       <c r="D769" t="n">
-        <v>20187790</v>
+        <v>20217782</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -37486,10 +37486,10 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>5498</v>
+        <v>5508</v>
       </c>
       <c r="D774" t="n">
-        <v>8057071</v>
+        <v>8072071</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -37582,10 +37582,10 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>3368</v>
+        <v>3375</v>
       </c>
       <c r="D776" t="n">
-        <v>4919512</v>
+        <v>4929512</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -37726,10 +37726,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D779" t="n">
-        <v>385348</v>
+        <v>388348</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -37774,10 +37774,10 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>11260</v>
+        <v>11284</v>
       </c>
       <c r="D780" t="n">
-        <v>14271410</v>
+        <v>14299877</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -37822,10 +37822,10 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D781" t="n">
-        <v>32937</v>
+        <v>33960</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -37966,10 +37966,10 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>3929</v>
+        <v>3937</v>
       </c>
       <c r="D784" t="n">
-        <v>5745693</v>
+        <v>5756893</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -38062,10 +38062,10 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="D786" t="n">
-        <v>1796968</v>
+        <v>1800418</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -38158,10 +38158,10 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="D788" t="n">
-        <v>712662</v>
+        <v>727362</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -38254,10 +38254,10 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>31818</v>
+        <v>31877</v>
       </c>
       <c r="D790" t="n">
-        <v>39268388</v>
+        <v>39327058</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -38446,10 +38446,10 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>13103</v>
+        <v>13118</v>
       </c>
       <c r="D794" t="n">
-        <v>19174748</v>
+        <v>19196884</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -38542,10 +38542,10 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>6000</v>
+        <v>6006</v>
       </c>
       <c r="D796" t="n">
-        <v>8670267</v>
+        <v>8679267</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -38686,10 +38686,10 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D799" t="n">
-        <v>900665</v>
+        <v>903665</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -38734,10 +38734,10 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>7525</v>
+        <v>7540</v>
       </c>
       <c r="D800" t="n">
-        <v>9309900</v>
+        <v>9330726</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -39022,10 +39022,10 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>2660</v>
+        <v>2664</v>
       </c>
       <c r="D806" t="n">
-        <v>3880117</v>
+        <v>3885484</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -39070,10 +39070,10 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="D807" t="n">
-        <v>1622152</v>
+        <v>1626652</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -39118,10 +39118,10 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D808" t="n">
-        <v>535872</v>
+        <v>537372</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -39166,10 +39166,10 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D809" t="n">
-        <v>317105</v>
+        <v>323105</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -39214,10 +39214,10 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>57927</v>
+        <v>58183</v>
       </c>
       <c r="D810" t="n">
-        <v>72392259</v>
+        <v>72726027</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -39454,10 +39454,10 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>20970</v>
+        <v>21005</v>
       </c>
       <c r="D815" t="n">
-        <v>30685741</v>
+        <v>30737169</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -39598,10 +39598,10 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>12469</v>
+        <v>12506</v>
       </c>
       <c r="D818" t="n">
-        <v>17999193</v>
+        <v>18051934</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -39694,10 +39694,10 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D820" t="n">
-        <v>627361</v>
+        <v>634861</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -39838,10 +39838,10 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D823" t="n">
-        <v>1806320</v>
+        <v>1807820</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -39886,10 +39886,10 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>11009</v>
+        <v>11042</v>
       </c>
       <c r="D824" t="n">
-        <v>13722676</v>
+        <v>13766126</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -40078,10 +40078,10 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>3874</v>
+        <v>3883</v>
       </c>
       <c r="D828" t="n">
-        <v>5633072</v>
+        <v>5646572</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -40174,10 +40174,10 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D830" t="n">
-        <v>1753990</v>
+        <v>1755203</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -40366,10 +40366,10 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D834" t="n">
-        <v>359910</v>
+        <v>361410</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -40414,10 +40414,10 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>57906</v>
+        <v>58043</v>
       </c>
       <c r="D835" t="n">
-        <v>71609536</v>
+        <v>71785493</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -40702,10 +40702,10 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>22165</v>
+        <v>22203</v>
       </c>
       <c r="D841" t="n">
-        <v>32525142</v>
+        <v>32581267</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -40798,10 +40798,10 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>14191</v>
+        <v>14215</v>
       </c>
       <c r="D843" t="n">
-        <v>20546750</v>
+        <v>20580450</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -40894,10 +40894,10 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D845" t="n">
-        <v>1260601</v>
+        <v>1263601</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -40942,10 +40942,10 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="D846" t="n">
-        <v>1688432</v>
+        <v>1693786</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -41038,10 +41038,10 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>7663</v>
+        <v>7680</v>
       </c>
       <c r="D848" t="n">
-        <v>9406292</v>
+        <v>9426882</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -41134,10 +41134,10 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>2552</v>
+        <v>2557</v>
       </c>
       <c r="D850" t="n">
-        <v>3715698</v>
+        <v>3723198</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -41182,10 +41182,10 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="D851" t="n">
-        <v>1543330</v>
+        <v>1549979</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -41326,10 +41326,10 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>3547</v>
+        <v>3563</v>
       </c>
       <c r="D854" t="n">
-        <v>4585477</v>
+        <v>4606649</v>
       </c>
       <c r="E854" t="inlineStr">
         <is>
@@ -41566,10 +41566,10 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D859" t="n">
-        <v>530750</v>
+        <v>531939</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -41662,10 +41662,10 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D861" t="n">
-        <v>142155</v>
+        <v>143655</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -41710,10 +41710,10 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>22143</v>
+        <v>22183</v>
       </c>
       <c r="D862" t="n">
-        <v>27749600</v>
+        <v>27794100</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -41902,10 +41902,10 @@
         </is>
       </c>
       <c r="C866" t="n">
-        <v>7686</v>
+        <v>7698</v>
       </c>
       <c r="D866" t="n">
-        <v>11218680</v>
+        <v>11236102</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -41998,10 +41998,10 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>4580</v>
+        <v>4588</v>
       </c>
       <c r="D868" t="n">
-        <v>6621608</v>
+        <v>6633608</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -42142,10 +42142,10 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D871" t="n">
-        <v>585450</v>
+        <v>590794</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -42238,10 +42238,10 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>14374</v>
+        <v>14403</v>
       </c>
       <c r="D873" t="n">
-        <v>17335137</v>
+        <v>17369834</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -42430,10 +42430,10 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>5209</v>
+        <v>5219</v>
       </c>
       <c r="D877" t="n">
-        <v>7596500</v>
+        <v>7611500</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -42526,10 +42526,10 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="D879" t="n">
-        <v>3371224</v>
+        <v>3374692</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -42670,10 +42670,10 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D882" t="n">
-        <v>390413</v>
+        <v>394913</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -42718,10 +42718,10 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>9683</v>
+        <v>9705</v>
       </c>
       <c r="D883" t="n">
-        <v>11898585</v>
+        <v>11927077</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -42862,10 +42862,10 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>3328</v>
+        <v>3334</v>
       </c>
       <c r="D886" t="n">
-        <v>4876160</v>
+        <v>4885160</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -42910,10 +42910,10 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D887" t="n">
-        <v>2132719</v>
+        <v>2134219</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -43054,10 +43054,10 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>44182</v>
+        <v>44249</v>
       </c>
       <c r="D890" t="n">
-        <v>55533659</v>
+        <v>55606722</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -43294,10 +43294,10 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>20919</v>
+        <v>20945</v>
       </c>
       <c r="D895" t="n">
-        <v>30678802</v>
+        <v>30715429</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -43390,10 +43390,10 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>5836</v>
+        <v>5841</v>
       </c>
       <c r="D897" t="n">
-        <v>8408341</v>
+        <v>8415841</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -43438,10 +43438,10 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D898" t="n">
-        <v>885226</v>
+        <v>886455</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -43534,10 +43534,10 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D900" t="n">
-        <v>1280953</v>
+        <v>1282453</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -43582,10 +43582,10 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>21020</v>
+        <v>21060</v>
       </c>
       <c r="D901" t="n">
-        <v>26164257</v>
+        <v>26215887</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -43678,10 +43678,10 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D903" t="n">
-        <v>164323</v>
+        <v>164423</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -43726,10 +43726,10 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>9724</v>
+        <v>9732</v>
       </c>
       <c r="D904" t="n">
-        <v>14248869</v>
+        <v>14260869</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -43822,10 +43822,10 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>2255</v>
+        <v>2261</v>
       </c>
       <c r="D906" t="n">
-        <v>3230675</v>
+        <v>3239675</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -43918,10 +43918,10 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D908" t="n">
-        <v>882933</v>
+        <v>884433</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -43966,10 +43966,10 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D909" t="n">
-        <v>876727</v>
+        <v>878850</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -44014,10 +44014,10 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>6976</v>
+        <v>6986</v>
       </c>
       <c r="D910" t="n">
-        <v>8777217</v>
+        <v>8786125</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -44254,10 +44254,10 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>2999</v>
+        <v>3002</v>
       </c>
       <c r="D915" t="n">
-        <v>4417322</v>
+        <v>4421805</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -44302,10 +44302,10 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D916" t="n">
-        <v>906949</v>
+        <v>909949</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -44350,10 +44350,10 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D917" t="n">
-        <v>228580</v>
+        <v>230080</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -44446,10 +44446,10 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>12937</v>
+        <v>12951</v>
       </c>
       <c r="D919" t="n">
-        <v>16133134</v>
+        <v>16146934</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -44638,10 +44638,10 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>5221</v>
+        <v>5229</v>
       </c>
       <c r="D923" t="n">
-        <v>7629285</v>
+        <v>7641180</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -44734,10 +44734,10 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="D925" t="n">
-        <v>1972408</v>
+        <v>1975867</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -44974,10 +44974,10 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>19177</v>
+        <v>19195</v>
       </c>
       <c r="D930" t="n">
-        <v>23974367</v>
+        <v>23993534</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -45166,10 +45166,10 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>10041</v>
+        <v>10051</v>
       </c>
       <c r="D934" t="n">
-        <v>14678264</v>
+        <v>14692576</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -45262,10 +45262,10 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="D936" t="n">
-        <v>2957319</v>
+        <v>2958819</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -45358,10 +45358,10 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D938" t="n">
-        <v>610807</v>
+        <v>613807</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -45406,10 +45406,10 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>8562</v>
+        <v>8571</v>
       </c>
       <c r="D939" t="n">
-        <v>10685537</v>
+        <v>10698227</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -45646,10 +45646,10 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="D944" t="n">
-        <v>4644141</v>
+        <v>4645641</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
@@ -45694,10 +45694,10 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D945" t="n">
-        <v>2143409</v>
+        <v>2144909</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -45790,10 +45790,10 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D947" t="n">
-        <v>222075</v>
+        <v>223575</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -45838,10 +45838,10 @@
         </is>
       </c>
       <c r="C948" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D948" t="n">
-        <v>294200</v>
+        <v>295700</v>
       </c>
       <c r="E948" t="inlineStr">
         <is>
@@ -45886,10 +45886,10 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>66502</v>
+        <v>66621</v>
       </c>
       <c r="D949" t="n">
-        <v>85406046</v>
+        <v>85557484</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -46126,10 +46126,10 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D954" t="n">
-        <v>288679</v>
+        <v>290179</v>
       </c>
       <c r="E954" t="inlineStr">
         <is>
@@ -46222,10 +46222,10 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>25394</v>
+        <v>25426</v>
       </c>
       <c r="D956" t="n">
-        <v>37222494</v>
+        <v>37270079</v>
       </c>
       <c r="E956" t="inlineStr">
         <is>
@@ -46318,10 +46318,10 @@
         </is>
       </c>
       <c r="C958" t="n">
-        <v>17442</v>
+        <v>17471</v>
       </c>
       <c r="D958" t="n">
-        <v>25295548</v>
+        <v>25338247</v>
       </c>
       <c r="E958" t="inlineStr">
         <is>
@@ -46414,10 +46414,10 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D960" t="n">
-        <v>684592</v>
+        <v>689092</v>
       </c>
       <c r="E960" t="inlineStr">
         <is>
@@ -46462,10 +46462,10 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D961" t="n">
-        <v>1222638</v>
+        <v>1226958</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
@@ -46510,10 +46510,10 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>82979</v>
+        <v>83140</v>
       </c>
       <c r="D962" t="n">
-        <v>104242806</v>
+        <v>104426593</v>
       </c>
       <c r="E962" t="inlineStr">
         <is>
@@ -46654,10 +46654,10 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D965" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="E965" t="inlineStr">
         <is>
@@ -46846,10 +46846,10 @@
         </is>
       </c>
       <c r="C969" t="n">
-        <v>33569</v>
+        <v>33626</v>
       </c>
       <c r="D969" t="n">
-        <v>49244794</v>
+        <v>49329452</v>
       </c>
       <c r="E969" t="inlineStr">
         <is>
@@ -46990,10 +46990,10 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>24951</v>
+        <v>25004</v>
       </c>
       <c r="D972" t="n">
-        <v>36188552</v>
+        <v>36264968</v>
       </c>
       <c r="E972" t="inlineStr">
         <is>
@@ -47038,10 +47038,10 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D973" t="n">
-        <v>861902</v>
+        <v>864573</v>
       </c>
       <c r="E973" t="inlineStr">
         <is>
@@ -47134,10 +47134,10 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="D975" t="n">
-        <v>2748980</v>
+        <v>2754980</v>
       </c>
       <c r="E975" t="inlineStr">
         <is>
@@ -47182,10 +47182,10 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>10660</v>
+        <v>10675</v>
       </c>
       <c r="D976" t="n">
-        <v>13915542</v>
+        <v>13934099</v>
       </c>
       <c r="E976" t="inlineStr">
         <is>
@@ -47374,10 +47374,10 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>3437</v>
+        <v>3440</v>
       </c>
       <c r="D980" t="n">
-        <v>5021410</v>
+        <v>5025910</v>
       </c>
       <c r="E980" t="inlineStr">
         <is>
@@ -47422,10 +47422,10 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="D981" t="n">
-        <v>1594369</v>
+        <v>1601869</v>
       </c>
       <c r="E981" t="inlineStr">
         <is>
@@ -47662,10 +47662,10 @@
         </is>
       </c>
       <c r="C986" t="n">
-        <v>55565</v>
+        <v>55651</v>
       </c>
       <c r="D986" t="n">
-        <v>69563341</v>
+        <v>69669697</v>
       </c>
       <c r="E986" t="inlineStr">
         <is>
@@ -47902,10 +47902,10 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>18427</v>
+        <v>18439</v>
       </c>
       <c r="D991" t="n">
-        <v>26987033</v>
+        <v>27003739</v>
       </c>
       <c r="E991" t="inlineStr">
         <is>
@@ -47998,10 +47998,10 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>12519</v>
+        <v>12533</v>
       </c>
       <c r="D993" t="n">
-        <v>18103827</v>
+        <v>18123928</v>
       </c>
       <c r="E993" t="inlineStr">
         <is>
@@ -48046,10 +48046,10 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D994" t="n">
-        <v>670773</v>
+        <v>673773</v>
       </c>
       <c r="E994" t="inlineStr">
         <is>
@@ -48142,10 +48142,10 @@
         </is>
       </c>
       <c r="C996" t="n">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D996" t="n">
-        <v>1013700</v>
+        <v>1016424</v>
       </c>
       <c r="E996" t="inlineStr">
         <is>
@@ -48190,10 +48190,10 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>27916</v>
+        <v>27977</v>
       </c>
       <c r="D997" t="n">
-        <v>34742254</v>
+        <v>34817943</v>
       </c>
       <c r="E997" t="inlineStr">
         <is>
@@ -48430,10 +48430,10 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>10432</v>
+        <v>10443</v>
       </c>
       <c r="D1002" t="n">
-        <v>15278977</v>
+        <v>15295477</v>
       </c>
       <c r="E1002" t="inlineStr">
         <is>
@@ -48526,10 +48526,10 @@
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>6175</v>
+        <v>6183</v>
       </c>
       <c r="D1004" t="n">
-        <v>8953574</v>
+        <v>8964825</v>
       </c>
       <c r="E1004" t="inlineStr">
         <is>
@@ -48622,10 +48622,10 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D1006" t="n">
-        <v>705629</v>
+        <v>707129</v>
       </c>
       <c r="E1006" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16295</v>
+        <v>16302</v>
       </c>
       <c r="D2" t="n">
-        <v>20487003</v>
+        <v>20495474</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6224</v>
+        <v>6228</v>
       </c>
       <c r="D6" t="n">
-        <v>9103422</v>
+        <v>9109422</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="D8" t="n">
-        <v>4748879</v>
+        <v>4749712</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D11" t="n">
-        <v>506208</v>
+        <v>507708</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10935</v>
+        <v>10948</v>
       </c>
       <c r="D12" t="n">
-        <v>13805761</v>
+        <v>13822841</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="D16" t="n">
-        <v>4695807</v>
+        <v>4696127</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14168</v>
+        <v>14189</v>
       </c>
       <c r="D21" t="n">
-        <v>17395009</v>
+        <v>17414176</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4931</v>
+        <v>4933</v>
       </c>
       <c r="D25" t="n">
-        <v>7210928</v>
+        <v>7213928</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="D27" t="n">
-        <v>2454399</v>
+        <v>2455899</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D30" t="n">
-        <v>463403</v>
+        <v>466403</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6490</v>
+        <v>6516</v>
       </c>
       <c r="D31" t="n">
-        <v>8617576</v>
+        <v>8653069</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D36" t="n">
-        <v>803034</v>
+        <v>807534</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D37" t="n">
-        <v>745653</v>
+        <v>747153</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21750</v>
+        <v>21774</v>
       </c>
       <c r="D40" t="n">
-        <v>26783669</v>
+        <v>26809521</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7776</v>
+        <v>7780</v>
       </c>
       <c r="D46" t="n">
-        <v>11423023</v>
+        <v>11428362</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3821</v>
+        <v>3825</v>
       </c>
       <c r="D48" t="n">
-        <v>5531284</v>
+        <v>5536155</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D51" t="n">
-        <v>818353</v>
+        <v>819853</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8108</v>
+        <v>8116</v>
       </c>
       <c r="D52" t="n">
-        <v>10351549</v>
+        <v>10360382</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2773</v>
+        <v>2775</v>
       </c>
       <c r="D56" t="n">
-        <v>4034487</v>
+        <v>4037487</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="D58" t="n">
-        <v>1436552</v>
+        <v>1441052</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D59" t="n">
-        <v>269501</v>
+        <v>271001</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35963</v>
+        <v>35999</v>
       </c>
       <c r="D61" t="n">
-        <v>46306619</v>
+        <v>46352325</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D62" t="n">
-        <v>50738</v>
+        <v>51738</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>13096</v>
+        <v>13112</v>
       </c>
       <c r="D66" t="n">
-        <v>19208057</v>
+        <v>19232057</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5137</v>
+        <v>5140</v>
       </c>
       <c r="D68" t="n">
-        <v>7429467</v>
+        <v>7433967</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D72" t="n">
-        <v>476676</v>
+        <v>478176</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>46045</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="n">
-        <v>58886767</v>
+        <v>58922333</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4078,10 +4078,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>18066</v>
+        <v>18078</v>
       </c>
       <c r="D78" t="n">
-        <v>26468854</v>
+        <v>26486682</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>9289</v>
+        <v>9299</v>
       </c>
       <c r="D80" t="n">
-        <v>13410818</v>
+        <v>13424741</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D82" t="n">
-        <v>478473</v>
+        <v>479973</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D84" t="n">
-        <v>1109680</v>
+        <v>1111180</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>24788</v>
+        <v>24818</v>
       </c>
       <c r="D85" t="n">
-        <v>31256236</v>
+        <v>31292882</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>8655</v>
+        <v>8662</v>
       </c>
       <c r="D89" t="n">
-        <v>12705421</v>
+        <v>12715871</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4875</v>
+        <v>4881</v>
       </c>
       <c r="D91" t="n">
-        <v>7047741</v>
+        <v>7055727</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D92" t="n">
-        <v>505622</v>
+        <v>508622</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D93" t="n">
-        <v>1054765</v>
+        <v>1058815</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>21864</v>
+        <v>21875</v>
       </c>
       <c r="D94" t="n">
-        <v>27449360</v>
+        <v>27463967</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -5038,10 +5038,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>9131</v>
+        <v>9138</v>
       </c>
       <c r="D98" t="n">
-        <v>13366905</v>
+        <v>13376705</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3304</v>
+        <v>3307</v>
       </c>
       <c r="D100" t="n">
-        <v>4732746</v>
+        <v>4737246</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D104" t="n">
-        <v>619219</v>
+        <v>622219</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>81138</v>
+        <v>81228</v>
       </c>
       <c r="D105" t="n">
-        <v>104009383</v>
+        <v>104114893</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>30495</v>
+        <v>30527</v>
       </c>
       <c r="D112" t="n">
-        <v>44750176</v>
+        <v>44796616</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>20715</v>
+        <v>20736</v>
       </c>
       <c r="D114" t="n">
-        <v>29895449</v>
+        <v>29923043</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5950,10 +5950,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D117" t="n">
-        <v>965267</v>
+        <v>966767</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="D121" t="n">
-        <v>2630758</v>
+        <v>2635258</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>27578</v>
+        <v>27610</v>
       </c>
       <c r="D122" t="n">
-        <v>36395476</v>
+        <v>36437788</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>9835</v>
+        <v>9848</v>
       </c>
       <c r="D126" t="n">
-        <v>14422979</v>
+        <v>14442479</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3252</v>
+        <v>3255</v>
       </c>
       <c r="D128" t="n">
-        <v>4728756</v>
+        <v>4733256</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D129" t="n">
-        <v>313367</v>
+        <v>314867</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6622,10 +6622,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D131" t="n">
-        <v>485982</v>
+        <v>487482</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>15668</v>
+        <v>15677</v>
       </c>
       <c r="D132" t="n">
-        <v>19506530</v>
+        <v>19517155</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>7737</v>
+        <v>7740</v>
       </c>
       <c r="D135" t="n">
-        <v>11323064</v>
+        <v>11327564</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -7006,10 +7006,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D139" t="n">
-        <v>437207</v>
+        <v>438707</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D141" t="n">
-        <v>538999</v>
+        <v>541999</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>13476</v>
+        <v>13487</v>
       </c>
       <c r="D142" t="n">
-        <v>16840877</v>
+        <v>16854046</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>6227</v>
+        <v>6232</v>
       </c>
       <c r="D146" t="n">
-        <v>9123339</v>
+        <v>9130255</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>5959</v>
+        <v>5963</v>
       </c>
       <c r="D152" t="n">
-        <v>7288945</v>
+        <v>7293358</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="D155" t="n">
-        <v>3015357</v>
+        <v>3016857</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>7416</v>
+        <v>7420</v>
       </c>
       <c r="D160" t="n">
-        <v>9199766</v>
+        <v>9203611</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2844</v>
+        <v>2846</v>
       </c>
       <c r="D163" t="n">
-        <v>4171840</v>
+        <v>4173795</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D164" t="n">
-        <v>2007471</v>
+        <v>2008971</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8350,10 +8350,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D167" t="n">
-        <v>197583</v>
+        <v>200583</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>5591</v>
+        <v>5597</v>
       </c>
       <c r="D168" t="n">
-        <v>7042214</v>
+        <v>7046975</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8638,10 +8638,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="D173" t="n">
-        <v>2957041</v>
+        <v>2958541</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -8734,10 +8734,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D175" t="n">
-        <v>994898</v>
+        <v>996398</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D176" t="n">
-        <v>190018</v>
+        <v>193018</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D177" t="n">
-        <v>138242</v>
+        <v>139742</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>15909</v>
+        <v>15915</v>
       </c>
       <c r="D178" t="n">
-        <v>19997858</v>
+        <v>20004035</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>6372</v>
+        <v>6377</v>
       </c>
       <c r="D183" t="n">
-        <v>9307294</v>
+        <v>9314794</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2214</v>
+        <v>2220</v>
       </c>
       <c r="D184" t="n">
-        <v>3178865</v>
+        <v>3186491</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D186" t="n">
-        <v>734155</v>
+        <v>738655</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9310,10 +9310,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D187" t="n">
-        <v>627912</v>
+        <v>629412</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="D188" t="n">
-        <v>3834067</v>
+        <v>3835567</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D195" t="n">
-        <v>66715</v>
+        <v>67025</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>9153</v>
+        <v>9169</v>
       </c>
       <c r="D196" t="n">
-        <v>11430960</v>
+        <v>11450053</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>3417</v>
+        <v>3419</v>
       </c>
       <c r="D200" t="n">
-        <v>5020076</v>
+        <v>5023076</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="D201" t="n">
-        <v>2312680</v>
+        <v>2315680</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -10126,10 +10126,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D204" t="n">
-        <v>293097</v>
+        <v>296097</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>17185</v>
+        <v>17203</v>
       </c>
       <c r="D205" t="n">
-        <v>21473165</v>
+        <v>21491431</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>7670</v>
+        <v>7673</v>
       </c>
       <c r="D209" t="n">
-        <v>11263801</v>
+        <v>11268301</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="D210" t="n">
-        <v>1770154</v>
+        <v>1773154</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D211" t="n">
-        <v>387866</v>
+        <v>389366</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D212" t="n">
-        <v>656183</v>
+        <v>659183</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>26045</v>
+        <v>26059</v>
       </c>
       <c r="D213" t="n">
-        <v>32863124</v>
+        <v>32878423</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10750,10 +10750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>10474</v>
+        <v>10477</v>
       </c>
       <c r="D217" t="n">
-        <v>15298193</v>
+        <v>15301852</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2626</v>
+        <v>2630</v>
       </c>
       <c r="D219" t="n">
-        <v>3789768</v>
+        <v>3792522</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D222" t="n">
-        <v>835766</v>
+        <v>837266</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>28367</v>
+        <v>28391</v>
       </c>
       <c r="D223" t="n">
-        <v>35811286</v>
+        <v>35838945</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>14702</v>
+        <v>14707</v>
       </c>
       <c r="D228" t="n">
-        <v>21575371</v>
+        <v>21581871</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>2640</v>
+        <v>2645</v>
       </c>
       <c r="D230" t="n">
-        <v>3789955</v>
+        <v>3797175</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>24191</v>
+        <v>24211</v>
       </c>
       <c r="D234" t="n">
-        <v>30525847</v>
+        <v>30549664</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>11154</v>
+        <v>11160</v>
       </c>
       <c r="D240" t="n">
-        <v>16352722</v>
+        <v>16360749</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="D242" t="n">
-        <v>3573347</v>
+        <v>3576347</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -12094,10 +12094,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D245" t="n">
-        <v>619889</v>
+        <v>621324</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>7844</v>
+        <v>7853</v>
       </c>
       <c r="D246" t="n">
-        <v>9817986</v>
+        <v>9827086</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>2691</v>
+        <v>2694</v>
       </c>
       <c r="D250" t="n">
-        <v>3950491</v>
+        <v>3954150</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>9778</v>
+        <v>9782</v>
       </c>
       <c r="D256" t="n">
-        <v>12471687</v>
+        <v>12477677</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12814,10 +12814,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="D260" t="n">
-        <v>6142528</v>
+        <v>6144028</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>2158</v>
+        <v>2163</v>
       </c>
       <c r="D262" t="n">
-        <v>3123669</v>
+        <v>3131169</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D264" t="n">
-        <v>168681</v>
+        <v>171681</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>5521</v>
+        <v>5523</v>
       </c>
       <c r="D265" t="n">
-        <v>6847584</v>
+        <v>6849184</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="D268" t="n">
-        <v>2938657</v>
+        <v>2944657</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D270" t="n">
-        <v>1026872</v>
+        <v>1028372</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13438,10 +13438,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D273" t="n">
-        <v>229156</v>
+        <v>230656</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13486,10 +13486,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>18995</v>
+        <v>19013</v>
       </c>
       <c r="D274" t="n">
-        <v>24004738</v>
+        <v>24026477</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -13678,10 +13678,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>7908</v>
+        <v>7911</v>
       </c>
       <c r="D278" t="n">
-        <v>11594705</v>
+        <v>11599205</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13774,10 +13774,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="D280" t="n">
-        <v>3573559</v>
+        <v>3576559</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D281" t="n">
-        <v>703598</v>
+        <v>709598</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D283" t="n">
-        <v>643423</v>
+        <v>647923</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>16524</v>
+        <v>16543</v>
       </c>
       <c r="D285" t="n">
-        <v>20475288</v>
+        <v>20497010</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14206,10 +14206,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>7163</v>
+        <v>7170</v>
       </c>
       <c r="D289" t="n">
-        <v>10506997</v>
+        <v>10517497</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>3319</v>
+        <v>3321</v>
       </c>
       <c r="D290" t="n">
-        <v>4810743</v>
+        <v>4813743</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D293" t="n">
-        <v>459943</v>
+        <v>465943</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>9305</v>
+        <v>9316</v>
       </c>
       <c r="D294" t="n">
-        <v>11693613</v>
+        <v>11707794</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3906</v>
+        <v>3908</v>
       </c>
       <c r="D298" t="n">
-        <v>5716832</v>
+        <v>5719832</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="D299" t="n">
-        <v>1807099</v>
+        <v>1810099</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>9157</v>
+        <v>9174</v>
       </c>
       <c r="D304" t="n">
-        <v>11959054</v>
+        <v>11980130</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -15118,10 +15118,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>3721</v>
+        <v>3727</v>
       </c>
       <c r="D308" t="n">
-        <v>5439467</v>
+        <v>5448349</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2341</v>
+        <v>2347</v>
       </c>
       <c r="D309" t="n">
-        <v>3404568</v>
+        <v>3413568</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15214,10 +15214,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D310" t="n">
-        <v>327665</v>
+        <v>329165</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>11016</v>
+        <v>11030</v>
       </c>
       <c r="D312" t="n">
-        <v>14464720</v>
+        <v>14482623</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15454,10 +15454,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D315" t="n">
-        <v>48643</v>
+        <v>50143</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>3765</v>
+        <v>3771</v>
       </c>
       <c r="D316" t="n">
-        <v>5520029</v>
+        <v>5528241</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2688</v>
+        <v>2693</v>
       </c>
       <c r="D318" t="n">
-        <v>3897138</v>
+        <v>3904638</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>6788</v>
+        <v>6790</v>
       </c>
       <c r="D321" t="n">
-        <v>8394106</v>
+        <v>8395064</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15982,10 +15982,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="D326" t="n">
-        <v>3368584</v>
+        <v>3370084</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D328" t="n">
-        <v>1127342</v>
+        <v>1128842</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>7497</v>
+        <v>7502</v>
       </c>
       <c r="D331" t="n">
-        <v>9386417</v>
+        <v>9392475</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D337" t="n">
-        <v>1842695</v>
+        <v>1844195</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>31823</v>
+        <v>31878</v>
       </c>
       <c r="D340" t="n">
-        <v>39989811</v>
+        <v>40054205</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D345" t="n">
-        <v>4083</v>
+        <v>4166</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>16485</v>
+        <v>16503</v>
       </c>
       <c r="D346" t="n">
-        <v>24107276</v>
+        <v>24132943</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>8007</v>
+        <v>8018</v>
       </c>
       <c r="D349" t="n">
-        <v>11532238</v>
+        <v>11548310</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D350" t="n">
-        <v>908445</v>
+        <v>912945</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="D351" t="n">
-        <v>1088890</v>
+        <v>1096390</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>3877</v>
+        <v>3880</v>
       </c>
       <c r="D352" t="n">
-        <v>4831919</v>
+        <v>4836125</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17422,10 +17422,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D356" t="n">
-        <v>845012</v>
+        <v>846512</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>19306</v>
+        <v>19323</v>
       </c>
       <c r="D360" t="n">
-        <v>24074792</v>
+        <v>24095409</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>9875</v>
+        <v>9882</v>
       </c>
       <c r="D364" t="n">
-        <v>14478393</v>
+        <v>14488893</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>4722</v>
+        <v>4728</v>
       </c>
       <c r="D366" t="n">
-        <v>6830906</v>
+        <v>6838802</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D367" t="n">
-        <v>859969</v>
+        <v>862969</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D368" t="n">
-        <v>497984</v>
+        <v>500984</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>13866</v>
+        <v>13879</v>
       </c>
       <c r="D369" t="n">
-        <v>17349821</v>
+        <v>17366820</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>6424</v>
+        <v>6432</v>
       </c>
       <c r="D373" t="n">
-        <v>9404958</v>
+        <v>9416958</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="D375" t="n">
-        <v>3555542</v>
+        <v>3558087</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D376" t="n">
-        <v>1018001</v>
+        <v>1019501</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D377" t="n">
-        <v>357087</v>
+        <v>358272</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>17929</v>
+        <v>17947</v>
       </c>
       <c r="D378" t="n">
-        <v>22361801</v>
+        <v>22384209</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>7126</v>
+        <v>7132</v>
       </c>
       <c r="D382" t="n">
-        <v>10475079</v>
+        <v>10484079</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="D384" t="n">
-        <v>4117192</v>
+        <v>4118692</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18958,10 +18958,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>4074</v>
+        <v>4076</v>
       </c>
       <c r="D388" t="n">
-        <v>5109486</v>
+        <v>5112486</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="D391" t="n">
-        <v>2023076</v>
+        <v>2029076</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>22199</v>
+        <v>22219</v>
       </c>
       <c r="D395" t="n">
-        <v>27544305</v>
+        <v>27568492</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>9344</v>
+        <v>9347</v>
       </c>
       <c r="D398" t="n">
-        <v>13755417</v>
+        <v>13759917</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19534,10 +19534,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>6185</v>
+        <v>6192</v>
       </c>
       <c r="D400" t="n">
-        <v>8996956</v>
+        <v>9007456</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D402" t="n">
-        <v>485302</v>
+        <v>486802</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>11103</v>
+        <v>11112</v>
       </c>
       <c r="D403" t="n">
-        <v>13690548</v>
+        <v>13702248</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19918,10 +19918,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>5322</v>
+        <v>5323</v>
       </c>
       <c r="D408" t="n">
-        <v>7778703</v>
+        <v>7780203</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -20014,10 +20014,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1835</v>
+        <v>1839</v>
       </c>
       <c r="D410" t="n">
-        <v>2665989</v>
+        <v>2671989</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>31773</v>
+        <v>31902</v>
       </c>
       <c r="D413" t="n">
-        <v>43055768</v>
+        <v>43227975</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>7746</v>
+        <v>7765</v>
       </c>
       <c r="D417" t="n">
-        <v>11388970</v>
+        <v>11417070</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>7039</v>
+        <v>7058</v>
       </c>
       <c r="D419" t="n">
-        <v>10204733</v>
+        <v>10231955</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20542,10 +20542,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D421" t="n">
-        <v>730405</v>
+        <v>731905</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>8618</v>
+        <v>8676</v>
       </c>
       <c r="D423" t="n">
-        <v>11954383</v>
+        <v>12035029</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2177</v>
+        <v>2185</v>
       </c>
       <c r="D425" t="n">
-        <v>3207470</v>
+        <v>3219470</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20830,10 +20830,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>2921</v>
+        <v>2939</v>
       </c>
       <c r="D427" t="n">
-        <v>4265402</v>
+        <v>4292112</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -20926,10 +20926,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D429" t="n">
-        <v>177120</v>
+        <v>183120</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D430" t="n">
-        <v>230586</v>
+        <v>233586</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21022,10 +21022,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>10993</v>
+        <v>10996</v>
       </c>
       <c r="D431" t="n">
-        <v>13572087</v>
+        <v>13576104</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>3780</v>
+        <v>3785</v>
       </c>
       <c r="D434" t="n">
-        <v>5549141</v>
+        <v>5555841</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21262,10 +21262,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1855</v>
+        <v>1859</v>
       </c>
       <c r="D436" t="n">
-        <v>2661237</v>
+        <v>2666877</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>62640</v>
+        <v>62716</v>
       </c>
       <c r="D439" t="n">
-        <v>77647099</v>
+        <v>77744271</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>24875</v>
+        <v>24892</v>
       </c>
       <c r="D443" t="n">
-        <v>36465490</v>
+        <v>36489068</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>12885</v>
+        <v>12894</v>
       </c>
       <c r="D445" t="n">
-        <v>18683968</v>
+        <v>18697468</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21886,10 +21886,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="D449" t="n">
-        <v>1450370</v>
+        <v>1454169</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -21982,10 +21982,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>18839</v>
+        <v>18847</v>
       </c>
       <c r="D451" t="n">
-        <v>23814130</v>
+        <v>23823976</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>7690</v>
+        <v>7694</v>
       </c>
       <c r="D455" t="n">
-        <v>11287670</v>
+        <v>11293393</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22270,10 +22270,10 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>4832</v>
+        <v>4839</v>
       </c>
       <c r="D457" t="n">
-        <v>7010922</v>
+        <v>7021422</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -22366,10 +22366,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D459" t="n">
-        <v>392694</v>
+        <v>395694</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -22414,10 +22414,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>32144</v>
+        <v>32165</v>
       </c>
       <c r="D460" t="n">
-        <v>39295962</v>
+        <v>39319219</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -22606,10 +22606,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>11434</v>
+        <v>11439</v>
       </c>
       <c r="D464" t="n">
-        <v>16730175</v>
+        <v>16737481</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>14352</v>
+        <v>14370</v>
       </c>
       <c r="D469" t="n">
-        <v>17553494</v>
+        <v>17573663</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -23086,10 +23086,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="D474" t="n">
-        <v>6426067</v>
+        <v>6427567</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23182,10 +23182,10 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="D476" t="n">
-        <v>2976783</v>
+        <v>2979783</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D478" t="n">
-        <v>455348</v>
+        <v>462848</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>35795</v>
+        <v>35838</v>
       </c>
       <c r="D479" t="n">
-        <v>46648709</v>
+        <v>46700255</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23470,10 +23470,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D482" t="n">
-        <v>143388</v>
+        <v>144888</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>13513</v>
+        <v>13526</v>
       </c>
       <c r="D483" t="n">
-        <v>19882531</v>
+        <v>19901294</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>11951</v>
+        <v>11961</v>
       </c>
       <c r="D485" t="n">
-        <v>17442088</v>
+        <v>17457088</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>61975</v>
+        <v>62073</v>
       </c>
       <c r="D488" t="n">
-        <v>82060553</v>
+        <v>82193284</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>23002</v>
+        <v>23031</v>
       </c>
       <c r="D493" t="n">
-        <v>33751341</v>
+        <v>33793740</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24094,10 +24094,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>22303</v>
+        <v>22348</v>
       </c>
       <c r="D495" t="n">
-        <v>32380915</v>
+        <v>32446209</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24238,10 +24238,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="D498" t="n">
-        <v>876230</v>
+        <v>885101</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>149818</v>
+        <v>150090</v>
       </c>
       <c r="D499" t="n">
-        <v>197073094</v>
+        <v>197415728</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24526,10 +24526,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D504" t="n">
-        <v>696055</v>
+        <v>697555</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>81214</v>
+        <v>81349</v>
       </c>
       <c r="D506" t="n">
-        <v>119314125</v>
+        <v>119513311</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D507" t="n">
-        <v>341842</v>
+        <v>344842</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>59676</v>
+        <v>59785</v>
       </c>
       <c r="D509" t="n">
-        <v>86629633</v>
+        <v>86785250</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24862,10 +24862,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="D511" t="n">
-        <v>1521607</v>
+        <v>1524607</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -24958,10 +24958,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>2759</v>
+        <v>2769</v>
       </c>
       <c r="D513" t="n">
-        <v>3904926</v>
+        <v>3919926</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>40896</v>
+        <v>40953</v>
       </c>
       <c r="D515" t="n">
-        <v>53157447</v>
+        <v>53227812</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>15188</v>
+        <v>15199</v>
       </c>
       <c r="D520" t="n">
-        <v>22311839</v>
+        <v>22328339</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>12871</v>
+        <v>12885</v>
       </c>
       <c r="D522" t="n">
-        <v>18656191</v>
+        <v>18677191</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25486,10 +25486,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D524" t="n">
-        <v>459545</v>
+        <v>461045</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>65739</v>
+        <v>65859</v>
       </c>
       <c r="D527" t="n">
-        <v>88354910</v>
+        <v>88516866</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D530" t="n">
-        <v>187707</v>
+        <v>189207</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>23195</v>
+        <v>23227</v>
       </c>
       <c r="D531" t="n">
-        <v>34228162</v>
+        <v>34274997</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25918,10 +25918,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>23968</v>
+        <v>24001</v>
       </c>
       <c r="D533" t="n">
-        <v>35080822</v>
+        <v>35129631</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D536" t="n">
-        <v>1208969</v>
+        <v>1210469</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>54730</v>
+        <v>54814</v>
       </c>
       <c r="D537" t="n">
-        <v>72596616</v>
+        <v>72706795</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26350,10 +26350,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>17701</v>
+        <v>17721</v>
       </c>
       <c r="D542" t="n">
-        <v>26011079</v>
+        <v>26038840</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>18231</v>
+        <v>18260</v>
       </c>
       <c r="D544" t="n">
-        <v>26501185</v>
+        <v>26541996</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D546" t="n">
-        <v>871253</v>
+        <v>877253</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>41325</v>
+        <v>41400</v>
       </c>
       <c r="D547" t="n">
-        <v>54886829</v>
+        <v>54982593</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26782,10 +26782,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>14154</v>
+        <v>14169</v>
       </c>
       <c r="D551" t="n">
-        <v>20875259</v>
+        <v>20897329</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>14321</v>
+        <v>14339</v>
       </c>
       <c r="D553" t="n">
-        <v>20799998</v>
+        <v>20826398</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26926,10 +26926,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D554" t="n">
-        <v>243979</v>
+        <v>245479</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -27022,10 +27022,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>41142</v>
+        <v>41192</v>
       </c>
       <c r="D556" t="n">
-        <v>53341524</v>
+        <v>53406921</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -27214,10 +27214,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>16130</v>
+        <v>16147</v>
       </c>
       <c r="D560" t="n">
-        <v>23668141</v>
+        <v>23692324</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>12936</v>
+        <v>12950</v>
       </c>
       <c r="D562" t="n">
-        <v>18709823</v>
+        <v>18730143</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27502,10 +27502,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>43635</v>
+        <v>43687</v>
       </c>
       <c r="D566" t="n">
-        <v>58269634</v>
+        <v>58340355</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>13859</v>
+        <v>13868</v>
       </c>
       <c r="D572" t="n">
-        <v>20328132</v>
+        <v>20341228</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27838,10 +27838,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>3688</v>
+        <v>3692</v>
       </c>
       <c r="D573" t="n">
-        <v>5319238</v>
+        <v>5325211</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D575" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -27982,10 +27982,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D576" t="n">
-        <v>563931</v>
+        <v>565431</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D578" t="n">
-        <v>524751</v>
+        <v>526251</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>17170</v>
+        <v>17200</v>
       </c>
       <c r="D579" t="n">
-        <v>22695489</v>
+        <v>22731008</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28318,10 +28318,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>7026</v>
+        <v>7037</v>
       </c>
       <c r="D583" t="n">
-        <v>10219841</v>
+        <v>10233981</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>4894</v>
+        <v>4902</v>
       </c>
       <c r="D585" t="n">
-        <v>7044436</v>
+        <v>7056436</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28510,10 +28510,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D587" t="n">
-        <v>371235</v>
+        <v>377235</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D588" t="n">
-        <v>370774</v>
+        <v>372274</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>15080</v>
+        <v>15222</v>
       </c>
       <c r="D590" t="n">
-        <v>21883231</v>
+        <v>22087426</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>1724</v>
+        <v>1732</v>
       </c>
       <c r="D591" t="n">
-        <v>2564530</v>
+        <v>2576530</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>21925</v>
+        <v>21943</v>
       </c>
       <c r="D596" t="n">
-        <v>27508947</v>
+        <v>27529793</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>8970</v>
+        <v>8972</v>
       </c>
       <c r="D601" t="n">
-        <v>13143197</v>
+        <v>13146197</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29470,10 +29470,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>14586</v>
+        <v>14599</v>
       </c>
       <c r="D607" t="n">
-        <v>18292551</v>
+        <v>18304147</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29614,10 +29614,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D610" t="n">
-        <v>132568</v>
+        <v>134068</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -29662,10 +29662,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>5774</v>
+        <v>5777</v>
       </c>
       <c r="D611" t="n">
-        <v>8480151</v>
+        <v>8484651</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="D613" t="n">
-        <v>3841087</v>
+        <v>3842587</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29854,10 +29854,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D615" t="n">
-        <v>259136</v>
+        <v>260636</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -29902,10 +29902,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>13715</v>
+        <v>13723</v>
       </c>
       <c r="D616" t="n">
-        <v>17329466</v>
+        <v>17339584</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -30094,10 +30094,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>5215</v>
+        <v>5217</v>
       </c>
       <c r="D620" t="n">
-        <v>7643720</v>
+        <v>7646720</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D624" t="n">
-        <v>361466</v>
+        <v>362966</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30334,10 +30334,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>7463</v>
+        <v>7471</v>
       </c>
       <c r="D625" t="n">
-        <v>9603466</v>
+        <v>9613266</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30574,10 +30574,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>2553</v>
+        <v>2556</v>
       </c>
       <c r="D630" t="n">
-        <v>3740833</v>
+        <v>3745106</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -30622,10 +30622,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D631" t="n">
-        <v>1219114</v>
+        <v>1220614</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30766,10 +30766,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>28697</v>
+        <v>28717</v>
       </c>
       <c r="D634" t="n">
-        <v>35348504</v>
+        <v>35373029</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -30958,10 +30958,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>10988</v>
+        <v>10997</v>
       </c>
       <c r="D638" t="n">
-        <v>16122930</v>
+        <v>16136276</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
@@ -31054,10 +31054,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>4798</v>
+        <v>4804</v>
       </c>
       <c r="D640" t="n">
-        <v>6962960</v>
+        <v>6971960</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31246,10 +31246,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>11261</v>
+        <v>11266</v>
       </c>
       <c r="D644" t="n">
-        <v>13654196</v>
+        <v>13660187</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31486,10 +31486,10 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>3633</v>
+        <v>3634</v>
       </c>
       <c r="D649" t="n">
-        <v>5318219</v>
+        <v>5319719</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D650" t="n">
-        <v>1586449</v>
+        <v>1586807</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D653" t="n">
-        <v>314790</v>
+        <v>316290</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>28154</v>
+        <v>28185</v>
       </c>
       <c r="D654" t="n">
-        <v>35013063</v>
+        <v>35050823</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>10706</v>
+        <v>10712</v>
       </c>
       <c r="D658" t="n">
-        <v>15730964</v>
+        <v>15739964</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>3059</v>
+        <v>3063</v>
       </c>
       <c r="D660" t="n">
-        <v>4410967</v>
+        <v>4416477</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32206,10 +32206,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>7451</v>
+        <v>7457</v>
       </c>
       <c r="D664" t="n">
-        <v>9453429</v>
+        <v>9461739</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -32254,10 +32254,10 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D665" t="n">
-        <v>77339</v>
+        <v>78839</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -32302,10 +32302,10 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="D666" t="n">
-        <v>3857207</v>
+        <v>3858707</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D668" t="n">
-        <v>1865321</v>
+        <v>1866821</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D669" t="n">
-        <v>356984</v>
+        <v>358484</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32542,10 +32542,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D671" t="n">
-        <v>228498</v>
+        <v>229998</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>3760</v>
+        <v>3764</v>
       </c>
       <c r="D672" t="n">
-        <v>4557056</v>
+        <v>4561982</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32926,10 +32926,10 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D679" t="n">
-        <v>167245</v>
+        <v>171745</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D680" t="n">
-        <v>193608</v>
+        <v>204108</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33022,10 +33022,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>9264</v>
+        <v>9270</v>
       </c>
       <c r="D681" t="n">
-        <v>11563082</v>
+        <v>11571313</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -33214,10 +33214,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="D685" t="n">
-        <v>5097517</v>
+        <v>5099017</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33262,10 +33262,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="D686" t="n">
-        <v>1071102</v>
+        <v>1075602</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>19124</v>
+        <v>19143</v>
       </c>
       <c r="D690" t="n">
-        <v>23414030</v>
+        <v>23438473</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33646,10 +33646,10 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>5692</v>
+        <v>5695</v>
       </c>
       <c r="D694" t="n">
-        <v>8314777</v>
+        <v>8318272</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="D696" t="n">
-        <v>3216247</v>
+        <v>3218514</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33982,10 +33982,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>73921</v>
+        <v>74015</v>
       </c>
       <c r="D701" t="n">
-        <v>93060407</v>
+        <v>93180958</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -34222,10 +34222,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>26403</v>
+        <v>26420</v>
       </c>
       <c r="D706" t="n">
-        <v>38770477</v>
+        <v>38795238</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -34366,10 +34366,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>13078</v>
+        <v>13089</v>
       </c>
       <c r="D709" t="n">
-        <v>18862946</v>
+        <v>18878269</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -34510,10 +34510,10 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="D712" t="n">
-        <v>2771629</v>
+        <v>2773129</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="D714" t="n">
-        <v>1642835</v>
+        <v>1647335</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34654,10 +34654,10 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>11070</v>
+        <v>11082</v>
       </c>
       <c r="D715" t="n">
-        <v>13543277</v>
+        <v>13557228</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -34798,10 +34798,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>4085</v>
+        <v>4087</v>
       </c>
       <c r="D718" t="n">
-        <v>5977345</v>
+        <v>5979155</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34894,10 +34894,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D720" t="n">
-        <v>2137000</v>
+        <v>2138500</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -35038,10 +35038,10 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>17473</v>
+        <v>17491</v>
       </c>
       <c r="D723" t="n">
-        <v>21554510</v>
+        <v>21580263</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -35086,10 +35086,10 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D724" t="n">
-        <v>21564</v>
+        <v>23064</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -35230,10 +35230,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>6816</v>
+        <v>6820</v>
       </c>
       <c r="D727" t="n">
-        <v>9962829</v>
+        <v>9968829</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -35566,10 +35566,10 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>11420</v>
+        <v>11442</v>
       </c>
       <c r="D734" t="n">
-        <v>14105222</v>
+        <v>14130032</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -35758,10 +35758,10 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>4222</v>
+        <v>4225</v>
       </c>
       <c r="D738" t="n">
-        <v>6190208</v>
+        <v>6193745</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -35854,10 +35854,10 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="D740" t="n">
-        <v>2309534</v>
+        <v>2312534</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -35950,10 +35950,10 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D742" t="n">
-        <v>423423</v>
+        <v>424923</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -35998,10 +35998,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>29373</v>
+        <v>29389</v>
       </c>
       <c r="D743" t="n">
-        <v>36513066</v>
+        <v>36532810</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -36238,10 +36238,10 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>12658</v>
+        <v>12673</v>
       </c>
       <c r="D748" t="n">
-        <v>18528274</v>
+        <v>18548762</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -36334,10 +36334,10 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>4194</v>
+        <v>4198</v>
       </c>
       <c r="D750" t="n">
-        <v>5991619</v>
+        <v>5997619</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -36478,10 +36478,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D753" t="n">
-        <v>947504</v>
+        <v>949004</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -36574,10 +36574,10 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>12236</v>
+        <v>12248</v>
       </c>
       <c r="D755" t="n">
-        <v>15153998</v>
+        <v>15169836</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -36718,10 +36718,10 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>4641</v>
+        <v>4644</v>
       </c>
       <c r="D758" t="n">
-        <v>6783507</v>
+        <v>6788007</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -36766,10 +36766,10 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="D759" t="n">
-        <v>1640394</v>
+        <v>1641986</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -36814,10 +36814,10 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D760" t="n">
-        <v>258249</v>
+        <v>258588</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -36910,10 +36910,10 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>6666</v>
+        <v>6677</v>
       </c>
       <c r="D762" t="n">
-        <v>7836335</v>
+        <v>7850300</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -37102,10 +37102,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="D766" t="n">
-        <v>2468229</v>
+        <v>2469373</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -37150,10 +37150,10 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D767" t="n">
-        <v>1448844</v>
+        <v>1451844</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -37294,10 +37294,10 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>16675</v>
+        <v>16690</v>
       </c>
       <c r="D770" t="n">
-        <v>20232129</v>
+        <v>20248402</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -37534,10 +37534,10 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>5514</v>
+        <v>5518</v>
       </c>
       <c r="D775" t="n">
-        <v>8080092</v>
+        <v>8085376</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -37630,10 +37630,10 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>3379</v>
+        <v>3385</v>
       </c>
       <c r="D777" t="n">
-        <v>4935512</v>
+        <v>4944277</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -37726,10 +37726,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D779" t="n">
-        <v>525428</v>
+        <v>526112</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -37774,10 +37774,10 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D780" t="n">
-        <v>388348</v>
+        <v>389848</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -37822,10 +37822,10 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>11302</v>
+        <v>11313</v>
       </c>
       <c r="D781" t="n">
-        <v>14323517</v>
+        <v>14336352</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -37966,10 +37966,10 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D784" t="n">
-        <v>125697</v>
+        <v>126169</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -38014,10 +38014,10 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="D785" t="n">
-        <v>5763983</v>
+        <v>5765483</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -38110,10 +38110,10 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="D787" t="n">
-        <v>1803418</v>
+        <v>1807912</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -38254,10 +38254,10 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D790" t="n">
-        <v>315881</v>
+        <v>318881</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -38302,10 +38302,10 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>31899</v>
+        <v>31931</v>
       </c>
       <c r="D791" t="n">
-        <v>39354072</v>
+        <v>39392805</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -38494,10 +38494,10 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>13129</v>
+        <v>13146</v>
       </c>
       <c r="D795" t="n">
-        <v>19212713</v>
+        <v>19236088</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -38590,10 +38590,10 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>6010</v>
+        <v>6013</v>
       </c>
       <c r="D797" t="n">
-        <v>8684730</v>
+        <v>8689230</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -38734,10 +38734,10 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D800" t="n">
-        <v>903665</v>
+        <v>906273</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -38782,10 +38782,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>7552</v>
+        <v>7562</v>
       </c>
       <c r="D801" t="n">
-        <v>9341190</v>
+        <v>9353393</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -39070,10 +39070,10 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>2667</v>
+        <v>2671</v>
       </c>
       <c r="D807" t="n">
-        <v>3889984</v>
+        <v>3895984</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -39118,10 +39118,10 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="D808" t="n">
-        <v>1628438</v>
+        <v>1632938</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -39262,10 +39262,10 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>58336</v>
+        <v>58439</v>
       </c>
       <c r="D811" t="n">
-        <v>72906458</v>
+        <v>73046480</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -39502,10 +39502,10 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>21025</v>
+        <v>21057</v>
       </c>
       <c r="D816" t="n">
-        <v>30766210</v>
+        <v>30808798</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -39646,10 +39646,10 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>12519</v>
+        <v>12534</v>
       </c>
       <c r="D819" t="n">
-        <v>18071434</v>
+        <v>18093534</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -39886,10 +39886,10 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="D824" t="n">
-        <v>1822685</v>
+        <v>1825685</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -39934,10 +39934,10 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>11064</v>
+        <v>11071</v>
       </c>
       <c r="D825" t="n">
-        <v>13797010</v>
+        <v>13805772</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -40078,10 +40078,10 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D828" t="n">
-        <v>49159</v>
+        <v>50659</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -40126,10 +40126,10 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>3890</v>
+        <v>3893</v>
       </c>
       <c r="D829" t="n">
-        <v>5657072</v>
+        <v>5660522</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -40222,10 +40222,10 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="D831" t="n">
-        <v>1759703</v>
+        <v>1763049</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -40414,10 +40414,10 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D835" t="n">
-        <v>362910</v>
+        <v>365910</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -40462,10 +40462,10 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>58121</v>
+        <v>58185</v>
       </c>
       <c r="D836" t="n">
-        <v>71874040</v>
+        <v>71950213</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -40750,10 +40750,10 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>22233</v>
+        <v>22249</v>
       </c>
       <c r="D842" t="n">
-        <v>32625432</v>
+        <v>32648002</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -40846,10 +40846,10 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>14233</v>
+        <v>14243</v>
       </c>
       <c r="D844" t="n">
-        <v>20606650</v>
+        <v>20619779</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -40942,10 +40942,10 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D846" t="n">
-        <v>1266601</v>
+        <v>1268101</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -40990,10 +40990,10 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>1220</v>
+        <v>1227</v>
       </c>
       <c r="D847" t="n">
-        <v>1698286</v>
+        <v>1708786</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -41086,10 +41086,10 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>7687</v>
+        <v>7701</v>
       </c>
       <c r="D849" t="n">
-        <v>9434158</v>
+        <v>9449379</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -41182,10 +41182,10 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="D851" t="n">
-        <v>3726198</v>
+        <v>3727698</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -41374,10 +41374,10 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>3568</v>
+        <v>3570</v>
       </c>
       <c r="D855" t="n">
-        <v>4613349</v>
+        <v>4616349</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -41518,10 +41518,10 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D858" t="n">
-        <v>1702582</v>
+        <v>1704082</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -41710,10 +41710,10 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D862" t="n">
-        <v>143655</v>
+        <v>145155</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -41758,10 +41758,10 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>22207</v>
+        <v>22236</v>
       </c>
       <c r="D863" t="n">
-        <v>27823719</v>
+        <v>27860393</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -41950,10 +41950,10 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>7705</v>
+        <v>7714</v>
       </c>
       <c r="D867" t="n">
-        <v>11246256</v>
+        <v>11259756</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -42046,10 +42046,10 @@
         </is>
       </c>
       <c r="C869" t="n">
-        <v>4594</v>
+        <v>4600</v>
       </c>
       <c r="D869" t="n">
-        <v>6642608</v>
+        <v>6651421</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -42142,10 +42142,10 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D871" t="n">
-        <v>534562</v>
+        <v>536062</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -42190,10 +42190,10 @@
         </is>
       </c>
       <c r="C872" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D872" t="n">
-        <v>590794</v>
+        <v>593794</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -42286,10 +42286,10 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>14419</v>
+        <v>14434</v>
       </c>
       <c r="D874" t="n">
-        <v>17388391</v>
+        <v>17406996</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -42478,10 +42478,10 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>5220</v>
+        <v>5225</v>
       </c>
       <c r="D878" t="n">
-        <v>7613000</v>
+        <v>7620500</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -42526,10 +42526,10 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D879" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -42574,10 +42574,10 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="D880" t="n">
-        <v>3376192</v>
+        <v>3377003</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -42718,10 +42718,10 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D883" t="n">
-        <v>400885</v>
+        <v>406885</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -42766,10 +42766,10 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>9714</v>
+        <v>9727</v>
       </c>
       <c r="D884" t="n">
-        <v>11939254</v>
+        <v>11955508</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -42910,10 +42910,10 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>3335</v>
+        <v>3338</v>
       </c>
       <c r="D887" t="n">
-        <v>4886238</v>
+        <v>4890738</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -42958,10 +42958,10 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="D888" t="n">
-        <v>2140219</v>
+        <v>2143219</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -43006,10 +43006,10 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D889" t="n">
-        <v>171625</v>
+        <v>173125</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -43102,10 +43102,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>44299</v>
+        <v>44330</v>
       </c>
       <c r="D891" t="n">
-        <v>55668834</v>
+        <v>55699957</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -43342,10 +43342,10 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>20958</v>
+        <v>20974</v>
       </c>
       <c r="D896" t="n">
-        <v>30733862</v>
+        <v>30755477</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -43438,10 +43438,10 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>5848</v>
+        <v>5858</v>
       </c>
       <c r="D898" t="n">
-        <v>8425977</v>
+        <v>8440169</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -43582,10 +43582,10 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D901" t="n">
-        <v>1283884</v>
+        <v>1286884</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -43630,10 +43630,10 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>21087</v>
+        <v>21099</v>
       </c>
       <c r="D902" t="n">
-        <v>26247164</v>
+        <v>26264723</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -43774,10 +43774,10 @@
         </is>
       </c>
       <c r="C905" t="n">
-        <v>9738</v>
+        <v>9742</v>
       </c>
       <c r="D905" t="n">
-        <v>14269869</v>
+        <v>14275869</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -44062,10 +44062,10 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>6988</v>
+        <v>7000</v>
       </c>
       <c r="D911" t="n">
-        <v>8789125</v>
+        <v>8802191</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -44302,10 +44302,10 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="D916" t="n">
-        <v>4425520</v>
+        <v>4427020</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -44350,10 +44350,10 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D917" t="n">
-        <v>909949</v>
+        <v>910949</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -44494,10 +44494,10 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>12959</v>
+        <v>12962</v>
       </c>
       <c r="D920" t="n">
-        <v>16158035</v>
+        <v>16161434</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -44686,10 +44686,10 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>5229</v>
+        <v>5231</v>
       </c>
       <c r="D924" t="n">
-        <v>7641180</v>
+        <v>7644180</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -44974,10 +44974,10 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D930" t="n">
-        <v>355184</v>
+        <v>356684</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -45022,10 +45022,10 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>19215</v>
+        <v>19228</v>
       </c>
       <c r="D931" t="n">
-        <v>24014734</v>
+        <v>24028881</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -45214,10 +45214,10 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>10053</v>
+        <v>10057</v>
       </c>
       <c r="D935" t="n">
-        <v>14695576</v>
+        <v>14701576</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -45310,10 +45310,10 @@
         </is>
       </c>
       <c r="C937" t="n">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="D937" t="n">
-        <v>2958819</v>
+        <v>2960319</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -45358,10 +45358,10 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D938" t="n">
-        <v>486647</v>
+        <v>488147</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -45454,10 +45454,10 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>8578</v>
+        <v>8583</v>
       </c>
       <c r="D940" t="n">
-        <v>10706202</v>
+        <v>10712407</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -45694,10 +45694,10 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="D945" t="n">
-        <v>4650141</v>
+        <v>4651641</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -45886,10 +45886,10 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D949" t="n">
-        <v>296240</v>
+        <v>297740</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -45934,10 +45934,10 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>66711</v>
+        <v>66781</v>
       </c>
       <c r="D950" t="n">
-        <v>85658845</v>
+        <v>85749757</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -46270,10 +46270,10 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>25450</v>
+        <v>25469</v>
       </c>
       <c r="D957" t="n">
-        <v>37304208</v>
+        <v>37329817</v>
       </c>
       <c r="E957" t="inlineStr">
         <is>
@@ -46366,10 +46366,10 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>17487</v>
+        <v>17513</v>
       </c>
       <c r="D959" t="n">
-        <v>25359620</v>
+        <v>25393228</v>
       </c>
       <c r="E959" t="inlineStr">
         <is>
@@ -46462,10 +46462,10 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D961" t="n">
-        <v>695835</v>
+        <v>697335</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
@@ -46510,10 +46510,10 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D962" t="n">
-        <v>1229221</v>
+        <v>1232221</v>
       </c>
       <c r="E962" t="inlineStr">
         <is>
@@ -46558,10 +46558,10 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>83251</v>
+        <v>83347</v>
       </c>
       <c r="D963" t="n">
-        <v>104559343</v>
+        <v>104669917</v>
       </c>
       <c r="E963" t="inlineStr">
         <is>
@@ -46606,10 +46606,10 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D964" t="n">
-        <v>72693</v>
+        <v>74193</v>
       </c>
       <c r="E964" t="inlineStr">
         <is>
@@ -46894,10 +46894,10 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>33665</v>
+        <v>33691</v>
       </c>
       <c r="D970" t="n">
-        <v>49387204</v>
+        <v>49421902</v>
       </c>
       <c r="E970" t="inlineStr">
         <is>
@@ -47038,10 +47038,10 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>25039</v>
+        <v>25070</v>
       </c>
       <c r="D973" t="n">
-        <v>36316640</v>
+        <v>36359261</v>
       </c>
       <c r="E973" t="inlineStr">
         <is>
@@ -47086,10 +47086,10 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D974" t="n">
-        <v>864573</v>
+        <v>866073</v>
       </c>
       <c r="E974" t="inlineStr">
         <is>
@@ -47182,10 +47182,10 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>1968</v>
+        <v>1974</v>
       </c>
       <c r="D976" t="n">
-        <v>2771345</v>
+        <v>2780345</v>
       </c>
       <c r="E976" t="inlineStr">
         <is>
@@ -47230,10 +47230,10 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>10688</v>
+        <v>10697</v>
       </c>
       <c r="D977" t="n">
-        <v>13948487</v>
+        <v>13959740</v>
       </c>
       <c r="E977" t="inlineStr">
         <is>
@@ -47422,10 +47422,10 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3444</v>
+        <v>3448</v>
       </c>
       <c r="D981" t="n">
-        <v>5031850</v>
+        <v>5037276</v>
       </c>
       <c r="E981" t="inlineStr">
         <is>
@@ -47470,10 +47470,10 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D982" t="n">
-        <v>1601869</v>
+        <v>1603369</v>
       </c>
       <c r="E982" t="inlineStr">
         <is>
@@ -47710,10 +47710,10 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>55703</v>
+        <v>55746</v>
       </c>
       <c r="D987" t="n">
-        <v>69740934</v>
+        <v>69792454</v>
       </c>
       <c r="E987" t="inlineStr">
         <is>
@@ -47950,10 +47950,10 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>18454</v>
+        <v>18462</v>
       </c>
       <c r="D992" t="n">
-        <v>27026239</v>
+        <v>27037283</v>
       </c>
       <c r="E992" t="inlineStr">
         <is>
@@ -48046,10 +48046,10 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>12548</v>
+        <v>12563</v>
       </c>
       <c r="D994" t="n">
-        <v>18145757</v>
+        <v>18168257</v>
       </c>
       <c r="E994" t="inlineStr">
         <is>
@@ -48094,10 +48094,10 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D995" t="n">
-        <v>676473</v>
+        <v>677973</v>
       </c>
       <c r="E995" t="inlineStr">
         <is>
@@ -48190,10 +48190,10 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D997" t="n">
-        <v>1020924</v>
+        <v>1023924</v>
       </c>
       <c r="E997" t="inlineStr">
         <is>
@@ -48238,10 +48238,10 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>28030</v>
+        <v>28079</v>
       </c>
       <c r="D998" t="n">
-        <v>34882006</v>
+        <v>34942326</v>
       </c>
       <c r="E998" t="inlineStr">
         <is>
@@ -48478,10 +48478,10 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>10450</v>
+        <v>10453</v>
       </c>
       <c r="D1003" t="n">
-        <v>15305602</v>
+        <v>15309495</v>
       </c>
       <c r="E1003" t="inlineStr">
         <is>
@@ -48574,10 +48574,10 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>6185</v>
+        <v>6192</v>
       </c>
       <c r="D1005" t="n">
-        <v>8967825</v>
+        <v>8978105</v>
       </c>
       <c r="E1005" t="inlineStr">
         <is>
@@ -48670,10 +48670,10 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D1007" t="n">
-        <v>710129</v>
+        <v>713129</v>
       </c>
       <c r="E1007" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16302</v>
+        <v>16315</v>
       </c>
       <c r="D2" t="n">
-        <v>20495474</v>
+        <v>20511856</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6228</v>
+        <v>6233</v>
       </c>
       <c r="D6" t="n">
-        <v>9109422</v>
+        <v>9116922</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D11" t="n">
-        <v>507708</v>
+        <v>513708</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10948</v>
+        <v>10958</v>
       </c>
       <c r="D12" t="n">
-        <v>13822841</v>
+        <v>13834036</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="D18" t="n">
-        <v>2086220</v>
+        <v>2089220</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D19" t="n">
-        <v>536674</v>
+        <v>545821</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14189</v>
+        <v>14207</v>
       </c>
       <c r="D21" t="n">
-        <v>17414176</v>
+        <v>17429769</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1486,10 +1486,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" t="n">
-        <v>50924</v>
+        <v>52424</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4933</v>
+        <v>4934</v>
       </c>
       <c r="D25" t="n">
-        <v>7213928</v>
+        <v>7215428</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="D27" t="n">
-        <v>2455899</v>
+        <v>2457399</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D28" t="n">
-        <v>356659</v>
+        <v>357672</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D30" t="n">
-        <v>466403</v>
+        <v>467903</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6516</v>
+        <v>6542</v>
       </c>
       <c r="D31" t="n">
-        <v>8653069</v>
+        <v>8689865</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D34" t="n">
-        <v>2314120</v>
+        <v>2315620</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D39" t="n">
-        <v>179114</v>
+        <v>180614</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21774</v>
+        <v>21797</v>
       </c>
       <c r="D40" t="n">
-        <v>26809521</v>
+        <v>26838971</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7780</v>
+        <v>7789</v>
       </c>
       <c r="D46" t="n">
-        <v>11428362</v>
+        <v>11440960</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3825</v>
+        <v>3827</v>
       </c>
       <c r="D48" t="n">
-        <v>5536155</v>
+        <v>5539155</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D51" t="n">
-        <v>819853</v>
+        <v>821066</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8116</v>
+        <v>8121</v>
       </c>
       <c r="D52" t="n">
-        <v>10360382</v>
+        <v>10367461</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="D56" t="n">
-        <v>4037487</v>
+        <v>4038987</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D59" t="n">
-        <v>271001</v>
+        <v>272501</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35999</v>
+        <v>36031</v>
       </c>
       <c r="D61" t="n">
-        <v>46352325</v>
+        <v>46389451</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>13112</v>
+        <v>13123</v>
       </c>
       <c r="D66" t="n">
-        <v>19232057</v>
+        <v>19246335</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5140</v>
+        <v>5144</v>
       </c>
       <c r="D68" t="n">
-        <v>7433967</v>
+        <v>7439967</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D72" t="n">
-        <v>478176</v>
+        <v>481176</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>46073</v>
+        <v>46108</v>
       </c>
       <c r="D74" t="n">
-        <v>58922333</v>
+        <v>58967343</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4078,10 +4078,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>18078</v>
+        <v>18087</v>
       </c>
       <c r="D78" t="n">
-        <v>26486682</v>
+        <v>26499739</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>9299</v>
+        <v>9312</v>
       </c>
       <c r="D80" t="n">
-        <v>13424741</v>
+        <v>13444049</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D82" t="n">
-        <v>479973</v>
+        <v>481473</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D83" t="n">
-        <v>17036</v>
+        <v>18536</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D84" t="n">
-        <v>1111180</v>
+        <v>1114180</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>24818</v>
+        <v>24851</v>
       </c>
       <c r="D85" t="n">
-        <v>31292882</v>
+        <v>31335547</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>8662</v>
+        <v>8668</v>
       </c>
       <c r="D89" t="n">
-        <v>12715871</v>
+        <v>12723966</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4881</v>
+        <v>4884</v>
       </c>
       <c r="D91" t="n">
-        <v>7055727</v>
+        <v>7060227</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D92" t="n">
-        <v>508622</v>
+        <v>510122</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>21875</v>
+        <v>21901</v>
       </c>
       <c r="D94" t="n">
-        <v>27463967</v>
+        <v>27494630</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -5038,10 +5038,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>9138</v>
+        <v>9141</v>
       </c>
       <c r="D98" t="n">
-        <v>13376705</v>
+        <v>13381205</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3307</v>
+        <v>3310</v>
       </c>
       <c r="D100" t="n">
-        <v>4737246</v>
+        <v>4741746</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D103" t="n">
-        <v>339543</v>
+        <v>340301</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D104" t="n">
-        <v>622219</v>
+        <v>623094</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>81228</v>
+        <v>81363</v>
       </c>
       <c r="D105" t="n">
-        <v>104114893</v>
+        <v>104286444</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D110" t="n">
-        <v>219780</v>
+        <v>221280</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>30527</v>
+        <v>30547</v>
       </c>
       <c r="D112" t="n">
-        <v>44796616</v>
+        <v>44826616</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>20736</v>
+        <v>20762</v>
       </c>
       <c r="D114" t="n">
-        <v>29923043</v>
+        <v>29959694</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1873</v>
+        <v>1879</v>
       </c>
       <c r="D121" t="n">
-        <v>2635258</v>
+        <v>2642883</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>27610</v>
+        <v>27630</v>
       </c>
       <c r="D122" t="n">
-        <v>36437788</v>
+        <v>36466789</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D123" t="n">
-        <v>116327</v>
+        <v>117827</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>9848</v>
+        <v>9853</v>
       </c>
       <c r="D126" t="n">
-        <v>14442479</v>
+        <v>14449979</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3255</v>
+        <v>3259</v>
       </c>
       <c r="D128" t="n">
-        <v>4733256</v>
+        <v>4739256</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>15677</v>
+        <v>15692</v>
       </c>
       <c r="D132" t="n">
-        <v>19517155</v>
+        <v>19532437</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>7740</v>
+        <v>7745</v>
       </c>
       <c r="D135" t="n">
-        <v>11327564</v>
+        <v>11335064</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>13487</v>
+        <v>13497</v>
       </c>
       <c r="D142" t="n">
-        <v>16854046</v>
+        <v>16867623</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>6232</v>
+        <v>6235</v>
       </c>
       <c r="D146" t="n">
-        <v>9130255</v>
+        <v>9134755</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7438,10 +7438,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="D148" t="n">
-        <v>2869999</v>
+        <v>2871499</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D151" t="n">
-        <v>501908</v>
+        <v>504908</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>5963</v>
+        <v>5971</v>
       </c>
       <c r="D152" t="n">
-        <v>7293358</v>
+        <v>7304762</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="D155" t="n">
-        <v>3016857</v>
+        <v>3018357</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D156" t="n">
-        <v>969827</v>
+        <v>971327</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>7420</v>
+        <v>7422</v>
       </c>
       <c r="D160" t="n">
-        <v>9203611</v>
+        <v>9205411</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>5597</v>
+        <v>5602</v>
       </c>
       <c r="D168" t="n">
-        <v>7046975</v>
+        <v>7053087</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8638,10 +8638,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="D173" t="n">
-        <v>2958541</v>
+        <v>2960041</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>15915</v>
+        <v>15923</v>
       </c>
       <c r="D178" t="n">
-        <v>20004035</v>
+        <v>20012096</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>6377</v>
+        <v>6380</v>
       </c>
       <c r="D183" t="n">
-        <v>9314794</v>
+        <v>9319294</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2220</v>
+        <v>2224</v>
       </c>
       <c r="D184" t="n">
-        <v>3186491</v>
+        <v>3192491</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3052</v>
+        <v>3058</v>
       </c>
       <c r="D188" t="n">
-        <v>3835567</v>
+        <v>3842191</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D190" t="n">
-        <v>2151030</v>
+        <v>2152242</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>9169</v>
+        <v>9189</v>
       </c>
       <c r="D196" t="n">
-        <v>11450053</v>
+        <v>11475143</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>3419</v>
+        <v>3426</v>
       </c>
       <c r="D200" t="n">
-        <v>5023076</v>
+        <v>5033576</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="D201" t="n">
-        <v>2315680</v>
+        <v>2321680</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>17203</v>
+        <v>17216</v>
       </c>
       <c r="D205" t="n">
-        <v>21491431</v>
+        <v>21508086</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>7673</v>
+        <v>7675</v>
       </c>
       <c r="D209" t="n">
-        <v>11268301</v>
+        <v>11271301</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D210" t="n">
-        <v>1773154</v>
+        <v>1774654</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D211" t="n">
-        <v>389366</v>
+        <v>394905</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>26059</v>
+        <v>26079</v>
       </c>
       <c r="D213" t="n">
-        <v>32878423</v>
+        <v>32901891</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10750,10 +10750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>10477</v>
+        <v>10482</v>
       </c>
       <c r="D217" t="n">
-        <v>15301852</v>
+        <v>15309352</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="D219" t="n">
-        <v>3792522</v>
+        <v>3795522</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D222" t="n">
-        <v>837266</v>
+        <v>843266</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>28391</v>
+        <v>28411</v>
       </c>
       <c r="D223" t="n">
-        <v>35838945</v>
+        <v>35866103</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D227" t="n">
-        <v>298754</v>
+        <v>300254</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>14707</v>
+        <v>14717</v>
       </c>
       <c r="D228" t="n">
-        <v>21581871</v>
+        <v>21595543</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>2645</v>
+        <v>2648</v>
       </c>
       <c r="D230" t="n">
-        <v>3797175</v>
+        <v>3801675</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D233" t="n">
-        <v>1013726</v>
+        <v>1015226</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>24211</v>
+        <v>24225</v>
       </c>
       <c r="D234" t="n">
-        <v>30549664</v>
+        <v>30563846</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>11160</v>
+        <v>11162</v>
       </c>
       <c r="D240" t="n">
-        <v>16360749</v>
+        <v>16363749</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="D242" t="n">
-        <v>3576347</v>
+        <v>3577847</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D244" t="n">
-        <v>583843</v>
+        <v>586843</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>7853</v>
+        <v>7855</v>
       </c>
       <c r="D246" t="n">
-        <v>9827086</v>
+        <v>9828995</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>2694</v>
+        <v>2697</v>
       </c>
       <c r="D250" t="n">
-        <v>3954150</v>
+        <v>3958650</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12478,10 +12478,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D253" t="n">
-        <v>1451115</v>
+        <v>1452615</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -12526,10 +12526,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D254" t="n">
-        <v>279550</v>
+        <v>281050</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>9782</v>
+        <v>9786</v>
       </c>
       <c r="D256" t="n">
-        <v>12477677</v>
+        <v>12482307</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12814,10 +12814,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>4184</v>
+        <v>4189</v>
       </c>
       <c r="D260" t="n">
-        <v>6144028</v>
+        <v>6149170</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>2163</v>
+        <v>2167</v>
       </c>
       <c r="D262" t="n">
-        <v>3131169</v>
+        <v>3137169</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>5523</v>
+        <v>5529</v>
       </c>
       <c r="D265" t="n">
-        <v>6849184</v>
+        <v>6855978</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D270" t="n">
-        <v>1028372</v>
+        <v>1029872</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13342,10 +13342,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D271" t="n">
-        <v>220078</v>
+        <v>221578</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13486,10 +13486,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>19013</v>
+        <v>19028</v>
       </c>
       <c r="D274" t="n">
-        <v>24026477</v>
+        <v>24046316</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -13678,10 +13678,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>7911</v>
+        <v>7917</v>
       </c>
       <c r="D278" t="n">
-        <v>11599205</v>
+        <v>11608205</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13774,10 +13774,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="D280" t="n">
-        <v>3576559</v>
+        <v>3578059</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D281" t="n">
-        <v>709598</v>
+        <v>711098</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D283" t="n">
-        <v>647923</v>
+        <v>649423</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>16543</v>
+        <v>16565</v>
       </c>
       <c r="D285" t="n">
-        <v>20497010</v>
+        <v>20523038</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14206,10 +14206,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>7170</v>
+        <v>7173</v>
       </c>
       <c r="D289" t="n">
-        <v>10517497</v>
+        <v>10521112</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>3321</v>
+        <v>3325</v>
       </c>
       <c r="D290" t="n">
-        <v>4813743</v>
+        <v>4819743</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D292" t="n">
-        <v>218202</v>
+        <v>219702</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D293" t="n">
-        <v>465943</v>
+        <v>467443</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>9316</v>
+        <v>9324</v>
       </c>
       <c r="D294" t="n">
-        <v>11707794</v>
+        <v>11719794</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D299" t="n">
-        <v>1810099</v>
+        <v>1811009</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>9174</v>
+        <v>9182</v>
       </c>
       <c r="D304" t="n">
-        <v>11980130</v>
+        <v>11991326</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -15118,10 +15118,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>3727</v>
+        <v>3732</v>
       </c>
       <c r="D308" t="n">
-        <v>5448349</v>
+        <v>5455849</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="D309" t="n">
-        <v>3413568</v>
+        <v>3416568</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>11030</v>
+        <v>11040</v>
       </c>
       <c r="D312" t="n">
-        <v>14482623</v>
+        <v>14497623</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>3771</v>
+        <v>3773</v>
       </c>
       <c r="D316" t="n">
-        <v>5528241</v>
+        <v>5531241</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2693</v>
+        <v>2695</v>
       </c>
       <c r="D318" t="n">
-        <v>3904638</v>
+        <v>3907638</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D320" t="n">
-        <v>230286</v>
+        <v>231786</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>6790</v>
+        <v>6794</v>
       </c>
       <c r="D321" t="n">
-        <v>8395064</v>
+        <v>8399105</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D322" t="n">
-        <v>11543</v>
+        <v>13043</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -16174,10 +16174,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D330" t="n">
-        <v>173343</v>
+        <v>184273</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>7502</v>
+        <v>7507</v>
       </c>
       <c r="D331" t="n">
-        <v>9392475</v>
+        <v>9397641</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="D336" t="n">
-        <v>4565815</v>
+        <v>4567315</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>31878</v>
+        <v>31919</v>
       </c>
       <c r="D340" t="n">
-        <v>40054205</v>
+        <v>40106450</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>16503</v>
+        <v>16513</v>
       </c>
       <c r="D346" t="n">
-        <v>24132943</v>
+        <v>24147943</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>8018</v>
+        <v>8025</v>
       </c>
       <c r="D349" t="n">
-        <v>11548310</v>
+        <v>11557034</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="D351" t="n">
-        <v>1096390</v>
+        <v>1105390</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>3880</v>
+        <v>3885</v>
       </c>
       <c r="D352" t="n">
-        <v>4836125</v>
+        <v>4841282</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D355" t="n">
-        <v>2200157</v>
+        <v>2201657</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D359" t="n">
-        <v>117095</v>
+        <v>118595</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>19323</v>
+        <v>19337</v>
       </c>
       <c r="D360" t="n">
-        <v>24095409</v>
+        <v>24112996</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>9882</v>
+        <v>9890</v>
       </c>
       <c r="D364" t="n">
-        <v>14488893</v>
+        <v>14499735</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>4728</v>
+        <v>4732</v>
       </c>
       <c r="D366" t="n">
-        <v>6838802</v>
+        <v>6844355</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D367" t="n">
-        <v>862969</v>
+        <v>868460</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>13879</v>
+        <v>13889</v>
       </c>
       <c r="D369" t="n">
-        <v>17366820</v>
+        <v>17379286</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>6432</v>
+        <v>6434</v>
       </c>
       <c r="D373" t="n">
-        <v>9416958</v>
+        <v>9419958</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>17947</v>
+        <v>17958</v>
       </c>
       <c r="D378" t="n">
-        <v>22384209</v>
+        <v>22399090</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>7132</v>
+        <v>7135</v>
       </c>
       <c r="D382" t="n">
-        <v>10484079</v>
+        <v>10487715</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>2831</v>
+        <v>2834</v>
       </c>
       <c r="D384" t="n">
-        <v>4118692</v>
+        <v>4123192</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18958,10 +18958,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>4076</v>
+        <v>4085</v>
       </c>
       <c r="D388" t="n">
-        <v>5112486</v>
+        <v>5125846</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>22219</v>
+        <v>22238</v>
       </c>
       <c r="D395" t="n">
-        <v>27568492</v>
+        <v>27587902</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>9347</v>
+        <v>9353</v>
       </c>
       <c r="D398" t="n">
-        <v>13759917</v>
+        <v>13768917</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19534,10 +19534,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>6192</v>
+        <v>6201</v>
       </c>
       <c r="D400" t="n">
-        <v>9007456</v>
+        <v>9020736</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D401" t="n">
-        <v>237254</v>
+        <v>241754</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>11112</v>
+        <v>11122</v>
       </c>
       <c r="D403" t="n">
-        <v>13702248</v>
+        <v>13714332</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19918,10 +19918,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>5323</v>
+        <v>5324</v>
       </c>
       <c r="D408" t="n">
-        <v>7780203</v>
+        <v>7781703</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -20014,10 +20014,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="D410" t="n">
-        <v>2671989</v>
+        <v>2672364</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>31902</v>
+        <v>31993</v>
       </c>
       <c r="D413" t="n">
-        <v>43227975</v>
+        <v>43352309</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>7765</v>
+        <v>7780</v>
       </c>
       <c r="D417" t="n">
-        <v>11417070</v>
+        <v>11439570</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>7058</v>
+        <v>7073</v>
       </c>
       <c r="D419" t="n">
-        <v>10231955</v>
+        <v>10253817</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20542,10 +20542,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D421" t="n">
-        <v>731905</v>
+        <v>734905</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D422" t="n">
-        <v>692443</v>
+        <v>693943</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>8676</v>
+        <v>8747</v>
       </c>
       <c r="D423" t="n">
-        <v>12035029</v>
+        <v>12135796</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2185</v>
+        <v>2198</v>
       </c>
       <c r="D425" t="n">
-        <v>3219470</v>
+        <v>3238820</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20830,10 +20830,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>2939</v>
+        <v>2966</v>
       </c>
       <c r="D427" t="n">
-        <v>4292112</v>
+        <v>4331812</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D430" t="n">
-        <v>233586</v>
+        <v>244086</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21022,10 +21022,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>10996</v>
+        <v>11007</v>
       </c>
       <c r="D431" t="n">
-        <v>13576104</v>
+        <v>13592027</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D433" t="n">
-        <v>110334</v>
+        <v>111740</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -21262,10 +21262,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1859</v>
+        <v>1865</v>
       </c>
       <c r="D436" t="n">
-        <v>2666877</v>
+        <v>2675877</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>62716</v>
+        <v>62791</v>
       </c>
       <c r="D439" t="n">
-        <v>77744271</v>
+        <v>77833000</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>24892</v>
+        <v>24905</v>
       </c>
       <c r="D443" t="n">
-        <v>36489068</v>
+        <v>36507654</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>12894</v>
+        <v>12904</v>
       </c>
       <c r="D445" t="n">
-        <v>18697468</v>
+        <v>18712468</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21886,10 +21886,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="D449" t="n">
-        <v>1454169</v>
+        <v>1458294</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -21982,10 +21982,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>18847</v>
+        <v>18868</v>
       </c>
       <c r="D451" t="n">
-        <v>23823976</v>
+        <v>23851008</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>7694</v>
+        <v>7696</v>
       </c>
       <c r="D455" t="n">
-        <v>11293393</v>
+        <v>11296393</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22270,10 +22270,10 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>4839</v>
+        <v>4848</v>
       </c>
       <c r="D457" t="n">
-        <v>7021422</v>
+        <v>7034922</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -22366,10 +22366,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D459" t="n">
-        <v>395694</v>
+        <v>397194</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -22414,10 +22414,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>32165</v>
+        <v>32184</v>
       </c>
       <c r="D460" t="n">
-        <v>39319219</v>
+        <v>39341598</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -22606,10 +22606,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>11439</v>
+        <v>11443</v>
       </c>
       <c r="D464" t="n">
-        <v>16737481</v>
+        <v>16742770</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>4893</v>
+        <v>4898</v>
       </c>
       <c r="D466" t="n">
-        <v>7099893</v>
+        <v>7107393</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>14370</v>
+        <v>14381</v>
       </c>
       <c r="D469" t="n">
-        <v>17573663</v>
+        <v>17588133</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -23086,10 +23086,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>4374</v>
+        <v>4377</v>
       </c>
       <c r="D474" t="n">
-        <v>6427567</v>
+        <v>6431024</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23182,10 +23182,10 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="D476" t="n">
-        <v>2979783</v>
+        <v>2981283</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>35838</v>
+        <v>35877</v>
       </c>
       <c r="D479" t="n">
-        <v>46700255</v>
+        <v>46749661</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>13526</v>
+        <v>13535</v>
       </c>
       <c r="D483" t="n">
-        <v>19901294</v>
+        <v>19913518</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>11961</v>
+        <v>11967</v>
       </c>
       <c r="D485" t="n">
-        <v>17457088</v>
+        <v>17466088</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D487" t="n">
-        <v>423226</v>
+        <v>424726</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>62073</v>
+        <v>62165</v>
       </c>
       <c r="D488" t="n">
-        <v>82193284</v>
+        <v>82316043</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>23031</v>
+        <v>23060</v>
       </c>
       <c r="D493" t="n">
-        <v>33793740</v>
+        <v>33835944</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24094,10 +24094,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>22348</v>
+        <v>22372</v>
       </c>
       <c r="D495" t="n">
-        <v>32446209</v>
+        <v>32480914</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>150090</v>
+        <v>150347</v>
       </c>
       <c r="D499" t="n">
-        <v>197415728</v>
+        <v>197760444</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>81349</v>
+        <v>81441</v>
       </c>
       <c r="D506" t="n">
-        <v>119513311</v>
+        <v>119647439</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>59785</v>
+        <v>59869</v>
       </c>
       <c r="D509" t="n">
-        <v>86785250</v>
+        <v>86907844</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24958,10 +24958,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="D513" t="n">
-        <v>3919926</v>
+        <v>3921260</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>40953</v>
+        <v>41041</v>
       </c>
       <c r="D515" t="n">
-        <v>53227812</v>
+        <v>53348188</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25246,10 +25246,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D519" t="n">
-        <v>223599</v>
+        <v>225099</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>15199</v>
+        <v>15214</v>
       </c>
       <c r="D520" t="n">
-        <v>22328339</v>
+        <v>22349549</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>12885</v>
+        <v>12900</v>
       </c>
       <c r="D522" t="n">
-        <v>18677191</v>
+        <v>18698898</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25486,10 +25486,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D524" t="n">
-        <v>461045</v>
+        <v>464045</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25534,10 +25534,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D525" t="n">
-        <v>492148</v>
+        <v>493648</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>65859</v>
+        <v>65978</v>
       </c>
       <c r="D527" t="n">
-        <v>88516866</v>
+        <v>88672541</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>23227</v>
+        <v>23254</v>
       </c>
       <c r="D531" t="n">
-        <v>34274997</v>
+        <v>34314597</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25870,10 +25870,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D532" t="n">
-        <v>27000</v>
+        <v>28500</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -25918,10 +25918,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>24001</v>
+        <v>24027</v>
       </c>
       <c r="D533" t="n">
-        <v>35129631</v>
+        <v>35166691</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D536" t="n">
-        <v>1210469</v>
+        <v>1213469</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>54814</v>
+        <v>54898</v>
       </c>
       <c r="D537" t="n">
-        <v>72706795</v>
+        <v>72817752</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26350,10 +26350,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>17721</v>
+        <v>17746</v>
       </c>
       <c r="D542" t="n">
-        <v>26038840</v>
+        <v>26075526</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>18260</v>
+        <v>18281</v>
       </c>
       <c r="D544" t="n">
-        <v>26541996</v>
+        <v>26572512</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>41400</v>
+        <v>41462</v>
       </c>
       <c r="D547" t="n">
-        <v>54982593</v>
+        <v>55058478</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26782,10 +26782,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>14169</v>
+        <v>14188</v>
       </c>
       <c r="D551" t="n">
-        <v>20897329</v>
+        <v>20925496</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>14339</v>
+        <v>14363</v>
       </c>
       <c r="D553" t="n">
-        <v>20826398</v>
+        <v>20856917</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D555" t="n">
-        <v>390930</v>
+        <v>393930</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -27022,10 +27022,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>41192</v>
+        <v>41224</v>
       </c>
       <c r="D556" t="n">
-        <v>53406921</v>
+        <v>53445764</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -27166,10 +27166,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D559" t="n">
-        <v>190248</v>
+        <v>191748</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -27214,10 +27214,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>16147</v>
+        <v>16169</v>
       </c>
       <c r="D560" t="n">
-        <v>23692324</v>
+        <v>23723426</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>12950</v>
+        <v>12971</v>
       </c>
       <c r="D562" t="n">
-        <v>18730143</v>
+        <v>18759847</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27454,10 +27454,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D565" t="n">
-        <v>494267</v>
+        <v>495767</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27502,10 +27502,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>43687</v>
+        <v>43753</v>
       </c>
       <c r="D566" t="n">
-        <v>58340355</v>
+        <v>58426527</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>13868</v>
+        <v>13883</v>
       </c>
       <c r="D572" t="n">
-        <v>20341228</v>
+        <v>20363440</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27838,10 +27838,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>3692</v>
+        <v>3694</v>
       </c>
       <c r="D573" t="n">
-        <v>5325211</v>
+        <v>5328211</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D578" t="n">
-        <v>526251</v>
+        <v>527751</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>17200</v>
+        <v>17223</v>
       </c>
       <c r="D579" t="n">
-        <v>22731008</v>
+        <v>22761148</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28318,10 +28318,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>7037</v>
+        <v>7042</v>
       </c>
       <c r="D583" t="n">
-        <v>10233981</v>
+        <v>10241481</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>4902</v>
+        <v>4905</v>
       </c>
       <c r="D585" t="n">
-        <v>7056436</v>
+        <v>7060936</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28510,10 +28510,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D587" t="n">
-        <v>377235</v>
+        <v>378731</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>15222</v>
+        <v>15315</v>
       </c>
       <c r="D590" t="n">
-        <v>22087426</v>
+        <v>22223846</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="D591" t="n">
-        <v>2576530</v>
+        <v>2581030</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>21943</v>
+        <v>21957</v>
       </c>
       <c r="D596" t="n">
-        <v>27529793</v>
+        <v>27550683</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -28990,10 +28990,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D597" t="n">
-        <v>6977</v>
+        <v>7229</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>8972</v>
+        <v>8974</v>
       </c>
       <c r="D601" t="n">
-        <v>13146197</v>
+        <v>13148508</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29374,10 +29374,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D605" t="n">
-        <v>646199</v>
+        <v>646439</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -29470,10 +29470,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>14599</v>
+        <v>14604</v>
       </c>
       <c r="D607" t="n">
-        <v>18304147</v>
+        <v>18310724</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29662,10 +29662,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>5777</v>
+        <v>5778</v>
       </c>
       <c r="D611" t="n">
-        <v>8484651</v>
+        <v>8486151</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>2666</v>
+        <v>2668</v>
       </c>
       <c r="D613" t="n">
-        <v>3842587</v>
+        <v>3845587</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D614" t="n">
-        <v>253709</v>
+        <v>255209</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29902,10 +29902,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>13723</v>
+        <v>13729</v>
       </c>
       <c r="D616" t="n">
-        <v>17339584</v>
+        <v>17343477</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -30094,10 +30094,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>5217</v>
+        <v>5218</v>
       </c>
       <c r="D620" t="n">
-        <v>7646720</v>
+        <v>7648220</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -30142,10 +30142,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="D621" t="n">
-        <v>1674068</v>
+        <v>1675991</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D624" t="n">
-        <v>362966</v>
+        <v>364466</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30334,10 +30334,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>7471</v>
+        <v>7480</v>
       </c>
       <c r="D625" t="n">
-        <v>9613266</v>
+        <v>9623669</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30574,10 +30574,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="D630" t="n">
-        <v>3745106</v>
+        <v>3748106</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D632" t="n">
-        <v>247018</v>
+        <v>248518</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D633" t="n">
-        <v>182456</v>
+        <v>183956</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30766,10 +30766,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>28717</v>
+        <v>28735</v>
       </c>
       <c r="D634" t="n">
-        <v>35373029</v>
+        <v>35391051</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -30958,10 +30958,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>10997</v>
+        <v>11000</v>
       </c>
       <c r="D638" t="n">
-        <v>16136276</v>
+        <v>16139962</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
@@ -31054,10 +31054,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>4804</v>
+        <v>4811</v>
       </c>
       <c r="D640" t="n">
-        <v>6971960</v>
+        <v>6980823</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31198,10 +31198,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D643" t="n">
-        <v>800436</v>
+        <v>801936</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -31246,10 +31246,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>11266</v>
+        <v>11276</v>
       </c>
       <c r="D644" t="n">
-        <v>13660187</v>
+        <v>13671054</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D650" t="n">
-        <v>1586807</v>
+        <v>1588307</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>28185</v>
+        <v>28216</v>
       </c>
       <c r="D654" t="n">
-        <v>35050823</v>
+        <v>35082895</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>10712</v>
+        <v>10722</v>
       </c>
       <c r="D658" t="n">
-        <v>15739964</v>
+        <v>15754964</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>3063</v>
+        <v>3066</v>
       </c>
       <c r="D660" t="n">
-        <v>4416477</v>
+        <v>4420977</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32158,10 +32158,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D663" t="n">
-        <v>661147</v>
+        <v>662175</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32206,10 +32206,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>7457</v>
+        <v>7467</v>
       </c>
       <c r="D664" t="n">
-        <v>9461739</v>
+        <v>9473999</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D669" t="n">
-        <v>358484</v>
+        <v>361484</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>3764</v>
+        <v>3766</v>
       </c>
       <c r="D672" t="n">
-        <v>4561982</v>
+        <v>4563767</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D676" t="n">
-        <v>1141787</v>
+        <v>1143287</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -33022,10 +33022,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>9270</v>
+        <v>9278</v>
       </c>
       <c r="D681" t="n">
-        <v>11571313</v>
+        <v>11579162</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -33214,10 +33214,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>3459</v>
+        <v>3463</v>
       </c>
       <c r="D685" t="n">
-        <v>5099017</v>
+        <v>5105017</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D688" t="n">
-        <v>238299</v>
+        <v>239799</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D689" t="n">
-        <v>378069</v>
+        <v>379569</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>19143</v>
+        <v>19156</v>
       </c>
       <c r="D690" t="n">
-        <v>23438473</v>
+        <v>23452454</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33646,10 +33646,10 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>5695</v>
+        <v>5698</v>
       </c>
       <c r="D694" t="n">
-        <v>8318272</v>
+        <v>8322480</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="D696" t="n">
-        <v>3218514</v>
+        <v>3220014</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33982,10 +33982,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>74015</v>
+        <v>74097</v>
       </c>
       <c r="D701" t="n">
-        <v>93180958</v>
+        <v>93287118</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -34222,10 +34222,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>26420</v>
+        <v>26439</v>
       </c>
       <c r="D706" t="n">
-        <v>38795238</v>
+        <v>38822919</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -34366,10 +34366,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>13089</v>
+        <v>13100</v>
       </c>
       <c r="D709" t="n">
-        <v>18878269</v>
+        <v>18894714</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -34414,10 +34414,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D710" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -34510,10 +34510,10 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="D712" t="n">
-        <v>2773129</v>
+        <v>2774629</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="D714" t="n">
-        <v>1647335</v>
+        <v>1651835</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34654,10 +34654,10 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>11082</v>
+        <v>11092</v>
       </c>
       <c r="D715" t="n">
-        <v>13557228</v>
+        <v>13570748</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -34798,10 +34798,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>4087</v>
+        <v>4091</v>
       </c>
       <c r="D718" t="n">
-        <v>5979155</v>
+        <v>5984583</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34894,10 +34894,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D720" t="n">
-        <v>2138500</v>
+        <v>2140000</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -35038,10 +35038,10 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>17491</v>
+        <v>17511</v>
       </c>
       <c r="D723" t="n">
-        <v>21580263</v>
+        <v>21600605</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -35086,10 +35086,10 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D724" t="n">
-        <v>23064</v>
+        <v>24621</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -35230,10 +35230,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>6820</v>
+        <v>6824</v>
       </c>
       <c r="D727" t="n">
-        <v>9968829</v>
+        <v>9974829</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -35326,10 +35326,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>2167</v>
+        <v>2171</v>
       </c>
       <c r="D729" t="n">
-        <v>3106538</v>
+        <v>3112538</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -35566,10 +35566,10 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>11442</v>
+        <v>11453</v>
       </c>
       <c r="D734" t="n">
-        <v>14130032</v>
+        <v>14145102</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -35854,10 +35854,10 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="D740" t="n">
-        <v>2312534</v>
+        <v>2314034</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -35950,10 +35950,10 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D742" t="n">
-        <v>424923</v>
+        <v>426423</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -35998,10 +35998,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>29389</v>
+        <v>29411</v>
       </c>
       <c r="D743" t="n">
-        <v>36532810</v>
+        <v>36561557</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -36238,10 +36238,10 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>12673</v>
+        <v>12679</v>
       </c>
       <c r="D748" t="n">
-        <v>18548762</v>
+        <v>18557472</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -36334,10 +36334,10 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="D750" t="n">
-        <v>5997619</v>
+        <v>5999119</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -36430,10 +36430,10 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="D752" t="n">
-        <v>1068157</v>
+        <v>1075657</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -36478,10 +36478,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D753" t="n">
-        <v>949004</v>
+        <v>952004</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -36574,10 +36574,10 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>12248</v>
+        <v>12258</v>
       </c>
       <c r="D755" t="n">
-        <v>15169836</v>
+        <v>15180159</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -36718,10 +36718,10 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>4644</v>
+        <v>4645</v>
       </c>
       <c r="D758" t="n">
-        <v>6788007</v>
+        <v>6789507</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -36814,10 +36814,10 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D760" t="n">
-        <v>258588</v>
+        <v>259982</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -36910,10 +36910,10 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>6677</v>
+        <v>6683</v>
       </c>
       <c r="D762" t="n">
-        <v>7850300</v>
+        <v>7856799</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -37102,10 +37102,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="D766" t="n">
-        <v>2469373</v>
+        <v>2470873</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -37150,10 +37150,10 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D767" t="n">
-        <v>1451844</v>
+        <v>1453344</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -37198,10 +37198,10 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D768" t="n">
-        <v>214494</v>
+        <v>215994</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -37294,10 +37294,10 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>16690</v>
+        <v>16708</v>
       </c>
       <c r="D770" t="n">
-        <v>20248402</v>
+        <v>20268209</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -37534,10 +37534,10 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>5518</v>
+        <v>5519</v>
       </c>
       <c r="D775" t="n">
-        <v>8085376</v>
+        <v>8086587</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -37726,10 +37726,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D779" t="n">
-        <v>526112</v>
+        <v>527612</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -37822,10 +37822,10 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>11313</v>
+        <v>11322</v>
       </c>
       <c r="D781" t="n">
-        <v>14336352</v>
+        <v>14344495</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -38014,10 +38014,10 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>3943</v>
+        <v>3945</v>
       </c>
       <c r="D785" t="n">
-        <v>5765483</v>
+        <v>5768483</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -38206,10 +38206,10 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D789" t="n">
-        <v>730179</v>
+        <v>731679</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -38302,10 +38302,10 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>31931</v>
+        <v>31977</v>
       </c>
       <c r="D791" t="n">
-        <v>39392805</v>
+        <v>39452457</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -38494,10 +38494,10 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>13146</v>
+        <v>13153</v>
       </c>
       <c r="D795" t="n">
-        <v>19236088</v>
+        <v>19245934</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -38590,10 +38590,10 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>6013</v>
+        <v>6017</v>
       </c>
       <c r="D797" t="n">
-        <v>8689230</v>
+        <v>8695230</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -38638,10 +38638,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D798" t="n">
-        <v>725817</v>
+        <v>728817</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -38782,10 +38782,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>7562</v>
+        <v>7570</v>
       </c>
       <c r="D801" t="n">
-        <v>9353393</v>
+        <v>9361796</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -39262,10 +39262,10 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>58439</v>
+        <v>58523</v>
       </c>
       <c r="D811" t="n">
-        <v>73046480</v>
+        <v>73151269</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -39502,10 +39502,10 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>21057</v>
+        <v>21075</v>
       </c>
       <c r="D816" t="n">
-        <v>30808798</v>
+        <v>30834725</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -39646,10 +39646,10 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>12534</v>
+        <v>12550</v>
       </c>
       <c r="D819" t="n">
-        <v>18093534</v>
+        <v>18115829</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -39886,10 +39886,10 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="D824" t="n">
-        <v>1825685</v>
+        <v>1830185</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -39934,10 +39934,10 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>11071</v>
+        <v>11082</v>
       </c>
       <c r="D825" t="n">
-        <v>13805772</v>
+        <v>13820192</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -39982,10 +39982,10 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D826" t="n">
-        <v>15561</v>
+        <v>17061</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -40126,10 +40126,10 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>3893</v>
+        <v>3900</v>
       </c>
       <c r="D829" t="n">
-        <v>5660522</v>
+        <v>5671022</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -40222,10 +40222,10 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D831" t="n">
-        <v>1763049</v>
+        <v>1766049</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -40414,10 +40414,10 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D835" t="n">
-        <v>365910</v>
+        <v>367410</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -40462,10 +40462,10 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>58185</v>
+        <v>58238</v>
       </c>
       <c r="D836" t="n">
-        <v>71950213</v>
+        <v>72015412</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -40750,10 +40750,10 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>22249</v>
+        <v>22264</v>
       </c>
       <c r="D842" t="n">
-        <v>32648002</v>
+        <v>32668595</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -40846,10 +40846,10 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>14243</v>
+        <v>14262</v>
       </c>
       <c r="D844" t="n">
-        <v>20619779</v>
+        <v>20647414</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -40942,10 +40942,10 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D846" t="n">
-        <v>1268101</v>
+        <v>1270601</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -40990,10 +40990,10 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="D847" t="n">
-        <v>1708786</v>
+        <v>1714786</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -41086,10 +41086,10 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>7701</v>
+        <v>7706</v>
       </c>
       <c r="D849" t="n">
-        <v>9449379</v>
+        <v>9456879</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -41182,10 +41182,10 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="D851" t="n">
-        <v>3727698</v>
+        <v>3730562</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -41278,10 +41278,10 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D853" t="n">
-        <v>427597</v>
+        <v>429097</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -41326,10 +41326,10 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D854" t="n">
-        <v>245155</v>
+        <v>245918</v>
       </c>
       <c r="E854" t="inlineStr">
         <is>
@@ -41374,10 +41374,10 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>3570</v>
+        <v>3580</v>
       </c>
       <c r="D855" t="n">
-        <v>4616349</v>
+        <v>4628637</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -41470,10 +41470,10 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D857" t="n">
-        <v>61992</v>
+        <v>63492</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -41518,10 +41518,10 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D858" t="n">
-        <v>1704082</v>
+        <v>1705582</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -41758,10 +41758,10 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>22236</v>
+        <v>22257</v>
       </c>
       <c r="D863" t="n">
-        <v>27860393</v>
+        <v>27887937</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -41950,10 +41950,10 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>7714</v>
+        <v>7725</v>
       </c>
       <c r="D867" t="n">
-        <v>11259756</v>
+        <v>11276256</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -42046,10 +42046,10 @@
         </is>
       </c>
       <c r="C869" t="n">
-        <v>4600</v>
+        <v>4608</v>
       </c>
       <c r="D869" t="n">
-        <v>6651421</v>
+        <v>6662151</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -42190,10 +42190,10 @@
         </is>
       </c>
       <c r="C872" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D872" t="n">
-        <v>593794</v>
+        <v>594055</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -42286,10 +42286,10 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>14434</v>
+        <v>14448</v>
       </c>
       <c r="D874" t="n">
-        <v>17406996</v>
+        <v>17421978</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -42478,10 +42478,10 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>5225</v>
+        <v>5230</v>
       </c>
       <c r="D878" t="n">
-        <v>7620500</v>
+        <v>7627610</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -42574,10 +42574,10 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="D880" t="n">
-        <v>3377003</v>
+        <v>3380003</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -42718,10 +42718,10 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D883" t="n">
-        <v>406885</v>
+        <v>409885</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -42766,10 +42766,10 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>9727</v>
+        <v>9735</v>
       </c>
       <c r="D884" t="n">
-        <v>11955508</v>
+        <v>11965028</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -42910,10 +42910,10 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>3338</v>
+        <v>3340</v>
       </c>
       <c r="D887" t="n">
-        <v>4890738</v>
+        <v>4893738</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -43102,10 +43102,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>44330</v>
+        <v>44358</v>
       </c>
       <c r="D891" t="n">
-        <v>55699957</v>
+        <v>55735119</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -43342,10 +43342,10 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>20974</v>
+        <v>20990</v>
       </c>
       <c r="D896" t="n">
-        <v>30755477</v>
+        <v>30777625</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -43438,10 +43438,10 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>5858</v>
+        <v>5868</v>
       </c>
       <c r="D898" t="n">
-        <v>8440169</v>
+        <v>8455169</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -43630,10 +43630,10 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>21099</v>
+        <v>21124</v>
       </c>
       <c r="D902" t="n">
-        <v>26264723</v>
+        <v>26292309</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -43774,10 +43774,10 @@
         </is>
       </c>
       <c r="C905" t="n">
-        <v>9742</v>
+        <v>9750</v>
       </c>
       <c r="D905" t="n">
-        <v>14275869</v>
+        <v>14287869</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -43870,10 +43870,10 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="D907" t="n">
-        <v>3244165</v>
+        <v>3247165</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -44062,10 +44062,10 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>7000</v>
+        <v>7006</v>
       </c>
       <c r="D911" t="n">
-        <v>8802191</v>
+        <v>8809529</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -44302,10 +44302,10 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>3006</v>
+        <v>3008</v>
       </c>
       <c r="D916" t="n">
-        <v>4427020</v>
+        <v>4430020</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -44494,10 +44494,10 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>12962</v>
+        <v>12966</v>
       </c>
       <c r="D920" t="n">
-        <v>16161434</v>
+        <v>16165915</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -44686,10 +44686,10 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>5231</v>
+        <v>5233</v>
       </c>
       <c r="D924" t="n">
-        <v>7644180</v>
+        <v>7647180</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -44782,10 +44782,10 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="D926" t="n">
-        <v>1977367</v>
+        <v>1980367</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -44974,10 +44974,10 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D930" t="n">
-        <v>356684</v>
+        <v>358184</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -45022,10 +45022,10 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>19228</v>
+        <v>19237</v>
       </c>
       <c r="D931" t="n">
-        <v>24028881</v>
+        <v>24040213</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -45310,10 +45310,10 @@
         </is>
       </c>
       <c r="C937" t="n">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="D937" t="n">
-        <v>2960319</v>
+        <v>2961819</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -45358,10 +45358,10 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D938" t="n">
-        <v>488147</v>
+        <v>491147</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -45406,10 +45406,10 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D939" t="n">
-        <v>613807</v>
+        <v>616795</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -45454,10 +45454,10 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>8583</v>
+        <v>8586</v>
       </c>
       <c r="D940" t="n">
-        <v>10712407</v>
+        <v>10715120</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -45694,10 +45694,10 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>3189</v>
+        <v>3191</v>
       </c>
       <c r="D945" t="n">
-        <v>4651641</v>
+        <v>4654634</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -45742,10 +45742,10 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D946" t="n">
-        <v>2150909</v>
+        <v>2152409</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -45934,10 +45934,10 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>66781</v>
+        <v>66835</v>
       </c>
       <c r="D950" t="n">
-        <v>85749757</v>
+        <v>85816763</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -46270,10 +46270,10 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>25469</v>
+        <v>25484</v>
       </c>
       <c r="D957" t="n">
-        <v>37329817</v>
+        <v>37352317</v>
       </c>
       <c r="E957" t="inlineStr">
         <is>
@@ -46366,10 +46366,10 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>17513</v>
+        <v>17530</v>
       </c>
       <c r="D959" t="n">
-        <v>25393228</v>
+        <v>25417242</v>
       </c>
       <c r="E959" t="inlineStr">
         <is>
@@ -46558,10 +46558,10 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>83347</v>
+        <v>83422</v>
       </c>
       <c r="D963" t="n">
-        <v>104669917</v>
+        <v>104755193</v>
       </c>
       <c r="E963" t="inlineStr">
         <is>
@@ -46894,10 +46894,10 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>33691</v>
+        <v>33708</v>
       </c>
       <c r="D970" t="n">
-        <v>49421902</v>
+        <v>49447106</v>
       </c>
       <c r="E970" t="inlineStr">
         <is>
@@ -47038,10 +47038,10 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>25070</v>
+        <v>25095</v>
       </c>
       <c r="D973" t="n">
-        <v>36359261</v>
+        <v>36396461</v>
       </c>
       <c r="E973" t="inlineStr">
         <is>
@@ -47086,10 +47086,10 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D974" t="n">
-        <v>866073</v>
+        <v>871462</v>
       </c>
       <c r="E974" t="inlineStr">
         <is>
@@ -47182,10 +47182,10 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="D976" t="n">
-        <v>2780345</v>
+        <v>2783993</v>
       </c>
       <c r="E976" t="inlineStr">
         <is>
@@ -47230,10 +47230,10 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>10697</v>
+        <v>10704</v>
       </c>
       <c r="D977" t="n">
-        <v>13959740</v>
+        <v>13967791</v>
       </c>
       <c r="E977" t="inlineStr">
         <is>
@@ -47422,10 +47422,10 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3448</v>
+        <v>3453</v>
       </c>
       <c r="D981" t="n">
-        <v>5037276</v>
+        <v>5043922</v>
       </c>
       <c r="E981" t="inlineStr">
         <is>
@@ -47710,10 +47710,10 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>55746</v>
+        <v>55781</v>
       </c>
       <c r="D987" t="n">
-        <v>69792454</v>
+        <v>69838023</v>
       </c>
       <c r="E987" t="inlineStr">
         <is>
@@ -47950,10 +47950,10 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>18462</v>
+        <v>18469</v>
       </c>
       <c r="D992" t="n">
-        <v>27037283</v>
+        <v>27047783</v>
       </c>
       <c r="E992" t="inlineStr">
         <is>
@@ -48046,10 +48046,10 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>12563</v>
+        <v>12573</v>
       </c>
       <c r="D994" t="n">
-        <v>18168257</v>
+        <v>18182557</v>
       </c>
       <c r="E994" t="inlineStr">
         <is>
@@ -48238,10 +48238,10 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>28079</v>
+        <v>28118</v>
       </c>
       <c r="D998" t="n">
-        <v>34942326</v>
+        <v>34991433</v>
       </c>
       <c r="E998" t="inlineStr">
         <is>
@@ -48478,10 +48478,10 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>10453</v>
+        <v>10467</v>
       </c>
       <c r="D1003" t="n">
-        <v>15309495</v>
+        <v>15329750</v>
       </c>
       <c r="E1003" t="inlineStr">
         <is>
@@ -48574,10 +48574,10 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>6192</v>
+        <v>6196</v>
       </c>
       <c r="D1005" t="n">
-        <v>8978105</v>
+        <v>8984105</v>
       </c>
       <c r="E1005" t="inlineStr">
         <is>
@@ -48622,10 +48622,10 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D1006" t="n">
-        <v>743418</v>
+        <v>744918</v>
       </c>
       <c r="E1006" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16315</v>
+        <v>16323</v>
       </c>
       <c r="D2" t="n">
-        <v>20511856</v>
+        <v>20522921</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6233</v>
+        <v>6237</v>
       </c>
       <c r="D6" t="n">
-        <v>9116922</v>
+        <v>9122268</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3281</v>
+        <v>3284</v>
       </c>
       <c r="D8" t="n">
-        <v>4749712</v>
+        <v>4754212</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D11" t="n">
-        <v>513708</v>
+        <v>515208</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10958</v>
+        <v>10963</v>
       </c>
       <c r="D12" t="n">
-        <v>13834036</v>
+        <v>13840056</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D18" t="n">
-        <v>2089220</v>
+        <v>2090720</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14207</v>
+        <v>14217</v>
       </c>
       <c r="D21" t="n">
-        <v>17429769</v>
+        <v>17440448</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="D27" t="n">
-        <v>2457399</v>
+        <v>2461899</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D28" t="n">
-        <v>357672</v>
+        <v>358912</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D30" t="n">
-        <v>467903</v>
+        <v>469403</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6542</v>
+        <v>6545</v>
       </c>
       <c r="D31" t="n">
-        <v>8689865</v>
+        <v>8694275</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="D34" t="n">
-        <v>2315620</v>
+        <v>2317120</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21797</v>
+        <v>21813</v>
       </c>
       <c r="D40" t="n">
-        <v>26838971</v>
+        <v>26856566</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7789</v>
+        <v>7792</v>
       </c>
       <c r="D46" t="n">
-        <v>11440960</v>
+        <v>11445460</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3827</v>
+        <v>3830</v>
       </c>
       <c r="D48" t="n">
-        <v>5539155</v>
+        <v>5543655</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D51" t="n">
-        <v>821066</v>
+        <v>822566</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8121</v>
+        <v>8125</v>
       </c>
       <c r="D52" t="n">
-        <v>10367461</v>
+        <v>10372127</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2776</v>
+        <v>2778</v>
       </c>
       <c r="D56" t="n">
-        <v>4038987</v>
+        <v>4041303</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>36031</v>
+        <v>36060</v>
       </c>
       <c r="D61" t="n">
-        <v>46389451</v>
+        <v>46425867</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>13123</v>
+        <v>13128</v>
       </c>
       <c r="D66" t="n">
-        <v>19246335</v>
+        <v>19253835</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5144</v>
+        <v>5147</v>
       </c>
       <c r="D68" t="n">
-        <v>7439967</v>
+        <v>7443815</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D72" t="n">
-        <v>481176</v>
+        <v>482676</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>46108</v>
+        <v>46149</v>
       </c>
       <c r="D74" t="n">
-        <v>58967343</v>
+        <v>59016174</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4078,10 +4078,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>18087</v>
+        <v>18097</v>
       </c>
       <c r="D78" t="n">
-        <v>26499739</v>
+        <v>26513305</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>9312</v>
+        <v>9317</v>
       </c>
       <c r="D80" t="n">
-        <v>13444049</v>
+        <v>13451549</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>24851</v>
+        <v>24868</v>
       </c>
       <c r="D85" t="n">
-        <v>31335547</v>
+        <v>31354563</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>8668</v>
+        <v>8674</v>
       </c>
       <c r="D89" t="n">
-        <v>12723966</v>
+        <v>12732886</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4884</v>
+        <v>4891</v>
       </c>
       <c r="D91" t="n">
-        <v>7060227</v>
+        <v>7069638</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D93" t="n">
-        <v>1058815</v>
+        <v>1060315</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>21901</v>
+        <v>21917</v>
       </c>
       <c r="D94" t="n">
-        <v>27494630</v>
+        <v>27515519</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -5038,10 +5038,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>9141</v>
+        <v>9143</v>
       </c>
       <c r="D98" t="n">
-        <v>13381205</v>
+        <v>13384205</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3310</v>
+        <v>3312</v>
       </c>
       <c r="D100" t="n">
-        <v>4741746</v>
+        <v>4744746</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D104" t="n">
-        <v>623094</v>
+        <v>624594</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>81363</v>
+        <v>81430</v>
       </c>
       <c r="D105" t="n">
-        <v>104286444</v>
+        <v>104363624</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>30547</v>
+        <v>30561</v>
       </c>
       <c r="D112" t="n">
-        <v>44826616</v>
+        <v>44846873</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>20762</v>
+        <v>20777</v>
       </c>
       <c r="D114" t="n">
-        <v>29959694</v>
+        <v>29982194</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="D121" t="n">
-        <v>2642883</v>
+        <v>2645883</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>27630</v>
+        <v>27646</v>
       </c>
       <c r="D122" t="n">
-        <v>36466789</v>
+        <v>36487611</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D123" t="n">
-        <v>117827</v>
+        <v>118956</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D125" t="n">
-        <v>135605</v>
+        <v>137105</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>9853</v>
+        <v>9857</v>
       </c>
       <c r="D126" t="n">
-        <v>14449979</v>
+        <v>14455979</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6622,10 +6622,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D131" t="n">
-        <v>487482</v>
+        <v>488982</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>15692</v>
+        <v>15708</v>
       </c>
       <c r="D132" t="n">
-        <v>19532437</v>
+        <v>19549614</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>7745</v>
+        <v>7750</v>
       </c>
       <c r="D135" t="n">
-        <v>11335064</v>
+        <v>11341635</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="D137" t="n">
-        <v>3151110</v>
+        <v>3154110</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D141" t="n">
-        <v>541999</v>
+        <v>543499</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>13497</v>
+        <v>13506</v>
       </c>
       <c r="D142" t="n">
-        <v>16867623</v>
+        <v>16880085</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>6235</v>
+        <v>6237</v>
       </c>
       <c r="D146" t="n">
-        <v>9134755</v>
+        <v>9137755</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>5971</v>
+        <v>5976</v>
       </c>
       <c r="D152" t="n">
-        <v>7304762</v>
+        <v>7309862</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D156" t="n">
-        <v>971327</v>
+        <v>974327</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>7422</v>
+        <v>7426</v>
       </c>
       <c r="D160" t="n">
-        <v>9205411</v>
+        <v>9209161</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="D163" t="n">
-        <v>4173795</v>
+        <v>4175958</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D164" t="n">
-        <v>2008971</v>
+        <v>2009932</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>5602</v>
+        <v>5604</v>
       </c>
       <c r="D168" t="n">
-        <v>7053087</v>
+        <v>7055122</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8734,10 +8734,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D175" t="n">
-        <v>996398</v>
+        <v>997472</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>15923</v>
+        <v>15944</v>
       </c>
       <c r="D178" t="n">
-        <v>20012096</v>
+        <v>20034454</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>6380</v>
+        <v>6382</v>
       </c>
       <c r="D183" t="n">
-        <v>9319294</v>
+        <v>9322294</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3058</v>
+        <v>3061</v>
       </c>
       <c r="D188" t="n">
-        <v>3842191</v>
+        <v>3845491</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D195" t="n">
-        <v>67025</v>
+        <v>68525</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>9189</v>
+        <v>9195</v>
       </c>
       <c r="D196" t="n">
-        <v>11475143</v>
+        <v>11482026</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>17216</v>
+        <v>17227</v>
       </c>
       <c r="D205" t="n">
-        <v>21508086</v>
+        <v>21518714</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>7675</v>
+        <v>7678</v>
       </c>
       <c r="D209" t="n">
-        <v>11271301</v>
+        <v>11275801</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>26079</v>
+        <v>26095</v>
       </c>
       <c r="D213" t="n">
-        <v>32901891</v>
+        <v>32919425</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D214" t="n">
-        <v>35473</v>
+        <v>36973</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10750,10 +10750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>10482</v>
+        <v>10483</v>
       </c>
       <c r="D217" t="n">
-        <v>15309352</v>
+        <v>15310852</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10798,10 +10798,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D218" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>28411</v>
+        <v>28428</v>
       </c>
       <c r="D223" t="n">
-        <v>35866103</v>
+        <v>35885586</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>14717</v>
+        <v>14720</v>
       </c>
       <c r="D228" t="n">
-        <v>21595543</v>
+        <v>21599928</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>2648</v>
+        <v>2650</v>
       </c>
       <c r="D230" t="n">
-        <v>3801675</v>
+        <v>3804675</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D233" t="n">
-        <v>1015226</v>
+        <v>1019228</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>24225</v>
+        <v>24237</v>
       </c>
       <c r="D234" t="n">
-        <v>30563846</v>
+        <v>30577910</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>11162</v>
+        <v>11167</v>
       </c>
       <c r="D240" t="n">
-        <v>16363749</v>
+        <v>16371249</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="D242" t="n">
-        <v>3577847</v>
+        <v>3580847</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>7855</v>
+        <v>7862</v>
       </c>
       <c r="D246" t="n">
-        <v>9828995</v>
+        <v>9837056</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>9786</v>
+        <v>9791</v>
       </c>
       <c r="D256" t="n">
-        <v>12482307</v>
+        <v>12488092</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12814,10 +12814,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>4189</v>
+        <v>4193</v>
       </c>
       <c r="D260" t="n">
-        <v>6149170</v>
+        <v>6155170</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="D262" t="n">
-        <v>3137169</v>
+        <v>3140102</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>5529</v>
+        <v>5532</v>
       </c>
       <c r="D265" t="n">
-        <v>6855978</v>
+        <v>6858043</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D268" t="n">
-        <v>2944657</v>
+        <v>2947657</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D270" t="n">
-        <v>1029872</v>
+        <v>1031372</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13486,10 +13486,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>19028</v>
+        <v>19041</v>
       </c>
       <c r="D274" t="n">
-        <v>24046316</v>
+        <v>24062909</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D277" t="n">
-        <v>107945</v>
+        <v>109445</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13678,10 +13678,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>7917</v>
+        <v>7918</v>
       </c>
       <c r="D278" t="n">
-        <v>11608205</v>
+        <v>11609705</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13774,10 +13774,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="D280" t="n">
-        <v>3578059</v>
+        <v>3579559</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D283" t="n">
-        <v>649423</v>
+        <v>650745</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>16565</v>
+        <v>16578</v>
       </c>
       <c r="D285" t="n">
-        <v>20523038</v>
+        <v>20539922</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14206,10 +14206,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>7173</v>
+        <v>7178</v>
       </c>
       <c r="D289" t="n">
-        <v>10521112</v>
+        <v>10528612</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>3325</v>
+        <v>3328</v>
       </c>
       <c r="D290" t="n">
-        <v>4819743</v>
+        <v>4823299</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>9324</v>
+        <v>9331</v>
       </c>
       <c r="D294" t="n">
-        <v>11719794</v>
+        <v>11727079</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3908</v>
+        <v>3910</v>
       </c>
       <c r="D298" t="n">
-        <v>5719832</v>
+        <v>5722832</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>9182</v>
+        <v>9186</v>
       </c>
       <c r="D304" t="n">
-        <v>11991326</v>
+        <v>11996036</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -15118,10 +15118,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>3732</v>
+        <v>3735</v>
       </c>
       <c r="D308" t="n">
-        <v>5455849</v>
+        <v>5460349</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="D309" t="n">
-        <v>3416568</v>
+        <v>3419468</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>11040</v>
+        <v>11053</v>
       </c>
       <c r="D312" t="n">
-        <v>14497623</v>
+        <v>14515336</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>3773</v>
+        <v>3777</v>
       </c>
       <c r="D316" t="n">
-        <v>5531241</v>
+        <v>5537181</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="D318" t="n">
-        <v>3907638</v>
+        <v>3909138</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D320" t="n">
-        <v>231786</v>
+        <v>233286</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>6794</v>
+        <v>6801</v>
       </c>
       <c r="D321" t="n">
-        <v>8399105</v>
+        <v>8409391</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>7507</v>
+        <v>7512</v>
       </c>
       <c r="D331" t="n">
-        <v>9397641</v>
+        <v>9404046</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D337" t="n">
-        <v>1844195</v>
+        <v>1845695</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>31919</v>
+        <v>31944</v>
       </c>
       <c r="D340" t="n">
-        <v>40106450</v>
+        <v>40132719</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>16513</v>
+        <v>16518</v>
       </c>
       <c r="D346" t="n">
-        <v>24147943</v>
+        <v>24154379</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>8025</v>
+        <v>8029</v>
       </c>
       <c r="D349" t="n">
-        <v>11557034</v>
+        <v>11563034</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D350" t="n">
-        <v>912945</v>
+        <v>914171</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D351" t="n">
-        <v>1105390</v>
+        <v>1109890</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>3885</v>
+        <v>3887</v>
       </c>
       <c r="D352" t="n">
-        <v>4841282</v>
+        <v>4842945</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D355" t="n">
-        <v>2201657</v>
+        <v>2203157</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>19337</v>
+        <v>19354</v>
       </c>
       <c r="D360" t="n">
-        <v>24112996</v>
+        <v>24134344</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>9890</v>
+        <v>9895</v>
       </c>
       <c r="D364" t="n">
-        <v>14499735</v>
+        <v>14507235</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>4732</v>
+        <v>4733</v>
       </c>
       <c r="D366" t="n">
-        <v>6844355</v>
+        <v>6844409</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>13889</v>
+        <v>13902</v>
       </c>
       <c r="D369" t="n">
-        <v>17379286</v>
+        <v>17393938</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>6434</v>
+        <v>6436</v>
       </c>
       <c r="D373" t="n">
-        <v>9419958</v>
+        <v>9422958</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="D375" t="n">
-        <v>3558087</v>
+        <v>3561087</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>17958</v>
+        <v>17963</v>
       </c>
       <c r="D378" t="n">
-        <v>22399090</v>
+        <v>22405293</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>7135</v>
+        <v>7136</v>
       </c>
       <c r="D382" t="n">
-        <v>10487715</v>
+        <v>10489215</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18958,10 +18958,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>4085</v>
+        <v>4088</v>
       </c>
       <c r="D388" t="n">
-        <v>5125846</v>
+        <v>5129292</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -19150,10 +19150,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D392" t="n">
-        <v>832272</v>
+        <v>833136</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -19246,10 +19246,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D394" t="n">
-        <v>118310</v>
+        <v>119810</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>22238</v>
+        <v>22248</v>
       </c>
       <c r="D395" t="n">
-        <v>27587902</v>
+        <v>27599752</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>9353</v>
+        <v>9360</v>
       </c>
       <c r="D398" t="n">
-        <v>13768917</v>
+        <v>13779417</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19534,10 +19534,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>6201</v>
+        <v>6203</v>
       </c>
       <c r="D400" t="n">
-        <v>9020736</v>
+        <v>9023736</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>11122</v>
+        <v>11130</v>
       </c>
       <c r="D403" t="n">
-        <v>13714332</v>
+        <v>13721686</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19918,10 +19918,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>5324</v>
+        <v>5325</v>
       </c>
       <c r="D408" t="n">
-        <v>7781703</v>
+        <v>7783203</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -20062,10 +20062,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D411" t="n">
-        <v>197582</v>
+        <v>199082</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>31993</v>
+        <v>32054</v>
       </c>
       <c r="D413" t="n">
-        <v>43352309</v>
+        <v>43432262</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>7780</v>
+        <v>7792</v>
       </c>
       <c r="D417" t="n">
-        <v>11439570</v>
+        <v>11457470</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>7073</v>
+        <v>7088</v>
       </c>
       <c r="D419" t="n">
-        <v>10253817</v>
+        <v>10275127</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>8747</v>
+        <v>8791</v>
       </c>
       <c r="D423" t="n">
-        <v>12135796</v>
+        <v>12200726</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2198</v>
+        <v>2210</v>
       </c>
       <c r="D425" t="n">
-        <v>3238820</v>
+        <v>3256352</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20830,10 +20830,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>2966</v>
+        <v>2979</v>
       </c>
       <c r="D427" t="n">
-        <v>4331812</v>
+        <v>4351241</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -20926,10 +20926,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D429" t="n">
-        <v>183120</v>
+        <v>186120</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D430" t="n">
-        <v>244086</v>
+        <v>247086</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21022,10 +21022,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>11007</v>
+        <v>11019</v>
       </c>
       <c r="D431" t="n">
-        <v>13592027</v>
+        <v>13603731</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -21262,10 +21262,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="D436" t="n">
-        <v>2675877</v>
+        <v>2680227</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>62791</v>
+        <v>62838</v>
       </c>
       <c r="D439" t="n">
-        <v>77833000</v>
+        <v>77883850</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>24905</v>
+        <v>24913</v>
       </c>
       <c r="D443" t="n">
-        <v>36507654</v>
+        <v>36518620</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>12904</v>
+        <v>12907</v>
       </c>
       <c r="D445" t="n">
-        <v>18712468</v>
+        <v>18716968</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21742,10 +21742,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D446" t="n">
-        <v>656056</v>
+        <v>659056</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -21982,10 +21982,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>18868</v>
+        <v>18881</v>
       </c>
       <c r="D451" t="n">
-        <v>23851008</v>
+        <v>23868117</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D454" t="n">
-        <v>230476</v>
+        <v>231976</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>7696</v>
+        <v>7700</v>
       </c>
       <c r="D455" t="n">
-        <v>11296393</v>
+        <v>11302393</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22270,10 +22270,10 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>4848</v>
+        <v>4851</v>
       </c>
       <c r="D457" t="n">
-        <v>7034922</v>
+        <v>7039422</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -22366,10 +22366,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D459" t="n">
-        <v>397194</v>
+        <v>397444</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -22414,10 +22414,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>32184</v>
+        <v>32195</v>
       </c>
       <c r="D460" t="n">
-        <v>39341598</v>
+        <v>39355427</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -22558,10 +22558,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D463" t="n">
-        <v>445784</v>
+        <v>447284</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22606,10 +22606,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>11443</v>
+        <v>11446</v>
       </c>
       <c r="D464" t="n">
-        <v>16742770</v>
+        <v>16747270</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>4898</v>
+        <v>4902</v>
       </c>
       <c r="D466" t="n">
-        <v>7107393</v>
+        <v>7113393</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D468" t="n">
-        <v>546774</v>
+        <v>548253</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>14381</v>
+        <v>14386</v>
       </c>
       <c r="D469" t="n">
-        <v>17588133</v>
+        <v>17592872</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -23086,10 +23086,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>4377</v>
+        <v>4380</v>
       </c>
       <c r="D474" t="n">
-        <v>6431024</v>
+        <v>6434922</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D477" t="n">
-        <v>196869</v>
+        <v>198369</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D478" t="n">
-        <v>462848</v>
+        <v>464348</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>35877</v>
+        <v>35933</v>
       </c>
       <c r="D479" t="n">
-        <v>46749661</v>
+        <v>46821562</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>13535</v>
+        <v>13546</v>
       </c>
       <c r="D483" t="n">
-        <v>19913518</v>
+        <v>19929300</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>11967</v>
+        <v>11975</v>
       </c>
       <c r="D485" t="n">
-        <v>17466088</v>
+        <v>17476788</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>62165</v>
+        <v>62242</v>
       </c>
       <c r="D488" t="n">
-        <v>82316043</v>
+        <v>82418291</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>23060</v>
+        <v>23081</v>
       </c>
       <c r="D493" t="n">
-        <v>33835944</v>
+        <v>33867084</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24094,10 +24094,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>22372</v>
+        <v>22396</v>
       </c>
       <c r="D495" t="n">
-        <v>32480914</v>
+        <v>32516840</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24238,10 +24238,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D498" t="n">
-        <v>885101</v>
+        <v>886601</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>150347</v>
+        <v>150578</v>
       </c>
       <c r="D499" t="n">
-        <v>197760444</v>
+        <v>198052522</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>81441</v>
+        <v>81520</v>
       </c>
       <c r="D506" t="n">
-        <v>119647439</v>
+        <v>119762852</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>59869</v>
+        <v>59923</v>
       </c>
       <c r="D509" t="n">
-        <v>86907844</v>
+        <v>86984598</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24862,10 +24862,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D511" t="n">
-        <v>1524607</v>
+        <v>1527607</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -24958,10 +24958,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>2770</v>
+        <v>2774</v>
       </c>
       <c r="D513" t="n">
-        <v>3921260</v>
+        <v>3926678</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>41041</v>
+        <v>41080</v>
       </c>
       <c r="D515" t="n">
-        <v>53348188</v>
+        <v>53397909</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D516" t="n">
-        <v>30937</v>
+        <v>31779</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>15214</v>
+        <v>15224</v>
       </c>
       <c r="D520" t="n">
-        <v>22349549</v>
+        <v>22364249</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>12900</v>
+        <v>12911</v>
       </c>
       <c r="D522" t="n">
-        <v>18698898</v>
+        <v>18714398</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25486,10 +25486,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D524" t="n">
-        <v>464045</v>
+        <v>465446</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>65978</v>
+        <v>66077</v>
       </c>
       <c r="D527" t="n">
-        <v>88672541</v>
+        <v>88810669</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>23254</v>
+        <v>23284</v>
       </c>
       <c r="D531" t="n">
-        <v>34314597</v>
+        <v>34358402</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25918,10 +25918,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>24027</v>
+        <v>24054</v>
       </c>
       <c r="D533" t="n">
-        <v>35166691</v>
+        <v>35206129</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -26014,10 +26014,10 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D535" t="n">
-        <v>367320</v>
+        <v>368820</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D536" t="n">
-        <v>1213469</v>
+        <v>1214969</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>54898</v>
+        <v>54978</v>
       </c>
       <c r="D537" t="n">
-        <v>72817752</v>
+        <v>72921520</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26350,10 +26350,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>17746</v>
+        <v>17760</v>
       </c>
       <c r="D542" t="n">
-        <v>26075526</v>
+        <v>26096526</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>18281</v>
+        <v>18293</v>
       </c>
       <c r="D544" t="n">
-        <v>26572512</v>
+        <v>26590367</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>41462</v>
+        <v>41505</v>
       </c>
       <c r="D547" t="n">
-        <v>55058478</v>
+        <v>55118312</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26734,10 +26734,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D550" t="n">
-        <v>237750</v>
+        <v>239250</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -26782,10 +26782,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>14188</v>
+        <v>14204</v>
       </c>
       <c r="D551" t="n">
-        <v>20925496</v>
+        <v>20949169</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>14363</v>
+        <v>14382</v>
       </c>
       <c r="D553" t="n">
-        <v>20856917</v>
+        <v>20885178</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D555" t="n">
-        <v>393930</v>
+        <v>395430</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -27022,10 +27022,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>41224</v>
+        <v>41269</v>
       </c>
       <c r="D556" t="n">
-        <v>53445764</v>
+        <v>53498484</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -27214,10 +27214,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>16169</v>
+        <v>16179</v>
       </c>
       <c r="D560" t="n">
-        <v>23723426</v>
+        <v>23738426</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>12971</v>
+        <v>12984</v>
       </c>
       <c r="D562" t="n">
-        <v>18759847</v>
+        <v>18779347</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27502,10 +27502,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>43753</v>
+        <v>43790</v>
       </c>
       <c r="D566" t="n">
-        <v>58426527</v>
+        <v>58473348</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>13883</v>
+        <v>13896</v>
       </c>
       <c r="D572" t="n">
-        <v>20363440</v>
+        <v>20382249</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27838,10 +27838,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>3694</v>
+        <v>3696</v>
       </c>
       <c r="D573" t="n">
-        <v>5328211</v>
+        <v>5330140</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>17223</v>
+        <v>17254</v>
       </c>
       <c r="D579" t="n">
-        <v>22761148</v>
+        <v>22797660</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28318,10 +28318,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>7042</v>
+        <v>7046</v>
       </c>
       <c r="D583" t="n">
-        <v>10241481</v>
+        <v>10247481</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>4905</v>
+        <v>4909</v>
       </c>
       <c r="D585" t="n">
-        <v>7060936</v>
+        <v>7066936</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>15315</v>
+        <v>15353</v>
       </c>
       <c r="D590" t="n">
-        <v>22223846</v>
+        <v>22279946</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="D591" t="n">
-        <v>2581030</v>
+        <v>2584030</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28750,10 +28750,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D592" t="n">
-        <v>344302</v>
+        <v>345802</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -28846,10 +28846,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D594" t="n">
-        <v>71690</v>
+        <v>77690</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>21957</v>
+        <v>21973</v>
       </c>
       <c r="D596" t="n">
-        <v>27550683</v>
+        <v>27570223</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>8974</v>
+        <v>8977</v>
       </c>
       <c r="D601" t="n">
-        <v>13148508</v>
+        <v>13153008</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29470,10 +29470,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>14604</v>
+        <v>14613</v>
       </c>
       <c r="D607" t="n">
-        <v>18310724</v>
+        <v>18322064</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29662,10 +29662,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>5778</v>
+        <v>5780</v>
       </c>
       <c r="D611" t="n">
-        <v>8486151</v>
+        <v>8489151</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29902,10 +29902,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>13729</v>
+        <v>13734</v>
       </c>
       <c r="D616" t="n">
-        <v>17343477</v>
+        <v>17348881</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -30142,10 +30142,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D621" t="n">
-        <v>1675991</v>
+        <v>1678855</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -30334,10 +30334,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>7480</v>
+        <v>7485</v>
       </c>
       <c r="D625" t="n">
-        <v>9623669</v>
+        <v>9629769</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30574,10 +30574,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="D630" t="n">
-        <v>3748106</v>
+        <v>3749606</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -30766,10 +30766,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>28735</v>
+        <v>28752</v>
       </c>
       <c r="D634" t="n">
-        <v>35391051</v>
+        <v>35412814</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -30958,10 +30958,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>11000</v>
+        <v>11001</v>
       </c>
       <c r="D638" t="n">
-        <v>16139962</v>
+        <v>16141462</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
@@ -31054,10 +31054,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>4811</v>
+        <v>4814</v>
       </c>
       <c r="D640" t="n">
-        <v>6980823</v>
+        <v>6985323</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31246,10 +31246,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>11276</v>
+        <v>11283</v>
       </c>
       <c r="D644" t="n">
-        <v>13671054</v>
+        <v>13676576</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31486,10 +31486,10 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>3634</v>
+        <v>3636</v>
       </c>
       <c r="D649" t="n">
-        <v>5319719</v>
+        <v>5322719</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D653" t="n">
-        <v>316290</v>
+        <v>319290</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>28216</v>
+        <v>28237</v>
       </c>
       <c r="D654" t="n">
-        <v>35082895</v>
+        <v>35109819</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>10722</v>
+        <v>10724</v>
       </c>
       <c r="D658" t="n">
-        <v>15754964</v>
+        <v>15757964</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>3066</v>
+        <v>3070</v>
       </c>
       <c r="D660" t="n">
-        <v>4420977</v>
+        <v>4426977</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32206,10 +32206,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>7467</v>
+        <v>7474</v>
       </c>
       <c r="D664" t="n">
-        <v>9473999</v>
+        <v>9483499</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -32302,10 +32302,10 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="D666" t="n">
-        <v>3858707</v>
+        <v>3861707</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D668" t="n">
-        <v>1866821</v>
+        <v>1867872</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D669" t="n">
-        <v>361484</v>
+        <v>364484</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>3766</v>
+        <v>3768</v>
       </c>
       <c r="D672" t="n">
-        <v>4563767</v>
+        <v>4566767</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D680" t="n">
-        <v>204108</v>
+        <v>204932</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33022,10 +33022,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>9278</v>
+        <v>9283</v>
       </c>
       <c r="D681" t="n">
-        <v>11579162</v>
+        <v>11585981</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -33262,10 +33262,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D686" t="n">
-        <v>1075602</v>
+        <v>1077102</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>19156</v>
+        <v>19167</v>
       </c>
       <c r="D690" t="n">
-        <v>23452454</v>
+        <v>23462813</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33646,10 +33646,10 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>5698</v>
+        <v>5699</v>
       </c>
       <c r="D694" t="n">
-        <v>8322480</v>
+        <v>8323980</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="D696" t="n">
-        <v>3220014</v>
+        <v>3221514</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33934,10 +33934,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D700" t="n">
-        <v>416690</v>
+        <v>418190</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -33982,10 +33982,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>74097</v>
+        <v>74156</v>
       </c>
       <c r="D701" t="n">
-        <v>93287118</v>
+        <v>93360823</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -34222,10 +34222,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>26439</v>
+        <v>26448</v>
       </c>
       <c r="D706" t="n">
-        <v>38822919</v>
+        <v>38836419</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -34366,10 +34366,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>13100</v>
+        <v>13110</v>
       </c>
       <c r="D709" t="n">
-        <v>18894714</v>
+        <v>18909654</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -34510,10 +34510,10 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="D712" t="n">
-        <v>2774629</v>
+        <v>2777047</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="D714" t="n">
-        <v>1651835</v>
+        <v>1659039</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34654,10 +34654,10 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>11092</v>
+        <v>11098</v>
       </c>
       <c r="D715" t="n">
-        <v>13570748</v>
+        <v>13577363</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -34894,10 +34894,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D720" t="n">
-        <v>2140000</v>
+        <v>2141500</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -35038,10 +35038,10 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>17511</v>
+        <v>17519</v>
       </c>
       <c r="D723" t="n">
-        <v>21600605</v>
+        <v>21610384</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -35230,10 +35230,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>6824</v>
+        <v>6826</v>
       </c>
       <c r="D727" t="n">
-        <v>9974829</v>
+        <v>9977829</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -35326,10 +35326,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="D729" t="n">
-        <v>3112538</v>
+        <v>3115538</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -35422,10 +35422,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D731" t="n">
-        <v>450989</v>
+        <v>452489</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -35566,10 +35566,10 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>11453</v>
+        <v>11461</v>
       </c>
       <c r="D734" t="n">
-        <v>14145102</v>
+        <v>14154539</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -35758,10 +35758,10 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>4225</v>
+        <v>4228</v>
       </c>
       <c r="D738" t="n">
-        <v>6193745</v>
+        <v>6198245</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -35854,10 +35854,10 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="D740" t="n">
-        <v>2314034</v>
+        <v>2317034</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -35998,10 +35998,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>29411</v>
+        <v>29435</v>
       </c>
       <c r="D743" t="n">
-        <v>36561557</v>
+        <v>36586956</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -36094,10 +36094,10 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D745" t="n">
-        <v>48000</v>
+        <v>49500</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -36238,10 +36238,10 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>12679</v>
+        <v>12682</v>
       </c>
       <c r="D748" t="n">
-        <v>18557472</v>
+        <v>18561366</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -36574,10 +36574,10 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>12258</v>
+        <v>12272</v>
       </c>
       <c r="D755" t="n">
-        <v>15180159</v>
+        <v>15194684</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -36718,10 +36718,10 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>4645</v>
+        <v>4648</v>
       </c>
       <c r="D758" t="n">
-        <v>6789507</v>
+        <v>6793356</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -36766,10 +36766,10 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D759" t="n">
-        <v>1641986</v>
+        <v>1643486</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -36862,10 +36862,10 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D761" t="n">
-        <v>517662</v>
+        <v>519162</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -36910,10 +36910,10 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>6683</v>
+        <v>6690</v>
       </c>
       <c r="D762" t="n">
-        <v>7856799</v>
+        <v>7864848</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -37246,10 +37246,10 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D769" t="n">
-        <v>206015</v>
+        <v>207515</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -37294,10 +37294,10 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>16708</v>
+        <v>16722</v>
       </c>
       <c r="D770" t="n">
-        <v>20268209</v>
+        <v>20285128</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -37630,10 +37630,10 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>3385</v>
+        <v>3387</v>
       </c>
       <c r="D777" t="n">
-        <v>4944277</v>
+        <v>4947277</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -37774,10 +37774,10 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D780" t="n">
-        <v>389848</v>
+        <v>391348</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -37822,10 +37822,10 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>11322</v>
+        <v>11327</v>
       </c>
       <c r="D781" t="n">
-        <v>14344495</v>
+        <v>14350175</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -38014,10 +38014,10 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>3945</v>
+        <v>3947</v>
       </c>
       <c r="D785" t="n">
-        <v>5768483</v>
+        <v>5771483</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -38110,10 +38110,10 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D787" t="n">
-        <v>1807912</v>
+        <v>1809412</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -38302,10 +38302,10 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>31977</v>
+        <v>32009</v>
       </c>
       <c r="D791" t="n">
-        <v>39452457</v>
+        <v>39488834</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -38590,10 +38590,10 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>6017</v>
+        <v>6019</v>
       </c>
       <c r="D797" t="n">
-        <v>8695230</v>
+        <v>8698230</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -38734,10 +38734,10 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D800" t="n">
-        <v>906273</v>
+        <v>907773</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -38782,10 +38782,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>7570</v>
+        <v>7580</v>
       </c>
       <c r="D801" t="n">
-        <v>9361796</v>
+        <v>9373636</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -39262,10 +39262,10 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>58523</v>
+        <v>58581</v>
       </c>
       <c r="D811" t="n">
-        <v>73151269</v>
+        <v>73224406</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -39502,10 +39502,10 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>21075</v>
+        <v>21082</v>
       </c>
       <c r="D816" t="n">
-        <v>30834725</v>
+        <v>30845225</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -39646,10 +39646,10 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>12550</v>
+        <v>12555</v>
       </c>
       <c r="D819" t="n">
-        <v>18115829</v>
+        <v>18123329</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -39742,10 +39742,10 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D821" t="n">
-        <v>636361</v>
+        <v>644695</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -39886,10 +39886,10 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D824" t="n">
-        <v>1830185</v>
+        <v>1831685</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -39934,10 +39934,10 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>11082</v>
+        <v>11089</v>
       </c>
       <c r="D825" t="n">
-        <v>13820192</v>
+        <v>13828181</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -40462,10 +40462,10 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>58238</v>
+        <v>58273</v>
       </c>
       <c r="D836" t="n">
-        <v>72015412</v>
+        <v>72056213</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -40750,10 +40750,10 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>22264</v>
+        <v>22267</v>
       </c>
       <c r="D842" t="n">
-        <v>32668595</v>
+        <v>32672826</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -40846,10 +40846,10 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>14262</v>
+        <v>14269</v>
       </c>
       <c r="D844" t="n">
-        <v>20647414</v>
+        <v>20657814</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -40942,10 +40942,10 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D846" t="n">
-        <v>1270601</v>
+        <v>1272101</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -40990,10 +40990,10 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="D847" t="n">
-        <v>1714786</v>
+        <v>1717786</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -41086,10 +41086,10 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>7706</v>
+        <v>7710</v>
       </c>
       <c r="D849" t="n">
-        <v>9456879</v>
+        <v>9462879</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -41182,10 +41182,10 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>2562</v>
+        <v>2565</v>
       </c>
       <c r="D851" t="n">
-        <v>3730562</v>
+        <v>3735062</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -41230,10 +41230,10 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D852" t="n">
-        <v>1551479</v>
+        <v>1552979</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -41374,10 +41374,10 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>3580</v>
+        <v>3584</v>
       </c>
       <c r="D855" t="n">
-        <v>4628637</v>
+        <v>4633813</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -41710,10 +41710,10 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D862" t="n">
-        <v>145155</v>
+        <v>146655</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -41758,10 +41758,10 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>22257</v>
+        <v>22271</v>
       </c>
       <c r="D863" t="n">
-        <v>27887937</v>
+        <v>27903757</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -41950,10 +41950,10 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>7725</v>
+        <v>7729</v>
       </c>
       <c r="D867" t="n">
-        <v>11276256</v>
+        <v>11282256</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -42046,10 +42046,10 @@
         </is>
       </c>
       <c r="C869" t="n">
-        <v>4608</v>
+        <v>4610</v>
       </c>
       <c r="D869" t="n">
-        <v>6662151</v>
+        <v>6665151</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -42286,10 +42286,10 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>14448</v>
+        <v>14461</v>
       </c>
       <c r="D874" t="n">
-        <v>17421978</v>
+        <v>17437648</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -42478,10 +42478,10 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>5230</v>
+        <v>5231</v>
       </c>
       <c r="D878" t="n">
-        <v>7627610</v>
+        <v>7629110</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -42766,10 +42766,10 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>9735</v>
+        <v>9739</v>
       </c>
       <c r="D884" t="n">
-        <v>11965028</v>
+        <v>11968265</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -43054,10 +43054,10 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D890" t="n">
-        <v>266389</v>
+        <v>267889</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -43102,10 +43102,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>44358</v>
+        <v>44392</v>
       </c>
       <c r="D891" t="n">
-        <v>55735119</v>
+        <v>55772445</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -43342,10 +43342,10 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>20990</v>
+        <v>20996</v>
       </c>
       <c r="D896" t="n">
-        <v>30777625</v>
+        <v>30786188</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -43438,10 +43438,10 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>5868</v>
+        <v>5871</v>
       </c>
       <c r="D898" t="n">
-        <v>8455169</v>
+        <v>8459669</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -43486,10 +43486,10 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D899" t="n">
-        <v>886455</v>
+        <v>887955</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -43630,10 +43630,10 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>21124</v>
+        <v>21140</v>
       </c>
       <c r="D902" t="n">
-        <v>26292309</v>
+        <v>26308361</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -43774,10 +43774,10 @@
         </is>
       </c>
       <c r="C905" t="n">
-        <v>9750</v>
+        <v>9753</v>
       </c>
       <c r="D905" t="n">
-        <v>14287869</v>
+        <v>14292369</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -43870,10 +43870,10 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="D907" t="n">
-        <v>3247165</v>
+        <v>3248665</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -43966,10 +43966,10 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D909" t="n">
-        <v>884433</v>
+        <v>885933</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -44014,10 +44014,10 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D910" t="n">
-        <v>880350</v>
+        <v>881850</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -44062,10 +44062,10 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>7006</v>
+        <v>7010</v>
       </c>
       <c r="D911" t="n">
-        <v>8809529</v>
+        <v>8813292</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -44302,10 +44302,10 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>3008</v>
+        <v>3010</v>
       </c>
       <c r="D916" t="n">
-        <v>4430020</v>
+        <v>4433020</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -44494,10 +44494,10 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>12966</v>
+        <v>12976</v>
       </c>
       <c r="D920" t="n">
-        <v>16165915</v>
+        <v>16175450</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -44686,10 +44686,10 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>5233</v>
+        <v>5236</v>
       </c>
       <c r="D924" t="n">
-        <v>7647180</v>
+        <v>7651678</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -44782,10 +44782,10 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D926" t="n">
-        <v>1980367</v>
+        <v>1981867</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -45022,10 +45022,10 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>19237</v>
+        <v>19248</v>
       </c>
       <c r="D931" t="n">
-        <v>24040213</v>
+        <v>24049207</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -45214,10 +45214,10 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>10057</v>
+        <v>10058</v>
       </c>
       <c r="D935" t="n">
-        <v>14701576</v>
+        <v>14703076</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -45358,10 +45358,10 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D938" t="n">
-        <v>491147</v>
+        <v>492647</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -45406,10 +45406,10 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D939" t="n">
-        <v>616795</v>
+        <v>620294</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -45454,10 +45454,10 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>8586</v>
+        <v>8595</v>
       </c>
       <c r="D940" t="n">
-        <v>10715120</v>
+        <v>10727197</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -45694,10 +45694,10 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="D945" t="n">
-        <v>4654634</v>
+        <v>4656134</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -45742,10 +45742,10 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D946" t="n">
-        <v>2152409</v>
+        <v>2153309</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -45934,10 +45934,10 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>66835</v>
+        <v>66895</v>
       </c>
       <c r="D950" t="n">
-        <v>85816763</v>
+        <v>85891282</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -46270,10 +46270,10 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>25484</v>
+        <v>25501</v>
       </c>
       <c r="D957" t="n">
-        <v>37352317</v>
+        <v>37376852</v>
       </c>
       <c r="E957" t="inlineStr">
         <is>
@@ -46366,10 +46366,10 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>17530</v>
+        <v>17540</v>
       </c>
       <c r="D959" t="n">
-        <v>25417242</v>
+        <v>25431342</v>
       </c>
       <c r="E959" t="inlineStr">
         <is>
@@ -46462,10 +46462,10 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D961" t="n">
-        <v>697335</v>
+        <v>697823</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
@@ -46510,10 +46510,10 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D962" t="n">
-        <v>1232221</v>
+        <v>1233721</v>
       </c>
       <c r="E962" t="inlineStr">
         <is>
@@ -46558,10 +46558,10 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>83422</v>
+        <v>83493</v>
       </c>
       <c r="D963" t="n">
-        <v>104755193</v>
+        <v>104839381</v>
       </c>
       <c r="E963" t="inlineStr">
         <is>
@@ -46894,10 +46894,10 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>33708</v>
+        <v>33725</v>
       </c>
       <c r="D970" t="n">
-        <v>49447106</v>
+        <v>49470396</v>
       </c>
       <c r="E970" t="inlineStr">
         <is>
@@ -47038,10 +47038,10 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>25095</v>
+        <v>25115</v>
       </c>
       <c r="D973" t="n">
-        <v>36396461</v>
+        <v>36426461</v>
       </c>
       <c r="E973" t="inlineStr">
         <is>
@@ -47086,10 +47086,10 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D974" t="n">
-        <v>871462</v>
+        <v>872652</v>
       </c>
       <c r="E974" t="inlineStr">
         <is>
@@ -47182,10 +47182,10 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="D976" t="n">
-        <v>2783993</v>
+        <v>2787617</v>
       </c>
       <c r="E976" t="inlineStr">
         <is>
@@ -47230,10 +47230,10 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>10704</v>
+        <v>10716</v>
       </c>
       <c r="D977" t="n">
-        <v>13967791</v>
+        <v>13982476</v>
       </c>
       <c r="E977" t="inlineStr">
         <is>
@@ -47422,10 +47422,10 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3453</v>
+        <v>3455</v>
       </c>
       <c r="D981" t="n">
-        <v>5043922</v>
+        <v>5046922</v>
       </c>
       <c r="E981" t="inlineStr">
         <is>
@@ -47470,10 +47470,10 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="D982" t="n">
-        <v>1603369</v>
+        <v>1606369</v>
       </c>
       <c r="E982" t="inlineStr">
         <is>
@@ -47710,10 +47710,10 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>55781</v>
+        <v>55825</v>
       </c>
       <c r="D987" t="n">
-        <v>69838023</v>
+        <v>69893337</v>
       </c>
       <c r="E987" t="inlineStr">
         <is>
@@ -47950,10 +47950,10 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>18469</v>
+        <v>18474</v>
       </c>
       <c r="D992" t="n">
-        <v>27047783</v>
+        <v>27055283</v>
       </c>
       <c r="E992" t="inlineStr">
         <is>
@@ -48046,10 +48046,10 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>12573</v>
+        <v>12577</v>
       </c>
       <c r="D994" t="n">
-        <v>18182557</v>
+        <v>18188477</v>
       </c>
       <c r="E994" t="inlineStr">
         <is>
@@ -48190,10 +48190,10 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="D997" t="n">
-        <v>1023924</v>
+        <v>1029924</v>
       </c>
       <c r="E997" t="inlineStr">
         <is>
@@ -48238,10 +48238,10 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>28118</v>
+        <v>28146</v>
       </c>
       <c r="D998" t="n">
-        <v>34991433</v>
+        <v>35021979</v>
       </c>
       <c r="E998" t="inlineStr">
         <is>
@@ -48478,10 +48478,10 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>10467</v>
+        <v>10473</v>
       </c>
       <c r="D1003" t="n">
-        <v>15329750</v>
+        <v>15338750</v>
       </c>
       <c r="E1003" t="inlineStr">
         <is>
@@ -48574,10 +48574,10 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>6196</v>
+        <v>6203</v>
       </c>
       <c r="D1005" t="n">
-        <v>8984105</v>
+        <v>8994605</v>
       </c>
       <c r="E1005" t="inlineStr">
         <is>
@@ -48670,10 +48670,10 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D1007" t="n">
-        <v>713129</v>
+        <v>716129</v>
       </c>
       <c r="E1007" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16323</v>
+        <v>16338</v>
       </c>
       <c r="D2" t="n">
-        <v>20522921</v>
+        <v>20540918</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6237</v>
+        <v>6240</v>
       </c>
       <c r="D6" t="n">
-        <v>9122268</v>
+        <v>9125238</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3284</v>
+        <v>3287</v>
       </c>
       <c r="D8" t="n">
-        <v>4754212</v>
+        <v>4756880</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10963</v>
+        <v>10978</v>
       </c>
       <c r="D12" t="n">
-        <v>13840056</v>
+        <v>13854426</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="D16" t="n">
-        <v>4696127</v>
+        <v>4697627</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D18" t="n">
-        <v>2090720</v>
+        <v>2092220</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14217</v>
+        <v>14232</v>
       </c>
       <c r="D21" t="n">
-        <v>17440448</v>
+        <v>17457173</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4934</v>
+        <v>4935</v>
       </c>
       <c r="D25" t="n">
-        <v>7215428</v>
+        <v>7216928</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="D27" t="n">
-        <v>2461899</v>
+        <v>2462493</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D30" t="n">
-        <v>469403</v>
+        <v>470903</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D34" t="n">
-        <v>2317120</v>
+        <v>2318620</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21813</v>
+        <v>21836</v>
       </c>
       <c r="D40" t="n">
-        <v>26856566</v>
+        <v>26876126</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7792</v>
+        <v>7798</v>
       </c>
       <c r="D46" t="n">
-        <v>11445460</v>
+        <v>11454460</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3830</v>
+        <v>3831</v>
       </c>
       <c r="D48" t="n">
-        <v>5543655</v>
+        <v>5545155</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D51" t="n">
-        <v>822566</v>
+        <v>827066</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8125</v>
+        <v>8132</v>
       </c>
       <c r="D52" t="n">
-        <v>10372127</v>
+        <v>10377641</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="D56" t="n">
-        <v>4041303</v>
+        <v>4042043</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D58" t="n">
-        <v>1441052</v>
+        <v>1443584</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D60" t="n">
-        <v>349961</v>
+        <v>351461</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>36060</v>
+        <v>36089</v>
       </c>
       <c r="D61" t="n">
-        <v>46425867</v>
+        <v>46464294</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>13128</v>
+        <v>13144</v>
       </c>
       <c r="D66" t="n">
-        <v>19253835</v>
+        <v>19277835</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5147</v>
+        <v>5153</v>
       </c>
       <c r="D68" t="n">
-        <v>7443815</v>
+        <v>7452815</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>46149</v>
+        <v>46187</v>
       </c>
       <c r="D74" t="n">
-        <v>59016174</v>
+        <v>59055149</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4078,10 +4078,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>18097</v>
+        <v>18104</v>
       </c>
       <c r="D78" t="n">
-        <v>26513305</v>
+        <v>26523304</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>9317</v>
+        <v>9324</v>
       </c>
       <c r="D80" t="n">
-        <v>13451549</v>
+        <v>13460833</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="D84" t="n">
-        <v>1114180</v>
+        <v>1118223</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>24868</v>
+        <v>24901</v>
       </c>
       <c r="D85" t="n">
-        <v>31354563</v>
+        <v>31390628</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>8674</v>
+        <v>8676</v>
       </c>
       <c r="D89" t="n">
-        <v>12732886</v>
+        <v>12735886</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4891</v>
+        <v>4895</v>
       </c>
       <c r="D91" t="n">
-        <v>7069638</v>
+        <v>7074639</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D93" t="n">
-        <v>1060315</v>
+        <v>1061815</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>21917</v>
+        <v>21931</v>
       </c>
       <c r="D94" t="n">
-        <v>27515519</v>
+        <v>27531701</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -5038,10 +5038,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>9143</v>
+        <v>9149</v>
       </c>
       <c r="D98" t="n">
-        <v>13384205</v>
+        <v>13393205</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D103" t="n">
-        <v>340301</v>
+        <v>341301</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>81430</v>
+        <v>81519</v>
       </c>
       <c r="D105" t="n">
-        <v>104363624</v>
+        <v>104466700</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D110" t="n">
-        <v>221280</v>
+        <v>222780</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>30561</v>
+        <v>30573</v>
       </c>
       <c r="D112" t="n">
-        <v>44846873</v>
+        <v>44864473</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>20777</v>
+        <v>20797</v>
       </c>
       <c r="D114" t="n">
-        <v>29982194</v>
+        <v>30009159</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5950,10 +5950,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D117" t="n">
-        <v>966767</v>
+        <v>969767</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="D121" t="n">
-        <v>2645883</v>
+        <v>2647383</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>27646</v>
+        <v>27666</v>
       </c>
       <c r="D122" t="n">
-        <v>36487611</v>
+        <v>36514011</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>9857</v>
+        <v>9863</v>
       </c>
       <c r="D126" t="n">
-        <v>14455979</v>
+        <v>14464979</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3259</v>
+        <v>3263</v>
       </c>
       <c r="D128" t="n">
-        <v>4739256</v>
+        <v>4744157</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6622,10 +6622,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D131" t="n">
-        <v>488982</v>
+        <v>491802</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>15708</v>
+        <v>15722</v>
       </c>
       <c r="D132" t="n">
-        <v>19549614</v>
+        <v>19564614</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>7750</v>
+        <v>7754</v>
       </c>
       <c r="D135" t="n">
-        <v>11341635</v>
+        <v>11347635</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="D137" t="n">
-        <v>3154110</v>
+        <v>3155610</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>13506</v>
+        <v>13514</v>
       </c>
       <c r="D142" t="n">
-        <v>16880085</v>
+        <v>16887463</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>6237</v>
+        <v>6239</v>
       </c>
       <c r="D146" t="n">
-        <v>9137755</v>
+        <v>9140755</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D150" t="n">
-        <v>153790</v>
+        <v>155290</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D151" t="n">
-        <v>504908</v>
+        <v>506408</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>5976</v>
+        <v>5978</v>
       </c>
       <c r="D152" t="n">
-        <v>7309862</v>
+        <v>7311632</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D156" t="n">
-        <v>974327</v>
+        <v>975827</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>7426</v>
+        <v>7430</v>
       </c>
       <c r="D160" t="n">
-        <v>9209161</v>
+        <v>9212472</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c r="D163" t="n">
-        <v>4175958</v>
+        <v>4178958</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D164" t="n">
-        <v>2009932</v>
+        <v>2011432</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>5604</v>
+        <v>5606</v>
       </c>
       <c r="D168" t="n">
-        <v>7055122</v>
+        <v>7056757</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>15944</v>
+        <v>15952</v>
       </c>
       <c r="D178" t="n">
-        <v>20034454</v>
+        <v>20043666</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>6382</v>
+        <v>6389</v>
       </c>
       <c r="D183" t="n">
-        <v>9322294</v>
+        <v>9332359</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D186" t="n">
-        <v>738655</v>
+        <v>740155</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3061</v>
+        <v>3064</v>
       </c>
       <c r="D188" t="n">
-        <v>3845491</v>
+        <v>3846137</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D190" t="n">
-        <v>2152242</v>
+        <v>2153742</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D195" t="n">
-        <v>68525</v>
+        <v>70025</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>9195</v>
+        <v>9199</v>
       </c>
       <c r="D196" t="n">
-        <v>11482026</v>
+        <v>11486616</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>3426</v>
+        <v>3429</v>
       </c>
       <c r="D200" t="n">
-        <v>5033576</v>
+        <v>5038076</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="D201" t="n">
-        <v>2321680</v>
+        <v>2324680</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -10126,10 +10126,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D204" t="n">
-        <v>296097</v>
+        <v>297597</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>17227</v>
+        <v>17237</v>
       </c>
       <c r="D205" t="n">
-        <v>21518714</v>
+        <v>21531557</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>7678</v>
+        <v>7682</v>
       </c>
       <c r="D209" t="n">
-        <v>11275801</v>
+        <v>11280996</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D211" t="n">
-        <v>394905</v>
+        <v>395577</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>26095</v>
+        <v>26109</v>
       </c>
       <c r="D213" t="n">
-        <v>32919425</v>
+        <v>32931061</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10750,10 +10750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>10483</v>
+        <v>10487</v>
       </c>
       <c r="D217" t="n">
-        <v>15310852</v>
+        <v>15315853</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2632</v>
+        <v>2635</v>
       </c>
       <c r="D219" t="n">
-        <v>3795522</v>
+        <v>3800022</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D222" t="n">
-        <v>843266</v>
+        <v>844766</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>28428</v>
+        <v>28456</v>
       </c>
       <c r="D223" t="n">
-        <v>35885586</v>
+        <v>35915098</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>14720</v>
+        <v>14722</v>
       </c>
       <c r="D228" t="n">
-        <v>21599928</v>
+        <v>21602928</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>2650</v>
+        <v>2655</v>
       </c>
       <c r="D230" t="n">
-        <v>3804675</v>
+        <v>3812175</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D232" t="n">
-        <v>509584</v>
+        <v>511084</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D233" t="n">
-        <v>1019228</v>
+        <v>1022228</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>24237</v>
+        <v>24254</v>
       </c>
       <c r="D234" t="n">
-        <v>30577910</v>
+        <v>30595219</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D238" t="n">
-        <v>330775</v>
+        <v>332275</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>11167</v>
+        <v>11170</v>
       </c>
       <c r="D240" t="n">
-        <v>16371249</v>
+        <v>16375749</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="D242" t="n">
-        <v>3580847</v>
+        <v>3582347</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -12094,10 +12094,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D245" t="n">
-        <v>621324</v>
+        <v>622824</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>7862</v>
+        <v>7866</v>
       </c>
       <c r="D246" t="n">
-        <v>9837056</v>
+        <v>9840680</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>2697</v>
+        <v>2700</v>
       </c>
       <c r="D250" t="n">
-        <v>3958650</v>
+        <v>3963150</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12478,10 +12478,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D253" t="n">
-        <v>1452615</v>
+        <v>1454115</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>9791</v>
+        <v>9796</v>
       </c>
       <c r="D256" t="n">
-        <v>12488092</v>
+        <v>12493927</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="D262" t="n">
-        <v>3140102</v>
+        <v>3141602</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>5532</v>
+        <v>5540</v>
       </c>
       <c r="D265" t="n">
-        <v>6858043</v>
+        <v>6870043</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13438,10 +13438,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D273" t="n">
-        <v>230656</v>
+        <v>232156</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13486,10 +13486,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>19041</v>
+        <v>19056</v>
       </c>
       <c r="D274" t="n">
-        <v>24062909</v>
+        <v>24079422</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -13678,10 +13678,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>7918</v>
+        <v>7924</v>
       </c>
       <c r="D278" t="n">
-        <v>11609705</v>
+        <v>11618608</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13774,10 +13774,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="D280" t="n">
-        <v>3579559</v>
+        <v>3581059</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D283" t="n">
-        <v>650745</v>
+        <v>652245</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>16578</v>
+        <v>16594</v>
       </c>
       <c r="D285" t="n">
-        <v>20539922</v>
+        <v>20556883</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14206,10 +14206,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>7178</v>
+        <v>7181</v>
       </c>
       <c r="D289" t="n">
-        <v>10528612</v>
+        <v>10533112</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>9331</v>
+        <v>9342</v>
       </c>
       <c r="D294" t="n">
-        <v>11727079</v>
+        <v>11739335</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="D298" t="n">
-        <v>5722832</v>
+        <v>5724332</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D299" t="n">
-        <v>1811009</v>
+        <v>1812509</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>9186</v>
+        <v>9193</v>
       </c>
       <c r="D304" t="n">
-        <v>11996036</v>
+        <v>12003485</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -15118,10 +15118,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>3735</v>
+        <v>3739</v>
       </c>
       <c r="D308" t="n">
-        <v>5460349</v>
+        <v>5466349</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>11053</v>
+        <v>11059</v>
       </c>
       <c r="D312" t="n">
-        <v>14515336</v>
+        <v>14523278</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2696</v>
+        <v>2702</v>
       </c>
       <c r="D318" t="n">
-        <v>3909138</v>
+        <v>3918138</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D320" t="n">
-        <v>233286</v>
+        <v>234786</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>6801</v>
+        <v>6808</v>
       </c>
       <c r="D321" t="n">
-        <v>8409391</v>
+        <v>8416301</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D328" t="n">
-        <v>1128842</v>
+        <v>1130275</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>7512</v>
+        <v>7522</v>
       </c>
       <c r="D331" t="n">
-        <v>9404046</v>
+        <v>9418179</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="D336" t="n">
-        <v>4567315</v>
+        <v>4568815</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="D337" t="n">
-        <v>1845695</v>
+        <v>1848361</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>31944</v>
+        <v>31982</v>
       </c>
       <c r="D340" t="n">
-        <v>40132719</v>
+        <v>40177718</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>16518</v>
+        <v>16524</v>
       </c>
       <c r="D346" t="n">
-        <v>24154379</v>
+        <v>24161739</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>8029</v>
+        <v>8042</v>
       </c>
       <c r="D349" t="n">
-        <v>11563034</v>
+        <v>11582205</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D350" t="n">
-        <v>914171</v>
+        <v>915671</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>3887</v>
+        <v>3893</v>
       </c>
       <c r="D352" t="n">
-        <v>4842945</v>
+        <v>4850212</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D355" t="n">
-        <v>2203157</v>
+        <v>2204657</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>19354</v>
+        <v>19368</v>
       </c>
       <c r="D360" t="n">
-        <v>24134344</v>
+        <v>24150044</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>9895</v>
+        <v>9901</v>
       </c>
       <c r="D364" t="n">
-        <v>14507235</v>
+        <v>14516235</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>4733</v>
+        <v>4737</v>
       </c>
       <c r="D366" t="n">
-        <v>6844409</v>
+        <v>6850409</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D367" t="n">
-        <v>868460</v>
+        <v>871460</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D368" t="n">
-        <v>500984</v>
+        <v>502484</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>13902</v>
+        <v>13917</v>
       </c>
       <c r="D369" t="n">
-        <v>17393938</v>
+        <v>17408534</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>6436</v>
+        <v>6441</v>
       </c>
       <c r="D373" t="n">
-        <v>9422958</v>
+        <v>9430458</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>2478</v>
+        <v>2481</v>
       </c>
       <c r="D375" t="n">
-        <v>3561087</v>
+        <v>3565183</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>17963</v>
+        <v>17981</v>
       </c>
       <c r="D378" t="n">
-        <v>22405293</v>
+        <v>22423439</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>7136</v>
+        <v>7139</v>
       </c>
       <c r="D382" t="n">
-        <v>10489215</v>
+        <v>10493715</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>2834</v>
+        <v>2836</v>
       </c>
       <c r="D384" t="n">
-        <v>4123192</v>
+        <v>4125151</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D387" t="n">
-        <v>555654</v>
+        <v>557154</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -18958,10 +18958,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>4088</v>
+        <v>4090</v>
       </c>
       <c r="D388" t="n">
-        <v>5129292</v>
+        <v>5132292</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>22248</v>
+        <v>22268</v>
       </c>
       <c r="D395" t="n">
-        <v>27599752</v>
+        <v>27623557</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>9360</v>
+        <v>9364</v>
       </c>
       <c r="D398" t="n">
-        <v>13779417</v>
+        <v>13785017</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19534,10 +19534,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>6203</v>
+        <v>6207</v>
       </c>
       <c r="D400" t="n">
-        <v>9023736</v>
+        <v>9028491</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>11130</v>
+        <v>11131</v>
       </c>
       <c r="D403" t="n">
-        <v>13721686</v>
+        <v>13722637</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -20014,10 +20014,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="D410" t="n">
-        <v>2672364</v>
+        <v>2675364</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>32054</v>
+        <v>32126</v>
       </c>
       <c r="D413" t="n">
-        <v>43432262</v>
+        <v>43525558</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>7792</v>
+        <v>7802</v>
       </c>
       <c r="D417" t="n">
-        <v>11457470</v>
+        <v>11472470</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>7088</v>
+        <v>7098</v>
       </c>
       <c r="D419" t="n">
-        <v>10275127</v>
+        <v>10290127</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>8791</v>
+        <v>8823</v>
       </c>
       <c r="D423" t="n">
-        <v>12200726</v>
+        <v>12245320</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2210</v>
+        <v>2218</v>
       </c>
       <c r="D425" t="n">
-        <v>3256352</v>
+        <v>3267382</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20830,10 +20830,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>2979</v>
+        <v>2988</v>
       </c>
       <c r="D427" t="n">
-        <v>4351241</v>
+        <v>4364741</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D430" t="n">
-        <v>247086</v>
+        <v>248586</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21022,10 +21022,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>11019</v>
+        <v>11022</v>
       </c>
       <c r="D431" t="n">
-        <v>13603731</v>
+        <v>13608231</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>3785</v>
+        <v>3786</v>
       </c>
       <c r="D434" t="n">
-        <v>5555841</v>
+        <v>5556304</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21262,10 +21262,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="D436" t="n">
-        <v>2680227</v>
+        <v>2684727</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>62838</v>
+        <v>62901</v>
       </c>
       <c r="D439" t="n">
-        <v>77883850</v>
+        <v>77955041</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21502,10 +21502,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D441" t="n">
-        <v>38487</v>
+        <v>39757</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>24913</v>
+        <v>24916</v>
       </c>
       <c r="D443" t="n">
-        <v>36518620</v>
+        <v>36523120</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>12907</v>
+        <v>12923</v>
       </c>
       <c r="D445" t="n">
-        <v>18716968</v>
+        <v>18740027</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21886,10 +21886,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="D449" t="n">
-        <v>1458294</v>
+        <v>1460899</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -21982,10 +21982,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>18881</v>
+        <v>18889</v>
       </c>
       <c r="D451" t="n">
-        <v>23868117</v>
+        <v>23878757</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>7700</v>
+        <v>7702</v>
       </c>
       <c r="D455" t="n">
-        <v>11302393</v>
+        <v>11305393</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22270,10 +22270,10 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>4851</v>
+        <v>4856</v>
       </c>
       <c r="D457" t="n">
-        <v>7039422</v>
+        <v>7046922</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -22414,10 +22414,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>32195</v>
+        <v>32218</v>
       </c>
       <c r="D460" t="n">
-        <v>39355427</v>
+        <v>39380080</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -22606,10 +22606,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>11446</v>
+        <v>11448</v>
       </c>
       <c r="D464" t="n">
-        <v>16747270</v>
+        <v>16749849</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>4902</v>
+        <v>4905</v>
       </c>
       <c r="D466" t="n">
-        <v>7113393</v>
+        <v>7116582</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D467" t="n">
-        <v>522044</v>
+        <v>523484</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>14386</v>
+        <v>14395</v>
       </c>
       <c r="D469" t="n">
-        <v>17592872</v>
+        <v>17602746</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -23182,10 +23182,10 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="D476" t="n">
-        <v>2981283</v>
+        <v>2984283</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>35933</v>
+        <v>35970</v>
       </c>
       <c r="D479" t="n">
-        <v>46821562</v>
+        <v>46870036</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>13546</v>
+        <v>13552</v>
       </c>
       <c r="D483" t="n">
-        <v>19929300</v>
+        <v>19938300</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>11975</v>
+        <v>11987</v>
       </c>
       <c r="D485" t="n">
-        <v>17476788</v>
+        <v>17494788</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D487" t="n">
-        <v>424726</v>
+        <v>426226</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>62242</v>
+        <v>62307</v>
       </c>
       <c r="D488" t="n">
-        <v>82418291</v>
+        <v>82499286</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>23081</v>
+        <v>23099</v>
       </c>
       <c r="D493" t="n">
-        <v>33867084</v>
+        <v>33893984</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24094,10 +24094,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>22396</v>
+        <v>22419</v>
       </c>
       <c r="D495" t="n">
-        <v>32516840</v>
+        <v>32549416</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>150578</v>
+        <v>150775</v>
       </c>
       <c r="D499" t="n">
-        <v>198052522</v>
+        <v>198306113</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>81520</v>
+        <v>81585</v>
       </c>
       <c r="D506" t="n">
-        <v>119762852</v>
+        <v>119852991</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>59923</v>
+        <v>60006</v>
       </c>
       <c r="D509" t="n">
-        <v>86984598</v>
+        <v>87103422</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24862,10 +24862,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="D511" t="n">
-        <v>1527607</v>
+        <v>1534107</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -24958,10 +24958,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>2774</v>
+        <v>2778</v>
       </c>
       <c r="D513" t="n">
-        <v>3926678</v>
+        <v>3932678</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>41080</v>
+        <v>41168</v>
       </c>
       <c r="D515" t="n">
-        <v>53397909</v>
+        <v>53512578</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>15224</v>
+        <v>15240</v>
       </c>
       <c r="D520" t="n">
-        <v>22364249</v>
+        <v>22385856</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>12911</v>
+        <v>12926</v>
       </c>
       <c r="D522" t="n">
-        <v>18714398</v>
+        <v>18735030</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>66077</v>
+        <v>66137</v>
       </c>
       <c r="D527" t="n">
-        <v>88810669</v>
+        <v>88888705</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>23284</v>
+        <v>23306</v>
       </c>
       <c r="D531" t="n">
-        <v>34358402</v>
+        <v>34389681</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25918,10 +25918,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>24054</v>
+        <v>24074</v>
       </c>
       <c r="D533" t="n">
-        <v>35206129</v>
+        <v>35234416</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D536" t="n">
-        <v>1214969</v>
+        <v>1217969</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>54978</v>
+        <v>55027</v>
       </c>
       <c r="D537" t="n">
-        <v>72921520</v>
+        <v>72983757</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26350,10 +26350,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>17760</v>
+        <v>17770</v>
       </c>
       <c r="D542" t="n">
-        <v>26096526</v>
+        <v>26111526</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>18293</v>
+        <v>18302</v>
       </c>
       <c r="D544" t="n">
-        <v>26590367</v>
+        <v>26603867</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D546" t="n">
-        <v>877253</v>
+        <v>877715</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>41505</v>
+        <v>41550</v>
       </c>
       <c r="D547" t="n">
-        <v>55118312</v>
+        <v>55175648</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26782,10 +26782,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>14204</v>
+        <v>14212</v>
       </c>
       <c r="D551" t="n">
-        <v>20949169</v>
+        <v>20961121</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>14382</v>
+        <v>14398</v>
       </c>
       <c r="D553" t="n">
-        <v>20885178</v>
+        <v>20908148</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26926,10 +26926,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D554" t="n">
-        <v>245479</v>
+        <v>251479</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -27022,10 +27022,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>41269</v>
+        <v>41301</v>
       </c>
       <c r="D556" t="n">
-        <v>53498484</v>
+        <v>53542148</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -27214,10 +27214,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>16179</v>
+        <v>16191</v>
       </c>
       <c r="D560" t="n">
-        <v>23738426</v>
+        <v>23756426</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>12984</v>
+        <v>12998</v>
       </c>
       <c r="D562" t="n">
-        <v>18779347</v>
+        <v>18798447</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27406,10 +27406,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D564" t="n">
-        <v>372060</v>
+        <v>374160</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27454,10 +27454,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D565" t="n">
-        <v>495767</v>
+        <v>497267</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27502,10 +27502,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>43790</v>
+        <v>43856</v>
       </c>
       <c r="D566" t="n">
-        <v>58473348</v>
+        <v>58552963</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>13896</v>
+        <v>13905</v>
       </c>
       <c r="D572" t="n">
-        <v>20382249</v>
+        <v>20395249</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27838,10 +27838,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>3696</v>
+        <v>3702</v>
       </c>
       <c r="D573" t="n">
-        <v>5330140</v>
+        <v>5338019</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -27982,10 +27982,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D576" t="n">
-        <v>565431</v>
+        <v>568431</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>17254</v>
+        <v>17264</v>
       </c>
       <c r="D579" t="n">
-        <v>22797660</v>
+        <v>22809991</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28318,10 +28318,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>7046</v>
+        <v>7059</v>
       </c>
       <c r="D583" t="n">
-        <v>10247481</v>
+        <v>10266288</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>4909</v>
+        <v>4913</v>
       </c>
       <c r="D585" t="n">
-        <v>7066936</v>
+        <v>7071877</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>15353</v>
+        <v>15462</v>
       </c>
       <c r="D590" t="n">
-        <v>22279946</v>
+        <v>22435556</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>1737</v>
+        <v>1744</v>
       </c>
       <c r="D591" t="n">
-        <v>2584030</v>
+        <v>2593730</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>21973</v>
+        <v>21988</v>
       </c>
       <c r="D596" t="n">
-        <v>27570223</v>
+        <v>27588072</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>8977</v>
+        <v>8982</v>
       </c>
       <c r="D601" t="n">
-        <v>13153008</v>
+        <v>13158665</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29374,10 +29374,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D605" t="n">
-        <v>646439</v>
+        <v>647939</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -29470,10 +29470,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>14613</v>
+        <v>14626</v>
       </c>
       <c r="D607" t="n">
-        <v>18322064</v>
+        <v>18339100</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29662,10 +29662,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>5780</v>
+        <v>5782</v>
       </c>
       <c r="D611" t="n">
-        <v>8489151</v>
+        <v>8492151</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="D613" t="n">
-        <v>3845587</v>
+        <v>3847087</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29902,10 +29902,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>13734</v>
+        <v>13737</v>
       </c>
       <c r="D616" t="n">
-        <v>17348881</v>
+        <v>17352334</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -30094,10 +30094,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>5218</v>
+        <v>5221</v>
       </c>
       <c r="D620" t="n">
-        <v>7648220</v>
+        <v>7652720</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -30142,10 +30142,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="D621" t="n">
-        <v>1678855</v>
+        <v>1683355</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D624" t="n">
-        <v>364466</v>
+        <v>365966</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30334,10 +30334,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>7485</v>
+        <v>7495</v>
       </c>
       <c r="D625" t="n">
-        <v>9629769</v>
+        <v>9641387</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30622,10 +30622,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D631" t="n">
-        <v>1220614</v>
+        <v>1222114</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D632" t="n">
-        <v>248518</v>
+        <v>250018</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D633" t="n">
-        <v>183956</v>
+        <v>186825</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30766,10 +30766,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>28752</v>
+        <v>28767</v>
       </c>
       <c r="D634" t="n">
-        <v>35412814</v>
+        <v>35431583</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -30958,10 +30958,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>11001</v>
+        <v>11005</v>
       </c>
       <c r="D638" t="n">
-        <v>16141462</v>
+        <v>16147115</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
@@ -31054,10 +31054,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>4814</v>
+        <v>4818</v>
       </c>
       <c r="D640" t="n">
-        <v>6985323</v>
+        <v>6990353</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31246,10 +31246,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>11283</v>
+        <v>11294</v>
       </c>
       <c r="D644" t="n">
-        <v>13676576</v>
+        <v>13689706</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>28237</v>
+        <v>28263</v>
       </c>
       <c r="D654" t="n">
-        <v>35109819</v>
+        <v>35140545</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>10724</v>
+        <v>10730</v>
       </c>
       <c r="D658" t="n">
-        <v>15757964</v>
+        <v>15765836</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>3070</v>
+        <v>3074</v>
       </c>
       <c r="D660" t="n">
-        <v>4426977</v>
+        <v>4432477</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32158,10 +32158,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D663" t="n">
-        <v>662175</v>
+        <v>666675</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32206,10 +32206,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>7474</v>
+        <v>7481</v>
       </c>
       <c r="D664" t="n">
-        <v>9483499</v>
+        <v>9492436</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -32302,10 +32302,10 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="D666" t="n">
-        <v>3861707</v>
+        <v>3864665</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="D668" t="n">
-        <v>1867872</v>
+        <v>1870872</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>3768</v>
+        <v>3770</v>
       </c>
       <c r="D672" t="n">
-        <v>4566767</v>
+        <v>4569767</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32926,10 +32926,10 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D679" t="n">
-        <v>171745</v>
+        <v>174745</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D680" t="n">
-        <v>204932</v>
+        <v>206432</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33022,10 +33022,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>9283</v>
+        <v>9296</v>
       </c>
       <c r="D681" t="n">
-        <v>11585981</v>
+        <v>11599362</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -33214,10 +33214,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="D685" t="n">
-        <v>5105017</v>
+        <v>5106517</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33262,10 +33262,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D686" t="n">
-        <v>1077102</v>
+        <v>1078602</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D689" t="n">
-        <v>379569</v>
+        <v>381069</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>19167</v>
+        <v>19187</v>
       </c>
       <c r="D690" t="n">
-        <v>23462813</v>
+        <v>23481704</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33646,10 +33646,10 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>5699</v>
+        <v>5703</v>
       </c>
       <c r="D694" t="n">
-        <v>8323980</v>
+        <v>8329980</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="D696" t="n">
-        <v>3221514</v>
+        <v>3226014</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33982,10 +33982,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>74156</v>
+        <v>74249</v>
       </c>
       <c r="D701" t="n">
-        <v>93360823</v>
+        <v>93471953</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -34222,10 +34222,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>26448</v>
+        <v>26463</v>
       </c>
       <c r="D706" t="n">
-        <v>38836419</v>
+        <v>38853677</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -34366,10 +34366,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>13110</v>
+        <v>13123</v>
       </c>
       <c r="D709" t="n">
-        <v>18909654</v>
+        <v>18928093</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -34510,10 +34510,10 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="D712" t="n">
-        <v>2777047</v>
+        <v>2778547</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>1189</v>
+        <v>1196</v>
       </c>
       <c r="D714" t="n">
-        <v>1659039</v>
+        <v>1669243</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34654,10 +34654,10 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>11098</v>
+        <v>11133</v>
       </c>
       <c r="D715" t="n">
-        <v>13577363</v>
+        <v>13624063</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -34798,10 +34798,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>4091</v>
+        <v>4095</v>
       </c>
       <c r="D718" t="n">
-        <v>5984583</v>
+        <v>5990583</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34894,10 +34894,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="D720" t="n">
-        <v>2141500</v>
+        <v>2144500</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -35038,10 +35038,10 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>17519</v>
+        <v>17537</v>
       </c>
       <c r="D723" t="n">
-        <v>21610384</v>
+        <v>21633227</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -35230,10 +35230,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>6826</v>
+        <v>6831</v>
       </c>
       <c r="D727" t="n">
-        <v>9977829</v>
+        <v>9985329</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -35326,10 +35326,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>2173</v>
+        <v>2176</v>
       </c>
       <c r="D729" t="n">
-        <v>3115538</v>
+        <v>3120038</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -35422,10 +35422,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D731" t="n">
-        <v>452489</v>
+        <v>453989</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -35470,10 +35470,10 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D732" t="n">
-        <v>450219</v>
+        <v>451719</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -35566,10 +35566,10 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>11461</v>
+        <v>11473</v>
       </c>
       <c r="D734" t="n">
-        <v>14154539</v>
+        <v>14167854</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -35758,10 +35758,10 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="D738" t="n">
-        <v>6198245</v>
+        <v>6199745</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -35854,10 +35854,10 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D740" t="n">
-        <v>2317034</v>
+        <v>2318534</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -35902,10 +35902,10 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D741" t="n">
-        <v>314713</v>
+        <v>316213</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -35950,10 +35950,10 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D742" t="n">
-        <v>426423</v>
+        <v>428909</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -35998,10 +35998,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>29435</v>
+        <v>29454</v>
       </c>
       <c r="D743" t="n">
-        <v>36586956</v>
+        <v>36609190</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -36190,10 +36190,10 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D747" t="n">
-        <v>166395</v>
+        <v>167895</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -36238,10 +36238,10 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>12682</v>
+        <v>12688</v>
       </c>
       <c r="D748" t="n">
-        <v>18561366</v>
+        <v>18569699</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -36334,10 +36334,10 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>4199</v>
+        <v>4204</v>
       </c>
       <c r="D750" t="n">
-        <v>5999119</v>
+        <v>6006619</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -36478,10 +36478,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D753" t="n">
-        <v>952004</v>
+        <v>953504</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -36574,10 +36574,10 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>12272</v>
+        <v>12277</v>
       </c>
       <c r="D755" t="n">
-        <v>15194684</v>
+        <v>15200121</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -36718,10 +36718,10 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>4648</v>
+        <v>4650</v>
       </c>
       <c r="D758" t="n">
-        <v>6793356</v>
+        <v>6796356</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -36862,10 +36862,10 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D761" t="n">
-        <v>519162</v>
+        <v>522162</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -36910,10 +36910,10 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>6690</v>
+        <v>6698</v>
       </c>
       <c r="D762" t="n">
-        <v>7864848</v>
+        <v>7872150</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -37102,10 +37102,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="D766" t="n">
-        <v>2470873</v>
+        <v>2472153</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -37150,10 +37150,10 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D767" t="n">
-        <v>1453344</v>
+        <v>1454844</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -37246,10 +37246,10 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D769" t="n">
-        <v>207515</v>
+        <v>209935</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -37294,10 +37294,10 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>16722</v>
+        <v>16747</v>
       </c>
       <c r="D770" t="n">
-        <v>20285128</v>
+        <v>20319218</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -37534,10 +37534,10 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>5519</v>
+        <v>5524</v>
       </c>
       <c r="D775" t="n">
-        <v>8086587</v>
+        <v>8094086</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -37630,10 +37630,10 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="D777" t="n">
-        <v>4947277</v>
+        <v>4948222</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -37726,10 +37726,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D779" t="n">
-        <v>527612</v>
+        <v>529112</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -37822,10 +37822,10 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>11327</v>
+        <v>11345</v>
       </c>
       <c r="D781" t="n">
-        <v>14350175</v>
+        <v>14369076</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -38014,10 +38014,10 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>3947</v>
+        <v>3948</v>
       </c>
       <c r="D785" t="n">
-        <v>5771483</v>
+        <v>5772983</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -38110,10 +38110,10 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D787" t="n">
-        <v>1809412</v>
+        <v>1812412</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -38302,10 +38302,10 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>32009</v>
+        <v>32037</v>
       </c>
       <c r="D791" t="n">
-        <v>39488834</v>
+        <v>39518834</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -38494,10 +38494,10 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>13153</v>
+        <v>13159</v>
       </c>
       <c r="D795" t="n">
-        <v>19245934</v>
+        <v>19253227</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -38590,10 +38590,10 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>6019</v>
+        <v>6023</v>
       </c>
       <c r="D797" t="n">
-        <v>8698230</v>
+        <v>8704078</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -38638,10 +38638,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D798" t="n">
-        <v>728817</v>
+        <v>731569</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -38734,10 +38734,10 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D800" t="n">
-        <v>907773</v>
+        <v>910773</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -38782,10 +38782,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>7580</v>
+        <v>7590</v>
       </c>
       <c r="D801" t="n">
-        <v>9373636</v>
+        <v>9384537</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -39070,10 +39070,10 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>2671</v>
+        <v>2676</v>
       </c>
       <c r="D807" t="n">
-        <v>3895984</v>
+        <v>3903484</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -39118,10 +39118,10 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D808" t="n">
-        <v>1632938</v>
+        <v>1634438</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -39166,10 +39166,10 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D809" t="n">
-        <v>537372</v>
+        <v>538872</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -39262,10 +39262,10 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>58581</v>
+        <v>58661</v>
       </c>
       <c r="D811" t="n">
-        <v>73224406</v>
+        <v>73327148</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -39502,10 +39502,10 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>21082</v>
+        <v>21092</v>
       </c>
       <c r="D816" t="n">
-        <v>30845225</v>
+        <v>30859293</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -39646,10 +39646,10 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>12555</v>
+        <v>12567</v>
       </c>
       <c r="D819" t="n">
-        <v>18123329</v>
+        <v>18140129</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -39742,10 +39742,10 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D821" t="n">
-        <v>644695</v>
+        <v>647695</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -39886,10 +39886,10 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="D824" t="n">
-        <v>1831685</v>
+        <v>1835325</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -39934,10 +39934,10 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>11089</v>
+        <v>11104</v>
       </c>
       <c r="D825" t="n">
-        <v>13828181</v>
+        <v>13844329</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -40126,10 +40126,10 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>3900</v>
+        <v>3903</v>
       </c>
       <c r="D829" t="n">
-        <v>5671022</v>
+        <v>5674604</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -40462,10 +40462,10 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>58273</v>
+        <v>58326</v>
       </c>
       <c r="D836" t="n">
-        <v>72056213</v>
+        <v>72119491</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -40750,10 +40750,10 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>22267</v>
+        <v>22278</v>
       </c>
       <c r="D842" t="n">
-        <v>32672826</v>
+        <v>32688308</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -40846,10 +40846,10 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>14269</v>
+        <v>14278</v>
       </c>
       <c r="D844" t="n">
-        <v>20657814</v>
+        <v>20670411</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -40990,10 +40990,10 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>1233</v>
+        <v>1238</v>
       </c>
       <c r="D847" t="n">
-        <v>1717786</v>
+        <v>1720686</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -41086,10 +41086,10 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>7710</v>
+        <v>7716</v>
       </c>
       <c r="D849" t="n">
-        <v>9462879</v>
+        <v>9467513</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -41182,10 +41182,10 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="D851" t="n">
-        <v>3735062</v>
+        <v>3738062</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -41278,10 +41278,10 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D853" t="n">
-        <v>429097</v>
+        <v>432097</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -41374,10 +41374,10 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>3584</v>
+        <v>3591</v>
       </c>
       <c r="D855" t="n">
-        <v>4633813</v>
+        <v>4642111</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -41518,10 +41518,10 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D858" t="n">
-        <v>1705582</v>
+        <v>1707082</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -41614,10 +41614,10 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D860" t="n">
-        <v>531939</v>
+        <v>532778</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -41662,10 +41662,10 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D861" t="n">
-        <v>189582</v>
+        <v>192582</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -41758,10 +41758,10 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>22271</v>
+        <v>22292</v>
       </c>
       <c r="D863" t="n">
-        <v>27903757</v>
+        <v>27930984</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -41950,10 +41950,10 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>7729</v>
+        <v>7735</v>
       </c>
       <c r="D867" t="n">
-        <v>11282256</v>
+        <v>11291256</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -42046,10 +42046,10 @@
         </is>
       </c>
       <c r="C869" t="n">
-        <v>4610</v>
+        <v>4616</v>
       </c>
       <c r="D869" t="n">
-        <v>6665151</v>
+        <v>6674151</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -42142,10 +42142,10 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D871" t="n">
-        <v>536062</v>
+        <v>537517</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -42190,10 +42190,10 @@
         </is>
       </c>
       <c r="C872" t="n">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D872" t="n">
-        <v>594055</v>
+        <v>597055</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -42286,10 +42286,10 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>14461</v>
+        <v>14471</v>
       </c>
       <c r="D874" t="n">
-        <v>17437648</v>
+        <v>17450843</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -42574,10 +42574,10 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="D880" t="n">
-        <v>3380003</v>
+        <v>3381503</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -42766,10 +42766,10 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>9739</v>
+        <v>9749</v>
       </c>
       <c r="D884" t="n">
-        <v>11968265</v>
+        <v>11977889</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -42910,10 +42910,10 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="D887" t="n">
-        <v>4893738</v>
+        <v>4895238</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -43102,10 +43102,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>44392</v>
+        <v>44432</v>
       </c>
       <c r="D891" t="n">
-        <v>55772445</v>
+        <v>55814146</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -43342,10 +43342,10 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>20996</v>
+        <v>21009</v>
       </c>
       <c r="D896" t="n">
-        <v>30786188</v>
+        <v>30804498</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -43438,10 +43438,10 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>5871</v>
+        <v>5873</v>
       </c>
       <c r="D898" t="n">
-        <v>8459669</v>
+        <v>8462669</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -43582,10 +43582,10 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="D901" t="n">
-        <v>1286884</v>
+        <v>1294062</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -43630,10 +43630,10 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>21140</v>
+        <v>21150</v>
       </c>
       <c r="D902" t="n">
-        <v>26308361</v>
+        <v>26319772</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -43774,10 +43774,10 @@
         </is>
       </c>
       <c r="C905" t="n">
-        <v>9753</v>
+        <v>9756</v>
       </c>
       <c r="D905" t="n">
-        <v>14292369</v>
+        <v>14296027</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -43870,10 +43870,10 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="D907" t="n">
-        <v>3248665</v>
+        <v>3250165</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -44014,10 +44014,10 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D910" t="n">
-        <v>881850</v>
+        <v>884850</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -44062,10 +44062,10 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>7010</v>
+        <v>7018</v>
       </c>
       <c r="D911" t="n">
-        <v>8813292</v>
+        <v>8821161</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -44302,10 +44302,10 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="D916" t="n">
-        <v>4433020</v>
+        <v>4435089</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -44350,10 +44350,10 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D917" t="n">
-        <v>910949</v>
+        <v>912449</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -44494,10 +44494,10 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>12976</v>
+        <v>12984</v>
       </c>
       <c r="D920" t="n">
-        <v>16175450</v>
+        <v>16180267</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -44686,10 +44686,10 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>5236</v>
+        <v>5237</v>
       </c>
       <c r="D924" t="n">
-        <v>7651678</v>
+        <v>7652857</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -45022,10 +45022,10 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>19248</v>
+        <v>19259</v>
       </c>
       <c r="D931" t="n">
-        <v>24049207</v>
+        <v>24062318</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -45214,10 +45214,10 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>10058</v>
+        <v>10061</v>
       </c>
       <c r="D935" t="n">
-        <v>14703076</v>
+        <v>14707576</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -45310,10 +45310,10 @@
         </is>
       </c>
       <c r="C937" t="n">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="D937" t="n">
-        <v>2961819</v>
+        <v>2963319</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -45454,10 +45454,10 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>8595</v>
+        <v>8606</v>
       </c>
       <c r="D940" t="n">
-        <v>10727197</v>
+        <v>10737251</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -45502,10 +45502,10 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D941" t="n">
-        <v>4442</v>
+        <v>4916</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -45694,10 +45694,10 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>3192</v>
+        <v>3195</v>
       </c>
       <c r="D945" t="n">
-        <v>4656134</v>
+        <v>4660634</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -45934,10 +45934,10 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>66895</v>
+        <v>66938</v>
       </c>
       <c r="D950" t="n">
-        <v>85891282</v>
+        <v>85937162</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -46270,10 +46270,10 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>25501</v>
+        <v>25518</v>
       </c>
       <c r="D957" t="n">
-        <v>37376852</v>
+        <v>37401841</v>
       </c>
       <c r="E957" t="inlineStr">
         <is>
@@ -46366,10 +46366,10 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>17540</v>
+        <v>17553</v>
       </c>
       <c r="D959" t="n">
-        <v>25431342</v>
+        <v>25449522</v>
       </c>
       <c r="E959" t="inlineStr">
         <is>
@@ -46462,10 +46462,10 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D961" t="n">
-        <v>697823</v>
+        <v>699323</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
@@ -46558,10 +46558,10 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>83493</v>
+        <v>83574</v>
       </c>
       <c r="D963" t="n">
-        <v>104839381</v>
+        <v>104927047</v>
       </c>
       <c r="E963" t="inlineStr">
         <is>
@@ -46894,10 +46894,10 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>33725</v>
+        <v>33745</v>
       </c>
       <c r="D970" t="n">
-        <v>49470396</v>
+        <v>49496037</v>
       </c>
       <c r="E970" t="inlineStr">
         <is>
@@ -47038,10 +47038,10 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>25115</v>
+        <v>25129</v>
       </c>
       <c r="D973" t="n">
-        <v>36426461</v>
+        <v>36447237</v>
       </c>
       <c r="E973" t="inlineStr">
         <is>
@@ -47182,10 +47182,10 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="D976" t="n">
-        <v>2787617</v>
+        <v>2789117</v>
       </c>
       <c r="E976" t="inlineStr">
         <is>
@@ -47230,10 +47230,10 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>10716</v>
+        <v>10726</v>
       </c>
       <c r="D977" t="n">
-        <v>13982476</v>
+        <v>13993663</v>
       </c>
       <c r="E977" t="inlineStr">
         <is>
@@ -47422,10 +47422,10 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="D981" t="n">
-        <v>5046922</v>
+        <v>5048422</v>
       </c>
       <c r="E981" t="inlineStr">
         <is>
@@ -47710,10 +47710,10 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>55825</v>
+        <v>55861</v>
       </c>
       <c r="D987" t="n">
-        <v>69893337</v>
+        <v>69938241</v>
       </c>
       <c r="E987" t="inlineStr">
         <is>
@@ -47950,10 +47950,10 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>18474</v>
+        <v>18482</v>
       </c>
       <c r="D992" t="n">
-        <v>27055283</v>
+        <v>27067283</v>
       </c>
       <c r="E992" t="inlineStr">
         <is>
@@ -48046,10 +48046,10 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>12577</v>
+        <v>12587</v>
       </c>
       <c r="D994" t="n">
-        <v>18188477</v>
+        <v>18202855</v>
       </c>
       <c r="E994" t="inlineStr">
         <is>
@@ -48094,10 +48094,10 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D995" t="n">
-        <v>677973</v>
+        <v>679473</v>
       </c>
       <c r="E995" t="inlineStr">
         <is>
@@ -48190,10 +48190,10 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="D997" t="n">
-        <v>1029924</v>
+        <v>1034424</v>
       </c>
       <c r="E997" t="inlineStr">
         <is>
@@ -48238,10 +48238,10 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>28146</v>
+        <v>28166</v>
       </c>
       <c r="D998" t="n">
-        <v>35021979</v>
+        <v>35049665</v>
       </c>
       <c r="E998" t="inlineStr">
         <is>
@@ -48478,10 +48478,10 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>10473</v>
+        <v>10479</v>
       </c>
       <c r="D1003" t="n">
-        <v>15338750</v>
+        <v>15347750</v>
       </c>
       <c r="E1003" t="inlineStr">
         <is>
@@ -48574,10 +48574,10 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>6203</v>
+        <v>6205</v>
       </c>
       <c r="D1005" t="n">
-        <v>8994605</v>
+        <v>8997605</v>
       </c>
       <c r="E1005" t="inlineStr">
         <is>
@@ -48622,10 +48622,10 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D1006" t="n">
-        <v>744918</v>
+        <v>745918</v>
       </c>
       <c r="E1006" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16338</v>
+        <v>16350</v>
       </c>
       <c r="D2" t="n">
-        <v>20540918</v>
+        <v>20554322</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6240</v>
+        <v>6241</v>
       </c>
       <c r="D6" t="n">
-        <v>9125238</v>
+        <v>9126738</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="D8" t="n">
-        <v>4756880</v>
+        <v>4758380</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10978</v>
+        <v>10986</v>
       </c>
       <c r="D12" t="n">
-        <v>13854426</v>
+        <v>13863620</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3224</v>
+        <v>3226</v>
       </c>
       <c r="D16" t="n">
-        <v>4697627</v>
+        <v>4700627</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D18" t="n">
-        <v>2092220</v>
+        <v>2093720</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D19" t="n">
-        <v>545821</v>
+        <v>547321</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14232</v>
+        <v>14240</v>
       </c>
       <c r="D21" t="n">
-        <v>17457173</v>
+        <v>17463355</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4935</v>
+        <v>4937</v>
       </c>
       <c r="D25" t="n">
-        <v>7216928</v>
+        <v>7219928</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6545</v>
+        <v>6548</v>
       </c>
       <c r="D31" t="n">
-        <v>8694275</v>
+        <v>8696969</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="D34" t="n">
-        <v>2318620</v>
+        <v>2320120</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21836</v>
+        <v>21852</v>
       </c>
       <c r="D40" t="n">
-        <v>26876126</v>
+        <v>26894204</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7798</v>
+        <v>7802</v>
       </c>
       <c r="D46" t="n">
-        <v>11454460</v>
+        <v>11460460</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3831</v>
+        <v>3835</v>
       </c>
       <c r="D48" t="n">
-        <v>5545155</v>
+        <v>5551155</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D51" t="n">
-        <v>827066</v>
+        <v>828566</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8132</v>
+        <v>8138</v>
       </c>
       <c r="D52" t="n">
-        <v>10377641</v>
+        <v>10384450</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="D56" t="n">
-        <v>4042043</v>
+        <v>4043543</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>36089</v>
+        <v>36117</v>
       </c>
       <c r="D61" t="n">
-        <v>46464294</v>
+        <v>46498503</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>13144</v>
+        <v>13148</v>
       </c>
       <c r="D66" t="n">
-        <v>19277835</v>
+        <v>19283835</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5153</v>
+        <v>5159</v>
       </c>
       <c r="D68" t="n">
-        <v>7452815</v>
+        <v>7461584</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>46187</v>
+        <v>46220</v>
       </c>
       <c r="D74" t="n">
-        <v>59055149</v>
+        <v>59091847</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4078,10 +4078,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>18104</v>
+        <v>18108</v>
       </c>
       <c r="D78" t="n">
-        <v>26523304</v>
+        <v>26529304</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>9324</v>
+        <v>9328</v>
       </c>
       <c r="D80" t="n">
-        <v>13460833</v>
+        <v>13466833</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>24901</v>
+        <v>24928</v>
       </c>
       <c r="D85" t="n">
-        <v>31390628</v>
+        <v>31424802</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>8676</v>
+        <v>8677</v>
       </c>
       <c r="D89" t="n">
-        <v>12735886</v>
+        <v>12737386</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4895</v>
+        <v>4900</v>
       </c>
       <c r="D91" t="n">
-        <v>7074639</v>
+        <v>7082139</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>21931</v>
+        <v>21948</v>
       </c>
       <c r="D94" t="n">
-        <v>27531701</v>
+        <v>27555399</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -5038,10 +5038,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>9149</v>
+        <v>9151</v>
       </c>
       <c r="D98" t="n">
-        <v>13393205</v>
+        <v>13394849</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3312</v>
+        <v>3324</v>
       </c>
       <c r="D100" t="n">
-        <v>4744746</v>
+        <v>4761769</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>81519</v>
+        <v>81616</v>
       </c>
       <c r="D105" t="n">
-        <v>104466700</v>
+        <v>104586681</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>30573</v>
+        <v>30582</v>
       </c>
       <c r="D112" t="n">
-        <v>44864473</v>
+        <v>44877917</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>20797</v>
+        <v>20811</v>
       </c>
       <c r="D114" t="n">
-        <v>30009159</v>
+        <v>30029999</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1882</v>
+        <v>1891</v>
       </c>
       <c r="D121" t="n">
-        <v>2647383</v>
+        <v>2660707</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>27666</v>
+        <v>27683</v>
       </c>
       <c r="D122" t="n">
-        <v>36514011</v>
+        <v>36535103</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>9863</v>
+        <v>9867</v>
       </c>
       <c r="D126" t="n">
-        <v>14464979</v>
+        <v>14470370</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="D128" t="n">
-        <v>4744157</v>
+        <v>4745657</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6622,10 +6622,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D131" t="n">
-        <v>491802</v>
+        <v>493302</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>15722</v>
+        <v>15732</v>
       </c>
       <c r="D132" t="n">
-        <v>19564614</v>
+        <v>19576121</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>7754</v>
+        <v>7757</v>
       </c>
       <c r="D135" t="n">
-        <v>11347635</v>
+        <v>11350849</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="D137" t="n">
-        <v>3155610</v>
+        <v>3158610</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>13514</v>
+        <v>13522</v>
       </c>
       <c r="D142" t="n">
-        <v>16887463</v>
+        <v>16896463</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>6239</v>
+        <v>6240</v>
       </c>
       <c r="D146" t="n">
-        <v>9140755</v>
+        <v>9142255</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7438,10 +7438,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="D148" t="n">
-        <v>2871499</v>
+        <v>2872999</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D151" t="n">
-        <v>506408</v>
+        <v>507908</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>5978</v>
+        <v>5982</v>
       </c>
       <c r="D152" t="n">
-        <v>7311632</v>
+        <v>7316232</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D159" t="n">
-        <v>127567</v>
+        <v>129067</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>7430</v>
+        <v>7432</v>
       </c>
       <c r="D160" t="n">
-        <v>9212472</v>
+        <v>9213335</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D164" t="n">
-        <v>2011432</v>
+        <v>2012281</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>5606</v>
+        <v>5611</v>
       </c>
       <c r="D168" t="n">
-        <v>7056757</v>
+        <v>7061634</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8638,10 +8638,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="D173" t="n">
-        <v>2960041</v>
+        <v>2963041</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>15952</v>
+        <v>15958</v>
       </c>
       <c r="D178" t="n">
-        <v>20043666</v>
+        <v>20051654</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>6389</v>
+        <v>6391</v>
       </c>
       <c r="D183" t="n">
-        <v>9332359</v>
+        <v>9335359</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="D184" t="n">
-        <v>3192491</v>
+        <v>3193991</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3064</v>
+        <v>3071</v>
       </c>
       <c r="D188" t="n">
-        <v>3846137</v>
+        <v>3854537</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="D190" t="n">
-        <v>2153742</v>
+        <v>2156742</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>9199</v>
+        <v>9202</v>
       </c>
       <c r="D196" t="n">
-        <v>11486616</v>
+        <v>11489814</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>17237</v>
+        <v>17254</v>
       </c>
       <c r="D205" t="n">
-        <v>21531557</v>
+        <v>21548500</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>7682</v>
+        <v>7687</v>
       </c>
       <c r="D209" t="n">
-        <v>11280996</v>
+        <v>11287615</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>26109</v>
+        <v>26124</v>
       </c>
       <c r="D213" t="n">
-        <v>32931061</v>
+        <v>32949473</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10750,10 +10750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>10487</v>
+        <v>10492</v>
       </c>
       <c r="D217" t="n">
-        <v>15315853</v>
+        <v>15323353</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2635</v>
+        <v>2638</v>
       </c>
       <c r="D219" t="n">
-        <v>3800022</v>
+        <v>3804522</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D222" t="n">
-        <v>844766</v>
+        <v>847766</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>28456</v>
+        <v>28472</v>
       </c>
       <c r="D223" t="n">
-        <v>35915098</v>
+        <v>35930563</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>14722</v>
+        <v>14726</v>
       </c>
       <c r="D228" t="n">
-        <v>21602928</v>
+        <v>21607618</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="D230" t="n">
-        <v>3812175</v>
+        <v>3813675</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D232" t="n">
-        <v>511084</v>
+        <v>512382</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>24254</v>
+        <v>24270</v>
       </c>
       <c r="D234" t="n">
-        <v>30595219</v>
+        <v>30615933</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>11170</v>
+        <v>11175</v>
       </c>
       <c r="D240" t="n">
-        <v>16375749</v>
+        <v>16382837</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>2506</v>
+        <v>2509</v>
       </c>
       <c r="D242" t="n">
-        <v>3582347</v>
+        <v>3585748</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>7866</v>
+        <v>7870</v>
       </c>
       <c r="D246" t="n">
-        <v>9840680</v>
+        <v>9845747</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="D250" t="n">
-        <v>3963150</v>
+        <v>3964650</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12478,10 +12478,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D253" t="n">
-        <v>1454115</v>
+        <v>1455615</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>9796</v>
+        <v>9806</v>
       </c>
       <c r="D256" t="n">
-        <v>12493927</v>
+        <v>12507997</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="D262" t="n">
-        <v>3141602</v>
+        <v>3143102</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>5540</v>
+        <v>5541</v>
       </c>
       <c r="D265" t="n">
-        <v>6870043</v>
+        <v>6871543</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13486,10 +13486,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>19056</v>
+        <v>19075</v>
       </c>
       <c r="D274" t="n">
-        <v>24079422</v>
+        <v>24099822</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -13678,10 +13678,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>7924</v>
+        <v>7928</v>
       </c>
       <c r="D278" t="n">
-        <v>11618608</v>
+        <v>11624608</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13774,10 +13774,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="D280" t="n">
-        <v>3581059</v>
+        <v>3584059</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>16594</v>
+        <v>16614</v>
       </c>
       <c r="D285" t="n">
-        <v>20556883</v>
+        <v>20580279</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14206,10 +14206,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>7181</v>
+        <v>7184</v>
       </c>
       <c r="D289" t="n">
-        <v>10533112</v>
+        <v>10536614</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="D290" t="n">
-        <v>4823299</v>
+        <v>4824799</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D293" t="n">
-        <v>467443</v>
+        <v>468587</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>9342</v>
+        <v>9349</v>
       </c>
       <c r="D294" t="n">
-        <v>11739335</v>
+        <v>11746732</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D300" t="n">
-        <v>313165</v>
+        <v>314665</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14878,10 +14878,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D303" t="n">
-        <v>288729</v>
+        <v>290229</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>9193</v>
+        <v>9197</v>
       </c>
       <c r="D304" t="n">
-        <v>12003485</v>
+        <v>12008790</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -15118,10 +15118,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>3739</v>
+        <v>3744</v>
       </c>
       <c r="D308" t="n">
-        <v>5466349</v>
+        <v>5473849</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="D309" t="n">
-        <v>3419468</v>
+        <v>3420968</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>11059</v>
+        <v>11068</v>
       </c>
       <c r="D312" t="n">
-        <v>14523278</v>
+        <v>14533022</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2702</v>
+        <v>2704</v>
       </c>
       <c r="D318" t="n">
-        <v>3918138</v>
+        <v>3920296</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>6808</v>
+        <v>6811</v>
       </c>
       <c r="D321" t="n">
-        <v>8416301</v>
+        <v>8420246</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15982,10 +15982,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="D326" t="n">
-        <v>3370084</v>
+        <v>3372584</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D328" t="n">
-        <v>1130275</v>
+        <v>1133275</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>7522</v>
+        <v>7529</v>
       </c>
       <c r="D331" t="n">
-        <v>9418179</v>
+        <v>9424650</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="D336" t="n">
-        <v>4568815</v>
+        <v>4570315</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D337" t="n">
-        <v>1848361</v>
+        <v>1849861</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>31982</v>
+        <v>32013</v>
       </c>
       <c r="D340" t="n">
-        <v>40177718</v>
+        <v>40214418</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>16524</v>
+        <v>16534</v>
       </c>
       <c r="D346" t="n">
-        <v>24161739</v>
+        <v>24176270</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>8042</v>
+        <v>8047</v>
       </c>
       <c r="D349" t="n">
-        <v>11582205</v>
+        <v>11588516</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D350" t="n">
-        <v>915671</v>
+        <v>917053</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D351" t="n">
-        <v>1109890</v>
+        <v>1110589</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="D352" t="n">
-        <v>4850212</v>
+        <v>4851412</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D355" t="n">
-        <v>2204657</v>
+        <v>2206157</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>19368</v>
+        <v>19384</v>
       </c>
       <c r="D360" t="n">
-        <v>24150044</v>
+        <v>24169548</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>9901</v>
+        <v>9907</v>
       </c>
       <c r="D364" t="n">
-        <v>14516235</v>
+        <v>14525235</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>4737</v>
+        <v>4739</v>
       </c>
       <c r="D366" t="n">
-        <v>6850409</v>
+        <v>6853409</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>13917</v>
+        <v>13929</v>
       </c>
       <c r="D369" t="n">
-        <v>17408534</v>
+        <v>17424352</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>6441</v>
+        <v>6443</v>
       </c>
       <c r="D373" t="n">
-        <v>9430458</v>
+        <v>9433376</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="D375" t="n">
-        <v>3565183</v>
+        <v>3566683</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D376" t="n">
-        <v>1019501</v>
+        <v>1021001</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>17981</v>
+        <v>17996</v>
       </c>
       <c r="D378" t="n">
-        <v>22423439</v>
+        <v>22440658</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>7139</v>
+        <v>7141</v>
       </c>
       <c r="D382" t="n">
-        <v>10493715</v>
+        <v>10496715</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>2836</v>
+        <v>2838</v>
       </c>
       <c r="D384" t="n">
-        <v>4125151</v>
+        <v>4128151</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D387" t="n">
-        <v>557154</v>
+        <v>557454</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -18958,10 +18958,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>4090</v>
+        <v>4096</v>
       </c>
       <c r="D388" t="n">
-        <v>5132292</v>
+        <v>5139992</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D391" t="n">
-        <v>2029076</v>
+        <v>2030576</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>22268</v>
+        <v>22284</v>
       </c>
       <c r="D395" t="n">
-        <v>27623557</v>
+        <v>27641651</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>9364</v>
+        <v>9366</v>
       </c>
       <c r="D398" t="n">
-        <v>13785017</v>
+        <v>13788017</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19534,10 +19534,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>6207</v>
+        <v>6209</v>
       </c>
       <c r="D400" t="n">
-        <v>9028491</v>
+        <v>9031491</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D402" t="n">
-        <v>486802</v>
+        <v>489802</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>11131</v>
+        <v>11138</v>
       </c>
       <c r="D403" t="n">
-        <v>13722637</v>
+        <v>13731862</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -20014,10 +20014,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="D410" t="n">
-        <v>2675364</v>
+        <v>2676864</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>32126</v>
+        <v>32245</v>
       </c>
       <c r="D413" t="n">
-        <v>43525558</v>
+        <v>43682165</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>7802</v>
+        <v>7820</v>
       </c>
       <c r="D417" t="n">
-        <v>11472470</v>
+        <v>11498881</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>7098</v>
+        <v>7130</v>
       </c>
       <c r="D419" t="n">
-        <v>10290127</v>
+        <v>10336819</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20542,10 +20542,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="D421" t="n">
-        <v>734905</v>
+        <v>748405</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>8823</v>
+        <v>8855</v>
       </c>
       <c r="D423" t="n">
-        <v>12245320</v>
+        <v>12290720</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2218</v>
+        <v>2227</v>
       </c>
       <c r="D425" t="n">
-        <v>3267382</v>
+        <v>3280802</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20830,10 +20830,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>2988</v>
+        <v>2996</v>
       </c>
       <c r="D427" t="n">
-        <v>4364741</v>
+        <v>4376451</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -21022,10 +21022,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>11022</v>
+        <v>11026</v>
       </c>
       <c r="D431" t="n">
-        <v>13608231</v>
+        <v>13613278</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>3786</v>
+        <v>3788</v>
       </c>
       <c r="D434" t="n">
-        <v>5556304</v>
+        <v>5559304</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21262,10 +21262,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="D436" t="n">
-        <v>2684727</v>
+        <v>2686227</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>62901</v>
+        <v>62963</v>
       </c>
       <c r="D439" t="n">
-        <v>77955041</v>
+        <v>78029261</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D440" t="n">
-        <v>16482</v>
+        <v>17982</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>24916</v>
+        <v>24922</v>
       </c>
       <c r="D443" t="n">
-        <v>36523120</v>
+        <v>36532120</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>12923</v>
+        <v>12935</v>
       </c>
       <c r="D445" t="n">
-        <v>18740027</v>
+        <v>18757013</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21886,10 +21886,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D449" t="n">
-        <v>1460899</v>
+        <v>1463799</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -21982,10 +21982,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>18889</v>
+        <v>18905</v>
       </c>
       <c r="D451" t="n">
-        <v>23878757</v>
+        <v>23897374</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>7702</v>
+        <v>7706</v>
       </c>
       <c r="D455" t="n">
-        <v>11305393</v>
+        <v>11311393</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22270,10 +22270,10 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>4856</v>
+        <v>4857</v>
       </c>
       <c r="D457" t="n">
-        <v>7046922</v>
+        <v>7048197</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -22414,10 +22414,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>32218</v>
+        <v>32230</v>
       </c>
       <c r="D460" t="n">
-        <v>39380080</v>
+        <v>39395110</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -22606,10 +22606,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>11448</v>
+        <v>11453</v>
       </c>
       <c r="D464" t="n">
-        <v>16749849</v>
+        <v>16757349</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>4905</v>
+        <v>4908</v>
       </c>
       <c r="D466" t="n">
-        <v>7116582</v>
+        <v>7121082</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D467" t="n">
-        <v>523484</v>
+        <v>524984</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>14395</v>
+        <v>14404</v>
       </c>
       <c r="D469" t="n">
-        <v>17602746</v>
+        <v>17609840</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -23086,10 +23086,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>4380</v>
+        <v>4382</v>
       </c>
       <c r="D474" t="n">
-        <v>6434922</v>
+        <v>6437922</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>35970</v>
+        <v>36015</v>
       </c>
       <c r="D479" t="n">
-        <v>46870036</v>
+        <v>46929744</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>13552</v>
+        <v>13562</v>
       </c>
       <c r="D483" t="n">
-        <v>19938300</v>
+        <v>19953300</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>11987</v>
+        <v>11997</v>
       </c>
       <c r="D485" t="n">
-        <v>17494788</v>
+        <v>17509678</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>62307</v>
+        <v>62396</v>
       </c>
       <c r="D488" t="n">
-        <v>82499286</v>
+        <v>82620108</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>23099</v>
+        <v>23114</v>
       </c>
       <c r="D493" t="n">
-        <v>33893984</v>
+        <v>33916484</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24094,10 +24094,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>22419</v>
+        <v>22440</v>
       </c>
       <c r="D495" t="n">
-        <v>32549416</v>
+        <v>32578711</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>150775</v>
+        <v>150987</v>
       </c>
       <c r="D499" t="n">
-        <v>198306113</v>
+        <v>198571677</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24526,10 +24526,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D504" t="n">
-        <v>697555</v>
+        <v>699055</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>81585</v>
+        <v>81645</v>
       </c>
       <c r="D506" t="n">
-        <v>119852991</v>
+        <v>119935894</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D507" t="n">
-        <v>344842</v>
+        <v>346342</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>60006</v>
+        <v>60076</v>
       </c>
       <c r="D509" t="n">
-        <v>87103422</v>
+        <v>87207210</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24862,10 +24862,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D511" t="n">
-        <v>1534107</v>
+        <v>1535607</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -24958,10 +24958,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>2778</v>
+        <v>2786</v>
       </c>
       <c r="D513" t="n">
-        <v>3932678</v>
+        <v>3944013</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>41168</v>
+        <v>41216</v>
       </c>
       <c r="D515" t="n">
-        <v>53512578</v>
+        <v>53575179</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>15240</v>
+        <v>15256</v>
       </c>
       <c r="D520" t="n">
-        <v>22385856</v>
+        <v>22408613</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>12926</v>
+        <v>12935</v>
       </c>
       <c r="D522" t="n">
-        <v>18735030</v>
+        <v>18748530</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25534,10 +25534,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D525" t="n">
-        <v>493648</v>
+        <v>496156</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>66137</v>
+        <v>66230</v>
       </c>
       <c r="D527" t="n">
-        <v>88888705</v>
+        <v>89010595</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>23306</v>
+        <v>23328</v>
       </c>
       <c r="D531" t="n">
-        <v>34389681</v>
+        <v>34422343</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25918,10 +25918,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>24074</v>
+        <v>24105</v>
       </c>
       <c r="D533" t="n">
-        <v>35234416</v>
+        <v>35278463</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D536" t="n">
-        <v>1217969</v>
+        <v>1220969</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>55027</v>
+        <v>55099</v>
       </c>
       <c r="D537" t="n">
-        <v>72983757</v>
+        <v>73077699</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26350,10 +26350,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>17770</v>
+        <v>17787</v>
       </c>
       <c r="D542" t="n">
-        <v>26111526</v>
+        <v>26137026</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>18302</v>
+        <v>18324</v>
       </c>
       <c r="D544" t="n">
-        <v>26603867</v>
+        <v>26636847</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D546" t="n">
-        <v>877715</v>
+        <v>882204</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>41550</v>
+        <v>41596</v>
       </c>
       <c r="D547" t="n">
-        <v>55175648</v>
+        <v>55237547</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26782,10 +26782,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>14212</v>
+        <v>14223</v>
       </c>
       <c r="D551" t="n">
-        <v>20961121</v>
+        <v>20977621</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>14398</v>
+        <v>14414</v>
       </c>
       <c r="D553" t="n">
-        <v>20908148</v>
+        <v>20930756</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26926,10 +26926,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D554" t="n">
-        <v>251479</v>
+        <v>257479</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -27022,10 +27022,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>41301</v>
+        <v>41339</v>
       </c>
       <c r="D556" t="n">
-        <v>53542148</v>
+        <v>53593514</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -27214,10 +27214,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>16191</v>
+        <v>16201</v>
       </c>
       <c r="D560" t="n">
-        <v>23756426</v>
+        <v>23771426</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>12998</v>
+        <v>13010</v>
       </c>
       <c r="D562" t="n">
-        <v>18798447</v>
+        <v>18815967</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27502,10 +27502,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>43856</v>
+        <v>43912</v>
       </c>
       <c r="D566" t="n">
-        <v>58552963</v>
+        <v>58625733</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>13905</v>
+        <v>13916</v>
       </c>
       <c r="D572" t="n">
-        <v>20395249</v>
+        <v>20410330</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>17264</v>
+        <v>17288</v>
       </c>
       <c r="D579" t="n">
-        <v>22809991</v>
+        <v>22842544</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28318,10 +28318,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>7059</v>
+        <v>7066</v>
       </c>
       <c r="D583" t="n">
-        <v>10266288</v>
+        <v>10276203</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>4913</v>
+        <v>4921</v>
       </c>
       <c r="D585" t="n">
-        <v>7071877</v>
+        <v>7081742</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D588" t="n">
-        <v>372274</v>
+        <v>373774</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>15462</v>
+        <v>15577</v>
       </c>
       <c r="D590" t="n">
-        <v>22435556</v>
+        <v>22604690</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>1744</v>
+        <v>1755</v>
       </c>
       <c r="D591" t="n">
-        <v>2593730</v>
+        <v>2610230</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D595" t="n">
-        <v>116949</v>
+        <v>118449</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>21988</v>
+        <v>22005</v>
       </c>
       <c r="D596" t="n">
-        <v>27588072</v>
+        <v>27609086</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -28990,10 +28990,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D597" t="n">
-        <v>7229</v>
+        <v>7481</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>8982</v>
+        <v>8985</v>
       </c>
       <c r="D601" t="n">
-        <v>13158665</v>
+        <v>13163165</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29278,10 +29278,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="D603" t="n">
-        <v>4807159</v>
+        <v>4808659</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -29470,10 +29470,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>14626</v>
+        <v>14637</v>
       </c>
       <c r="D607" t="n">
-        <v>18339100</v>
+        <v>18352138</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29662,10 +29662,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>5782</v>
+        <v>5786</v>
       </c>
       <c r="D611" t="n">
-        <v>8492151</v>
+        <v>8498151</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>2669</v>
+        <v>2672</v>
       </c>
       <c r="D613" t="n">
-        <v>3847087</v>
+        <v>3851587</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D614" t="n">
-        <v>255209</v>
+        <v>256709</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29854,10 +29854,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D615" t="n">
-        <v>260636</v>
+        <v>262136</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -29902,10 +29902,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>13737</v>
+        <v>13744</v>
       </c>
       <c r="D616" t="n">
-        <v>17352334</v>
+        <v>17361851</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -30094,10 +30094,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>5221</v>
+        <v>5225</v>
       </c>
       <c r="D620" t="n">
-        <v>7652720</v>
+        <v>7658720</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D624" t="n">
-        <v>365966</v>
+        <v>367466</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30334,10 +30334,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>7495</v>
+        <v>7501</v>
       </c>
       <c r="D625" t="n">
-        <v>9641387</v>
+        <v>9648223</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30766,10 +30766,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>28767</v>
+        <v>28778</v>
       </c>
       <c r="D634" t="n">
-        <v>35431583</v>
+        <v>35443958</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -30958,10 +30958,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>11005</v>
+        <v>11015</v>
       </c>
       <c r="D638" t="n">
-        <v>16147115</v>
+        <v>16161785</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
@@ -31054,10 +31054,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>4818</v>
+        <v>4823</v>
       </c>
       <c r="D640" t="n">
-        <v>6990353</v>
+        <v>6997853</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31246,10 +31246,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>11294</v>
+        <v>11306</v>
       </c>
       <c r="D644" t="n">
-        <v>13689706</v>
+        <v>13703369</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31486,10 +31486,10 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>3636</v>
+        <v>3638</v>
       </c>
       <c r="D649" t="n">
-        <v>5322719</v>
+        <v>5325719</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>28263</v>
+        <v>28273</v>
       </c>
       <c r="D654" t="n">
-        <v>35140545</v>
+        <v>35151553</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>10730</v>
+        <v>10732</v>
       </c>
       <c r="D658" t="n">
-        <v>15765836</v>
+        <v>15768836</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="D660" t="n">
-        <v>4432477</v>
+        <v>4433977</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32110,10 +32110,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D662" t="n">
-        <v>711551</v>
+        <v>713051</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -32158,10 +32158,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D663" t="n">
-        <v>666675</v>
+        <v>671175</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32206,10 +32206,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>7481</v>
+        <v>7489</v>
       </c>
       <c r="D664" t="n">
-        <v>9492436</v>
+        <v>9501760</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D669" t="n">
-        <v>364484</v>
+        <v>365984</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>3770</v>
+        <v>3771</v>
       </c>
       <c r="D672" t="n">
-        <v>4569767</v>
+        <v>4571267</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D680" t="n">
-        <v>206432</v>
+        <v>207932</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33022,10 +33022,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>9296</v>
+        <v>9308</v>
       </c>
       <c r="D681" t="n">
-        <v>11599362</v>
+        <v>11611033</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -33214,10 +33214,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="D685" t="n">
-        <v>5106517</v>
+        <v>5108017</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33262,10 +33262,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D686" t="n">
-        <v>1078602</v>
+        <v>1080102</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>19187</v>
+        <v>19197</v>
       </c>
       <c r="D690" t="n">
-        <v>23481704</v>
+        <v>23493583</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33646,10 +33646,10 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>5703</v>
+        <v>5706</v>
       </c>
       <c r="D694" t="n">
-        <v>8329980</v>
+        <v>8334480</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="D696" t="n">
-        <v>3226014</v>
+        <v>3227514</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33838,10 +33838,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D698" t="n">
-        <v>509462</v>
+        <v>510962</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -33982,10 +33982,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>74249</v>
+        <v>74360</v>
       </c>
       <c r="D701" t="n">
-        <v>93471953</v>
+        <v>93615310</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -34222,10 +34222,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>26463</v>
+        <v>26475</v>
       </c>
       <c r="D706" t="n">
-        <v>38853677</v>
+        <v>38871677</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -34366,10 +34366,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>13123</v>
+        <v>13132</v>
       </c>
       <c r="D709" t="n">
-        <v>18928093</v>
+        <v>18939335</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -34510,10 +34510,10 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>1928</v>
+        <v>1934</v>
       </c>
       <c r="D712" t="n">
-        <v>2778547</v>
+        <v>2783827</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="D714" t="n">
-        <v>1669243</v>
+        <v>1673743</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34654,10 +34654,10 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>11133</v>
+        <v>11146</v>
       </c>
       <c r="D715" t="n">
-        <v>13624063</v>
+        <v>13636360</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -34798,10 +34798,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>4095</v>
+        <v>4100</v>
       </c>
       <c r="D718" t="n">
-        <v>5990583</v>
+        <v>5997133</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34894,10 +34894,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="D720" t="n">
-        <v>2144500</v>
+        <v>2147500</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -34990,10 +34990,10 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D722" t="n">
-        <v>335382</v>
+        <v>336882</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -35038,10 +35038,10 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>17537</v>
+        <v>17566</v>
       </c>
       <c r="D723" t="n">
-        <v>21633227</v>
+        <v>21665775</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -35230,10 +35230,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>6831</v>
+        <v>6836</v>
       </c>
       <c r="D727" t="n">
-        <v>9985329</v>
+        <v>9992329</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -35326,10 +35326,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="D729" t="n">
-        <v>3120038</v>
+        <v>3121538</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -35422,10 +35422,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D731" t="n">
-        <v>453989</v>
+        <v>459189</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -35470,10 +35470,10 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D732" t="n">
-        <v>451719</v>
+        <v>455679</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -35566,10 +35566,10 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>11473</v>
+        <v>11491</v>
       </c>
       <c r="D734" t="n">
-        <v>14167854</v>
+        <v>14188870</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -35758,10 +35758,10 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>4229</v>
+        <v>4231</v>
       </c>
       <c r="D738" t="n">
-        <v>6199745</v>
+        <v>6201994</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -35998,10 +35998,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>29454</v>
+        <v>29473</v>
       </c>
       <c r="D743" t="n">
-        <v>36609190</v>
+        <v>36632831</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -36238,10 +36238,10 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>12688</v>
+        <v>12694</v>
       </c>
       <c r="D748" t="n">
-        <v>18569699</v>
+        <v>18578590</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -36334,10 +36334,10 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>4204</v>
+        <v>4207</v>
       </c>
       <c r="D750" t="n">
-        <v>6006619</v>
+        <v>6011119</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -36478,10 +36478,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D753" t="n">
-        <v>953504</v>
+        <v>958004</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -36574,10 +36574,10 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>12277</v>
+        <v>12287</v>
       </c>
       <c r="D755" t="n">
-        <v>15200121</v>
+        <v>15210614</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -36718,10 +36718,10 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>4650</v>
+        <v>4651</v>
       </c>
       <c r="D758" t="n">
-        <v>6796356</v>
+        <v>6797856</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -36766,10 +36766,10 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D759" t="n">
-        <v>1643486</v>
+        <v>1644986</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -36862,10 +36862,10 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D761" t="n">
-        <v>522162</v>
+        <v>525162</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -36910,10 +36910,10 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>6698</v>
+        <v>6708</v>
       </c>
       <c r="D762" t="n">
-        <v>7872150</v>
+        <v>7883669</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -37102,10 +37102,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="D766" t="n">
-        <v>2472153</v>
+        <v>2473653</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -37246,10 +37246,10 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D769" t="n">
-        <v>209935</v>
+        <v>210947</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -37294,10 +37294,10 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>16747</v>
+        <v>16762</v>
       </c>
       <c r="D770" t="n">
-        <v>20319218</v>
+        <v>20334664</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -37534,10 +37534,10 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>5524</v>
+        <v>5529</v>
       </c>
       <c r="D775" t="n">
-        <v>8094086</v>
+        <v>8101586</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -37630,10 +37630,10 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>3388</v>
+        <v>3391</v>
       </c>
       <c r="D777" t="n">
-        <v>4948222</v>
+        <v>4952722</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -37774,10 +37774,10 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D780" t="n">
-        <v>391348</v>
+        <v>392848</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -37822,10 +37822,10 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>11345</v>
+        <v>11351</v>
       </c>
       <c r="D781" t="n">
-        <v>14369076</v>
+        <v>14372659</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -38014,10 +38014,10 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>3948</v>
+        <v>3949</v>
       </c>
       <c r="D785" t="n">
-        <v>5772983</v>
+        <v>5774483</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -38110,10 +38110,10 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="D787" t="n">
-        <v>1812412</v>
+        <v>1815412</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -38302,10 +38302,10 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>32037</v>
+        <v>32063</v>
       </c>
       <c r="D791" t="n">
-        <v>39518834</v>
+        <v>39551293</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -38494,10 +38494,10 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>13159</v>
+        <v>13164</v>
       </c>
       <c r="D795" t="n">
-        <v>19253227</v>
+        <v>19260319</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -38638,10 +38638,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D798" t="n">
-        <v>731569</v>
+        <v>733069</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -38734,10 +38734,10 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D800" t="n">
-        <v>910773</v>
+        <v>912273</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -38782,10 +38782,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>7590</v>
+        <v>7595</v>
       </c>
       <c r="D801" t="n">
-        <v>9384537</v>
+        <v>9392037</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -39070,10 +39070,10 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="D807" t="n">
-        <v>3903484</v>
+        <v>3904984</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -39118,10 +39118,10 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D808" t="n">
-        <v>1634438</v>
+        <v>1637438</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -39262,10 +39262,10 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>58661</v>
+        <v>58732</v>
       </c>
       <c r="D811" t="n">
-        <v>73327148</v>
+        <v>73414309</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -39502,10 +39502,10 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>21092</v>
+        <v>21113</v>
       </c>
       <c r="D816" t="n">
-        <v>30859293</v>
+        <v>30888769</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -39646,10 +39646,10 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>12567</v>
+        <v>12577</v>
       </c>
       <c r="D819" t="n">
-        <v>18140129</v>
+        <v>18153682</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -39886,10 +39886,10 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="D824" t="n">
-        <v>1835325</v>
+        <v>1840607</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -39934,10 +39934,10 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>11104</v>
+        <v>11112</v>
       </c>
       <c r="D825" t="n">
-        <v>13844329</v>
+        <v>13854013</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -40030,10 +40030,10 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D827" t="n">
-        <v>40366</v>
+        <v>43366</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
@@ -40126,10 +40126,10 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>3903</v>
+        <v>3909</v>
       </c>
       <c r="D829" t="n">
-        <v>5674604</v>
+        <v>5682219</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -40222,10 +40222,10 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="D831" t="n">
-        <v>1766049</v>
+        <v>1770549</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -40462,10 +40462,10 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>58326</v>
+        <v>58378</v>
       </c>
       <c r="D836" t="n">
-        <v>72119491</v>
+        <v>72178291</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -40702,10 +40702,10 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D841" t="n">
-        <v>130658</v>
+        <v>132158</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -40750,10 +40750,10 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>22278</v>
+        <v>22289</v>
       </c>
       <c r="D842" t="n">
-        <v>32688308</v>
+        <v>32704808</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -40798,10 +40798,10 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D843" t="n">
-        <v>22500</v>
+        <v>24000</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -40846,10 +40846,10 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>14278</v>
+        <v>14292</v>
       </c>
       <c r="D844" t="n">
-        <v>20670411</v>
+        <v>20689917</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -40942,10 +40942,10 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D846" t="n">
-        <v>1272101</v>
+        <v>1273601</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -40990,10 +40990,10 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="D847" t="n">
-        <v>1720686</v>
+        <v>1723686</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -41086,10 +41086,10 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>7716</v>
+        <v>7722</v>
       </c>
       <c r="D849" t="n">
-        <v>9467513</v>
+        <v>9476513</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -41278,10 +41278,10 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D853" t="n">
-        <v>432097</v>
+        <v>433597</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -41374,10 +41374,10 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>3591</v>
+        <v>3598</v>
       </c>
       <c r="D855" t="n">
-        <v>4642111</v>
+        <v>4652489</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -41614,10 +41614,10 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D860" t="n">
-        <v>532778</v>
+        <v>534278</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -41662,10 +41662,10 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D861" t="n">
-        <v>192582</v>
+        <v>196729</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -41758,10 +41758,10 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>22292</v>
+        <v>22306</v>
       </c>
       <c r="D863" t="n">
-        <v>27930984</v>
+        <v>27949560</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -41950,10 +41950,10 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>7735</v>
+        <v>7737</v>
       </c>
       <c r="D867" t="n">
-        <v>11291256</v>
+        <v>11294256</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -42046,10 +42046,10 @@
         </is>
       </c>
       <c r="C869" t="n">
-        <v>4616</v>
+        <v>4618</v>
       </c>
       <c r="D869" t="n">
-        <v>6674151</v>
+        <v>6677151</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -42286,10 +42286,10 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>14471</v>
+        <v>14482</v>
       </c>
       <c r="D874" t="n">
-        <v>17450843</v>
+        <v>17464679</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -42478,10 +42478,10 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>5231</v>
+        <v>5235</v>
       </c>
       <c r="D878" t="n">
-        <v>7629110</v>
+        <v>7635110</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -42574,10 +42574,10 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>2352</v>
+        <v>2355</v>
       </c>
       <c r="D880" t="n">
-        <v>3381503</v>
+        <v>3386003</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -42670,10 +42670,10 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D882" t="n">
-        <v>315049</v>
+        <v>316549</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -42718,10 +42718,10 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D883" t="n">
-        <v>409885</v>
+        <v>411385</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -42766,10 +42766,10 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>9749</v>
+        <v>9755</v>
       </c>
       <c r="D884" t="n">
-        <v>11977889</v>
+        <v>11982326</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -42910,10 +42910,10 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>3341</v>
+        <v>3343</v>
       </c>
       <c r="D887" t="n">
-        <v>4895238</v>
+        <v>4898238</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -42958,10 +42958,10 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D888" t="n">
-        <v>2143219</v>
+        <v>2144719</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -43054,10 +43054,10 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D890" t="n">
-        <v>267889</v>
+        <v>269389</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -43102,10 +43102,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>44432</v>
+        <v>44476</v>
       </c>
       <c r="D891" t="n">
-        <v>55814146</v>
+        <v>55863362</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -43342,10 +43342,10 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>21009</v>
+        <v>21024</v>
       </c>
       <c r="D896" t="n">
-        <v>30804498</v>
+        <v>30826907</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -43438,10 +43438,10 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>5873</v>
+        <v>5875</v>
       </c>
       <c r="D898" t="n">
-        <v>8462669</v>
+        <v>8465669</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -43486,10 +43486,10 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D899" t="n">
-        <v>887955</v>
+        <v>889455</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -43582,10 +43582,10 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D901" t="n">
-        <v>1294062</v>
+        <v>1297062</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -43630,10 +43630,10 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>21150</v>
+        <v>21167</v>
       </c>
       <c r="D902" t="n">
-        <v>26319772</v>
+        <v>26339893</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -43966,10 +43966,10 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D909" t="n">
-        <v>885933</v>
+        <v>886879</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -44014,10 +44014,10 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D910" t="n">
-        <v>884850</v>
+        <v>886350</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -44062,10 +44062,10 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>7018</v>
+        <v>7022</v>
       </c>
       <c r="D911" t="n">
-        <v>8821161</v>
+        <v>8826461</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -44302,10 +44302,10 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="D916" t="n">
-        <v>4435089</v>
+        <v>4436589</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -44350,10 +44350,10 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D917" t="n">
-        <v>912449</v>
+        <v>913949</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -44446,10 +44446,10 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D919" t="n">
-        <v>251925</v>
+        <v>253425</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -44494,10 +44494,10 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>12984</v>
+        <v>13000</v>
       </c>
       <c r="D920" t="n">
-        <v>16180267</v>
+        <v>16192898</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -44782,10 +44782,10 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D926" t="n">
-        <v>1981867</v>
+        <v>1982188</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -45022,10 +45022,10 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>19259</v>
+        <v>19266</v>
       </c>
       <c r="D931" t="n">
-        <v>24062318</v>
+        <v>24071479</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -45214,10 +45214,10 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>10061</v>
+        <v>10064</v>
       </c>
       <c r="D935" t="n">
-        <v>14707576</v>
+        <v>14712076</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -45310,10 +45310,10 @@
         </is>
       </c>
       <c r="C937" t="n">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="D937" t="n">
-        <v>2963319</v>
+        <v>2966319</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -45406,10 +45406,10 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D939" t="n">
-        <v>620294</v>
+        <v>621794</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -45454,10 +45454,10 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>8606</v>
+        <v>8612</v>
       </c>
       <c r="D940" t="n">
-        <v>10737251</v>
+        <v>10744932</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -45742,10 +45742,10 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="D946" t="n">
-        <v>2153309</v>
+        <v>2156309</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -45838,10 +45838,10 @@
         </is>
       </c>
       <c r="C948" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D948" t="n">
-        <v>223575</v>
+        <v>225075</v>
       </c>
       <c r="E948" t="inlineStr">
         <is>
@@ -45934,10 +45934,10 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>66938</v>
+        <v>66997</v>
       </c>
       <c r="D950" t="n">
-        <v>85937162</v>
+        <v>86006111</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -46270,10 +46270,10 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>25518</v>
+        <v>25527</v>
       </c>
       <c r="D957" t="n">
-        <v>37401841</v>
+        <v>37414241</v>
       </c>
       <c r="E957" t="inlineStr">
         <is>
@@ -46366,10 +46366,10 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>17553</v>
+        <v>17568</v>
       </c>
       <c r="D959" t="n">
-        <v>25449522</v>
+        <v>25469848</v>
       </c>
       <c r="E959" t="inlineStr">
         <is>
@@ -46462,10 +46462,10 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D961" t="n">
-        <v>699323</v>
+        <v>702323</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
@@ -46510,10 +46510,10 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D962" t="n">
-        <v>1233721</v>
+        <v>1236721</v>
       </c>
       <c r="E962" t="inlineStr">
         <is>
@@ -46558,10 +46558,10 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>83574</v>
+        <v>83672</v>
       </c>
       <c r="D963" t="n">
-        <v>104927047</v>
+        <v>105034161</v>
       </c>
       <c r="E963" t="inlineStr">
         <is>
@@ -46894,10 +46894,10 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>33745</v>
+        <v>33761</v>
       </c>
       <c r="D970" t="n">
-        <v>49496037</v>
+        <v>49519300</v>
       </c>
       <c r="E970" t="inlineStr">
         <is>
@@ -47038,10 +47038,10 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>25129</v>
+        <v>25147</v>
       </c>
       <c r="D973" t="n">
-        <v>36447237</v>
+        <v>36474237</v>
       </c>
       <c r="E973" t="inlineStr">
         <is>
@@ -47086,10 +47086,10 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D974" t="n">
-        <v>872652</v>
+        <v>874152</v>
       </c>
       <c r="E974" t="inlineStr">
         <is>
@@ -47182,10 +47182,10 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="D976" t="n">
-        <v>2789117</v>
+        <v>2791805</v>
       </c>
       <c r="E976" t="inlineStr">
         <is>
@@ -47230,10 +47230,10 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>10726</v>
+        <v>10741</v>
       </c>
       <c r="D977" t="n">
-        <v>13993663</v>
+        <v>14012137</v>
       </c>
       <c r="E977" t="inlineStr">
         <is>
@@ -47662,10 +47662,10 @@
         </is>
       </c>
       <c r="C986" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D986" t="n">
-        <v>249033</v>
+        <v>252033</v>
       </c>
       <c r="E986" t="inlineStr">
         <is>
@@ -47710,10 +47710,10 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>55861</v>
+        <v>55893</v>
       </c>
       <c r="D987" t="n">
-        <v>69938241</v>
+        <v>69975469</v>
       </c>
       <c r="E987" t="inlineStr">
         <is>
@@ -47950,10 +47950,10 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>18482</v>
+        <v>18486</v>
       </c>
       <c r="D992" t="n">
-        <v>27067283</v>
+        <v>27073283</v>
       </c>
       <c r="E992" t="inlineStr">
         <is>
@@ -48046,10 +48046,10 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>12587</v>
+        <v>12598</v>
       </c>
       <c r="D994" t="n">
-        <v>18202855</v>
+        <v>18218821</v>
       </c>
       <c r="E994" t="inlineStr">
         <is>
@@ -48238,10 +48238,10 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>28166</v>
+        <v>28193</v>
       </c>
       <c r="D998" t="n">
-        <v>35049665</v>
+        <v>35083463</v>
       </c>
       <c r="E998" t="inlineStr">
         <is>
@@ -48430,10 +48430,10 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1002" t="n">
-        <v>107760</v>
+        <v>109260</v>
       </c>
       <c r="E1002" t="inlineStr">
         <is>
@@ -48478,10 +48478,10 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>10479</v>
+        <v>10483</v>
       </c>
       <c r="D1003" t="n">
-        <v>15347750</v>
+        <v>15353684</v>
       </c>
       <c r="E1003" t="inlineStr">
         <is>
@@ -48574,10 +48574,10 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>6205</v>
+        <v>6210</v>
       </c>
       <c r="D1005" t="n">
-        <v>8997605</v>
+        <v>9005105</v>
       </c>
       <c r="E1005" t="inlineStr">
         <is>
@@ -48670,10 +48670,10 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D1007" t="n">
-        <v>716129</v>
+        <v>718816</v>
       </c>
       <c r="E1007" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16359</v>
+        <v>16375</v>
       </c>
       <c r="D2" t="n">
-        <v>20565248</v>
+        <v>20583012</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6242</v>
+        <v>6244</v>
       </c>
       <c r="D6" t="n">
-        <v>9128238</v>
+        <v>9131238</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3288</v>
+        <v>3290</v>
       </c>
       <c r="D8" t="n">
-        <v>4758380</v>
+        <v>4760205</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10990</v>
+        <v>10999</v>
       </c>
       <c r="D12" t="n">
-        <v>13868664</v>
+        <v>13880448</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3226</v>
+        <v>3232</v>
       </c>
       <c r="D16" t="n">
-        <v>4700627</v>
+        <v>4708073</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D18" t="n">
-        <v>2093720</v>
+        <v>2095220</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D19" t="n">
-        <v>548178</v>
+        <v>551178</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D21" t="n">
-        <v>284753</v>
+        <v>286253</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14244</v>
+        <v>14251</v>
       </c>
       <c r="D22" t="n">
-        <v>17465716</v>
+        <v>17473314</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6554</v>
+        <v>6556</v>
       </c>
       <c r="D32" t="n">
-        <v>8705969</v>
+        <v>8708786</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2302,10 +2302,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>21866</v>
+        <v>21875</v>
       </c>
       <c r="D41" t="n">
-        <v>26911428</v>
+        <v>26919421</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>7807</v>
+        <v>7810</v>
       </c>
       <c r="D47" t="n">
-        <v>11467960</v>
+        <v>11472460</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3836</v>
+        <v>3841</v>
       </c>
       <c r="D49" t="n">
-        <v>5552655</v>
+        <v>5559069</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="D57" t="n">
-        <v>4043543</v>
+        <v>4045043</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D59" t="n">
-        <v>1443584</v>
+        <v>1445084</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D61" t="n">
-        <v>351461</v>
+        <v>352961</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>36141</v>
+        <v>36160</v>
       </c>
       <c r="D62" t="n">
-        <v>46529577</v>
+        <v>46551041</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>13156</v>
+        <v>13160</v>
       </c>
       <c r="D67" t="n">
-        <v>19294885</v>
+        <v>19300885</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5160</v>
+        <v>5162</v>
       </c>
       <c r="D69" t="n">
-        <v>7463084</v>
+        <v>7466084</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>46254</v>
+        <v>46276</v>
       </c>
       <c r="D75" t="n">
-        <v>59130315</v>
+        <v>59152284</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>18109</v>
+        <v>18115</v>
       </c>
       <c r="D79" t="n">
-        <v>26530804</v>
+        <v>26538880</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>9333</v>
+        <v>9339</v>
       </c>
       <c r="D81" t="n">
-        <v>13472947</v>
+        <v>13481947</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>24938</v>
+        <v>24951</v>
       </c>
       <c r="D86" t="n">
-        <v>31437832</v>
+        <v>31454264</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>8678</v>
+        <v>8682</v>
       </c>
       <c r="D90" t="n">
-        <v>12738886</v>
+        <v>12744886</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4902</v>
+        <v>4903</v>
       </c>
       <c r="D92" t="n">
-        <v>7085139</v>
+        <v>7086639</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D94" t="n">
-        <v>1061815</v>
+        <v>1063315</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>21962</v>
+        <v>21967</v>
       </c>
       <c r="D95" t="n">
-        <v>27572164</v>
+        <v>27577683</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>9154</v>
+        <v>9157</v>
       </c>
       <c r="D99" t="n">
-        <v>13399349</v>
+        <v>13403849</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="D101" t="n">
-        <v>4765390</v>
+        <v>4765848</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5422,10 +5422,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>81682</v>
+        <v>81746</v>
       </c>
       <c r="D106" t="n">
-        <v>104667041</v>
+        <v>104746625</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5758,10 +5758,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>30600</v>
+        <v>30611</v>
       </c>
       <c r="D113" t="n">
-        <v>44904917</v>
+        <v>44921417</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>20821</v>
+        <v>20834</v>
       </c>
       <c r="D115" t="n">
-        <v>30044999</v>
+        <v>30063184</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D118" t="n">
-        <v>971267</v>
+        <v>972767</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>27697</v>
+        <v>27713</v>
       </c>
       <c r="D123" t="n">
-        <v>36553455</v>
+        <v>36572723</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>9868</v>
+        <v>9870</v>
       </c>
       <c r="D127" t="n">
-        <v>14471870</v>
+        <v>14474870</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3267</v>
+        <v>3273</v>
       </c>
       <c r="D129" t="n">
-        <v>4750157</v>
+        <v>4759157</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D130" t="n">
-        <v>314867</v>
+        <v>316308</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>15743</v>
+        <v>15755</v>
       </c>
       <c r="D133" t="n">
-        <v>19586933</v>
+        <v>19601897</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>7760</v>
+        <v>7762</v>
       </c>
       <c r="D136" t="n">
-        <v>11354916</v>
+        <v>11357916</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6958,10 +6958,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="D138" t="n">
-        <v>3161610</v>
+        <v>3163547</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>13529</v>
+        <v>13540</v>
       </c>
       <c r="D143" t="n">
-        <v>16904522</v>
+        <v>16910677</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>6243</v>
+        <v>6244</v>
       </c>
       <c r="D147" t="n">
-        <v>9146755</v>
+        <v>9148255</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7486,10 +7486,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="D149" t="n">
-        <v>2874499</v>
+        <v>2875999</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>5982</v>
+        <v>5985</v>
       </c>
       <c r="D153" t="n">
-        <v>7316232</v>
+        <v>7320084</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D157" t="n">
-        <v>977327</v>
+        <v>978827</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>7438</v>
+        <v>7440</v>
       </c>
       <c r="D161" t="n">
-        <v>9218550</v>
+        <v>9219088</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D168" t="n">
-        <v>201865</v>
+        <v>204865</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>5612</v>
+        <v>5614</v>
       </c>
       <c r="D169" t="n">
-        <v>7062664</v>
+        <v>7065664</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8926,10 +8926,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>15971</v>
+        <v>15976</v>
       </c>
       <c r="D179" t="n">
-        <v>20068126</v>
+        <v>20073496</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>6393</v>
+        <v>6394</v>
       </c>
       <c r="D184" t="n">
-        <v>9338359</v>
+        <v>9339859</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D188" t="n">
-        <v>630912</v>
+        <v>632412</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D191" t="n">
-        <v>2156742</v>
+        <v>2158242</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>9204</v>
+        <v>9210</v>
       </c>
       <c r="D197" t="n">
-        <v>11492602</v>
+        <v>11499830</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3429</v>
+        <v>3430</v>
       </c>
       <c r="D201" t="n">
-        <v>5038076</v>
+        <v>5039576</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -10222,10 +10222,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>17262</v>
+        <v>17271</v>
       </c>
       <c r="D206" t="n">
-        <v>21555356</v>
+        <v>21566631</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>7690</v>
+        <v>7691</v>
       </c>
       <c r="D210" t="n">
-        <v>11292115</v>
+        <v>11293615</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D211" t="n">
-        <v>1776154</v>
+        <v>1777654</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>26135</v>
+        <v>26149</v>
       </c>
       <c r="D214" t="n">
-        <v>32964466</v>
+        <v>32980786</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10798,10 +10798,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>10492</v>
+        <v>10494</v>
       </c>
       <c r="D218" t="n">
-        <v>15323353</v>
+        <v>15326353</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D223" t="n">
-        <v>849159</v>
+        <v>850659</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11086,10 +11086,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>28486</v>
+        <v>28506</v>
       </c>
       <c r="D224" t="n">
-        <v>35944850</v>
+        <v>35965555</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -11326,10 +11326,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>14730</v>
+        <v>14734</v>
       </c>
       <c r="D229" t="n">
-        <v>21613596</v>
+        <v>21619219</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -11422,10 +11422,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="D231" t="n">
-        <v>3815175</v>
+        <v>3816675</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>24285</v>
+        <v>24297</v>
       </c>
       <c r="D235" t="n">
-        <v>30633422</v>
+        <v>30645473</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11902,10 +11902,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>11177</v>
+        <v>11186</v>
       </c>
       <c r="D241" t="n">
-        <v>16384567</v>
+        <v>16395490</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>2509</v>
+        <v>2512</v>
       </c>
       <c r="D243" t="n">
-        <v>3585748</v>
+        <v>3588818</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12382,10 +12382,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="D251" t="n">
-        <v>3964650</v>
+        <v>3966150</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D256" t="n">
-        <v>205667</v>
+        <v>207167</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>9810</v>
+        <v>9817</v>
       </c>
       <c r="D257" t="n">
-        <v>12511114</v>
+        <v>12521232</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>4194</v>
+        <v>4197</v>
       </c>
       <c r="D261" t="n">
-        <v>6156670</v>
+        <v>6160460</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12958,10 +12958,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="D263" t="n">
-        <v>3144602</v>
+        <v>3147387</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -13102,10 +13102,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>5547</v>
+        <v>5554</v>
       </c>
       <c r="D266" t="n">
-        <v>6879537</v>
+        <v>6887700</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -13342,10 +13342,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D271" t="n">
-        <v>1031372</v>
+        <v>1032872</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13534,10 +13534,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>19093</v>
+        <v>19106</v>
       </c>
       <c r="D275" t="n">
-        <v>24122516</v>
+        <v>24135703</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13726,10 +13726,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>7932</v>
+        <v>7933</v>
       </c>
       <c r="D279" t="n">
-        <v>11629896</v>
+        <v>11631396</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="D281" t="n">
-        <v>3588559</v>
+        <v>3590059</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -14062,10 +14062,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>16626</v>
+        <v>16635</v>
       </c>
       <c r="D286" t="n">
-        <v>20591785</v>
+        <v>20604385</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>7189</v>
+        <v>7191</v>
       </c>
       <c r="D290" t="n">
-        <v>10544114</v>
+        <v>10547114</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="D291" t="n">
-        <v>4830799</v>
+        <v>4832299</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>9355</v>
+        <v>9357</v>
       </c>
       <c r="D295" t="n">
-        <v>11752972</v>
+        <v>11754524</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>3913</v>
+        <v>3915</v>
       </c>
       <c r="D299" t="n">
-        <v>5727332</v>
+        <v>5730332</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D304" t="n">
-        <v>291729</v>
+        <v>293229</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>9205</v>
+        <v>9209</v>
       </c>
       <c r="D305" t="n">
-        <v>12020429</v>
+        <v>12026229</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>3746</v>
+        <v>3747</v>
       </c>
       <c r="D309" t="n">
-        <v>5476849</v>
+        <v>5478349</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15214,10 +15214,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="D310" t="n">
-        <v>3426950</v>
+        <v>3429950</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D311" t="n">
-        <v>329165</v>
+        <v>332165</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>11074</v>
+        <v>11076</v>
       </c>
       <c r="D313" t="n">
-        <v>14540643</v>
+        <v>14543643</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15550,10 +15550,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>3779</v>
+        <v>3782</v>
       </c>
       <c r="D317" t="n">
-        <v>5540181</v>
+        <v>5544672</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2704</v>
+        <v>2707</v>
       </c>
       <c r="D319" t="n">
-        <v>3920296</v>
+        <v>3923728</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>6819</v>
+        <v>6822</v>
       </c>
       <c r="D322" t="n">
-        <v>8430616</v>
+        <v>8433859</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="D327" t="n">
-        <v>3374084</v>
+        <v>3375584</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16270,10 +16270,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>7534</v>
+        <v>7542</v>
       </c>
       <c r="D332" t="n">
-        <v>9427893</v>
+        <v>9439350</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16558,10 +16558,10 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D338" t="n">
-        <v>1849861</v>
+        <v>1851361</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -16702,10 +16702,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>32032</v>
+        <v>32050</v>
       </c>
       <c r="D341" t="n">
-        <v>40235461</v>
+        <v>40258516</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -16990,10 +16990,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>16542</v>
+        <v>16546</v>
       </c>
       <c r="D347" t="n">
-        <v>24187878</v>
+        <v>24193878</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>8053</v>
+        <v>8057</v>
       </c>
       <c r="D350" t="n">
-        <v>11597294</v>
+        <v>11603232</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D351" t="n">
-        <v>918553</v>
+        <v>919163</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>3894</v>
+        <v>3896</v>
       </c>
       <c r="D353" t="n">
-        <v>4851412</v>
+        <v>4854412</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17662,10 +17662,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>19392</v>
+        <v>19406</v>
       </c>
       <c r="D361" t="n">
-        <v>24179730</v>
+        <v>24195917</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -17854,10 +17854,10 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>9915</v>
+        <v>9918</v>
       </c>
       <c r="D365" t="n">
-        <v>14537235</v>
+        <v>14541735</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>4740</v>
+        <v>4742</v>
       </c>
       <c r="D367" t="n">
-        <v>6854017</v>
+        <v>6855662</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -18094,10 +18094,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>13947</v>
+        <v>13955</v>
       </c>
       <c r="D370" t="n">
-        <v>17442027</v>
+        <v>17449386</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18286,10 +18286,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>6444</v>
+        <v>6447</v>
       </c>
       <c r="D374" t="n">
-        <v>9434876</v>
+        <v>9439376</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="D376" t="n">
-        <v>3568690</v>
+        <v>3570190</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18526,10 +18526,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>18003</v>
+        <v>18016</v>
       </c>
       <c r="D379" t="n">
-        <v>22449776</v>
+        <v>22461904</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>7141</v>
+        <v>7143</v>
       </c>
       <c r="D383" t="n">
-        <v>10496715</v>
+        <v>10499715</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>4097</v>
+        <v>4098</v>
       </c>
       <c r="D389" t="n">
-        <v>5141492</v>
+        <v>5142992</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19342,10 +19342,10 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>22294</v>
+        <v>22309</v>
       </c>
       <c r="D396" t="n">
-        <v>27655273</v>
+        <v>27675052</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>9369</v>
+        <v>9373</v>
       </c>
       <c r="D399" t="n">
-        <v>13791657</v>
+        <v>13797657</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>6211</v>
+        <v>6219</v>
       </c>
       <c r="D401" t="n">
-        <v>9034133</v>
+        <v>9046133</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19726,10 +19726,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>11143</v>
+        <v>11147</v>
       </c>
       <c r="D404" t="n">
-        <v>13736366</v>
+        <v>13741257</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -20062,10 +20062,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D411" t="n">
-        <v>2676864</v>
+        <v>2678364</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20206,10 +20206,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>32324</v>
+        <v>32399</v>
       </c>
       <c r="D414" t="n">
-        <v>43785476</v>
+        <v>43887633</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20398,10 +20398,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>7825</v>
+        <v>7836</v>
       </c>
       <c r="D418" t="n">
-        <v>11506381</v>
+        <v>11521581</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>7149</v>
+        <v>7155</v>
       </c>
       <c r="D420" t="n">
-        <v>10364336</v>
+        <v>10373082</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D422" t="n">
-        <v>748405</v>
+        <v>749905</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D423" t="n">
-        <v>695443</v>
+        <v>696943</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20686,10 +20686,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>8877</v>
+        <v>8921</v>
       </c>
       <c r="D424" t="n">
-        <v>12321466</v>
+        <v>12384334</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>2235</v>
+        <v>2240</v>
       </c>
       <c r="D426" t="n">
-        <v>3292802</v>
+        <v>3300302</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>3000</v>
+        <v>3010</v>
       </c>
       <c r="D428" t="n">
-        <v>4382451</v>
+        <v>4396550</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D430" t="n">
-        <v>186120</v>
+        <v>190620</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21070,10 +21070,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>11034</v>
+        <v>11039</v>
       </c>
       <c r="D432" t="n">
-        <v>13623653</v>
+        <v>13629418</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21214,10 +21214,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>3793</v>
+        <v>3794</v>
       </c>
       <c r="D435" t="n">
-        <v>5566481</v>
+        <v>5567312</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -21310,10 +21310,10 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="D437" t="n">
-        <v>2686227</v>
+        <v>2687727</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>63006</v>
+        <v>63042</v>
       </c>
       <c r="D440" t="n">
-        <v>78080039</v>
+        <v>78120140</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21646,10 +21646,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>24930</v>
+        <v>24944</v>
       </c>
       <c r="D444" t="n">
-        <v>36544120</v>
+        <v>36563113</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21742,10 +21742,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>12943</v>
+        <v>12951</v>
       </c>
       <c r="D446" t="n">
-        <v>18767797</v>
+        <v>18779697</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -21790,10 +21790,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D447" t="n">
-        <v>659056</v>
+        <v>660537</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>18919</v>
+        <v>18934</v>
       </c>
       <c r="D452" t="n">
-        <v>23916000</v>
+        <v>23933669</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22222,10 +22222,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>7706</v>
+        <v>7710</v>
       </c>
       <c r="D456" t="n">
-        <v>11311393</v>
+        <v>11317393</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>4858</v>
+        <v>4864</v>
       </c>
       <c r="D458" t="n">
-        <v>7049697</v>
+        <v>7058697</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>32245</v>
+        <v>32262</v>
       </c>
       <c r="D461" t="n">
-        <v>39412080</v>
+        <v>39432217</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22654,10 +22654,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>11455</v>
+        <v>11464</v>
       </c>
       <c r="D465" t="n">
-        <v>16760349</v>
+        <v>16773849</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>4910</v>
+        <v>4912</v>
       </c>
       <c r="D467" t="n">
-        <v>7124082</v>
+        <v>7127082</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22894,10 +22894,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>14412</v>
+        <v>14419</v>
       </c>
       <c r="D470" t="n">
-        <v>17621162</v>
+        <v>17627915</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="D477" t="n">
-        <v>2991793</v>
+        <v>2994793</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D478" t="n">
-        <v>198369</v>
+        <v>198855</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D479" t="n">
-        <v>465848</v>
+        <v>467348</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23374,10 +23374,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>36037</v>
+        <v>36071</v>
       </c>
       <c r="D480" t="n">
-        <v>46956220</v>
+        <v>47004868</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23566,10 +23566,10 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>13572</v>
+        <v>13575</v>
       </c>
       <c r="D484" t="n">
-        <v>19968000</v>
+        <v>19972500</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -23662,10 +23662,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>12008</v>
+        <v>12015</v>
       </c>
       <c r="D486" t="n">
-        <v>17526178</v>
+        <v>17536678</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D487" t="n">
-        <v>271421</v>
+        <v>272921</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D488" t="n">
-        <v>426226</v>
+        <v>427726</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>62447</v>
+        <v>62497</v>
       </c>
       <c r="D489" t="n">
-        <v>82681841</v>
+        <v>82745387</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>23131</v>
+        <v>23145</v>
       </c>
       <c r="D494" t="n">
-        <v>33941984</v>
+        <v>33962984</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24142,10 +24142,10 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>22466</v>
+        <v>22484</v>
       </c>
       <c r="D496" t="n">
-        <v>32616473</v>
+        <v>32643143</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D499" t="n">
-        <v>888101</v>
+        <v>889143</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24334,10 +24334,10 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>151145</v>
+        <v>151297</v>
       </c>
       <c r="D500" t="n">
-        <v>198772534</v>
+        <v>198970076</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D502" t="n">
-        <v>179220</v>
+        <v>180720</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>81711</v>
+        <v>81768</v>
       </c>
       <c r="D507" t="n">
-        <v>120031632</v>
+        <v>120115560</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>60137</v>
+        <v>60194</v>
       </c>
       <c r="D510" t="n">
-        <v>87293764</v>
+        <v>87376325</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -25006,10 +25006,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="D514" t="n">
-        <v>3950013</v>
+        <v>3954513</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>41265</v>
+        <v>41313</v>
       </c>
       <c r="D516" t="n">
-        <v>53635609</v>
+        <v>53701725</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25342,10 +25342,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>15266</v>
+        <v>15273</v>
       </c>
       <c r="D521" t="n">
-        <v>22422873</v>
+        <v>22432718</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25438,10 +25438,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>12942</v>
+        <v>12953</v>
       </c>
       <c r="D523" t="n">
-        <v>18759030</v>
+        <v>18775072</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25678,10 +25678,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>66289</v>
+        <v>66347</v>
       </c>
       <c r="D528" t="n">
-        <v>89086297</v>
+        <v>89166735</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -25870,10 +25870,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>23338</v>
+        <v>23352</v>
       </c>
       <c r="D532" t="n">
-        <v>34436135</v>
+        <v>34457135</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>24118</v>
+        <v>24137</v>
       </c>
       <c r="D534" t="n">
-        <v>35297963</v>
+        <v>35325491</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26158,10 +26158,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>55145</v>
+        <v>55181</v>
       </c>
       <c r="D538" t="n">
-        <v>73138016</v>
+        <v>73184883</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>17799</v>
+        <v>17809</v>
       </c>
       <c r="D543" t="n">
-        <v>26155026</v>
+        <v>26168586</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>18334</v>
+        <v>18345</v>
       </c>
       <c r="D545" t="n">
-        <v>26651587</v>
+        <v>26668087</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D547" t="n">
-        <v>882204</v>
+        <v>883704</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26638,10 +26638,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>41633</v>
+        <v>41661</v>
       </c>
       <c r="D548" t="n">
-        <v>55283230</v>
+        <v>55317529</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>14227</v>
+        <v>14232</v>
       </c>
       <c r="D552" t="n">
-        <v>20983621</v>
+        <v>20991121</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26926,10 +26926,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>14425</v>
+        <v>14434</v>
       </c>
       <c r="D554" t="n">
-        <v>20947256</v>
+        <v>20960035</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>41368</v>
+        <v>41393</v>
       </c>
       <c r="D557" t="n">
-        <v>53634298</v>
+        <v>53664137</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>16213</v>
+        <v>16226</v>
       </c>
       <c r="D561" t="n">
-        <v>23788075</v>
+        <v>23805655</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>13021</v>
+        <v>13034</v>
       </c>
       <c r="D563" t="n">
-        <v>18831609</v>
+        <v>18850615</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27454,10 +27454,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D565" t="n">
-        <v>374160</v>
+        <v>375660</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27502,10 +27502,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D566" t="n">
-        <v>498767</v>
+        <v>500267</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>43948</v>
+        <v>43975</v>
       </c>
       <c r="D567" t="n">
-        <v>58667555</v>
+        <v>58702970</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27838,10 +27838,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>13929</v>
+        <v>13933</v>
       </c>
       <c r="D573" t="n">
-        <v>20427111</v>
+        <v>20432676</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -27886,10 +27886,10 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>3707</v>
+        <v>3710</v>
       </c>
       <c r="D574" t="n">
-        <v>5345180</v>
+        <v>5349680</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D577" t="n">
-        <v>569931</v>
+        <v>571431</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28174,10 +28174,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>17317</v>
+        <v>17344</v>
       </c>
       <c r="D580" t="n">
-        <v>22880660</v>
+        <v>22914662</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>7076</v>
+        <v>7085</v>
       </c>
       <c r="D584" t="n">
-        <v>10291203</v>
+        <v>10304703</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>4925</v>
+        <v>4931</v>
       </c>
       <c r="D586" t="n">
-        <v>7086563</v>
+        <v>7095563</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D588" t="n">
-        <v>378731</v>
+        <v>380231</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28606,10 +28606,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D589" t="n">
-        <v>375864</v>
+        <v>377364</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>15613</v>
+        <v>15649</v>
       </c>
       <c r="D591" t="n">
-        <v>22651655</v>
+        <v>22705655</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28750,10 +28750,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="D592" t="n">
-        <v>2616230</v>
+        <v>2617730</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D593" t="n">
-        <v>347302</v>
+        <v>348802</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28990,10 +28990,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>22021</v>
+        <v>22038</v>
       </c>
       <c r="D597" t="n">
-        <v>27629741</v>
+        <v>27649547</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29230,10 +29230,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>8989</v>
+        <v>8993</v>
       </c>
       <c r="D602" t="n">
-        <v>13169165</v>
+        <v>13173968</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="D604" t="n">
-        <v>4810159</v>
+        <v>4811659</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29374,10 +29374,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D605" t="n">
-        <v>500984</v>
+        <v>502484</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -29422,10 +29422,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D606" t="n">
-        <v>649439</v>
+        <v>650939</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>14648</v>
+        <v>14657</v>
       </c>
       <c r="D608" t="n">
-        <v>18362547</v>
+        <v>18373396</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>5787</v>
+        <v>5790</v>
       </c>
       <c r="D612" t="n">
-        <v>8499651</v>
+        <v>8504151</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>2673</v>
+        <v>2675</v>
       </c>
       <c r="D614" t="n">
-        <v>3851928</v>
+        <v>3854928</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29902,10 +29902,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D616" t="n">
-        <v>262136</v>
+        <v>263636</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -29950,10 +29950,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>13753</v>
+        <v>13760</v>
       </c>
       <c r="D617" t="n">
-        <v>17369488</v>
+        <v>17376579</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -30142,10 +30142,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>5226</v>
+        <v>5228</v>
       </c>
       <c r="D621" t="n">
-        <v>7660220</v>
+        <v>7662187</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -30190,10 +30190,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D622" t="n">
-        <v>1683355</v>
+        <v>1684855</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30382,10 +30382,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>7507</v>
+        <v>7510</v>
       </c>
       <c r="D626" t="n">
-        <v>9657223</v>
+        <v>9661164</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -30814,10 +30814,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>28797</v>
+        <v>28815</v>
       </c>
       <c r="D635" t="n">
-        <v>35467437</v>
+        <v>35490213</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>11022</v>
+        <v>11028</v>
       </c>
       <c r="D639" t="n">
-        <v>16172149</v>
+        <v>16180409</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31102,10 +31102,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>4830</v>
+        <v>4833</v>
       </c>
       <c r="D641" t="n">
-        <v>7008353</v>
+        <v>7012853</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31246,10 +31246,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D644" t="n">
-        <v>801936</v>
+        <v>803436</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31294,10 +31294,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>11309</v>
+        <v>11312</v>
       </c>
       <c r="D645" t="n">
-        <v>13706798</v>
+        <v>13710058</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D654" t="n">
-        <v>319290</v>
+        <v>320790</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31774,10 +31774,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>28296</v>
+        <v>28311</v>
       </c>
       <c r="D655" t="n">
-        <v>35176769</v>
+        <v>35195290</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31966,10 +31966,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>10735</v>
+        <v>10736</v>
       </c>
       <c r="D659" t="n">
-        <v>15773336</v>
+        <v>15774836</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -32062,10 +32062,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>3077</v>
+        <v>3080</v>
       </c>
       <c r="D661" t="n">
-        <v>4436427</v>
+        <v>4440927</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32254,10 +32254,10 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>7495</v>
+        <v>7499</v>
       </c>
       <c r="D665" t="n">
-        <v>9508814</v>
+        <v>9512825</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -32350,10 +32350,10 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="D667" t="n">
-        <v>3866165</v>
+        <v>3869165</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D670" t="n">
-        <v>367484</v>
+        <v>368984</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D672" t="n">
-        <v>229998</v>
+        <v>231070</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32638,10 +32638,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>3772</v>
+        <v>3774</v>
       </c>
       <c r="D673" t="n">
-        <v>4572767</v>
+        <v>4573898</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>9310</v>
+        <v>9311</v>
       </c>
       <c r="D682" t="n">
-        <v>11613188</v>
+        <v>11614688</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33502,10 +33502,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>19205</v>
+        <v>19214</v>
       </c>
       <c r="D691" t="n">
-        <v>23503923</v>
+        <v>23515032</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -33694,10 +33694,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>5706</v>
+        <v>5708</v>
       </c>
       <c r="D695" t="n">
-        <v>8334480</v>
+        <v>8337480</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -34030,10 +34030,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>74419</v>
+        <v>74483</v>
       </c>
       <c r="D702" t="n">
-        <v>93687667</v>
+        <v>93763826</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -34270,10 +34270,10 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>26485</v>
+        <v>26492</v>
       </c>
       <c r="D707" t="n">
-        <v>38885465</v>
+        <v>38894744</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -34414,10 +34414,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>13143</v>
+        <v>13148</v>
       </c>
       <c r="D710" t="n">
-        <v>18954831</v>
+        <v>18962331</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -34558,10 +34558,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="D713" t="n">
-        <v>2796483</v>
+        <v>2800539</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -34654,10 +34654,10 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="D715" t="n">
-        <v>1675243</v>
+        <v>1678243</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -34702,10 +34702,10 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>11150</v>
+        <v>11157</v>
       </c>
       <c r="D716" t="n">
-        <v>13642091</v>
+        <v>13648658</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -34846,10 +34846,10 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="D719" t="n">
-        <v>5998633</v>
+        <v>6000133</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -35086,10 +35086,10 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>17576</v>
+        <v>17591</v>
       </c>
       <c r="D724" t="n">
-        <v>21678208</v>
+        <v>21693662</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -35278,10 +35278,10 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>6839</v>
+        <v>6842</v>
       </c>
       <c r="D728" t="n">
-        <v>9996829</v>
+        <v>10000329</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -35518,10 +35518,10 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D733" t="n">
-        <v>456614</v>
+        <v>460114</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -35614,10 +35614,10 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>11497</v>
+        <v>11506</v>
       </c>
       <c r="D735" t="n">
-        <v>14195199</v>
+        <v>14201708</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -35806,10 +35806,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>4231</v>
+        <v>4233</v>
       </c>
       <c r="D739" t="n">
-        <v>6201994</v>
+        <v>6204994</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -36046,10 +36046,10 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>29484</v>
+        <v>29502</v>
       </c>
       <c r="D744" t="n">
-        <v>36645279</v>
+        <v>36669407</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -36286,10 +36286,10 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>12698</v>
+        <v>12704</v>
       </c>
       <c r="D749" t="n">
-        <v>18584590</v>
+        <v>18593590</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -36382,10 +36382,10 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>4209</v>
+        <v>4215</v>
       </c>
       <c r="D751" t="n">
-        <v>6014119</v>
+        <v>6022585</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -36478,10 +36478,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D753" t="n">
-        <v>1075657</v>
+        <v>1078657</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -36526,10 +36526,10 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="D754" t="n">
-        <v>959504</v>
+        <v>962896</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -36622,10 +36622,10 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>12296</v>
+        <v>12303</v>
       </c>
       <c r="D756" t="n">
-        <v>15219498</v>
+        <v>15226784</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -36814,10 +36814,10 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D760" t="n">
-        <v>1647986</v>
+        <v>1649486</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -36958,10 +36958,10 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>6714</v>
+        <v>6715</v>
       </c>
       <c r="D763" t="n">
-        <v>7890153</v>
+        <v>7891653</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -37150,10 +37150,10 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="D767" t="n">
-        <v>2475153</v>
+        <v>2478153</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -37198,10 +37198,10 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D768" t="n">
-        <v>1454844</v>
+        <v>1456344</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -37342,10 +37342,10 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>16769</v>
+        <v>16777</v>
       </c>
       <c r="D771" t="n">
-        <v>20343418</v>
+        <v>20351695</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -37582,10 +37582,10 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>5530</v>
+        <v>5531</v>
       </c>
       <c r="D776" t="n">
-        <v>8103086</v>
+        <v>8104586</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -37678,10 +37678,10 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="D778" t="n">
-        <v>4957222</v>
+        <v>4958722</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -37870,10 +37870,10 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>11359</v>
+        <v>11362</v>
       </c>
       <c r="D782" t="n">
-        <v>14379030</v>
+        <v>14381335</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -38062,10 +38062,10 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>3951</v>
+        <v>3955</v>
       </c>
       <c r="D786" t="n">
-        <v>5776458</v>
+        <v>5782458</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -38302,10 +38302,10 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D791" t="n">
-        <v>318881</v>
+        <v>323381</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -38350,10 +38350,10 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>32074</v>
+        <v>32097</v>
       </c>
       <c r="D792" t="n">
-        <v>39564763</v>
+        <v>39589823</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -38542,10 +38542,10 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>13165</v>
+        <v>13166</v>
       </c>
       <c r="D796" t="n">
-        <v>19261819</v>
+        <v>19263319</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -38638,10 +38638,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>6029</v>
+        <v>6034</v>
       </c>
       <c r="D798" t="n">
-        <v>8713078</v>
+        <v>8717657</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -38782,10 +38782,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D801" t="n">
-        <v>919124</v>
+        <v>920624</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -38830,10 +38830,10 @@
         </is>
       </c>
       <c r="C802" t="n">
-        <v>7601</v>
+        <v>7603</v>
       </c>
       <c r="D802" t="n">
-        <v>9400273</v>
+        <v>9401568</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -39118,10 +39118,10 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>2679</v>
+        <v>2681</v>
       </c>
       <c r="D808" t="n">
-        <v>3907984</v>
+        <v>3910984</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -39166,10 +39166,10 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="D809" t="n">
-        <v>1637438</v>
+        <v>1640438</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -39310,10 +39310,10 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>58796</v>
+        <v>58857</v>
       </c>
       <c r="D812" t="n">
-        <v>73490977</v>
+        <v>73559800</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -39550,10 +39550,10 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>21122</v>
+        <v>21127</v>
       </c>
       <c r="D817" t="n">
-        <v>30900891</v>
+        <v>30906181</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -39694,10 +39694,10 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>12588</v>
+        <v>12595</v>
       </c>
       <c r="D820" t="n">
-        <v>18169533</v>
+        <v>18180033</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -39790,10 +39790,10 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D822" t="n">
-        <v>647695</v>
+        <v>649195</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -39934,10 +39934,10 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="D825" t="n">
-        <v>1840607</v>
+        <v>1843607</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -39982,10 +39982,10 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>11117</v>
+        <v>11128</v>
       </c>
       <c r="D826" t="n">
-        <v>13857020</v>
+        <v>13872406</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -40174,10 +40174,10 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>3910</v>
+        <v>3912</v>
       </c>
       <c r="D830" t="n">
-        <v>5683719</v>
+        <v>5686719</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -40366,10 +40366,10 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D834" t="n">
-        <v>194065</v>
+        <v>195335</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -40462,10 +40462,10 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D836" t="n">
-        <v>369237</v>
+        <v>370737</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -40510,10 +40510,10 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>58425</v>
+        <v>58462</v>
       </c>
       <c r="D837" t="n">
-        <v>72238343</v>
+        <v>72283358</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -40798,10 +40798,10 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>22302</v>
+        <v>22306</v>
       </c>
       <c r="D843" t="n">
-        <v>32724274</v>
+        <v>32730274</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -40894,10 +40894,10 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>14302</v>
+        <v>14312</v>
       </c>
       <c r="D845" t="n">
-        <v>20704747</v>
+        <v>20718592</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -41038,10 +41038,10 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="D848" t="n">
-        <v>1729686</v>
+        <v>1731936</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -41134,10 +41134,10 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>7725</v>
+        <v>7731</v>
       </c>
       <c r="D850" t="n">
-        <v>9479100</v>
+        <v>9484026</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -41230,10 +41230,10 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>2567</v>
+        <v>2571</v>
       </c>
       <c r="D852" t="n">
-        <v>3738062</v>
+        <v>3743395</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -41278,10 +41278,10 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D853" t="n">
-        <v>1552979</v>
+        <v>1555976</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -41422,10 +41422,10 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="D856" t="n">
-        <v>4652868</v>
+        <v>4653131</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -41806,10 +41806,10 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>22317</v>
+        <v>22329</v>
       </c>
       <c r="D864" t="n">
-        <v>27964550</v>
+        <v>27979097</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -41998,10 +41998,10 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>7739</v>
+        <v>7742</v>
       </c>
       <c r="D868" t="n">
-        <v>11296769</v>
+        <v>11301269</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -42094,10 +42094,10 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>4621</v>
+        <v>4623</v>
       </c>
       <c r="D870" t="n">
-        <v>6681651</v>
+        <v>6684651</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -42238,10 +42238,10 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D873" t="n">
-        <v>597055</v>
+        <v>600055</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -42334,10 +42334,10 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>14488</v>
+        <v>14499</v>
       </c>
       <c r="D875" t="n">
-        <v>17470469</v>
+        <v>17481011</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -42526,10 +42526,10 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>5237</v>
+        <v>5238</v>
       </c>
       <c r="D879" t="n">
-        <v>7638110</v>
+        <v>7639610</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -42622,10 +42622,10 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>2355</v>
+        <v>2358</v>
       </c>
       <c r="D881" t="n">
-        <v>3386003</v>
+        <v>3390503</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -42766,10 +42766,10 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D884" t="n">
-        <v>412885</v>
+        <v>413475</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -42814,10 +42814,10 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>9765</v>
+        <v>9772</v>
       </c>
       <c r="D885" t="n">
-        <v>11996126</v>
+        <v>12004088</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -42958,10 +42958,10 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="D888" t="n">
-        <v>4901238</v>
+        <v>4902156</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -43102,10 +43102,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D891" t="n">
-        <v>269389</v>
+        <v>270819</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -43150,10 +43150,10 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>44509</v>
+        <v>44533</v>
       </c>
       <c r="D892" t="n">
-        <v>55905121</v>
+        <v>55932024</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -43390,10 +43390,10 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>21035</v>
+        <v>21043</v>
       </c>
       <c r="D897" t="n">
-        <v>30843407</v>
+        <v>30854047</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -43486,10 +43486,10 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>5883</v>
+        <v>5884</v>
       </c>
       <c r="D899" t="n">
-        <v>8477587</v>
+        <v>8479087</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -43678,10 +43678,10 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>21178</v>
+        <v>21185</v>
       </c>
       <c r="D903" t="n">
-        <v>26352082</v>
+        <v>26361307</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -43822,10 +43822,10 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>9758</v>
+        <v>9760</v>
       </c>
       <c r="D906" t="n">
-        <v>14298696</v>
+        <v>14301696</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -43918,10 +43918,10 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="D908" t="n">
-        <v>3256165</v>
+        <v>3257665</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -44062,10 +44062,10 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D911" t="n">
-        <v>889350</v>
+        <v>890850</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -44110,10 +44110,10 @@
         </is>
       </c>
       <c r="C912" t="n">
-        <v>7024</v>
+        <v>7031</v>
       </c>
       <c r="D912" t="n">
-        <v>8828638</v>
+        <v>8837517</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -44350,10 +44350,10 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="D917" t="n">
-        <v>4438089</v>
+        <v>4439589</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -44542,10 +44542,10 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>13009</v>
+        <v>13016</v>
       </c>
       <c r="D921" t="n">
-        <v>16202141</v>
+        <v>16209487</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -44734,10 +44734,10 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>5240</v>
+        <v>5246</v>
       </c>
       <c r="D925" t="n">
-        <v>7657357</v>
+        <v>7666357</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -44830,10 +44830,10 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="D927" t="n">
-        <v>1983688</v>
+        <v>1985188</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -45022,10 +45022,10 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D931" t="n">
-        <v>358184</v>
+        <v>368934</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -45070,10 +45070,10 @@
         </is>
       </c>
       <c r="C932" t="n">
-        <v>19272</v>
+        <v>19278</v>
       </c>
       <c r="D932" t="n">
-        <v>24079394</v>
+        <v>24085043</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -45262,10 +45262,10 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>10066</v>
+        <v>10070</v>
       </c>
       <c r="D936" t="n">
-        <v>14714036</v>
+        <v>14719216</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -45454,10 +45454,10 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D940" t="n">
-        <v>621794</v>
+        <v>623294</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -45502,10 +45502,10 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>8616</v>
+        <v>8617</v>
       </c>
       <c r="D941" t="n">
-        <v>10749514</v>
+        <v>10751014</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -45742,10 +45742,10 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="D946" t="n">
-        <v>4664785</v>
+        <v>4666285</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -45982,10 +45982,10 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>67057</v>
+        <v>67105</v>
       </c>
       <c r="D951" t="n">
-        <v>86074088</v>
+        <v>86134181</v>
       </c>
       <c r="E951" t="inlineStr">
         <is>
@@ -46030,10 +46030,10 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D952" t="n">
-        <v>68769</v>
+        <v>70269</v>
       </c>
       <c r="E952" t="inlineStr">
         <is>
@@ -46318,10 +46318,10 @@
         </is>
       </c>
       <c r="C958" t="n">
-        <v>25537</v>
+        <v>25554</v>
       </c>
       <c r="D958" t="n">
-        <v>37429241</v>
+        <v>37450876</v>
       </c>
       <c r="E958" t="inlineStr">
         <is>
@@ -46414,10 +46414,10 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>17579</v>
+        <v>17590</v>
       </c>
       <c r="D960" t="n">
-        <v>25486145</v>
+        <v>25500565</v>
       </c>
       <c r="E960" t="inlineStr">
         <is>
@@ -46510,10 +46510,10 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D962" t="n">
-        <v>703823</v>
+        <v>705323</v>
       </c>
       <c r="E962" t="inlineStr">
         <is>
@@ -46558,10 +46558,10 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D963" t="n">
-        <v>1238221</v>
+        <v>1241221</v>
       </c>
       <c r="E963" t="inlineStr">
         <is>
@@ -46606,10 +46606,10 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>83725</v>
+        <v>83779</v>
       </c>
       <c r="D964" t="n">
-        <v>105089644</v>
+        <v>105155137</v>
       </c>
       <c r="E964" t="inlineStr">
         <is>
@@ -46942,10 +46942,10 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>33779</v>
+        <v>33799</v>
       </c>
       <c r="D971" t="n">
-        <v>49544240</v>
+        <v>49571179</v>
       </c>
       <c r="E971" t="inlineStr">
         <is>
@@ -47086,10 +47086,10 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>25157</v>
+        <v>25174</v>
       </c>
       <c r="D974" t="n">
-        <v>36488873</v>
+        <v>36511784</v>
       </c>
       <c r="E974" t="inlineStr">
         <is>
@@ -47230,10 +47230,10 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="D977" t="n">
-        <v>2793305</v>
+        <v>2794805</v>
       </c>
       <c r="E977" t="inlineStr">
         <is>
@@ -47278,10 +47278,10 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>10750</v>
+        <v>10759</v>
       </c>
       <c r="D978" t="n">
-        <v>14020211</v>
+        <v>14032677</v>
       </c>
       <c r="E978" t="inlineStr">
         <is>
@@ -47470,10 +47470,10 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>3459</v>
+        <v>3461</v>
       </c>
       <c r="D982" t="n">
-        <v>5052922</v>
+        <v>5054695</v>
       </c>
       <c r="E982" t="inlineStr">
         <is>
@@ -47518,10 +47518,10 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D983" t="n">
-        <v>1607189</v>
+        <v>1608689</v>
       </c>
       <c r="E983" t="inlineStr">
         <is>
@@ -47758,10 +47758,10 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>55915</v>
+        <v>55938</v>
       </c>
       <c r="D988" t="n">
-        <v>70000971</v>
+        <v>70027988</v>
       </c>
       <c r="E988" t="inlineStr">
         <is>
@@ -47998,10 +47998,10 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>18491</v>
+        <v>18494</v>
       </c>
       <c r="D993" t="n">
-        <v>27080783</v>
+        <v>27085283</v>
       </c>
       <c r="E993" t="inlineStr">
         <is>
@@ -48094,10 +48094,10 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>12606</v>
+        <v>12607</v>
       </c>
       <c r="D995" t="n">
-        <v>18229686</v>
+        <v>18231186</v>
       </c>
       <c r="E995" t="inlineStr">
         <is>
@@ -48238,10 +48238,10 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="D998" t="n">
-        <v>1035924</v>
+        <v>1039501</v>
       </c>
       <c r="E998" t="inlineStr">
         <is>
@@ -48286,10 +48286,10 @@
         </is>
       </c>
       <c r="C999" t="n">
-        <v>28201</v>
+        <v>28223</v>
       </c>
       <c r="D999" t="n">
-        <v>35091914</v>
+        <v>35117724</v>
       </c>
       <c r="E999" t="inlineStr">
         <is>
@@ -48526,10 +48526,10 @@
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>10488</v>
+        <v>10491</v>
       </c>
       <c r="D1004" t="n">
-        <v>15361184</v>
+        <v>15365684</v>
       </c>
       <c r="E1004" t="inlineStr">
         <is>
@@ -48622,10 +48622,10 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>6213</v>
+        <v>6215</v>
       </c>
       <c r="D1006" t="n">
-        <v>9009605</v>
+        <v>9012605</v>
       </c>
       <c r="E1006" t="inlineStr">
         <is>
@@ -48670,10 +48670,10 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D1007" t="n">
-        <v>745918</v>
+        <v>747418</v>
       </c>
       <c r="E1007" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16375</v>
+        <v>16391</v>
       </c>
       <c r="D2" t="n">
-        <v>20583012</v>
+        <v>20604717</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6244</v>
+        <v>6248</v>
       </c>
       <c r="D6" t="n">
-        <v>9131238</v>
+        <v>9136405</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="D8" t="n">
-        <v>4760205</v>
+        <v>4761705</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D11" t="n">
-        <v>518208</v>
+        <v>519708</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10999</v>
+        <v>11013</v>
       </c>
       <c r="D12" t="n">
-        <v>13880448</v>
+        <v>13899574</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3232</v>
+        <v>3235</v>
       </c>
       <c r="D16" t="n">
-        <v>4708073</v>
+        <v>4712573</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D19" t="n">
-        <v>551178</v>
+        <v>552678</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14251</v>
+        <v>14258</v>
       </c>
       <c r="D22" t="n">
-        <v>17473314</v>
+        <v>17482321</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4938</v>
+        <v>4940</v>
       </c>
       <c r="D26" t="n">
-        <v>7221428</v>
+        <v>7224129</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6556</v>
+        <v>6558</v>
       </c>
       <c r="D32" t="n">
-        <v>8708786</v>
+        <v>8711786</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="D35" t="n">
-        <v>2320120</v>
+        <v>2323410</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D38" t="n">
-        <v>747809</v>
+        <v>749309</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2302,10 +2302,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>21875</v>
+        <v>21882</v>
       </c>
       <c r="D41" t="n">
-        <v>26919421</v>
+        <v>26926380</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3841</v>
+        <v>3845</v>
       </c>
       <c r="D49" t="n">
-        <v>5559069</v>
+        <v>5564669</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D52" t="n">
-        <v>830066</v>
+        <v>832178</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8141</v>
+        <v>8143</v>
       </c>
       <c r="D53" t="n">
-        <v>10386756</v>
+        <v>10389725</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="D57" t="n">
-        <v>4045043</v>
+        <v>4046543</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>36160</v>
+        <v>36177</v>
       </c>
       <c r="D62" t="n">
-        <v>46551041</v>
+        <v>46571800</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>13160</v>
+        <v>13170</v>
       </c>
       <c r="D67" t="n">
-        <v>19300885</v>
+        <v>19315885</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5162</v>
+        <v>5163</v>
       </c>
       <c r="D69" t="n">
-        <v>7466084</v>
+        <v>7466914</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D73" t="n">
-        <v>485676</v>
+        <v>487176</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>46276</v>
+        <v>46300</v>
       </c>
       <c r="D75" t="n">
-        <v>59152284</v>
+        <v>59181823</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4078,10 +4078,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D78" t="n">
-        <v>105841</v>
+        <v>107341</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>18115</v>
+        <v>18119</v>
       </c>
       <c r="D79" t="n">
-        <v>26538880</v>
+        <v>26544880</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>9339</v>
+        <v>9347</v>
       </c>
       <c r="D81" t="n">
-        <v>13481947</v>
+        <v>13493183</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D85" t="n">
-        <v>1125723</v>
+        <v>1127223</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>24951</v>
+        <v>24967</v>
       </c>
       <c r="D86" t="n">
-        <v>31454264</v>
+        <v>31476158</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>8682</v>
+        <v>8684</v>
       </c>
       <c r="D90" t="n">
-        <v>12744886</v>
+        <v>12747886</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4903</v>
+        <v>4906</v>
       </c>
       <c r="D92" t="n">
-        <v>7086639</v>
+        <v>7090565</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>21967</v>
+        <v>21974</v>
       </c>
       <c r="D95" t="n">
-        <v>27577683</v>
+        <v>27586390</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>9157</v>
+        <v>9160</v>
       </c>
       <c r="D99" t="n">
-        <v>13403849</v>
+        <v>13408349</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="D101" t="n">
-        <v>4765848</v>
+        <v>4767348</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5422,10 +5422,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>81746</v>
+        <v>81814</v>
       </c>
       <c r="D106" t="n">
-        <v>104746625</v>
+        <v>104835322</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5758,10 +5758,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>30611</v>
+        <v>30628</v>
       </c>
       <c r="D113" t="n">
-        <v>44921417</v>
+        <v>44946150</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>20834</v>
+        <v>20854</v>
       </c>
       <c r="D115" t="n">
-        <v>30063184</v>
+        <v>30090682</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="D118" t="n">
-        <v>972767</v>
+        <v>977267</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>27713</v>
+        <v>27718</v>
       </c>
       <c r="D123" t="n">
-        <v>36572723</v>
+        <v>36579963</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>9870</v>
+        <v>9873</v>
       </c>
       <c r="D127" t="n">
-        <v>14474870</v>
+        <v>14479051</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>15755</v>
+        <v>15759</v>
       </c>
       <c r="D133" t="n">
-        <v>19601897</v>
+        <v>19605957</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>7762</v>
+        <v>7765</v>
       </c>
       <c r="D136" t="n">
-        <v>11357916</v>
+        <v>11361516</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D142" t="n">
-        <v>544999</v>
+        <v>545415</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>13540</v>
+        <v>13548</v>
       </c>
       <c r="D143" t="n">
-        <v>16910677</v>
+        <v>16919336</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>6244</v>
+        <v>6245</v>
       </c>
       <c r="D147" t="n">
-        <v>9148255</v>
+        <v>9149085</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>5985</v>
+        <v>5986</v>
       </c>
       <c r="D153" t="n">
-        <v>7320084</v>
+        <v>7321584</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>7440</v>
+        <v>7443</v>
       </c>
       <c r="D161" t="n">
-        <v>9219088</v>
+        <v>9223200</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2852</v>
+        <v>2854</v>
       </c>
       <c r="D164" t="n">
-        <v>4181958</v>
+        <v>4184958</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D165" t="n">
-        <v>2013387</v>
+        <v>2014887</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D166" t="n">
-        <v>217210</v>
+        <v>218710</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>5614</v>
+        <v>5616</v>
       </c>
       <c r="D169" t="n">
-        <v>7065664</v>
+        <v>7068664</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="D174" t="n">
-        <v>2963041</v>
+        <v>2964541</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -8926,10 +8926,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>15976</v>
+        <v>15979</v>
       </c>
       <c r="D179" t="n">
-        <v>20073496</v>
+        <v>20075978</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>6394</v>
+        <v>6396</v>
       </c>
       <c r="D184" t="n">
-        <v>9339859</v>
+        <v>9341635</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="D189" t="n">
-        <v>3857537</v>
+        <v>3859016</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D191" t="n">
-        <v>2158242</v>
+        <v>2159742</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>9210</v>
+        <v>9216</v>
       </c>
       <c r="D197" t="n">
-        <v>11499830</v>
+        <v>11504976</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="D201" t="n">
-        <v>5039576</v>
+        <v>5041076</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="D202" t="n">
-        <v>2327680</v>
+        <v>2329180</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D203" t="n">
-        <v>257630</v>
+        <v>259130</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10222,10 +10222,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>17271</v>
+        <v>17274</v>
       </c>
       <c r="D206" t="n">
-        <v>21566631</v>
+        <v>21569673</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D212" t="n">
-        <v>395577</v>
+        <v>397077</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>26149</v>
+        <v>26159</v>
       </c>
       <c r="D214" t="n">
-        <v>32980786</v>
+        <v>32993513</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10798,10 +10798,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>10494</v>
+        <v>10496</v>
       </c>
       <c r="D218" t="n">
-        <v>15326353</v>
+        <v>15329353</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D221" t="n">
-        <v>443807</v>
+        <v>445307</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D223" t="n">
-        <v>850659</v>
+        <v>851117</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11086,10 +11086,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>28506</v>
+        <v>28528</v>
       </c>
       <c r="D224" t="n">
-        <v>35965555</v>
+        <v>35989501</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -11326,10 +11326,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>14734</v>
+        <v>14739</v>
       </c>
       <c r="D229" t="n">
-        <v>21619219</v>
+        <v>21626719</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -11422,10 +11422,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="D231" t="n">
-        <v>3816675</v>
+        <v>3818175</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D234" t="n">
-        <v>1022228</v>
+        <v>1023728</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>24297</v>
+        <v>24303</v>
       </c>
       <c r="D235" t="n">
-        <v>30645473</v>
+        <v>30653948</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11902,10 +11902,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>11186</v>
+        <v>11188</v>
       </c>
       <c r="D241" t="n">
-        <v>16395490</v>
+        <v>16398490</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>7872</v>
+        <v>7874</v>
       </c>
       <c r="D247" t="n">
-        <v>9846521</v>
+        <v>9849521</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>9817</v>
+        <v>9819</v>
       </c>
       <c r="D257" t="n">
-        <v>12521232</v>
+        <v>12524232</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="D261" t="n">
-        <v>6160460</v>
+        <v>6161960</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12958,10 +12958,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="D263" t="n">
-        <v>3147387</v>
+        <v>3150387</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D265" t="n">
-        <v>171681</v>
+        <v>173181</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13102,10 +13102,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>5554</v>
+        <v>5555</v>
       </c>
       <c r="D266" t="n">
-        <v>6887700</v>
+        <v>6888150</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -13342,10 +13342,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D271" t="n">
-        <v>1032872</v>
+        <v>1034372</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13534,10 +13534,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>19106</v>
+        <v>19114</v>
       </c>
       <c r="D275" t="n">
-        <v>24135703</v>
+        <v>24145404</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13726,10 +13726,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>7933</v>
+        <v>7935</v>
       </c>
       <c r="D279" t="n">
-        <v>11631396</v>
+        <v>11634396</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13966,10 +13966,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D284" t="n">
-        <v>652245</v>
+        <v>653745</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -14062,10 +14062,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>16635</v>
+        <v>16646</v>
       </c>
       <c r="D286" t="n">
-        <v>20604385</v>
+        <v>20618786</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>7191</v>
+        <v>7193</v>
       </c>
       <c r="D290" t="n">
-        <v>10547114</v>
+        <v>10550114</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="D291" t="n">
-        <v>4832299</v>
+        <v>4833799</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>9357</v>
+        <v>9366</v>
       </c>
       <c r="D295" t="n">
-        <v>11754524</v>
+        <v>11762589</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>3915</v>
+        <v>3916</v>
       </c>
       <c r="D299" t="n">
-        <v>5730332</v>
+        <v>5731832</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="D300" t="n">
-        <v>1814009</v>
+        <v>1817009</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>9209</v>
+        <v>9216</v>
       </c>
       <c r="D305" t="n">
-        <v>12026229</v>
+        <v>12034217</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>3747</v>
+        <v>3750</v>
       </c>
       <c r="D309" t="n">
-        <v>5478349</v>
+        <v>5482849</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15214,10 +15214,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="D310" t="n">
-        <v>3429950</v>
+        <v>3431450</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>11076</v>
+        <v>11080</v>
       </c>
       <c r="D313" t="n">
-        <v>14543643</v>
+        <v>14549143</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15550,10 +15550,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>3782</v>
+        <v>3783</v>
       </c>
       <c r="D317" t="n">
-        <v>5544672</v>
+        <v>5546172</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2707</v>
+        <v>2712</v>
       </c>
       <c r="D319" t="n">
-        <v>3923728</v>
+        <v>3931228</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>6822</v>
+        <v>6827</v>
       </c>
       <c r="D322" t="n">
-        <v>8433859</v>
+        <v>8439202</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="D327" t="n">
-        <v>3375584</v>
+        <v>3376167</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D331" t="n">
-        <v>185289</v>
+        <v>186789</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16270,10 +16270,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>7542</v>
+        <v>7544</v>
       </c>
       <c r="D332" t="n">
-        <v>9439350</v>
+        <v>9442111</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="D337" t="n">
-        <v>4574562</v>
+        <v>4576062</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16702,10 +16702,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>32050</v>
+        <v>32081</v>
       </c>
       <c r="D341" t="n">
-        <v>40258516</v>
+        <v>40300119</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -16990,10 +16990,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>16546</v>
+        <v>16554</v>
       </c>
       <c r="D347" t="n">
-        <v>24193878</v>
+        <v>24205878</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>8057</v>
+        <v>8062</v>
       </c>
       <c r="D350" t="n">
-        <v>11603232</v>
+        <v>11610732</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D352" t="n">
-        <v>1112089</v>
+        <v>1112739</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>3896</v>
+        <v>3897</v>
       </c>
       <c r="D353" t="n">
-        <v>4854412</v>
+        <v>4855870</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17662,10 +17662,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>19406</v>
+        <v>19414</v>
       </c>
       <c r="D361" t="n">
-        <v>24195917</v>
+        <v>24200777</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -17854,10 +17854,10 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>9918</v>
+        <v>9919</v>
       </c>
       <c r="D365" t="n">
-        <v>14541735</v>
+        <v>14543235</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>4742</v>
+        <v>4744</v>
       </c>
       <c r="D367" t="n">
-        <v>6855662</v>
+        <v>6858662</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -18094,10 +18094,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>13955</v>
+        <v>13969</v>
       </c>
       <c r="D370" t="n">
-        <v>17449386</v>
+        <v>17464735</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18286,10 +18286,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>6447</v>
+        <v>6449</v>
       </c>
       <c r="D374" t="n">
-        <v>9439376</v>
+        <v>9442376</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -18526,10 +18526,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>18016</v>
+        <v>18023</v>
       </c>
       <c r="D379" t="n">
-        <v>22461904</v>
+        <v>22471941</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>7143</v>
+        <v>7144</v>
       </c>
       <c r="D383" t="n">
-        <v>10499715</v>
+        <v>10501215</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c r="D385" t="n">
-        <v>4128151</v>
+        <v>4131151</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>4098</v>
+        <v>4099</v>
       </c>
       <c r="D389" t="n">
-        <v>5142992</v>
+        <v>5144492</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19150,10 +19150,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D392" t="n">
-        <v>2030576</v>
+        <v>2031746</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -19342,10 +19342,10 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>22309</v>
+        <v>22327</v>
       </c>
       <c r="D396" t="n">
-        <v>27675052</v>
+        <v>27696139</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>9373</v>
+        <v>9376</v>
       </c>
       <c r="D399" t="n">
-        <v>13797657</v>
+        <v>13802157</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>6219</v>
+        <v>6224</v>
       </c>
       <c r="D401" t="n">
-        <v>9046133</v>
+        <v>9053633</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D403" t="n">
-        <v>489802</v>
+        <v>491302</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19726,10 +19726,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>11147</v>
+        <v>11150</v>
       </c>
       <c r="D404" t="n">
-        <v>13741257</v>
+        <v>13744607</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -19966,10 +19966,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>5328</v>
+        <v>5330</v>
       </c>
       <c r="D409" t="n">
-        <v>7786544</v>
+        <v>7789544</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20206,10 +20206,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>32399</v>
+        <v>32464</v>
       </c>
       <c r="D414" t="n">
-        <v>43887633</v>
+        <v>43975596</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20398,10 +20398,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>7836</v>
+        <v>7852</v>
       </c>
       <c r="D418" t="n">
-        <v>11521581</v>
+        <v>11545581</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>7155</v>
+        <v>7173</v>
       </c>
       <c r="D420" t="n">
-        <v>10373082</v>
+        <v>10400082</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D422" t="n">
-        <v>749905</v>
+        <v>750705</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D423" t="n">
-        <v>696943</v>
+        <v>698443</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20686,10 +20686,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>8921</v>
+        <v>8947</v>
       </c>
       <c r="D424" t="n">
-        <v>12384334</v>
+        <v>12421784</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>2240</v>
+        <v>2249</v>
       </c>
       <c r="D426" t="n">
-        <v>3300302</v>
+        <v>3313802</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>3010</v>
+        <v>3015</v>
       </c>
       <c r="D428" t="n">
-        <v>4396550</v>
+        <v>4402834</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -21070,10 +21070,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>11039</v>
+        <v>11045</v>
       </c>
       <c r="D432" t="n">
-        <v>13629418</v>
+        <v>13635603</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D439" t="n">
-        <v>222511</v>
+        <v>224011</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>63042</v>
+        <v>63087</v>
       </c>
       <c r="D440" t="n">
-        <v>78120140</v>
+        <v>78167814</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21646,10 +21646,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>24944</v>
+        <v>24954</v>
       </c>
       <c r="D444" t="n">
-        <v>36563113</v>
+        <v>36576135</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21742,10 +21742,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>12951</v>
+        <v>12957</v>
       </c>
       <c r="D446" t="n">
-        <v>18779697</v>
+        <v>18788197</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -21934,10 +21934,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D450" t="n">
-        <v>1468299</v>
+        <v>1469799</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>18934</v>
+        <v>18949</v>
       </c>
       <c r="D452" t="n">
-        <v>23933669</v>
+        <v>23953680</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22222,10 +22222,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>7710</v>
+        <v>7715</v>
       </c>
       <c r="D456" t="n">
-        <v>11317393</v>
+        <v>11324720</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>4864</v>
+        <v>4872</v>
       </c>
       <c r="D458" t="n">
-        <v>7058697</v>
+        <v>7070214</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>32262</v>
+        <v>32282</v>
       </c>
       <c r="D461" t="n">
-        <v>39432217</v>
+        <v>39453301</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22654,10 +22654,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>11464</v>
+        <v>11470</v>
       </c>
       <c r="D465" t="n">
-        <v>16773849</v>
+        <v>16782849</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>4912</v>
+        <v>4915</v>
       </c>
       <c r="D467" t="n">
-        <v>7127082</v>
+        <v>7131582</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22894,10 +22894,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>14419</v>
+        <v>14427</v>
       </c>
       <c r="D470" t="n">
-        <v>17627915</v>
+        <v>17635138</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -23374,10 +23374,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>36071</v>
+        <v>36103</v>
       </c>
       <c r="D480" t="n">
-        <v>47004868</v>
+        <v>47046249</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23566,10 +23566,10 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>13575</v>
+        <v>13577</v>
       </c>
       <c r="D484" t="n">
-        <v>19972500</v>
+        <v>19975500</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -23662,10 +23662,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>12015</v>
+        <v>12027</v>
       </c>
       <c r="D486" t="n">
-        <v>17536678</v>
+        <v>17552596</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>62497</v>
+        <v>62588</v>
       </c>
       <c r="D489" t="n">
-        <v>82745387</v>
+        <v>82863170</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>23145</v>
+        <v>23155</v>
       </c>
       <c r="D494" t="n">
-        <v>33962984</v>
+        <v>33977984</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24142,10 +24142,10 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>22484</v>
+        <v>22503</v>
       </c>
       <c r="D496" t="n">
-        <v>32643143</v>
+        <v>32670675</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D499" t="n">
-        <v>889143</v>
+        <v>891555</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24334,10 +24334,10 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>151297</v>
+        <v>151428</v>
       </c>
       <c r="D500" t="n">
-        <v>198970076</v>
+        <v>199142828</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>81768</v>
+        <v>81813</v>
       </c>
       <c r="D507" t="n">
-        <v>120115560</v>
+        <v>120181730</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>60194</v>
+        <v>60239</v>
       </c>
       <c r="D510" t="n">
-        <v>87376325</v>
+        <v>87442561</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24910,10 +24910,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="D512" t="n">
-        <v>1536703</v>
+        <v>1539703</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -25006,10 +25006,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>2793</v>
+        <v>2799</v>
       </c>
       <c r="D514" t="n">
-        <v>3954513</v>
+        <v>3962925</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>41313</v>
+        <v>41340</v>
       </c>
       <c r="D516" t="n">
-        <v>53701725</v>
+        <v>53738072</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25342,10 +25342,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>15273</v>
+        <v>15282</v>
       </c>
       <c r="D521" t="n">
-        <v>22432718</v>
+        <v>22446218</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25438,10 +25438,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>12953</v>
+        <v>12961</v>
       </c>
       <c r="D523" t="n">
-        <v>18775072</v>
+        <v>18785623</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25582,10 +25582,10 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D526" t="n">
-        <v>497656</v>
+        <v>499156</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -25678,10 +25678,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>66347</v>
+        <v>66415</v>
       </c>
       <c r="D528" t="n">
-        <v>89166735</v>
+        <v>89256453</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -25870,10 +25870,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>23352</v>
+        <v>23370</v>
       </c>
       <c r="D532" t="n">
-        <v>34457135</v>
+        <v>34483955</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>24137</v>
+        <v>24157</v>
       </c>
       <c r="D534" t="n">
-        <v>35325491</v>
+        <v>35355491</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="D537" t="n">
-        <v>1221710</v>
+        <v>1227410</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26158,10 +26158,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>55181</v>
+        <v>55223</v>
       </c>
       <c r="D538" t="n">
-        <v>73184883</v>
+        <v>73241200</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>17809</v>
+        <v>17816</v>
       </c>
       <c r="D543" t="n">
-        <v>26168586</v>
+        <v>26179086</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>18345</v>
+        <v>18360</v>
       </c>
       <c r="D545" t="n">
-        <v>26668087</v>
+        <v>26690256</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D547" t="n">
-        <v>883704</v>
+        <v>885204</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26638,10 +26638,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>41661</v>
+        <v>41705</v>
       </c>
       <c r="D548" t="n">
-        <v>55317529</v>
+        <v>55376130</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>14232</v>
+        <v>14240</v>
       </c>
       <c r="D552" t="n">
-        <v>20991121</v>
+        <v>21001740</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26926,10 +26926,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>14434</v>
+        <v>14444</v>
       </c>
       <c r="D554" t="n">
-        <v>20960035</v>
+        <v>20974294</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>41393</v>
+        <v>41415</v>
       </c>
       <c r="D557" t="n">
-        <v>53664137</v>
+        <v>53690244</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>16226</v>
+        <v>16234</v>
       </c>
       <c r="D561" t="n">
-        <v>23805655</v>
+        <v>23817655</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>13034</v>
+        <v>13040</v>
       </c>
       <c r="D563" t="n">
-        <v>18850615</v>
+        <v>18859007</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="D567" t="n">
-        <v>58702970</v>
+        <v>58741729</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27838,10 +27838,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>13933</v>
+        <v>13939</v>
       </c>
       <c r="D573" t="n">
-        <v>20432676</v>
+        <v>20440478</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -27886,10 +27886,10 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>3710</v>
+        <v>3712</v>
       </c>
       <c r="D574" t="n">
-        <v>5349680</v>
+        <v>5352680</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
@@ -28174,10 +28174,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>17344</v>
+        <v>17363</v>
       </c>
       <c r="D580" t="n">
-        <v>22914662</v>
+        <v>22940196</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28318,10 +28318,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D583" t="n">
-        <v>77906</v>
+        <v>79406</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>7085</v>
+        <v>7089</v>
       </c>
       <c r="D584" t="n">
-        <v>10304703</v>
+        <v>10309713</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>4931</v>
+        <v>4936</v>
       </c>
       <c r="D586" t="n">
-        <v>7095563</v>
+        <v>7103063</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28606,10 +28606,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D589" t="n">
-        <v>377364</v>
+        <v>378864</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>15649</v>
+        <v>15685</v>
       </c>
       <c r="D591" t="n">
-        <v>22705655</v>
+        <v>22757845</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28750,10 +28750,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>1760</v>
+        <v>1765</v>
       </c>
       <c r="D592" t="n">
-        <v>2617730</v>
+        <v>2625230</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D596" t="n">
-        <v>119949</v>
+        <v>124449</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -28990,10 +28990,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>22038</v>
+        <v>22051</v>
       </c>
       <c r="D597" t="n">
-        <v>27649547</v>
+        <v>27662132</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29230,10 +29230,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>8993</v>
+        <v>8997</v>
       </c>
       <c r="D602" t="n">
-        <v>13173968</v>
+        <v>13179968</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>3350</v>
+        <v>3352</v>
       </c>
       <c r="D604" t="n">
-        <v>4811659</v>
+        <v>4814659</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>14657</v>
+        <v>14659</v>
       </c>
       <c r="D608" t="n">
-        <v>18373396</v>
+        <v>18376226</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>5790</v>
+        <v>5792</v>
       </c>
       <c r="D612" t="n">
-        <v>8504151</v>
+        <v>8507151</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="D614" t="n">
-        <v>3854928</v>
+        <v>3856428</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29854,10 +29854,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D615" t="n">
-        <v>256709</v>
+        <v>258209</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -29950,10 +29950,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>13760</v>
+        <v>13763</v>
       </c>
       <c r="D617" t="n">
-        <v>17376579</v>
+        <v>17379691</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -30142,10 +30142,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>5228</v>
+        <v>5229</v>
       </c>
       <c r="D621" t="n">
-        <v>7662187</v>
+        <v>7663687</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -30334,10 +30334,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D625" t="n">
-        <v>367466</v>
+        <v>368966</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30382,10 +30382,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>7510</v>
+        <v>7513</v>
       </c>
       <c r="D626" t="n">
-        <v>9661164</v>
+        <v>9663780</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -30766,10 +30766,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D634" t="n">
-        <v>187185</v>
+        <v>188685</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -30814,10 +30814,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>28815</v>
+        <v>28827</v>
       </c>
       <c r="D635" t="n">
-        <v>35490213</v>
+        <v>35503690</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>11028</v>
+        <v>11034</v>
       </c>
       <c r="D639" t="n">
-        <v>16180409</v>
+        <v>16189409</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31102,10 +31102,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>4833</v>
+        <v>4836</v>
       </c>
       <c r="D641" t="n">
-        <v>7012853</v>
+        <v>7017353</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31294,10 +31294,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>11312</v>
+        <v>11319</v>
       </c>
       <c r="D645" t="n">
-        <v>13710058</v>
+        <v>13718772</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>3639</v>
+        <v>3641</v>
       </c>
       <c r="D650" t="n">
-        <v>5327219</v>
+        <v>5330219</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31774,10 +31774,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>28311</v>
+        <v>28320</v>
       </c>
       <c r="D655" t="n">
-        <v>35195290</v>
+        <v>35205815</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31966,10 +31966,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>10736</v>
+        <v>10740</v>
       </c>
       <c r="D659" t="n">
-        <v>15774836</v>
+        <v>15779395</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -32062,10 +32062,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>3080</v>
+        <v>3082</v>
       </c>
       <c r="D661" t="n">
-        <v>4440927</v>
+        <v>4443927</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32254,10 +32254,10 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>7499</v>
+        <v>7505</v>
       </c>
       <c r="D665" t="n">
-        <v>9512825</v>
+        <v>9520828</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D669" t="n">
-        <v>1870872</v>
+        <v>1872372</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D670" t="n">
-        <v>368984</v>
+        <v>371984</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32638,10 +32638,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>3774</v>
+        <v>3777</v>
       </c>
       <c r="D673" t="n">
-        <v>4573898</v>
+        <v>4577611</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -33022,10 +33022,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D681" t="n">
-        <v>207932</v>
+        <v>209432</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>9311</v>
+        <v>9315</v>
       </c>
       <c r="D682" t="n">
-        <v>11614688</v>
+        <v>11620067</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D690" t="n">
-        <v>381069</v>
+        <v>382569</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33502,10 +33502,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>19214</v>
+        <v>19228</v>
       </c>
       <c r="D691" t="n">
-        <v>23515032</v>
+        <v>23532234</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -33694,10 +33694,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>5708</v>
+        <v>5710</v>
       </c>
       <c r="D695" t="n">
-        <v>8337480</v>
+        <v>8340480</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -34030,10 +34030,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>74483</v>
+        <v>74574</v>
       </c>
       <c r="D702" t="n">
-        <v>93763826</v>
+        <v>93875242</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -34270,10 +34270,10 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>26492</v>
+        <v>26499</v>
       </c>
       <c r="D707" t="n">
-        <v>38894744</v>
+        <v>38905204</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -34414,10 +34414,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>13148</v>
+        <v>13156</v>
       </c>
       <c r="D710" t="n">
-        <v>18962331</v>
+        <v>18973081</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -34558,10 +34558,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="D713" t="n">
-        <v>2800539</v>
+        <v>2801089</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -34654,10 +34654,10 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D715" t="n">
-        <v>1678243</v>
+        <v>1679743</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -34702,10 +34702,10 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>11157</v>
+        <v>11166</v>
       </c>
       <c r="D716" t="n">
-        <v>13648658</v>
+        <v>13658972</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -34846,10 +34846,10 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>4102</v>
+        <v>4104</v>
       </c>
       <c r="D719" t="n">
-        <v>6000133</v>
+        <v>6003133</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -35086,10 +35086,10 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>17591</v>
+        <v>17602</v>
       </c>
       <c r="D724" t="n">
-        <v>21693662</v>
+        <v>21703189</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -35278,10 +35278,10 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>6842</v>
+        <v>6845</v>
       </c>
       <c r="D728" t="n">
-        <v>10000329</v>
+        <v>10004829</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -35614,10 +35614,10 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>11506</v>
+        <v>11514</v>
       </c>
       <c r="D735" t="n">
-        <v>14201708</v>
+        <v>14209730</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -35806,10 +35806,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>4233</v>
+        <v>4235</v>
       </c>
       <c r="D739" t="n">
-        <v>6204994</v>
+        <v>6207994</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -35902,10 +35902,10 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D741" t="n">
-        <v>2319054</v>
+        <v>2320554</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -35950,10 +35950,10 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D742" t="n">
-        <v>316213</v>
+        <v>317713</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -36046,10 +36046,10 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>29502</v>
+        <v>29517</v>
       </c>
       <c r="D744" t="n">
-        <v>36669407</v>
+        <v>36689619</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -36286,10 +36286,10 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>12704</v>
+        <v>12705</v>
       </c>
       <c r="D749" t="n">
-        <v>18593590</v>
+        <v>18595090</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -36478,10 +36478,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D753" t="n">
-        <v>1078657</v>
+        <v>1080157</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -36526,10 +36526,10 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="D754" t="n">
-        <v>962896</v>
+        <v>967396</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -36622,10 +36622,10 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>12303</v>
+        <v>12308</v>
       </c>
       <c r="D756" t="n">
-        <v>15226784</v>
+        <v>15234109</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -36766,10 +36766,10 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>4651</v>
+        <v>4653</v>
       </c>
       <c r="D759" t="n">
-        <v>6797856</v>
+        <v>6800856</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -36958,10 +36958,10 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>6715</v>
+        <v>6720</v>
       </c>
       <c r="D763" t="n">
-        <v>7891653</v>
+        <v>7894316</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -37150,10 +37150,10 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="D767" t="n">
-        <v>2478153</v>
+        <v>2479653</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -37342,10 +37342,10 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>16777</v>
+        <v>16786</v>
       </c>
       <c r="D771" t="n">
-        <v>20351695</v>
+        <v>20363022</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -37582,10 +37582,10 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>5531</v>
+        <v>5532</v>
       </c>
       <c r="D776" t="n">
-        <v>8104586</v>
+        <v>8106086</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -37678,10 +37678,10 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="D778" t="n">
-        <v>4958722</v>
+        <v>4960222</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -37822,10 +37822,10 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D781" t="n">
-        <v>394189</v>
+        <v>395128</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -37870,10 +37870,10 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>11362</v>
+        <v>11363</v>
       </c>
       <c r="D782" t="n">
-        <v>14381335</v>
+        <v>14382835</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -38062,10 +38062,10 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>3955</v>
+        <v>3956</v>
       </c>
       <c r="D786" t="n">
-        <v>5782458</v>
+        <v>5783958</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -38158,10 +38158,10 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D788" t="n">
-        <v>1815412</v>
+        <v>1816912</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -38350,10 +38350,10 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>32097</v>
+        <v>32118</v>
       </c>
       <c r="D792" t="n">
-        <v>39589823</v>
+        <v>39615701</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -38542,10 +38542,10 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>13166</v>
+        <v>13170</v>
       </c>
       <c r="D796" t="n">
-        <v>19263319</v>
+        <v>19268099</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -38638,10 +38638,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>6034</v>
+        <v>6036</v>
       </c>
       <c r="D798" t="n">
-        <v>8717657</v>
+        <v>8720657</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -38686,10 +38686,10 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D799" t="n">
-        <v>733069</v>
+        <v>734569</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -38782,10 +38782,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D801" t="n">
-        <v>920624</v>
+        <v>922124</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -38830,10 +38830,10 @@
         </is>
       </c>
       <c r="C802" t="n">
-        <v>7603</v>
+        <v>7608</v>
       </c>
       <c r="D802" t="n">
-        <v>9401568</v>
+        <v>9405973</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -39118,10 +39118,10 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="D808" t="n">
-        <v>3910984</v>
+        <v>3912484</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -39166,10 +39166,10 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D809" t="n">
-        <v>1640438</v>
+        <v>1641938</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -39310,10 +39310,10 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>58857</v>
+        <v>58902</v>
       </c>
       <c r="D812" t="n">
-        <v>73559800</v>
+        <v>73614614</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -39550,10 +39550,10 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>21127</v>
+        <v>21140</v>
       </c>
       <c r="D817" t="n">
-        <v>30906181</v>
+        <v>30925681</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -39694,10 +39694,10 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>12595</v>
+        <v>12599</v>
       </c>
       <c r="D820" t="n">
-        <v>18180033</v>
+        <v>18185310</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -39790,10 +39790,10 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D822" t="n">
-        <v>649195</v>
+        <v>650645</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -39934,10 +39934,10 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D825" t="n">
-        <v>1843607</v>
+        <v>1845107</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -39982,10 +39982,10 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>11128</v>
+        <v>11129</v>
       </c>
       <c r="D826" t="n">
-        <v>13872406</v>
+        <v>13873906</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -40078,10 +40078,10 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D828" t="n">
-        <v>44866</v>
+        <v>46366</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -40174,10 +40174,10 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>3912</v>
+        <v>3914</v>
       </c>
       <c r="D830" t="n">
-        <v>5686719</v>
+        <v>5688557</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -40270,10 +40270,10 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D832" t="n">
-        <v>1770549</v>
+        <v>1772049</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -40366,10 +40366,10 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D834" t="n">
-        <v>195335</v>
+        <v>196600</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -40510,10 +40510,10 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>58462</v>
+        <v>58494</v>
       </c>
       <c r="D837" t="n">
-        <v>72283358</v>
+        <v>72324914</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -40798,10 +40798,10 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>22306</v>
+        <v>22312</v>
       </c>
       <c r="D843" t="n">
-        <v>32730274</v>
+        <v>32738574</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -40894,10 +40894,10 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>14312</v>
+        <v>14319</v>
       </c>
       <c r="D845" t="n">
-        <v>20718592</v>
+        <v>20729092</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -41134,10 +41134,10 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>7731</v>
+        <v>7743</v>
       </c>
       <c r="D850" t="n">
-        <v>9484026</v>
+        <v>9499796</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -41278,10 +41278,10 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D853" t="n">
-        <v>1555976</v>
+        <v>1557476</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -41422,10 +41422,10 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>3600</v>
+        <v>3603</v>
       </c>
       <c r="D856" t="n">
-        <v>4653131</v>
+        <v>4656638</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -41806,10 +41806,10 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>22329</v>
+        <v>22340</v>
       </c>
       <c r="D864" t="n">
-        <v>27979097</v>
+        <v>27988441</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -41998,10 +41998,10 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>7742</v>
+        <v>7744</v>
       </c>
       <c r="D868" t="n">
-        <v>11301269</v>
+        <v>11304269</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -42094,10 +42094,10 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>4623</v>
+        <v>4627</v>
       </c>
       <c r="D870" t="n">
-        <v>6684651</v>
+        <v>6690651</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -42334,10 +42334,10 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>14499</v>
+        <v>14507</v>
       </c>
       <c r="D875" t="n">
-        <v>17481011</v>
+        <v>17490637</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -42526,10 +42526,10 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>5238</v>
+        <v>5239</v>
       </c>
       <c r="D879" t="n">
-        <v>7639610</v>
+        <v>7641110</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -42622,10 +42622,10 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="D881" t="n">
-        <v>3390503</v>
+        <v>3392003</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -42814,10 +42814,10 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>9772</v>
+        <v>9777</v>
       </c>
       <c r="D885" t="n">
-        <v>12004088</v>
+        <v>12011588</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -42958,10 +42958,10 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>3346</v>
+        <v>3349</v>
       </c>
       <c r="D888" t="n">
-        <v>4902156</v>
+        <v>4906656</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -43150,10 +43150,10 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>44533</v>
+        <v>44551</v>
       </c>
       <c r="D892" t="n">
-        <v>55932024</v>
+        <v>55949661</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -43294,10 +43294,10 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D895" t="n">
-        <v>235011</v>
+        <v>236511</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -43390,10 +43390,10 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>21043</v>
+        <v>21045</v>
       </c>
       <c r="D897" t="n">
-        <v>30854047</v>
+        <v>30857047</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -43486,10 +43486,10 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>5884</v>
+        <v>5885</v>
       </c>
       <c r="D899" t="n">
-        <v>8479087</v>
+        <v>8480587</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -43534,10 +43534,10 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D900" t="n">
-        <v>889455</v>
+        <v>890955</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -43630,10 +43630,10 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="D902" t="n">
-        <v>1297062</v>
+        <v>1301562</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -43678,10 +43678,10 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>21185</v>
+        <v>21199</v>
       </c>
       <c r="D903" t="n">
-        <v>26361307</v>
+        <v>26375725</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -43822,10 +43822,10 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>9760</v>
+        <v>9761</v>
       </c>
       <c r="D906" t="n">
-        <v>14301696</v>
+        <v>14303196</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -44062,10 +44062,10 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D911" t="n">
-        <v>890850</v>
+        <v>893850</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -44110,10 +44110,10 @@
         </is>
       </c>
       <c r="C912" t="n">
-        <v>7031</v>
+        <v>7037</v>
       </c>
       <c r="D912" t="n">
-        <v>8837517</v>
+        <v>8844554</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -44542,10 +44542,10 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>13016</v>
+        <v>13022</v>
       </c>
       <c r="D921" t="n">
-        <v>16209487</v>
+        <v>16215305</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -44830,10 +44830,10 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D927" t="n">
-        <v>1985188</v>
+        <v>1986057</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -44926,10 +44926,10 @@
         </is>
       </c>
       <c r="C929" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D929" t="n">
-        <v>200821</v>
+        <v>202321</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -45022,10 +45022,10 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D931" t="n">
-        <v>368934</v>
+        <v>370434</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -45070,10 +45070,10 @@
         </is>
       </c>
       <c r="C932" t="n">
-        <v>19278</v>
+        <v>19288</v>
       </c>
       <c r="D932" t="n">
-        <v>24085043</v>
+        <v>24096516</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -45262,10 +45262,10 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>10070</v>
+        <v>10074</v>
       </c>
       <c r="D936" t="n">
-        <v>14719216</v>
+        <v>14725216</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -45358,10 +45358,10 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="D938" t="n">
-        <v>2966319</v>
+        <v>2970819</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -45406,10 +45406,10 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D939" t="n">
-        <v>494147</v>
+        <v>495647</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -45502,10 +45502,10 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>8617</v>
+        <v>8621</v>
       </c>
       <c r="D941" t="n">
-        <v>10751014</v>
+        <v>10755778</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -45742,10 +45742,10 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="D946" t="n">
-        <v>4666285</v>
+        <v>4667785</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -45982,10 +45982,10 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>67105</v>
+        <v>67151</v>
       </c>
       <c r="D951" t="n">
-        <v>86134181</v>
+        <v>86191107</v>
       </c>
       <c r="E951" t="inlineStr">
         <is>
@@ -46318,10 +46318,10 @@
         </is>
       </c>
       <c r="C958" t="n">
-        <v>25554</v>
+        <v>25567</v>
       </c>
       <c r="D958" t="n">
-        <v>37450876</v>
+        <v>37469849</v>
       </c>
       <c r="E958" t="inlineStr">
         <is>
@@ -46414,10 +46414,10 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>17590</v>
+        <v>17598</v>
       </c>
       <c r="D960" t="n">
-        <v>25500565</v>
+        <v>25510105</v>
       </c>
       <c r="E960" t="inlineStr">
         <is>
@@ -46558,10 +46558,10 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D963" t="n">
-        <v>1241221</v>
+        <v>1245721</v>
       </c>
       <c r="E963" t="inlineStr">
         <is>
@@ -46606,10 +46606,10 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>83779</v>
+        <v>83836</v>
       </c>
       <c r="D964" t="n">
-        <v>105155137</v>
+        <v>105226811</v>
       </c>
       <c r="E964" t="inlineStr">
         <is>
@@ -46942,10 +46942,10 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>33799</v>
+        <v>33813</v>
       </c>
       <c r="D971" t="n">
-        <v>49571179</v>
+        <v>49592179</v>
       </c>
       <c r="E971" t="inlineStr">
         <is>
@@ -47086,10 +47086,10 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>25174</v>
+        <v>25192</v>
       </c>
       <c r="D974" t="n">
-        <v>36511784</v>
+        <v>36537605</v>
       </c>
       <c r="E974" t="inlineStr">
         <is>
@@ -47134,10 +47134,10 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D975" t="n">
-        <v>874152</v>
+        <v>875552</v>
       </c>
       <c r="E975" t="inlineStr">
         <is>
@@ -47230,10 +47230,10 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="D977" t="n">
-        <v>2794805</v>
+        <v>2799305</v>
       </c>
       <c r="E977" t="inlineStr">
         <is>
@@ -47278,10 +47278,10 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>10759</v>
+        <v>10764</v>
       </c>
       <c r="D978" t="n">
-        <v>14032677</v>
+        <v>14038986</v>
       </c>
       <c r="E978" t="inlineStr">
         <is>
@@ -47470,10 +47470,10 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>3461</v>
+        <v>3463</v>
       </c>
       <c r="D982" t="n">
-        <v>5054695</v>
+        <v>5057695</v>
       </c>
       <c r="E982" t="inlineStr">
         <is>
@@ -47758,10 +47758,10 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>55938</v>
+        <v>55967</v>
       </c>
       <c r="D988" t="n">
-        <v>70027988</v>
+        <v>70058738</v>
       </c>
       <c r="E988" t="inlineStr">
         <is>
@@ -47950,10 +47950,10 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D992" t="n">
-        <v>256663</v>
+        <v>257676</v>
       </c>
       <c r="E992" t="inlineStr">
         <is>
@@ -47998,10 +47998,10 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>18494</v>
+        <v>18497</v>
       </c>
       <c r="D993" t="n">
-        <v>27085283</v>
+        <v>27089783</v>
       </c>
       <c r="E993" t="inlineStr">
         <is>
@@ -48094,10 +48094,10 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>12607</v>
+        <v>12611</v>
       </c>
       <c r="D995" t="n">
-        <v>18231186</v>
+        <v>18237186</v>
       </c>
       <c r="E995" t="inlineStr">
         <is>
@@ -48238,10 +48238,10 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D998" t="n">
-        <v>1039501</v>
+        <v>1041001</v>
       </c>
       <c r="E998" t="inlineStr">
         <is>
@@ -48286,10 +48286,10 @@
         </is>
       </c>
       <c r="C999" t="n">
-        <v>28223</v>
+        <v>28241</v>
       </c>
       <c r="D999" t="n">
-        <v>35117724</v>
+        <v>35143128</v>
       </c>
       <c r="E999" t="inlineStr">
         <is>
@@ -48526,10 +48526,10 @@
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>10491</v>
+        <v>10493</v>
       </c>
       <c r="D1004" t="n">
-        <v>15365684</v>
+        <v>15368236</v>
       </c>
       <c r="E1004" t="inlineStr">
         <is>
@@ -48622,10 +48622,10 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>6215</v>
+        <v>6216</v>
       </c>
       <c r="D1006" t="n">
-        <v>9012605</v>
+        <v>9014105</v>
       </c>
       <c r="E1006" t="inlineStr">
         <is>
@@ -48670,10 +48670,10 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D1007" t="n">
-        <v>747418</v>
+        <v>748918</v>
       </c>
       <c r="E1007" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16410</v>
+        <v>16487</v>
       </c>
       <c r="D2" t="n">
-        <v>20630111</v>
+        <v>20727298</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6253</v>
+        <v>6265</v>
       </c>
       <c r="D6" t="n">
-        <v>9143905</v>
+        <v>9161905</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3299</v>
+        <v>3308</v>
       </c>
       <c r="D8" t="n">
-        <v>4773705</v>
+        <v>4787205</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D9" t="n">
-        <v>284030</v>
+        <v>285530</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D11" t="n">
-        <v>522173</v>
+        <v>526673</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11029</v>
+        <v>11057</v>
       </c>
       <c r="D12" t="n">
-        <v>13917762</v>
+        <v>13953254</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3236</v>
+        <v>3245</v>
       </c>
       <c r="D16" t="n">
-        <v>4713088</v>
+        <v>4726588</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1458</v>
+        <v>1466</v>
       </c>
       <c r="D18" t="n">
-        <v>2096720</v>
+        <v>2108720</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D21" t="n">
-        <v>286253</v>
+        <v>292253</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14271</v>
+        <v>14335</v>
       </c>
       <c r="D22" t="n">
-        <v>17497665</v>
+        <v>17574276</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4948</v>
+        <v>4958</v>
       </c>
       <c r="D26" t="n">
-        <v>7235416</v>
+        <v>7250416</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1723</v>
+        <v>1731</v>
       </c>
       <c r="D28" t="n">
-        <v>2462493</v>
+        <v>2474493</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6577</v>
+        <v>6624</v>
       </c>
       <c r="D32" t="n">
-        <v>8737288</v>
+        <v>8802609</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1613</v>
+        <v>1618</v>
       </c>
       <c r="D35" t="n">
-        <v>2324910</v>
+        <v>2332410</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D37" t="n">
-        <v>810311</v>
+        <v>813311</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2302,10 +2302,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>21919</v>
+        <v>22003</v>
       </c>
       <c r="D41" t="n">
-        <v>26973049</v>
+        <v>27074400</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>64500</v>
+        <v>66000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>7810</v>
+        <v>7824</v>
       </c>
       <c r="D47" t="n">
-        <v>11472460</v>
+        <v>11493460</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3848</v>
+        <v>3854</v>
       </c>
       <c r="D49" t="n">
-        <v>5569169</v>
+        <v>5577249</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D52" t="n">
-        <v>832178</v>
+        <v>837603</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8148</v>
+        <v>8174</v>
       </c>
       <c r="D53" t="n">
-        <v>10395842</v>
+        <v>10428872</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2782</v>
+        <v>2787</v>
       </c>
       <c r="D57" t="n">
-        <v>4046543</v>
+        <v>4053621</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="D59" t="n">
-        <v>1445084</v>
+        <v>1451084</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>36217</v>
+        <v>36392</v>
       </c>
       <c r="D62" t="n">
-        <v>46619952</v>
+        <v>46854944</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D64" t="n">
-        <v>143228</v>
+        <v>144728</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>13179</v>
+        <v>13222</v>
       </c>
       <c r="D67" t="n">
-        <v>19329385</v>
+        <v>19391819</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5164</v>
+        <v>5178</v>
       </c>
       <c r="D69" t="n">
-        <v>7468153</v>
+        <v>7487718</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>46365</v>
+        <v>46567</v>
       </c>
       <c r="D75" t="n">
-        <v>59257043</v>
+        <v>59510219</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>18138</v>
+        <v>18184</v>
       </c>
       <c r="D79" t="n">
-        <v>26573180</v>
+        <v>26641791</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>9359</v>
+        <v>9404</v>
       </c>
       <c r="D81" t="n">
-        <v>13510623</v>
+        <v>13575377</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="D85" t="n">
-        <v>1129817</v>
+        <v>1135817</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>24997</v>
+        <v>25095</v>
       </c>
       <c r="D86" t="n">
-        <v>31514697</v>
+        <v>31643784</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>8687</v>
+        <v>8711</v>
       </c>
       <c r="D90" t="n">
-        <v>12752386</v>
+        <v>12787093</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4915</v>
+        <v>4929</v>
       </c>
       <c r="D92" t="n">
-        <v>7103650</v>
+        <v>7124650</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="D94" t="n">
-        <v>1066315</v>
+        <v>1079815</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>22001</v>
+        <v>22094</v>
       </c>
       <c r="D95" t="n">
-        <v>27617122</v>
+        <v>27734447</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>9167</v>
+        <v>9199</v>
       </c>
       <c r="D99" t="n">
-        <v>13418849</v>
+        <v>13466138</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3332</v>
+        <v>3341</v>
       </c>
       <c r="D101" t="n">
-        <v>4771848</v>
+        <v>4785348</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D104" t="n">
-        <v>341301</v>
+        <v>344301</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D105" t="n">
-        <v>629094</v>
+        <v>633594</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5422,10 +5422,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>81959</v>
+        <v>82568</v>
       </c>
       <c r="D106" t="n">
-        <v>105003201</v>
+        <v>105815803</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D111" t="n">
-        <v>224280</v>
+        <v>225780</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5758,10 +5758,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>30650</v>
+        <v>30716</v>
       </c>
       <c r="D113" t="n">
-        <v>44976718</v>
+        <v>45074491</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>20880</v>
+        <v>21017</v>
       </c>
       <c r="D115" t="n">
-        <v>30128518</v>
+        <v>30330403</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1901</v>
+        <v>1912</v>
       </c>
       <c r="D122" t="n">
-        <v>2674193</v>
+        <v>2690563</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>27752</v>
+        <v>27849</v>
       </c>
       <c r="D123" t="n">
-        <v>36621415</v>
+        <v>36751442</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>9882</v>
+        <v>9908</v>
       </c>
       <c r="D127" t="n">
-        <v>14492551</v>
+        <v>14530307</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3277</v>
+        <v>3286</v>
       </c>
       <c r="D129" t="n">
-        <v>4765157</v>
+        <v>4778387</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D132" t="n">
-        <v>497802</v>
+        <v>502302</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>15783</v>
+        <v>15869</v>
       </c>
       <c r="D133" t="n">
-        <v>19634533</v>
+        <v>19733943</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>7768</v>
+        <v>7787</v>
       </c>
       <c r="D137" t="n">
-        <v>11364566</v>
+        <v>11391982</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -7006,10 +7006,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2219</v>
+        <v>2225</v>
       </c>
       <c r="D139" t="n">
-        <v>3167297</v>
+        <v>3176297</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D141" t="n">
-        <v>438707</v>
+        <v>440207</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>13564</v>
+        <v>13634</v>
       </c>
       <c r="D144" t="n">
-        <v>16937740</v>
+        <v>17025148</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7438,10 +7438,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>6250</v>
+        <v>6267</v>
       </c>
       <c r="D148" t="n">
-        <v>9156178</v>
+        <v>9180657</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="D150" t="n">
-        <v>2877999</v>
+        <v>2889999</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D153" t="n">
-        <v>509408</v>
+        <v>513908</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>5993</v>
+        <v>6023</v>
       </c>
       <c r="D154" t="n">
-        <v>7331984</v>
+        <v>7370434</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="D157" t="n">
-        <v>3018357</v>
+        <v>3021357</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D158" t="n">
-        <v>980327</v>
+        <v>986327</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>7451</v>
+        <v>7495</v>
       </c>
       <c r="D162" t="n">
-        <v>9234208</v>
+        <v>9289362</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2857</v>
+        <v>2867</v>
       </c>
       <c r="D165" t="n">
-        <v>4189458</v>
+        <v>4204182</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="D166" t="n">
-        <v>2014887</v>
+        <v>2019387</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8494,10 +8494,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>5623</v>
+        <v>5653</v>
       </c>
       <c r="D170" t="n">
-        <v>7073774</v>
+        <v>7105934</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8734,10 +8734,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="D175" t="n">
-        <v>2964541</v>
+        <v>2967258</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D177" t="n">
-        <v>997472</v>
+        <v>998972</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -8974,10 +8974,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>15999</v>
+        <v>16081</v>
       </c>
       <c r="D180" t="n">
-        <v>20099377</v>
+        <v>20194073</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>6401</v>
+        <v>6415</v>
       </c>
       <c r="D185" t="n">
-        <v>9349135</v>
+        <v>9369947</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2226</v>
+        <v>2235</v>
       </c>
       <c r="D186" t="n">
-        <v>3195491</v>
+        <v>3208037</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D189" t="n">
-        <v>633912</v>
+        <v>638412</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3078</v>
+        <v>3094</v>
       </c>
       <c r="D190" t="n">
-        <v>3864392</v>
+        <v>3884891</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9550,10 +9550,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="D192" t="n">
-        <v>2162742</v>
+        <v>2165742</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D194" t="n">
-        <v>810636</v>
+        <v>815136</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D197" t="n">
-        <v>71525</v>
+        <v>72665</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>9228</v>
+        <v>9279</v>
       </c>
       <c r="D198" t="n">
-        <v>11519576</v>
+        <v>11587365</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3432</v>
+        <v>3443</v>
       </c>
       <c r="D202" t="n">
-        <v>5042576</v>
+        <v>5058307</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1616</v>
+        <v>1628</v>
       </c>
       <c r="D203" t="n">
-        <v>2330680</v>
+        <v>2346885</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10222,10 +10222,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D206" t="n">
-        <v>300597</v>
+        <v>303597</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>17287</v>
+        <v>17350</v>
       </c>
       <c r="D207" t="n">
-        <v>21582927</v>
+        <v>21657853</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>7694</v>
+        <v>7712</v>
       </c>
       <c r="D211" t="n">
-        <v>11298115</v>
+        <v>11325115</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1242</v>
+        <v>1249</v>
       </c>
       <c r="D212" t="n">
-        <v>1777654</v>
+        <v>1787550</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D214" t="n">
-        <v>665996</v>
+        <v>667496</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>26178</v>
+        <v>26283</v>
       </c>
       <c r="D215" t="n">
-        <v>33012316</v>
+        <v>33139510</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10798,10 +10798,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D218" t="n">
-        <v>418128</v>
+        <v>419628</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>10498</v>
+        <v>10517</v>
       </c>
       <c r="D219" t="n">
-        <v>15332034</v>
+        <v>15359461</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>2641</v>
+        <v>2650</v>
       </c>
       <c r="D221" t="n">
-        <v>3808597</v>
+        <v>3820176</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D222" t="n">
-        <v>445307</v>
+        <v>445708</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11086,10 +11086,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="D224" t="n">
-        <v>851117</v>
+        <v>858617</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -11134,10 +11134,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>28565</v>
+        <v>28694</v>
       </c>
       <c r="D225" t="n">
-        <v>36034067</v>
+        <v>36194408</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>14748</v>
+        <v>14798</v>
       </c>
       <c r="D230" t="n">
-        <v>21639464</v>
+        <v>21712658</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>2661</v>
+        <v>2680</v>
       </c>
       <c r="D232" t="n">
-        <v>3821175</v>
+        <v>3848505</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D234" t="n">
-        <v>512382</v>
+        <v>513882</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="D235" t="n">
-        <v>1025228</v>
+        <v>1029728</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11662,10 +11662,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>24323</v>
+        <v>24419</v>
       </c>
       <c r="D236" t="n">
-        <v>30676086</v>
+        <v>30797356</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>11193</v>
+        <v>11224</v>
       </c>
       <c r="D242" t="n">
-        <v>16405990</v>
+        <v>16452490</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>2512</v>
+        <v>2519</v>
       </c>
       <c r="D244" t="n">
-        <v>3588818</v>
+        <v>3598565</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D247" t="n">
-        <v>627324</v>
+        <v>632787</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12238,10 +12238,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>7878</v>
+        <v>7925</v>
       </c>
       <c r="D248" t="n">
-        <v>9853063</v>
+        <v>9911211</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>2702</v>
+        <v>2717</v>
       </c>
       <c r="D252" t="n">
-        <v>3966150</v>
+        <v>3988150</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1006</v>
+        <v>1015</v>
       </c>
       <c r="D255" t="n">
-        <v>1455615</v>
+        <v>1469115</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D257" t="n">
-        <v>208667</v>
+        <v>210167</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12718,10 +12718,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>9836</v>
+        <v>9900</v>
       </c>
       <c r="D258" t="n">
-        <v>12545193</v>
+        <v>12633313</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>4201</v>
+        <v>4215</v>
       </c>
       <c r="D262" t="n">
-        <v>6166175</v>
+        <v>6187175</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>2176</v>
+        <v>2187</v>
       </c>
       <c r="D264" t="n">
-        <v>3150387</v>
+        <v>3166887</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13150,10 +13150,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>5559</v>
+        <v>5596</v>
       </c>
       <c r="D267" t="n">
-        <v>6891743</v>
+        <v>6935629</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D268" t="n">
-        <v>9331</v>
+        <v>10662</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="D270" t="n">
-        <v>2953657</v>
+        <v>2967157</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13390,10 +13390,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="D272" t="n">
-        <v>1035872</v>
+        <v>1043372</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -13534,10 +13534,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D275" t="n">
-        <v>232156</v>
+        <v>235156</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13582,10 +13582,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>19138</v>
+        <v>19226</v>
       </c>
       <c r="D276" t="n">
-        <v>24168157</v>
+        <v>24273300</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13774,10 +13774,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>7942</v>
+        <v>7972</v>
       </c>
       <c r="D280" t="n">
-        <v>11644896</v>
+        <v>11689896</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13870,10 +13870,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>2504</v>
+        <v>2521</v>
       </c>
       <c r="D282" t="n">
-        <v>3597462</v>
+        <v>3621784</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D285" t="n">
-        <v>653745</v>
+        <v>658245</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14110,10 +14110,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>16661</v>
+        <v>16722</v>
       </c>
       <c r="D287" t="n">
-        <v>20637719</v>
+        <v>20713969</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -14158,10 +14158,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D288" t="n">
-        <v>15741</v>
+        <v>17241</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>7202</v>
+        <v>7224</v>
       </c>
       <c r="D292" t="n">
-        <v>10563614</v>
+        <v>10596211</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>3335</v>
+        <v>3352</v>
       </c>
       <c r="D293" t="n">
-        <v>4833799</v>
+        <v>4858186</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14542,10 +14542,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D296" t="n">
-        <v>468587</v>
+        <v>471587</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14590,10 +14590,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>9376</v>
+        <v>9411</v>
       </c>
       <c r="D297" t="n">
-        <v>11774593</v>
+        <v>11815510</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14782,10 +14782,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>3919</v>
+        <v>3936</v>
       </c>
       <c r="D301" t="n">
-        <v>5735277</v>
+        <v>5760777</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="D302" t="n">
-        <v>1817009</v>
+        <v>1820135</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>9222</v>
+        <v>9263</v>
       </c>
       <c r="D307" t="n">
-        <v>12038810</v>
+        <v>12096944</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>3752</v>
+        <v>3762</v>
       </c>
       <c r="D311" t="n">
-        <v>5485849</v>
+        <v>5500849</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2364</v>
+        <v>2376</v>
       </c>
       <c r="D312" t="n">
-        <v>3438950</v>
+        <v>3456105</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15454,10 +15454,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>11094</v>
+        <v>11151</v>
       </c>
       <c r="D315" t="n">
-        <v>14567781</v>
+        <v>14645356</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D318" t="n">
-        <v>50143</v>
+        <v>51643</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>3785</v>
+        <v>3798</v>
       </c>
       <c r="D319" t="n">
-        <v>5549172</v>
+        <v>5568215</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2715</v>
+        <v>2728</v>
       </c>
       <c r="D321" t="n">
-        <v>3935728</v>
+        <v>3953279</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15838,10 +15838,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D323" t="n">
-        <v>234786</v>
+        <v>236286</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -15886,10 +15886,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>6836</v>
+        <v>6874</v>
       </c>
       <c r="D324" t="n">
-        <v>8451220</v>
+        <v>8502663</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D327" t="n">
-        <v>34647</v>
+        <v>36147</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16126,10 +16126,10 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>2303</v>
+        <v>2307</v>
       </c>
       <c r="D329" t="n">
-        <v>3377667</v>
+        <v>3383667</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="D331" t="n">
-        <v>1136275</v>
+        <v>1146775</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16366,10 +16366,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>7551</v>
+        <v>7593</v>
       </c>
       <c r="D334" t="n">
-        <v>9451760</v>
+        <v>9503108</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -16606,10 +16606,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>3137</v>
+        <v>3144</v>
       </c>
       <c r="D339" t="n">
-        <v>4582062</v>
+        <v>4592562</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="D340" t="n">
-        <v>1851361</v>
+        <v>1857361</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>32152</v>
+        <v>32342</v>
       </c>
       <c r="D343" t="n">
-        <v>40381834</v>
+        <v>40634144</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>16565</v>
+        <v>16618</v>
       </c>
       <c r="D349" t="n">
-        <v>24221637</v>
+        <v>24299511</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>8075</v>
+        <v>8104</v>
       </c>
       <c r="D352" t="n">
-        <v>11630232</v>
+        <v>11673263</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17326,10 +17326,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="D354" t="n">
-        <v>1115739</v>
+        <v>1129239</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>3902</v>
+        <v>3915</v>
       </c>
       <c r="D355" t="n">
-        <v>4861962</v>
+        <v>4878264</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17518,10 +17518,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="D358" t="n">
-        <v>2209157</v>
+        <v>2215157</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D359" t="n">
-        <v>846512</v>
+        <v>851012</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>19448</v>
+        <v>19527</v>
       </c>
       <c r="D363" t="n">
-        <v>24237389</v>
+        <v>24342257</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>9932</v>
+        <v>9956</v>
       </c>
       <c r="D367" t="n">
-        <v>14561655</v>
+        <v>14597655</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>4759</v>
+        <v>4774</v>
       </c>
       <c r="D369" t="n">
-        <v>6881162</v>
+        <v>6903662</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D371" t="n">
-        <v>508484</v>
+        <v>509984</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>13984</v>
+        <v>14058</v>
       </c>
       <c r="D372" t="n">
-        <v>17482549</v>
+        <v>17580310</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>6452</v>
+        <v>6475</v>
       </c>
       <c r="D376" t="n">
-        <v>9446176</v>
+        <v>9479885</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>2485</v>
+        <v>2506</v>
       </c>
       <c r="D378" t="n">
-        <v>3570190</v>
+        <v>3600378</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D380" t="n">
-        <v>358272</v>
+        <v>360312</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18622,10 +18622,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>18040</v>
+        <v>18117</v>
       </c>
       <c r="D381" t="n">
-        <v>22488355</v>
+        <v>22585689</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>7147</v>
+        <v>7164</v>
       </c>
       <c r="D385" t="n">
-        <v>10505715</v>
+        <v>10529596</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>2842</v>
+        <v>2854</v>
       </c>
       <c r="D387" t="n">
-        <v>4134151</v>
+        <v>4151129</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D390" t="n">
-        <v>557454</v>
+        <v>564333</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>4105</v>
+        <v>4131</v>
       </c>
       <c r="D391" t="n">
-        <v>5151927</v>
+        <v>5182685</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19246,10 +19246,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="D394" t="n">
-        <v>2031746</v>
+        <v>2036756</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D395" t="n">
-        <v>833136</v>
+        <v>836956</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>22363</v>
+        <v>22478</v>
       </c>
       <c r="D398" t="n">
-        <v>27732850</v>
+        <v>27874221</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>9384</v>
+        <v>9418</v>
       </c>
       <c r="D401" t="n">
-        <v>13814157</v>
+        <v>13863998</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>6227</v>
+        <v>6256</v>
       </c>
       <c r="D403" t="n">
-        <v>9058133</v>
+        <v>9101633</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D405" t="n">
-        <v>491302</v>
+        <v>497302</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19822,10 +19822,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>11167</v>
+        <v>11224</v>
       </c>
       <c r="D406" t="n">
-        <v>13764916</v>
+        <v>13836451</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19918,10 +19918,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D408" t="n">
-        <v>22305</v>
+        <v>23805</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -20062,10 +20062,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>5334</v>
+        <v>5354</v>
       </c>
       <c r="D411" t="n">
-        <v>7795544</v>
+        <v>7825544</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>1844</v>
+        <v>1850</v>
       </c>
       <c r="D413" t="n">
-        <v>2678364</v>
+        <v>2686582</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20254,10 +20254,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D415" t="n">
-        <v>294489</v>
+        <v>298989</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -20302,10 +20302,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>32541</v>
+        <v>32726</v>
       </c>
       <c r="D416" t="n">
-        <v>44078095</v>
+        <v>44337200</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D419" t="n">
-        <v>37314</v>
+        <v>38814</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>7863</v>
+        <v>7903</v>
       </c>
       <c r="D420" t="n">
-        <v>11560856</v>
+        <v>11619686</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>7193</v>
+        <v>7243</v>
       </c>
       <c r="D422" t="n">
-        <v>10429452</v>
+        <v>10503011</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20686,10 +20686,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D424" t="n">
-        <v>751716</v>
+        <v>753216</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>8984</v>
+        <v>9207</v>
       </c>
       <c r="D426" t="n">
-        <v>12473374</v>
+        <v>13033754</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2266</v>
+        <v>2338</v>
       </c>
       <c r="D428" t="n">
-        <v>3339302</v>
+        <v>3545597</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>3025</v>
+        <v>3113</v>
       </c>
       <c r="D430" t="n">
-        <v>4417834</v>
+        <v>4660982</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21070,10 +21070,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D432" t="n">
-        <v>190620</v>
+        <v>195120</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D433" t="n">
-        <v>253043</v>
+        <v>253843</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>11059</v>
+        <v>11124</v>
       </c>
       <c r="D434" t="n">
-        <v>13651593</v>
+        <v>13739408</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21310,10 +21310,10 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>3798</v>
+        <v>3810</v>
       </c>
       <c r="D437" t="n">
-        <v>5573164</v>
+        <v>5591164</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1876</v>
+        <v>1885</v>
       </c>
       <c r="D439" t="n">
-        <v>2690913</v>
+        <v>2704383</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21502,10 +21502,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D441" t="n">
-        <v>227011</v>
+        <v>228380</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21550,10 +21550,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>63197</v>
+        <v>63623</v>
       </c>
       <c r="D442" t="n">
-        <v>78286069</v>
+        <v>78832170</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -21742,10 +21742,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>24972</v>
+        <v>25052</v>
       </c>
       <c r="D446" t="n">
-        <v>36600212</v>
+        <v>36717019</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -21838,10 +21838,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>12972</v>
+        <v>13058</v>
       </c>
       <c r="D448" t="n">
-        <v>18808165</v>
+        <v>18935305</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>1050</v>
+        <v>1057</v>
       </c>
       <c r="D452" t="n">
-        <v>1475171</v>
+        <v>1485671</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>18970</v>
+        <v>19121</v>
       </c>
       <c r="D454" t="n">
-        <v>23980343</v>
+        <v>24187972</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>7720</v>
+        <v>7745</v>
       </c>
       <c r="D458" t="n">
-        <v>11332220</v>
+        <v>11368239</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22414,10 +22414,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>4878</v>
+        <v>4913</v>
       </c>
       <c r="D460" t="n">
-        <v>7078373</v>
+        <v>7129627</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -22510,10 +22510,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D462" t="n">
-        <v>398944</v>
+        <v>405394</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22558,10 +22558,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>32308</v>
+        <v>32481</v>
       </c>
       <c r="D463" t="n">
-        <v>39485698</v>
+        <v>39698367</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>11482</v>
+        <v>11521</v>
       </c>
       <c r="D467" t="n">
-        <v>16800849</v>
+        <v>16857996</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>4916</v>
+        <v>4930</v>
       </c>
       <c r="D469" t="n">
-        <v>7133082</v>
+        <v>7154082</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -22894,10 +22894,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D470" t="n">
-        <v>526030</v>
+        <v>528660</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -22942,10 +22942,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D471" t="n">
-        <v>548664</v>
+        <v>555190</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -22990,10 +22990,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>14442</v>
+        <v>14519</v>
       </c>
       <c r="D472" t="n">
-        <v>17653857</v>
+        <v>17755312</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>4387</v>
+        <v>4398</v>
       </c>
       <c r="D477" t="n">
-        <v>6445422</v>
+        <v>6461922</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>2078</v>
+        <v>2095</v>
       </c>
       <c r="D479" t="n">
-        <v>2996293</v>
+        <v>3020015</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23422,10 +23422,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D481" t="n">
-        <v>467348</v>
+        <v>470348</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23470,10 +23470,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>36155</v>
+        <v>36664</v>
       </c>
       <c r="D482" t="n">
-        <v>47109109</v>
+        <v>47821803</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23662,10 +23662,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>13585</v>
+        <v>13642</v>
       </c>
       <c r="D486" t="n">
-        <v>19987500</v>
+        <v>20070680</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>12042</v>
+        <v>12205</v>
       </c>
       <c r="D488" t="n">
-        <v>17575025</v>
+        <v>17818881</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23854,10 +23854,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D490" t="n">
-        <v>427726</v>
+        <v>435226</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -23902,10 +23902,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>62694</v>
+        <v>63685</v>
       </c>
       <c r="D491" t="n">
-        <v>83003460</v>
+        <v>84396520</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D493" t="n">
-        <v>32075</v>
+        <v>32848</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D494" t="n">
-        <v>198455</v>
+        <v>199955</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24142,10 +24142,10 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>23184</v>
+        <v>23280</v>
       </c>
       <c r="D496" t="n">
-        <v>34020626</v>
+        <v>34163054</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -24238,10 +24238,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>22538</v>
+        <v>22847</v>
       </c>
       <c r="D498" t="n">
-        <v>32722142</v>
+        <v>33176317</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -24382,10 +24382,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D501" t="n">
-        <v>894055</v>
+        <v>903735</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>151750</v>
+        <v>153616</v>
       </c>
       <c r="D502" t="n">
-        <v>199546546</v>
+        <v>202057977</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24526,10 +24526,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D504" t="n">
-        <v>182220</v>
+        <v>183720</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D507" t="n">
-        <v>700555</v>
+        <v>702055</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D508" t="n">
-        <v>34510</v>
+        <v>36010</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>81905</v>
+        <v>82298</v>
       </c>
       <c r="D509" t="n">
-        <v>120314737</v>
+        <v>120895507</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D510" t="n">
-        <v>346342</v>
+        <v>350802</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24910,10 +24910,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>60325</v>
+        <v>60847</v>
       </c>
       <c r="D512" t="n">
-        <v>87560472</v>
+        <v>88326282</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -25006,10 +25006,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D514" t="n">
-        <v>1544203</v>
+        <v>1545303</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>2810</v>
+        <v>2837</v>
       </c>
       <c r="D516" t="n">
-        <v>3975974</v>
+        <v>4015292</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25198,10 +25198,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>41424</v>
+        <v>41945</v>
       </c>
       <c r="D518" t="n">
-        <v>53845254</v>
+        <v>54565718</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25438,10 +25438,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>15295</v>
+        <v>15369</v>
       </c>
       <c r="D523" t="n">
-        <v>22464758</v>
+        <v>22574614</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25534,10 +25534,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>12981</v>
+        <v>13121</v>
       </c>
       <c r="D525" t="n">
-        <v>18813909</v>
+        <v>19019627</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25678,10 +25678,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D528" t="n">
-        <v>499156</v>
+        <v>500656</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>66550</v>
+        <v>67945</v>
       </c>
       <c r="D530" t="n">
-        <v>89435502</v>
+        <v>91437937</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25918,10 +25918,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D533" t="n">
-        <v>189207</v>
+        <v>190707</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>23407</v>
+        <v>23517</v>
       </c>
       <c r="D534" t="n">
-        <v>34539086</v>
+        <v>34701576</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>24192</v>
+        <v>24636</v>
       </c>
       <c r="D536" t="n">
-        <v>35405391</v>
+        <v>36061180</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26158,10 +26158,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D538" t="n">
-        <v>368820</v>
+        <v>369460</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26206,10 +26206,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="D539" t="n">
-        <v>1230410</v>
+        <v>1236410</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -26254,10 +26254,10 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>55320</v>
+        <v>56257</v>
       </c>
       <c r="D540" t="n">
-        <v>73357491</v>
+        <v>74684252</v>
       </c>
       <c r="E540" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D544" t="n">
-        <v>136109</v>
+        <v>139109</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>17832</v>
+        <v>17911</v>
       </c>
       <c r="D545" t="n">
-        <v>26202586</v>
+        <v>26317921</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>18389</v>
+        <v>18620</v>
       </c>
       <c r="D547" t="n">
-        <v>26733316</v>
+        <v>27076561</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26686,10 +26686,10 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="D549" t="n">
-        <v>886704</v>
+        <v>903104</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
@@ -26734,10 +26734,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>41779</v>
+        <v>42549</v>
       </c>
       <c r="D550" t="n">
-        <v>55472753</v>
+        <v>56568160</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -26926,10 +26926,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>14253</v>
+        <v>14312</v>
       </c>
       <c r="D554" t="n">
-        <v>21021240</v>
+        <v>21107485</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -27022,10 +27022,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>14458</v>
+        <v>14680</v>
       </c>
       <c r="D556" t="n">
-        <v>20993361</v>
+        <v>21322177</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -27166,10 +27166,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>41482</v>
+        <v>41969</v>
       </c>
       <c r="D559" t="n">
-        <v>53772707</v>
+        <v>54461139</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>16254</v>
+        <v>16314</v>
       </c>
       <c r="D563" t="n">
-        <v>23846841</v>
+        <v>23932576</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27454,10 +27454,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>13062</v>
+        <v>13201</v>
       </c>
       <c r="D565" t="n">
-        <v>18889387</v>
+        <v>19096176</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27598,10 +27598,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D568" t="n">
-        <v>500267</v>
+        <v>501767</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27646,10 +27646,10 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>44091</v>
+        <v>44349</v>
       </c>
       <c r="D569" t="n">
-        <v>58853334</v>
+        <v>59209720</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>13952</v>
+        <v>13996</v>
       </c>
       <c r="D575" t="n">
-        <v>20459287</v>
+        <v>20525287</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -27982,10 +27982,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>3718</v>
+        <v>3735</v>
       </c>
       <c r="D576" t="n">
-        <v>5360897</v>
+        <v>5386097</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D579" t="n">
-        <v>572511</v>
+        <v>575216</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28222,10 +28222,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D581" t="n">
-        <v>530751</v>
+        <v>533751</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -28270,10 +28270,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>17394</v>
+        <v>17472</v>
       </c>
       <c r="D582" t="n">
-        <v>22980924</v>
+        <v>23088912</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>7094</v>
+        <v>7118</v>
       </c>
       <c r="D586" t="n">
-        <v>10316395</v>
+        <v>10352086</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>4944</v>
+        <v>4960</v>
       </c>
       <c r="D588" t="n">
-        <v>7114863</v>
+        <v>7137333</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D590" t="n">
-        <v>380231</v>
+        <v>381431</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>15728</v>
+        <v>16323</v>
       </c>
       <c r="D593" t="n">
-        <v>22822012</v>
+        <v>24422175</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28846,10 +28846,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>1777</v>
+        <v>1839</v>
       </c>
       <c r="D594" t="n">
-        <v>2643230</v>
+        <v>2812613</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D595" t="n">
-        <v>348802</v>
+        <v>366802</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -28990,10 +28990,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D597" t="n">
-        <v>79190</v>
+        <v>85190</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29038,10 +29038,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D598" t="n">
-        <v>128949</v>
+        <v>154449</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -29086,10 +29086,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>22073</v>
+        <v>22188</v>
       </c>
       <c r="D599" t="n">
-        <v>27691165</v>
+        <v>27828139</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>9004</v>
+        <v>9036</v>
       </c>
       <c r="D604" t="n">
-        <v>13190468</v>
+        <v>13237703</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29422,10 +29422,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>3353</v>
+        <v>3366</v>
       </c>
       <c r="D606" t="n">
-        <v>4816159</v>
+        <v>4834687</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D608" t="n">
-        <v>653939</v>
+        <v>655439</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29614,10 +29614,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>14681</v>
+        <v>14782</v>
       </c>
       <c r="D610" t="n">
-        <v>18401701</v>
+        <v>18531089</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D612" t="n">
-        <v>7320</v>
+        <v>8820</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>5794</v>
+        <v>5809</v>
       </c>
       <c r="D614" t="n">
-        <v>8510151</v>
+        <v>8532651</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29902,10 +29902,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>2677</v>
+        <v>2697</v>
       </c>
       <c r="D616" t="n">
-        <v>3857928</v>
+        <v>3887340</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -29998,10 +29998,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D618" t="n">
-        <v>263636</v>
+        <v>265136</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -30046,10 +30046,10 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>13777</v>
+        <v>13844</v>
       </c>
       <c r="D619" t="n">
-        <v>17394107</v>
+        <v>17476364</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
@@ -30238,10 +30238,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>5231</v>
+        <v>5243</v>
       </c>
       <c r="D623" t="n">
-        <v>7665982</v>
+        <v>7683863</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>1163</v>
+        <v>1171</v>
       </c>
       <c r="D624" t="n">
-        <v>1684855</v>
+        <v>1696855</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30430,10 +30430,10 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D627" t="n">
-        <v>368966</v>
+        <v>370466</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
@@ -30478,10 +30478,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>7526</v>
+        <v>7561</v>
       </c>
       <c r="D628" t="n">
-        <v>9680947</v>
+        <v>9723958</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>2559</v>
+        <v>2569</v>
       </c>
       <c r="D633" t="n">
-        <v>3749606</v>
+        <v>3764606</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30766,10 +30766,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="D634" t="n">
-        <v>1222114</v>
+        <v>1228114</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -30910,10 +30910,10 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>28858</v>
+        <v>28992</v>
       </c>
       <c r="D637" t="n">
-        <v>35539173</v>
+        <v>35713655</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
@@ -31150,10 +31150,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>11046</v>
+        <v>11081</v>
       </c>
       <c r="D642" t="n">
-        <v>16205975</v>
+        <v>16258140</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31246,10 +31246,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>4845</v>
+        <v>4871</v>
       </c>
       <c r="D644" t="n">
-        <v>7029243</v>
+        <v>7068234</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31342,10 +31342,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D646" t="n">
-        <v>342114</v>
+        <v>343614</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -31390,10 +31390,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D647" t="n">
-        <v>811909</v>
+        <v>813409</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -31438,10 +31438,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>11329</v>
+        <v>11400</v>
       </c>
       <c r="D648" t="n">
-        <v>13731673</v>
+        <v>13805895</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>3641</v>
+        <v>3650</v>
       </c>
       <c r="D653" t="n">
-        <v>5330219</v>
+        <v>5343719</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="D654" t="n">
-        <v>1591307</v>
+        <v>1600307</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31870,10 +31870,10 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D657" t="n">
-        <v>320790</v>
+        <v>324523</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>28352</v>
+        <v>28460</v>
       </c>
       <c r="D658" t="n">
-        <v>35244084</v>
+        <v>35375999</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -32062,10 +32062,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D661" t="n">
-        <v>182951</v>
+        <v>184451</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32110,10 +32110,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>10747</v>
+        <v>10768</v>
       </c>
       <c r="D662" t="n">
-        <v>15789895</v>
+        <v>15820995</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -32206,10 +32206,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>3084</v>
+        <v>3092</v>
       </c>
       <c r="D664" t="n">
-        <v>4446927</v>
+        <v>4458027</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -32350,10 +32350,10 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D667" t="n">
-        <v>674175</v>
+        <v>675675</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>7514</v>
+        <v>7544</v>
       </c>
       <c r="D668" t="n">
-        <v>9531654</v>
+        <v>9567864</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>2638</v>
+        <v>2642</v>
       </c>
       <c r="D670" t="n">
-        <v>3870665</v>
+        <v>3876189</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="D672" t="n">
-        <v>1873872</v>
+        <v>1878372</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32734,10 +32734,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D675" t="n">
-        <v>231070</v>
+        <v>232570</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>3781</v>
+        <v>3796</v>
       </c>
       <c r="D676" t="n">
-        <v>4582633</v>
+        <v>4601010</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="D680" t="n">
-        <v>1144787</v>
+        <v>1153787</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D682" t="n">
-        <v>638920</v>
+        <v>640420</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33118,10 +33118,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D683" t="n">
-        <v>174745</v>
+        <v>175145</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -33214,10 +33214,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>9331</v>
+        <v>9371</v>
       </c>
       <c r="D685" t="n">
-        <v>11636455</v>
+        <v>11684217</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>3471</v>
+        <v>3479</v>
       </c>
       <c r="D689" t="n">
-        <v>5117017</v>
+        <v>5129017</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="D690" t="n">
-        <v>1080102</v>
+        <v>1084500</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33598,10 +33598,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D693" t="n">
-        <v>384069</v>
+        <v>387069</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -33646,10 +33646,10 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>19248</v>
+        <v>19332</v>
       </c>
       <c r="D694" t="n">
-        <v>23554784</v>
+        <v>23663748</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -33838,10 +33838,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>5711</v>
+        <v>5724</v>
       </c>
       <c r="D698" t="n">
-        <v>8341980</v>
+        <v>8361480</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -33934,10 +33934,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>2246</v>
+        <v>2258</v>
       </c>
       <c r="D700" t="n">
-        <v>3232014</v>
+        <v>3249968</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -34126,10 +34126,10 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D704" t="n">
-        <v>419316</v>
+        <v>422316</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -34174,10 +34174,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>74688</v>
+        <v>75209</v>
       </c>
       <c r="D705" t="n">
-        <v>94023199</v>
+        <v>94720859</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34270,10 +34270,10 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D707" t="n">
-        <v>36298</v>
+        <v>39298</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -34414,10 +34414,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>26521</v>
+        <v>26618</v>
       </c>
       <c r="D710" t="n">
-        <v>38936636</v>
+        <v>39080224</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -34558,10 +34558,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>13168</v>
+        <v>13249</v>
       </c>
       <c r="D713" t="n">
-        <v>18990863</v>
+        <v>19111702</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -34702,10 +34702,10 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="D716" t="n">
-        <v>2806381</v>
+        <v>2809381</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -34798,10 +34798,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>1206</v>
+        <v>1212</v>
       </c>
       <c r="D718" t="n">
-        <v>1684038</v>
+        <v>1693038</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34846,10 +34846,10 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>11176</v>
+        <v>11220</v>
       </c>
       <c r="D719" t="n">
-        <v>13670006</v>
+        <v>13723541</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -34942,10 +34942,10 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D721" t="n">
-        <v>114332</v>
+        <v>115832</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -34990,10 +34990,10 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>4105</v>
+        <v>4119</v>
       </c>
       <c r="D722" t="n">
-        <v>6004633</v>
+        <v>6025530</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -35086,10 +35086,10 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="D724" t="n">
-        <v>2155000</v>
+        <v>2159500</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -35134,10 +35134,10 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D725" t="n">
-        <v>200762</v>
+        <v>201962</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -35182,10 +35182,10 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D726" t="n">
-        <v>338382</v>
+        <v>342829</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -35230,10 +35230,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>17619</v>
+        <v>17699</v>
       </c>
       <c r="D727" t="n">
-        <v>21723287</v>
+        <v>21818822</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -35374,10 +35374,10 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D730" t="n">
-        <v>56645</v>
+        <v>58145</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -35422,10 +35422,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>6848</v>
+        <v>6868</v>
       </c>
       <c r="D731" t="n">
-        <v>10009329</v>
+        <v>10039329</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -35518,10 +35518,10 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>2178</v>
+        <v>2184</v>
       </c>
       <c r="D733" t="n">
-        <v>3123038</v>
+        <v>3131538</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -35758,10 +35758,10 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>11533</v>
+        <v>11591</v>
       </c>
       <c r="D738" t="n">
-        <v>14232844</v>
+        <v>14302683</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -35950,10 +35950,10 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>4238</v>
+        <v>4250</v>
       </c>
       <c r="D742" t="n">
-        <v>6212494</v>
+        <v>6229385</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -36046,10 +36046,10 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="D744" t="n">
-        <v>2323554</v>
+        <v>2332554</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -36142,10 +36142,10 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D746" t="n">
-        <v>431909</v>
+        <v>434909</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -36190,10 +36190,10 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>29543</v>
+        <v>29672</v>
       </c>
       <c r="D747" t="n">
-        <v>36719703</v>
+        <v>36886811</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -36430,10 +36430,10 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>12712</v>
+        <v>12740</v>
       </c>
       <c r="D752" t="n">
-        <v>18605590</v>
+        <v>18645784</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -36526,10 +36526,10 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>4217</v>
+        <v>4227</v>
       </c>
       <c r="D754" t="n">
-        <v>6024457</v>
+        <v>6038594</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -36670,10 +36670,10 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="D757" t="n">
-        <v>970396</v>
+        <v>977896</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -36766,10 +36766,10 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>12327</v>
+        <v>12389</v>
       </c>
       <c r="D759" t="n">
-        <v>15253728</v>
+        <v>15333668</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -36862,10 +36862,10 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D761" t="n">
-        <v>106845</v>
+        <v>108345</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -36910,10 +36910,10 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>4654</v>
+        <v>4666</v>
       </c>
       <c r="D762" t="n">
-        <v>6802273</v>
+        <v>6820273</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -36958,10 +36958,10 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="D763" t="n">
-        <v>1650986</v>
+        <v>1658486</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -37054,10 +37054,10 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D765" t="n">
-        <v>526662</v>
+        <v>535662</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -37102,10 +37102,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>6733</v>
+        <v>6759</v>
       </c>
       <c r="D766" t="n">
-        <v>7908170</v>
+        <v>7937832</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -37294,10 +37294,10 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>1702</v>
+        <v>1709</v>
       </c>
       <c r="D770" t="n">
-        <v>2481153</v>
+        <v>2490901</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -37342,10 +37342,10 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="D771" t="n">
-        <v>1456344</v>
+        <v>1462219</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -37438,10 +37438,10 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D773" t="n">
-        <v>210947</v>
+        <v>212447</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -37486,10 +37486,10 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>16812</v>
+        <v>16886</v>
       </c>
       <c r="D774" t="n">
-        <v>20394520</v>
+        <v>20489850</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -37726,10 +37726,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>5535</v>
+        <v>5552</v>
       </c>
       <c r="D779" t="n">
-        <v>8110586</v>
+        <v>8136086</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -37822,10 +37822,10 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>3396</v>
+        <v>3405</v>
       </c>
       <c r="D781" t="n">
-        <v>4960222</v>
+        <v>4973492</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -37918,10 +37918,10 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D783" t="n">
-        <v>530612</v>
+        <v>532112</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -37966,10 +37966,10 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D784" t="n">
-        <v>395128</v>
+        <v>404637</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -38014,10 +38014,10 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>11377</v>
+        <v>11410</v>
       </c>
       <c r="D785" t="n">
-        <v>14400910</v>
+        <v>14440904</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -38206,10 +38206,10 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>3957</v>
+        <v>3961</v>
       </c>
       <c r="D789" t="n">
-        <v>5785358</v>
+        <v>5791358</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -38302,10 +38302,10 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="D791" t="n">
-        <v>1818412</v>
+        <v>1825912</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -38398,10 +38398,10 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D793" t="n">
-        <v>731679</v>
+        <v>733179</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -38494,10 +38494,10 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>32157</v>
+        <v>32320</v>
       </c>
       <c r="D795" t="n">
-        <v>39664134</v>
+        <v>39865226</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -38686,10 +38686,10 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>13183</v>
+        <v>13217</v>
       </c>
       <c r="D799" t="n">
-        <v>19287498</v>
+        <v>19337110</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -38782,10 +38782,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>6042</v>
+        <v>6063</v>
       </c>
       <c r="D801" t="n">
-        <v>8729657</v>
+        <v>8760964</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -38830,10 +38830,10 @@
         </is>
       </c>
       <c r="C802" t="n">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D802" t="n">
-        <v>738833</v>
+        <v>743333</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -38926,10 +38926,10 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="D804" t="n">
-        <v>923624</v>
+        <v>932606</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -38974,10 +38974,10 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>7622</v>
+        <v>7663</v>
       </c>
       <c r="D805" t="n">
-        <v>9420331</v>
+        <v>9471182</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -39262,10 +39262,10 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>2684</v>
+        <v>2693</v>
       </c>
       <c r="D811" t="n">
-        <v>3915484</v>
+        <v>3928984</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -39310,10 +39310,10 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="D812" t="n">
-        <v>1643438</v>
+        <v>1649438</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -39406,10 +39406,10 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D814" t="n">
-        <v>324605</v>
+        <v>330602</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -39454,10 +39454,10 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>58992</v>
+        <v>59434</v>
       </c>
       <c r="D815" t="n">
-        <v>73721428</v>
+        <v>74291240</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -39694,10 +39694,10 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>21170</v>
+        <v>21246</v>
       </c>
       <c r="D820" t="n">
-        <v>30970458</v>
+        <v>31084458</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -39838,10 +39838,10 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>12614</v>
+        <v>12693</v>
       </c>
       <c r="D823" t="n">
-        <v>18207810</v>
+        <v>18325272</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -40078,10 +40078,10 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>1325</v>
+        <v>1333</v>
       </c>
       <c r="D828" t="n">
-        <v>1848107</v>
+        <v>1860107</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -40126,10 +40126,10 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>11138</v>
+        <v>11208</v>
       </c>
       <c r="D829" t="n">
-        <v>13886505</v>
+        <v>13982185</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -40318,10 +40318,10 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>3917</v>
+        <v>3943</v>
       </c>
       <c r="D833" t="n">
-        <v>5693057</v>
+        <v>5730309</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -40414,10 +40414,10 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="D835" t="n">
-        <v>1773549</v>
+        <v>1788549</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -40654,10 +40654,10 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>58576</v>
+        <v>58863</v>
       </c>
       <c r="D840" t="n">
-        <v>72419667</v>
+        <v>72789174</v>
       </c>
       <c r="E840" t="inlineStr">
         <is>
@@ -40942,10 +40942,10 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>22331</v>
+        <v>22386</v>
       </c>
       <c r="D846" t="n">
-        <v>32764808</v>
+        <v>32846733</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -41038,10 +41038,10 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>14342</v>
+        <v>14403</v>
       </c>
       <c r="D848" t="n">
-        <v>20763543</v>
+        <v>20853646</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -41182,10 +41182,10 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>1248</v>
+        <v>1257</v>
       </c>
       <c r="D851" t="n">
-        <v>1734936</v>
+        <v>1747825</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -41278,10 +41278,10 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>7752</v>
+        <v>7787</v>
       </c>
       <c r="D853" t="n">
-        <v>9511458</v>
+        <v>9552679</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -41374,10 +41374,10 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>2572</v>
+        <v>2578</v>
       </c>
       <c r="D855" t="n">
-        <v>3744895</v>
+        <v>3753895</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -41422,10 +41422,10 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D856" t="n">
-        <v>1558078</v>
+        <v>1559578</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -41566,10 +41566,10 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>3606</v>
+        <v>3625</v>
       </c>
       <c r="D859" t="n">
-        <v>4661138</v>
+        <v>4685296</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -41710,10 +41710,10 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="D862" t="n">
-        <v>1708582</v>
+        <v>1711582</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -41902,10 +41902,10 @@
         </is>
       </c>
       <c r="C866" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D866" t="n">
-        <v>148155</v>
+        <v>149655</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -41950,10 +41950,10 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>22359</v>
+        <v>22442</v>
       </c>
       <c r="D867" t="n">
-        <v>28011969</v>
+        <v>28122463</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -42142,10 +42142,10 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>7747</v>
+        <v>7763</v>
       </c>
       <c r="D871" t="n">
-        <v>11308769</v>
+        <v>11332769</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -42238,10 +42238,10 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>4630</v>
+        <v>4651</v>
       </c>
       <c r="D873" t="n">
-        <v>6695151</v>
+        <v>6725086</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -42334,10 +42334,10 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D875" t="n">
-        <v>538519</v>
+        <v>540019</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -42382,10 +42382,10 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D876" t="n">
-        <v>600055</v>
+        <v>606705</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -42478,10 +42478,10 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>14527</v>
+        <v>14582</v>
       </c>
       <c r="D878" t="n">
-        <v>17512386</v>
+        <v>17583761</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -42670,10 +42670,10 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>5241</v>
+        <v>5259</v>
       </c>
       <c r="D882" t="n">
-        <v>7644110</v>
+        <v>7671110</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -42718,10 +42718,10 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D883" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -42766,10 +42766,10 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>2364</v>
+        <v>2377</v>
       </c>
       <c r="D884" t="n">
-        <v>3399041</v>
+        <v>3418541</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -42910,10 +42910,10 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D887" t="n">
-        <v>413475</v>
+        <v>420975</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -42958,10 +42958,10 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>9790</v>
+        <v>9837</v>
       </c>
       <c r="D888" t="n">
-        <v>12027498</v>
+        <v>12082249</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -43054,10 +43054,10 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D890" t="n">
-        <v>36310</v>
+        <v>37810</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -43102,10 +43102,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>3351</v>
+        <v>3355</v>
       </c>
       <c r="D891" t="n">
-        <v>4909656</v>
+        <v>4914826</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -43150,10 +43150,10 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>1494</v>
+        <v>1500</v>
       </c>
       <c r="D892" t="n">
-        <v>2147719</v>
+        <v>2156608</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -43246,10 +43246,10 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D894" t="n">
-        <v>270819</v>
+        <v>273819</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -43294,10 +43294,10 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>44618</v>
+        <v>44910</v>
       </c>
       <c r="D895" t="n">
-        <v>56020713</v>
+        <v>56396913</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -43534,10 +43534,10 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>21065</v>
+        <v>21124</v>
       </c>
       <c r="D900" t="n">
-        <v>30884499</v>
+        <v>30971707</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -43630,10 +43630,10 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>5888</v>
+        <v>5940</v>
       </c>
       <c r="D902" t="n">
-        <v>8485087</v>
+        <v>8562624</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -43678,10 +43678,10 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D903" t="n">
-        <v>890955</v>
+        <v>892455</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -43774,10 +43774,10 @@
         </is>
       </c>
       <c r="C905" t="n">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="D905" t="n">
-        <v>1306062</v>
+        <v>1319562</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -43822,10 +43822,10 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>21220</v>
+        <v>21322</v>
       </c>
       <c r="D906" t="n">
-        <v>26399095</v>
+        <v>26527956</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -43918,10 +43918,10 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D908" t="n">
-        <v>165923</v>
+        <v>167423</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -43966,10 +43966,10 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>9763</v>
+        <v>9784</v>
       </c>
       <c r="D909" t="n">
-        <v>14306196</v>
+        <v>14336696</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -44062,10 +44062,10 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>2274</v>
+        <v>2282</v>
       </c>
       <c r="D911" t="n">
-        <v>3259165</v>
+        <v>3270465</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -44206,10 +44206,10 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="D914" t="n">
-        <v>895350</v>
+        <v>901350</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -44254,10 +44254,10 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>7044</v>
+        <v>7084</v>
       </c>
       <c r="D915" t="n">
-        <v>8851071</v>
+        <v>8902678</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -44494,10 +44494,10 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>3017</v>
+        <v>3028</v>
       </c>
       <c r="D920" t="n">
-        <v>4442589</v>
+        <v>4457197</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -44542,10 +44542,10 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D921" t="n">
-        <v>915449</v>
+        <v>918449</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -44638,10 +44638,10 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D923" t="n">
-        <v>253425</v>
+        <v>256425</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -44686,10 +44686,10 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>13035</v>
+        <v>13108</v>
       </c>
       <c r="D924" t="n">
-        <v>16228535</v>
+        <v>16322069</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -44878,10 +44878,10 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>5252</v>
+        <v>5267</v>
       </c>
       <c r="D928" t="n">
-        <v>7671995</v>
+        <v>7693685</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -44974,10 +44974,10 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>1385</v>
+        <v>1395</v>
       </c>
       <c r="D930" t="n">
-        <v>1986057</v>
+        <v>2001057</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -45166,10 +45166,10 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D934" t="n">
-        <v>371934</v>
+        <v>373434</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -45214,10 +45214,10 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>19323</v>
+        <v>19406</v>
       </c>
       <c r="D935" t="n">
-        <v>24138741</v>
+        <v>24241381</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -45406,10 +45406,10 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>10080</v>
+        <v>10096</v>
       </c>
       <c r="D939" t="n">
-        <v>14734216</v>
+        <v>14758216</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -45502,10 +45502,10 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>2062</v>
+        <v>2075</v>
       </c>
       <c r="D941" t="n">
-        <v>2973819</v>
+        <v>2992774</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -45598,10 +45598,10 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D943" t="n">
-        <v>626294</v>
+        <v>633794</v>
       </c>
       <c r="E943" t="inlineStr">
         <is>
@@ -45646,10 +45646,10 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>8629</v>
+        <v>8670</v>
       </c>
       <c r="D944" t="n">
-        <v>10765125</v>
+        <v>10817444</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
@@ -45886,10 +45886,10 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>3202</v>
+        <v>3212</v>
       </c>
       <c r="D949" t="n">
-        <v>4670785</v>
+        <v>4685785</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -45934,10 +45934,10 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>1499</v>
+        <v>1504</v>
       </c>
       <c r="D950" t="n">
-        <v>2162309</v>
+        <v>2168903</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -46078,10 +46078,10 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D953" t="n">
-        <v>297740</v>
+        <v>299090</v>
       </c>
       <c r="E953" t="inlineStr">
         <is>
@@ -46126,10 +46126,10 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>67236</v>
+        <v>67800</v>
       </c>
       <c r="D954" t="n">
-        <v>86301057</v>
+        <v>87075438</v>
       </c>
       <c r="E954" t="inlineStr">
         <is>
@@ -46222,10 +46222,10 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D956" t="n">
-        <v>104705</v>
+        <v>106205</v>
       </c>
       <c r="E956" t="inlineStr">
         <is>
@@ -46366,10 +46366,10 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D959" t="n">
-        <v>290179</v>
+        <v>291679</v>
       </c>
       <c r="E959" t="inlineStr">
         <is>
@@ -46414,10 +46414,10 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D960" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="E960" t="inlineStr">
         <is>
@@ -46462,10 +46462,10 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>25586</v>
+        <v>25717</v>
       </c>
       <c r="D961" t="n">
-        <v>37497849</v>
+        <v>37689528</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
@@ -46558,10 +46558,10 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>17633</v>
+        <v>17783</v>
       </c>
       <c r="D963" t="n">
-        <v>25561557</v>
+        <v>25781562</v>
       </c>
       <c r="E963" t="inlineStr">
         <is>
@@ -46654,10 +46654,10 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D965" t="n">
-        <v>706696</v>
+        <v>710416</v>
       </c>
       <c r="E965" t="inlineStr">
         <is>
@@ -46702,10 +46702,10 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="D966" t="n">
-        <v>1247221</v>
+        <v>1260273</v>
       </c>
       <c r="E966" t="inlineStr">
         <is>
@@ -46750,10 +46750,10 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>83965</v>
+        <v>84430</v>
       </c>
       <c r="D967" t="n">
-        <v>105377490</v>
+        <v>105978703</v>
       </c>
       <c r="E967" t="inlineStr">
         <is>
@@ -47038,10 +47038,10 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D973" t="n">
-        <v>411780</v>
+        <v>413280</v>
       </c>
       <c r="E973" t="inlineStr">
         <is>
@@ -47086,10 +47086,10 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>33833</v>
+        <v>33952</v>
       </c>
       <c r="D974" t="n">
-        <v>49621127</v>
+        <v>49795475</v>
       </c>
       <c r="E974" t="inlineStr">
         <is>
@@ -47230,10 +47230,10 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>25210</v>
+        <v>25342</v>
       </c>
       <c r="D977" t="n">
-        <v>36563263</v>
+        <v>36758268</v>
       </c>
       <c r="E977" t="inlineStr">
         <is>
@@ -47278,10 +47278,10 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D978" t="n">
-        <v>878552</v>
+        <v>880305</v>
       </c>
       <c r="E978" t="inlineStr">
         <is>
@@ -47374,10 +47374,10 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="D980" t="n">
-        <v>2804205</v>
+        <v>2818908</v>
       </c>
       <c r="E980" t="inlineStr">
         <is>
@@ -47422,10 +47422,10 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>10775</v>
+        <v>10820</v>
       </c>
       <c r="D981" t="n">
-        <v>14051991</v>
+        <v>14107759</v>
       </c>
       <c r="E981" t="inlineStr">
         <is>
@@ -47566,10 +47566,10 @@
         </is>
       </c>
       <c r="C984" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D984" t="n">
-        <v>70668</v>
+        <v>72168</v>
       </c>
       <c r="E984" t="inlineStr">
         <is>
@@ -47614,10 +47614,10 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>3466</v>
+        <v>3474</v>
       </c>
       <c r="D985" t="n">
-        <v>5062195</v>
+        <v>5074124</v>
       </c>
       <c r="E985" t="inlineStr">
         <is>
@@ -47662,10 +47662,10 @@
         </is>
       </c>
       <c r="C986" t="n">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="D986" t="n">
-        <v>1608689</v>
+        <v>1619927</v>
       </c>
       <c r="E986" t="inlineStr">
         <is>
@@ -47902,10 +47902,10 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>56017</v>
+        <v>56226</v>
       </c>
       <c r="D991" t="n">
-        <v>70115457</v>
+        <v>70387189</v>
       </c>
       <c r="E991" t="inlineStr">
         <is>
@@ -48142,10 +48142,10 @@
         </is>
       </c>
       <c r="C996" t="n">
-        <v>18507</v>
+        <v>18544</v>
       </c>
       <c r="D996" t="n">
-        <v>27103630</v>
+        <v>27158730</v>
       </c>
       <c r="E996" t="inlineStr">
         <is>
@@ -48238,10 +48238,10 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>12626</v>
+        <v>12675</v>
       </c>
       <c r="D998" t="n">
-        <v>18258849</v>
+        <v>18329435</v>
       </c>
       <c r="E998" t="inlineStr">
         <is>
@@ -48382,10 +48382,10 @@
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="D1001" t="n">
-        <v>1043935</v>
+        <v>1051993</v>
       </c>
       <c r="E1001" t="inlineStr">
         <is>
@@ -48430,10 +48430,10 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>28285</v>
+        <v>28404</v>
       </c>
       <c r="D1002" t="n">
-        <v>35194609</v>
+        <v>35338789</v>
       </c>
       <c r="E1002" t="inlineStr">
         <is>
@@ -48622,10 +48622,10 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1006" t="n">
-        <v>109260</v>
+        <v>110760</v>
       </c>
       <c r="E1006" t="inlineStr">
         <is>
@@ -48670,10 +48670,10 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>10495</v>
+        <v>10525</v>
       </c>
       <c r="D1007" t="n">
-        <v>15371236</v>
+        <v>15414390</v>
       </c>
       <c r="E1007" t="inlineStr">
         <is>
@@ -48766,10 +48766,10 @@
         </is>
       </c>
       <c r="C1009" t="n">
-        <v>6226</v>
+        <v>6247</v>
       </c>
       <c r="D1009" t="n">
-        <v>9029105</v>
+        <v>9060425</v>
       </c>
       <c r="E1009" t="inlineStr">
         <is>
@@ -48814,10 +48814,10 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D1010" t="n">
-        <v>748918</v>
+        <v>750418</v>
       </c>
       <c r="E1010" t="inlineStr">
         <is>
@@ -48862,10 +48862,10 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D1011" t="n">
-        <v>718816</v>
+        <v>727816</v>
       </c>
       <c r="E1011" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16487</v>
+        <v>16559</v>
       </c>
       <c r="D2" t="n">
-        <v>20727298</v>
+        <v>20815816</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>66000</v>
+        <v>67500</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6265</v>
+        <v>6282</v>
       </c>
       <c r="D6" t="n">
-        <v>9161905</v>
+        <v>9186717</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3308</v>
+        <v>3319</v>
       </c>
       <c r="D8" t="n">
-        <v>4787205</v>
+        <v>4802902</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D11" t="n">
-        <v>526673</v>
+        <v>529673</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11057</v>
+        <v>11090</v>
       </c>
       <c r="D12" t="n">
-        <v>13953254</v>
+        <v>13995711</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3245</v>
+        <v>3254</v>
       </c>
       <c r="D16" t="n">
-        <v>4726588</v>
+        <v>4738726</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="D18" t="n">
-        <v>2108720</v>
+        <v>2114720</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D21" t="n">
-        <v>292253</v>
+        <v>296753</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14335</v>
+        <v>14389</v>
       </c>
       <c r="D22" t="n">
-        <v>17574276</v>
+        <v>17631725</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4958</v>
+        <v>4968</v>
       </c>
       <c r="D26" t="n">
-        <v>7250416</v>
+        <v>7265364</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1731</v>
+        <v>1740</v>
       </c>
       <c r="D28" t="n">
-        <v>2474493</v>
+        <v>2487993</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D29" t="n">
-        <v>360412</v>
+        <v>361912</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D31" t="n">
-        <v>470903</v>
+        <v>476903</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6624</v>
+        <v>6646</v>
       </c>
       <c r="D32" t="n">
-        <v>8802609</v>
+        <v>8831522</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D35" t="n">
-        <v>2332410</v>
+        <v>2335410</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D40" t="n">
-        <v>182474</v>
+        <v>183974</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2302,10 +2302,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>22003</v>
+        <v>22076</v>
       </c>
       <c r="D41" t="n">
-        <v>27074400</v>
+        <v>27160773</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>7824</v>
+        <v>7839</v>
       </c>
       <c r="D47" t="n">
-        <v>11493460</v>
+        <v>11515450</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3854</v>
+        <v>3866</v>
       </c>
       <c r="D49" t="n">
-        <v>5577249</v>
+        <v>5595249</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="D52" t="n">
-        <v>837603</v>
+        <v>843769</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8174</v>
+        <v>8198</v>
       </c>
       <c r="D53" t="n">
-        <v>10428872</v>
+        <v>10458392</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2787</v>
+        <v>2792</v>
       </c>
       <c r="D57" t="n">
-        <v>4053621</v>
+        <v>4060635</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="D59" t="n">
-        <v>1451084</v>
+        <v>1454309</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D61" t="n">
-        <v>352961</v>
+        <v>354461</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>36392</v>
+        <v>36556</v>
       </c>
       <c r="D62" t="n">
-        <v>46854944</v>
+        <v>47063763</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D66" t="n">
-        <v>108556</v>
+        <v>110056</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>13222</v>
+        <v>13269</v>
       </c>
       <c r="D67" t="n">
-        <v>19391819</v>
+        <v>19458877</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5178</v>
+        <v>5208</v>
       </c>
       <c r="D69" t="n">
-        <v>7487718</v>
+        <v>7529492</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D71" t="n">
-        <v>404940</v>
+        <v>406440</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D73" t="n">
-        <v>487176</v>
+        <v>488676</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>46567</v>
+        <v>46729</v>
       </c>
       <c r="D75" t="n">
-        <v>59510219</v>
+        <v>59716094</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D77" t="n">
-        <v>46101</v>
+        <v>47601</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>18184</v>
+        <v>18230</v>
       </c>
       <c r="D79" t="n">
-        <v>26641791</v>
+        <v>26710551</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>9404</v>
+        <v>9441</v>
       </c>
       <c r="D81" t="n">
-        <v>13575377</v>
+        <v>13630627</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="D85" t="n">
-        <v>1135817</v>
+        <v>1145767</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>25095</v>
+        <v>25193</v>
       </c>
       <c r="D86" t="n">
-        <v>31643784</v>
+        <v>31767293</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4558,10 +4558,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D88" t="n">
-        <v>182254</v>
+        <v>183141</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>8711</v>
+        <v>8733</v>
       </c>
       <c r="D90" t="n">
-        <v>12787093</v>
+        <v>12820093</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4929</v>
+        <v>4951</v>
       </c>
       <c r="D92" t="n">
-        <v>7124650</v>
+        <v>7157650</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D93" t="n">
-        <v>514622</v>
+        <v>516122</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="D94" t="n">
-        <v>1079815</v>
+        <v>1098961</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>22094</v>
+        <v>22183</v>
       </c>
       <c r="D95" t="n">
-        <v>27734447</v>
+        <v>27842670</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>9199</v>
+        <v>9225</v>
       </c>
       <c r="D99" t="n">
-        <v>13466138</v>
+        <v>13505138</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3341</v>
+        <v>3353</v>
       </c>
       <c r="D101" t="n">
-        <v>4785348</v>
+        <v>4803348</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D103" t="n">
-        <v>12271</v>
+        <v>13771</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D105" t="n">
-        <v>633594</v>
+        <v>635094</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5422,10 +5422,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>82568</v>
+        <v>83065</v>
       </c>
       <c r="D106" t="n">
-        <v>105815803</v>
+        <v>106468547</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5758,10 +5758,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>30716</v>
+        <v>30816</v>
       </c>
       <c r="D113" t="n">
-        <v>45074491</v>
+        <v>45221357</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>21017</v>
+        <v>21127</v>
       </c>
       <c r="D115" t="n">
-        <v>30330403</v>
+        <v>30491445</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1912</v>
+        <v>1926</v>
       </c>
       <c r="D122" t="n">
-        <v>2690563</v>
+        <v>2711563</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>27849</v>
+        <v>27941</v>
       </c>
       <c r="D123" t="n">
-        <v>36751442</v>
+        <v>36870652</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D124" t="n">
-        <v>120456</v>
+        <v>121956</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>9908</v>
+        <v>9934</v>
       </c>
       <c r="D127" t="n">
-        <v>14530307</v>
+        <v>14568523</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3286</v>
+        <v>3293</v>
       </c>
       <c r="D129" t="n">
-        <v>4778387</v>
+        <v>4788887</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D132" t="n">
-        <v>502302</v>
+        <v>504652</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>15869</v>
+        <v>15943</v>
       </c>
       <c r="D133" t="n">
-        <v>19733943</v>
+        <v>19822034</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>7787</v>
+        <v>7809</v>
       </c>
       <c r="D137" t="n">
-        <v>11391982</v>
+        <v>11424982</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -7006,10 +7006,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2225</v>
+        <v>2239</v>
       </c>
       <c r="D139" t="n">
-        <v>3176297</v>
+        <v>3197297</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D143" t="n">
-        <v>549915</v>
+        <v>557415</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>13634</v>
+        <v>13714</v>
       </c>
       <c r="D144" t="n">
-        <v>17025148</v>
+        <v>17120326</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7438,10 +7438,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>6267</v>
+        <v>6283</v>
       </c>
       <c r="D148" t="n">
-        <v>9180657</v>
+        <v>9204263</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="D150" t="n">
-        <v>2889999</v>
+        <v>2900274</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D153" t="n">
-        <v>513908</v>
+        <v>517647</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>6023</v>
+        <v>6050</v>
       </c>
       <c r="D154" t="n">
-        <v>7370434</v>
+        <v>7406533</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2060</v>
+        <v>2068</v>
       </c>
       <c r="D157" t="n">
-        <v>3021357</v>
+        <v>3032857</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D158" t="n">
-        <v>986327</v>
+        <v>987827</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>7495</v>
+        <v>7519</v>
       </c>
       <c r="D162" t="n">
-        <v>9289362</v>
+        <v>9319301</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2867</v>
+        <v>2879</v>
       </c>
       <c r="D165" t="n">
-        <v>4204182</v>
+        <v>4221928</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="D166" t="n">
-        <v>2019387</v>
+        <v>2026887</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8494,10 +8494,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>5653</v>
+        <v>5667</v>
       </c>
       <c r="D170" t="n">
-        <v>7105934</v>
+        <v>7122947</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8734,10 +8734,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2033</v>
+        <v>2038</v>
       </c>
       <c r="D175" t="n">
-        <v>2967258</v>
+        <v>2974758</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D177" t="n">
-        <v>998972</v>
+        <v>1001972</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -8926,10 +8926,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D179" t="n">
-        <v>139742</v>
+        <v>142742</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -8974,10 +8974,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>16081</v>
+        <v>16150</v>
       </c>
       <c r="D180" t="n">
-        <v>20194073</v>
+        <v>20277036</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>6415</v>
+        <v>6438</v>
       </c>
       <c r="D185" t="n">
-        <v>9369947</v>
+        <v>9403688</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2235</v>
+        <v>2242</v>
       </c>
       <c r="D186" t="n">
-        <v>3208037</v>
+        <v>3218537</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D189" t="n">
-        <v>638412</v>
+        <v>647412</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3094</v>
+        <v>3101</v>
       </c>
       <c r="D190" t="n">
-        <v>3884891</v>
+        <v>3893922</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9550,10 +9550,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="D192" t="n">
-        <v>2165742</v>
+        <v>2170242</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D194" t="n">
-        <v>815136</v>
+        <v>819636</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>9279</v>
+        <v>9303</v>
       </c>
       <c r="D198" t="n">
-        <v>11587365</v>
+        <v>11615785</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3443</v>
+        <v>3455</v>
       </c>
       <c r="D202" t="n">
-        <v>5058307</v>
+        <v>5075707</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="D203" t="n">
-        <v>2346885</v>
+        <v>2348385</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10222,10 +10222,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D206" t="n">
-        <v>303597</v>
+        <v>305097</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>17350</v>
+        <v>17410</v>
       </c>
       <c r="D207" t="n">
-        <v>21657853</v>
+        <v>21732487</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D210" t="n">
-        <v>272528</v>
+        <v>274028</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>7712</v>
+        <v>7731</v>
       </c>
       <c r="D211" t="n">
-        <v>11325115</v>
+        <v>11353282</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1249</v>
+        <v>1255</v>
       </c>
       <c r="D212" t="n">
-        <v>1787550</v>
+        <v>1796550</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D214" t="n">
-        <v>667496</v>
+        <v>670496</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>26283</v>
+        <v>26359</v>
       </c>
       <c r="D215" t="n">
-        <v>33139510</v>
+        <v>33233320</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>10517</v>
+        <v>10545</v>
       </c>
       <c r="D219" t="n">
-        <v>15359461</v>
+        <v>15400958</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>2650</v>
+        <v>2661</v>
       </c>
       <c r="D221" t="n">
-        <v>3820176</v>
+        <v>3836676</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -11086,10 +11086,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D224" t="n">
-        <v>858617</v>
+        <v>862552</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -11134,10 +11134,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>28694</v>
+        <v>28808</v>
       </c>
       <c r="D225" t="n">
-        <v>36194408</v>
+        <v>36334422</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>14798</v>
+        <v>14834</v>
       </c>
       <c r="D230" t="n">
-        <v>21712658</v>
+        <v>21765958</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>2680</v>
+        <v>2695</v>
       </c>
       <c r="D232" t="n">
-        <v>3848505</v>
+        <v>3870062</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D234" t="n">
-        <v>513882</v>
+        <v>515382</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D235" t="n">
-        <v>1029728</v>
+        <v>1036580</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11662,10 +11662,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>24419</v>
+        <v>24521</v>
       </c>
       <c r="D236" t="n">
-        <v>30797356</v>
+        <v>30915668</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>11224</v>
+        <v>11246</v>
       </c>
       <c r="D242" t="n">
-        <v>16452490</v>
+        <v>16483080</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>2519</v>
+        <v>2530</v>
       </c>
       <c r="D244" t="n">
-        <v>3598565</v>
+        <v>3615065</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D246" t="n">
-        <v>588343</v>
+        <v>590436</v>
       </c>
       <c r="E246" t="inlin